--- a/Customer/Cust 2025/Cargo W99 2025.xlsx
+++ b/Customer/Cust 2025/Cargo W99 2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo CUST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Customer\Cust 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383EF264-153D-4790-9841-A0BE71219506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E8FB8D-ED69-4B43-A289-539A21D9521F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E000C531-AA46-4CF4-8BD7-2185A135A010}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="369">
   <si>
     <t>Hijau barang terkirim, Lunas, beres</t>
   </si>
@@ -2488,6 +2488,346 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>M09</t>
+  </si>
+  <si>
+    <t>A0034383</t>
+  </si>
+  <si>
+    <r>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:1547998617526</t>
+    </r>
+  </si>
+  <si>
+    <t>279/W99/GN218/AIR</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Wrist watch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20RMB</t>
+    </r>
+  </si>
+  <si>
+    <t>M59</t>
+  </si>
+  <si>
+    <t>A0035072</t>
+  </si>
+  <si>
+    <r>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:15493453681953</t>
+    </r>
+  </si>
+  <si>
+    <t>M60</t>
+  </si>
+  <si>
+    <r>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:0267145765069</t>
+    </r>
+  </si>
+  <si>
+    <t>M30</t>
+  </si>
+  <si>
+    <t>A0035052</t>
+  </si>
+  <si>
+    <r>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:3153679271470</t>
+    </r>
+  </si>
+  <si>
+    <t>W99/GN218/AIR</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>A0034534</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1537551632260</t>
+    </r>
+  </si>
+  <si>
+    <t>W52</t>
+  </si>
+  <si>
+    <t>A0034709</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DPK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德邦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:202498532259</t>
+    </r>
+  </si>
+  <si>
+    <t>279-W99-GN220-AIR</t>
+  </si>
+  <si>
+    <t>自行车bicycle</t>
+  </si>
+  <si>
+    <t>X45</t>
+  </si>
+  <si>
+    <t>A0034756</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZTO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中通：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>73544788285596</t>
+    </r>
+  </si>
+  <si>
+    <t>279-W99-HW-AIR</t>
+  </si>
+  <si>
+    <t>茶叶tea</t>
+  </si>
+  <si>
+    <t>S0084123</t>
+  </si>
+  <si>
+    <t>109922969111 /18111611101</t>
+  </si>
+  <si>
+    <t>279/W99/TNT/SEA</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>S0083927</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>壹米滴答：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>109921861511</t>
+    </r>
+  </si>
+  <si>
+    <t>279/W99/ROBERT/SEA</t>
+  </si>
+  <si>
+    <t>轮胎tyre</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2200RMB</t>
+    </r>
+  </si>
+  <si>
+    <t>先不走</t>
   </si>
 </sst>
 </file>
@@ -2725,7 +3065,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3024,125 +3364,161 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3460,11 +3836,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03568550-BD00-482C-9F46-E2F5DB6F38F1}">
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="3" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3544,11 +3920,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="119" t="s">
+      <c r="K2" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -3560,10 +3936,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="120"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -3625,12 +4001,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.5">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
       <c r="F6" s="71" t="s">
         <v>221</v>
       </c>
@@ -3650,16 +4026,16 @@
       <c r="P6" s="74"/>
     </row>
     <row r="7" spans="1:16" ht="37.5">
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="103" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="106" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="112" t="s">
+      <c r="D7" s="103" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="116">
+      <c r="E7" s="109">
         <v>45659</v>
       </c>
       <c r="F7" s="75" t="s">
@@ -3671,7 +4047,7 @@
       <c r="H7" s="76">
         <v>1</v>
       </c>
-      <c r="I7" s="112">
+      <c r="I7" s="103">
         <v>255</v>
       </c>
       <c r="J7" s="77">
@@ -3686,21 +4062,21 @@
       <c r="M7" s="76">
         <v>62</v>
       </c>
-      <c r="N7" s="113">
+      <c r="N7" s="112">
         <v>45663</v>
       </c>
-      <c r="O7" s="113">
+      <c r="O7" s="112">
         <v>45705</v>
       </c>
-      <c r="P7" s="112" t="s">
+      <c r="P7" s="103" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="21">
-      <c r="B8" s="110"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="117"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="75" t="s">
         <v>228</v>
       </c>
@@ -3710,7 +4086,7 @@
       <c r="H8" s="76">
         <v>1</v>
       </c>
-      <c r="I8" s="110"/>
+      <c r="I8" s="104"/>
       <c r="J8" s="77">
         <v>0.54978000000000005</v>
       </c>
@@ -3723,15 +4099,15 @@
       <c r="M8" s="76">
         <v>77</v>
       </c>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
     </row>
     <row r="9" spans="1:16" ht="37.5">
-      <c r="B9" s="110"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="117"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="75" t="s">
         <v>230</v>
       </c>
@@ -3741,7 +4117,7 @@
       <c r="H9" s="76">
         <v>1</v>
       </c>
-      <c r="I9" s="110"/>
+      <c r="I9" s="104"/>
       <c r="J9" s="77">
         <v>0.51480000000000004</v>
       </c>
@@ -3754,15 +4130,15 @@
       <c r="M9" s="76">
         <v>65</v>
       </c>
-      <c r="N9" s="110"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
     </row>
     <row r="10" spans="1:16" ht="56.25">
-      <c r="B10" s="111"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="118"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="111"/>
       <c r="F10" s="75" t="s">
         <v>232</v>
       </c>
@@ -3772,7 +4148,7 @@
       <c r="H10" s="76">
         <v>1</v>
       </c>
-      <c r="I10" s="111"/>
+      <c r="I10" s="105"/>
       <c r="J10" s="77">
         <v>7.3800000000000004E-2</v>
       </c>
@@ -3785,17 +4161,17 @@
       <c r="M10" s="76">
         <v>18</v>
       </c>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
     </row>
     <row r="11" spans="1:16" ht="22.5">
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
       <c r="F11" s="71" t="s">
         <v>232</v>
       </c>
@@ -3865,12 +4241,12 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="22.5">
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
       <c r="F13" s="71" t="s">
         <v>239</v>
       </c>
@@ -3942,12 +4318,12 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="22.5">
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
       <c r="F15" s="71" t="s">
         <v>242</v>
       </c>
@@ -4016,12 +4392,12 @@
       </c>
     </row>
     <row r="17" spans="2:16" ht="22.5">
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
       <c r="F17" s="71" t="s">
         <v>246</v>
       </c>
@@ -4086,12 +4462,12 @@
       </c>
     </row>
     <row r="19" spans="2:16" ht="22.5">
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
       <c r="F19" s="71" t="s">
         <v>252</v>
       </c>
@@ -4159,12 +4535,12 @@
       </c>
     </row>
     <row r="21" spans="2:16" ht="22.5">
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
       <c r="F21" s="71" t="s">
         <v>255</v>
       </c>
@@ -4233,12 +4609,12 @@
       </c>
     </row>
     <row r="23" spans="2:16" ht="22.5">
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
       <c r="F23" s="71" t="s">
         <v>232</v>
       </c>
@@ -4306,12 +4682,12 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="22.5">
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
       <c r="F25" s="89" t="s">
         <v>267</v>
       </c>
@@ -4381,12 +4757,12 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="22.5">
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
       <c r="F27" s="71" t="s">
         <v>239</v>
       </c>
@@ -4456,12 +4832,12 @@
       </c>
     </row>
     <row r="29" spans="2:16" ht="22.5">
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
       <c r="F29" s="71" t="s">
         <v>267</v>
       </c>
@@ -4531,12 +4907,12 @@
       </c>
     </row>
     <row r="31" spans="2:16" ht="22.5">
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
       <c r="F31" s="89" t="s">
         <v>267</v>
       </c>
@@ -4606,12 +4982,12 @@
       </c>
     </row>
     <row r="33" spans="2:16" ht="22.5">
-      <c r="B33" s="100" t="s">
+      <c r="B33" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
       <c r="F33" s="71" t="s">
         <v>239</v>
       </c>
@@ -4679,12 +5055,12 @@
       </c>
     </row>
     <row r="35" spans="2:16" ht="22.5">
-      <c r="B35" s="100" t="s">
+      <c r="B35" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
       <c r="F35" s="71" t="s">
         <v>267</v>
       </c>
@@ -4749,12 +5125,12 @@
       <c r="P36" s="38"/>
     </row>
     <row r="37" spans="2:16" ht="22.5">
-      <c r="B37" s="100" t="s">
+      <c r="B37" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
       <c r="F37" s="71" t="s">
         <v>276</v>
       </c>
@@ -4774,28 +5150,28 @@
       <c r="P37" s="74"/>
     </row>
     <row r="38" spans="2:16" ht="21">
-      <c r="B38" s="112" t="s">
+      <c r="B38" s="103" t="s">
         <v>277</v>
       </c>
-      <c r="C38" s="109" t="s">
+      <c r="C38" s="106" t="s">
         <v>278</v>
       </c>
-      <c r="D38" s="112" t="s">
+      <c r="D38" s="103" t="s">
         <v>279</v>
       </c>
-      <c r="E38" s="116">
+      <c r="E38" s="109">
         <v>45668</v>
       </c>
       <c r="F38" s="75" t="s">
         <v>280</v>
       </c>
-      <c r="G38" s="109" t="s">
+      <c r="G38" s="106" t="s">
         <v>281</v>
       </c>
       <c r="H38" s="76">
         <v>385</v>
       </c>
-      <c r="I38" s="112">
+      <c r="I38" s="103">
         <v>1451</v>
       </c>
       <c r="J38" s="77">
@@ -4810,29 +5186,29 @@
       <c r="M38" s="76">
         <v>30</v>
       </c>
-      <c r="N38" s="113">
+      <c r="N38" s="112">
         <v>45671</v>
       </c>
-      <c r="O38" s="113">
+      <c r="O38" s="112">
         <v>45714</v>
       </c>
-      <c r="P38" s="112" t="s">
+      <c r="P38" s="103" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="21">
-      <c r="B39" s="110"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="117"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="110"/>
       <c r="F39" s="75" t="s">
         <v>283</v>
       </c>
-      <c r="G39" s="115"/>
+      <c r="G39" s="108"/>
       <c r="H39" s="76">
         <v>36</v>
       </c>
-      <c r="I39" s="110"/>
+      <c r="I39" s="104"/>
       <c r="J39" s="77">
         <v>0.29759999999999998</v>
       </c>
@@ -4845,15 +5221,15 @@
       <c r="M39" s="76">
         <v>20</v>
       </c>
-      <c r="N39" s="110"/>
-      <c r="O39" s="110"/>
-      <c r="P39" s="110"/>
+      <c r="N39" s="104"/>
+      <c r="O39" s="104"/>
+      <c r="P39" s="104"/>
     </row>
     <row r="40" spans="2:16" ht="21">
-      <c r="B40" s="110"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="117"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="110"/>
       <c r="F40" s="75" t="s">
         <v>284</v>
       </c>
@@ -4863,7 +5239,7 @@
       <c r="H40" s="76">
         <v>26</v>
       </c>
-      <c r="I40" s="110"/>
+      <c r="I40" s="104"/>
       <c r="J40" s="77">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -4876,15 +5252,15 @@
       <c r="M40" s="76">
         <v>33</v>
       </c>
-      <c r="N40" s="110"/>
-      <c r="O40" s="110"/>
-      <c r="P40" s="110"/>
+      <c r="N40" s="104"/>
+      <c r="O40" s="104"/>
+      <c r="P40" s="104"/>
     </row>
     <row r="41" spans="2:16" ht="21">
-      <c r="B41" s="110"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="117"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="110"/>
       <c r="F41" s="75" t="s">
         <v>286</v>
       </c>
@@ -4894,7 +5270,7 @@
       <c r="H41" s="76">
         <v>121</v>
       </c>
-      <c r="I41" s="110"/>
+      <c r="I41" s="104"/>
       <c r="J41" s="77">
         <v>3.456E-2</v>
       </c>
@@ -4907,15 +5283,15 @@
       <c r="M41" s="76">
         <v>24</v>
       </c>
-      <c r="N41" s="110"/>
-      <c r="O41" s="110"/>
-      <c r="P41" s="110"/>
+      <c r="N41" s="104"/>
+      <c r="O41" s="104"/>
+      <c r="P41" s="104"/>
     </row>
     <row r="42" spans="2:16" ht="37.5">
-      <c r="B42" s="110"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="117"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="110"/>
       <c r="F42" s="75" t="s">
         <v>288</v>
       </c>
@@ -4925,7 +5301,7 @@
       <c r="H42" s="76">
         <v>24</v>
       </c>
-      <c r="I42" s="110"/>
+      <c r="I42" s="104"/>
       <c r="J42" s="77">
         <v>7.4880000000000002E-2</v>
       </c>
@@ -4938,15 +5314,15 @@
       <c r="M42" s="76">
         <v>15</v>
       </c>
-      <c r="N42" s="110"/>
-      <c r="O42" s="110"/>
-      <c r="P42" s="110"/>
+      <c r="N42" s="104"/>
+      <c r="O42" s="104"/>
+      <c r="P42" s="104"/>
     </row>
     <row r="43" spans="2:16" ht="21">
-      <c r="B43" s="111"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="118"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="111"/>
       <c r="F43" s="75" t="s">
         <v>289</v>
       </c>
@@ -4956,7 +5332,7 @@
       <c r="H43" s="76">
         <v>150</v>
       </c>
-      <c r="I43" s="111"/>
+      <c r="I43" s="105"/>
       <c r="J43" s="77">
         <v>1.512</v>
       </c>
@@ -4969,17 +5345,17 @@
       <c r="M43" s="76">
         <v>30</v>
       </c>
-      <c r="N43" s="111"/>
-      <c r="O43" s="111"/>
-      <c r="P43" s="111"/>
+      <c r="N43" s="105"/>
+      <c r="O43" s="105"/>
+      <c r="P43" s="105"/>
     </row>
     <row r="44" spans="2:16" ht="22.5">
-      <c r="B44" s="100" t="s">
+      <c r="B44" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="102"/>
       <c r="F44" s="71" t="s">
         <v>290</v>
       </c>
@@ -4999,28 +5375,28 @@
       <c r="P44" s="79"/>
     </row>
     <row r="45" spans="2:16" ht="21">
-      <c r="B45" s="112" t="s">
+      <c r="B45" s="103" t="s">
         <v>291</v>
       </c>
-      <c r="C45" s="109" t="s">
+      <c r="C45" s="106" t="s">
         <v>292</v>
       </c>
-      <c r="D45" s="112" t="s">
+      <c r="D45" s="103" t="s">
         <v>293</v>
       </c>
-      <c r="E45" s="116">
+      <c r="E45" s="109">
         <v>45668</v>
       </c>
       <c r="F45" s="75" t="s">
         <v>294</v>
       </c>
-      <c r="G45" s="109" t="s">
+      <c r="G45" s="106" t="s">
         <v>295</v>
       </c>
       <c r="H45" s="76">
         <v>300</v>
       </c>
-      <c r="I45" s="112">
+      <c r="I45" s="103">
         <v>680</v>
       </c>
       <c r="J45" s="77">
@@ -5035,29 +5411,29 @@
       <c r="M45" s="76">
         <v>24</v>
       </c>
-      <c r="N45" s="113">
+      <c r="N45" s="112">
         <v>45671</v>
       </c>
-      <c r="O45" s="113">
+      <c r="O45" s="112">
         <v>45714</v>
       </c>
-      <c r="P45" s="112" t="s">
+      <c r="P45" s="103" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="21">
-      <c r="B46" s="110"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="117"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="110"/>
       <c r="F46" s="75" t="s">
         <v>297</v>
       </c>
-      <c r="G46" s="110"/>
+      <c r="G46" s="104"/>
       <c r="H46" s="76">
         <v>80</v>
       </c>
-      <c r="I46" s="110"/>
+      <c r="I46" s="104"/>
       <c r="J46" s="77">
         <v>0.189</v>
       </c>
@@ -5070,23 +5446,23 @@
       <c r="M46" s="76">
         <v>30</v>
       </c>
-      <c r="N46" s="110"/>
-      <c r="O46" s="110"/>
-      <c r="P46" s="110"/>
+      <c r="N46" s="104"/>
+      <c r="O46" s="104"/>
+      <c r="P46" s="104"/>
     </row>
     <row r="47" spans="2:16" ht="21">
-      <c r="B47" s="111"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="118"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="111"/>
       <c r="F47" s="75" t="s">
         <v>298</v>
       </c>
-      <c r="G47" s="111"/>
+      <c r="G47" s="105"/>
       <c r="H47" s="76">
         <v>5100</v>
       </c>
-      <c r="I47" s="111"/>
+      <c r="I47" s="105"/>
       <c r="J47" s="77">
         <v>2.7820800000000001</v>
       </c>
@@ -5099,17 +5475,17 @@
       <c r="M47" s="76">
         <v>28</v>
       </c>
-      <c r="N47" s="111"/>
-      <c r="O47" s="111"/>
-      <c r="P47" s="111"/>
+      <c r="N47" s="105"/>
+      <c r="O47" s="105"/>
+      <c r="P47" s="105"/>
     </row>
     <row r="48" spans="2:16" ht="22.5">
-      <c r="B48" s="100" t="s">
+      <c r="B48" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="100"/>
-      <c r="D48" s="100"/>
-      <c r="E48" s="100"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="102"/>
       <c r="F48" s="71" t="s">
         <v>284</v>
       </c>
@@ -5174,12 +5550,12 @@
       <c r="P49" s="76"/>
     </row>
     <row r="50" spans="2:16" ht="22.5">
-      <c r="B50" s="100" t="s">
+      <c r="B50" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C50" s="100"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
       <c r="F50" s="71" t="s">
         <v>300</v>
       </c>
@@ -5199,24 +5575,24 @@
       <c r="P50" s="79"/>
     </row>
     <row r="51" spans="2:16" ht="21">
-      <c r="B51" s="101" t="s">
+      <c r="B51" s="113" t="s">
         <v>301</v>
       </c>
       <c r="C51" s="38"/>
-      <c r="D51" s="101" t="s">
+      <c r="D51" s="113" t="s">
         <v>263</v>
       </c>
-      <c r="E51" s="104">
+      <c r="E51" s="115">
         <v>45671</v>
       </c>
       <c r="F51" s="68" t="s">
         <v>302</v>
       </c>
-      <c r="G51" s="101" t="s">
+      <c r="G51" s="113" t="s">
         <v>265</v>
       </c>
       <c r="H51" s="38"/>
-      <c r="I51" s="101"/>
+      <c r="I51" s="113"/>
       <c r="J51" s="69">
         <v>7.7367000000000008</v>
       </c>
@@ -5238,16 +5614,16 @@
       <c r="P51" s="38"/>
     </row>
     <row r="52" spans="2:16" ht="21">
-      <c r="B52" s="103"/>
+      <c r="B52" s="114"/>
       <c r="C52" s="38"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="106"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="116"/>
       <c r="F52" s="68" t="s">
         <v>303</v>
       </c>
-      <c r="G52" s="103"/>
+      <c r="G52" s="114"/>
       <c r="H52" s="38"/>
-      <c r="I52" s="103"/>
+      <c r="I52" s="114"/>
       <c r="J52" s="69">
         <v>0.67200000000000004</v>
       </c>
@@ -5265,12 +5641,12 @@
       <c r="P52" s="38"/>
     </row>
     <row r="53" spans="2:16" ht="22.5">
-      <c r="B53" s="100" t="s">
+      <c r="B53" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C53" s="100"/>
-      <c r="D53" s="100"/>
-      <c r="E53" s="100"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
       <c r="F53" s="71" t="s">
         <v>303</v>
       </c>
@@ -5331,12 +5707,12 @@
       <c r="P54" s="38"/>
     </row>
     <row r="55" spans="2:16" ht="22.5">
-      <c r="B55" s="100" t="s">
+      <c r="B55" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C55" s="100"/>
-      <c r="D55" s="100"/>
-      <c r="E55" s="100"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="102"/>
       <c r="F55" s="71" t="s">
         <v>225</v>
       </c>
@@ -5402,12 +5778,12 @@
       <c r="P56" s="76"/>
     </row>
     <row r="57" spans="2:16" ht="22.5">
-      <c r="B57" s="100" t="s">
+      <c r="B57" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C57" s="100"/>
-      <c r="D57" s="100"/>
-      <c r="E57" s="100"/>
+      <c r="C57" s="102"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="102"/>
       <c r="F57" s="71" t="s">
         <v>225</v>
       </c>
@@ -5429,29 +5805,29 @@
       <c r="P57" s="79"/>
     </row>
     <row r="58" spans="2:16" ht="21">
-      <c r="B58" s="101" t="s">
+      <c r="B58" s="113" t="s">
         <v>312</v>
       </c>
-      <c r="C58" s="101" t="s">
+      <c r="C58" s="113" t="s">
         <v>313</v>
       </c>
-      <c r="D58" s="101" t="s">
+      <c r="D58" s="113" t="s">
         <v>217</v>
       </c>
-      <c r="E58" s="104">
+      <c r="E58" s="115">
         <v>45676</v>
       </c>
       <c r="F58" s="68" t="s">
         <v>314</v>
       </c>
-      <c r="G58" s="101" t="s">
+      <c r="G58" s="113" t="s">
         <v>237</v>
       </c>
       <c r="H58" s="38">
         <f>35*28</f>
         <v>980</v>
       </c>
-      <c r="I58" s="101">
+      <c r="I58" s="113">
         <f>25*52</f>
         <v>1300</v>
       </c>
@@ -5468,10 +5844,10 @@
       <c r="M58" s="38">
         <v>29</v>
       </c>
-      <c r="N58" s="108" t="s">
+      <c r="N58" s="117" t="s">
         <v>244</v>
       </c>
-      <c r="O58" s="108" t="s">
+      <c r="O58" s="117" t="s">
         <v>244</v>
       </c>
       <c r="P58" s="95" t="s">
@@ -5479,19 +5855,19 @@
       </c>
     </row>
     <row r="59" spans="2:16" ht="21">
-      <c r="B59" s="103"/>
-      <c r="C59" s="103"/>
-      <c r="D59" s="103"/>
-      <c r="E59" s="106"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="116"/>
       <c r="F59" s="68" t="s">
         <v>315</v>
       </c>
-      <c r="G59" s="103"/>
+      <c r="G59" s="114"/>
       <c r="H59" s="38">
         <f>35*24</f>
         <v>840</v>
       </c>
-      <c r="I59" s="103"/>
+      <c r="I59" s="114"/>
       <c r="J59" s="69">
         <f>K59*L59*M59/1000000*24</f>
         <v>2.3353920000000001</v>
@@ -5505,17 +5881,17 @@
       <c r="M59" s="38">
         <v>36</v>
       </c>
-      <c r="N59" s="103"/>
-      <c r="O59" s="103"/>
+      <c r="N59" s="114"/>
+      <c r="O59" s="114"/>
       <c r="P59" s="96"/>
     </row>
     <row r="60" spans="2:16" ht="22.5">
-      <c r="B60" s="100" t="s">
+      <c r="B60" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C60" s="100"/>
-      <c r="D60" s="100"/>
-      <c r="E60" s="100"/>
+      <c r="C60" s="102"/>
+      <c r="D60" s="102"/>
+      <c r="E60" s="102"/>
       <c r="F60" s="71" t="s">
         <v>316</v>
       </c>
@@ -5537,27 +5913,27 @@
       <c r="P60" s="74"/>
     </row>
     <row r="61" spans="2:16" ht="21">
-      <c r="B61" s="101" t="s">
+      <c r="B61" s="113" t="s">
         <v>317</v>
       </c>
-      <c r="C61" s="101"/>
-      <c r="D61" s="101" t="s">
+      <c r="C61" s="113"/>
+      <c r="D61" s="113" t="s">
         <v>217</v>
       </c>
-      <c r="E61" s="104">
+      <c r="E61" s="115">
         <v>45677</v>
       </c>
       <c r="F61" s="68" t="s">
         <v>318</v>
       </c>
-      <c r="G61" s="101" t="s">
+      <c r="G61" s="113" t="s">
         <v>237</v>
       </c>
       <c r="H61" s="38">
         <f>50*20+60*32+40</f>
         <v>2960</v>
       </c>
-      <c r="I61" s="101">
+      <c r="I61" s="113">
         <f>25*339</f>
         <v>8475</v>
       </c>
@@ -5574,10 +5950,10 @@
       <c r="M61" s="38">
         <v>40</v>
       </c>
-      <c r="N61" s="101" t="s">
+      <c r="N61" s="113" t="s">
         <v>244</v>
       </c>
-      <c r="O61" s="101" t="s">
+      <c r="O61" s="113" t="s">
         <v>244</v>
       </c>
       <c r="P61" s="38" t="s">
@@ -5585,19 +5961,19 @@
       </c>
     </row>
     <row r="62" spans="2:16" ht="21">
-      <c r="B62" s="102"/>
-      <c r="C62" s="102"/>
-      <c r="D62" s="102"/>
-      <c r="E62" s="105"/>
+      <c r="B62" s="118"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="118"/>
+      <c r="E62" s="119"/>
       <c r="F62" s="68" t="s">
         <v>319</v>
       </c>
-      <c r="G62" s="102"/>
+      <c r="G62" s="118"/>
       <c r="H62" s="38">
         <f>40*16</f>
         <v>640</v>
       </c>
-      <c r="I62" s="102"/>
+      <c r="I62" s="118"/>
       <c r="J62" s="69">
         <f>K62*L62*M62/1000000*16</f>
         <v>1.66656</v>
@@ -5611,26 +5987,26 @@
       <c r="M62" s="38">
         <v>28</v>
       </c>
-      <c r="N62" s="102"/>
-      <c r="O62" s="102"/>
+      <c r="N62" s="118"/>
+      <c r="O62" s="118"/>
       <c r="P62" s="38" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="63" spans="2:16" ht="21">
-      <c r="B63" s="103"/>
-      <c r="C63" s="103"/>
-      <c r="D63" s="103"/>
-      <c r="E63" s="106"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="116"/>
       <c r="F63" s="68" t="s">
         <v>320</v>
       </c>
-      <c r="G63" s="103"/>
+      <c r="G63" s="114"/>
       <c r="H63" s="38">
         <f>40*270</f>
         <v>10800</v>
       </c>
-      <c r="I63" s="103"/>
+      <c r="I63" s="114"/>
       <c r="J63" s="69">
         <f>K63*L63*M63/1000000*270</f>
         <v>32.129999999999995</v>
@@ -5644,19 +6020,19 @@
       <c r="M63" s="38">
         <v>70</v>
       </c>
-      <c r="N63" s="103"/>
-      <c r="O63" s="103"/>
+      <c r="N63" s="114"/>
+      <c r="O63" s="114"/>
       <c r="P63" s="38" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="64" spans="2:16" ht="22.5">
-      <c r="B64" s="100" t="s">
+      <c r="B64" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C64" s="100"/>
-      <c r="D64" s="100"/>
-      <c r="E64" s="100"/>
+      <c r="C64" s="102"/>
+      <c r="D64" s="102"/>
+      <c r="E64" s="102"/>
       <c r="F64" s="71" t="s">
         <v>321</v>
       </c>
@@ -5678,28 +6054,28 @@
       <c r="P64" s="74"/>
     </row>
     <row r="65" spans="2:16" ht="21">
-      <c r="B65" s="101" t="s">
+      <c r="B65" s="113" t="s">
         <v>322</v>
       </c>
-      <c r="C65" s="107" t="s">
+      <c r="C65" s="120" t="s">
         <v>323</v>
       </c>
-      <c r="D65" s="101" t="s">
+      <c r="D65" s="113" t="s">
         <v>324</v>
       </c>
-      <c r="E65" s="104">
+      <c r="E65" s="115">
         <v>45678</v>
       </c>
       <c r="F65" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="G65" s="101" t="s">
+      <c r="G65" s="113" t="s">
         <v>325</v>
       </c>
       <c r="H65" s="38">
         <v>1</v>
       </c>
-      <c r="I65" s="101">
+      <c r="I65" s="113">
         <v>37</v>
       </c>
       <c r="J65" s="69">
@@ -5720,18 +6096,18 @@
       <c r="P65" s="38"/>
     </row>
     <row r="66" spans="2:16" ht="21">
-      <c r="B66" s="102"/>
-      <c r="C66" s="102"/>
-      <c r="D66" s="102"/>
-      <c r="E66" s="105"/>
+      <c r="B66" s="118"/>
+      <c r="C66" s="118"/>
+      <c r="D66" s="118"/>
+      <c r="E66" s="119"/>
       <c r="F66" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="G66" s="102"/>
+      <c r="G66" s="118"/>
       <c r="H66" s="38">
         <v>10</v>
       </c>
-      <c r="I66" s="102"/>
+      <c r="I66" s="118"/>
       <c r="J66" s="69">
         <f t="shared" si="0"/>
         <v>0.18360000000000001</v>
@@ -5750,18 +6126,18 @@
       <c r="P66" s="38"/>
     </row>
     <row r="67" spans="2:16" ht="21">
-      <c r="B67" s="102"/>
-      <c r="C67" s="102"/>
-      <c r="D67" s="102"/>
-      <c r="E67" s="105"/>
+      <c r="B67" s="118"/>
+      <c r="C67" s="118"/>
+      <c r="D67" s="118"/>
+      <c r="E67" s="119"/>
       <c r="F67" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="G67" s="102"/>
+      <c r="G67" s="118"/>
       <c r="H67" s="38">
         <v>10</v>
       </c>
-      <c r="I67" s="102"/>
+      <c r="I67" s="118"/>
       <c r="J67" s="69">
         <f t="shared" si="0"/>
         <v>0.18240999999999999</v>
@@ -5780,18 +6156,18 @@
       <c r="P67" s="38"/>
     </row>
     <row r="68" spans="2:16" ht="21">
-      <c r="B68" s="103"/>
-      <c r="C68" s="103"/>
-      <c r="D68" s="103"/>
-      <c r="E68" s="106"/>
+      <c r="B68" s="114"/>
+      <c r="C68" s="114"/>
+      <c r="D68" s="114"/>
+      <c r="E68" s="116"/>
       <c r="F68" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="G68" s="103"/>
+      <c r="G68" s="114"/>
       <c r="H68" s="38">
         <v>2</v>
       </c>
-      <c r="I68" s="103"/>
+      <c r="I68" s="114"/>
       <c r="J68" s="69">
         <f t="shared" si="0"/>
         <v>4.9919999999999999E-2</v>
@@ -5810,28 +6186,28 @@
       <c r="P68" s="38"/>
     </row>
     <row r="69" spans="2:16" ht="21">
-      <c r="B69" s="101" t="s">
+      <c r="B69" s="113" t="s">
         <v>326</v>
       </c>
       <c r="C69" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="D69" s="101" t="s">
+      <c r="D69" s="113" t="s">
         <v>324</v>
       </c>
-      <c r="E69" s="104">
+      <c r="E69" s="115">
         <v>45678</v>
       </c>
       <c r="F69" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="G69" s="101" t="s">
+      <c r="G69" s="113" t="s">
         <v>325</v>
       </c>
       <c r="H69" s="38">
         <v>3</v>
       </c>
-      <c r="I69" s="101">
+      <c r="I69" s="113">
         <v>20</v>
       </c>
       <c r="J69" s="69">
@@ -5852,20 +6228,20 @@
       <c r="P69" s="38"/>
     </row>
     <row r="70" spans="2:16" ht="21">
-      <c r="B70" s="102"/>
+      <c r="B70" s="118"/>
       <c r="C70" s="38">
         <v>2660</v>
       </c>
-      <c r="D70" s="102"/>
-      <c r="E70" s="105"/>
+      <c r="D70" s="118"/>
+      <c r="E70" s="119"/>
       <c r="F70" s="68" t="s">
         <v>329</v>
       </c>
-      <c r="G70" s="102"/>
+      <c r="G70" s="118"/>
       <c r="H70" s="38">
         <v>10</v>
       </c>
-      <c r="I70" s="102"/>
+      <c r="I70" s="118"/>
       <c r="J70" s="69">
         <f t="shared" si="0"/>
         <v>4.2335999999999999E-2</v>
@@ -5884,20 +6260,20 @@
       <c r="P70" s="38"/>
     </row>
     <row r="71" spans="2:16" ht="21">
-      <c r="B71" s="103"/>
+      <c r="B71" s="114"/>
       <c r="C71" s="38">
         <v>2461</v>
       </c>
-      <c r="D71" s="103"/>
-      <c r="E71" s="106"/>
+      <c r="D71" s="114"/>
+      <c r="E71" s="116"/>
       <c r="F71" s="68" t="s">
         <v>330</v>
       </c>
-      <c r="G71" s="103"/>
+      <c r="G71" s="114"/>
       <c r="H71" s="38">
         <v>130</v>
       </c>
-      <c r="I71" s="103"/>
+      <c r="I71" s="114"/>
       <c r="J71" s="69">
         <f t="shared" si="0"/>
         <v>0.1176</v>
@@ -5916,12 +6292,12 @@
       <c r="P71" s="38"/>
     </row>
     <row r="72" spans="2:16" ht="22.5">
-      <c r="B72" s="100" t="s">
+      <c r="B72" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C72" s="100"/>
-      <c r="D72" s="100"/>
-      <c r="E72" s="100"/>
+      <c r="C72" s="102"/>
+      <c r="D72" s="102"/>
+      <c r="E72" s="102"/>
       <c r="F72" s="71" t="s">
         <v>330</v>
       </c>
@@ -5942,64 +6318,157 @@
       <c r="O72" s="74"/>
       <c r="P72" s="74"/>
     </row>
+    <row r="73" spans="2:16" ht="42">
+      <c r="B73" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C73" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="E73" s="42">
+        <v>45703</v>
+      </c>
+      <c r="F73" s="143" t="s">
+        <v>362</v>
+      </c>
+      <c r="G73" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41">
+        <v>55</v>
+      </c>
+      <c r="J73" s="144">
+        <v>0.25480000000000003</v>
+      </c>
+      <c r="K73" s="41">
+        <v>70</v>
+      </c>
+      <c r="L73" s="41">
+        <v>52</v>
+      </c>
+      <c r="M73" s="41">
+        <v>35</v>
+      </c>
+      <c r="N73" s="41"/>
+      <c r="O73" s="41"/>
+      <c r="P73" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" ht="22.5">
+      <c r="B74" s="102" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" s="102"/>
+      <c r="D74" s="102"/>
+      <c r="E74" s="102"/>
+      <c r="F74" s="145" t="s">
+        <v>228</v>
+      </c>
+      <c r="G74" s="146"/>
+      <c r="H74" s="146"/>
+      <c r="I74" s="146">
+        <v>55</v>
+      </c>
+      <c r="J74" s="147">
+        <v>0.25480000000000003</v>
+      </c>
+      <c r="K74" s="146"/>
+      <c r="L74" s="146"/>
+      <c r="M74" s="146"/>
+      <c r="N74" s="63"/>
+      <c r="O74" s="63"/>
+      <c r="P74" s="63"/>
+    </row>
+    <row r="75" spans="2:16" ht="42">
+      <c r="B75" s="148" t="s">
+        <v>363</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="D75" s="148" t="s">
+        <v>365</v>
+      </c>
+      <c r="E75" s="42">
+        <v>45701</v>
+      </c>
+      <c r="F75" s="143" t="s">
+        <v>225</v>
+      </c>
+      <c r="G75" s="149" t="s">
+        <v>366</v>
+      </c>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41">
+        <v>400</v>
+      </c>
+      <c r="J75" s="144">
+        <v>1.089855</v>
+      </c>
+      <c r="K75" s="41">
+        <v>117</v>
+      </c>
+      <c r="L75" s="41">
+        <v>115</v>
+      </c>
+      <c r="M75" s="41">
+        <v>81</v>
+      </c>
+      <c r="N75" s="41"/>
+      <c r="O75" s="41"/>
+      <c r="P75" s="39" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" ht="22.5">
+      <c r="B76" s="102" t="s">
+        <v>220</v>
+      </c>
+      <c r="C76" s="102"/>
+      <c r="D76" s="102"/>
+      <c r="E76" s="102"/>
+      <c r="F76" s="145" t="s">
+        <v>225</v>
+      </c>
+      <c r="G76" s="150"/>
+      <c r="H76" s="146"/>
+      <c r="I76" s="146">
+        <v>400</v>
+      </c>
+      <c r="J76" s="147">
+        <v>1.089855</v>
+      </c>
+      <c r="K76" s="146"/>
+      <c r="L76" s="146"/>
+      <c r="M76" s="146"/>
+      <c r="N76" s="63"/>
+      <c r="O76" s="63"/>
+      <c r="P76" s="151" t="s">
+        <v>368</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="E38:E43"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="I38:I43"/>
-    <mergeCell ref="N38:N43"/>
-    <mergeCell ref="O38:O43"/>
-    <mergeCell ref="P38:P43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="N45:N47"/>
-    <mergeCell ref="O45:O47"/>
-    <mergeCell ref="P45:P47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="I58:I59"/>
+  <mergeCells count="86">
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="G65:G68"/>
+    <mergeCell ref="I65:I68"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="E65:E68"/>
     <mergeCell ref="N58:N59"/>
     <mergeCell ref="O58:O59"/>
     <mergeCell ref="B60:E60"/>
@@ -6015,19 +6484,62 @@
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="D58:D59"/>
     <mergeCell ref="E58:E59"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="G65:G68"/>
-    <mergeCell ref="I65:I68"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="N45:N47"/>
+    <mergeCell ref="O45:O47"/>
+    <mergeCell ref="P45:P47"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="I38:I43"/>
+    <mergeCell ref="N38:N43"/>
+    <mergeCell ref="O38:O43"/>
+    <mergeCell ref="P38:P43"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="E38:E43"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="I7:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6035,11 +6547,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DD94FD-D993-429D-A766-D707FAC76EEB}">
-  <dimension ref="A1:P107"/>
+  <dimension ref="A1:P120"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="3" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6119,11 +6631,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="119" t="s">
+      <c r="K2" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -6135,10 +6647,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="139"/>
+      <c r="B3" s="121"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -6714,25 +7226,25 @@
       <c r="A21" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="136" t="s">
+      <c r="B21" s="122" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="136" t="s">
+      <c r="D21" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="104">
+      <c r="E21" s="115">
         <v>45661</v>
       </c>
       <c r="F21" s="28">
         <v>1</v>
       </c>
-      <c r="G21" s="136" t="s">
+      <c r="G21" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="136">
+      <c r="H21" s="122">
         <v>2</v>
       </c>
       <c r="I21" s="28">
@@ -6751,7 +7263,7 @@
         <v>13</v>
       </c>
       <c r="N21" s="28"/>
-      <c r="O21" s="136" t="s">
+      <c r="O21" s="122" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6759,17 +7271,17 @@
       <c r="A22" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="137"/>
+      <c r="B22" s="123"/>
       <c r="C22" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="137"/>
-      <c r="E22" s="106"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="28">
         <v>2</v>
       </c>
-      <c r="G22" s="137"/>
-      <c r="H22" s="137"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
       <c r="I22" s="28">
         <v>1.1000000000000001</v>
       </c>
@@ -6786,7 +7298,7 @@
         <v>13</v>
       </c>
       <c r="N22" s="28"/>
-      <c r="O22" s="137"/>
+      <c r="O22" s="123"/>
     </row>
     <row r="23" spans="1:15" ht="22.5">
       <c r="A23" s="32"/>
@@ -7371,25 +7883,25 @@
       <c r="A40" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="136" t="s">
+      <c r="B40" s="122" t="s">
         <v>89</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="136" t="s">
+      <c r="D40" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="104">
+      <c r="E40" s="115">
         <v>45664</v>
       </c>
       <c r="F40" s="28">
         <v>1</v>
       </c>
-      <c r="G40" s="136" t="s">
+      <c r="G40" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="136">
+      <c r="H40" s="122">
         <v>3</v>
       </c>
       <c r="I40" s="28">
@@ -7408,7 +7920,7 @@
         <v>20</v>
       </c>
       <c r="N40" s="28"/>
-      <c r="O40" s="136" t="s">
+      <c r="O40" s="122" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7416,17 +7928,17 @@
       <c r="A41" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="138"/>
+      <c r="B41" s="128"/>
       <c r="C41" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="138"/>
-      <c r="E41" s="105"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="28">
         <v>2</v>
       </c>
-      <c r="G41" s="138"/>
-      <c r="H41" s="138"/>
+      <c r="G41" s="128"/>
+      <c r="H41" s="128"/>
       <c r="I41" s="28">
         <v>1.4</v>
       </c>
@@ -7443,23 +7955,23 @@
         <v>20</v>
       </c>
       <c r="N41" s="28"/>
-      <c r="O41" s="138"/>
+      <c r="O41" s="128"/>
     </row>
     <row r="42" spans="1:15" ht="21">
       <c r="A42" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="137"/>
+      <c r="B42" s="123"/>
       <c r="C42" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="137"/>
-      <c r="E42" s="106"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="116"/>
       <c r="F42" s="28">
         <v>3</v>
       </c>
-      <c r="G42" s="137"/>
-      <c r="H42" s="137"/>
+      <c r="G42" s="123"/>
+      <c r="H42" s="123"/>
       <c r="I42" s="28">
         <v>2</v>
       </c>
@@ -7476,7 +7988,7 @@
         <v>20</v>
       </c>
       <c r="N42" s="28"/>
-      <c r="O42" s="137"/>
+      <c r="O42" s="123"/>
     </row>
     <row r="43" spans="1:15" ht="22.5">
       <c r="A43" s="32"/>
@@ -7719,13 +8231,13 @@
       <c r="A50" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="132" t="s">
+      <c r="B50" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="132" t="s">
+      <c r="C50" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="132" t="s">
+      <c r="D50" s="126" t="s">
         <v>24</v>
       </c>
       <c r="E50" s="124">
@@ -7734,27 +8246,27 @@
       <c r="F50" s="41">
         <v>1</v>
       </c>
-      <c r="G50" s="132" t="s">
+      <c r="G50" s="126" t="s">
         <v>25</v>
       </c>
       <c r="H50" s="41"/>
-      <c r="I50" s="132">
+      <c r="I50" s="126">
         <v>10.199999999999999</v>
       </c>
-      <c r="J50" s="134">
+      <c r="J50" s="133">
         <v>0.10335</v>
       </c>
-      <c r="K50" s="132">
+      <c r="K50" s="126">
         <v>53</v>
       </c>
-      <c r="L50" s="132">
+      <c r="L50" s="126">
         <v>39</v>
       </c>
-      <c r="M50" s="132">
+      <c r="M50" s="126">
         <v>50</v>
       </c>
       <c r="N50" s="41"/>
-      <c r="O50" s="132" t="s">
+      <c r="O50" s="126" t="s">
         <v>109</v>
       </c>
     </row>
@@ -7762,22 +8274,22 @@
       <c r="A51" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="133"/>
-      <c r="C51" s="133"/>
-      <c r="D51" s="133"/>
-      <c r="E51" s="126"/>
+      <c r="B51" s="127"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="125"/>
       <c r="F51" s="41">
         <v>2</v>
       </c>
-      <c r="G51" s="133"/>
+      <c r="G51" s="127"/>
       <c r="H51" s="41"/>
-      <c r="I51" s="133"/>
-      <c r="J51" s="135"/>
-      <c r="K51" s="133"/>
-      <c r="L51" s="133"/>
-      <c r="M51" s="133"/>
+      <c r="I51" s="127"/>
+      <c r="J51" s="134"/>
+      <c r="K51" s="127"/>
+      <c r="L51" s="127"/>
+      <c r="M51" s="127"/>
       <c r="N51" s="41"/>
-      <c r="O51" s="133"/>
+      <c r="O51" s="127"/>
     </row>
     <row r="52" spans="1:15" ht="22.5">
       <c r="A52" s="32"/>
@@ -7808,25 +8320,25 @@
       <c r="A53" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="128" t="s">
+      <c r="B53" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="128" t="s">
+      <c r="C53" s="129" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="128" t="s">
+      <c r="D53" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="130">
+      <c r="E53" s="131">
         <v>45668</v>
       </c>
       <c r="F53" s="44">
         <v>1</v>
       </c>
-      <c r="G53" s="109" t="s">
+      <c r="G53" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="H53" s="128">
+      <c r="H53" s="129">
         <v>1676</v>
       </c>
       <c r="I53" s="44">
@@ -7846,7 +8358,7 @@
         <v>43</v>
       </c>
       <c r="N53" s="44"/>
-      <c r="O53" s="128" t="s">
+      <c r="O53" s="129" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7854,15 +8366,15 @@
       <c r="A54" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="129"/>
-      <c r="C54" s="129"/>
-      <c r="D54" s="129"/>
-      <c r="E54" s="131"/>
+      <c r="B54" s="130"/>
+      <c r="C54" s="130"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="132"/>
       <c r="F54" s="44">
         <v>2</v>
       </c>
-      <c r="G54" s="115"/>
-      <c r="H54" s="129"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="130"/>
       <c r="I54" s="44">
         <v>16.7</v>
       </c>
@@ -7880,7 +8392,7 @@
         <v>30</v>
       </c>
       <c r="N54" s="44"/>
-      <c r="O54" s="129"/>
+      <c r="O54" s="130"/>
     </row>
     <row r="55" spans="1:15" ht="22.5">
       <c r="A55" s="32"/>
@@ -7911,25 +8423,25 @@
       <c r="A56" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="128" t="s">
+      <c r="B56" s="129" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="128" t="s">
+      <c r="C56" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="D56" s="128" t="s">
+      <c r="D56" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="E56" s="130">
+      <c r="E56" s="131">
         <v>45670</v>
       </c>
       <c r="F56" s="44">
         <v>1</v>
       </c>
-      <c r="G56" s="109" t="s">
+      <c r="G56" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="H56" s="128">
+      <c r="H56" s="129">
         <v>145</v>
       </c>
       <c r="I56" s="44">
@@ -7949,7 +8461,7 @@
         <v>23</v>
       </c>
       <c r="N56" s="52"/>
-      <c r="O56" s="128" t="s">
+      <c r="O56" s="129" t="s">
         <v>121</v>
       </c>
     </row>
@@ -7957,15 +8469,15 @@
       <c r="A57" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="129"/>
-      <c r="C57" s="129"/>
-      <c r="D57" s="129"/>
-      <c r="E57" s="131"/>
+      <c r="B57" s="130"/>
+      <c r="C57" s="130"/>
+      <c r="D57" s="130"/>
+      <c r="E57" s="132"/>
       <c r="F57" s="44">
         <v>2</v>
       </c>
-      <c r="G57" s="115"/>
-      <c r="H57" s="129"/>
+      <c r="G57" s="108"/>
+      <c r="H57" s="130"/>
       <c r="I57" s="44">
         <v>13.7</v>
       </c>
@@ -7983,7 +8495,7 @@
         <v>49</v>
       </c>
       <c r="N57" s="44"/>
-      <c r="O57" s="129"/>
+      <c r="O57" s="130"/>
     </row>
     <row r="58" spans="1:15" ht="22.5">
       <c r="A58" s="32"/>
@@ -8420,11 +8932,11 @@
       <c r="A71" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="B71" s="121" t="s">
+      <c r="B71" s="135" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="121"/>
-      <c r="D71" s="121" t="s">
+      <c r="C71" s="135"/>
+      <c r="D71" s="135" t="s">
         <v>156</v>
       </c>
       <c r="E71" s="124">
@@ -8433,7 +8945,7 @@
       <c r="F71" s="53">
         <v>1</v>
       </c>
-      <c r="G71" s="121" t="s">
+      <c r="G71" s="135" t="s">
         <v>157</v>
       </c>
       <c r="H71" s="53">
@@ -8462,14 +8974,14 @@
       <c r="A72" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="122"/>
-      <c r="C72" s="122"/>
-      <c r="D72" s="122"/>
-      <c r="E72" s="125"/>
+      <c r="B72" s="136"/>
+      <c r="C72" s="136"/>
+      <c r="D72" s="136"/>
+      <c r="E72" s="138"/>
       <c r="F72" s="53">
         <v>2</v>
       </c>
-      <c r="G72" s="122"/>
+      <c r="G72" s="136"/>
       <c r="H72" s="53">
         <v>240</v>
       </c>
@@ -8496,14 +9008,14 @@
       <c r="A73" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="B73" s="122"/>
-      <c r="C73" s="122"/>
-      <c r="D73" s="122"/>
-      <c r="E73" s="125"/>
+      <c r="B73" s="136"/>
+      <c r="C73" s="136"/>
+      <c r="D73" s="136"/>
+      <c r="E73" s="138"/>
       <c r="F73" s="53">
         <v>3</v>
       </c>
-      <c r="G73" s="122"/>
+      <c r="G73" s="136"/>
       <c r="H73" s="53">
         <v>300</v>
       </c>
@@ -8530,14 +9042,14 @@
       <c r="A74" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="B74" s="122"/>
-      <c r="C74" s="122"/>
-      <c r="D74" s="122"/>
-      <c r="E74" s="125"/>
+      <c r="B74" s="136"/>
+      <c r="C74" s="136"/>
+      <c r="D74" s="136"/>
+      <c r="E74" s="138"/>
       <c r="F74" s="53">
         <v>4</v>
       </c>
-      <c r="G74" s="122"/>
+      <c r="G74" s="136"/>
       <c r="H74" s="53">
         <v>230</v>
       </c>
@@ -8564,14 +9076,14 @@
       <c r="A75" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="B75" s="122"/>
-      <c r="C75" s="122"/>
-      <c r="D75" s="122"/>
-      <c r="E75" s="125"/>
+      <c r="B75" s="136"/>
+      <c r="C75" s="136"/>
+      <c r="D75" s="136"/>
+      <c r="E75" s="138"/>
       <c r="F75" s="53">
         <v>5</v>
       </c>
-      <c r="G75" s="122"/>
+      <c r="G75" s="136"/>
       <c r="H75" s="53">
         <v>220</v>
       </c>
@@ -8598,14 +9110,14 @@
       <c r="A76" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B76" s="122"/>
-      <c r="C76" s="122"/>
-      <c r="D76" s="122"/>
-      <c r="E76" s="125"/>
+      <c r="B76" s="136"/>
+      <c r="C76" s="136"/>
+      <c r="D76" s="136"/>
+      <c r="E76" s="138"/>
       <c r="F76" s="53">
         <v>6</v>
       </c>
-      <c r="G76" s="122"/>
+      <c r="G76" s="136"/>
       <c r="H76" s="53">
         <v>200</v>
       </c>
@@ -8632,14 +9144,14 @@
       <c r="A77" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B77" s="122"/>
-      <c r="C77" s="122"/>
-      <c r="D77" s="122"/>
-      <c r="E77" s="125"/>
+      <c r="B77" s="136"/>
+      <c r="C77" s="136"/>
+      <c r="D77" s="136"/>
+      <c r="E77" s="138"/>
       <c r="F77" s="53">
         <v>7</v>
       </c>
-      <c r="G77" s="122"/>
+      <c r="G77" s="136"/>
       <c r="H77" s="53">
         <v>190</v>
       </c>
@@ -8666,14 +9178,14 @@
       <c r="A78" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="122"/>
-      <c r="C78" s="122"/>
-      <c r="D78" s="122"/>
-      <c r="E78" s="125"/>
+      <c r="B78" s="136"/>
+      <c r="C78" s="136"/>
+      <c r="D78" s="136"/>
+      <c r="E78" s="138"/>
       <c r="F78" s="53">
         <v>8</v>
       </c>
-      <c r="G78" s="122"/>
+      <c r="G78" s="136"/>
       <c r="H78" s="53">
         <v>200</v>
       </c>
@@ -8700,14 +9212,14 @@
       <c r="A79" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="B79" s="122"/>
-      <c r="C79" s="122"/>
-      <c r="D79" s="122"/>
-      <c r="E79" s="125"/>
+      <c r="B79" s="136"/>
+      <c r="C79" s="136"/>
+      <c r="D79" s="136"/>
+      <c r="E79" s="138"/>
       <c r="F79" s="53">
         <v>9</v>
       </c>
-      <c r="G79" s="122"/>
+      <c r="G79" s="136"/>
       <c r="H79" s="53">
         <v>200</v>
       </c>
@@ -8734,14 +9246,14 @@
       <c r="A80" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="B80" s="122"/>
-      <c r="C80" s="122"/>
-      <c r="D80" s="122"/>
-      <c r="E80" s="125"/>
+      <c r="B80" s="136"/>
+      <c r="C80" s="136"/>
+      <c r="D80" s="136"/>
+      <c r="E80" s="138"/>
       <c r="F80" s="53">
         <v>10</v>
       </c>
-      <c r="G80" s="122"/>
+      <c r="G80" s="136"/>
       <c r="H80" s="53">
         <v>200</v>
       </c>
@@ -8768,14 +9280,14 @@
       <c r="A81" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="B81" s="123"/>
-      <c r="C81" s="123"/>
-      <c r="D81" s="123"/>
-      <c r="E81" s="126"/>
+      <c r="B81" s="137"/>
+      <c r="C81" s="137"/>
+      <c r="D81" s="137"/>
+      <c r="E81" s="125"/>
       <c r="F81" s="53">
         <v>11</v>
       </c>
-      <c r="G81" s="123"/>
+      <c r="G81" s="137"/>
       <c r="H81" s="53">
         <v>200</v>
       </c>
@@ -9502,13 +10014,13 @@
       <c r="A103" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="B103" s="121" t="s">
+      <c r="B103" s="135" t="s">
         <v>209</v>
       </c>
-      <c r="C103" s="121" t="s">
+      <c r="C103" s="135" t="s">
         <v>210</v>
       </c>
-      <c r="D103" s="121" t="s">
+      <c r="D103" s="135" t="s">
         <v>39</v>
       </c>
       <c r="E103" s="124">
@@ -9517,7 +10029,7 @@
       <c r="F103" s="53">
         <v>1</v>
       </c>
-      <c r="G103" s="127" t="s">
+      <c r="G103" s="139" t="s">
         <v>211</v>
       </c>
       <c r="H103" s="53"/>
@@ -9544,14 +10056,14 @@
       <c r="A104" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="B104" s="122"/>
-      <c r="C104" s="122"/>
-      <c r="D104" s="122"/>
-      <c r="E104" s="125"/>
+      <c r="B104" s="136"/>
+      <c r="C104" s="136"/>
+      <c r="D104" s="136"/>
+      <c r="E104" s="138"/>
       <c r="F104" s="53">
         <v>2</v>
       </c>
-      <c r="G104" s="122"/>
+      <c r="G104" s="136"/>
       <c r="H104" s="53"/>
       <c r="I104" s="53">
         <v>9.1</v>
@@ -9576,14 +10088,14 @@
       <c r="A105" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="B105" s="122"/>
-      <c r="C105" s="122"/>
-      <c r="D105" s="122"/>
-      <c r="E105" s="125"/>
+      <c r="B105" s="136"/>
+      <c r="C105" s="136"/>
+      <c r="D105" s="136"/>
+      <c r="E105" s="138"/>
       <c r="F105" s="53">
         <v>3</v>
       </c>
-      <c r="G105" s="122"/>
+      <c r="G105" s="136"/>
       <c r="H105" s="53"/>
       <c r="I105" s="53">
         <v>24.1</v>
@@ -9608,14 +10120,14 @@
       <c r="A106" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="B106" s="123"/>
-      <c r="C106" s="123"/>
-      <c r="D106" s="123"/>
-      <c r="E106" s="126"/>
+      <c r="B106" s="137"/>
+      <c r="C106" s="137"/>
+      <c r="D106" s="137"/>
+      <c r="E106" s="125"/>
       <c r="F106" s="53">
         <v>4</v>
       </c>
-      <c r="G106" s="123"/>
+      <c r="G106" s="137"/>
       <c r="H106" s="53"/>
       <c r="I106" s="53">
         <v>6.4</v>
@@ -9661,40 +10173,472 @@
       <c r="N107" s="56"/>
       <c r="O107" s="56"/>
     </row>
+    <row r="108" spans="1:15" ht="21">
+      <c r="A108" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="B108" s="53" t="s">
+        <v>332</v>
+      </c>
+      <c r="C108" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="D108" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="E108" s="140">
+        <v>45698</v>
+      </c>
+      <c r="F108" s="53">
+        <v>1</v>
+      </c>
+      <c r="G108" s="53" t="s">
+        <v>335</v>
+      </c>
+      <c r="H108" s="53">
+        <v>1</v>
+      </c>
+      <c r="I108" s="53">
+        <v>1.2</v>
+      </c>
+      <c r="J108" s="54">
+        <v>6.3E-3</v>
+      </c>
+      <c r="K108" s="53">
+        <v>20</v>
+      </c>
+      <c r="L108" s="53">
+        <v>21</v>
+      </c>
+      <c r="M108" s="53">
+        <v>15</v>
+      </c>
+      <c r="N108" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="O108" s="53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="22.5">
+      <c r="A109" s="64"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="64"/>
+      <c r="D109" s="64"/>
+      <c r="E109" s="64"/>
+      <c r="F109" s="46">
+        <v>1</v>
+      </c>
+      <c r="G109" s="67"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="46">
+        <f>I108</f>
+        <v>1.2</v>
+      </c>
+      <c r="J109" s="49">
+        <f>J108</f>
+        <v>6.3E-3</v>
+      </c>
+      <c r="K109" s="46"/>
+      <c r="L109" s="46"/>
+      <c r="M109" s="46"/>
+      <c r="N109" s="56"/>
+      <c r="O109" s="56"/>
+    </row>
+    <row r="110" spans="1:15" ht="21">
+      <c r="A110" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="B110" s="141" t="s">
+        <v>338</v>
+      </c>
+      <c r="C110" s="53" t="s">
+        <v>339</v>
+      </c>
+      <c r="D110" s="141" t="s">
+        <v>334</v>
+      </c>
+      <c r="E110" s="142">
+        <v>45698</v>
+      </c>
+      <c r="F110" s="53">
+        <v>1</v>
+      </c>
+      <c r="G110" s="141" t="s">
+        <v>335</v>
+      </c>
+      <c r="H110" s="141">
+        <v>2</v>
+      </c>
+      <c r="I110" s="53">
+        <v>0.2</v>
+      </c>
+      <c r="J110" s="54">
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="K110" s="53">
+        <v>15</v>
+      </c>
+      <c r="L110" s="53">
+        <v>9</v>
+      </c>
+      <c r="M110" s="53">
+        <v>10</v>
+      </c>
+      <c r="N110" s="53"/>
+      <c r="O110" s="141" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="21">
+      <c r="A111" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="B111" s="141"/>
+      <c r="C111" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="D111" s="141"/>
+      <c r="E111" s="142"/>
+      <c r="F111" s="53">
+        <v>2</v>
+      </c>
+      <c r="G111" s="141"/>
+      <c r="H111" s="141"/>
+      <c r="I111" s="53">
+        <v>1.4</v>
+      </c>
+      <c r="J111" s="54">
+        <v>7.6439999999999998E-3</v>
+      </c>
+      <c r="K111" s="53">
+        <v>26</v>
+      </c>
+      <c r="L111" s="53">
+        <v>21</v>
+      </c>
+      <c r="M111" s="53">
+        <v>14</v>
+      </c>
+      <c r="N111" s="53"/>
+      <c r="O111" s="141"/>
+    </row>
+    <row r="112" spans="1:15" ht="22.5">
+      <c r="A112" s="64"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="64"/>
+      <c r="E112" s="64"/>
+      <c r="F112" s="46">
+        <v>2</v>
+      </c>
+      <c r="G112" s="67"/>
+      <c r="H112" s="46"/>
+      <c r="I112" s="46">
+        <f>SUM(I110:I111)</f>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="J112" s="49">
+        <f>SUM(J110:J111)</f>
+        <v>8.9940000000000003E-3</v>
+      </c>
+      <c r="K112" s="46"/>
+      <c r="L112" s="46"/>
+      <c r="M112" s="46"/>
+      <c r="N112" s="56"/>
+      <c r="O112" s="56"/>
+    </row>
+    <row r="113" spans="1:15" ht="21">
+      <c r="A113" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="B113" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="C113" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="D113" s="53" t="s">
+        <v>345</v>
+      </c>
+      <c r="E113" s="140">
+        <v>45698</v>
+      </c>
+      <c r="F113" s="53">
+        <v>1</v>
+      </c>
+      <c r="G113" s="53" t="s">
+        <v>335</v>
+      </c>
+      <c r="H113" s="53">
+        <v>1</v>
+      </c>
+      <c r="I113" s="53">
+        <v>0.4</v>
+      </c>
+      <c r="J113" s="54">
+        <f>K113*L113*M113/1000000</f>
+        <v>2.3760000000000001E-3</v>
+      </c>
+      <c r="K113" s="53">
+        <v>18</v>
+      </c>
+      <c r="L113" s="53">
+        <v>12</v>
+      </c>
+      <c r="M113" s="53">
+        <v>11</v>
+      </c>
+      <c r="N113" s="53"/>
+      <c r="O113" s="53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="22.5">
+      <c r="A114" s="64"/>
+      <c r="B114" s="64"/>
+      <c r="C114" s="64"/>
+      <c r="D114" s="64"/>
+      <c r="E114" s="64"/>
+      <c r="F114" s="46">
+        <v>1</v>
+      </c>
+      <c r="G114" s="67"/>
+      <c r="H114" s="46"/>
+      <c r="I114" s="46">
+        <f>I113</f>
+        <v>0.4</v>
+      </c>
+      <c r="J114" s="49">
+        <f>J113</f>
+        <v>2.3760000000000001E-3</v>
+      </c>
+      <c r="K114" s="46"/>
+      <c r="L114" s="46"/>
+      <c r="M114" s="46"/>
+      <c r="N114" s="56"/>
+      <c r="O114" s="56"/>
+    </row>
+    <row r="115" spans="1:15" ht="21">
+      <c r="A115" s="53" t="s">
+        <v>346</v>
+      </c>
+      <c r="B115" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="C115" s="53" t="s">
+        <v>348</v>
+      </c>
+      <c r="D115" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="E115" s="42">
+        <v>45701</v>
+      </c>
+      <c r="F115" s="53">
+        <v>1</v>
+      </c>
+      <c r="G115" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H115" s="53">
+        <v>6</v>
+      </c>
+      <c r="I115" s="53">
+        <v>7.1</v>
+      </c>
+      <c r="J115" s="54">
+        <f>K115*L115*M115/1000000</f>
+        <v>7.4880000000000002E-2</v>
+      </c>
+      <c r="K115" s="53">
+        <v>48</v>
+      </c>
+      <c r="L115" s="53">
+        <v>40</v>
+      </c>
+      <c r="M115" s="53">
+        <v>39</v>
+      </c>
+      <c r="N115" s="53"/>
+      <c r="O115" s="53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="22.5">
+      <c r="A116" s="64"/>
+      <c r="B116" s="64"/>
+      <c r="C116" s="64"/>
+      <c r="D116" s="64"/>
+      <c r="E116" s="64"/>
+      <c r="F116" s="46">
+        <v>1</v>
+      </c>
+      <c r="G116" s="46"/>
+      <c r="H116" s="46"/>
+      <c r="I116" s="46">
+        <f>SUM(I115:I115)</f>
+        <v>7.1</v>
+      </c>
+      <c r="J116" s="49">
+        <f>SUM(J115:J115)</f>
+        <v>7.4880000000000002E-2</v>
+      </c>
+      <c r="K116" s="46"/>
+      <c r="L116" s="46"/>
+      <c r="M116" s="46"/>
+      <c r="N116" s="56"/>
+      <c r="O116" s="56"/>
+    </row>
+    <row r="117" spans="1:15" ht="21">
+      <c r="A117" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="B117" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="C117" s="53" t="s">
+        <v>351</v>
+      </c>
+      <c r="D117" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="E117" s="42">
+        <v>45703</v>
+      </c>
+      <c r="F117" s="53">
+        <v>1</v>
+      </c>
+      <c r="G117" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="H117" s="53">
+        <v>1</v>
+      </c>
+      <c r="I117" s="53">
+        <v>11</v>
+      </c>
+      <c r="J117" s="54">
+        <f>K117*L117*M117/1000000</f>
+        <v>0.19325600000000001</v>
+      </c>
+      <c r="K117" s="53">
+        <v>58</v>
+      </c>
+      <c r="L117" s="53">
+        <v>49</v>
+      </c>
+      <c r="M117" s="53">
+        <v>68</v>
+      </c>
+      <c r="N117" s="53"/>
+      <c r="O117" s="53"/>
+    </row>
+    <row r="118" spans="1:15" ht="22.5">
+      <c r="A118" s="64"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="64"/>
+      <c r="D118" s="64"/>
+      <c r="E118" s="64"/>
+      <c r="F118" s="46">
+        <v>1</v>
+      </c>
+      <c r="G118" s="67"/>
+      <c r="H118" s="46"/>
+      <c r="I118" s="46">
+        <f>SUM(I117:I117)</f>
+        <v>11</v>
+      </c>
+      <c r="J118" s="49">
+        <f>SUM(J117:J117)</f>
+        <v>0.19325600000000001</v>
+      </c>
+      <c r="K118" s="46"/>
+      <c r="L118" s="46"/>
+      <c r="M118" s="46"/>
+      <c r="N118" s="56"/>
+      <c r="O118" s="56"/>
+    </row>
+    <row r="119" spans="1:15" ht="42">
+      <c r="A119" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="B119" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="C119" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="D119" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="E119" s="42">
+        <v>45705</v>
+      </c>
+      <c r="F119" s="53">
+        <v>1</v>
+      </c>
+      <c r="G119" s="53" t="s">
+        <v>358</v>
+      </c>
+      <c r="H119" s="53"/>
+      <c r="I119" s="53">
+        <v>1.6</v>
+      </c>
+      <c r="J119" s="54">
+        <f>K119*L119*M119/1000000</f>
+        <v>2.4948000000000001E-2</v>
+      </c>
+      <c r="K119" s="53">
+        <v>42</v>
+      </c>
+      <c r="L119" s="53">
+        <v>27</v>
+      </c>
+      <c r="M119" s="53">
+        <v>22</v>
+      </c>
+      <c r="N119" s="53"/>
+      <c r="O119" s="58"/>
+    </row>
+    <row r="120" spans="1:15" ht="22.5">
+      <c r="A120" s="64"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="64"/>
+      <c r="D120" s="64"/>
+      <c r="E120" s="64"/>
+      <c r="F120" s="46">
+        <v>1</v>
+      </c>
+      <c r="G120" s="67"/>
+      <c r="H120" s="46"/>
+      <c r="I120" s="46">
+        <f>SUM(I119:I119)</f>
+        <v>1.6</v>
+      </c>
+      <c r="J120" s="49">
+        <f>SUM(J119:J119)</f>
+        <v>2.4948000000000001E-2</v>
+      </c>
+      <c r="K120" s="46"/>
+      <c r="L120" s="46"/>
+      <c r="M120" s="46"/>
+      <c r="N120" s="56"/>
+      <c r="O120" s="56"/>
+    </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="O40:O42"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
+  <mergeCells count="55">
+    <mergeCell ref="O110:O111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="G103:G106"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="O56:O57"/>
     <mergeCell ref="B71:B81"/>
@@ -9707,11 +10651,38 @@
     <mergeCell ref="D56:D57"/>
     <mergeCell ref="E56:E57"/>
     <mergeCell ref="G56:G57"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="G103:G106"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="O40:O42"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9803,11 +10774,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="119" t="s">
+      <c r="K2" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -9819,10 +10790,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="120"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -9887,12 +10858,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.5">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
       <c r="F6" s="89" t="s">
         <v>267</v>
       </c>
@@ -9962,12 +10933,12 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="22.5">
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
       <c r="F8" s="71" t="s">
         <v>239</v>
       </c>
@@ -10037,12 +11008,12 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="22.5">
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
       <c r="F10" s="71" t="s">
         <v>267</v>
       </c>
@@ -10112,12 +11083,12 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="22.5">
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
       <c r="F12" s="89" t="s">
         <v>267</v>
       </c>
@@ -10187,12 +11158,12 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="22.5">
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
       <c r="F14" s="71" t="s">
         <v>239</v>
       </c>
@@ -10260,12 +11231,12 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="22.5">
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
       <c r="F16" s="71" t="s">
         <v>267</v>
       </c>
@@ -10330,12 +11301,12 @@
       <c r="P17" s="38"/>
     </row>
     <row r="18" spans="2:16" ht="22.5">
-      <c r="B18" s="100" t="s">
+      <c r="B18" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
       <c r="F18" s="71" t="s">
         <v>276</v>
       </c>
@@ -10355,24 +11326,24 @@
       <c r="P18" s="74"/>
     </row>
     <row r="19" spans="2:16" ht="21">
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="113" t="s">
         <v>301</v>
       </c>
       <c r="C19" s="38"/>
-      <c r="D19" s="101" t="s">
+      <c r="D19" s="113" t="s">
         <v>263</v>
       </c>
-      <c r="E19" s="104">
+      <c r="E19" s="115">
         <v>45671</v>
       </c>
       <c r="F19" s="68" t="s">
         <v>302</v>
       </c>
-      <c r="G19" s="101" t="s">
+      <c r="G19" s="113" t="s">
         <v>265</v>
       </c>
       <c r="H19" s="38"/>
-      <c r="I19" s="101"/>
+      <c r="I19" s="113"/>
       <c r="J19" s="69">
         <v>7.7367000000000008</v>
       </c>
@@ -10394,16 +11365,16 @@
       <c r="P19" s="38"/>
     </row>
     <row r="20" spans="2:16" ht="21">
-      <c r="B20" s="103"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="38"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="106"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="116"/>
       <c r="F20" s="68" t="s">
         <v>303</v>
       </c>
-      <c r="G20" s="103"/>
+      <c r="G20" s="114"/>
       <c r="H20" s="38"/>
-      <c r="I20" s="103"/>
+      <c r="I20" s="114"/>
       <c r="J20" s="69">
         <v>0.67200000000000004</v>
       </c>
@@ -10421,12 +11392,12 @@
       <c r="P20" s="38"/>
     </row>
     <row r="21" spans="2:16" ht="22.5">
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
       <c r="F21" s="71" t="s">
         <v>303</v>
       </c>
@@ -10447,12 +11418,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B10:E10"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="B21:E21"/>
@@ -10462,6 +11427,12 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Customer/Cust 2025/Cargo W99 2025.xlsx
+++ b/Customer/Cust 2025/Cargo W99 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Customer\Cust 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E8FB8D-ED69-4B43-A289-539A21D9521F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47050C34-4C6C-4531-97D3-713D3E6D59EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E000C531-AA46-4CF4-8BD7-2185A135A010}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="392">
   <si>
     <t>Hijau barang terkirim, Lunas, beres</t>
   </si>
@@ -2828,6 +2828,127 @@
   </si>
   <si>
     <t>先不走</t>
+  </si>
+  <si>
+    <t>S0084458</t>
+  </si>
+  <si>
+    <t>109944773479 /18111611101</t>
+  </si>
+  <si>
+    <t>1-137</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>S0084438</t>
+  </si>
+  <si>
+    <t>279/W99/DVD/SEA</t>
+  </si>
+  <si>
+    <t>1-20</t>
+  </si>
+  <si>
+    <t>女士上衣blouse</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A0034784</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0267709359499</t>
+    </r>
+  </si>
+  <si>
+    <t>A40</t>
+  </si>
+  <si>
+    <t>A0034808</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3141732360907</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">279-W99-WJY-AIR </t>
+  </si>
+  <si>
+    <t>人造关节Artificial joint</t>
+  </si>
+  <si>
+    <t>A41</t>
+  </si>
+  <si>
+    <t>A42</t>
+  </si>
+  <si>
+    <t>A43</t>
+  </si>
+  <si>
+    <t>A44</t>
+  </si>
+  <si>
+    <t>A45</t>
+  </si>
+  <si>
+    <t>A46</t>
   </si>
 </sst>
 </file>
@@ -3065,7 +3186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3364,160 +3485,169 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3836,11 +3966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03568550-BD00-482C-9F46-E2F5DB6F38F1}">
-  <dimension ref="A1:P76"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
+      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3920,11 +4050,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="100" t="s">
+      <c r="K2" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -3936,10 +4066,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="101"/>
+      <c r="B3" s="130"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -4001,12 +4131,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.5">
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="71" t="s">
         <v>221</v>
       </c>
@@ -4026,16 +4156,16 @@
       <c r="P6" s="74"/>
     </row>
     <row r="7" spans="1:16" ht="37.5">
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="122" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="119" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="103" t="s">
+      <c r="D7" s="122" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="109">
+      <c r="E7" s="126">
         <v>45659</v>
       </c>
       <c r="F7" s="75" t="s">
@@ -4047,7 +4177,7 @@
       <c r="H7" s="76">
         <v>1</v>
       </c>
-      <c r="I7" s="103">
+      <c r="I7" s="122">
         <v>255</v>
       </c>
       <c r="J7" s="77">
@@ -4062,21 +4192,21 @@
       <c r="M7" s="76">
         <v>62</v>
       </c>
-      <c r="N7" s="112">
+      <c r="N7" s="123">
         <v>45663</v>
       </c>
-      <c r="O7" s="112">
+      <c r="O7" s="123">
         <v>45705</v>
       </c>
-      <c r="P7" s="103" t="s">
+      <c r="P7" s="122" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="21">
-      <c r="B8" s="104"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="110"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="127"/>
       <c r="F8" s="75" t="s">
         <v>228</v>
       </c>
@@ -4086,7 +4216,7 @@
       <c r="H8" s="76">
         <v>1</v>
       </c>
-      <c r="I8" s="104"/>
+      <c r="I8" s="120"/>
       <c r="J8" s="77">
         <v>0.54978000000000005</v>
       </c>
@@ -4099,15 +4229,15 @@
       <c r="M8" s="76">
         <v>77</v>
       </c>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
     </row>
     <row r="9" spans="1:16" ht="37.5">
-      <c r="B9" s="104"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="110"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="75" t="s">
         <v>230</v>
       </c>
@@ -4117,7 +4247,7 @@
       <c r="H9" s="76">
         <v>1</v>
       </c>
-      <c r="I9" s="104"/>
+      <c r="I9" s="120"/>
       <c r="J9" s="77">
         <v>0.51480000000000004</v>
       </c>
@@ -4130,15 +4260,15 @@
       <c r="M9" s="76">
         <v>65</v>
       </c>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
     </row>
     <row r="10" spans="1:16" ht="56.25">
-      <c r="B10" s="105"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="111"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="75" t="s">
         <v>232</v>
       </c>
@@ -4148,7 +4278,7 @@
       <c r="H10" s="76">
         <v>1</v>
       </c>
-      <c r="I10" s="105"/>
+      <c r="I10" s="121"/>
       <c r="J10" s="77">
         <v>7.3800000000000004E-2</v>
       </c>
@@ -4161,17 +4291,17 @@
       <c r="M10" s="76">
         <v>18</v>
       </c>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
     </row>
     <row r="11" spans="1:16" ht="22.5">
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
       <c r="F11" s="71" t="s">
         <v>232</v>
       </c>
@@ -4241,12 +4371,12 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="22.5">
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
       <c r="F13" s="71" t="s">
         <v>239</v>
       </c>
@@ -4318,12 +4448,12 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="22.5">
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
       <c r="F15" s="71" t="s">
         <v>242</v>
       </c>
@@ -4392,12 +4522,12 @@
       </c>
     </row>
     <row r="17" spans="2:16" ht="22.5">
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
       <c r="F17" s="71" t="s">
         <v>246</v>
       </c>
@@ -4462,12 +4592,12 @@
       </c>
     </row>
     <row r="19" spans="2:16" ht="22.5">
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
       <c r="F19" s="71" t="s">
         <v>252</v>
       </c>
@@ -4535,12 +4665,12 @@
       </c>
     </row>
     <row r="21" spans="2:16" ht="22.5">
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="71" t="s">
         <v>255</v>
       </c>
@@ -4609,12 +4739,12 @@
       </c>
     </row>
     <row r="23" spans="2:16" ht="22.5">
-      <c r="B23" s="102" t="s">
+      <c r="B23" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
       <c r="F23" s="71" t="s">
         <v>232</v>
       </c>
@@ -4682,12 +4812,12 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="22.5">
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
       <c r="F25" s="89" t="s">
         <v>267</v>
       </c>
@@ -4757,12 +4887,12 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="22.5">
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="102"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
       <c r="F27" s="71" t="s">
         <v>239</v>
       </c>
@@ -4832,12 +4962,12 @@
       </c>
     </row>
     <row r="29" spans="2:16" ht="22.5">
-      <c r="B29" s="102" t="s">
+      <c r="B29" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
       <c r="F29" s="71" t="s">
         <v>267</v>
       </c>
@@ -4907,12 +5037,12 @@
       </c>
     </row>
     <row r="31" spans="2:16" ht="22.5">
-      <c r="B31" s="102" t="s">
+      <c r="B31" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
       <c r="F31" s="89" t="s">
         <v>267</v>
       </c>
@@ -4982,12 +5112,12 @@
       </c>
     </row>
     <row r="33" spans="2:16" ht="22.5">
-      <c r="B33" s="102" t="s">
+      <c r="B33" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
       <c r="F33" s="71" t="s">
         <v>239</v>
       </c>
@@ -5055,12 +5185,12 @@
       </c>
     </row>
     <row r="35" spans="2:16" ht="22.5">
-      <c r="B35" s="102" t="s">
+      <c r="B35" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
       <c r="F35" s="71" t="s">
         <v>267</v>
       </c>
@@ -5125,12 +5255,12 @@
       <c r="P36" s="38"/>
     </row>
     <row r="37" spans="2:16" ht="22.5">
-      <c r="B37" s="102" t="s">
+      <c r="B37" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
       <c r="F37" s="71" t="s">
         <v>276</v>
       </c>
@@ -5150,28 +5280,28 @@
       <c r="P37" s="74"/>
     </row>
     <row r="38" spans="2:16" ht="21">
-      <c r="B38" s="103" t="s">
+      <c r="B38" s="122" t="s">
         <v>277</v>
       </c>
-      <c r="C38" s="106" t="s">
+      <c r="C38" s="119" t="s">
         <v>278</v>
       </c>
-      <c r="D38" s="103" t="s">
+      <c r="D38" s="122" t="s">
         <v>279</v>
       </c>
-      <c r="E38" s="109">
+      <c r="E38" s="126">
         <v>45668</v>
       </c>
       <c r="F38" s="75" t="s">
         <v>280</v>
       </c>
-      <c r="G38" s="106" t="s">
+      <c r="G38" s="119" t="s">
         <v>281</v>
       </c>
       <c r="H38" s="76">
         <v>385</v>
       </c>
-      <c r="I38" s="103">
+      <c r="I38" s="122">
         <v>1451</v>
       </c>
       <c r="J38" s="77">
@@ -5186,29 +5316,29 @@
       <c r="M38" s="76">
         <v>30</v>
       </c>
-      <c r="N38" s="112">
+      <c r="N38" s="123">
         <v>45671</v>
       </c>
-      <c r="O38" s="112">
+      <c r="O38" s="123">
         <v>45714</v>
       </c>
-      <c r="P38" s="103" t="s">
+      <c r="P38" s="122" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="21">
-      <c r="B39" s="104"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="110"/>
+      <c r="B39" s="120"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="127"/>
       <c r="F39" s="75" t="s">
         <v>283</v>
       </c>
-      <c r="G39" s="108"/>
+      <c r="G39" s="125"/>
       <c r="H39" s="76">
         <v>36</v>
       </c>
-      <c r="I39" s="104"/>
+      <c r="I39" s="120"/>
       <c r="J39" s="77">
         <v>0.29759999999999998</v>
       </c>
@@ -5221,15 +5351,15 @@
       <c r="M39" s="76">
         <v>20</v>
       </c>
-      <c r="N39" s="104"/>
-      <c r="O39" s="104"/>
-      <c r="P39" s="104"/>
+      <c r="N39" s="120"/>
+      <c r="O39" s="120"/>
+      <c r="P39" s="120"/>
     </row>
     <row r="40" spans="2:16" ht="21">
-      <c r="B40" s="104"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="110"/>
+      <c r="B40" s="120"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="127"/>
       <c r="F40" s="75" t="s">
         <v>284</v>
       </c>
@@ -5239,7 +5369,7 @@
       <c r="H40" s="76">
         <v>26</v>
       </c>
-      <c r="I40" s="104"/>
+      <c r="I40" s="120"/>
       <c r="J40" s="77">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -5252,15 +5382,15 @@
       <c r="M40" s="76">
         <v>33</v>
       </c>
-      <c r="N40" s="104"/>
-      <c r="O40" s="104"/>
-      <c r="P40" s="104"/>
+      <c r="N40" s="120"/>
+      <c r="O40" s="120"/>
+      <c r="P40" s="120"/>
     </row>
     <row r="41" spans="2:16" ht="21">
-      <c r="B41" s="104"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="110"/>
+      <c r="B41" s="120"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="127"/>
       <c r="F41" s="75" t="s">
         <v>286</v>
       </c>
@@ -5270,7 +5400,7 @@
       <c r="H41" s="76">
         <v>121</v>
       </c>
-      <c r="I41" s="104"/>
+      <c r="I41" s="120"/>
       <c r="J41" s="77">
         <v>3.456E-2</v>
       </c>
@@ -5283,15 +5413,15 @@
       <c r="M41" s="76">
         <v>24</v>
       </c>
-      <c r="N41" s="104"/>
-      <c r="O41" s="104"/>
-      <c r="P41" s="104"/>
+      <c r="N41" s="120"/>
+      <c r="O41" s="120"/>
+      <c r="P41" s="120"/>
     </row>
     <row r="42" spans="2:16" ht="37.5">
-      <c r="B42" s="104"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="110"/>
+      <c r="B42" s="120"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="127"/>
       <c r="F42" s="75" t="s">
         <v>288</v>
       </c>
@@ -5301,7 +5431,7 @@
       <c r="H42" s="76">
         <v>24</v>
       </c>
-      <c r="I42" s="104"/>
+      <c r="I42" s="120"/>
       <c r="J42" s="77">
         <v>7.4880000000000002E-2</v>
       </c>
@@ -5314,15 +5444,15 @@
       <c r="M42" s="76">
         <v>15</v>
       </c>
-      <c r="N42" s="104"/>
-      <c r="O42" s="104"/>
-      <c r="P42" s="104"/>
+      <c r="N42" s="120"/>
+      <c r="O42" s="120"/>
+      <c r="P42" s="120"/>
     </row>
     <row r="43" spans="2:16" ht="21">
-      <c r="B43" s="105"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="111"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="128"/>
       <c r="F43" s="75" t="s">
         <v>289</v>
       </c>
@@ -5332,7 +5462,7 @@
       <c r="H43" s="76">
         <v>150</v>
       </c>
-      <c r="I43" s="105"/>
+      <c r="I43" s="121"/>
       <c r="J43" s="77">
         <v>1.512</v>
       </c>
@@ -5345,17 +5475,17 @@
       <c r="M43" s="76">
         <v>30</v>
       </c>
-      <c r="N43" s="105"/>
-      <c r="O43" s="105"/>
-      <c r="P43" s="105"/>
+      <c r="N43" s="121"/>
+      <c r="O43" s="121"/>
+      <c r="P43" s="121"/>
     </row>
     <row r="44" spans="2:16" ht="22.5">
-      <c r="B44" s="102" t="s">
+      <c r="B44" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C44" s="102"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="102"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
       <c r="F44" s="71" t="s">
         <v>290</v>
       </c>
@@ -5375,28 +5505,28 @@
       <c r="P44" s="79"/>
     </row>
     <row r="45" spans="2:16" ht="21">
-      <c r="B45" s="103" t="s">
+      <c r="B45" s="122" t="s">
         <v>291</v>
       </c>
-      <c r="C45" s="106" t="s">
+      <c r="C45" s="119" t="s">
         <v>292</v>
       </c>
-      <c r="D45" s="103" t="s">
+      <c r="D45" s="122" t="s">
         <v>293</v>
       </c>
-      <c r="E45" s="109">
+      <c r="E45" s="126">
         <v>45668</v>
       </c>
       <c r="F45" s="75" t="s">
         <v>294</v>
       </c>
-      <c r="G45" s="106" t="s">
+      <c r="G45" s="119" t="s">
         <v>295</v>
       </c>
       <c r="H45" s="76">
         <v>300</v>
       </c>
-      <c r="I45" s="103">
+      <c r="I45" s="122">
         <v>680</v>
       </c>
       <c r="J45" s="77">
@@ -5411,29 +5541,29 @@
       <c r="M45" s="76">
         <v>24</v>
       </c>
-      <c r="N45" s="112">
+      <c r="N45" s="123">
         <v>45671</v>
       </c>
-      <c r="O45" s="112">
+      <c r="O45" s="123">
         <v>45714</v>
       </c>
-      <c r="P45" s="103" t="s">
+      <c r="P45" s="122" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="21">
-      <c r="B46" s="104"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="104"/>
-      <c r="E46" s="110"/>
+      <c r="B46" s="120"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="127"/>
       <c r="F46" s="75" t="s">
         <v>297</v>
       </c>
-      <c r="G46" s="104"/>
+      <c r="G46" s="120"/>
       <c r="H46" s="76">
         <v>80</v>
       </c>
-      <c r="I46" s="104"/>
+      <c r="I46" s="120"/>
       <c r="J46" s="77">
         <v>0.189</v>
       </c>
@@ -5446,23 +5576,23 @@
       <c r="M46" s="76">
         <v>30</v>
       </c>
-      <c r="N46" s="104"/>
-      <c r="O46" s="104"/>
-      <c r="P46" s="104"/>
+      <c r="N46" s="120"/>
+      <c r="O46" s="120"/>
+      <c r="P46" s="120"/>
     </row>
     <row r="47" spans="2:16" ht="21">
-      <c r="B47" s="105"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="111"/>
+      <c r="B47" s="121"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="128"/>
       <c r="F47" s="75" t="s">
         <v>298</v>
       </c>
-      <c r="G47" s="105"/>
+      <c r="G47" s="121"/>
       <c r="H47" s="76">
         <v>5100</v>
       </c>
-      <c r="I47" s="105"/>
+      <c r="I47" s="121"/>
       <c r="J47" s="77">
         <v>2.7820800000000001</v>
       </c>
@@ -5475,17 +5605,17 @@
       <c r="M47" s="76">
         <v>28</v>
       </c>
-      <c r="N47" s="105"/>
-      <c r="O47" s="105"/>
-      <c r="P47" s="105"/>
+      <c r="N47" s="121"/>
+      <c r="O47" s="121"/>
+      <c r="P47" s="121"/>
     </row>
     <row r="48" spans="2:16" ht="22.5">
-      <c r="B48" s="102" t="s">
+      <c r="B48" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="102"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="102"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
       <c r="F48" s="71" t="s">
         <v>284</v>
       </c>
@@ -5550,12 +5680,12 @@
       <c r="P49" s="76"/>
     </row>
     <row r="50" spans="2:16" ht="22.5">
-      <c r="B50" s="102" t="s">
+      <c r="B50" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C50" s="102"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="110"/>
       <c r="F50" s="71" t="s">
         <v>300</v>
       </c>
@@ -5575,24 +5705,24 @@
       <c r="P50" s="79"/>
     </row>
     <row r="51" spans="2:16" ht="21">
-      <c r="B51" s="113" t="s">
+      <c r="B51" s="111" t="s">
         <v>301</v>
       </c>
       <c r="C51" s="38"/>
-      <c r="D51" s="113" t="s">
+      <c r="D51" s="111" t="s">
         <v>263</v>
       </c>
-      <c r="E51" s="115">
+      <c r="E51" s="114">
         <v>45671</v>
       </c>
       <c r="F51" s="68" t="s">
         <v>302</v>
       </c>
-      <c r="G51" s="113" t="s">
+      <c r="G51" s="111" t="s">
         <v>265</v>
       </c>
       <c r="H51" s="38"/>
-      <c r="I51" s="113"/>
+      <c r="I51" s="111"/>
       <c r="J51" s="69">
         <v>7.7367000000000008</v>
       </c>
@@ -5614,16 +5744,16 @@
       <c r="P51" s="38"/>
     </row>
     <row r="52" spans="2:16" ht="21">
-      <c r="B52" s="114"/>
+      <c r="B52" s="113"/>
       <c r="C52" s="38"/>
-      <c r="D52" s="114"/>
+      <c r="D52" s="113"/>
       <c r="E52" s="116"/>
       <c r="F52" s="68" t="s">
         <v>303</v>
       </c>
-      <c r="G52" s="114"/>
+      <c r="G52" s="113"/>
       <c r="H52" s="38"/>
-      <c r="I52" s="114"/>
+      <c r="I52" s="113"/>
       <c r="J52" s="69">
         <v>0.67200000000000004</v>
       </c>
@@ -5641,12 +5771,12 @@
       <c r="P52" s="38"/>
     </row>
     <row r="53" spans="2:16" ht="22.5">
-      <c r="B53" s="102" t="s">
+      <c r="B53" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C53" s="102"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="110"/>
       <c r="F53" s="71" t="s">
         <v>303</v>
       </c>
@@ -5707,12 +5837,12 @@
       <c r="P54" s="38"/>
     </row>
     <row r="55" spans="2:16" ht="22.5">
-      <c r="B55" s="102" t="s">
+      <c r="B55" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C55" s="102"/>
-      <c r="D55" s="102"/>
-      <c r="E55" s="102"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="110"/>
       <c r="F55" s="71" t="s">
         <v>225</v>
       </c>
@@ -5778,12 +5908,12 @@
       <c r="P56" s="76"/>
     </row>
     <row r="57" spans="2:16" ht="22.5">
-      <c r="B57" s="102" t="s">
+      <c r="B57" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C57" s="102"/>
-      <c r="D57" s="102"/>
-      <c r="E57" s="102"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="110"/>
+      <c r="E57" s="110"/>
       <c r="F57" s="71" t="s">
         <v>225</v>
       </c>
@@ -5805,29 +5935,29 @@
       <c r="P57" s="79"/>
     </row>
     <row r="58" spans="2:16" ht="21">
-      <c r="B58" s="113" t="s">
+      <c r="B58" s="111" t="s">
         <v>312</v>
       </c>
-      <c r="C58" s="113" t="s">
+      <c r="C58" s="111" t="s">
         <v>313</v>
       </c>
-      <c r="D58" s="113" t="s">
+      <c r="D58" s="111" t="s">
         <v>217</v>
       </c>
-      <c r="E58" s="115">
+      <c r="E58" s="114">
         <v>45676</v>
       </c>
       <c r="F58" s="68" t="s">
         <v>314</v>
       </c>
-      <c r="G58" s="113" t="s">
+      <c r="G58" s="111" t="s">
         <v>237</v>
       </c>
       <c r="H58" s="38">
         <f>35*28</f>
         <v>980</v>
       </c>
-      <c r="I58" s="113">
+      <c r="I58" s="111">
         <f>25*52</f>
         <v>1300</v>
       </c>
@@ -5844,10 +5974,10 @@
       <c r="M58" s="38">
         <v>29</v>
       </c>
-      <c r="N58" s="117" t="s">
+      <c r="N58" s="118" t="s">
         <v>244</v>
       </c>
-      <c r="O58" s="117" t="s">
+      <c r="O58" s="118" t="s">
         <v>244</v>
       </c>
       <c r="P58" s="95" t="s">
@@ -5855,19 +5985,19 @@
       </c>
     </row>
     <row r="59" spans="2:16" ht="21">
-      <c r="B59" s="114"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="114"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="113"/>
+      <c r="D59" s="113"/>
       <c r="E59" s="116"/>
       <c r="F59" s="68" t="s">
         <v>315</v>
       </c>
-      <c r="G59" s="114"/>
+      <c r="G59" s="113"/>
       <c r="H59" s="38">
         <f>35*24</f>
         <v>840</v>
       </c>
-      <c r="I59" s="114"/>
+      <c r="I59" s="113"/>
       <c r="J59" s="69">
         <f>K59*L59*M59/1000000*24</f>
         <v>2.3353920000000001</v>
@@ -5881,17 +6011,17 @@
       <c r="M59" s="38">
         <v>36</v>
       </c>
-      <c r="N59" s="114"/>
-      <c r="O59" s="114"/>
+      <c r="N59" s="113"/>
+      <c r="O59" s="113"/>
       <c r="P59" s="96"/>
     </row>
     <row r="60" spans="2:16" ht="22.5">
-      <c r="B60" s="102" t="s">
+      <c r="B60" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C60" s="102"/>
-      <c r="D60" s="102"/>
-      <c r="E60" s="102"/>
+      <c r="C60" s="110"/>
+      <c r="D60" s="110"/>
+      <c r="E60" s="110"/>
       <c r="F60" s="71" t="s">
         <v>316</v>
       </c>
@@ -5913,27 +6043,27 @@
       <c r="P60" s="74"/>
     </row>
     <row r="61" spans="2:16" ht="21">
-      <c r="B61" s="113" t="s">
+      <c r="B61" s="111" t="s">
         <v>317</v>
       </c>
-      <c r="C61" s="113"/>
-      <c r="D61" s="113" t="s">
+      <c r="C61" s="111"/>
+      <c r="D61" s="111" t="s">
         <v>217</v>
       </c>
-      <c r="E61" s="115">
+      <c r="E61" s="114">
         <v>45677</v>
       </c>
       <c r="F61" s="68" t="s">
         <v>318</v>
       </c>
-      <c r="G61" s="113" t="s">
+      <c r="G61" s="111" t="s">
         <v>237</v>
       </c>
       <c r="H61" s="38">
         <f>50*20+60*32+40</f>
         <v>2960</v>
       </c>
-      <c r="I61" s="113">
+      <c r="I61" s="111">
         <f>25*339</f>
         <v>8475</v>
       </c>
@@ -5950,10 +6080,10 @@
       <c r="M61" s="38">
         <v>40</v>
       </c>
-      <c r="N61" s="113" t="s">
+      <c r="N61" s="111" t="s">
         <v>244</v>
       </c>
-      <c r="O61" s="113" t="s">
+      <c r="O61" s="111" t="s">
         <v>244</v>
       </c>
       <c r="P61" s="38" t="s">
@@ -5961,19 +6091,19 @@
       </c>
     </row>
     <row r="62" spans="2:16" ht="21">
-      <c r="B62" s="118"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="118"/>
-      <c r="E62" s="119"/>
+      <c r="B62" s="112"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="115"/>
       <c r="F62" s="68" t="s">
         <v>319</v>
       </c>
-      <c r="G62" s="118"/>
+      <c r="G62" s="112"/>
       <c r="H62" s="38">
         <f>40*16</f>
         <v>640</v>
       </c>
-      <c r="I62" s="118"/>
+      <c r="I62" s="112"/>
       <c r="J62" s="69">
         <f>K62*L62*M62/1000000*16</f>
         <v>1.66656</v>
@@ -5987,26 +6117,26 @@
       <c r="M62" s="38">
         <v>28</v>
       </c>
-      <c r="N62" s="118"/>
-      <c r="O62" s="118"/>
+      <c r="N62" s="112"/>
+      <c r="O62" s="112"/>
       <c r="P62" s="38" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="63" spans="2:16" ht="21">
-      <c r="B63" s="114"/>
-      <c r="C63" s="114"/>
-      <c r="D63" s="114"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="113"/>
       <c r="E63" s="116"/>
       <c r="F63" s="68" t="s">
         <v>320</v>
       </c>
-      <c r="G63" s="114"/>
+      <c r="G63" s="113"/>
       <c r="H63" s="38">
         <f>40*270</f>
         <v>10800</v>
       </c>
-      <c r="I63" s="114"/>
+      <c r="I63" s="113"/>
       <c r="J63" s="69">
         <f>K63*L63*M63/1000000*270</f>
         <v>32.129999999999995</v>
@@ -6020,19 +6150,19 @@
       <c r="M63" s="38">
         <v>70</v>
       </c>
-      <c r="N63" s="114"/>
-      <c r="O63" s="114"/>
+      <c r="N63" s="113"/>
+      <c r="O63" s="113"/>
       <c r="P63" s="38" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="64" spans="2:16" ht="22.5">
-      <c r="B64" s="102" t="s">
+      <c r="B64" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C64" s="102"/>
-      <c r="D64" s="102"/>
-      <c r="E64" s="102"/>
+      <c r="C64" s="110"/>
+      <c r="D64" s="110"/>
+      <c r="E64" s="110"/>
       <c r="F64" s="71" t="s">
         <v>321</v>
       </c>
@@ -6054,28 +6184,28 @@
       <c r="P64" s="74"/>
     </row>
     <row r="65" spans="2:16" ht="21">
-      <c r="B65" s="113" t="s">
+      <c r="B65" s="111" t="s">
         <v>322</v>
       </c>
-      <c r="C65" s="120" t="s">
+      <c r="C65" s="117" t="s">
         <v>323</v>
       </c>
-      <c r="D65" s="113" t="s">
+      <c r="D65" s="111" t="s">
         <v>324</v>
       </c>
-      <c r="E65" s="115">
+      <c r="E65" s="114">
         <v>45678</v>
       </c>
       <c r="F65" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="G65" s="113" t="s">
+      <c r="G65" s="111" t="s">
         <v>325</v>
       </c>
       <c r="H65" s="38">
         <v>1</v>
       </c>
-      <c r="I65" s="113">
+      <c r="I65" s="111">
         <v>37</v>
       </c>
       <c r="J65" s="69">
@@ -6096,18 +6226,18 @@
       <c r="P65" s="38"/>
     </row>
     <row r="66" spans="2:16" ht="21">
-      <c r="B66" s="118"/>
-      <c r="C66" s="118"/>
-      <c r="D66" s="118"/>
-      <c r="E66" s="119"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="112"/>
+      <c r="D66" s="112"/>
+      <c r="E66" s="115"/>
       <c r="F66" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="G66" s="118"/>
+      <c r="G66" s="112"/>
       <c r="H66" s="38">
         <v>10</v>
       </c>
-      <c r="I66" s="118"/>
+      <c r="I66" s="112"/>
       <c r="J66" s="69">
         <f t="shared" si="0"/>
         <v>0.18360000000000001</v>
@@ -6126,18 +6256,18 @@
       <c r="P66" s="38"/>
     </row>
     <row r="67" spans="2:16" ht="21">
-      <c r="B67" s="118"/>
-      <c r="C67" s="118"/>
-      <c r="D67" s="118"/>
-      <c r="E67" s="119"/>
+      <c r="B67" s="112"/>
+      <c r="C67" s="112"/>
+      <c r="D67" s="112"/>
+      <c r="E67" s="115"/>
       <c r="F67" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="G67" s="118"/>
+      <c r="G67" s="112"/>
       <c r="H67" s="38">
         <v>10</v>
       </c>
-      <c r="I67" s="118"/>
+      <c r="I67" s="112"/>
       <c r="J67" s="69">
         <f t="shared" si="0"/>
         <v>0.18240999999999999</v>
@@ -6156,18 +6286,18 @@
       <c r="P67" s="38"/>
     </row>
     <row r="68" spans="2:16" ht="21">
-      <c r="B68" s="114"/>
-      <c r="C68" s="114"/>
-      <c r="D68" s="114"/>
+      <c r="B68" s="113"/>
+      <c r="C68" s="113"/>
+      <c r="D68" s="113"/>
       <c r="E68" s="116"/>
       <c r="F68" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="G68" s="114"/>
+      <c r="G68" s="113"/>
       <c r="H68" s="38">
         <v>2</v>
       </c>
-      <c r="I68" s="114"/>
+      <c r="I68" s="113"/>
       <c r="J68" s="69">
         <f t="shared" si="0"/>
         <v>4.9919999999999999E-2</v>
@@ -6186,28 +6316,28 @@
       <c r="P68" s="38"/>
     </row>
     <row r="69" spans="2:16" ht="21">
-      <c r="B69" s="113" t="s">
+      <c r="B69" s="111" t="s">
         <v>326</v>
       </c>
       <c r="C69" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="D69" s="113" t="s">
+      <c r="D69" s="111" t="s">
         <v>324</v>
       </c>
-      <c r="E69" s="115">
+      <c r="E69" s="114">
         <v>45678</v>
       </c>
       <c r="F69" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="G69" s="113" t="s">
+      <c r="G69" s="111" t="s">
         <v>325</v>
       </c>
       <c r="H69" s="38">
         <v>3</v>
       </c>
-      <c r="I69" s="113">
+      <c r="I69" s="111">
         <v>20</v>
       </c>
       <c r="J69" s="69">
@@ -6228,20 +6358,20 @@
       <c r="P69" s="38"/>
     </row>
     <row r="70" spans="2:16" ht="21">
-      <c r="B70" s="118"/>
+      <c r="B70" s="112"/>
       <c r="C70" s="38">
         <v>2660</v>
       </c>
-      <c r="D70" s="118"/>
-      <c r="E70" s="119"/>
+      <c r="D70" s="112"/>
+      <c r="E70" s="115"/>
       <c r="F70" s="68" t="s">
         <v>329</v>
       </c>
-      <c r="G70" s="118"/>
+      <c r="G70" s="112"/>
       <c r="H70" s="38">
         <v>10</v>
       </c>
-      <c r="I70" s="118"/>
+      <c r="I70" s="112"/>
       <c r="J70" s="69">
         <f t="shared" si="0"/>
         <v>4.2335999999999999E-2</v>
@@ -6260,20 +6390,20 @@
       <c r="P70" s="38"/>
     </row>
     <row r="71" spans="2:16" ht="21">
-      <c r="B71" s="114"/>
+      <c r="B71" s="113"/>
       <c r="C71" s="38">
         <v>2461</v>
       </c>
-      <c r="D71" s="114"/>
+      <c r="D71" s="113"/>
       <c r="E71" s="116"/>
       <c r="F71" s="68" t="s">
         <v>330</v>
       </c>
-      <c r="G71" s="114"/>
+      <c r="G71" s="113"/>
       <c r="H71" s="38">
         <v>130</v>
       </c>
-      <c r="I71" s="114"/>
+      <c r="I71" s="113"/>
       <c r="J71" s="69">
         <f t="shared" si="0"/>
         <v>0.1176</v>
@@ -6292,12 +6422,12 @@
       <c r="P71" s="38"/>
     </row>
     <row r="72" spans="2:16" ht="22.5">
-      <c r="B72" s="102" t="s">
+      <c r="B72" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C72" s="102"/>
-      <c r="D72" s="102"/>
-      <c r="E72" s="102"/>
+      <c r="C72" s="110"/>
+      <c r="D72" s="110"/>
+      <c r="E72" s="110"/>
       <c r="F72" s="71" t="s">
         <v>330</v>
       </c>
@@ -6331,7 +6461,7 @@
       <c r="E73" s="42">
         <v>45703</v>
       </c>
-      <c r="F73" s="143" t="s">
+      <c r="F73" s="101" t="s">
         <v>362</v>
       </c>
       <c r="G73" s="41" t="s">
@@ -6341,7 +6471,7 @@
       <c r="I73" s="41">
         <v>55</v>
       </c>
-      <c r="J73" s="144">
+      <c r="J73" s="102">
         <v>0.25480000000000003</v>
       </c>
       <c r="K73" s="41">
@@ -6360,54 +6490,54 @@
       </c>
     </row>
     <row r="74" spans="2:16" ht="22.5">
-      <c r="B74" s="102" t="s">
+      <c r="B74" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="102"/>
-      <c r="D74" s="102"/>
-      <c r="E74" s="102"/>
-      <c r="F74" s="145" t="s">
+      <c r="C74" s="110"/>
+      <c r="D74" s="110"/>
+      <c r="E74" s="110"/>
+      <c r="F74" s="103" t="s">
         <v>228</v>
       </c>
-      <c r="G74" s="146"/>
-      <c r="H74" s="146"/>
-      <c r="I74" s="146">
+      <c r="G74" s="104"/>
+      <c r="H74" s="104"/>
+      <c r="I74" s="104">
         <v>55</v>
       </c>
-      <c r="J74" s="147">
+      <c r="J74" s="105">
         <v>0.25480000000000003</v>
       </c>
-      <c r="K74" s="146"/>
-      <c r="L74" s="146"/>
-      <c r="M74" s="146"/>
+      <c r="K74" s="104"/>
+      <c r="L74" s="104"/>
+      <c r="M74" s="104"/>
       <c r="N74" s="63"/>
       <c r="O74" s="63"/>
       <c r="P74" s="63"/>
     </row>
     <row r="75" spans="2:16" ht="42">
-      <c r="B75" s="148" t="s">
+      <c r="B75" s="106" t="s">
         <v>363</v>
       </c>
       <c r="C75" s="39" t="s">
         <v>364</v>
       </c>
-      <c r="D75" s="148" t="s">
+      <c r="D75" s="106" t="s">
         <v>365</v>
       </c>
       <c r="E75" s="42">
         <v>45701</v>
       </c>
-      <c r="F75" s="143" t="s">
+      <c r="F75" s="101" t="s">
         <v>225</v>
       </c>
-      <c r="G75" s="149" t="s">
+      <c r="G75" s="107" t="s">
         <v>366</v>
       </c>
       <c r="H75" s="41"/>
       <c r="I75" s="41">
         <v>400</v>
       </c>
-      <c r="J75" s="144">
+      <c r="J75" s="102">
         <v>1.089855</v>
       </c>
       <c r="K75" s="41">
@@ -6426,49 +6556,229 @@
       </c>
     </row>
     <row r="76" spans="2:16" ht="22.5">
-      <c r="B76" s="102" t="s">
+      <c r="B76" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C76" s="102"/>
-      <c r="D76" s="102"/>
-      <c r="E76" s="102"/>
-      <c r="F76" s="145" t="s">
+      <c r="C76" s="110"/>
+      <c r="D76" s="110"/>
+      <c r="E76" s="110"/>
+      <c r="F76" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="G76" s="150"/>
-      <c r="H76" s="146"/>
-      <c r="I76" s="146">
+      <c r="G76" s="108"/>
+      <c r="H76" s="104"/>
+      <c r="I76" s="104">
         <v>400</v>
       </c>
-      <c r="J76" s="147">
+      <c r="J76" s="105">
         <v>1.089855</v>
       </c>
-      <c r="K76" s="146"/>
-      <c r="L76" s="146"/>
-      <c r="M76" s="146"/>
+      <c r="K76" s="104"/>
+      <c r="L76" s="104"/>
+      <c r="M76" s="104"/>
       <c r="N76" s="63"/>
       <c r="O76" s="63"/>
-      <c r="P76" s="151" t="s">
+      <c r="P76" s="109" t="s">
         <v>368</v>
       </c>
     </row>
+    <row r="77" spans="2:16" ht="42">
+      <c r="B77" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="C77" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="E77" s="42">
+        <v>45706</v>
+      </c>
+      <c r="F77" s="101" t="s">
+        <v>371</v>
+      </c>
+      <c r="G77" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="H77" s="41">
+        <v>5660</v>
+      </c>
+      <c r="I77" s="41">
+        <v>3400</v>
+      </c>
+      <c r="J77" s="102">
+        <v>16.456440000000001</v>
+      </c>
+      <c r="K77" s="41">
+        <v>70</v>
+      </c>
+      <c r="L77" s="41">
+        <v>52</v>
+      </c>
+      <c r="M77" s="41">
+        <v>33</v>
+      </c>
+      <c r="N77" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="O77" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="P77" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" ht="22.5">
+      <c r="B78" s="110" t="s">
+        <v>220</v>
+      </c>
+      <c r="C78" s="110"/>
+      <c r="D78" s="110"/>
+      <c r="E78" s="110"/>
+      <c r="F78" s="103" t="s">
+        <v>372</v>
+      </c>
+      <c r="G78" s="152"/>
+      <c r="H78" s="104"/>
+      <c r="I78" s="152">
+        <v>3400</v>
+      </c>
+      <c r="J78" s="105">
+        <v>16.456440000000001</v>
+      </c>
+      <c r="K78" s="104"/>
+      <c r="L78" s="104"/>
+      <c r="M78" s="104"/>
+      <c r="N78" s="63"/>
+      <c r="O78" s="63"/>
+      <c r="P78" s="63"/>
+    </row>
+    <row r="79" spans="2:16" ht="21">
+      <c r="B79" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="C79" s="41">
+        <v>18680185099</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="E79" s="42">
+        <v>45706</v>
+      </c>
+      <c r="F79" s="101" t="s">
+        <v>375</v>
+      </c>
+      <c r="G79" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="H79" s="41">
+        <v>3400</v>
+      </c>
+      <c r="I79" s="41">
+        <v>1000</v>
+      </c>
+      <c r="J79" s="102">
+        <v>2.4089999999999998</v>
+      </c>
+      <c r="K79" s="41">
+        <v>50</v>
+      </c>
+      <c r="L79" s="41">
+        <v>33</v>
+      </c>
+      <c r="M79" s="41">
+        <v>73</v>
+      </c>
+      <c r="N79" s="39"/>
+      <c r="O79" s="39"/>
+      <c r="P79" s="41"/>
+    </row>
+    <row r="80" spans="2:16" ht="22.5">
+      <c r="B80" s="110" t="s">
+        <v>220</v>
+      </c>
+      <c r="C80" s="110"/>
+      <c r="D80" s="110"/>
+      <c r="E80" s="110"/>
+      <c r="F80" s="103" t="s">
+        <v>377</v>
+      </c>
+      <c r="G80" s="83"/>
+      <c r="H80" s="104"/>
+      <c r="I80" s="104">
+        <v>1000</v>
+      </c>
+      <c r="J80" s="105">
+        <v>2.4089999999999998</v>
+      </c>
+      <c r="K80" s="104"/>
+      <c r="L80" s="104"/>
+      <c r="M80" s="104"/>
+      <c r="N80" s="63"/>
+      <c r="O80" s="63"/>
+      <c r="P80" s="63"/>
+    </row>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="G65:G68"/>
-    <mergeCell ref="I65:I68"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="E65:E68"/>
+  <mergeCells count="88">
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="E38:E43"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="I38:I43"/>
+    <mergeCell ref="N38:N43"/>
+    <mergeCell ref="O38:O43"/>
+    <mergeCell ref="P38:P43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="N45:N47"/>
+    <mergeCell ref="O45:O47"/>
+    <mergeCell ref="P45:P47"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B57:E57"/>
     <mergeCell ref="N58:N59"/>
     <mergeCell ref="O58:O59"/>
     <mergeCell ref="B60:E60"/>
@@ -6485,61 +6795,21 @@
     <mergeCell ref="D58:D59"/>
     <mergeCell ref="E58:E59"/>
     <mergeCell ref="G58:G59"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="N45:N47"/>
-    <mergeCell ref="O45:O47"/>
-    <mergeCell ref="P45:P47"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="I38:I43"/>
-    <mergeCell ref="N38:N43"/>
-    <mergeCell ref="O38:O43"/>
-    <mergeCell ref="P38:P43"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="E38:E43"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="G65:G68"/>
+    <mergeCell ref="I65:I68"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="I69:I71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6547,11 +6817,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DD94FD-D993-429D-A766-D707FAC76EEB}">
-  <dimension ref="A1:P120"/>
+  <dimension ref="A1:P130"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
+      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6631,11 +6901,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="100" t="s">
+      <c r="K2" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -6647,10 +6917,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="121"/>
+      <c r="B3" s="151"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -7226,25 +7496,25 @@
       <c r="A21" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="122" t="s">
+      <c r="B21" s="148" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="122" t="s">
+      <c r="D21" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="115">
+      <c r="E21" s="114">
         <v>45661</v>
       </c>
       <c r="F21" s="28">
         <v>1</v>
       </c>
-      <c r="G21" s="122" t="s">
+      <c r="G21" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="122">
+      <c r="H21" s="148">
         <v>2</v>
       </c>
       <c r="I21" s="28">
@@ -7263,7 +7533,7 @@
         <v>13</v>
       </c>
       <c r="N21" s="28"/>
-      <c r="O21" s="122" t="s">
+      <c r="O21" s="148" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7271,17 +7541,17 @@
       <c r="A22" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="123"/>
+      <c r="B22" s="149"/>
       <c r="C22" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="123"/>
+      <c r="D22" s="149"/>
       <c r="E22" s="116"/>
       <c r="F22" s="28">
         <v>2</v>
       </c>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149"/>
       <c r="I22" s="28">
         <v>1.1000000000000001</v>
       </c>
@@ -7298,7 +7568,7 @@
         <v>13</v>
       </c>
       <c r="N22" s="28"/>
-      <c r="O22" s="123"/>
+      <c r="O22" s="149"/>
     </row>
     <row r="23" spans="1:15" ht="22.5">
       <c r="A23" s="32"/>
@@ -7883,25 +8153,25 @@
       <c r="A40" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="122" t="s">
+      <c r="B40" s="148" t="s">
         <v>89</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="122" t="s">
+      <c r="D40" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="115">
+      <c r="E40" s="114">
         <v>45664</v>
       </c>
       <c r="F40" s="28">
         <v>1</v>
       </c>
-      <c r="G40" s="122" t="s">
+      <c r="G40" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="122">
+      <c r="H40" s="148">
         <v>3</v>
       </c>
       <c r="I40" s="28">
@@ -7920,7 +8190,7 @@
         <v>20</v>
       </c>
       <c r="N40" s="28"/>
-      <c r="O40" s="122" t="s">
+      <c r="O40" s="148" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7928,17 +8198,17 @@
       <c r="A41" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="128"/>
+      <c r="B41" s="150"/>
       <c r="C41" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="128"/>
-      <c r="E41" s="119"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="115"/>
       <c r="F41" s="28">
         <v>2</v>
       </c>
-      <c r="G41" s="128"/>
-      <c r="H41" s="128"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
       <c r="I41" s="28">
         <v>1.4</v>
       </c>
@@ -7955,23 +8225,23 @@
         <v>20</v>
       </c>
       <c r="N41" s="28"/>
-      <c r="O41" s="128"/>
+      <c r="O41" s="150"/>
     </row>
     <row r="42" spans="1:15" ht="21">
       <c r="A42" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="123"/>
+      <c r="B42" s="149"/>
       <c r="C42" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="123"/>
+      <c r="D42" s="149"/>
       <c r="E42" s="116"/>
       <c r="F42" s="28">
         <v>3</v>
       </c>
-      <c r="G42" s="123"/>
-      <c r="H42" s="123"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
       <c r="I42" s="28">
         <v>2</v>
       </c>
@@ -7988,7 +8258,7 @@
         <v>20</v>
       </c>
       <c r="N42" s="28"/>
-      <c r="O42" s="123"/>
+      <c r="O42" s="149"/>
     </row>
     <row r="43" spans="1:15" ht="22.5">
       <c r="A43" s="32"/>
@@ -8231,42 +8501,42 @@
       <c r="A50" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="126" t="s">
+      <c r="B50" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="126" t="s">
+      <c r="C50" s="144" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="126" t="s">
+      <c r="D50" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="124">
+      <c r="E50" s="136">
         <v>45666</v>
       </c>
       <c r="F50" s="41">
         <v>1</v>
       </c>
-      <c r="G50" s="126" t="s">
+      <c r="G50" s="144" t="s">
         <v>25</v>
       </c>
       <c r="H50" s="41"/>
-      <c r="I50" s="126">
+      <c r="I50" s="144">
         <v>10.199999999999999</v>
       </c>
-      <c r="J50" s="133">
+      <c r="J50" s="146">
         <v>0.10335</v>
       </c>
-      <c r="K50" s="126">
+      <c r="K50" s="144">
         <v>53</v>
       </c>
-      <c r="L50" s="126">
+      <c r="L50" s="144">
         <v>39</v>
       </c>
-      <c r="M50" s="126">
+      <c r="M50" s="144">
         <v>50</v>
       </c>
       <c r="N50" s="41"/>
-      <c r="O50" s="126" t="s">
+      <c r="O50" s="144" t="s">
         <v>109</v>
       </c>
     </row>
@@ -8274,22 +8544,22 @@
       <c r="A51" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="127"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="127"/>
-      <c r="E51" s="125"/>
+      <c r="B51" s="145"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="138"/>
       <c r="F51" s="41">
         <v>2</v>
       </c>
-      <c r="G51" s="127"/>
+      <c r="G51" s="145"/>
       <c r="H51" s="41"/>
-      <c r="I51" s="127"/>
-      <c r="J51" s="134"/>
-      <c r="K51" s="127"/>
-      <c r="L51" s="127"/>
-      <c r="M51" s="127"/>
+      <c r="I51" s="145"/>
+      <c r="J51" s="147"/>
+      <c r="K51" s="145"/>
+      <c r="L51" s="145"/>
+      <c r="M51" s="145"/>
       <c r="N51" s="41"/>
-      <c r="O51" s="127"/>
+      <c r="O51" s="145"/>
     </row>
     <row r="52" spans="1:15" ht="22.5">
       <c r="A52" s="32"/>
@@ -8320,25 +8590,25 @@
       <c r="A53" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="129" t="s">
+      <c r="B53" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="129" t="s">
+      <c r="C53" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="129" t="s">
+      <c r="D53" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="131">
+      <c r="E53" s="142">
         <v>45668</v>
       </c>
       <c r="F53" s="44">
         <v>1</v>
       </c>
-      <c r="G53" s="106" t="s">
+      <c r="G53" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="H53" s="129">
+      <c r="H53" s="140">
         <v>1676</v>
       </c>
       <c r="I53" s="44">
@@ -8358,7 +8628,7 @@
         <v>43</v>
       </c>
       <c r="N53" s="44"/>
-      <c r="O53" s="129" t="s">
+      <c r="O53" s="140" t="s">
         <v>115</v>
       </c>
     </row>
@@ -8366,15 +8636,15 @@
       <c r="A54" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="130"/>
-      <c r="C54" s="130"/>
-      <c r="D54" s="130"/>
-      <c r="E54" s="132"/>
+      <c r="B54" s="141"/>
+      <c r="C54" s="141"/>
+      <c r="D54" s="141"/>
+      <c r="E54" s="143"/>
       <c r="F54" s="44">
         <v>2</v>
       </c>
-      <c r="G54" s="108"/>
-      <c r="H54" s="130"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="141"/>
       <c r="I54" s="44">
         <v>16.7</v>
       </c>
@@ -8392,7 +8662,7 @@
         <v>30</v>
       </c>
       <c r="N54" s="44"/>
-      <c r="O54" s="130"/>
+      <c r="O54" s="141"/>
     </row>
     <row r="55" spans="1:15" ht="22.5">
       <c r="A55" s="32"/>
@@ -8423,25 +8693,25 @@
       <c r="A56" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="129" t="s">
+      <c r="B56" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="129" t="s">
+      <c r="C56" s="140" t="s">
         <v>119</v>
       </c>
-      <c r="D56" s="129" t="s">
+      <c r="D56" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="E56" s="131">
+      <c r="E56" s="142">
         <v>45670</v>
       </c>
       <c r="F56" s="44">
         <v>1</v>
       </c>
-      <c r="G56" s="106" t="s">
+      <c r="G56" s="119" t="s">
         <v>120</v>
       </c>
-      <c r="H56" s="129">
+      <c r="H56" s="140">
         <v>145</v>
       </c>
       <c r="I56" s="44">
@@ -8461,7 +8731,7 @@
         <v>23</v>
       </c>
       <c r="N56" s="52"/>
-      <c r="O56" s="129" t="s">
+      <c r="O56" s="140" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8469,15 +8739,15 @@
       <c r="A57" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="130"/>
-      <c r="C57" s="130"/>
-      <c r="D57" s="130"/>
-      <c r="E57" s="132"/>
+      <c r="B57" s="141"/>
+      <c r="C57" s="141"/>
+      <c r="D57" s="141"/>
+      <c r="E57" s="143"/>
       <c r="F57" s="44">
         <v>2</v>
       </c>
-      <c r="G57" s="108"/>
-      <c r="H57" s="130"/>
+      <c r="G57" s="125"/>
+      <c r="H57" s="141"/>
       <c r="I57" s="44">
         <v>13.7</v>
       </c>
@@ -8495,7 +8765,7 @@
         <v>49</v>
       </c>
       <c r="N57" s="44"/>
-      <c r="O57" s="130"/>
+      <c r="O57" s="141"/>
     </row>
     <row r="58" spans="1:15" ht="22.5">
       <c r="A58" s="32"/>
@@ -8932,20 +9202,20 @@
       <c r="A71" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="B71" s="135" t="s">
+      <c r="B71" s="133" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="135"/>
-      <c r="D71" s="135" t="s">
+      <c r="C71" s="133"/>
+      <c r="D71" s="133" t="s">
         <v>156</v>
       </c>
-      <c r="E71" s="124">
+      <c r="E71" s="136">
         <v>45673</v>
       </c>
       <c r="F71" s="53">
         <v>1</v>
       </c>
-      <c r="G71" s="135" t="s">
+      <c r="G71" s="133" t="s">
         <v>157</v>
       </c>
       <c r="H71" s="53">
@@ -8974,14 +9244,14 @@
       <c r="A72" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="136"/>
-      <c r="C72" s="136"/>
-      <c r="D72" s="136"/>
-      <c r="E72" s="138"/>
+      <c r="B72" s="134"/>
+      <c r="C72" s="134"/>
+      <c r="D72" s="134"/>
+      <c r="E72" s="137"/>
       <c r="F72" s="53">
         <v>2</v>
       </c>
-      <c r="G72" s="136"/>
+      <c r="G72" s="134"/>
       <c r="H72" s="53">
         <v>240</v>
       </c>
@@ -9008,14 +9278,14 @@
       <c r="A73" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="B73" s="136"/>
-      <c r="C73" s="136"/>
-      <c r="D73" s="136"/>
-      <c r="E73" s="138"/>
+      <c r="B73" s="134"/>
+      <c r="C73" s="134"/>
+      <c r="D73" s="134"/>
+      <c r="E73" s="137"/>
       <c r="F73" s="53">
         <v>3</v>
       </c>
-      <c r="G73" s="136"/>
+      <c r="G73" s="134"/>
       <c r="H73" s="53">
         <v>300</v>
       </c>
@@ -9042,14 +9312,14 @@
       <c r="A74" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="B74" s="136"/>
-      <c r="C74" s="136"/>
-      <c r="D74" s="136"/>
-      <c r="E74" s="138"/>
+      <c r="B74" s="134"/>
+      <c r="C74" s="134"/>
+      <c r="D74" s="134"/>
+      <c r="E74" s="137"/>
       <c r="F74" s="53">
         <v>4</v>
       </c>
-      <c r="G74" s="136"/>
+      <c r="G74" s="134"/>
       <c r="H74" s="53">
         <v>230</v>
       </c>
@@ -9076,14 +9346,14 @@
       <c r="A75" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="B75" s="136"/>
-      <c r="C75" s="136"/>
-      <c r="D75" s="136"/>
-      <c r="E75" s="138"/>
+      <c r="B75" s="134"/>
+      <c r="C75" s="134"/>
+      <c r="D75" s="134"/>
+      <c r="E75" s="137"/>
       <c r="F75" s="53">
         <v>5</v>
       </c>
-      <c r="G75" s="136"/>
+      <c r="G75" s="134"/>
       <c r="H75" s="53">
         <v>220</v>
       </c>
@@ -9110,14 +9380,14 @@
       <c r="A76" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B76" s="136"/>
-      <c r="C76" s="136"/>
-      <c r="D76" s="136"/>
-      <c r="E76" s="138"/>
+      <c r="B76" s="134"/>
+      <c r="C76" s="134"/>
+      <c r="D76" s="134"/>
+      <c r="E76" s="137"/>
       <c r="F76" s="53">
         <v>6</v>
       </c>
-      <c r="G76" s="136"/>
+      <c r="G76" s="134"/>
       <c r="H76" s="53">
         <v>200</v>
       </c>
@@ -9144,14 +9414,14 @@
       <c r="A77" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B77" s="136"/>
-      <c r="C77" s="136"/>
-      <c r="D77" s="136"/>
-      <c r="E77" s="138"/>
+      <c r="B77" s="134"/>
+      <c r="C77" s="134"/>
+      <c r="D77" s="134"/>
+      <c r="E77" s="137"/>
       <c r="F77" s="53">
         <v>7</v>
       </c>
-      <c r="G77" s="136"/>
+      <c r="G77" s="134"/>
       <c r="H77" s="53">
         <v>190</v>
       </c>
@@ -9178,14 +9448,14 @@
       <c r="A78" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="136"/>
-      <c r="C78" s="136"/>
-      <c r="D78" s="136"/>
-      <c r="E78" s="138"/>
+      <c r="B78" s="134"/>
+      <c r="C78" s="134"/>
+      <c r="D78" s="134"/>
+      <c r="E78" s="137"/>
       <c r="F78" s="53">
         <v>8</v>
       </c>
-      <c r="G78" s="136"/>
+      <c r="G78" s="134"/>
       <c r="H78" s="53">
         <v>200</v>
       </c>
@@ -9212,14 +9482,14 @@
       <c r="A79" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="B79" s="136"/>
-      <c r="C79" s="136"/>
-      <c r="D79" s="136"/>
-      <c r="E79" s="138"/>
+      <c r="B79" s="134"/>
+      <c r="C79" s="134"/>
+      <c r="D79" s="134"/>
+      <c r="E79" s="137"/>
       <c r="F79" s="53">
         <v>9</v>
       </c>
-      <c r="G79" s="136"/>
+      <c r="G79" s="134"/>
       <c r="H79" s="53">
         <v>200</v>
       </c>
@@ -9246,14 +9516,14 @@
       <c r="A80" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="B80" s="136"/>
-      <c r="C80" s="136"/>
-      <c r="D80" s="136"/>
-      <c r="E80" s="138"/>
+      <c r="B80" s="134"/>
+      <c r="C80" s="134"/>
+      <c r="D80" s="134"/>
+      <c r="E80" s="137"/>
       <c r="F80" s="53">
         <v>10</v>
       </c>
-      <c r="G80" s="136"/>
+      <c r="G80" s="134"/>
       <c r="H80" s="53">
         <v>200</v>
       </c>
@@ -9280,14 +9550,14 @@
       <c r="A81" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="B81" s="137"/>
-      <c r="C81" s="137"/>
-      <c r="D81" s="137"/>
-      <c r="E81" s="125"/>
+      <c r="B81" s="135"/>
+      <c r="C81" s="135"/>
+      <c r="D81" s="135"/>
+      <c r="E81" s="138"/>
       <c r="F81" s="53">
         <v>11</v>
       </c>
-      <c r="G81" s="137"/>
+      <c r="G81" s="135"/>
       <c r="H81" s="53">
         <v>200</v>
       </c>
@@ -10014,16 +10284,16 @@
       <c r="A103" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="B103" s="135" t="s">
+      <c r="B103" s="133" t="s">
         <v>209</v>
       </c>
-      <c r="C103" s="135" t="s">
+      <c r="C103" s="133" t="s">
         <v>210</v>
       </c>
-      <c r="D103" s="135" t="s">
+      <c r="D103" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="E103" s="124">
+      <c r="E103" s="136">
         <v>45680</v>
       </c>
       <c r="F103" s="53">
@@ -10056,14 +10326,14 @@
       <c r="A104" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="B104" s="136"/>
-      <c r="C104" s="136"/>
-      <c r="D104" s="136"/>
-      <c r="E104" s="138"/>
+      <c r="B104" s="134"/>
+      <c r="C104" s="134"/>
+      <c r="D104" s="134"/>
+      <c r="E104" s="137"/>
       <c r="F104" s="53">
         <v>2</v>
       </c>
-      <c r="G104" s="136"/>
+      <c r="G104" s="134"/>
       <c r="H104" s="53"/>
       <c r="I104" s="53">
         <v>9.1</v>
@@ -10088,14 +10358,14 @@
       <c r="A105" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="B105" s="136"/>
-      <c r="C105" s="136"/>
-      <c r="D105" s="136"/>
-      <c r="E105" s="138"/>
+      <c r="B105" s="134"/>
+      <c r="C105" s="134"/>
+      <c r="D105" s="134"/>
+      <c r="E105" s="137"/>
       <c r="F105" s="53">
         <v>3</v>
       </c>
-      <c r="G105" s="136"/>
+      <c r="G105" s="134"/>
       <c r="H105" s="53"/>
       <c r="I105" s="53">
         <v>24.1</v>
@@ -10120,14 +10390,14 @@
       <c r="A106" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="B106" s="137"/>
-      <c r="C106" s="137"/>
-      <c r="D106" s="137"/>
-      <c r="E106" s="125"/>
+      <c r="B106" s="135"/>
+      <c r="C106" s="135"/>
+      <c r="D106" s="135"/>
+      <c r="E106" s="138"/>
       <c r="F106" s="53">
         <v>4</v>
       </c>
-      <c r="G106" s="137"/>
+      <c r="G106" s="135"/>
       <c r="H106" s="53"/>
       <c r="I106" s="53">
         <v>6.4</v>
@@ -10186,7 +10456,7 @@
       <c r="D108" s="53" t="s">
         <v>334</v>
       </c>
-      <c r="E108" s="140">
+      <c r="E108" s="100">
         <v>45698</v>
       </c>
       <c r="F108" s="53">
@@ -10249,25 +10519,25 @@
       <c r="A110" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="B110" s="141" t="s">
+      <c r="B110" s="131" t="s">
         <v>338</v>
       </c>
       <c r="C110" s="53" t="s">
         <v>339</v>
       </c>
-      <c r="D110" s="141" t="s">
+      <c r="D110" s="131" t="s">
         <v>334</v>
       </c>
-      <c r="E110" s="142">
+      <c r="E110" s="132">
         <v>45698</v>
       </c>
       <c r="F110" s="53">
         <v>1</v>
       </c>
-      <c r="G110" s="141" t="s">
+      <c r="G110" s="131" t="s">
         <v>335</v>
       </c>
-      <c r="H110" s="141">
+      <c r="H110" s="131">
         <v>2</v>
       </c>
       <c r="I110" s="53">
@@ -10286,7 +10556,7 @@
         <v>10</v>
       </c>
       <c r="N110" s="53"/>
-      <c r="O110" s="141" t="s">
+      <c r="O110" s="131" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10294,17 +10564,17 @@
       <c r="A111" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="B111" s="141"/>
+      <c r="B111" s="131"/>
       <c r="C111" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="D111" s="141"/>
-      <c r="E111" s="142"/>
+      <c r="D111" s="131"/>
+      <c r="E111" s="132"/>
       <c r="F111" s="53">
         <v>2</v>
       </c>
-      <c r="G111" s="141"/>
-      <c r="H111" s="141"/>
+      <c r="G111" s="131"/>
+      <c r="H111" s="131"/>
       <c r="I111" s="53">
         <v>1.4</v>
       </c>
@@ -10321,7 +10591,7 @@
         <v>14</v>
       </c>
       <c r="N111" s="53"/>
-      <c r="O111" s="141"/>
+      <c r="O111" s="131"/>
     </row>
     <row r="112" spans="1:15" ht="22.5">
       <c r="A112" s="64"/>
@@ -10361,7 +10631,7 @@
       <c r="D113" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="E113" s="140">
+      <c r="E113" s="100">
         <v>45698</v>
       </c>
       <c r="F113" s="53">
@@ -10599,7 +10869,7 @@
         <v>22</v>
       </c>
       <c r="N119" s="53"/>
-      <c r="O119" s="58"/>
+      <c r="O119" s="53"/>
     </row>
     <row r="120" spans="1:15" ht="22.5">
       <c r="A120" s="64"/>
@@ -10626,43 +10896,344 @@
       <c r="N120" s="56"/>
       <c r="O120" s="56"/>
     </row>
+    <row r="121" spans="1:15" ht="21">
+      <c r="A121" s="53" t="s">
+        <v>378</v>
+      </c>
+      <c r="B121" s="53" t="s">
+        <v>379</v>
+      </c>
+      <c r="C121" s="53" t="s">
+        <v>380</v>
+      </c>
+      <c r="D121" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E121" s="42">
+        <v>45706</v>
+      </c>
+      <c r="F121" s="53">
+        <v>1</v>
+      </c>
+      <c r="G121" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H121" s="53"/>
+      <c r="I121" s="53">
+        <v>1.7</v>
+      </c>
+      <c r="J121" s="54">
+        <v>2.52E-2</v>
+      </c>
+      <c r="K121" s="53">
+        <v>40</v>
+      </c>
+      <c r="L121" s="53">
+        <v>30</v>
+      </c>
+      <c r="M121" s="53">
+        <v>21</v>
+      </c>
+      <c r="N121" s="53"/>
+      <c r="O121" s="53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="22.5">
+      <c r="A122" s="64"/>
+      <c r="B122" s="64"/>
+      <c r="C122" s="64"/>
+      <c r="D122" s="64"/>
+      <c r="E122" s="64"/>
+      <c r="F122" s="46">
+        <v>1</v>
+      </c>
+      <c r="G122" s="67"/>
+      <c r="H122" s="46"/>
+      <c r="I122" s="46">
+        <f>SUM(I121:I121)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J122" s="49">
+        <f>SUM(J121:J121)</f>
+        <v>2.52E-2</v>
+      </c>
+      <c r="K122" s="46"/>
+      <c r="L122" s="46"/>
+      <c r="M122" s="46"/>
+      <c r="N122" s="56"/>
+      <c r="O122" s="56"/>
+    </row>
+    <row r="123" spans="1:15" ht="21">
+      <c r="A123" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="B123" s="140" t="s">
+        <v>382</v>
+      </c>
+      <c r="C123" s="140" t="s">
+        <v>383</v>
+      </c>
+      <c r="D123" s="140" t="s">
+        <v>384</v>
+      </c>
+      <c r="E123" s="142">
+        <v>45706</v>
+      </c>
+      <c r="F123" s="44">
+        <v>1</v>
+      </c>
+      <c r="G123" s="119" t="s">
+        <v>385</v>
+      </c>
+      <c r="H123" s="140">
+        <v>553</v>
+      </c>
+      <c r="I123" s="44">
+        <v>14.2</v>
+      </c>
+      <c r="J123" s="45">
+        <v>8.5260000000000002E-2</v>
+      </c>
+      <c r="K123" s="44">
+        <v>58</v>
+      </c>
+      <c r="L123" s="44">
+        <v>30</v>
+      </c>
+      <c r="M123" s="44">
+        <v>49</v>
+      </c>
+      <c r="N123" s="44"/>
+      <c r="O123" s="140" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="21">
+      <c r="A124" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="B124" s="153"/>
+      <c r="C124" s="153"/>
+      <c r="D124" s="153"/>
+      <c r="E124" s="154"/>
+      <c r="F124" s="44">
+        <v>2</v>
+      </c>
+      <c r="G124" s="124"/>
+      <c r="H124" s="153"/>
+      <c r="I124" s="44">
+        <v>11.9</v>
+      </c>
+      <c r="J124" s="45">
+        <v>8.5260000000000002E-2</v>
+      </c>
+      <c r="K124" s="44">
+        <v>58</v>
+      </c>
+      <c r="L124" s="44">
+        <v>30</v>
+      </c>
+      <c r="M124" s="44">
+        <v>49</v>
+      </c>
+      <c r="N124" s="44"/>
+      <c r="O124" s="153"/>
+    </row>
+    <row r="125" spans="1:15" ht="21">
+      <c r="A125" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="B125" s="153"/>
+      <c r="C125" s="153"/>
+      <c r="D125" s="153"/>
+      <c r="E125" s="154"/>
+      <c r="F125" s="44">
+        <v>3</v>
+      </c>
+      <c r="G125" s="124"/>
+      <c r="H125" s="153"/>
+      <c r="I125" s="44">
+        <v>13.8</v>
+      </c>
+      <c r="J125" s="45">
+        <v>8.5260000000000002E-2</v>
+      </c>
+      <c r="K125" s="44">
+        <v>58</v>
+      </c>
+      <c r="L125" s="44">
+        <v>30</v>
+      </c>
+      <c r="M125" s="44">
+        <v>49</v>
+      </c>
+      <c r="N125" s="44"/>
+      <c r="O125" s="153"/>
+    </row>
+    <row r="126" spans="1:15" ht="21">
+      <c r="A126" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="B126" s="153"/>
+      <c r="C126" s="153"/>
+      <c r="D126" s="153"/>
+      <c r="E126" s="154"/>
+      <c r="F126" s="44">
+        <v>4</v>
+      </c>
+      <c r="G126" s="124"/>
+      <c r="H126" s="153"/>
+      <c r="I126" s="44">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J126" s="45">
+        <v>8.5260000000000002E-2</v>
+      </c>
+      <c r="K126" s="44">
+        <v>58</v>
+      </c>
+      <c r="L126" s="44">
+        <v>30</v>
+      </c>
+      <c r="M126" s="44">
+        <v>49</v>
+      </c>
+      <c r="N126" s="44"/>
+      <c r="O126" s="153"/>
+    </row>
+    <row r="127" spans="1:15" ht="21">
+      <c r="A127" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="B127" s="153"/>
+      <c r="C127" s="153"/>
+      <c r="D127" s="153"/>
+      <c r="E127" s="154"/>
+      <c r="F127" s="44">
+        <v>5</v>
+      </c>
+      <c r="G127" s="124"/>
+      <c r="H127" s="153"/>
+      <c r="I127" s="44">
+        <v>7.8</v>
+      </c>
+      <c r="J127" s="45">
+        <v>4.8160000000000001E-2</v>
+      </c>
+      <c r="K127" s="44">
+        <v>35</v>
+      </c>
+      <c r="L127" s="44">
+        <v>32</v>
+      </c>
+      <c r="M127" s="44">
+        <v>43</v>
+      </c>
+      <c r="N127" s="44"/>
+      <c r="O127" s="153"/>
+    </row>
+    <row r="128" spans="1:15" ht="21">
+      <c r="A128" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="B128" s="153"/>
+      <c r="C128" s="153"/>
+      <c r="D128" s="153"/>
+      <c r="E128" s="154"/>
+      <c r="F128" s="44">
+        <v>6</v>
+      </c>
+      <c r="G128" s="124"/>
+      <c r="H128" s="153"/>
+      <c r="I128" s="44">
+        <v>15.5</v>
+      </c>
+      <c r="J128" s="45">
+        <v>8.5260000000000002E-2</v>
+      </c>
+      <c r="K128" s="44">
+        <v>58</v>
+      </c>
+      <c r="L128" s="44">
+        <v>30</v>
+      </c>
+      <c r="M128" s="44">
+        <v>49</v>
+      </c>
+      <c r="N128" s="44"/>
+      <c r="O128" s="153"/>
+    </row>
+    <row r="129" spans="1:15" ht="21">
+      <c r="A129" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="B129" s="141"/>
+      <c r="C129" s="141"/>
+      <c r="D129" s="141"/>
+      <c r="E129" s="143"/>
+      <c r="F129" s="44">
+        <v>7</v>
+      </c>
+      <c r="G129" s="125"/>
+      <c r="H129" s="141"/>
+      <c r="I129" s="44">
+        <v>14.6</v>
+      </c>
+      <c r="J129" s="45">
+        <v>8.5260000000000002E-2</v>
+      </c>
+      <c r="K129" s="44">
+        <v>58</v>
+      </c>
+      <c r="L129" s="44">
+        <v>30</v>
+      </c>
+      <c r="M129" s="44">
+        <v>49</v>
+      </c>
+      <c r="N129" s="44"/>
+      <c r="O129" s="141"/>
+    </row>
+    <row r="130" spans="1:15" ht="22.5">
+      <c r="A130" s="64"/>
+      <c r="B130" s="64"/>
+      <c r="C130" s="64"/>
+      <c r="D130" s="64"/>
+      <c r="E130" s="64"/>
+      <c r="F130" s="46">
+        <v>7</v>
+      </c>
+      <c r="G130" s="67"/>
+      <c r="H130" s="46"/>
+      <c r="I130" s="46">
+        <v>95.4</v>
+      </c>
+      <c r="J130" s="49">
+        <v>0.55972</v>
+      </c>
+      <c r="K130" s="46"/>
+      <c r="L130" s="46"/>
+      <c r="M130" s="46"/>
+      <c r="N130" s="50"/>
+      <c r="O130" s="51"/>
+    </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="O110:O111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="G103:G106"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="B71:B81"/>
-    <mergeCell ref="C71:C81"/>
-    <mergeCell ref="D71:D81"/>
-    <mergeCell ref="E71:E81"/>
-    <mergeCell ref="G71:G81"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G53:G54"/>
+  <mergeCells count="62">
+    <mergeCell ref="H123:H129"/>
+    <mergeCell ref="O123:O129"/>
+    <mergeCell ref="B123:B129"/>
+    <mergeCell ref="C123:C129"/>
+    <mergeCell ref="D123:D129"/>
+    <mergeCell ref="E123:E129"/>
+    <mergeCell ref="G123:G129"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="G50:G51"/>
     <mergeCell ref="O21:O22"/>
@@ -10676,13 +11247,41 @@
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="D50:D51"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="B71:B81"/>
+    <mergeCell ref="C71:C81"/>
+    <mergeCell ref="D71:D81"/>
+    <mergeCell ref="E71:E81"/>
+    <mergeCell ref="G71:G81"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="G103:G106"/>
+    <mergeCell ref="O110:O111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H110:H111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10774,11 +11373,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="100" t="s">
+      <c r="K2" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -10790,10 +11389,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="101"/>
+      <c r="B3" s="130"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -10858,12 +11457,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.5">
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="89" t="s">
         <v>267</v>
       </c>
@@ -10933,12 +11532,12 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="22.5">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="71" t="s">
         <v>239</v>
       </c>
@@ -11008,12 +11607,12 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="22.5">
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
       <c r="F10" s="71" t="s">
         <v>267</v>
       </c>
@@ -11083,12 +11682,12 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="22.5">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
       <c r="F12" s="89" t="s">
         <v>267</v>
       </c>
@@ -11158,12 +11757,12 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="22.5">
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
       <c r="F14" s="71" t="s">
         <v>239</v>
       </c>
@@ -11231,12 +11830,12 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="22.5">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
       <c r="F16" s="71" t="s">
         <v>267</v>
       </c>
@@ -11301,12 +11900,12 @@
       <c r="P17" s="38"/>
     </row>
     <row r="18" spans="2:16" ht="22.5">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
       <c r="F18" s="71" t="s">
         <v>276</v>
       </c>
@@ -11326,24 +11925,24 @@
       <c r="P18" s="74"/>
     </row>
     <row r="19" spans="2:16" ht="21">
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="111" t="s">
         <v>301</v>
       </c>
       <c r="C19" s="38"/>
-      <c r="D19" s="113" t="s">
+      <c r="D19" s="111" t="s">
         <v>263</v>
       </c>
-      <c r="E19" s="115">
+      <c r="E19" s="114">
         <v>45671</v>
       </c>
       <c r="F19" s="68" t="s">
         <v>302</v>
       </c>
-      <c r="G19" s="113" t="s">
+      <c r="G19" s="111" t="s">
         <v>265</v>
       </c>
       <c r="H19" s="38"/>
-      <c r="I19" s="113"/>
+      <c r="I19" s="111"/>
       <c r="J19" s="69">
         <v>7.7367000000000008</v>
       </c>
@@ -11365,16 +11964,16 @@
       <c r="P19" s="38"/>
     </row>
     <row r="20" spans="2:16" ht="21">
-      <c r="B20" s="114"/>
+      <c r="B20" s="113"/>
       <c r="C20" s="38"/>
-      <c r="D20" s="114"/>
+      <c r="D20" s="113"/>
       <c r="E20" s="116"/>
       <c r="F20" s="68" t="s">
         <v>303</v>
       </c>
-      <c r="G20" s="114"/>
+      <c r="G20" s="113"/>
       <c r="H20" s="38"/>
-      <c r="I20" s="114"/>
+      <c r="I20" s="113"/>
       <c r="J20" s="69">
         <v>0.67200000000000004</v>
       </c>
@@ -11392,12 +11991,12 @@
       <c r="P20" s="38"/>
     </row>
     <row r="21" spans="2:16" ht="22.5">
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="71" t="s">
         <v>303</v>
       </c>
@@ -11418,6 +12017,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="B21:E21"/>
@@ -11427,12 +12032,6 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Customer/Cust 2025/Cargo W99 2025.xlsx
+++ b/Customer/Cust 2025/Cargo W99 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Customer\Cust 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47050C34-4C6C-4531-97D3-713D3E6D59EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE18615C-B9C1-492E-91F0-6D4A6DB505F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E000C531-AA46-4CF4-8BD7-2185A135A010}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E000C531-AA46-4CF4-8BD7-2185A135A010}"/>
   </bookViews>
   <sheets>
     <sheet name="SEA" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="403">
   <si>
     <t>Hijau barang terkirim, Lunas, beres</t>
   </si>
@@ -2949,6 +2949,99 @@
   </si>
   <si>
     <t>A46</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>A0034842</t>
+  </si>
+  <si>
+    <r>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3145636032943</t>
+    </r>
+  </si>
+  <si>
+    <t>279-W99-GN165-AIR</t>
+  </si>
+  <si>
+    <t>耳机headset</t>
+  </si>
+  <si>
+    <t>B21</t>
+  </si>
+  <si>
+    <t>A0034843</t>
+  </si>
+  <si>
+    <r>
+      <t>JDK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>京东：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>003956450043</t>
+    </r>
+  </si>
+  <si>
+    <t>B46</t>
+  </si>
+  <si>
+    <t>A0034868</t>
+  </si>
+  <si>
+    <r>
+      <t>DPK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德邦：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>212445793110</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3515,139 +3608,139 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3968,30 +4061,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03568550-BD00-482C-9F46-E2F5DB6F38F1}">
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.88671875" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
     <col min="11" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="16" max="16" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24">
+    <row r="1" spans="1:16" ht="25.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4019,7 +4112,7 @@
       <c r="O1" s="7"/>
       <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:16" ht="63">
+    <row r="2" spans="1:16" ht="59.4">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -4050,11 +4143,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="129" t="s">
+      <c r="K2" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -4065,11 +4158,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="130" t="s">
+    <row r="3" spans="1:16" ht="33.6">
+      <c r="A3" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="130"/>
+      <c r="B3" s="113"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -4085,7 +4178,7 @@
       <c r="O3" s="24"/>
       <c r="P3" s="25"/>
     </row>
-    <row r="5" spans="1:16" ht="84">
+    <row r="5" spans="1:16" ht="79.2">
       <c r="B5" s="38" t="s">
         <v>215</v>
       </c>
@@ -4130,13 +4223,13 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="22.5">
-      <c r="B6" s="110" t="s">
+    <row r="6" spans="1:16" ht="21">
+      <c r="B6" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
       <c r="F6" s="71" t="s">
         <v>221</v>
       </c>
@@ -4155,17 +4248,17 @@
       <c r="O6" s="74"/>
       <c r="P6" s="74"/>
     </row>
-    <row r="7" spans="1:16" ht="37.5">
-      <c r="B7" s="122" t="s">
+    <row r="7" spans="1:16" ht="34.799999999999997">
+      <c r="B7" s="114" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="119" t="s">
+      <c r="C7" s="117" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="114" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="126">
+      <c r="E7" s="120">
         <v>45659</v>
       </c>
       <c r="F7" s="75" t="s">
@@ -4177,7 +4270,7 @@
       <c r="H7" s="76">
         <v>1</v>
       </c>
-      <c r="I7" s="122">
+      <c r="I7" s="114">
         <v>255</v>
       </c>
       <c r="J7" s="77">
@@ -4198,15 +4291,15 @@
       <c r="O7" s="123">
         <v>45705</v>
       </c>
-      <c r="P7" s="122" t="s">
+      <c r="P7" s="114" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="21">
-      <c r="B8" s="120"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="127"/>
+    <row r="8" spans="1:16" ht="19.8">
+      <c r="B8" s="115"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="121"/>
       <c r="F8" s="75" t="s">
         <v>228</v>
       </c>
@@ -4216,7 +4309,7 @@
       <c r="H8" s="76">
         <v>1</v>
       </c>
-      <c r="I8" s="120"/>
+      <c r="I8" s="115"/>
       <c r="J8" s="77">
         <v>0.54978000000000005</v>
       </c>
@@ -4229,15 +4322,15 @@
       <c r="M8" s="76">
         <v>77</v>
       </c>
-      <c r="N8" s="120"/>
-      <c r="O8" s="120"/>
-      <c r="P8" s="120"/>
-    </row>
-    <row r="9" spans="1:16" ht="37.5">
-      <c r="B9" s="120"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="127"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+    </row>
+    <row r="9" spans="1:16" ht="34.799999999999997">
+      <c r="B9" s="115"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="121"/>
       <c r="F9" s="75" t="s">
         <v>230</v>
       </c>
@@ -4247,7 +4340,7 @@
       <c r="H9" s="76">
         <v>1</v>
       </c>
-      <c r="I9" s="120"/>
+      <c r="I9" s="115"/>
       <c r="J9" s="77">
         <v>0.51480000000000004</v>
       </c>
@@ -4260,15 +4353,15 @@
       <c r="M9" s="76">
         <v>65</v>
       </c>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-    </row>
-    <row r="10" spans="1:16" ht="56.25">
-      <c r="B10" s="121"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="128"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
+    </row>
+    <row r="10" spans="1:16" ht="52.2">
+      <c r="B10" s="116"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="122"/>
       <c r="F10" s="75" t="s">
         <v>232</v>
       </c>
@@ -4278,7 +4371,7 @@
       <c r="H10" s="76">
         <v>1</v>
       </c>
-      <c r="I10" s="121"/>
+      <c r="I10" s="116"/>
       <c r="J10" s="77">
         <v>7.3800000000000004E-2</v>
       </c>
@@ -4291,17 +4384,17 @@
       <c r="M10" s="76">
         <v>18</v>
       </c>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
-    </row>
-    <row r="11" spans="1:16" ht="22.5">
-      <c r="B11" s="110" t="s">
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+    </row>
+    <row r="11" spans="1:16" ht="21">
+      <c r="B11" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="71" t="s">
         <v>232</v>
       </c>
@@ -4320,7 +4413,7 @@
       <c r="O11" s="78"/>
       <c r="P11" s="79"/>
     </row>
-    <row r="12" spans="1:16" ht="117">
+    <row r="12" spans="1:16" ht="109.2">
       <c r="B12" s="38" t="s">
         <v>234</v>
       </c>
@@ -4370,13 +4463,13 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="22.5">
-      <c r="B13" s="110" t="s">
+    <row r="13" spans="1:16" ht="21">
+      <c r="B13" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
       <c r="F13" s="71" t="s">
         <v>239</v>
       </c>
@@ -4397,7 +4490,7 @@
       <c r="O13" s="74"/>
       <c r="P13" s="74"/>
     </row>
-    <row r="14" spans="1:16" ht="117">
+    <row r="14" spans="1:16" ht="109.2">
       <c r="B14" s="38" t="s">
         <v>234</v>
       </c>
@@ -4447,13 +4540,13 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="22.5">
-      <c r="B15" s="110" t="s">
+    <row r="15" spans="1:16" ht="21">
+      <c r="B15" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
       <c r="F15" s="71" t="s">
         <v>242</v>
       </c>
@@ -4474,7 +4567,7 @@
       <c r="O15" s="74"/>
       <c r="P15" s="74"/>
     </row>
-    <row r="16" spans="1:16" ht="98.25">
+    <row r="16" spans="1:16" ht="91.8">
       <c r="B16" s="38" t="s">
         <v>234</v>
       </c>
@@ -4521,13 +4614,13 @@
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="22.5">
-      <c r="B17" s="110" t="s">
+    <row r="17" spans="2:16" ht="21">
+      <c r="B17" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
       <c r="F17" s="71" t="s">
         <v>246</v>
       </c>
@@ -4546,7 +4639,7 @@
       <c r="O17" s="74"/>
       <c r="P17" s="74"/>
     </row>
-    <row r="18" spans="2:16" ht="42">
+    <row r="18" spans="2:16" ht="19.8">
       <c r="B18" s="76" t="s">
         <v>247</v>
       </c>
@@ -4591,13 +4684,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="22.5">
-      <c r="B19" s="110" t="s">
+    <row r="19" spans="2:16" ht="21">
+      <c r="B19" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
       <c r="F19" s="71" t="s">
         <v>252</v>
       </c>
@@ -4616,7 +4709,7 @@
       <c r="O19" s="79"/>
       <c r="P19" s="79"/>
     </row>
-    <row r="20" spans="2:16" ht="42">
+    <row r="20" spans="2:16" ht="39.6">
       <c r="B20" s="38" t="s">
         <v>253</v>
       </c>
@@ -4664,13 +4757,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="22.5">
-      <c r="B21" s="110" t="s">
+    <row r="21" spans="2:16" ht="21">
+      <c r="B21" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
       <c r="F21" s="71" t="s">
         <v>255</v>
       </c>
@@ -4691,7 +4784,7 @@
       <c r="O21" s="74"/>
       <c r="P21" s="74"/>
     </row>
-    <row r="22" spans="2:16" ht="21">
+    <row r="22" spans="2:16" ht="19.8">
       <c r="B22" s="38" t="s">
         <v>256</v>
       </c>
@@ -4738,13 +4831,13 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="22.5">
-      <c r="B23" s="110" t="s">
+    <row r="23" spans="2:16" ht="21">
+      <c r="B23" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
       <c r="F23" s="71" t="s">
         <v>232</v>
       </c>
@@ -4763,7 +4856,7 @@
       <c r="O23" s="74"/>
       <c r="P23" s="74"/>
     </row>
-    <row r="24" spans="2:16" ht="42">
+    <row r="24" spans="2:16" ht="39.6">
       <c r="B24" s="84" t="s">
         <v>262</v>
       </c>
@@ -4811,13 +4904,13 @@
         <v>266</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="22.5">
-      <c r="B25" s="110" t="s">
+    <row r="25" spans="2:16" ht="21">
+      <c r="B25" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
       <c r="F25" s="89" t="s">
         <v>267</v>
       </c>
@@ -4838,7 +4931,7 @@
       <c r="O25" s="74"/>
       <c r="P25" s="74"/>
     </row>
-    <row r="26" spans="2:16" ht="42">
+    <row r="26" spans="2:16" ht="39.6">
       <c r="B26" s="38" t="s">
         <v>262</v>
       </c>
@@ -4886,13 +4979,13 @@
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="22.5">
-      <c r="B27" s="110" t="s">
+    <row r="27" spans="2:16" ht="21">
+      <c r="B27" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
       <c r="F27" s="71" t="s">
         <v>239</v>
       </c>
@@ -4913,7 +5006,7 @@
       <c r="O27" s="74"/>
       <c r="P27" s="74"/>
     </row>
-    <row r="28" spans="2:16" ht="42">
+    <row r="28" spans="2:16" ht="39.6">
       <c r="B28" s="38" t="s">
         <v>262</v>
       </c>
@@ -4961,13 +5054,13 @@
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="2:16" ht="22.5">
-      <c r="B29" s="110" t="s">
+    <row r="29" spans="2:16" ht="21">
+      <c r="B29" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
       <c r="F29" s="71" t="s">
         <v>267</v>
       </c>
@@ -4988,7 +5081,7 @@
       <c r="O29" s="74"/>
       <c r="P29" s="74"/>
     </row>
-    <row r="30" spans="2:16" ht="42">
+    <row r="30" spans="2:16" ht="39.6">
       <c r="B30" s="84" t="s">
         <v>262</v>
       </c>
@@ -5036,13 +5129,13 @@
         <v>266</v>
       </c>
     </row>
-    <row r="31" spans="2:16" ht="22.5">
-      <c r="B31" s="110" t="s">
+    <row r="31" spans="2:16" ht="21">
+      <c r="B31" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
       <c r="F31" s="89" t="s">
         <v>267</v>
       </c>
@@ -5063,7 +5156,7 @@
       <c r="O31" s="74"/>
       <c r="P31" s="74"/>
     </row>
-    <row r="32" spans="2:16" ht="42">
+    <row r="32" spans="2:16" ht="39.6">
       <c r="B32" s="38" t="s">
         <v>262</v>
       </c>
@@ -5111,13 +5204,13 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="2:16" ht="22.5">
-      <c r="B33" s="110" t="s">
+    <row r="33" spans="2:16" ht="21">
+      <c r="B33" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
       <c r="F33" s="71" t="s">
         <v>239</v>
       </c>
@@ -5138,7 +5231,7 @@
       <c r="O33" s="74"/>
       <c r="P33" s="74"/>
     </row>
-    <row r="34" spans="2:16" ht="42">
+    <row r="34" spans="2:16" ht="39.6">
       <c r="B34" s="38" t="s">
         <v>262</v>
       </c>
@@ -5184,13 +5277,13 @@
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="2:16" ht="22.5">
-      <c r="B35" s="110" t="s">
+    <row r="35" spans="2:16" ht="21">
+      <c r="B35" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
       <c r="F35" s="71" t="s">
         <v>267</v>
       </c>
@@ -5211,7 +5304,7 @@
       <c r="O35" s="74"/>
       <c r="P35" s="74"/>
     </row>
-    <row r="36" spans="2:16" ht="21">
+    <row r="36" spans="2:16" ht="19.8">
       <c r="B36" s="38" t="s">
         <v>262</v>
       </c>
@@ -5254,13 +5347,13 @@
       </c>
       <c r="P36" s="38"/>
     </row>
-    <row r="37" spans="2:16" ht="22.5">
-      <c r="B37" s="110" t="s">
+    <row r="37" spans="2:16" ht="21">
+      <c r="B37" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C37" s="110"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
       <c r="F37" s="71" t="s">
         <v>276</v>
       </c>
@@ -5279,29 +5372,29 @@
       <c r="O37" s="74"/>
       <c r="P37" s="74"/>
     </row>
-    <row r="38" spans="2:16" ht="21">
-      <c r="B38" s="122" t="s">
+    <row r="38" spans="2:16" ht="19.8">
+      <c r="B38" s="114" t="s">
         <v>277</v>
       </c>
-      <c r="C38" s="119" t="s">
+      <c r="C38" s="117" t="s">
         <v>278</v>
       </c>
-      <c r="D38" s="122" t="s">
+      <c r="D38" s="114" t="s">
         <v>279</v>
       </c>
-      <c r="E38" s="126">
+      <c r="E38" s="120">
         <v>45668</v>
       </c>
       <c r="F38" s="75" t="s">
         <v>280</v>
       </c>
-      <c r="G38" s="119" t="s">
+      <c r="G38" s="117" t="s">
         <v>281</v>
       </c>
       <c r="H38" s="76">
         <v>385</v>
       </c>
-      <c r="I38" s="122">
+      <c r="I38" s="114">
         <v>1451</v>
       </c>
       <c r="J38" s="77">
@@ -5322,23 +5415,23 @@
       <c r="O38" s="123">
         <v>45714</v>
       </c>
-      <c r="P38" s="122" t="s">
+      <c r="P38" s="114" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="39" spans="2:16" ht="21">
-      <c r="B39" s="120"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="127"/>
+    <row r="39" spans="2:16" ht="19.8">
+      <c r="B39" s="115"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="121"/>
       <c r="F39" s="75" t="s">
         <v>283</v>
       </c>
-      <c r="G39" s="125"/>
+      <c r="G39" s="119"/>
       <c r="H39" s="76">
         <v>36</v>
       </c>
-      <c r="I39" s="120"/>
+      <c r="I39" s="115"/>
       <c r="J39" s="77">
         <v>0.29759999999999998</v>
       </c>
@@ -5351,15 +5444,15 @@
       <c r="M39" s="76">
         <v>20</v>
       </c>
-      <c r="N39" s="120"/>
-      <c r="O39" s="120"/>
-      <c r="P39" s="120"/>
-    </row>
-    <row r="40" spans="2:16" ht="21">
-      <c r="B40" s="120"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="127"/>
+      <c r="N39" s="115"/>
+      <c r="O39" s="115"/>
+      <c r="P39" s="115"/>
+    </row>
+    <row r="40" spans="2:16" ht="19.8">
+      <c r="B40" s="115"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="121"/>
       <c r="F40" s="75" t="s">
         <v>284</v>
       </c>
@@ -5369,7 +5462,7 @@
       <c r="H40" s="76">
         <v>26</v>
       </c>
-      <c r="I40" s="120"/>
+      <c r="I40" s="115"/>
       <c r="J40" s="77">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -5382,15 +5475,15 @@
       <c r="M40" s="76">
         <v>33</v>
       </c>
-      <c r="N40" s="120"/>
-      <c r="O40" s="120"/>
-      <c r="P40" s="120"/>
-    </row>
-    <row r="41" spans="2:16" ht="21">
-      <c r="B41" s="120"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="127"/>
+      <c r="N40" s="115"/>
+      <c r="O40" s="115"/>
+      <c r="P40" s="115"/>
+    </row>
+    <row r="41" spans="2:16" ht="19.8">
+      <c r="B41" s="115"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="121"/>
       <c r="F41" s="75" t="s">
         <v>286</v>
       </c>
@@ -5400,7 +5493,7 @@
       <c r="H41" s="76">
         <v>121</v>
       </c>
-      <c r="I41" s="120"/>
+      <c r="I41" s="115"/>
       <c r="J41" s="77">
         <v>3.456E-2</v>
       </c>
@@ -5413,15 +5506,15 @@
       <c r="M41" s="76">
         <v>24</v>
       </c>
-      <c r="N41" s="120"/>
-      <c r="O41" s="120"/>
-      <c r="P41" s="120"/>
-    </row>
-    <row r="42" spans="2:16" ht="37.5">
-      <c r="B42" s="120"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="127"/>
+      <c r="N41" s="115"/>
+      <c r="O41" s="115"/>
+      <c r="P41" s="115"/>
+    </row>
+    <row r="42" spans="2:16" ht="34.799999999999997">
+      <c r="B42" s="115"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="121"/>
       <c r="F42" s="75" t="s">
         <v>288</v>
       </c>
@@ -5431,7 +5524,7 @@
       <c r="H42" s="76">
         <v>24</v>
       </c>
-      <c r="I42" s="120"/>
+      <c r="I42" s="115"/>
       <c r="J42" s="77">
         <v>7.4880000000000002E-2</v>
       </c>
@@ -5444,15 +5537,15 @@
       <c r="M42" s="76">
         <v>15</v>
       </c>
-      <c r="N42" s="120"/>
-      <c r="O42" s="120"/>
-      <c r="P42" s="120"/>
-    </row>
-    <row r="43" spans="2:16" ht="21">
-      <c r="B43" s="121"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="128"/>
+      <c r="N42" s="115"/>
+      <c r="O42" s="115"/>
+      <c r="P42" s="115"/>
+    </row>
+    <row r="43" spans="2:16" ht="19.8">
+      <c r="B43" s="116"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="122"/>
       <c r="F43" s="75" t="s">
         <v>289</v>
       </c>
@@ -5462,7 +5555,7 @@
       <c r="H43" s="76">
         <v>150</v>
       </c>
-      <c r="I43" s="121"/>
+      <c r="I43" s="116"/>
       <c r="J43" s="77">
         <v>1.512</v>
       </c>
@@ -5475,17 +5568,17 @@
       <c r="M43" s="76">
         <v>30</v>
       </c>
-      <c r="N43" s="121"/>
-      <c r="O43" s="121"/>
-      <c r="P43" s="121"/>
-    </row>
-    <row r="44" spans="2:16" ht="22.5">
-      <c r="B44" s="110" t="s">
+      <c r="N43" s="116"/>
+      <c r="O43" s="116"/>
+      <c r="P43" s="116"/>
+    </row>
+    <row r="44" spans="2:16" ht="21">
+      <c r="B44" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
       <c r="F44" s="71" t="s">
         <v>290</v>
       </c>
@@ -5504,29 +5597,29 @@
       <c r="O44" s="78"/>
       <c r="P44" s="79"/>
     </row>
-    <row r="45" spans="2:16" ht="21">
-      <c r="B45" s="122" t="s">
+    <row r="45" spans="2:16" ht="19.8">
+      <c r="B45" s="114" t="s">
         <v>291</v>
       </c>
-      <c r="C45" s="119" t="s">
+      <c r="C45" s="117" t="s">
         <v>292</v>
       </c>
-      <c r="D45" s="122" t="s">
+      <c r="D45" s="114" t="s">
         <v>293</v>
       </c>
-      <c r="E45" s="126">
+      <c r="E45" s="120">
         <v>45668</v>
       </c>
       <c r="F45" s="75" t="s">
         <v>294</v>
       </c>
-      <c r="G45" s="119" t="s">
+      <c r="G45" s="117" t="s">
         <v>295</v>
       </c>
       <c r="H45" s="76">
         <v>300</v>
       </c>
-      <c r="I45" s="122">
+      <c r="I45" s="114">
         <v>680</v>
       </c>
       <c r="J45" s="77">
@@ -5547,23 +5640,23 @@
       <c r="O45" s="123">
         <v>45714</v>
       </c>
-      <c r="P45" s="122" t="s">
+      <c r="P45" s="114" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="46" spans="2:16" ht="21">
-      <c r="B46" s="120"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="120"/>
-      <c r="E46" s="127"/>
+    <row r="46" spans="2:16" ht="19.8">
+      <c r="B46" s="115"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="121"/>
       <c r="F46" s="75" t="s">
         <v>297</v>
       </c>
-      <c r="G46" s="120"/>
+      <c r="G46" s="115"/>
       <c r="H46" s="76">
         <v>80</v>
       </c>
-      <c r="I46" s="120"/>
+      <c r="I46" s="115"/>
       <c r="J46" s="77">
         <v>0.189</v>
       </c>
@@ -5576,23 +5669,23 @@
       <c r="M46" s="76">
         <v>30</v>
       </c>
-      <c r="N46" s="120"/>
-      <c r="O46" s="120"/>
-      <c r="P46" s="120"/>
-    </row>
-    <row r="47" spans="2:16" ht="21">
-      <c r="B47" s="121"/>
-      <c r="C47" s="125"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="128"/>
+      <c r="N46" s="115"/>
+      <c r="O46" s="115"/>
+      <c r="P46" s="115"/>
+    </row>
+    <row r="47" spans="2:16" ht="19.8">
+      <c r="B47" s="116"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="122"/>
       <c r="F47" s="75" t="s">
         <v>298</v>
       </c>
-      <c r="G47" s="121"/>
+      <c r="G47" s="116"/>
       <c r="H47" s="76">
         <v>5100</v>
       </c>
-      <c r="I47" s="121"/>
+      <c r="I47" s="116"/>
       <c r="J47" s="77">
         <v>2.7820800000000001</v>
       </c>
@@ -5605,17 +5698,17 @@
       <c r="M47" s="76">
         <v>28</v>
       </c>
-      <c r="N47" s="121"/>
-      <c r="O47" s="121"/>
-      <c r="P47" s="121"/>
-    </row>
-    <row r="48" spans="2:16" ht="22.5">
-      <c r="B48" s="110" t="s">
+      <c r="N47" s="116"/>
+      <c r="O47" s="116"/>
+      <c r="P47" s="116"/>
+    </row>
+    <row r="48" spans="2:16" ht="21">
+      <c r="B48" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="110"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="111"/>
       <c r="F48" s="71" t="s">
         <v>284</v>
       </c>
@@ -5634,7 +5727,7 @@
       <c r="O48" s="79"/>
       <c r="P48" s="79"/>
     </row>
-    <row r="49" spans="2:16" ht="37.5">
+    <row r="49" spans="2:16" ht="19.8">
       <c r="B49" s="76" t="s">
         <v>148</v>
       </c>
@@ -5679,13 +5772,13 @@
       </c>
       <c r="P49" s="76"/>
     </row>
-    <row r="50" spans="2:16" ht="22.5">
-      <c r="B50" s="110" t="s">
+    <row r="50" spans="2:16" ht="21">
+      <c r="B50" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C50" s="110"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="111"/>
       <c r="F50" s="71" t="s">
         <v>300</v>
       </c>
@@ -5704,25 +5797,25 @@
       <c r="O50" s="79"/>
       <c r="P50" s="79"/>
     </row>
-    <row r="51" spans="2:16" ht="21">
-      <c r="B51" s="111" t="s">
+    <row r="51" spans="2:16" ht="19.8">
+      <c r="B51" s="124" t="s">
         <v>301</v>
       </c>
       <c r="C51" s="38"/>
-      <c r="D51" s="111" t="s">
+      <c r="D51" s="124" t="s">
         <v>263</v>
       </c>
-      <c r="E51" s="114">
+      <c r="E51" s="126">
         <v>45671</v>
       </c>
       <c r="F51" s="68" t="s">
         <v>302</v>
       </c>
-      <c r="G51" s="111" t="s">
+      <c r="G51" s="124" t="s">
         <v>265</v>
       </c>
       <c r="H51" s="38"/>
-      <c r="I51" s="111"/>
+      <c r="I51" s="124"/>
       <c r="J51" s="69">
         <v>7.7367000000000008</v>
       </c>
@@ -5743,17 +5836,17 @@
       </c>
       <c r="P51" s="38"/>
     </row>
-    <row r="52" spans="2:16" ht="21">
-      <c r="B52" s="113"/>
+    <row r="52" spans="2:16" ht="19.8">
+      <c r="B52" s="125"/>
       <c r="C52" s="38"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="116"/>
+      <c r="D52" s="125"/>
+      <c r="E52" s="127"/>
       <c r="F52" s="68" t="s">
         <v>303</v>
       </c>
-      <c r="G52" s="113"/>
+      <c r="G52" s="125"/>
       <c r="H52" s="38"/>
-      <c r="I52" s="113"/>
+      <c r="I52" s="125"/>
       <c r="J52" s="69">
         <v>0.67200000000000004</v>
       </c>
@@ -5770,13 +5863,13 @@
       <c r="O52" s="38"/>
       <c r="P52" s="38"/>
     </row>
-    <row r="53" spans="2:16" ht="22.5">
-      <c r="B53" s="110" t="s">
+    <row r="53" spans="2:16" ht="21">
+      <c r="B53" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C53" s="110"/>
-      <c r="D53" s="110"/>
-      <c r="E53" s="110"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="111"/>
+      <c r="E53" s="111"/>
       <c r="F53" s="71" t="s">
         <v>303</v>
       </c>
@@ -5795,7 +5888,7 @@
       <c r="O53" s="74"/>
       <c r="P53" s="74"/>
     </row>
-    <row r="54" spans="2:16" ht="37.5">
+    <row r="54" spans="2:16" ht="34.799999999999997">
       <c r="B54" s="96" t="s">
         <v>304</v>
       </c>
@@ -5836,13 +5929,13 @@
       <c r="O54" s="38"/>
       <c r="P54" s="38"/>
     </row>
-    <row r="55" spans="2:16" ht="22.5">
-      <c r="B55" s="110" t="s">
+    <row r="55" spans="2:16" ht="21">
+      <c r="B55" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C55" s="110"/>
-      <c r="D55" s="110"/>
-      <c r="E55" s="110"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="111"/>
       <c r="F55" s="71" t="s">
         <v>225</v>
       </c>
@@ -5861,7 +5954,7 @@
       <c r="O55" s="74"/>
       <c r="P55" s="74"/>
     </row>
-    <row r="56" spans="2:16" ht="75">
+    <row r="56" spans="2:16" ht="52.2">
       <c r="B56" s="76" t="s">
         <v>308</v>
       </c>
@@ -5907,13 +6000,13 @@
       </c>
       <c r="P56" s="76"/>
     </row>
-    <row r="57" spans="2:16" ht="22.5">
-      <c r="B57" s="110" t="s">
+    <row r="57" spans="2:16" ht="21">
+      <c r="B57" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C57" s="110"/>
-      <c r="D57" s="110"/>
-      <c r="E57" s="110"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="111"/>
       <c r="F57" s="71" t="s">
         <v>225</v>
       </c>
@@ -5934,30 +6027,30 @@
       <c r="O57" s="79"/>
       <c r="P57" s="79"/>
     </row>
-    <row r="58" spans="2:16" ht="21">
-      <c r="B58" s="111" t="s">
+    <row r="58" spans="2:16" ht="19.8">
+      <c r="B58" s="124" t="s">
         <v>312</v>
       </c>
-      <c r="C58" s="111" t="s">
+      <c r="C58" s="124" t="s">
         <v>313</v>
       </c>
-      <c r="D58" s="111" t="s">
+      <c r="D58" s="124" t="s">
         <v>217</v>
       </c>
-      <c r="E58" s="114">
+      <c r="E58" s="126">
         <v>45676</v>
       </c>
       <c r="F58" s="68" t="s">
         <v>314</v>
       </c>
-      <c r="G58" s="111" t="s">
+      <c r="G58" s="124" t="s">
         <v>237</v>
       </c>
       <c r="H58" s="38">
         <f>35*28</f>
         <v>980</v>
       </c>
-      <c r="I58" s="111">
+      <c r="I58" s="124">
         <f>25*52</f>
         <v>1300</v>
       </c>
@@ -5974,30 +6067,30 @@
       <c r="M58" s="38">
         <v>29</v>
       </c>
-      <c r="N58" s="118" t="s">
+      <c r="N58" s="128" t="s">
         <v>244</v>
       </c>
-      <c r="O58" s="118" t="s">
+      <c r="O58" s="128" t="s">
         <v>244</v>
       </c>
       <c r="P58" s="95" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="2:16" ht="21">
-      <c r="B59" s="113"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="116"/>
+    <row r="59" spans="2:16" ht="19.8">
+      <c r="B59" s="125"/>
+      <c r="C59" s="125"/>
+      <c r="D59" s="125"/>
+      <c r="E59" s="127"/>
       <c r="F59" s="68" t="s">
         <v>315</v>
       </c>
-      <c r="G59" s="113"/>
+      <c r="G59" s="125"/>
       <c r="H59" s="38">
         <f>35*24</f>
         <v>840</v>
       </c>
-      <c r="I59" s="113"/>
+      <c r="I59" s="125"/>
       <c r="J59" s="69">
         <f>K59*L59*M59/1000000*24</f>
         <v>2.3353920000000001</v>
@@ -6011,17 +6104,17 @@
       <c r="M59" s="38">
         <v>36</v>
       </c>
-      <c r="N59" s="113"/>
-      <c r="O59" s="113"/>
+      <c r="N59" s="125"/>
+      <c r="O59" s="125"/>
       <c r="P59" s="96"/>
     </row>
-    <row r="60" spans="2:16" ht="22.5">
-      <c r="B60" s="110" t="s">
+    <row r="60" spans="2:16" ht="21">
+      <c r="B60" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C60" s="110"/>
-      <c r="D60" s="110"/>
-      <c r="E60" s="110"/>
+      <c r="C60" s="111"/>
+      <c r="D60" s="111"/>
+      <c r="E60" s="111"/>
       <c r="F60" s="71" t="s">
         <v>316</v>
       </c>
@@ -6042,28 +6135,28 @@
       <c r="O60" s="74"/>
       <c r="P60" s="74"/>
     </row>
-    <row r="61" spans="2:16" ht="21">
-      <c r="B61" s="111" t="s">
+    <row r="61" spans="2:16" ht="19.8">
+      <c r="B61" s="124" t="s">
         <v>317</v>
       </c>
-      <c r="C61" s="111"/>
-      <c r="D61" s="111" t="s">
+      <c r="C61" s="124"/>
+      <c r="D61" s="124" t="s">
         <v>217</v>
       </c>
-      <c r="E61" s="114">
+      <c r="E61" s="126">
         <v>45677</v>
       </c>
       <c r="F61" s="68" t="s">
         <v>318</v>
       </c>
-      <c r="G61" s="111" t="s">
+      <c r="G61" s="124" t="s">
         <v>237</v>
       </c>
       <c r="H61" s="38">
         <f>50*20+60*32+40</f>
         <v>2960</v>
       </c>
-      <c r="I61" s="111">
+      <c r="I61" s="124">
         <f>25*339</f>
         <v>8475</v>
       </c>
@@ -6080,30 +6173,30 @@
       <c r="M61" s="38">
         <v>40</v>
       </c>
-      <c r="N61" s="111" t="s">
+      <c r="N61" s="124" t="s">
         <v>244</v>
       </c>
-      <c r="O61" s="111" t="s">
+      <c r="O61" s="124" t="s">
         <v>244</v>
       </c>
       <c r="P61" s="38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="2:16" ht="21">
-      <c r="B62" s="112"/>
-      <c r="C62" s="112"/>
-      <c r="D62" s="112"/>
-      <c r="E62" s="115"/>
+    <row r="62" spans="2:16" ht="19.8">
+      <c r="B62" s="129"/>
+      <c r="C62" s="129"/>
+      <c r="D62" s="129"/>
+      <c r="E62" s="130"/>
       <c r="F62" s="68" t="s">
         <v>319</v>
       </c>
-      <c r="G62" s="112"/>
+      <c r="G62" s="129"/>
       <c r="H62" s="38">
         <f>40*16</f>
         <v>640</v>
       </c>
-      <c r="I62" s="112"/>
+      <c r="I62" s="129"/>
       <c r="J62" s="69">
         <f>K62*L62*M62/1000000*16</f>
         <v>1.66656</v>
@@ -6117,26 +6210,26 @@
       <c r="M62" s="38">
         <v>28</v>
       </c>
-      <c r="N62" s="112"/>
-      <c r="O62" s="112"/>
+      <c r="N62" s="129"/>
+      <c r="O62" s="129"/>
       <c r="P62" s="38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="2:16" ht="21">
-      <c r="B63" s="113"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="116"/>
+    <row r="63" spans="2:16" ht="19.8">
+      <c r="B63" s="125"/>
+      <c r="C63" s="125"/>
+      <c r="D63" s="125"/>
+      <c r="E63" s="127"/>
       <c r="F63" s="68" t="s">
         <v>320</v>
       </c>
-      <c r="G63" s="113"/>
+      <c r="G63" s="125"/>
       <c r="H63" s="38">
         <f>40*270</f>
         <v>10800</v>
       </c>
-      <c r="I63" s="113"/>
+      <c r="I63" s="125"/>
       <c r="J63" s="69">
         <f>K63*L63*M63/1000000*270</f>
         <v>32.129999999999995</v>
@@ -6150,19 +6243,19 @@
       <c r="M63" s="38">
         <v>70</v>
       </c>
-      <c r="N63" s="113"/>
-      <c r="O63" s="113"/>
+      <c r="N63" s="125"/>
+      <c r="O63" s="125"/>
       <c r="P63" s="38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="2:16" ht="22.5">
-      <c r="B64" s="110" t="s">
+    <row r="64" spans="2:16" ht="21">
+      <c r="B64" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C64" s="110"/>
-      <c r="D64" s="110"/>
-      <c r="E64" s="110"/>
+      <c r="C64" s="111"/>
+      <c r="D64" s="111"/>
+      <c r="E64" s="111"/>
       <c r="F64" s="71" t="s">
         <v>321</v>
       </c>
@@ -6183,29 +6276,29 @@
       <c r="O64" s="74"/>
       <c r="P64" s="74"/>
     </row>
-    <row r="65" spans="2:16" ht="21">
-      <c r="B65" s="111" t="s">
+    <row r="65" spans="2:16" ht="19.8">
+      <c r="B65" s="124" t="s">
         <v>322</v>
       </c>
-      <c r="C65" s="117" t="s">
+      <c r="C65" s="131" t="s">
         <v>323</v>
       </c>
-      <c r="D65" s="111" t="s">
+      <c r="D65" s="124" t="s">
         <v>324</v>
       </c>
-      <c r="E65" s="114">
+      <c r="E65" s="126">
         <v>45678</v>
       </c>
       <c r="F65" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="G65" s="111" t="s">
+      <c r="G65" s="124" t="s">
         <v>325</v>
       </c>
       <c r="H65" s="38">
         <v>1</v>
       </c>
-      <c r="I65" s="111">
+      <c r="I65" s="124">
         <v>37</v>
       </c>
       <c r="J65" s="69">
@@ -6225,19 +6318,19 @@
       <c r="O65" s="38"/>
       <c r="P65" s="38"/>
     </row>
-    <row r="66" spans="2:16" ht="21">
-      <c r="B66" s="112"/>
-      <c r="C66" s="112"/>
-      <c r="D66" s="112"/>
-      <c r="E66" s="115"/>
+    <row r="66" spans="2:16" ht="19.8">
+      <c r="B66" s="129"/>
+      <c r="C66" s="129"/>
+      <c r="D66" s="129"/>
+      <c r="E66" s="130"/>
       <c r="F66" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="G66" s="112"/>
+      <c r="G66" s="129"/>
       <c r="H66" s="38">
         <v>10</v>
       </c>
-      <c r="I66" s="112"/>
+      <c r="I66" s="129"/>
       <c r="J66" s="69">
         <f t="shared" si="0"/>
         <v>0.18360000000000001</v>
@@ -6255,19 +6348,19 @@
       <c r="O66" s="38"/>
       <c r="P66" s="38"/>
     </row>
-    <row r="67" spans="2:16" ht="21">
-      <c r="B67" s="112"/>
-      <c r="C67" s="112"/>
-      <c r="D67" s="112"/>
-      <c r="E67" s="115"/>
+    <row r="67" spans="2:16" ht="19.8">
+      <c r="B67" s="129"/>
+      <c r="C67" s="129"/>
+      <c r="D67" s="129"/>
+      <c r="E67" s="130"/>
       <c r="F67" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="G67" s="112"/>
+      <c r="G67" s="129"/>
       <c r="H67" s="38">
         <v>10</v>
       </c>
-      <c r="I67" s="112"/>
+      <c r="I67" s="129"/>
       <c r="J67" s="69">
         <f t="shared" si="0"/>
         <v>0.18240999999999999</v>
@@ -6285,19 +6378,19 @@
       <c r="O67" s="38"/>
       <c r="P67" s="38"/>
     </row>
-    <row r="68" spans="2:16" ht="21">
-      <c r="B68" s="113"/>
-      <c r="C68" s="113"/>
-      <c r="D68" s="113"/>
-      <c r="E68" s="116"/>
+    <row r="68" spans="2:16" ht="19.8">
+      <c r="B68" s="125"/>
+      <c r="C68" s="125"/>
+      <c r="D68" s="125"/>
+      <c r="E68" s="127"/>
       <c r="F68" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="G68" s="113"/>
+      <c r="G68" s="125"/>
       <c r="H68" s="38">
         <v>2</v>
       </c>
-      <c r="I68" s="113"/>
+      <c r="I68" s="125"/>
       <c r="J68" s="69">
         <f t="shared" si="0"/>
         <v>4.9919999999999999E-2</v>
@@ -6315,29 +6408,29 @@
       <c r="O68" s="38"/>
       <c r="P68" s="38"/>
     </row>
-    <row r="69" spans="2:16" ht="21">
-      <c r="B69" s="111" t="s">
+    <row r="69" spans="2:16" ht="19.8">
+      <c r="B69" s="124" t="s">
         <v>326</v>
       </c>
       <c r="C69" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="D69" s="111" t="s">
+      <c r="D69" s="124" t="s">
         <v>324</v>
       </c>
-      <c r="E69" s="114">
+      <c r="E69" s="126">
         <v>45678</v>
       </c>
       <c r="F69" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="G69" s="111" t="s">
+      <c r="G69" s="124" t="s">
         <v>325</v>
       </c>
       <c r="H69" s="38">
         <v>3</v>
       </c>
-      <c r="I69" s="111">
+      <c r="I69" s="124">
         <v>20</v>
       </c>
       <c r="J69" s="69">
@@ -6357,21 +6450,21 @@
       <c r="O69" s="38"/>
       <c r="P69" s="38"/>
     </row>
-    <row r="70" spans="2:16" ht="21">
-      <c r="B70" s="112"/>
+    <row r="70" spans="2:16" ht="19.8">
+      <c r="B70" s="129"/>
       <c r="C70" s="38">
         <v>2660</v>
       </c>
-      <c r="D70" s="112"/>
-      <c r="E70" s="115"/>
+      <c r="D70" s="129"/>
+      <c r="E70" s="130"/>
       <c r="F70" s="68" t="s">
         <v>329</v>
       </c>
-      <c r="G70" s="112"/>
+      <c r="G70" s="129"/>
       <c r="H70" s="38">
         <v>10</v>
       </c>
-      <c r="I70" s="112"/>
+      <c r="I70" s="129"/>
       <c r="J70" s="69">
         <f t="shared" si="0"/>
         <v>4.2335999999999999E-2</v>
@@ -6389,21 +6482,21 @@
       <c r="O70" s="38"/>
       <c r="P70" s="38"/>
     </row>
-    <row r="71" spans="2:16" ht="21">
-      <c r="B71" s="113"/>
+    <row r="71" spans="2:16" ht="19.8">
+      <c r="B71" s="125"/>
       <c r="C71" s="38">
         <v>2461</v>
       </c>
-      <c r="D71" s="113"/>
-      <c r="E71" s="116"/>
+      <c r="D71" s="125"/>
+      <c r="E71" s="127"/>
       <c r="F71" s="68" t="s">
         <v>330</v>
       </c>
-      <c r="G71" s="113"/>
+      <c r="G71" s="125"/>
       <c r="H71" s="38">
         <v>130</v>
       </c>
-      <c r="I71" s="113"/>
+      <c r="I71" s="125"/>
       <c r="J71" s="69">
         <f t="shared" si="0"/>
         <v>0.1176</v>
@@ -6421,13 +6514,13 @@
       <c r="O71" s="38"/>
       <c r="P71" s="38"/>
     </row>
-    <row r="72" spans="2:16" ht="22.5">
-      <c r="B72" s="110" t="s">
+    <row r="72" spans="2:16" ht="21">
+      <c r="B72" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C72" s="110"/>
-      <c r="D72" s="110"/>
-      <c r="E72" s="110"/>
+      <c r="C72" s="111"/>
+      <c r="D72" s="111"/>
+      <c r="E72" s="111"/>
       <c r="F72" s="71" t="s">
         <v>330</v>
       </c>
@@ -6448,7 +6541,7 @@
       <c r="O72" s="74"/>
       <c r="P72" s="74"/>
     </row>
-    <row r="73" spans="2:16" ht="42">
+    <row r="73" spans="2:16" ht="19.8">
       <c r="B73" s="41" t="s">
         <v>359</v>
       </c>
@@ -6489,13 +6582,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="2:16" ht="22.5">
-      <c r="B74" s="110" t="s">
+    <row r="74" spans="2:16" ht="21">
+      <c r="B74" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="110"/>
-      <c r="D74" s="110"/>
-      <c r="E74" s="110"/>
+      <c r="C74" s="111"/>
+      <c r="D74" s="111"/>
+      <c r="E74" s="111"/>
       <c r="F74" s="103" t="s">
         <v>228</v>
       </c>
@@ -6514,7 +6607,7 @@
       <c r="O74" s="63"/>
       <c r="P74" s="63"/>
     </row>
-    <row r="75" spans="2:16" ht="42">
+    <row r="75" spans="2:16" ht="39.6">
       <c r="B75" s="106" t="s">
         <v>363</v>
       </c>
@@ -6555,13 +6648,13 @@
         <v>367</v>
       </c>
     </row>
-    <row r="76" spans="2:16" ht="22.5">
-      <c r="B76" s="110" t="s">
+    <row r="76" spans="2:16" ht="21">
+      <c r="B76" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C76" s="110"/>
-      <c r="D76" s="110"/>
-      <c r="E76" s="110"/>
+      <c r="C76" s="111"/>
+      <c r="D76" s="111"/>
+      <c r="E76" s="111"/>
       <c r="F76" s="103" t="s">
         <v>225</v>
       </c>
@@ -6582,7 +6675,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="77" spans="2:16" ht="42">
+    <row r="77" spans="2:16" ht="39.6">
       <c r="B77" s="41" t="s">
         <v>369</v>
       </c>
@@ -6629,19 +6722,19 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="2:16" ht="22.5">
-      <c r="B78" s="110" t="s">
+    <row r="78" spans="2:16" ht="21">
+      <c r="B78" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C78" s="110"/>
-      <c r="D78" s="110"/>
-      <c r="E78" s="110"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="111"/>
+      <c r="E78" s="111"/>
       <c r="F78" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="G78" s="152"/>
+      <c r="G78" s="110"/>
       <c r="H78" s="104"/>
-      <c r="I78" s="152">
+      <c r="I78" s="110">
         <v>3400</v>
       </c>
       <c r="J78" s="105">
@@ -6654,7 +6747,7 @@
       <c r="O78" s="63"/>
       <c r="P78" s="63"/>
     </row>
-    <row r="79" spans="2:16" ht="21">
+    <row r="79" spans="2:16" ht="19.8">
       <c r="B79" s="41" t="s">
         <v>373</v>
       </c>
@@ -6695,13 +6788,13 @@
       <c r="O79" s="39"/>
       <c r="P79" s="41"/>
     </row>
-    <row r="80" spans="2:16" ht="22.5">
-      <c r="B80" s="110" t="s">
+    <row r="80" spans="2:16" ht="21">
+      <c r="B80" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C80" s="110"/>
-      <c r="D80" s="110"/>
-      <c r="E80" s="110"/>
+      <c r="C80" s="111"/>
+      <c r="D80" s="111"/>
+      <c r="E80" s="111"/>
       <c r="F80" s="103" t="s">
         <v>377</v>
       </c>
@@ -6722,63 +6815,21 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="E38:E43"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="I38:I43"/>
-    <mergeCell ref="N38:N43"/>
-    <mergeCell ref="O38:O43"/>
-    <mergeCell ref="P38:P43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="N45:N47"/>
-    <mergeCell ref="O45:O47"/>
-    <mergeCell ref="P45:P47"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="G65:G68"/>
+    <mergeCell ref="I65:I68"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="E65:E68"/>
     <mergeCell ref="N58:N59"/>
     <mergeCell ref="O58:O59"/>
     <mergeCell ref="B60:E60"/>
@@ -6795,21 +6846,63 @@
     <mergeCell ref="D58:D59"/>
     <mergeCell ref="E58:E59"/>
     <mergeCell ref="G58:G59"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="G65:G68"/>
-    <mergeCell ref="I65:I68"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="N45:N47"/>
+    <mergeCell ref="O45:O47"/>
+    <mergeCell ref="P45:P47"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="I38:I43"/>
+    <mergeCell ref="N38:N43"/>
+    <mergeCell ref="O38:O43"/>
+    <mergeCell ref="P38:P43"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="E38:E43"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B25:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6817,32 +6910,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DD94FD-D993-429D-A766-D707FAC76EEB}">
-  <dimension ref="A1:P130"/>
+  <dimension ref="A1:P136"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.88671875" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
     <col min="11" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="16" max="16" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.5">
+    <row r="1" spans="1:16" ht="21">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -6870,7 +6963,7 @@
       <c r="O1" s="7"/>
       <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:16" ht="72">
+    <row r="2" spans="1:16" ht="75.599999999999994">
       <c r="A2" s="27" t="s">
         <v>5</v>
       </c>
@@ -6901,11 +6994,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="129" t="s">
+      <c r="K2" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -6916,11 +7009,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="151" t="s">
+    <row r="3" spans="1:16" ht="33.6">
+      <c r="A3" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="151"/>
+      <c r="B3" s="138"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -6936,7 +7029,7 @@
       <c r="O3" s="24"/>
       <c r="P3" s="25"/>
     </row>
-    <row r="5" spans="1:16" ht="21">
+    <row r="5" spans="1:16" ht="19.8">
       <c r="A5" s="28" t="s">
         <v>21</v>
       </c>
@@ -6981,7 +7074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="22.5">
+    <row r="6" spans="1:16" ht="21">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
@@ -7006,7 +7099,7 @@
       <c r="N6" s="36"/>
       <c r="O6" s="36"/>
     </row>
-    <row r="7" spans="1:16" ht="21">
+    <row r="7" spans="1:16" ht="19.8">
       <c r="A7" s="28" t="s">
         <v>27</v>
       </c>
@@ -7051,7 +7144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="22.5">
+    <row r="8" spans="1:16" ht="21">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -7076,7 +7169,7 @@
       <c r="N8" s="36"/>
       <c r="O8" s="36"/>
     </row>
-    <row r="9" spans="1:16" ht="42">
+    <row r="9" spans="1:16" ht="39.6">
       <c r="A9" s="28" t="s">
         <v>30</v>
       </c>
@@ -7121,7 +7214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="22.5">
+    <row r="10" spans="1:16" ht="21">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -7146,7 +7239,7 @@
       <c r="N10" s="36"/>
       <c r="O10" s="36"/>
     </row>
-    <row r="11" spans="1:16" ht="42">
+    <row r="11" spans="1:16" ht="19.8">
       <c r="A11" s="28" t="s">
         <v>33</v>
       </c>
@@ -7191,7 +7284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="22.5">
+    <row r="12" spans="1:16" ht="21">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -7216,7 +7309,7 @@
       <c r="N12" s="36"/>
       <c r="O12" s="36"/>
     </row>
-    <row r="13" spans="1:16" ht="21">
+    <row r="13" spans="1:16" ht="19.8">
       <c r="A13" s="28" t="s">
         <v>36</v>
       </c>
@@ -7257,7 +7350,7 @@
       <c r="N13" s="28"/>
       <c r="O13" s="28"/>
     </row>
-    <row r="14" spans="1:16" ht="22.5">
+    <row r="14" spans="1:16" ht="21">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -7282,7 +7375,7 @@
       <c r="N14" s="36"/>
       <c r="O14" s="36"/>
     </row>
-    <row r="15" spans="1:16" ht="21">
+    <row r="15" spans="1:16" ht="19.8">
       <c r="A15" s="28" t="s">
         <v>41</v>
       </c>
@@ -7327,7 +7420,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="22.5">
+    <row r="16" spans="1:16" ht="21">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -7352,7 +7445,7 @@
       <c r="N16" s="36"/>
       <c r="O16" s="36"/>
     </row>
-    <row r="17" spans="1:15" ht="21">
+    <row r="17" spans="1:15" ht="19.8">
       <c r="A17" s="28" t="s">
         <v>45</v>
       </c>
@@ -7397,7 +7490,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="22.5">
+    <row r="18" spans="1:15" ht="21">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -7422,7 +7515,7 @@
       <c r="N18" s="36"/>
       <c r="O18" s="36"/>
     </row>
-    <row r="19" spans="1:15" ht="42">
+    <row r="19" spans="1:15" ht="39.6">
       <c r="A19" s="28" t="s">
         <v>48</v>
       </c>
@@ -7467,7 +7560,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="22.5">
+    <row r="20" spans="1:15" ht="21">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -7492,29 +7585,29 @@
       <c r="N20" s="36"/>
       <c r="O20" s="36"/>
     </row>
-    <row r="21" spans="1:15" ht="42">
+    <row r="21" spans="1:15" ht="19.8">
       <c r="A21" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="148" t="s">
+      <c r="B21" s="139" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="148" t="s">
+      <c r="D21" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="114">
+      <c r="E21" s="126">
         <v>45661</v>
       </c>
       <c r="F21" s="28">
         <v>1</v>
       </c>
-      <c r="G21" s="148" t="s">
+      <c r="G21" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="148">
+      <c r="H21" s="139">
         <v>2</v>
       </c>
       <c r="I21" s="28">
@@ -7533,25 +7626,25 @@
         <v>13</v>
       </c>
       <c r="N21" s="28"/>
-      <c r="O21" s="148" t="s">
+      <c r="O21" s="139" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="42">
+    <row r="22" spans="1:15" ht="19.8">
       <c r="A22" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="149"/>
+      <c r="B22" s="140"/>
       <c r="C22" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="149"/>
-      <c r="E22" s="116"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="127"/>
       <c r="F22" s="28">
         <v>2</v>
       </c>
-      <c r="G22" s="149"/>
-      <c r="H22" s="149"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="140"/>
       <c r="I22" s="28">
         <v>1.1000000000000001</v>
       </c>
@@ -7568,9 +7661,9 @@
         <v>13</v>
       </c>
       <c r="N22" s="28"/>
-      <c r="O22" s="149"/>
-    </row>
-    <row r="23" spans="1:15" ht="22.5">
+      <c r="O22" s="140"/>
+    </row>
+    <row r="23" spans="1:15" ht="21">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -7595,7 +7688,7 @@
       <c r="N23" s="36"/>
       <c r="O23" s="36"/>
     </row>
-    <row r="24" spans="1:15" ht="42">
+    <row r="24" spans="1:15" ht="39.6">
       <c r="A24" s="28" t="s">
         <v>58</v>
       </c>
@@ -7640,7 +7733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="22.5">
+    <row r="25" spans="1:15" ht="21">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -7665,7 +7758,7 @@
       <c r="N25" s="36"/>
       <c r="O25" s="36"/>
     </row>
-    <row r="26" spans="1:15" ht="21">
+    <row r="26" spans="1:15" ht="19.8">
       <c r="A26" s="28" t="s">
         <v>61</v>
       </c>
@@ -7710,7 +7803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="22.5">
+    <row r="27" spans="1:15" ht="21">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -7735,7 +7828,7 @@
       <c r="N27" s="36"/>
       <c r="O27" s="36"/>
     </row>
-    <row r="28" spans="1:15" ht="21">
+    <row r="28" spans="1:15" ht="19.8">
       <c r="A28" s="28" t="s">
         <v>64</v>
       </c>
@@ -7778,7 +7871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="22.5">
+    <row r="29" spans="1:15" ht="21">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -7803,7 +7896,7 @@
       <c r="N29" s="36"/>
       <c r="O29" s="36"/>
     </row>
-    <row r="30" spans="1:15" ht="21">
+    <row r="30" spans="1:15" ht="19.8">
       <c r="A30" s="28" t="s">
         <v>68</v>
       </c>
@@ -7849,7 +7942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="22.5">
+    <row r="31" spans="1:15" ht="21">
       <c r="A31" s="32"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -7874,7 +7967,7 @@
       <c r="N31" s="36"/>
       <c r="O31" s="36"/>
     </row>
-    <row r="32" spans="1:15" ht="21">
+    <row r="32" spans="1:15" ht="19.8">
       <c r="A32" s="28" t="s">
         <v>71</v>
       </c>
@@ -7920,7 +8013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="22.5">
+    <row r="33" spans="1:15" ht="21">
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
@@ -7945,7 +8038,7 @@
       <c r="N33" s="36"/>
       <c r="O33" s="36"/>
     </row>
-    <row r="34" spans="1:15" ht="21">
+    <row r="34" spans="1:15" ht="19.8">
       <c r="A34" s="38" t="s">
         <v>74</v>
       </c>
@@ -7988,7 +8081,7 @@
       <c r="N34" s="38"/>
       <c r="O34" s="38"/>
     </row>
-    <row r="35" spans="1:15" ht="22.5">
+    <row r="35" spans="1:15" ht="21">
       <c r="A35" s="32"/>
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
@@ -8013,7 +8106,7 @@
       <c r="N35" s="36"/>
       <c r="O35" s="36"/>
     </row>
-    <row r="36" spans="1:15" ht="21">
+    <row r="36" spans="1:15" ht="19.8">
       <c r="A36" s="28" t="s">
         <v>79</v>
       </c>
@@ -8054,7 +8147,7 @@
       <c r="N36" s="28"/>
       <c r="O36" s="28"/>
     </row>
-    <row r="37" spans="1:15" ht="22.5">
+    <row r="37" spans="1:15" ht="21">
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
@@ -8079,7 +8172,7 @@
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
     </row>
-    <row r="38" spans="1:15" ht="42">
+    <row r="38" spans="1:15" ht="19.8">
       <c r="A38" s="28" t="s">
         <v>84</v>
       </c>
@@ -8124,7 +8217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="22.5">
+    <row r="39" spans="1:15" ht="21">
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
@@ -8149,29 +8242,29 @@
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
     </row>
-    <row r="40" spans="1:15" ht="21">
+    <row r="40" spans="1:15" ht="19.8">
       <c r="A40" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="148" t="s">
+      <c r="B40" s="139" t="s">
         <v>89</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="148" t="s">
+      <c r="D40" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="114">
+      <c r="E40" s="126">
         <v>45664</v>
       </c>
       <c r="F40" s="28">
         <v>1</v>
       </c>
-      <c r="G40" s="148" t="s">
+      <c r="G40" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="148">
+      <c r="H40" s="139">
         <v>3</v>
       </c>
       <c r="I40" s="28">
@@ -8190,25 +8283,25 @@
         <v>20</v>
       </c>
       <c r="N40" s="28"/>
-      <c r="O40" s="148" t="s">
+      <c r="O40" s="139" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="21">
+    <row r="41" spans="1:15" ht="19.8">
       <c r="A41" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="150"/>
+      <c r="B41" s="145"/>
       <c r="C41" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="150"/>
-      <c r="E41" s="115"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="130"/>
       <c r="F41" s="28">
         <v>2</v>
       </c>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
       <c r="I41" s="28">
         <v>1.4</v>
       </c>
@@ -8225,23 +8318,23 @@
         <v>20</v>
       </c>
       <c r="N41" s="28"/>
-      <c r="O41" s="150"/>
-    </row>
-    <row r="42" spans="1:15" ht="21">
+      <c r="O41" s="145"/>
+    </row>
+    <row r="42" spans="1:15" ht="19.8">
       <c r="A42" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="149"/>
+      <c r="B42" s="140"/>
       <c r="C42" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="149"/>
-      <c r="E42" s="116"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="127"/>
       <c r="F42" s="28">
         <v>3</v>
       </c>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
+      <c r="G42" s="140"/>
+      <c r="H42" s="140"/>
       <c r="I42" s="28">
         <v>2</v>
       </c>
@@ -8258,9 +8351,9 @@
         <v>20</v>
       </c>
       <c r="N42" s="28"/>
-      <c r="O42" s="149"/>
-    </row>
-    <row r="43" spans="1:15" ht="22.5">
+      <c r="O42" s="140"/>
+    </row>
+    <row r="43" spans="1:15" ht="21">
       <c r="A43" s="32"/>
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
@@ -8285,7 +8378,7 @@
       <c r="N43" s="36"/>
       <c r="O43" s="36"/>
     </row>
-    <row r="44" spans="1:15" ht="21">
+    <row r="44" spans="1:15" ht="19.8">
       <c r="A44" s="28" t="s">
         <v>95</v>
       </c>
@@ -8330,7 +8423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="22.5">
+    <row r="45" spans="1:15" ht="21">
       <c r="A45" s="32"/>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
@@ -8355,7 +8448,7 @@
       <c r="N45" s="36"/>
       <c r="O45" s="36"/>
     </row>
-    <row r="46" spans="1:15" ht="21">
+    <row r="46" spans="1:15" ht="19.8">
       <c r="A46" s="41" t="s">
         <v>99</v>
       </c>
@@ -8402,7 +8495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="22.5">
+    <row r="47" spans="1:15" ht="21">
       <c r="A47" s="32"/>
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
@@ -8427,7 +8520,7 @@
       <c r="N47" s="36"/>
       <c r="O47" s="36"/>
     </row>
-    <row r="48" spans="1:15" ht="42">
+    <row r="48" spans="1:15" ht="39.6">
       <c r="A48" s="41" t="s">
         <v>103</v>
       </c>
@@ -8472,7 +8565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="22.5">
+    <row r="49" spans="1:15" ht="21">
       <c r="A49" s="32"/>
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
@@ -8497,71 +8590,71 @@
       <c r="N49" s="36"/>
       <c r="O49" s="36"/>
     </row>
-    <row r="50" spans="1:15" ht="21">
+    <row r="50" spans="1:15" ht="19.8">
       <c r="A50" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="144" t="s">
+      <c r="B50" s="143" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="144" t="s">
+      <c r="C50" s="143" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="144" t="s">
+      <c r="D50" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="136">
+      <c r="E50" s="141">
         <v>45666</v>
       </c>
       <c r="F50" s="41">
         <v>1</v>
       </c>
-      <c r="G50" s="144" t="s">
+      <c r="G50" s="143" t="s">
         <v>25</v>
       </c>
       <c r="H50" s="41"/>
-      <c r="I50" s="144">
+      <c r="I50" s="143">
         <v>10.199999999999999</v>
       </c>
       <c r="J50" s="146">
         <v>0.10335</v>
       </c>
-      <c r="K50" s="144">
+      <c r="K50" s="143">
         <v>53</v>
       </c>
-      <c r="L50" s="144">
+      <c r="L50" s="143">
         <v>39</v>
       </c>
-      <c r="M50" s="144">
+      <c r="M50" s="143">
         <v>50</v>
       </c>
       <c r="N50" s="41"/>
-      <c r="O50" s="144" t="s">
+      <c r="O50" s="143" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="21">
+    <row r="51" spans="1:15" ht="19.8">
       <c r="A51" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="145"/>
-      <c r="C51" s="145"/>
-      <c r="D51" s="145"/>
-      <c r="E51" s="138"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="142"/>
       <c r="F51" s="41">
         <v>2</v>
       </c>
-      <c r="G51" s="145"/>
+      <c r="G51" s="144"/>
       <c r="H51" s="41"/>
-      <c r="I51" s="145"/>
+      <c r="I51" s="144"/>
       <c r="J51" s="147"/>
-      <c r="K51" s="145"/>
-      <c r="L51" s="145"/>
-      <c r="M51" s="145"/>
+      <c r="K51" s="144"/>
+      <c r="L51" s="144"/>
+      <c r="M51" s="144"/>
       <c r="N51" s="41"/>
-      <c r="O51" s="145"/>
-    </row>
-    <row r="52" spans="1:15" ht="22.5">
+      <c r="O51" s="144"/>
+    </row>
+    <row r="52" spans="1:15" ht="21">
       <c r="A52" s="32"/>
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
@@ -8586,29 +8679,29 @@
       <c r="N52" s="36"/>
       <c r="O52" s="36"/>
     </row>
-    <row r="53" spans="1:15" ht="21">
+    <row r="53" spans="1:15" ht="19.8">
       <c r="A53" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="140" t="s">
+      <c r="B53" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="140" t="s">
+      <c r="C53" s="132" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="140" t="s">
+      <c r="D53" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="142">
+      <c r="E53" s="135">
         <v>45668</v>
       </c>
       <c r="F53" s="44">
         <v>1</v>
       </c>
-      <c r="G53" s="119" t="s">
+      <c r="G53" s="117" t="s">
         <v>114</v>
       </c>
-      <c r="H53" s="140">
+      <c r="H53" s="132">
         <v>1676</v>
       </c>
       <c r="I53" s="44">
@@ -8628,23 +8721,23 @@
         <v>43</v>
       </c>
       <c r="N53" s="44"/>
-      <c r="O53" s="140" t="s">
+      <c r="O53" s="132" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="21">
+    <row r="54" spans="1:15" ht="19.8">
       <c r="A54" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="141"/>
-      <c r="C54" s="141"/>
-      <c r="D54" s="141"/>
-      <c r="E54" s="143"/>
+      <c r="B54" s="134"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="137"/>
       <c r="F54" s="44">
         <v>2</v>
       </c>
-      <c r="G54" s="125"/>
-      <c r="H54" s="141"/>
+      <c r="G54" s="119"/>
+      <c r="H54" s="134"/>
       <c r="I54" s="44">
         <v>16.7</v>
       </c>
@@ -8662,9 +8755,9 @@
         <v>30</v>
       </c>
       <c r="N54" s="44"/>
-      <c r="O54" s="141"/>
-    </row>
-    <row r="55" spans="1:15" ht="22.5">
+      <c r="O54" s="134"/>
+    </row>
+    <row r="55" spans="1:15" ht="21">
       <c r="A55" s="32"/>
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
@@ -8689,29 +8782,29 @@
       <c r="N55" s="50"/>
       <c r="O55" s="51"/>
     </row>
-    <row r="56" spans="1:15" ht="21">
+    <row r="56" spans="1:15" ht="19.8">
       <c r="A56" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="140" t="s">
+      <c r="B56" s="132" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="140" t="s">
+      <c r="C56" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="D56" s="140" t="s">
+      <c r="D56" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="E56" s="142">
+      <c r="E56" s="135">
         <v>45670</v>
       </c>
       <c r="F56" s="44">
         <v>1</v>
       </c>
-      <c r="G56" s="119" t="s">
+      <c r="G56" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="H56" s="140">
+      <c r="H56" s="132">
         <v>145</v>
       </c>
       <c r="I56" s="44">
@@ -8731,23 +8824,23 @@
         <v>23</v>
       </c>
       <c r="N56" s="52"/>
-      <c r="O56" s="140" t="s">
+      <c r="O56" s="132" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="21">
+    <row r="57" spans="1:15" ht="19.8">
       <c r="A57" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="141"/>
-      <c r="C57" s="141"/>
-      <c r="D57" s="141"/>
-      <c r="E57" s="143"/>
+      <c r="B57" s="134"/>
+      <c r="C57" s="134"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="137"/>
       <c r="F57" s="44">
         <v>2</v>
       </c>
-      <c r="G57" s="125"/>
-      <c r="H57" s="141"/>
+      <c r="G57" s="119"/>
+      <c r="H57" s="134"/>
       <c r="I57" s="44">
         <v>13.7</v>
       </c>
@@ -8765,9 +8858,9 @@
         <v>49</v>
       </c>
       <c r="N57" s="44"/>
-      <c r="O57" s="141"/>
-    </row>
-    <row r="58" spans="1:15" ht="22.5">
+      <c r="O57" s="134"/>
+    </row>
+    <row r="58" spans="1:15" ht="21">
       <c r="A58" s="32"/>
       <c r="B58" s="32"/>
       <c r="C58" s="32"/>
@@ -8792,7 +8885,7 @@
       <c r="N58" s="50"/>
       <c r="O58" s="51"/>
     </row>
-    <row r="59" spans="1:15" ht="21">
+    <row r="59" spans="1:15" ht="19.8">
       <c r="A59" s="53" t="s">
         <v>123</v>
       </c>
@@ -8834,7 +8927,7 @@
       <c r="N59" s="53"/>
       <c r="O59" s="41"/>
     </row>
-    <row r="60" spans="1:15" ht="22.5">
+    <row r="60" spans="1:15" ht="21">
       <c r="A60" s="32"/>
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
@@ -8859,7 +8952,7 @@
       <c r="N60" s="55"/>
       <c r="O60" s="56"/>
     </row>
-    <row r="61" spans="1:15" ht="37.5">
+    <row r="61" spans="1:15" ht="34.799999999999997">
       <c r="A61" s="53" t="s">
         <v>128</v>
       </c>
@@ -8901,7 +8994,7 @@
       <c r="N61" s="53"/>
       <c r="O61" s="41"/>
     </row>
-    <row r="62" spans="1:15" ht="22.5">
+    <row r="62" spans="1:15" ht="21">
       <c r="A62" s="32"/>
       <c r="B62" s="32"/>
       <c r="C62" s="32"/>
@@ -8926,7 +9019,7 @@
       <c r="N62" s="55"/>
       <c r="O62" s="56"/>
     </row>
-    <row r="63" spans="1:15" ht="42">
+    <row r="63" spans="1:15" ht="39.6">
       <c r="A63" s="53" t="s">
         <v>132</v>
       </c>
@@ -8968,7 +9061,7 @@
       <c r="N63" s="53"/>
       <c r="O63" s="53"/>
     </row>
-    <row r="64" spans="1:15" ht="22.5">
+    <row r="64" spans="1:15" ht="21">
       <c r="A64" s="32"/>
       <c r="B64" s="32"/>
       <c r="C64" s="32"/>
@@ -8993,7 +9086,7 @@
       <c r="N64" s="55"/>
       <c r="O64" s="56"/>
     </row>
-    <row r="65" spans="1:15" ht="60.75">
+    <row r="65" spans="1:15" ht="57">
       <c r="A65" s="44" t="s">
         <v>137</v>
       </c>
@@ -9040,7 +9133,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="22.5">
+    <row r="66" spans="1:15" ht="21">
       <c r="A66" s="32"/>
       <c r="B66" s="32"/>
       <c r="C66" s="32"/>
@@ -9063,7 +9156,7 @@
       <c r="N66" s="50"/>
       <c r="O66" s="50"/>
     </row>
-    <row r="67" spans="1:15" ht="60.75">
+    <row r="67" spans="1:15" ht="57">
       <c r="A67" s="44" t="s">
         <v>144</v>
       </c>
@@ -9108,7 +9201,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="22.5">
+    <row r="68" spans="1:15" ht="21">
       <c r="A68" s="32"/>
       <c r="B68" s="32"/>
       <c r="C68" s="32"/>
@@ -9131,7 +9224,7 @@
       <c r="N68" s="50"/>
       <c r="O68" s="50"/>
     </row>
-    <row r="69" spans="1:15" ht="37.5">
+    <row r="69" spans="1:15" ht="19.8">
       <c r="A69" s="58"/>
       <c r="B69" s="59" t="s">
         <v>148</v>
@@ -9175,7 +9268,7 @@
       </c>
       <c r="O69" s="44"/>
     </row>
-    <row r="70" spans="1:15" ht="22.5">
+    <row r="70" spans="1:15" ht="21">
       <c r="A70" s="32"/>
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
@@ -9198,24 +9291,24 @@
       <c r="N70" s="50"/>
       <c r="O70" s="50"/>
     </row>
-    <row r="71" spans="1:15" ht="21">
+    <row r="71" spans="1:15" ht="19.8">
       <c r="A71" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="B71" s="133" t="s">
+      <c r="B71" s="148" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="133"/>
-      <c r="D71" s="133" t="s">
+      <c r="C71" s="148"/>
+      <c r="D71" s="148" t="s">
         <v>156</v>
       </c>
-      <c r="E71" s="136">
+      <c r="E71" s="141">
         <v>45673</v>
       </c>
       <c r="F71" s="53">
         <v>1</v>
       </c>
-      <c r="G71" s="133" t="s">
+      <c r="G71" s="148" t="s">
         <v>157</v>
       </c>
       <c r="H71" s="53">
@@ -9240,18 +9333,18 @@
       <c r="N71" s="53"/>
       <c r="O71" s="53"/>
     </row>
-    <row r="72" spans="1:15" ht="21">
+    <row r="72" spans="1:15" ht="19.8">
       <c r="A72" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="134"/>
-      <c r="C72" s="134"/>
-      <c r="D72" s="134"/>
-      <c r="E72" s="137"/>
+      <c r="B72" s="149"/>
+      <c r="C72" s="149"/>
+      <c r="D72" s="149"/>
+      <c r="E72" s="151"/>
       <c r="F72" s="53">
         <v>2</v>
       </c>
-      <c r="G72" s="134"/>
+      <c r="G72" s="149"/>
       <c r="H72" s="53">
         <v>240</v>
       </c>
@@ -9274,18 +9367,18 @@
       <c r="N72" s="53"/>
       <c r="O72" s="53"/>
     </row>
-    <row r="73" spans="1:15" ht="21">
+    <row r="73" spans="1:15" ht="19.8">
       <c r="A73" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="B73" s="134"/>
-      <c r="C73" s="134"/>
-      <c r="D73" s="134"/>
-      <c r="E73" s="137"/>
+      <c r="B73" s="149"/>
+      <c r="C73" s="149"/>
+      <c r="D73" s="149"/>
+      <c r="E73" s="151"/>
       <c r="F73" s="53">
         <v>3</v>
       </c>
-      <c r="G73" s="134"/>
+      <c r="G73" s="149"/>
       <c r="H73" s="53">
         <v>300</v>
       </c>
@@ -9308,18 +9401,18 @@
       <c r="N73" s="53"/>
       <c r="O73" s="53"/>
     </row>
-    <row r="74" spans="1:15" ht="21">
+    <row r="74" spans="1:15" ht="19.8">
       <c r="A74" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="B74" s="134"/>
-      <c r="C74" s="134"/>
-      <c r="D74" s="134"/>
-      <c r="E74" s="137"/>
+      <c r="B74" s="149"/>
+      <c r="C74" s="149"/>
+      <c r="D74" s="149"/>
+      <c r="E74" s="151"/>
       <c r="F74" s="53">
         <v>4</v>
       </c>
-      <c r="G74" s="134"/>
+      <c r="G74" s="149"/>
       <c r="H74" s="53">
         <v>230</v>
       </c>
@@ -9342,18 +9435,18 @@
       <c r="N74" s="53"/>
       <c r="O74" s="53"/>
     </row>
-    <row r="75" spans="1:15" ht="21">
+    <row r="75" spans="1:15" ht="19.8">
       <c r="A75" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="B75" s="134"/>
-      <c r="C75" s="134"/>
-      <c r="D75" s="134"/>
-      <c r="E75" s="137"/>
+      <c r="B75" s="149"/>
+      <c r="C75" s="149"/>
+      <c r="D75" s="149"/>
+      <c r="E75" s="151"/>
       <c r="F75" s="53">
         <v>5</v>
       </c>
-      <c r="G75" s="134"/>
+      <c r="G75" s="149"/>
       <c r="H75" s="53">
         <v>220</v>
       </c>
@@ -9376,18 +9469,18 @@
       <c r="N75" s="53"/>
       <c r="O75" s="53"/>
     </row>
-    <row r="76" spans="1:15" ht="21">
+    <row r="76" spans="1:15" ht="19.8">
       <c r="A76" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B76" s="134"/>
-      <c r="C76" s="134"/>
-      <c r="D76" s="134"/>
-      <c r="E76" s="137"/>
+      <c r="B76" s="149"/>
+      <c r="C76" s="149"/>
+      <c r="D76" s="149"/>
+      <c r="E76" s="151"/>
       <c r="F76" s="53">
         <v>6</v>
       </c>
-      <c r="G76" s="134"/>
+      <c r="G76" s="149"/>
       <c r="H76" s="53">
         <v>200</v>
       </c>
@@ -9410,18 +9503,18 @@
       <c r="N76" s="53"/>
       <c r="O76" s="53"/>
     </row>
-    <row r="77" spans="1:15" ht="21">
+    <row r="77" spans="1:15" ht="19.8">
       <c r="A77" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B77" s="134"/>
-      <c r="C77" s="134"/>
-      <c r="D77" s="134"/>
-      <c r="E77" s="137"/>
+      <c r="B77" s="149"/>
+      <c r="C77" s="149"/>
+      <c r="D77" s="149"/>
+      <c r="E77" s="151"/>
       <c r="F77" s="53">
         <v>7</v>
       </c>
-      <c r="G77" s="134"/>
+      <c r="G77" s="149"/>
       <c r="H77" s="53">
         <v>190</v>
       </c>
@@ -9444,18 +9537,18 @@
       <c r="N77" s="53"/>
       <c r="O77" s="53"/>
     </row>
-    <row r="78" spans="1:15" ht="21">
+    <row r="78" spans="1:15" ht="19.8">
       <c r="A78" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="134"/>
-      <c r="C78" s="134"/>
-      <c r="D78" s="134"/>
-      <c r="E78" s="137"/>
+      <c r="B78" s="149"/>
+      <c r="C78" s="149"/>
+      <c r="D78" s="149"/>
+      <c r="E78" s="151"/>
       <c r="F78" s="53">
         <v>8</v>
       </c>
-      <c r="G78" s="134"/>
+      <c r="G78" s="149"/>
       <c r="H78" s="53">
         <v>200</v>
       </c>
@@ -9478,18 +9571,18 @@
       <c r="N78" s="53"/>
       <c r="O78" s="53"/>
     </row>
-    <row r="79" spans="1:15" ht="21">
+    <row r="79" spans="1:15" ht="19.8">
       <c r="A79" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="B79" s="134"/>
-      <c r="C79" s="134"/>
-      <c r="D79" s="134"/>
-      <c r="E79" s="137"/>
+      <c r="B79" s="149"/>
+      <c r="C79" s="149"/>
+      <c r="D79" s="149"/>
+      <c r="E79" s="151"/>
       <c r="F79" s="53">
         <v>9</v>
       </c>
-      <c r="G79" s="134"/>
+      <c r="G79" s="149"/>
       <c r="H79" s="53">
         <v>200</v>
       </c>
@@ -9512,18 +9605,18 @@
       <c r="N79" s="53"/>
       <c r="O79" s="53"/>
     </row>
-    <row r="80" spans="1:15" ht="21">
+    <row r="80" spans="1:15" ht="19.8">
       <c r="A80" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="B80" s="134"/>
-      <c r="C80" s="134"/>
-      <c r="D80" s="134"/>
-      <c r="E80" s="137"/>
+      <c r="B80" s="149"/>
+      <c r="C80" s="149"/>
+      <c r="D80" s="149"/>
+      <c r="E80" s="151"/>
       <c r="F80" s="53">
         <v>10</v>
       </c>
-      <c r="G80" s="134"/>
+      <c r="G80" s="149"/>
       <c r="H80" s="53">
         <v>200</v>
       </c>
@@ -9546,18 +9639,18 @@
       <c r="N80" s="53"/>
       <c r="O80" s="53"/>
     </row>
-    <row r="81" spans="1:15" ht="21">
+    <row r="81" spans="1:15" ht="19.8">
       <c r="A81" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="B81" s="135"/>
-      <c r="C81" s="135"/>
-      <c r="D81" s="135"/>
-      <c r="E81" s="138"/>
+      <c r="B81" s="150"/>
+      <c r="C81" s="150"/>
+      <c r="D81" s="150"/>
+      <c r="E81" s="142"/>
       <c r="F81" s="53">
         <v>11</v>
       </c>
-      <c r="G81" s="135"/>
+      <c r="G81" s="150"/>
       <c r="H81" s="53">
         <v>200</v>
       </c>
@@ -9580,7 +9673,7 @@
       <c r="N81" s="53"/>
       <c r="O81" s="53"/>
     </row>
-    <row r="82" spans="1:15" ht="22.5">
+    <row r="82" spans="1:15" ht="21">
       <c r="A82" s="32"/>
       <c r="B82" s="32"/>
       <c r="C82" s="32"/>
@@ -9605,7 +9698,7 @@
       <c r="N82" s="56"/>
       <c r="O82" s="56"/>
     </row>
-    <row r="83" spans="1:15" ht="21">
+    <row r="83" spans="1:15" ht="19.8">
       <c r="A83" s="53" t="s">
         <v>168</v>
       </c>
@@ -9650,7 +9743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="22.5">
+    <row r="84" spans="1:15" ht="21">
       <c r="A84" s="32"/>
       <c r="B84" s="32"/>
       <c r="C84" s="32"/>
@@ -9675,7 +9768,7 @@
       <c r="N84" s="63"/>
       <c r="O84" s="63"/>
     </row>
-    <row r="85" spans="1:15" ht="42">
+    <row r="85" spans="1:15" ht="19.8">
       <c r="A85" s="53" t="s">
         <v>172</v>
       </c>
@@ -9718,7 +9811,7 @@
       <c r="N85" s="53"/>
       <c r="O85" s="53"/>
     </row>
-    <row r="86" spans="1:15" ht="22.5">
+    <row r="86" spans="1:15" ht="21">
       <c r="A86" s="64"/>
       <c r="B86" s="64"/>
       <c r="C86" s="64"/>
@@ -9743,7 +9836,7 @@
       <c r="N86" s="63"/>
       <c r="O86" s="63"/>
     </row>
-    <row r="87" spans="1:15" ht="42">
+    <row r="87" spans="1:15" ht="19.8">
       <c r="A87" s="53" t="s">
         <v>177</v>
       </c>
@@ -9786,7 +9879,7 @@
       <c r="N87" s="53"/>
       <c r="O87" s="53"/>
     </row>
-    <row r="88" spans="1:15" ht="22.5">
+    <row r="88" spans="1:15" ht="21">
       <c r="A88" s="64"/>
       <c r="B88" s="64"/>
       <c r="C88" s="64"/>
@@ -9811,7 +9904,7 @@
       <c r="N88" s="63"/>
       <c r="O88" s="63"/>
     </row>
-    <row r="89" spans="1:15" ht="42">
+    <row r="89" spans="1:15" ht="19.8">
       <c r="A89" s="53" t="s">
         <v>181</v>
       </c>
@@ -9854,7 +9947,7 @@
       <c r="N89" s="53"/>
       <c r="O89" s="53"/>
     </row>
-    <row r="90" spans="1:15" ht="22.5">
+    <row r="90" spans="1:15" ht="21">
       <c r="A90" s="64"/>
       <c r="B90" s="64"/>
       <c r="C90" s="64"/>
@@ -9879,7 +9972,7 @@
       <c r="N90" s="63"/>
       <c r="O90" s="63"/>
     </row>
-    <row r="91" spans="1:15" ht="21">
+    <row r="91" spans="1:15" ht="19.8">
       <c r="A91" s="53" t="s">
         <v>185</v>
       </c>
@@ -9920,7 +10013,7 @@
       <c r="N91" s="53"/>
       <c r="O91" s="53"/>
     </row>
-    <row r="92" spans="1:15" ht="22.5">
+    <row r="92" spans="1:15" ht="21">
       <c r="A92" s="64"/>
       <c r="B92" s="64"/>
       <c r="C92" s="64"/>
@@ -9945,7 +10038,7 @@
       <c r="N92" s="63"/>
       <c r="O92" s="63"/>
     </row>
-    <row r="93" spans="1:15" ht="21">
+    <row r="93" spans="1:15" ht="19.8">
       <c r="A93" s="41" t="s">
         <v>189</v>
       </c>
@@ -9988,7 +10081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="22.5">
+    <row r="94" spans="1:15" ht="21">
       <c r="A94" s="66"/>
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
@@ -10013,7 +10106,7 @@
       <c r="N94" s="63"/>
       <c r="O94" s="63"/>
     </row>
-    <row r="95" spans="1:15" ht="63">
+    <row r="95" spans="1:15" ht="59.4">
       <c r="A95" s="44" t="s">
         <v>193</v>
       </c>
@@ -10054,7 +10147,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="22.5">
+    <row r="96" spans="1:15" ht="21">
       <c r="A96" s="64"/>
       <c r="B96" s="64"/>
       <c r="C96" s="64"/>
@@ -10077,7 +10170,7 @@
       <c r="N96" s="50"/>
       <c r="O96" s="50"/>
     </row>
-    <row r="97" spans="1:15" ht="21">
+    <row r="97" spans="1:15" ht="19.8">
       <c r="A97" s="53" t="s">
         <v>197</v>
       </c>
@@ -10121,7 +10214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="22.5">
+    <row r="98" spans="1:15" ht="21">
       <c r="A98" s="64"/>
       <c r="B98" s="64"/>
       <c r="C98" s="64"/>
@@ -10146,7 +10239,7 @@
       <c r="N98" s="56"/>
       <c r="O98" s="56"/>
     </row>
-    <row r="99" spans="1:15" ht="42">
+    <row r="99" spans="1:15" ht="19.8">
       <c r="A99" s="53" t="s">
         <v>200</v>
       </c>
@@ -10187,7 +10280,7 @@
       <c r="N99" s="53"/>
       <c r="O99" s="53"/>
     </row>
-    <row r="100" spans="1:15" ht="22.5">
+    <row r="100" spans="1:15" ht="21">
       <c r="A100" s="64"/>
       <c r="B100" s="64"/>
       <c r="C100" s="64"/>
@@ -10212,7 +10305,7 @@
       <c r="N100" s="56"/>
       <c r="O100" s="56"/>
     </row>
-    <row r="101" spans="1:15" ht="58.5">
+    <row r="101" spans="1:15" ht="37.200000000000003">
       <c r="A101" s="53" t="s">
         <v>204</v>
       </c>
@@ -10257,7 +10350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="22.5">
+    <row r="102" spans="1:15" ht="21">
       <c r="A102" s="64"/>
       <c r="B102" s="64"/>
       <c r="C102" s="64"/>
@@ -10280,26 +10373,26 @@
       <c r="N102" s="56"/>
       <c r="O102" s="56"/>
     </row>
-    <row r="103" spans="1:15" ht="21">
+    <row r="103" spans="1:15" ht="19.8">
       <c r="A103" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="B103" s="133" t="s">
+      <c r="B103" s="148" t="s">
         <v>209</v>
       </c>
-      <c r="C103" s="133" t="s">
+      <c r="C103" s="148" t="s">
         <v>210</v>
       </c>
-      <c r="D103" s="133" t="s">
+      <c r="D103" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="E103" s="136">
+      <c r="E103" s="141">
         <v>45680</v>
       </c>
       <c r="F103" s="53">
         <v>1</v>
       </c>
-      <c r="G103" s="139" t="s">
+      <c r="G103" s="152" t="s">
         <v>211</v>
       </c>
       <c r="H103" s="53"/>
@@ -10322,18 +10415,18 @@
       <c r="N103" s="53"/>
       <c r="O103" s="53"/>
     </row>
-    <row r="104" spans="1:15" ht="21">
+    <row r="104" spans="1:15" ht="19.8">
       <c r="A104" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="B104" s="134"/>
-      <c r="C104" s="134"/>
-      <c r="D104" s="134"/>
-      <c r="E104" s="137"/>
+      <c r="B104" s="149"/>
+      <c r="C104" s="149"/>
+      <c r="D104" s="149"/>
+      <c r="E104" s="151"/>
       <c r="F104" s="53">
         <v>2</v>
       </c>
-      <c r="G104" s="134"/>
+      <c r="G104" s="149"/>
       <c r="H104" s="53"/>
       <c r="I104" s="53">
         <v>9.1</v>
@@ -10354,18 +10447,18 @@
       <c r="N104" s="53"/>
       <c r="O104" s="53"/>
     </row>
-    <row r="105" spans="1:15" ht="21">
+    <row r="105" spans="1:15" ht="19.8">
       <c r="A105" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="B105" s="134"/>
-      <c r="C105" s="134"/>
-      <c r="D105" s="134"/>
-      <c r="E105" s="137"/>
+      <c r="B105" s="149"/>
+      <c r="C105" s="149"/>
+      <c r="D105" s="149"/>
+      <c r="E105" s="151"/>
       <c r="F105" s="53">
         <v>3</v>
       </c>
-      <c r="G105" s="134"/>
+      <c r="G105" s="149"/>
       <c r="H105" s="53"/>
       <c r="I105" s="53">
         <v>24.1</v>
@@ -10386,18 +10479,18 @@
       <c r="N105" s="53"/>
       <c r="O105" s="53"/>
     </row>
-    <row r="106" spans="1:15" ht="21">
+    <row r="106" spans="1:15" ht="19.8">
       <c r="A106" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="B106" s="135"/>
-      <c r="C106" s="135"/>
-      <c r="D106" s="135"/>
-      <c r="E106" s="138"/>
+      <c r="B106" s="150"/>
+      <c r="C106" s="150"/>
+      <c r="D106" s="150"/>
+      <c r="E106" s="142"/>
       <c r="F106" s="53">
         <v>4</v>
       </c>
-      <c r="G106" s="135"/>
+      <c r="G106" s="150"/>
       <c r="H106" s="53"/>
       <c r="I106" s="53">
         <v>6.4</v>
@@ -10418,7 +10511,7 @@
       <c r="N106" s="53"/>
       <c r="O106" s="53"/>
     </row>
-    <row r="107" spans="1:15" ht="22.5">
+    <row r="107" spans="1:15" ht="21">
       <c r="A107" s="64"/>
       <c r="B107" s="64"/>
       <c r="C107" s="64"/>
@@ -10443,7 +10536,7 @@
       <c r="N107" s="56"/>
       <c r="O107" s="56"/>
     </row>
-    <row r="108" spans="1:15" ht="21">
+    <row r="108" spans="1:15" ht="19.8">
       <c r="A108" s="53" t="s">
         <v>331</v>
       </c>
@@ -10490,7 +10583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="22.5">
+    <row r="109" spans="1:15" ht="21">
       <c r="A109" s="64"/>
       <c r="B109" s="64"/>
       <c r="C109" s="64"/>
@@ -10515,29 +10608,29 @@
       <c r="N109" s="56"/>
       <c r="O109" s="56"/>
     </row>
-    <row r="110" spans="1:15" ht="21">
+    <row r="110" spans="1:15" ht="19.8">
       <c r="A110" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="B110" s="131" t="s">
+      <c r="B110" s="153" t="s">
         <v>338</v>
       </c>
       <c r="C110" s="53" t="s">
         <v>339</v>
       </c>
-      <c r="D110" s="131" t="s">
+      <c r="D110" s="153" t="s">
         <v>334</v>
       </c>
-      <c r="E110" s="132">
+      <c r="E110" s="154">
         <v>45698</v>
       </c>
       <c r="F110" s="53">
         <v>1</v>
       </c>
-      <c r="G110" s="131" t="s">
+      <c r="G110" s="153" t="s">
         <v>335</v>
       </c>
-      <c r="H110" s="131">
+      <c r="H110" s="153">
         <v>2</v>
       </c>
       <c r="I110" s="53">
@@ -10556,25 +10649,25 @@
         <v>10</v>
       </c>
       <c r="N110" s="53"/>
-      <c r="O110" s="131" t="s">
+      <c r="O110" s="153" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="21">
+    <row r="111" spans="1:15" ht="19.8">
       <c r="A111" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="B111" s="131"/>
+      <c r="B111" s="153"/>
       <c r="C111" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="D111" s="131"/>
-      <c r="E111" s="132"/>
+      <c r="D111" s="153"/>
+      <c r="E111" s="154"/>
       <c r="F111" s="53">
         <v>2</v>
       </c>
-      <c r="G111" s="131"/>
-      <c r="H111" s="131"/>
+      <c r="G111" s="153"/>
+      <c r="H111" s="153"/>
       <c r="I111" s="53">
         <v>1.4</v>
       </c>
@@ -10591,9 +10684,9 @@
         <v>14</v>
       </c>
       <c r="N111" s="53"/>
-      <c r="O111" s="131"/>
-    </row>
-    <row r="112" spans="1:15" ht="22.5">
+      <c r="O111" s="153"/>
+    </row>
+    <row r="112" spans="1:15" ht="21">
       <c r="A112" s="64"/>
       <c r="B112" s="64"/>
       <c r="C112" s="64"/>
@@ -10618,7 +10711,7 @@
       <c r="N112" s="56"/>
       <c r="O112" s="56"/>
     </row>
-    <row r="113" spans="1:15" ht="21">
+    <row r="113" spans="1:15" ht="19.8">
       <c r="A113" s="53" t="s">
         <v>342</v>
       </c>
@@ -10664,7 +10757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="22.5">
+    <row r="114" spans="1:15" ht="21">
       <c r="A114" s="64"/>
       <c r="B114" s="64"/>
       <c r="C114" s="64"/>
@@ -10689,7 +10782,7 @@
       <c r="N114" s="56"/>
       <c r="O114" s="56"/>
     </row>
-    <row r="115" spans="1:15" ht="21">
+    <row r="115" spans="1:15" ht="19.8">
       <c r="A115" s="53" t="s">
         <v>346</v>
       </c>
@@ -10735,7 +10828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="22.5">
+    <row r="116" spans="1:15" ht="21">
       <c r="A116" s="64"/>
       <c r="B116" s="64"/>
       <c r="C116" s="64"/>
@@ -10760,7 +10853,7 @@
       <c r="N116" s="56"/>
       <c r="O116" s="56"/>
     </row>
-    <row r="117" spans="1:15" ht="21">
+    <row r="117" spans="1:15" ht="19.8">
       <c r="A117" s="53" t="s">
         <v>349</v>
       </c>
@@ -10804,7 +10897,7 @@
       <c r="N117" s="53"/>
       <c r="O117" s="53"/>
     </row>
-    <row r="118" spans="1:15" ht="22.5">
+    <row r="118" spans="1:15" ht="21">
       <c r="A118" s="64"/>
       <c r="B118" s="64"/>
       <c r="C118" s="64"/>
@@ -10829,7 +10922,7 @@
       <c r="N118" s="56"/>
       <c r="O118" s="56"/>
     </row>
-    <row r="119" spans="1:15" ht="42">
+    <row r="119" spans="1:15" ht="19.8">
       <c r="A119" s="53" t="s">
         <v>354</v>
       </c>
@@ -10871,7 +10964,7 @@
       <c r="N119" s="53"/>
       <c r="O119" s="53"/>
     </row>
-    <row r="120" spans="1:15" ht="22.5">
+    <row r="120" spans="1:15" ht="21">
       <c r="A120" s="64"/>
       <c r="B120" s="64"/>
       <c r="C120" s="64"/>
@@ -10896,7 +10989,7 @@
       <c r="N120" s="56"/>
       <c r="O120" s="56"/>
     </row>
-    <row r="121" spans="1:15" ht="21">
+    <row r="121" spans="1:15" ht="19.8">
       <c r="A121" s="53" t="s">
         <v>378</v>
       </c>
@@ -10939,7 +11032,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="22.5">
+    <row r="122" spans="1:15" ht="21">
       <c r="A122" s="64"/>
       <c r="B122" s="64"/>
       <c r="C122" s="64"/>
@@ -10964,29 +11057,29 @@
       <c r="N122" s="56"/>
       <c r="O122" s="56"/>
     </row>
-    <row r="123" spans="1:15" ht="21">
+    <row r="123" spans="1:15" ht="19.8">
       <c r="A123" s="44" t="s">
         <v>381</v>
       </c>
-      <c r="B123" s="140" t="s">
+      <c r="B123" s="132" t="s">
         <v>382</v>
       </c>
-      <c r="C123" s="140" t="s">
+      <c r="C123" s="132" t="s">
         <v>383</v>
       </c>
-      <c r="D123" s="140" t="s">
+      <c r="D123" s="132" t="s">
         <v>384</v>
       </c>
-      <c r="E123" s="142">
+      <c r="E123" s="135">
         <v>45706</v>
       </c>
       <c r="F123" s="44">
         <v>1</v>
       </c>
-      <c r="G123" s="119" t="s">
+      <c r="G123" s="117" t="s">
         <v>385</v>
       </c>
-      <c r="H123" s="140">
+      <c r="H123" s="132">
         <v>553</v>
       </c>
       <c r="I123" s="44">
@@ -11005,23 +11098,23 @@
         <v>49</v>
       </c>
       <c r="N123" s="44"/>
-      <c r="O123" s="140" t="s">
+      <c r="O123" s="132" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="21">
+    <row r="124" spans="1:15" ht="19.8">
       <c r="A124" s="44" t="s">
         <v>386</v>
       </c>
-      <c r="B124" s="153"/>
-      <c r="C124" s="153"/>
-      <c r="D124" s="153"/>
-      <c r="E124" s="154"/>
+      <c r="B124" s="133"/>
+      <c r="C124" s="133"/>
+      <c r="D124" s="133"/>
+      <c r="E124" s="136"/>
       <c r="F124" s="44">
         <v>2</v>
       </c>
-      <c r="G124" s="124"/>
-      <c r="H124" s="153"/>
+      <c r="G124" s="118"/>
+      <c r="H124" s="133"/>
       <c r="I124" s="44">
         <v>11.9</v>
       </c>
@@ -11038,21 +11131,21 @@
         <v>49</v>
       </c>
       <c r="N124" s="44"/>
-      <c r="O124" s="153"/>
-    </row>
-    <row r="125" spans="1:15" ht="21">
+      <c r="O124" s="133"/>
+    </row>
+    <row r="125" spans="1:15" ht="19.8">
       <c r="A125" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="B125" s="153"/>
-      <c r="C125" s="153"/>
-      <c r="D125" s="153"/>
-      <c r="E125" s="154"/>
+      <c r="B125" s="133"/>
+      <c r="C125" s="133"/>
+      <c r="D125" s="133"/>
+      <c r="E125" s="136"/>
       <c r="F125" s="44">
         <v>3</v>
       </c>
-      <c r="G125" s="124"/>
-      <c r="H125" s="153"/>
+      <c r="G125" s="118"/>
+      <c r="H125" s="133"/>
       <c r="I125" s="44">
         <v>13.8</v>
       </c>
@@ -11069,21 +11162,21 @@
         <v>49</v>
       </c>
       <c r="N125" s="44"/>
-      <c r="O125" s="153"/>
-    </row>
-    <row r="126" spans="1:15" ht="21">
+      <c r="O125" s="133"/>
+    </row>
+    <row r="126" spans="1:15" ht="19.8">
       <c r="A126" s="44" t="s">
         <v>388</v>
       </c>
-      <c r="B126" s="153"/>
-      <c r="C126" s="153"/>
-      <c r="D126" s="153"/>
-      <c r="E126" s="154"/>
+      <c r="B126" s="133"/>
+      <c r="C126" s="133"/>
+      <c r="D126" s="133"/>
+      <c r="E126" s="136"/>
       <c r="F126" s="44">
         <v>4</v>
       </c>
-      <c r="G126" s="124"/>
-      <c r="H126" s="153"/>
+      <c r="G126" s="118"/>
+      <c r="H126" s="133"/>
       <c r="I126" s="44">
         <v>17.600000000000001</v>
       </c>
@@ -11100,21 +11193,21 @@
         <v>49</v>
       </c>
       <c r="N126" s="44"/>
-      <c r="O126" s="153"/>
-    </row>
-    <row r="127" spans="1:15" ht="21">
+      <c r="O126" s="133"/>
+    </row>
+    <row r="127" spans="1:15" ht="19.8">
       <c r="A127" s="44" t="s">
         <v>389</v>
       </c>
-      <c r="B127" s="153"/>
-      <c r="C127" s="153"/>
-      <c r="D127" s="153"/>
-      <c r="E127" s="154"/>
+      <c r="B127" s="133"/>
+      <c r="C127" s="133"/>
+      <c r="D127" s="133"/>
+      <c r="E127" s="136"/>
       <c r="F127" s="44">
         <v>5</v>
       </c>
-      <c r="G127" s="124"/>
-      <c r="H127" s="153"/>
+      <c r="G127" s="118"/>
+      <c r="H127" s="133"/>
       <c r="I127" s="44">
         <v>7.8</v>
       </c>
@@ -11131,21 +11224,21 @@
         <v>43</v>
       </c>
       <c r="N127" s="44"/>
-      <c r="O127" s="153"/>
-    </row>
-    <row r="128" spans="1:15" ht="21">
+      <c r="O127" s="133"/>
+    </row>
+    <row r="128" spans="1:15" ht="19.8">
       <c r="A128" s="44" t="s">
         <v>390</v>
       </c>
-      <c r="B128" s="153"/>
-      <c r="C128" s="153"/>
-      <c r="D128" s="153"/>
-      <c r="E128" s="154"/>
+      <c r="B128" s="133"/>
+      <c r="C128" s="133"/>
+      <c r="D128" s="133"/>
+      <c r="E128" s="136"/>
       <c r="F128" s="44">
         <v>6</v>
       </c>
-      <c r="G128" s="124"/>
-      <c r="H128" s="153"/>
+      <c r="G128" s="118"/>
+      <c r="H128" s="133"/>
       <c r="I128" s="44">
         <v>15.5</v>
       </c>
@@ -11162,21 +11255,21 @@
         <v>49</v>
       </c>
       <c r="N128" s="44"/>
-      <c r="O128" s="153"/>
-    </row>
-    <row r="129" spans="1:15" ht="21">
+      <c r="O128" s="133"/>
+    </row>
+    <row r="129" spans="1:15" ht="19.8">
       <c r="A129" s="44" t="s">
         <v>391</v>
       </c>
-      <c r="B129" s="141"/>
-      <c r="C129" s="141"/>
-      <c r="D129" s="141"/>
-      <c r="E129" s="143"/>
+      <c r="B129" s="134"/>
+      <c r="C129" s="134"/>
+      <c r="D129" s="134"/>
+      <c r="E129" s="137"/>
       <c r="F129" s="44">
         <v>7</v>
       </c>
-      <c r="G129" s="125"/>
-      <c r="H129" s="141"/>
+      <c r="G129" s="119"/>
+      <c r="H129" s="134"/>
       <c r="I129" s="44">
         <v>14.6</v>
       </c>
@@ -11193,9 +11286,9 @@
         <v>49</v>
       </c>
       <c r="N129" s="44"/>
-      <c r="O129" s="141"/>
-    </row>
-    <row r="130" spans="1:15" ht="22.5">
+      <c r="O129" s="134"/>
+    </row>
+    <row r="130" spans="1:15" ht="21">
       <c r="A130" s="64"/>
       <c r="B130" s="64"/>
       <c r="C130" s="64"/>
@@ -11218,22 +11311,247 @@
       <c r="N130" s="50"/>
       <c r="O130" s="51"/>
     </row>
+    <row r="131" spans="1:15" ht="19.8">
+      <c r="A131" s="53" t="s">
+        <v>392</v>
+      </c>
+      <c r="B131" s="53" t="s">
+        <v>393</v>
+      </c>
+      <c r="C131" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="D131" s="53" t="s">
+        <v>395</v>
+      </c>
+      <c r="E131" s="42">
+        <v>45707</v>
+      </c>
+      <c r="F131" s="53">
+        <v>1</v>
+      </c>
+      <c r="G131" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="H131" s="53"/>
+      <c r="I131" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="J131" s="54">
+        <v>1.14E-2</v>
+      </c>
+      <c r="K131" s="53">
+        <v>30</v>
+      </c>
+      <c r="L131" s="53">
+        <v>20</v>
+      </c>
+      <c r="M131" s="53">
+        <v>19</v>
+      </c>
+      <c r="N131" s="53"/>
+      <c r="O131" s="53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" ht="21">
+      <c r="A132" s="64"/>
+      <c r="B132" s="64"/>
+      <c r="C132" s="64"/>
+      <c r="D132" s="64"/>
+      <c r="E132" s="64"/>
+      <c r="F132" s="46">
+        <v>1</v>
+      </c>
+      <c r="G132" s="67"/>
+      <c r="H132" s="46"/>
+      <c r="I132" s="46">
+        <f>SUM(I131:I131)</f>
+        <v>0.9</v>
+      </c>
+      <c r="J132" s="49">
+        <f>SUM(J131:J131)</f>
+        <v>1.14E-2</v>
+      </c>
+      <c r="K132" s="46"/>
+      <c r="L132" s="46"/>
+      <c r="M132" s="46"/>
+      <c r="N132" s="56"/>
+      <c r="O132" s="56"/>
+    </row>
+    <row r="133" spans="1:15" ht="19.8">
+      <c r="A133" s="53" t="s">
+        <v>397</v>
+      </c>
+      <c r="B133" s="53" t="s">
+        <v>398</v>
+      </c>
+      <c r="C133" s="53" t="s">
+        <v>399</v>
+      </c>
+      <c r="D133" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E133" s="42">
+        <v>45707</v>
+      </c>
+      <c r="F133" s="53">
+        <v>1</v>
+      </c>
+      <c r="G133" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H133" s="53">
+        <v>1</v>
+      </c>
+      <c r="I133" s="53">
+        <v>2.1</v>
+      </c>
+      <c r="J133" s="54">
+        <v>1.8096000000000001E-2</v>
+      </c>
+      <c r="K133" s="53">
+        <v>39</v>
+      </c>
+      <c r="L133" s="53">
+        <v>29</v>
+      </c>
+      <c r="M133" s="53">
+        <v>16</v>
+      </c>
+      <c r="N133" s="53"/>
+      <c r="O133" s="53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" ht="21">
+      <c r="A134" s="64"/>
+      <c r="B134" s="64"/>
+      <c r="C134" s="64"/>
+      <c r="D134" s="64"/>
+      <c r="E134" s="64"/>
+      <c r="F134" s="46">
+        <v>1</v>
+      </c>
+      <c r="G134" s="67"/>
+      <c r="H134" s="46"/>
+      <c r="I134" s="46">
+        <f>SUM(I133:I133)</f>
+        <v>2.1</v>
+      </c>
+      <c r="J134" s="49">
+        <f>SUM(J133:J133)</f>
+        <v>1.8096000000000001E-2</v>
+      </c>
+      <c r="K134" s="46"/>
+      <c r="L134" s="46"/>
+      <c r="M134" s="46"/>
+      <c r="N134" s="56"/>
+      <c r="O134" s="56"/>
+    </row>
+    <row r="135" spans="1:15" ht="19.8">
+      <c r="A135" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="B135" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="C135" s="53" t="s">
+        <v>402</v>
+      </c>
+      <c r="D135" s="53" t="s">
+        <v>384</v>
+      </c>
+      <c r="E135" s="42">
+        <v>45707</v>
+      </c>
+      <c r="F135" s="53">
+        <v>1</v>
+      </c>
+      <c r="G135" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="H135" s="53"/>
+      <c r="I135" s="53">
+        <v>20.9</v>
+      </c>
+      <c r="J135" s="54">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="K135" s="53">
+        <v>43</v>
+      </c>
+      <c r="L135" s="53">
+        <v>28</v>
+      </c>
+      <c r="M135" s="53">
+        <v>25</v>
+      </c>
+      <c r="N135" s="53"/>
+      <c r="O135" s="53"/>
+    </row>
+    <row r="136" spans="1:15" ht="21">
+      <c r="A136" s="64"/>
+      <c r="B136" s="64"/>
+      <c r="C136" s="64"/>
+      <c r="D136" s="64"/>
+      <c r="E136" s="64"/>
+      <c r="F136" s="46">
+        <v>1</v>
+      </c>
+      <c r="G136" s="67"/>
+      <c r="H136" s="46"/>
+      <c r="I136" s="46">
+        <f>SUM(I135:I135)</f>
+        <v>20.9</v>
+      </c>
+      <c r="J136" s="49">
+        <f>SUM(J135:J135)</f>
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="K136" s="46"/>
+      <c r="L136" s="46"/>
+      <c r="M136" s="46"/>
+      <c r="N136" s="56"/>
+      <c r="O136" s="56"/>
+    </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="H123:H129"/>
-    <mergeCell ref="O123:O129"/>
-    <mergeCell ref="B123:B129"/>
-    <mergeCell ref="C123:C129"/>
-    <mergeCell ref="D123:D129"/>
-    <mergeCell ref="E123:E129"/>
-    <mergeCell ref="G123:G129"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="O110:O111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="G103:G106"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="B71:B81"/>
+    <mergeCell ref="C71:C81"/>
+    <mergeCell ref="D71:D81"/>
+    <mergeCell ref="E71:E81"/>
+    <mergeCell ref="G71:G81"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G53:G54"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="G50:G51"/>
     <mergeCell ref="O21:O22"/>
@@ -11247,41 +11565,20 @@
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="D50:D51"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="B71:B81"/>
-    <mergeCell ref="C71:C81"/>
-    <mergeCell ref="D71:D81"/>
-    <mergeCell ref="E71:E81"/>
-    <mergeCell ref="G71:G81"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="G103:G106"/>
-    <mergeCell ref="O110:O111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H123:H129"/>
+    <mergeCell ref="O123:O129"/>
+    <mergeCell ref="B123:B129"/>
+    <mergeCell ref="C123:C129"/>
+    <mergeCell ref="D123:D129"/>
+    <mergeCell ref="E123:E129"/>
+    <mergeCell ref="G123:G129"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11296,25 +11593,25 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.88671875" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
     <col min="11" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="16" max="16" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24">
+    <row r="1" spans="1:16" ht="25.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11342,7 +11639,7 @@
       <c r="O1" s="7"/>
       <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:16" ht="63">
+    <row r="2" spans="1:16" ht="59.4">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -11373,11 +11670,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="129" t="s">
+      <c r="K2" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -11388,11 +11685,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="130" t="s">
+    <row r="3" spans="1:16" ht="33.6">
+      <c r="A3" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="130"/>
+      <c r="B3" s="113"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -11408,7 +11705,7 @@
       <c r="O3" s="24"/>
       <c r="P3" s="25"/>
     </row>
-    <row r="5" spans="1:16" ht="42">
+    <row r="5" spans="1:16" ht="39.6">
       <c r="B5" s="84" t="s">
         <v>262</v>
       </c>
@@ -11456,13 +11753,13 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="22.5">
-      <c r="B6" s="110" t="s">
+    <row r="6" spans="1:16" ht="21">
+      <c r="B6" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
       <c r="F6" s="89" t="s">
         <v>267</v>
       </c>
@@ -11483,7 +11780,7 @@
       <c r="O6" s="74"/>
       <c r="P6" s="74"/>
     </row>
-    <row r="7" spans="1:16" ht="42">
+    <row r="7" spans="1:16" ht="39.6">
       <c r="B7" s="38" t="s">
         <v>262</v>
       </c>
@@ -11531,13 +11828,13 @@
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="22.5">
-      <c r="B8" s="110" t="s">
+    <row r="8" spans="1:16" ht="21">
+      <c r="B8" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
       <c r="F8" s="71" t="s">
         <v>239</v>
       </c>
@@ -11558,7 +11855,7 @@
       <c r="O8" s="74"/>
       <c r="P8" s="74"/>
     </row>
-    <row r="9" spans="1:16" ht="42">
+    <row r="9" spans="1:16" ht="39.6">
       <c r="B9" s="38" t="s">
         <v>262</v>
       </c>
@@ -11606,13 +11903,13 @@
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="22.5">
-      <c r="B10" s="110" t="s">
+    <row r="10" spans="1:16" ht="21">
+      <c r="B10" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
       <c r="F10" s="71" t="s">
         <v>267</v>
       </c>
@@ -11633,7 +11930,7 @@
       <c r="O10" s="74"/>
       <c r="P10" s="74"/>
     </row>
-    <row r="11" spans="1:16" ht="42">
+    <row r="11" spans="1:16" ht="39.6">
       <c r="B11" s="84" t="s">
         <v>262</v>
       </c>
@@ -11681,13 +11978,13 @@
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="22.5">
-      <c r="B12" s="110" t="s">
+    <row r="12" spans="1:16" ht="21">
+      <c r="B12" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
       <c r="F12" s="89" t="s">
         <v>267</v>
       </c>
@@ -11708,7 +12005,7 @@
       <c r="O12" s="74"/>
       <c r="P12" s="74"/>
     </row>
-    <row r="13" spans="1:16" ht="42">
+    <row r="13" spans="1:16" ht="39.6">
       <c r="B13" s="38" t="s">
         <v>262</v>
       </c>
@@ -11756,13 +12053,13 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="22.5">
-      <c r="B14" s="110" t="s">
+    <row r="14" spans="1:16" ht="21">
+      <c r="B14" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
       <c r="F14" s="71" t="s">
         <v>239</v>
       </c>
@@ -11783,7 +12080,7 @@
       <c r="O14" s="74"/>
       <c r="P14" s="74"/>
     </row>
-    <row r="15" spans="1:16" ht="42">
+    <row r="15" spans="1:16" ht="39.6">
       <c r="B15" s="38" t="s">
         <v>262</v>
       </c>
@@ -11829,13 +12126,13 @@
         <v>273</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="22.5">
-      <c r="B16" s="110" t="s">
+    <row r="16" spans="1:16" ht="21">
+      <c r="B16" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
       <c r="F16" s="71" t="s">
         <v>267</v>
       </c>
@@ -11856,7 +12153,7 @@
       <c r="O16" s="74"/>
       <c r="P16" s="74"/>
     </row>
-    <row r="17" spans="2:16" ht="21">
+    <row r="17" spans="2:16" ht="19.8">
       <c r="B17" s="38" t="s">
         <v>262</v>
       </c>
@@ -11899,13 +12196,13 @@
       </c>
       <c r="P17" s="38"/>
     </row>
-    <row r="18" spans="2:16" ht="22.5">
-      <c r="B18" s="110" t="s">
+    <row r="18" spans="2:16" ht="21">
+      <c r="B18" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
       <c r="F18" s="71" t="s">
         <v>276</v>
       </c>
@@ -11924,25 +12221,25 @@
       <c r="O18" s="74"/>
       <c r="P18" s="74"/>
     </row>
-    <row r="19" spans="2:16" ht="21">
-      <c r="B19" s="111" t="s">
+    <row r="19" spans="2:16" ht="19.8">
+      <c r="B19" s="124" t="s">
         <v>301</v>
       </c>
       <c r="C19" s="38"/>
-      <c r="D19" s="111" t="s">
+      <c r="D19" s="124" t="s">
         <v>263</v>
       </c>
-      <c r="E19" s="114">
+      <c r="E19" s="126">
         <v>45671</v>
       </c>
       <c r="F19" s="68" t="s">
         <v>302</v>
       </c>
-      <c r="G19" s="111" t="s">
+      <c r="G19" s="124" t="s">
         <v>265</v>
       </c>
       <c r="H19" s="38"/>
-      <c r="I19" s="111"/>
+      <c r="I19" s="124"/>
       <c r="J19" s="69">
         <v>7.7367000000000008</v>
       </c>
@@ -11963,17 +12260,17 @@
       </c>
       <c r="P19" s="38"/>
     </row>
-    <row r="20" spans="2:16" ht="21">
-      <c r="B20" s="113"/>
+    <row r="20" spans="2:16" ht="19.8">
+      <c r="B20" s="125"/>
       <c r="C20" s="38"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="116"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="127"/>
       <c r="F20" s="68" t="s">
         <v>303</v>
       </c>
-      <c r="G20" s="113"/>
+      <c r="G20" s="125"/>
       <c r="H20" s="38"/>
-      <c r="I20" s="113"/>
+      <c r="I20" s="125"/>
       <c r="J20" s="69">
         <v>0.67200000000000004</v>
       </c>
@@ -11990,13 +12287,13 @@
       <c r="O20" s="38"/>
       <c r="P20" s="38"/>
     </row>
-    <row r="21" spans="2:16" ht="22.5">
-      <c r="B21" s="110" t="s">
+    <row r="21" spans="2:16" ht="21">
+      <c r="B21" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
       <c r="F21" s="71" t="s">
         <v>303</v>
       </c>
@@ -12017,12 +12314,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B10:E10"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="B21:E21"/>
@@ -12032,6 +12323,12 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Customer/Cust 2025/Cargo W99 2025.xlsx
+++ b/Customer/Cust 2025/Cargo W99 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Customer\Cust 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE18615C-B9C1-492E-91F0-6D4A6DB505F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89659DC9-9D85-4158-A50D-25A1F2C5D00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E000C531-AA46-4CF4-8BD7-2185A135A010}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E000C531-AA46-4CF4-8BD7-2185A135A010}"/>
   </bookViews>
   <sheets>
     <sheet name="SEA" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="469">
   <si>
     <t>Hijau barang terkirim, Lunas, beres</t>
   </si>
@@ -2262,13 +2262,7 @@
 液体liquid</t>
   </si>
   <si>
-    <t>1-750</t>
-  </si>
-  <si>
     <t>液体liquid</t>
-  </si>
-  <si>
-    <t>750</t>
   </si>
   <si>
     <t>S0082373</t>
@@ -2446,12 +2440,6 @@
     <t>54-69</t>
   </si>
   <si>
-    <t>70-339</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
     <t>S0083449</t>
   </si>
   <si>
@@ -3042,6 +3030,460 @@
       </rPr>
       <t>212445793110</t>
     </r>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>A0034928</t>
+  </si>
+  <si>
+    <r>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>3151279690598</t>
+    </r>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>A0034953</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>3154274430482</t>
+    </r>
+  </si>
+  <si>
+    <t>F08</t>
+  </si>
+  <si>
+    <t>A0034958</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>1524668835292</t>
+    </r>
+  </si>
+  <si>
+    <t>F1271
+液体liquid</t>
+  </si>
+  <si>
+    <t>冷冻油Refrigerant oil</t>
+  </si>
+  <si>
+    <t>F1274</t>
+  </si>
+  <si>
+    <t>F1268
+退税TR</t>
+  </si>
+  <si>
+    <t>F1269
+BRANDED
+二手second-hand</t>
+  </si>
+  <si>
+    <t>F1271
+二手second-hand
+BRANDED</t>
+  </si>
+  <si>
+    <t>70-169</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170-339</t>
+  </si>
+  <si>
+    <t>F1272
+二手second-hand
+BRANDED</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>F1275</t>
+  </si>
+  <si>
+    <t>F1291
+BRANDED</t>
+  </si>
+  <si>
+    <t>S0084779</t>
+  </si>
+  <si>
+    <t>1-400</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>S0084952</t>
+  </si>
+  <si>
+    <t>R00001236955 18914604321</t>
+  </si>
+  <si>
+    <t>1-30</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>S0084974</t>
+  </si>
+  <si>
+    <t>JDKA00863278398</t>
+  </si>
+  <si>
+    <t>279/W99/KAFR/SEA</t>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>鞋子Shoes</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>A0035101</t>
+  </si>
+  <si>
+    <r>
+      <t>菜鸟：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>'621209815458006</t>
+    </r>
+  </si>
+  <si>
+    <t>279/W99/GN222/AIR</t>
+  </si>
+  <si>
+    <t>H26</t>
+  </si>
+  <si>
+    <t>A0035112</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>:1549345368501</t>
+    </r>
+  </si>
+  <si>
+    <t>279/W99/GN219/AIR</t>
+  </si>
+  <si>
+    <t>手表Wrist watch</t>
+  </si>
+  <si>
+    <t>H29</t>
+  </si>
+  <si>
+    <t>A0035115</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>:0268008345894</t>
+    </r>
+  </si>
+  <si>
+    <t>279/W99/BA/AIR</t>
+  </si>
+  <si>
+    <t>主机host</t>
+  </si>
+  <si>
+    <t>K44</t>
+  </si>
+  <si>
+    <t>A0035214</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>:1549902447507</t>
+    </r>
+  </si>
+  <si>
+    <t>K45</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>:3161807709909</t>
+    </r>
+  </si>
+  <si>
+    <t>K27</t>
+  </si>
+  <si>
+    <t>A0035207</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>:0268064849143</t>
+    </r>
+  </si>
+  <si>
+    <t>279/W99/DS/AIR</t>
+  </si>
+  <si>
+    <t>K28</t>
+  </si>
+  <si>
+    <t>K29</t>
+  </si>
+  <si>
+    <t>K30</t>
+  </si>
+  <si>
+    <t>K31</t>
+  </si>
+  <si>
+    <t>K32</t>
+  </si>
+  <si>
+    <t>S0085128</t>
+  </si>
+  <si>
+    <r>
+      <t>壹米滴答：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>109983949848</t>
+    </r>
+  </si>
+  <si>
+    <t>279/W99/HTN/SEA</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>S0085130</t>
+  </si>
+  <si>
+    <r>
+      <t>壹米滴答：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>109978078764</t>
+    </r>
+  </si>
+  <si>
+    <t>S0084990</t>
+  </si>
+  <si>
+    <t>279/W99/INDRA/SEA</t>
   </si>
 </sst>
 </file>
@@ -3209,7 +3651,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -3269,6 +3711,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3279,7 +3758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3563,55 +4042,181 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3620,127 +4225,64 @@
     <xf numFmtId="167" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4059,32 +4601,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03568550-BD00-482C-9F46-E2F5DB6F38F1}">
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <pane ySplit="3" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87:P88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="37.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
     <col min="11" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
-    <col min="16" max="16" width="17.109375" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.2">
+    <row r="1" spans="1:16" ht="24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4112,7 +4654,7 @@
       <c r="O1" s="7"/>
       <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:16" ht="59.4">
+    <row r="2" spans="1:16" ht="63">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -4143,11 +4685,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="112" t="s">
+      <c r="K2" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -4158,11 +4700,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="33.6">
-      <c r="A3" s="113" t="s">
+    <row r="3" spans="1:16" ht="33.75">
+      <c r="A3" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="113"/>
+      <c r="B3" s="155"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -4178,7 +4720,7 @@
       <c r="O3" s="24"/>
       <c r="P3" s="25"/>
     </row>
-    <row r="5" spans="1:16" ht="79.2">
+    <row r="5" spans="1:16" ht="84">
       <c r="B5" s="38" t="s">
         <v>215</v>
       </c>
@@ -4223,13 +4765,13 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="21">
-      <c r="B6" s="111" t="s">
+    <row r="6" spans="1:16" ht="22.5">
+      <c r="B6" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
       <c r="F6" s="71" t="s">
         <v>221</v>
       </c>
@@ -4248,17 +4790,17 @@
       <c r="O6" s="74"/>
       <c r="P6" s="74"/>
     </row>
-    <row r="7" spans="1:16" ht="34.799999999999997">
-      <c r="B7" s="114" t="s">
+    <row r="7" spans="1:16" ht="37.5">
+      <c r="B7" s="147" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="144" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="114" t="s">
+      <c r="D7" s="147" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="120">
+      <c r="E7" s="151">
         <v>45659</v>
       </c>
       <c r="F7" s="75" t="s">
@@ -4270,7 +4812,7 @@
       <c r="H7" s="76">
         <v>1</v>
       </c>
-      <c r="I7" s="114">
+      <c r="I7" s="147">
         <v>255</v>
       </c>
       <c r="J7" s="77">
@@ -4285,21 +4827,21 @@
       <c r="M7" s="76">
         <v>62</v>
       </c>
-      <c r="N7" s="123">
+      <c r="N7" s="148">
         <v>45663</v>
       </c>
-      <c r="O7" s="123">
+      <c r="O7" s="148">
         <v>45705</v>
       </c>
-      <c r="P7" s="114" t="s">
+      <c r="P7" s="147" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="19.8">
-      <c r="B8" s="115"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="121"/>
+    <row r="8" spans="1:16" ht="21">
+      <c r="B8" s="145"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="152"/>
       <c r="F8" s="75" t="s">
         <v>228</v>
       </c>
@@ -4309,7 +4851,7 @@
       <c r="H8" s="76">
         <v>1</v>
       </c>
-      <c r="I8" s="115"/>
+      <c r="I8" s="145"/>
       <c r="J8" s="77">
         <v>0.54978000000000005</v>
       </c>
@@ -4322,15 +4864,15 @@
       <c r="M8" s="76">
         <v>77</v>
       </c>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-    </row>
-    <row r="9" spans="1:16" ht="34.799999999999997">
-      <c r="B9" s="115"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="121"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="145"/>
+    </row>
+    <row r="9" spans="1:16" ht="37.5">
+      <c r="B9" s="145"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="152"/>
       <c r="F9" s="75" t="s">
         <v>230</v>
       </c>
@@ -4340,7 +4882,7 @@
       <c r="H9" s="76">
         <v>1</v>
       </c>
-      <c r="I9" s="115"/>
+      <c r="I9" s="145"/>
       <c r="J9" s="77">
         <v>0.51480000000000004</v>
       </c>
@@ -4353,15 +4895,15 @@
       <c r="M9" s="76">
         <v>65</v>
       </c>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="115"/>
-    </row>
-    <row r="10" spans="1:16" ht="52.2">
-      <c r="B10" s="116"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="122"/>
+      <c r="N9" s="145"/>
+      <c r="O9" s="145"/>
+      <c r="P9" s="145"/>
+    </row>
+    <row r="10" spans="1:16" ht="56.25">
+      <c r="B10" s="146"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="153"/>
       <c r="F10" s="75" t="s">
         <v>232</v>
       </c>
@@ -4371,7 +4913,7 @@
       <c r="H10" s="76">
         <v>1</v>
       </c>
-      <c r="I10" s="116"/>
+      <c r="I10" s="146"/>
       <c r="J10" s="77">
         <v>7.3800000000000004E-2</v>
       </c>
@@ -4384,17 +4926,17 @@
       <c r="M10" s="76">
         <v>18</v>
       </c>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-    </row>
-    <row r="11" spans="1:16" ht="21">
-      <c r="B11" s="111" t="s">
+      <c r="N10" s="146"/>
+      <c r="O10" s="146"/>
+      <c r="P10" s="146"/>
+    </row>
+    <row r="11" spans="1:16" ht="22.5">
+      <c r="B11" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="71" t="s">
         <v>232</v>
       </c>
@@ -4413,7 +4955,7 @@
       <c r="O11" s="78"/>
       <c r="P11" s="79"/>
     </row>
-    <row r="12" spans="1:16" ht="109.2">
+    <row r="12" spans="1:16" ht="117">
       <c r="B12" s="38" t="s">
         <v>234</v>
       </c>
@@ -4463,13 +5005,13 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="21">
-      <c r="B13" s="111" t="s">
+    <row r="13" spans="1:16" ht="22.5">
+      <c r="B13" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="71" t="s">
         <v>239</v>
       </c>
@@ -4490,7 +5032,7 @@
       <c r="O13" s="74"/>
       <c r="P13" s="74"/>
     </row>
-    <row r="14" spans="1:16" ht="109.2">
+    <row r="14" spans="1:16" ht="117">
       <c r="B14" s="38" t="s">
         <v>234</v>
       </c>
@@ -4540,13 +5082,13 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="21">
-      <c r="B15" s="111" t="s">
+    <row r="15" spans="1:16" ht="22.5">
+      <c r="B15" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
       <c r="F15" s="71" t="s">
         <v>242</v>
       </c>
@@ -4567,7 +5109,7 @@
       <c r="O15" s="74"/>
       <c r="P15" s="74"/>
     </row>
-    <row r="16" spans="1:16" ht="91.8">
+    <row r="16" spans="1:16" ht="98.25">
       <c r="B16" s="38" t="s">
         <v>234</v>
       </c>
@@ -4614,13 +5156,13 @@
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="21">
-      <c r="B17" s="111" t="s">
+    <row r="17" spans="2:16" ht="22.5">
+      <c r="B17" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
       <c r="F17" s="71" t="s">
         <v>246</v>
       </c>
@@ -4639,7 +5181,7 @@
       <c r="O17" s="74"/>
       <c r="P17" s="74"/>
     </row>
-    <row r="18" spans="2:16" ht="19.8">
+    <row r="18" spans="2:16" ht="42">
       <c r="B18" s="76" t="s">
         <v>247</v>
       </c>
@@ -4684,13 +5226,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="21">
-      <c r="B19" s="111" t="s">
+    <row r="19" spans="2:16" ht="22.5">
+      <c r="B19" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="71" t="s">
         <v>252</v>
       </c>
@@ -4709,7 +5251,7 @@
       <c r="O19" s="79"/>
       <c r="P19" s="79"/>
     </row>
-    <row r="20" spans="2:16" ht="39.6">
+    <row r="20" spans="2:16" ht="42">
       <c r="B20" s="38" t="s">
         <v>253</v>
       </c>
@@ -4757,13 +5299,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="21">
-      <c r="B21" s="111" t="s">
+    <row r="21" spans="2:16" ht="22.5">
+      <c r="B21" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
       <c r="F21" s="71" t="s">
         <v>255</v>
       </c>
@@ -4784,7 +5326,7 @@
       <c r="O21" s="74"/>
       <c r="P21" s="74"/>
     </row>
-    <row r="22" spans="2:16" ht="19.8">
+    <row r="22" spans="2:16" ht="21">
       <c r="B22" s="38" t="s">
         <v>256</v>
       </c>
@@ -4831,13 +5373,13 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="21">
-      <c r="B23" s="111" t="s">
+    <row r="23" spans="2:16" ht="22.5">
+      <c r="B23" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="71" t="s">
         <v>232</v>
       </c>
@@ -4856,117 +5398,117 @@
       <c r="O23" s="74"/>
       <c r="P23" s="74"/>
     </row>
-    <row r="24" spans="2:16" ht="39.6">
-      <c r="B24" s="84" t="s">
+    <row r="24" spans="2:16" ht="42">
+      <c r="B24" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84" t="s">
+      <c r="C24" s="38"/>
+      <c r="D24" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="E24" s="85">
+      <c r="E24" s="29">
         <v>45667</v>
       </c>
-      <c r="F24" s="86" t="s">
-        <v>264</v>
-      </c>
-      <c r="G24" s="87" t="s">
+      <c r="F24" s="68" t="s">
+        <v>270</v>
+      </c>
+      <c r="G24" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="H24" s="84">
+      <c r="H24" s="38">
         <f>2*750</f>
         <v>1500</v>
       </c>
-      <c r="I24" s="84">
+      <c r="I24" s="38">
         <f>24*200</f>
         <v>4800</v>
       </c>
-      <c r="J24" s="88">
+      <c r="J24" s="69">
         <f>K24*L24*M24/1000000*200</f>
         <v>8.16</v>
       </c>
-      <c r="K24" s="84">
+      <c r="K24" s="38">
         <v>40</v>
       </c>
-      <c r="L24" s="84">
+      <c r="L24" s="38">
         <v>34</v>
       </c>
-      <c r="M24" s="84">
+      <c r="M24" s="38">
         <v>30</v>
       </c>
       <c r="N24" s="70">
-        <v>45673</v>
+        <v>45671</v>
       </c>
       <c r="O24" s="70">
-        <v>45715</v>
+        <v>45714</v>
       </c>
       <c r="P24" s="38" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" ht="21">
-      <c r="B25" s="111" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="22.5">
+      <c r="B25" s="129" t="s">
         <v>220</v>
       </c>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="89" t="s">
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="90"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="92">
+      <c r="G25" s="83"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="81">
         <f>SUM(I24:I24)</f>
         <v>4800</v>
       </c>
-      <c r="J25" s="93">
+      <c r="J25" s="73">
         <f>SUM(J24:J24)</f>
         <v>8.16</v>
       </c>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
       <c r="N25" s="74"/>
       <c r="O25" s="74"/>
       <c r="P25" s="74"/>
     </row>
-    <row r="26" spans="2:16" ht="39.6">
-      <c r="B26" s="38" t="s">
+    <row r="26" spans="2:16" ht="42">
+      <c r="B26" s="84" t="s">
         <v>262</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38" t="s">
+      <c r="C26" s="84"/>
+      <c r="D26" s="84" t="s">
         <v>263</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="85">
         <v>45667</v>
       </c>
-      <c r="F26" s="68" t="s">
-        <v>268</v>
-      </c>
-      <c r="G26" s="39" t="s">
+      <c r="F26" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="G26" s="87" t="s">
         <v>265</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="84">
         <f>2*750</f>
         <v>1500</v>
       </c>
-      <c r="I26" s="38">
-        <f>24*150</f>
-        <v>3600</v>
-      </c>
-      <c r="J26" s="69">
-        <f>K26*L26*M26/1000000*150</f>
-        <v>6.12</v>
-      </c>
-      <c r="K26" s="38">
+      <c r="I26" s="84">
+        <f>24*200</f>
+        <v>4800</v>
+      </c>
+      <c r="J26" s="88">
+        <f>K26*L26*M26/1000000*200</f>
+        <v>8.16</v>
+      </c>
+      <c r="K26" s="84">
         <v>40</v>
       </c>
-      <c r="L26" s="38">
+      <c r="L26" s="84">
         <v>34</v>
       </c>
-      <c r="M26" s="38">
+      <c r="M26" s="84">
         <v>30</v>
       </c>
       <c r="N26" s="70">
@@ -4976,37 +5518,37 @@
         <v>45715</v>
       </c>
       <c r="P26" s="38" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" ht="21">
-      <c r="B27" s="111" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="22.5">
+      <c r="B27" s="129" t="s">
         <v>220</v>
       </c>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="71" t="s">
-        <v>239</v>
-      </c>
-      <c r="G27" s="83"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72">
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="G27" s="90"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="92">
         <f>SUM(I26:I26)</f>
-        <v>3600</v>
-      </c>
-      <c r="J27" s="73">
+        <v>4800</v>
+      </c>
+      <c r="J27" s="93">
         <f>SUM(J26:J26)</f>
-        <v>6.12</v>
-      </c>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
+        <v>8.16</v>
+      </c>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="91"/>
       <c r="N27" s="74"/>
       <c r="O27" s="74"/>
       <c r="P27" s="74"/>
     </row>
-    <row r="28" spans="2:16" ht="39.6">
+    <row r="28" spans="2:16" ht="42">
       <c r="B28" s="38" t="s">
         <v>262</v>
       </c>
@@ -5018,7 +5560,7 @@
         <v>45667</v>
       </c>
       <c r="F28" s="68" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G28" s="39" t="s">
         <v>265</v>
@@ -5028,12 +5570,12 @@
         <v>1500</v>
       </c>
       <c r="I28" s="38">
-        <f>24*200</f>
-        <v>4800</v>
+        <f>24*150</f>
+        <v>3600</v>
       </c>
       <c r="J28" s="69">
-        <f>K28*L28*M28/1000000*200</f>
-        <v>8.16</v>
+        <f>K28*L28*M28/1000000*150</f>
+        <v>6.12</v>
       </c>
       <c r="K28" s="38">
         <v>40</v>
@@ -5045,34 +5587,34 @@
         <v>30</v>
       </c>
       <c r="N28" s="70">
-        <v>45671</v>
+        <v>45673</v>
       </c>
       <c r="O28" s="70">
-        <v>45714</v>
+        <v>45715</v>
       </c>
       <c r="P28" s="38" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" ht="21">
-      <c r="B29" s="111" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="22.5">
+      <c r="B29" s="129" t="s">
         <v>220</v>
       </c>
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="131"/>
       <c r="F29" s="71" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="G29" s="83"/>
       <c r="H29" s="72"/>
-      <c r="I29" s="81">
+      <c r="I29" s="72">
         <f>SUM(I28:I28)</f>
-        <v>4800</v>
+        <v>3600</v>
       </c>
       <c r="J29" s="73">
         <f>SUM(J28:J28)</f>
-        <v>8.16</v>
+        <v>6.12</v>
       </c>
       <c r="K29" s="72"/>
       <c r="L29" s="72"/>
@@ -5081,1491 +5623,1520 @@
       <c r="O29" s="74"/>
       <c r="P29" s="74"/>
     </row>
-    <row r="30" spans="2:16" ht="39.6">
-      <c r="B30" s="84" t="s">
+    <row r="30" spans="2:16" ht="42">
+      <c r="B30" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84" t="s">
+      <c r="C30" s="38"/>
+      <c r="D30" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="E30" s="85">
+      <c r="E30" s="29">
         <v>45667</v>
       </c>
-      <c r="F30" s="86" t="s">
-        <v>264</v>
-      </c>
-      <c r="G30" s="87" t="s">
+      <c r="F30" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="G30" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="H30" s="84">
+      <c r="H30" s="38">
         <f>2*750</f>
         <v>1500</v>
       </c>
-      <c r="I30" s="84">
+      <c r="I30" s="38">
         <f>24*200</f>
         <v>4800</v>
       </c>
-      <c r="J30" s="88">
+      <c r="J30" s="69">
         <f>K30*L30*M30/1000000*200</f>
         <v>8.16</v>
       </c>
-      <c r="K30" s="84">
+      <c r="K30" s="38">
         <v>40</v>
       </c>
-      <c r="L30" s="84">
+      <c r="L30" s="38">
         <v>34</v>
       </c>
-      <c r="M30" s="84">
+      <c r="M30" s="38">
         <v>30</v>
       </c>
       <c r="N30" s="70">
-        <v>45673</v>
+        <v>45675</v>
       </c>
       <c r="O30" s="70">
-        <v>45715</v>
+        <v>45716</v>
       </c>
       <c r="P30" s="38" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" ht="21">
-      <c r="B31" s="111" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="22.5">
+      <c r="B31" s="129" t="s">
         <v>220</v>
       </c>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="89" t="s">
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="G31" s="90"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="92">
+      <c r="G31" s="83"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="81">
         <f>SUM(I30:I30)</f>
         <v>4800</v>
       </c>
-      <c r="J31" s="93">
+      <c r="J31" s="73">
         <f>SUM(J30:J30)</f>
         <v>8.16</v>
       </c>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
       <c r="N31" s="74"/>
       <c r="O31" s="74"/>
       <c r="P31" s="74"/>
     </row>
-    <row r="32" spans="2:16" ht="39.6">
-      <c r="B32" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="E32" s="29">
-        <v>45667</v>
-      </c>
-      <c r="F32" s="68" t="s">
-        <v>268</v>
-      </c>
-      <c r="G32" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="H32" s="38">
-        <f>2*750</f>
-        <v>1500</v>
-      </c>
-      <c r="I32" s="38">
-        <f>24*150</f>
-        <v>3600</v>
-      </c>
-      <c r="J32" s="69">
-        <f>K32*L32*M32/1000000*150</f>
-        <v>6.12</v>
-      </c>
-      <c r="K32" s="38">
+    <row r="32" spans="2:16" ht="21">
+      <c r="B32" s="147" t="s">
+        <v>275</v>
+      </c>
+      <c r="C32" s="144" t="s">
+        <v>276</v>
+      </c>
+      <c r="D32" s="147" t="s">
+        <v>277</v>
+      </c>
+      <c r="E32" s="151">
+        <v>45668</v>
+      </c>
+      <c r="F32" s="75" t="s">
+        <v>278</v>
+      </c>
+      <c r="G32" s="144" t="s">
+        <v>279</v>
+      </c>
+      <c r="H32" s="76">
+        <v>385</v>
+      </c>
+      <c r="I32" s="147">
+        <v>1451</v>
+      </c>
+      <c r="J32" s="77">
+        <v>3.5475000000000003</v>
+      </c>
+      <c r="K32" s="76">
+        <v>86</v>
+      </c>
+      <c r="L32" s="76">
+        <v>25</v>
+      </c>
+      <c r="M32" s="76">
+        <v>30</v>
+      </c>
+      <c r="N32" s="148">
+        <v>45671</v>
+      </c>
+      <c r="O32" s="148">
+        <v>45714</v>
+      </c>
+      <c r="P32" s="147" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="21">
+      <c r="B33" s="145"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" s="150"/>
+      <c r="H33" s="76">
+        <v>36</v>
+      </c>
+      <c r="I33" s="145"/>
+      <c r="J33" s="77">
+        <v>0.29759999999999998</v>
+      </c>
+      <c r="K33" s="76">
+        <v>62</v>
+      </c>
+      <c r="L33" s="76">
         <v>40</v>
       </c>
-      <c r="L32" s="38">
-        <v>34</v>
-      </c>
-      <c r="M32" s="38">
+      <c r="M33" s="76">
+        <v>20</v>
+      </c>
+      <c r="N33" s="145"/>
+      <c r="O33" s="145"/>
+      <c r="P33" s="145"/>
+    </row>
+    <row r="34" spans="2:16" ht="21">
+      <c r="B34" s="145"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="H34" s="76">
+        <v>26</v>
+      </c>
+      <c r="I34" s="145"/>
+      <c r="J34" s="77">
+        <v>9.2663999999999996E-2</v>
+      </c>
+      <c r="K34" s="76">
+        <v>54</v>
+      </c>
+      <c r="L34" s="76">
+        <v>52</v>
+      </c>
+      <c r="M34" s="76">
+        <v>33</v>
+      </c>
+      <c r="N34" s="145"/>
+      <c r="O34" s="145"/>
+      <c r="P34" s="145"/>
+    </row>
+    <row r="35" spans="2:16" ht="21">
+      <c r="B35" s="145"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="H35" s="76">
+        <v>121</v>
+      </c>
+      <c r="I35" s="145"/>
+      <c r="J35" s="77">
+        <v>3.456E-2</v>
+      </c>
+      <c r="K35" s="76">
         <v>30</v>
       </c>
-      <c r="N32" s="70">
-        <v>45673</v>
-      </c>
-      <c r="O32" s="70">
-        <v>45715</v>
-      </c>
-      <c r="P32" s="38" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" ht="21">
-      <c r="B33" s="111" t="s">
+      <c r="L35" s="76">
+        <v>48</v>
+      </c>
+      <c r="M35" s="76">
+        <v>24</v>
+      </c>
+      <c r="N35" s="145"/>
+      <c r="O35" s="145"/>
+      <c r="P35" s="145"/>
+    </row>
+    <row r="36" spans="2:16" ht="37.5">
+      <c r="B36" s="145"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="75" t="s">
+        <v>286</v>
+      </c>
+      <c r="G36" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="H36" s="76">
+        <v>24</v>
+      </c>
+      <c r="I36" s="145"/>
+      <c r="J36" s="77">
+        <v>7.4880000000000002E-2</v>
+      </c>
+      <c r="K36" s="76">
+        <v>32</v>
+      </c>
+      <c r="L36" s="76">
+        <v>39</v>
+      </c>
+      <c r="M36" s="76">
+        <v>15</v>
+      </c>
+      <c r="N36" s="145"/>
+      <c r="O36" s="145"/>
+      <c r="P36" s="145"/>
+    </row>
+    <row r="37" spans="2:16" ht="21">
+      <c r="B37" s="146"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="75" t="s">
+        <v>287</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="H37" s="76">
+        <v>150</v>
+      </c>
+      <c r="I37" s="146"/>
+      <c r="J37" s="77">
+        <v>1.512</v>
+      </c>
+      <c r="K37" s="76">
+        <v>56</v>
+      </c>
+      <c r="L37" s="76">
+        <v>36</v>
+      </c>
+      <c r="M37" s="76">
+        <v>30</v>
+      </c>
+      <c r="N37" s="146"/>
+      <c r="O37" s="146"/>
+      <c r="P37" s="146"/>
+    </row>
+    <row r="38" spans="2:16" ht="22.5">
+      <c r="B38" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="71" t="s">
-        <v>239</v>
-      </c>
-      <c r="G33" s="83"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72">
-        <f>SUM(I32:I32)</f>
-        <v>3600</v>
-      </c>
-      <c r="J33" s="73">
-        <f>SUM(J32:J32)</f>
-        <v>6.12</v>
-      </c>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="74"/>
-    </row>
-    <row r="34" spans="2:16" ht="39.6">
-      <c r="B34" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="E34" s="29">
-        <v>45667</v>
-      </c>
-      <c r="F34" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="G34" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="H34" s="38">
-        <f>2*750</f>
-        <v>1500</v>
-      </c>
-      <c r="I34" s="38">
-        <f>24*200</f>
-        <v>4800</v>
-      </c>
-      <c r="J34" s="69">
-        <f>K34*L34*M34/1000000*200</f>
-        <v>8.16</v>
-      </c>
-      <c r="K34" s="38">
+      <c r="C38" s="122"/>
+      <c r="D38" s="122"/>
+      <c r="E38" s="122"/>
+      <c r="F38" s="71" t="s">
+        <v>288</v>
+      </c>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="94">
+        <v>1451</v>
+      </c>
+      <c r="J38" s="73">
+        <v>5.5592040000000011</v>
+      </c>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="78"/>
+      <c r="P38" s="79"/>
+    </row>
+    <row r="39" spans="2:16" ht="21">
+      <c r="B39" s="147" t="s">
+        <v>289</v>
+      </c>
+      <c r="C39" s="144" t="s">
+        <v>290</v>
+      </c>
+      <c r="D39" s="147" t="s">
+        <v>291</v>
+      </c>
+      <c r="E39" s="151">
+        <v>45668</v>
+      </c>
+      <c r="F39" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="G39" s="144" t="s">
+        <v>293</v>
+      </c>
+      <c r="H39" s="76">
+        <v>300</v>
+      </c>
+      <c r="I39" s="147">
+        <v>680</v>
+      </c>
+      <c r="J39" s="77">
+        <v>0.23760000000000003</v>
+      </c>
+      <c r="K39" s="76">
+        <v>50</v>
+      </c>
+      <c r="L39" s="76">
+        <v>33</v>
+      </c>
+      <c r="M39" s="76">
+        <v>24</v>
+      </c>
+      <c r="N39" s="148">
+        <v>45671</v>
+      </c>
+      <c r="O39" s="148">
+        <v>45714</v>
+      </c>
+      <c r="P39" s="147" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" ht="21">
+      <c r="B40" s="145"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="G40" s="145"/>
+      <c r="H40" s="76">
+        <v>80</v>
+      </c>
+      <c r="I40" s="145"/>
+      <c r="J40" s="77">
+        <v>0.189</v>
+      </c>
+      <c r="K40" s="76">
+        <v>70</v>
+      </c>
+      <c r="L40" s="76">
+        <v>45</v>
+      </c>
+      <c r="M40" s="76">
+        <v>30</v>
+      </c>
+      <c r="N40" s="145"/>
+      <c r="O40" s="145"/>
+      <c r="P40" s="145"/>
+    </row>
+    <row r="41" spans="2:16" ht="21">
+      <c r="B41" s="146"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="153"/>
+      <c r="F41" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="G41" s="146"/>
+      <c r="H41" s="76">
+        <v>5100</v>
+      </c>
+      <c r="I41" s="146"/>
+      <c r="J41" s="77">
+        <v>2.7820800000000001</v>
+      </c>
+      <c r="K41" s="76">
+        <v>46</v>
+      </c>
+      <c r="L41" s="76">
         <v>40</v>
       </c>
-      <c r="L34" s="38">
-        <v>34</v>
-      </c>
-      <c r="M34" s="38">
-        <v>30</v>
-      </c>
-      <c r="N34" s="70">
-        <v>45675</v>
-      </c>
-      <c r="O34" s="70"/>
-      <c r="P34" s="38" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" ht="21">
-      <c r="B35" s="111" t="s">
+      <c r="M41" s="76">
+        <v>28</v>
+      </c>
+      <c r="N41" s="146"/>
+      <c r="O41" s="146"/>
+      <c r="P41" s="146"/>
+    </row>
+    <row r="42" spans="2:16" ht="22.5">
+      <c r="B42" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="C35" s="111"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="G35" s="83"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="81">
-        <f>SUM(I34:I34)</f>
-        <v>4800</v>
-      </c>
-      <c r="J35" s="73">
-        <f>SUM(J34:J34)</f>
-        <v>8.16</v>
-      </c>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
-    </row>
-    <row r="36" spans="2:16" ht="19.8">
-      <c r="B36" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="E36" s="29">
-        <v>45667</v>
-      </c>
-      <c r="F36" s="68" t="s">
-        <v>274</v>
-      </c>
-      <c r="G36" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="H36" s="38">
-        <v>1500</v>
-      </c>
-      <c r="I36" s="38">
-        <v>18000</v>
-      </c>
-      <c r="J36" s="69">
-        <v>30.6</v>
-      </c>
-      <c r="K36" s="38">
-        <v>40</v>
-      </c>
-      <c r="L36" s="38">
-        <v>34</v>
-      </c>
-      <c r="M36" s="38">
-        <v>30</v>
-      </c>
-      <c r="N36" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="O36" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="P36" s="38"/>
-    </row>
-    <row r="37" spans="2:16" ht="21">
-      <c r="B37" s="111" t="s">
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="71" t="s">
+        <v>282</v>
+      </c>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72">
+        <v>680</v>
+      </c>
+      <c r="J42" s="73">
+        <v>3.2086800000000002</v>
+      </c>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="79"/>
+      <c r="O42" s="79"/>
+      <c r="P42" s="79"/>
+    </row>
+    <row r="43" spans="2:16" ht="37.5">
+      <c r="B43" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="D43" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" s="82">
+        <v>45671</v>
+      </c>
+      <c r="F43" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="H43" s="76">
+        <v>12585</v>
+      </c>
+      <c r="I43" s="76">
+        <v>1050</v>
+      </c>
+      <c r="J43" s="77">
+        <v>3.2826749999999998</v>
+      </c>
+      <c r="K43" s="76">
+        <v>33</v>
+      </c>
+      <c r="L43" s="76">
+        <v>25</v>
+      </c>
+      <c r="M43" s="76">
+        <v>173</v>
+      </c>
+      <c r="N43" s="76" t="s">
+        <v>153</v>
+      </c>
+      <c r="O43" s="76" t="s">
+        <v>153</v>
+      </c>
+      <c r="P43" s="76"/>
+    </row>
+    <row r="44" spans="2:16" ht="22.5">
+      <c r="B44" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="C37" s="111"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="71" t="s">
-        <v>276</v>
-      </c>
-      <c r="G37" s="83"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="81">
-        <v>18000</v>
-      </c>
-      <c r="J37" s="73">
-        <v>30.6</v>
-      </c>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
-    </row>
-    <row r="38" spans="2:16" ht="19.8">
-      <c r="B38" s="114" t="s">
-        <v>277</v>
-      </c>
-      <c r="C38" s="117" t="s">
-        <v>278</v>
-      </c>
-      <c r="D38" s="114" t="s">
-        <v>279</v>
-      </c>
-      <c r="E38" s="120">
-        <v>45668</v>
-      </c>
-      <c r="F38" s="75" t="s">
-        <v>280</v>
-      </c>
-      <c r="G38" s="117" t="s">
-        <v>281</v>
-      </c>
-      <c r="H38" s="76">
-        <v>385</v>
-      </c>
-      <c r="I38" s="114">
-        <v>1451</v>
-      </c>
-      <c r="J38" s="77">
-        <v>3.5475000000000003</v>
-      </c>
-      <c r="K38" s="76">
-        <v>86</v>
-      </c>
-      <c r="L38" s="76">
-        <v>25</v>
-      </c>
-      <c r="M38" s="76">
-        <v>30</v>
-      </c>
-      <c r="N38" s="123">
-        <v>45671</v>
-      </c>
-      <c r="O38" s="123">
-        <v>45714</v>
-      </c>
-      <c r="P38" s="114" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" ht="19.8">
-      <c r="B39" s="115"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="75" t="s">
-        <v>283</v>
-      </c>
-      <c r="G39" s="119"/>
-      <c r="H39" s="76">
-        <v>36</v>
-      </c>
-      <c r="I39" s="115"/>
-      <c r="J39" s="77">
-        <v>0.29759999999999998</v>
-      </c>
-      <c r="K39" s="76">
-        <v>62</v>
-      </c>
-      <c r="L39" s="76">
-        <v>40</v>
-      </c>
-      <c r="M39" s="76">
-        <v>20</v>
-      </c>
-      <c r="N39" s="115"/>
-      <c r="O39" s="115"/>
-      <c r="P39" s="115"/>
-    </row>
-    <row r="40" spans="2:16" ht="19.8">
-      <c r="B40" s="115"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="75" t="s">
-        <v>284</v>
-      </c>
-      <c r="G40" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="H40" s="76">
-        <v>26</v>
-      </c>
-      <c r="I40" s="115"/>
-      <c r="J40" s="77">
-        <v>9.2663999999999996E-2</v>
-      </c>
-      <c r="K40" s="76">
-        <v>54</v>
-      </c>
-      <c r="L40" s="76">
-        <v>52</v>
-      </c>
-      <c r="M40" s="76">
-        <v>33</v>
-      </c>
-      <c r="N40" s="115"/>
-      <c r="O40" s="115"/>
-      <c r="P40" s="115"/>
-    </row>
-    <row r="41" spans="2:16" ht="19.8">
-      <c r="B41" s="115"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="121"/>
-      <c r="F41" s="75" t="s">
-        <v>286</v>
-      </c>
-      <c r="G41" s="52" t="s">
-        <v>287</v>
-      </c>
-      <c r="H41" s="76">
-        <v>121</v>
-      </c>
-      <c r="I41" s="115"/>
-      <c r="J41" s="77">
-        <v>3.456E-2</v>
-      </c>
-      <c r="K41" s="76">
-        <v>30</v>
-      </c>
-      <c r="L41" s="76">
-        <v>48</v>
-      </c>
-      <c r="M41" s="76">
-        <v>24</v>
-      </c>
-      <c r="N41" s="115"/>
-      <c r="O41" s="115"/>
-      <c r="P41" s="115"/>
-    </row>
-    <row r="42" spans="2:16" ht="34.799999999999997">
-      <c r="B42" s="115"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="121"/>
-      <c r="F42" s="75" t="s">
-        <v>288</v>
-      </c>
-      <c r="G42" s="52" t="s">
-        <v>281</v>
-      </c>
-      <c r="H42" s="76">
-        <v>24</v>
-      </c>
-      <c r="I42" s="115"/>
-      <c r="J42" s="77">
-        <v>7.4880000000000002E-2</v>
-      </c>
-      <c r="K42" s="76">
-        <v>32</v>
-      </c>
-      <c r="L42" s="76">
-        <v>39</v>
-      </c>
-      <c r="M42" s="76">
-        <v>15</v>
-      </c>
-      <c r="N42" s="115"/>
-      <c r="O42" s="115"/>
-      <c r="P42" s="115"/>
-    </row>
-    <row r="43" spans="2:16" ht="19.8">
-      <c r="B43" s="116"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="75" t="s">
-        <v>289</v>
-      </c>
-      <c r="G43" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="H43" s="76">
-        <v>150</v>
-      </c>
-      <c r="I43" s="116"/>
-      <c r="J43" s="77">
-        <v>1.512</v>
-      </c>
-      <c r="K43" s="76">
-        <v>56</v>
-      </c>
-      <c r="L43" s="76">
-        <v>36</v>
-      </c>
-      <c r="M43" s="76">
-        <v>30</v>
-      </c>
-      <c r="N43" s="116"/>
-      <c r="O43" s="116"/>
-      <c r="P43" s="116"/>
-    </row>
-    <row r="44" spans="2:16" ht="21">
-      <c r="B44" s="111" t="s">
-        <v>220</v>
-      </c>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="122"/>
       <c r="F44" s="71" t="s">
-        <v>290</v>
-      </c>
-      <c r="G44" s="72"/>
+        <v>298</v>
+      </c>
+      <c r="G44" s="81"/>
       <c r="H44" s="72"/>
-      <c r="I44" s="94">
-        <v>1451</v>
+      <c r="I44" s="81">
+        <v>1050</v>
       </c>
       <c r="J44" s="73">
-        <v>5.5592040000000011</v>
+        <v>3.2826749999999998</v>
       </c>
       <c r="K44" s="72"/>
       <c r="L44" s="72"/>
       <c r="M44" s="72"/>
-      <c r="N44" s="78"/>
-      <c r="O44" s="78"/>
+      <c r="N44" s="79"/>
+      <c r="O44" s="79"/>
       <c r="P44" s="79"/>
     </row>
-    <row r="45" spans="2:16" ht="19.8">
-      <c r="B45" s="114" t="s">
-        <v>291</v>
-      </c>
-      <c r="C45" s="117" t="s">
-        <v>292</v>
-      </c>
-      <c r="D45" s="114" t="s">
-        <v>293</v>
-      </c>
-      <c r="E45" s="120">
-        <v>45668</v>
-      </c>
-      <c r="F45" s="75" t="s">
-        <v>294</v>
-      </c>
-      <c r="G45" s="117" t="s">
-        <v>295</v>
-      </c>
-      <c r="H45" s="76">
+    <row r="45" spans="2:16" ht="42">
+      <c r="B45" s="123" t="s">
+        <v>299</v>
+      </c>
+      <c r="C45" s="38"/>
+      <c r="D45" s="123" t="s">
+        <v>263</v>
+      </c>
+      <c r="E45" s="126">
+        <v>45671</v>
+      </c>
+      <c r="F45" s="68" t="s">
         <v>300</v>
       </c>
-      <c r="I45" s="114">
-        <v>680</v>
-      </c>
-      <c r="J45" s="77">
-        <v>0.23760000000000003</v>
-      </c>
-      <c r="K45" s="76">
-        <v>50</v>
-      </c>
-      <c r="L45" s="76">
-        <v>33</v>
-      </c>
-      <c r="M45" s="76">
-        <v>24</v>
-      </c>
-      <c r="N45" s="123">
-        <v>45671</v>
-      </c>
-      <c r="O45" s="123">
+      <c r="G45" s="111" t="s">
+        <v>265</v>
+      </c>
+      <c r="H45" s="41">
+        <f>2*185</f>
+        <v>370</v>
+      </c>
+      <c r="I45" s="41">
+        <f>24*186</f>
+        <v>4464</v>
+      </c>
+      <c r="J45" s="101">
+        <f>K45*L45*M45/1000000*185</f>
+        <v>7.5480000000000009</v>
+      </c>
+      <c r="K45" s="41">
+        <v>34</v>
+      </c>
+      <c r="L45" s="41">
+        <v>40</v>
+      </c>
+      <c r="M45" s="41">
+        <v>30</v>
+      </c>
+      <c r="N45" s="70">
+        <v>45680</v>
+      </c>
+      <c r="O45" s="70">
+        <v>45716</v>
+      </c>
+      <c r="P45" s="38" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" ht="21">
+      <c r="B46" s="125"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="68" t="s">
+        <v>301</v>
+      </c>
+      <c r="G46" s="112" t="s">
+        <v>409</v>
+      </c>
+      <c r="H46" s="41">
+        <v>12</v>
+      </c>
+      <c r="I46" s="41">
+        <v>400</v>
+      </c>
+      <c r="J46" s="101">
+        <f>K46*L46*M46/1000000</f>
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="K46" s="41">
+        <v>64</v>
+      </c>
+      <c r="L46" s="41">
+        <v>105</v>
+      </c>
+      <c r="M46" s="41">
+        <v>100</v>
+      </c>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+    </row>
+    <row r="47" spans="2:16" ht="22.5">
+      <c r="B47" s="122" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="71" t="s">
+        <v>301</v>
+      </c>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72">
+        <f>SUM(I45:I46)</f>
+        <v>4864</v>
+      </c>
+      <c r="J47" s="73">
+        <f>SUM(J45:J46)</f>
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="74"/>
+    </row>
+    <row r="48" spans="2:16" ht="37.5">
+      <c r="B48" s="95" t="s">
+        <v>302</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E48" s="29">
+        <v>45674</v>
+      </c>
+      <c r="F48" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="G48" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="H48" s="38">
+        <v>6</v>
+      </c>
+      <c r="I48" s="38">
+        <v>760</v>
+      </c>
+      <c r="J48" s="69">
+        <v>0.31750400000000001</v>
+      </c>
+      <c r="K48" s="38">
+        <v>88</v>
+      </c>
+      <c r="L48" s="38">
+        <v>88</v>
+      </c>
+      <c r="M48" s="38">
+        <v>41</v>
+      </c>
+      <c r="N48" s="70">
+        <v>45681</v>
+      </c>
+      <c r="O48" s="70">
         <v>45714</v>
       </c>
-      <c r="P45" s="114" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" ht="19.8">
-      <c r="B46" s="115"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="121"/>
-      <c r="F46" s="75" t="s">
-        <v>297</v>
-      </c>
-      <c r="G46" s="115"/>
-      <c r="H46" s="76">
-        <v>80</v>
-      </c>
-      <c r="I46" s="115"/>
-      <c r="J46" s="77">
-        <v>0.189</v>
-      </c>
-      <c r="K46" s="76">
-        <v>70</v>
-      </c>
-      <c r="L46" s="76">
-        <v>45</v>
-      </c>
-      <c r="M46" s="76">
-        <v>30</v>
-      </c>
-      <c r="N46" s="115"/>
-      <c r="O46" s="115"/>
-      <c r="P46" s="115"/>
-    </row>
-    <row r="47" spans="2:16" ht="19.8">
-      <c r="B47" s="116"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="122"/>
-      <c r="F47" s="75" t="s">
-        <v>298</v>
-      </c>
-      <c r="G47" s="116"/>
-      <c r="H47" s="76">
-        <v>5100</v>
-      </c>
-      <c r="I47" s="116"/>
-      <c r="J47" s="77">
-        <v>2.7820800000000001</v>
-      </c>
-      <c r="K47" s="76">
-        <v>46</v>
-      </c>
-      <c r="L47" s="76">
-        <v>40</v>
-      </c>
-      <c r="M47" s="76">
-        <v>28</v>
-      </c>
-      <c r="N47" s="116"/>
-      <c r="O47" s="116"/>
-      <c r="P47" s="116"/>
-    </row>
-    <row r="48" spans="2:16" ht="21">
-      <c r="B48" s="111" t="s">
+      <c r="P48" s="38" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" ht="22.5">
+      <c r="B49" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="111"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="111"/>
-      <c r="F48" s="71" t="s">
-        <v>284</v>
-      </c>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72">
-        <v>680</v>
-      </c>
-      <c r="J48" s="73">
-        <v>3.2086800000000002</v>
-      </c>
-      <c r="K48" s="72"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="72"/>
-      <c r="N48" s="79"/>
-      <c r="O48" s="79"/>
-      <c r="P48" s="79"/>
-    </row>
-    <row r="49" spans="2:16" ht="19.8">
-      <c r="B49" s="76" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>299</v>
-      </c>
-      <c r="D49" s="76" t="s">
+      <c r="C49" s="122"/>
+      <c r="D49" s="122"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="G49" s="96"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="81">
+        <v>760</v>
+      </c>
+      <c r="J49" s="73">
+        <v>0.31750400000000001</v>
+      </c>
+      <c r="K49" s="72"/>
+      <c r="L49" s="72"/>
+      <c r="M49" s="72"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="74"/>
+      <c r="P49" s="74"/>
+    </row>
+    <row r="50" spans="2:16" ht="75">
+      <c r="B50" s="76" t="s">
+        <v>306</v>
+      </c>
+      <c r="C50" s="97" t="s">
+        <v>307</v>
+      </c>
+      <c r="D50" s="76" t="s">
+        <v>308</v>
+      </c>
+      <c r="E50" s="82">
+        <v>45675</v>
+      </c>
+      <c r="F50" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="G50" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="H50" s="76">
+        <v>1</v>
+      </c>
+      <c r="I50" s="76">
         <v>150</v>
       </c>
-      <c r="E49" s="82">
-        <v>45671</v>
-      </c>
-      <c r="F49" s="75" t="s">
-        <v>151</v>
-      </c>
-      <c r="G49" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="H49" s="76">
-        <v>12585</v>
-      </c>
-      <c r="I49" s="76">
-        <v>1050</v>
-      </c>
-      <c r="J49" s="77">
-        <v>3.2826749999999998</v>
-      </c>
-      <c r="K49" s="76">
-        <v>33</v>
-      </c>
-      <c r="L49" s="76">
-        <v>25</v>
-      </c>
-      <c r="M49" s="76">
-        <v>173</v>
-      </c>
-      <c r="N49" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="O49" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="P49" s="76"/>
-    </row>
-    <row r="50" spans="2:16" ht="21">
-      <c r="B50" s="111" t="s">
+      <c r="J50" s="77">
+        <f>K50*L50*M50/1000000</f>
+        <v>1.1894400000000001</v>
+      </c>
+      <c r="K50" s="76">
+        <v>72</v>
+      </c>
+      <c r="L50" s="76">
+        <v>118</v>
+      </c>
+      <c r="M50" s="76">
+        <v>140</v>
+      </c>
+      <c r="N50" s="113">
+        <v>45678</v>
+      </c>
+      <c r="O50" s="113">
+        <v>45716</v>
+      </c>
+      <c r="P50" s="76" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" ht="22.5">
+      <c r="B51" s="129" t="s">
         <v>220</v>
       </c>
-      <c r="C50" s="111"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="71" t="s">
-        <v>300</v>
-      </c>
-      <c r="G50" s="81"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="81">
-        <v>1050</v>
-      </c>
-      <c r="J50" s="73">
-        <v>3.2826749999999998</v>
-      </c>
-      <c r="K50" s="72"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="72"/>
-      <c r="N50" s="79"/>
-      <c r="O50" s="79"/>
-      <c r="P50" s="79"/>
-    </row>
-    <row r="51" spans="2:16" ht="19.8">
-      <c r="B51" s="124" t="s">
-        <v>301</v>
-      </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="124" t="s">
-        <v>263</v>
-      </c>
-      <c r="E51" s="126">
-        <v>45671</v>
-      </c>
-      <c r="F51" s="68" t="s">
-        <v>302</v>
-      </c>
-      <c r="G51" s="124" t="s">
-        <v>265</v>
-      </c>
-      <c r="H51" s="38"/>
-      <c r="I51" s="124"/>
-      <c r="J51" s="69">
-        <v>7.7367000000000008</v>
-      </c>
-      <c r="K51" s="38">
-        <v>34</v>
-      </c>
-      <c r="L51" s="38">
-        <v>41</v>
-      </c>
-      <c r="M51" s="38">
-        <v>30</v>
-      </c>
-      <c r="N51" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="O51" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="P51" s="38"/>
-    </row>
-    <row r="52" spans="2:16" ht="19.8">
-      <c r="B52" s="125"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="125"/>
-      <c r="E52" s="127"/>
+      <c r="C51" s="130"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="131"/>
+      <c r="F51" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72">
+        <f>SUM(I50:I50)</f>
+        <v>150</v>
+      </c>
+      <c r="J51" s="73">
+        <f>SUM(J50:J50)</f>
+        <v>1.1894400000000001</v>
+      </c>
+      <c r="K51" s="72"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="79"/>
+      <c r="O51" s="79"/>
+      <c r="P51" s="79"/>
+    </row>
+    <row r="52" spans="2:16" ht="21" customHeight="1">
+      <c r="B52" s="123" t="s">
+        <v>310</v>
+      </c>
+      <c r="C52" s="123" t="s">
+        <v>311</v>
+      </c>
+      <c r="D52" s="123" t="s">
+        <v>217</v>
+      </c>
+      <c r="E52" s="126">
+        <v>45676</v>
+      </c>
       <c r="F52" s="68" t="s">
-        <v>303</v>
-      </c>
-      <c r="G52" s="125"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="125"/>
-      <c r="J52" s="69">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="K52" s="38">
-        <v>64</v>
-      </c>
-      <c r="L52" s="38">
-        <v>105</v>
-      </c>
-      <c r="M52" s="38">
-        <v>100</v>
-      </c>
-      <c r="N52" s="38"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="38"/>
-    </row>
-    <row r="53" spans="2:16" ht="21">
-      <c r="B53" s="111" t="s">
-        <v>220</v>
-      </c>
-      <c r="C53" s="111"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="111"/>
-      <c r="F53" s="71" t="s">
-        <v>303</v>
-      </c>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72">
-        <v>0</v>
-      </c>
-      <c r="J53" s="73">
-        <v>8.4087000000000014</v>
-      </c>
-      <c r="K53" s="72"/>
-      <c r="L53" s="72"/>
-      <c r="M53" s="72"/>
-      <c r="N53" s="74"/>
-      <c r="O53" s="74"/>
-      <c r="P53" s="74"/>
-    </row>
-    <row r="54" spans="2:16" ht="34.799999999999997">
-      <c r="B54" s="96" t="s">
-        <v>304</v>
-      </c>
-      <c r="C54" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="D54" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="E54" s="29">
-        <v>45674</v>
-      </c>
-      <c r="F54" s="68" t="s">
-        <v>225</v>
-      </c>
-      <c r="G54" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="H54" s="38">
-        <v>6</v>
-      </c>
-      <c r="I54" s="38">
-        <v>760</v>
-      </c>
-      <c r="J54" s="69">
-        <v>0.31750400000000001</v>
-      </c>
-      <c r="K54" s="38">
-        <v>88</v>
-      </c>
-      <c r="L54" s="38">
-        <v>88</v>
-      </c>
-      <c r="M54" s="38">
-        <v>41</v>
-      </c>
-      <c r="N54" s="38"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="38"/>
-    </row>
-    <row r="55" spans="2:16" ht="21">
-      <c r="B55" s="111" t="s">
-        <v>220</v>
-      </c>
-      <c r="C55" s="111"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="111"/>
-      <c r="F55" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="G55" s="97"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="81">
-        <v>760</v>
-      </c>
-      <c r="J55" s="73">
-        <v>0.31750400000000001</v>
-      </c>
-      <c r="K55" s="72"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="72"/>
-      <c r="N55" s="74"/>
-      <c r="O55" s="74"/>
-      <c r="P55" s="74"/>
-    </row>
-    <row r="56" spans="2:16" ht="52.2">
-      <c r="B56" s="76" t="s">
-        <v>308</v>
-      </c>
-      <c r="C56" s="98" t="s">
-        <v>309</v>
-      </c>
-      <c r="D56" s="76" t="s">
-        <v>310</v>
-      </c>
-      <c r="E56" s="82">
-        <v>45675</v>
-      </c>
-      <c r="F56" s="75" t="s">
-        <v>225</v>
-      </c>
-      <c r="G56" s="52" t="s">
-        <v>311</v>
-      </c>
-      <c r="H56" s="76">
-        <v>1</v>
-      </c>
-      <c r="I56" s="76">
-        <v>150</v>
-      </c>
-      <c r="J56" s="77">
-        <f>K56*L56*M56/1000000</f>
-        <v>1.1894400000000001</v>
-      </c>
-      <c r="K56" s="76">
-        <v>72</v>
-      </c>
-      <c r="L56" s="76">
-        <v>118</v>
-      </c>
-      <c r="M56" s="76">
-        <v>140</v>
-      </c>
-      <c r="N56" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="O56" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="P56" s="76"/>
-    </row>
-    <row r="57" spans="2:16" ht="21">
-      <c r="B57" s="111" t="s">
-        <v>220</v>
-      </c>
-      <c r="C57" s="111"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="111"/>
-      <c r="F57" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="G57" s="72"/>
-      <c r="H57" s="72"/>
-      <c r="I57" s="72">
-        <f>SUM(I56:I56)</f>
-        <v>150</v>
-      </c>
-      <c r="J57" s="73">
-        <f>SUM(J56:J56)</f>
-        <v>1.1894400000000001</v>
-      </c>
-      <c r="K57" s="72"/>
-      <c r="L57" s="72"/>
-      <c r="M57" s="72"/>
-      <c r="N57" s="79"/>
-      <c r="O57" s="79"/>
-      <c r="P57" s="79"/>
-    </row>
-    <row r="58" spans="2:16" ht="19.8">
-      <c r="B58" s="124" t="s">
         <v>312</v>
       </c>
-      <c r="C58" s="124" t="s">
-        <v>313</v>
-      </c>
-      <c r="D58" s="124" t="s">
-        <v>217</v>
-      </c>
-      <c r="E58" s="126">
-        <v>45676</v>
-      </c>
-      <c r="F58" s="68" t="s">
-        <v>314</v>
-      </c>
-      <c r="G58" s="124" t="s">
+      <c r="G52" s="123" t="s">
         <v>237</v>
       </c>
-      <c r="H58" s="38">
+      <c r="H52" s="38">
         <f>35*28</f>
         <v>980</v>
       </c>
-      <c r="I58" s="124">
+      <c r="I52" s="123">
         <f>25*52</f>
         <v>1300</v>
       </c>
-      <c r="J58" s="69">
-        <f>K58*L58*M58/1000000*28</f>
+      <c r="J52" s="69">
+        <f>K52*L52*M52/1000000*28</f>
         <v>4.4806159999999995</v>
       </c>
-      <c r="K58" s="38">
+      <c r="K52" s="38">
         <v>89</v>
       </c>
-      <c r="L58" s="38">
+      <c r="L52" s="38">
         <v>62</v>
       </c>
-      <c r="M58" s="38">
+      <c r="M52" s="38">
         <v>29</v>
       </c>
-      <c r="N58" s="128" t="s">
-        <v>244</v>
-      </c>
-      <c r="O58" s="128" t="s">
-        <v>244</v>
-      </c>
-      <c r="P58" s="95" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" ht="19.8">
-      <c r="B59" s="125"/>
-      <c r="C59" s="125"/>
-      <c r="D59" s="125"/>
-      <c r="E59" s="127"/>
-      <c r="F59" s="68" t="s">
-        <v>315</v>
-      </c>
-      <c r="G59" s="125"/>
-      <c r="H59" s="38">
+      <c r="N52" s="142">
+        <v>45679</v>
+      </c>
+      <c r="O52" s="142">
+        <v>45716</v>
+      </c>
+      <c r="P52" s="123" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" ht="21">
+      <c r="B53" s="125"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="125"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="68" t="s">
+        <v>313</v>
+      </c>
+      <c r="G53" s="125"/>
+      <c r="H53" s="38">
         <f>35*24</f>
         <v>840</v>
       </c>
-      <c r="I59" s="125"/>
-      <c r="J59" s="69">
-        <f>K59*L59*M59/1000000*24</f>
+      <c r="I53" s="125"/>
+      <c r="J53" s="69">
+        <f>K53*L53*M53/1000000*24</f>
         <v>2.3353920000000001</v>
       </c>
-      <c r="K59" s="38">
+      <c r="K53" s="38">
         <v>53</v>
       </c>
-      <c r="L59" s="38">
+      <c r="L53" s="38">
         <v>51</v>
       </c>
-      <c r="M59" s="38">
+      <c r="M53" s="38">
         <v>36</v>
       </c>
-      <c r="N59" s="125"/>
-      <c r="O59" s="125"/>
-      <c r="P59" s="96"/>
-    </row>
-    <row r="60" spans="2:16" ht="21">
-      <c r="B60" s="111" t="s">
+      <c r="N53" s="143"/>
+      <c r="O53" s="143"/>
+      <c r="P53" s="125"/>
+    </row>
+    <row r="54" spans="2:16" ht="22.5">
+      <c r="B54" s="129" t="s">
         <v>220</v>
       </c>
-      <c r="C60" s="111"/>
-      <c r="D60" s="111"/>
-      <c r="E60" s="111"/>
-      <c r="F60" s="71" t="s">
+      <c r="C54" s="130"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="131"/>
+      <c r="F54" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="G54" s="98"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="94">
+        <f>SUM(I52:I53)</f>
+        <v>1300</v>
+      </c>
+      <c r="J54" s="73">
+        <f>SUM(J52:J53)</f>
+        <v>6.8160080000000001</v>
+      </c>
+      <c r="K54" s="72"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="74"/>
+      <c r="O54" s="74"/>
+      <c r="P54" s="74"/>
+    </row>
+    <row r="55" spans="2:16" ht="21" customHeight="1">
+      <c r="B55" s="136" t="s">
+        <v>315</v>
+      </c>
+      <c r="C55" s="136"/>
+      <c r="D55" s="136" t="s">
+        <v>217</v>
+      </c>
+      <c r="E55" s="133">
+        <v>45677</v>
+      </c>
+      <c r="F55" s="100" t="s">
         <v>316</v>
       </c>
-      <c r="G60" s="99"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="94">
-        <f>SUM(I58:I59)</f>
-        <v>1300</v>
-      </c>
-      <c r="J60" s="73">
-        <f>SUM(J58:J59)</f>
-        <v>6.8160080000000001</v>
-      </c>
-      <c r="K60" s="72"/>
-      <c r="L60" s="72"/>
-      <c r="M60" s="72"/>
-      <c r="N60" s="74"/>
-      <c r="O60" s="74"/>
-      <c r="P60" s="74"/>
-    </row>
-    <row r="61" spans="2:16" ht="19.8">
-      <c r="B61" s="124" t="s">
-        <v>317</v>
-      </c>
-      <c r="C61" s="124"/>
-      <c r="D61" s="124" t="s">
-        <v>217</v>
-      </c>
-      <c r="E61" s="126">
-        <v>45677</v>
-      </c>
-      <c r="F61" s="68" t="s">
-        <v>318</v>
-      </c>
-      <c r="G61" s="124" t="s">
+      <c r="G55" s="136" t="s">
         <v>237</v>
       </c>
-      <c r="H61" s="38">
+      <c r="H55" s="41">
         <f>50*20+60*32+40</f>
         <v>2960</v>
       </c>
-      <c r="I61" s="124">
-        <f>25*339</f>
-        <v>8475</v>
+      <c r="I55" s="136">
+        <f>25*169</f>
+        <v>4225</v>
+      </c>
+      <c r="J55" s="101">
+        <f>K55*L55*M55/1000000*53</f>
+        <v>6.3599999999999994</v>
+      </c>
+      <c r="K55" s="41">
+        <v>50</v>
+      </c>
+      <c r="L55" s="41">
+        <v>60</v>
+      </c>
+      <c r="M55" s="41">
+        <v>40</v>
+      </c>
+      <c r="N55" s="139">
+        <v>45680</v>
+      </c>
+      <c r="O55" s="139">
+        <v>45716</v>
+      </c>
+      <c r="P55" s="136" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" ht="21">
+      <c r="B56" s="137"/>
+      <c r="C56" s="137"/>
+      <c r="D56" s="137"/>
+      <c r="E56" s="134"/>
+      <c r="F56" s="100" t="s">
+        <v>317</v>
+      </c>
+      <c r="G56" s="137"/>
+      <c r="H56" s="41">
+        <f>40*16</f>
+        <v>640</v>
+      </c>
+      <c r="I56" s="137"/>
+      <c r="J56" s="101">
+        <f>K56*L56*M56/1000000*16</f>
+        <v>1.66656</v>
+      </c>
+      <c r="K56" s="41">
+        <v>62</v>
+      </c>
+      <c r="L56" s="41">
+        <v>60</v>
+      </c>
+      <c r="M56" s="41">
+        <v>28</v>
+      </c>
+      <c r="N56" s="140"/>
+      <c r="O56" s="140"/>
+      <c r="P56" s="137"/>
+    </row>
+    <row r="57" spans="2:16" ht="21">
+      <c r="B57" s="138"/>
+      <c r="C57" s="138"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="135"/>
+      <c r="F57" s="100" t="s">
+        <v>414</v>
+      </c>
+      <c r="G57" s="138"/>
+      <c r="H57" s="41">
+        <f>40*270</f>
+        <v>10800</v>
+      </c>
+      <c r="I57" s="138"/>
+      <c r="J57" s="101">
+        <f>K57*L57*M57/1000000*100</f>
+        <v>11.899999999999999</v>
+      </c>
+      <c r="K57" s="41">
+        <v>50</v>
+      </c>
+      <c r="L57" s="41">
+        <v>34</v>
+      </c>
+      <c r="M57" s="41">
+        <v>70</v>
+      </c>
+      <c r="N57" s="141"/>
+      <c r="O57" s="141"/>
+      <c r="P57" s="138"/>
+    </row>
+    <row r="58" spans="2:16" ht="22.5">
+      <c r="B58" s="129" t="s">
+        <v>220</v>
+      </c>
+      <c r="C58" s="130"/>
+      <c r="D58" s="130"/>
+      <c r="E58" s="131"/>
+      <c r="F58" s="102" t="s">
+        <v>415</v>
+      </c>
+      <c r="G58" s="114"/>
+      <c r="H58" s="103"/>
+      <c r="I58" s="115">
+        <f>SUM(I55:I57)</f>
+        <v>4225</v>
+      </c>
+      <c r="J58" s="116">
+        <f>SUM(J55:J57)</f>
+        <v>19.926559999999998</v>
+      </c>
+      <c r="K58" s="103"/>
+      <c r="L58" s="103"/>
+      <c r="M58" s="103"/>
+      <c r="N58" s="63"/>
+      <c r="O58" s="63"/>
+      <c r="P58" s="63"/>
+    </row>
+    <row r="59" spans="2:16" ht="84">
+      <c r="B59" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="E59" s="42">
+        <v>45677</v>
+      </c>
+      <c r="F59" s="100" t="s">
+        <v>416</v>
+      </c>
+      <c r="G59" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="H59" s="41">
+        <f>40*170</f>
+        <v>6800</v>
+      </c>
+      <c r="I59" s="41">
+        <f>25*170</f>
+        <v>4250</v>
+      </c>
+      <c r="J59" s="101">
+        <f>K59*L59*M59/1000000*170</f>
+        <v>20.23</v>
+      </c>
+      <c r="K59" s="41">
+        <v>50</v>
+      </c>
+      <c r="L59" s="41">
+        <v>34</v>
+      </c>
+      <c r="M59" s="41">
+        <v>70</v>
+      </c>
+      <c r="N59" s="117">
+        <v>45680</v>
+      </c>
+      <c r="O59" s="117">
+        <v>45716</v>
+      </c>
+      <c r="P59" s="41" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" ht="22.5">
+      <c r="B60" s="122" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" s="122"/>
+      <c r="D60" s="122"/>
+      <c r="E60" s="122"/>
+      <c r="F60" s="102" t="s">
+        <v>418</v>
+      </c>
+      <c r="G60" s="103"/>
+      <c r="H60" s="103"/>
+      <c r="I60" s="103">
+        <f>SUM(I59:I59)</f>
+        <v>4250</v>
+      </c>
+      <c r="J60" s="104">
+        <f>SUM(J59:J59)</f>
+        <v>20.23</v>
+      </c>
+      <c r="K60" s="103"/>
+      <c r="L60" s="103"/>
+      <c r="M60" s="103"/>
+      <c r="N60" s="63"/>
+      <c r="O60" s="63"/>
+      <c r="P60" s="63"/>
+    </row>
+    <row r="61" spans="2:16" ht="21" customHeight="1">
+      <c r="B61" s="123" t="s">
+        <v>318</v>
+      </c>
+      <c r="C61" s="132" t="s">
+        <v>319</v>
+      </c>
+      <c r="D61" s="123" t="s">
+        <v>320</v>
+      </c>
+      <c r="E61" s="126">
+        <v>45678</v>
+      </c>
+      <c r="F61" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="G61" s="123" t="s">
+        <v>321</v>
+      </c>
+      <c r="H61" s="38">
+        <v>1</v>
+      </c>
+      <c r="I61" s="123">
+        <v>37</v>
       </c>
       <c r="J61" s="69">
-        <f>K61*L61*M61/1000000*53</f>
-        <v>6.3599999999999994</v>
+        <f t="shared" ref="J61:J67" si="0">K61*L61*M61/1000000</f>
+        <v>8.9599999999999999E-2</v>
       </c>
       <c r="K61" s="38">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="L61" s="38">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="M61" s="38">
         <v>40</v>
       </c>
-      <c r="N61" s="124" t="s">
-        <v>244</v>
-      </c>
-      <c r="O61" s="124" t="s">
-        <v>244</v>
-      </c>
-      <c r="P61" s="38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="2:16" ht="19.8">
-      <c r="B62" s="129"/>
-      <c r="C62" s="129"/>
-      <c r="D62" s="129"/>
-      <c r="E62" s="130"/>
+      <c r="N61" s="142">
+        <v>45681</v>
+      </c>
+      <c r="O61" s="142">
+        <v>45714</v>
+      </c>
+      <c r="P61" s="123" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" ht="21">
+      <c r="B62" s="124"/>
+      <c r="C62" s="124"/>
+      <c r="D62" s="124"/>
+      <c r="E62" s="127"/>
       <c r="F62" s="68" t="s">
-        <v>319</v>
-      </c>
-      <c r="G62" s="129"/>
+        <v>228</v>
+      </c>
+      <c r="G62" s="124"/>
       <c r="H62" s="38">
-        <f>40*16</f>
-        <v>640</v>
-      </c>
-      <c r="I62" s="129"/>
+        <v>10</v>
+      </c>
+      <c r="I62" s="124"/>
       <c r="J62" s="69">
-        <f>K62*L62*M62/1000000*16</f>
-        <v>1.66656</v>
+        <f t="shared" si="0"/>
+        <v>0.18360000000000001</v>
       </c>
       <c r="K62" s="38">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="L62" s="38">
         <v>60</v>
       </c>
       <c r="M62" s="38">
-        <v>28</v>
-      </c>
-      <c r="N62" s="129"/>
-      <c r="O62" s="129"/>
-      <c r="P62" s="38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="2:16" ht="19.8">
-      <c r="B63" s="125"/>
-      <c r="C63" s="125"/>
-      <c r="D63" s="125"/>
+        <v>85</v>
+      </c>
+      <c r="N62" s="124"/>
+      <c r="O62" s="124"/>
+      <c r="P62" s="124"/>
+    </row>
+    <row r="63" spans="2:16" ht="21">
+      <c r="B63" s="124"/>
+      <c r="C63" s="124"/>
+      <c r="D63" s="124"/>
       <c r="E63" s="127"/>
       <c r="F63" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="G63" s="124"/>
+      <c r="H63" s="38">
+        <v>10</v>
+      </c>
+      <c r="I63" s="124"/>
+      <c r="J63" s="69">
+        <f t="shared" si="0"/>
+        <v>0.18240999999999999</v>
+      </c>
+      <c r="K63" s="38">
+        <v>85</v>
+      </c>
+      <c r="L63" s="38">
+        <v>58</v>
+      </c>
+      <c r="M63" s="38">
+        <v>37</v>
+      </c>
+      <c r="N63" s="124"/>
+      <c r="O63" s="124"/>
+      <c r="P63" s="124"/>
+    </row>
+    <row r="64" spans="2:16" ht="21">
+      <c r="B64" s="125"/>
+      <c r="C64" s="125"/>
+      <c r="D64" s="125"/>
+      <c r="E64" s="128"/>
+      <c r="F64" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="G64" s="125"/>
+      <c r="H64" s="38">
+        <v>2</v>
+      </c>
+      <c r="I64" s="125"/>
+      <c r="J64" s="69">
+        <f t="shared" si="0"/>
+        <v>4.9919999999999999E-2</v>
+      </c>
+      <c r="K64" s="38">
+        <v>96</v>
+      </c>
+      <c r="L64" s="38">
+        <v>26</v>
+      </c>
+      <c r="M64" s="38">
+        <v>20</v>
+      </c>
+      <c r="N64" s="124"/>
+      <c r="O64" s="124"/>
+      <c r="P64" s="124"/>
+    </row>
+    <row r="65" spans="2:16" ht="21">
+      <c r="B65" s="123" t="s">
+        <v>322</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="D65" s="123" t="s">
         <v>320</v>
-      </c>
-      <c r="G63" s="125"/>
-      <c r="H63" s="38">
-        <f>40*270</f>
-        <v>10800</v>
-      </c>
-      <c r="I63" s="125"/>
-      <c r="J63" s="69">
-        <f>K63*L63*M63/1000000*270</f>
-        <v>32.129999999999995</v>
-      </c>
-      <c r="K63" s="38">
-        <v>50</v>
-      </c>
-      <c r="L63" s="38">
-        <v>34</v>
-      </c>
-      <c r="M63" s="38">
-        <v>70</v>
-      </c>
-      <c r="N63" s="125"/>
-      <c r="O63" s="125"/>
-      <c r="P63" s="38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="2:16" ht="21">
-      <c r="B64" s="111" t="s">
-        <v>220</v>
-      </c>
-      <c r="C64" s="111"/>
-      <c r="D64" s="111"/>
-      <c r="E64" s="111"/>
-      <c r="F64" s="71" t="s">
-        <v>321</v>
-      </c>
-      <c r="G64" s="72"/>
-      <c r="H64" s="72"/>
-      <c r="I64" s="72">
-        <f>SUM(I61:I63)</f>
-        <v>8475</v>
-      </c>
-      <c r="J64" s="73">
-        <f>SUM(J61:J63)</f>
-        <v>40.156559999999999</v>
-      </c>
-      <c r="K64" s="72"/>
-      <c r="L64" s="72"/>
-      <c r="M64" s="72"/>
-      <c r="N64" s="74"/>
-      <c r="O64" s="74"/>
-      <c r="P64" s="74"/>
-    </row>
-    <row r="65" spans="2:16" ht="19.8">
-      <c r="B65" s="124" t="s">
-        <v>322</v>
-      </c>
-      <c r="C65" s="131" t="s">
-        <v>323</v>
-      </c>
-      <c r="D65" s="124" t="s">
-        <v>324</v>
       </c>
       <c r="E65" s="126">
         <v>45678</v>
       </c>
       <c r="F65" s="68" t="s">
-        <v>225</v>
-      </c>
-      <c r="G65" s="124" t="s">
+        <v>324</v>
+      </c>
+      <c r="G65" s="123" t="s">
+        <v>321</v>
+      </c>
+      <c r="H65" s="38">
+        <v>3</v>
+      </c>
+      <c r="I65" s="123">
+        <v>20</v>
+      </c>
+      <c r="J65" s="69">
+        <f t="shared" si="0"/>
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="K65" s="38">
+        <v>33</v>
+      </c>
+      <c r="L65" s="38">
+        <v>50</v>
+      </c>
+      <c r="M65" s="38">
+        <v>28</v>
+      </c>
+      <c r="N65" s="124"/>
+      <c r="O65" s="124"/>
+      <c r="P65" s="124"/>
+    </row>
+    <row r="66" spans="2:16" ht="21">
+      <c r="B66" s="124"/>
+      <c r="C66" s="38">
+        <v>2660</v>
+      </c>
+      <c r="D66" s="124"/>
+      <c r="E66" s="127"/>
+      <c r="F66" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="H65" s="38">
-        <v>1</v>
-      </c>
-      <c r="I65" s="124">
-        <v>37</v>
-      </c>
-      <c r="J65" s="69">
-        <f t="shared" ref="J65:J71" si="0">K65*L65*M65/1000000</f>
-        <v>8.9599999999999999E-2</v>
-      </c>
-      <c r="K65" s="38">
-        <v>70</v>
-      </c>
-      <c r="L65" s="38">
-        <v>32</v>
-      </c>
-      <c r="M65" s="38">
-        <v>40</v>
-      </c>
-      <c r="N65" s="38"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="38"/>
-    </row>
-    <row r="66" spans="2:16" ht="19.8">
-      <c r="B66" s="129"/>
-      <c r="C66" s="129"/>
-      <c r="D66" s="129"/>
-      <c r="E66" s="130"/>
-      <c r="F66" s="68" t="s">
-        <v>228</v>
-      </c>
-      <c r="G66" s="129"/>
+      <c r="G66" s="124"/>
       <c r="H66" s="38">
         <v>10</v>
       </c>
-      <c r="I66" s="129"/>
+      <c r="I66" s="124"/>
       <c r="J66" s="69">
         <f t="shared" si="0"/>
-        <v>0.18360000000000001</v>
+        <v>4.2335999999999999E-2</v>
       </c>
       <c r="K66" s="38">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="L66" s="38">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M66" s="38">
-        <v>85</v>
-      </c>
-      <c r="N66" s="38"/>
-      <c r="O66" s="38"/>
-      <c r="P66" s="38"/>
-    </row>
-    <row r="67" spans="2:16" ht="19.8">
-      <c r="B67" s="129"/>
-      <c r="C67" s="129"/>
-      <c r="D67" s="129"/>
-      <c r="E67" s="130"/>
+        <v>28</v>
+      </c>
+      <c r="N66" s="124"/>
+      <c r="O66" s="124"/>
+      <c r="P66" s="124"/>
+    </row>
+    <row r="67" spans="2:16" ht="21">
+      <c r="B67" s="125"/>
+      <c r="C67" s="38">
+        <v>2461</v>
+      </c>
+      <c r="D67" s="125"/>
+      <c r="E67" s="128"/>
       <c r="F67" s="68" t="s">
-        <v>230</v>
-      </c>
-      <c r="G67" s="129"/>
+        <v>326</v>
+      </c>
+      <c r="G67" s="125"/>
       <c r="H67" s="38">
-        <v>10</v>
-      </c>
-      <c r="I67" s="129"/>
+        <v>130</v>
+      </c>
+      <c r="I67" s="125"/>
       <c r="J67" s="69">
         <f t="shared" si="0"/>
-        <v>0.18240999999999999</v>
+        <v>0.1176</v>
       </c>
       <c r="K67" s="38">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="L67" s="38">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="M67" s="38">
-        <v>37</v>
-      </c>
-      <c r="N67" s="38"/>
-      <c r="O67" s="38"/>
-      <c r="P67" s="38"/>
-    </row>
-    <row r="68" spans="2:16" ht="19.8">
-      <c r="B68" s="125"/>
-      <c r="C68" s="125"/>
-      <c r="D68" s="125"/>
-      <c r="E68" s="127"/>
-      <c r="F68" s="68" t="s">
-        <v>232</v>
-      </c>
-      <c r="G68" s="125"/>
-      <c r="H68" s="38">
-        <v>2</v>
-      </c>
-      <c r="I68" s="125"/>
-      <c r="J68" s="69">
-        <f t="shared" si="0"/>
-        <v>4.9919999999999999E-2</v>
-      </c>
-      <c r="K68" s="38">
-        <v>96</v>
-      </c>
-      <c r="L68" s="38">
-        <v>26</v>
-      </c>
-      <c r="M68" s="38">
-        <v>20</v>
-      </c>
-      <c r="N68" s="38"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="38"/>
-    </row>
-    <row r="69" spans="2:16" ht="19.8">
-      <c r="B69" s="124" t="s">
+        <v>56</v>
+      </c>
+      <c r="N67" s="125"/>
+      <c r="O67" s="125"/>
+      <c r="P67" s="125"/>
+    </row>
+    <row r="68" spans="2:16" ht="22.5">
+      <c r="B68" s="122" t="s">
+        <v>220</v>
+      </c>
+      <c r="C68" s="122"/>
+      <c r="D68" s="122"/>
+      <c r="E68" s="122"/>
+      <c r="F68" s="71" t="s">
         <v>326</v>
       </c>
-      <c r="C69" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="D69" s="124" t="s">
-        <v>324</v>
-      </c>
-      <c r="E69" s="126">
-        <v>45678</v>
-      </c>
-      <c r="F69" s="68" t="s">
-        <v>328</v>
-      </c>
-      <c r="G69" s="124" t="s">
-        <v>325</v>
-      </c>
-      <c r="H69" s="38">
-        <v>3</v>
-      </c>
-      <c r="I69" s="124">
-        <v>20</v>
-      </c>
-      <c r="J69" s="69">
-        <f t="shared" si="0"/>
-        <v>4.6199999999999998E-2</v>
-      </c>
-      <c r="K69" s="38">
-        <v>33</v>
-      </c>
-      <c r="L69" s="38">
-        <v>50</v>
-      </c>
-      <c r="M69" s="38">
-        <v>28</v>
-      </c>
-      <c r="N69" s="38"/>
-      <c r="O69" s="38"/>
-      <c r="P69" s="38"/>
-    </row>
-    <row r="70" spans="2:16" ht="19.8">
-      <c r="B70" s="129"/>
-      <c r="C70" s="38">
-        <v>2660</v>
-      </c>
-      <c r="D70" s="129"/>
-      <c r="E70" s="130"/>
-      <c r="F70" s="68" t="s">
-        <v>329</v>
-      </c>
-      <c r="G70" s="129"/>
-      <c r="H70" s="38">
-        <v>10</v>
-      </c>
-      <c r="I70" s="129"/>
-      <c r="J70" s="69">
-        <f t="shared" si="0"/>
-        <v>4.2335999999999999E-2</v>
-      </c>
-      <c r="K70" s="38">
-        <v>28</v>
-      </c>
-      <c r="L70" s="38">
-        <v>54</v>
-      </c>
-      <c r="M70" s="38">
-        <v>28</v>
-      </c>
-      <c r="N70" s="38"/>
-      <c r="O70" s="38"/>
-      <c r="P70" s="38"/>
-    </row>
-    <row r="71" spans="2:16" ht="19.8">
-      <c r="B71" s="125"/>
-      <c r="C71" s="38">
-        <v>2461</v>
-      </c>
-      <c r="D71" s="125"/>
-      <c r="E71" s="127"/>
-      <c r="F71" s="68" t="s">
-        <v>330</v>
-      </c>
-      <c r="G71" s="125"/>
-      <c r="H71" s="38">
-        <v>130</v>
-      </c>
-      <c r="I71" s="125"/>
-      <c r="J71" s="69">
-        <f t="shared" si="0"/>
-        <v>0.1176</v>
-      </c>
-      <c r="K71" s="38">
-        <v>30</v>
-      </c>
-      <c r="L71" s="38">
+      <c r="G68" s="72"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="94">
+        <f>SUM(I61:I67)</f>
+        <v>57</v>
+      </c>
+      <c r="J68" s="73">
+        <f>SUM(J61:J67)</f>
+        <v>0.71166600000000002</v>
+      </c>
+      <c r="K68" s="72"/>
+      <c r="L68" s="72"/>
+      <c r="M68" s="72"/>
+      <c r="N68" s="74"/>
+      <c r="O68" s="74"/>
+      <c r="P68" s="74"/>
+    </row>
+    <row r="69" spans="2:16" ht="42">
+      <c r="B69" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="E69" s="42">
+        <v>45703</v>
+      </c>
+      <c r="F69" s="100" t="s">
+        <v>358</v>
+      </c>
+      <c r="G69" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="H69" s="41">
+        <v>80</v>
+      </c>
+      <c r="I69" s="41">
+        <v>55</v>
+      </c>
+      <c r="J69" s="101">
+        <v>0.25480000000000003</v>
+      </c>
+      <c r="K69" s="41">
         <v>70</v>
       </c>
-      <c r="M71" s="38">
-        <v>56</v>
-      </c>
-      <c r="N71" s="38"/>
-      <c r="O71" s="38"/>
-      <c r="P71" s="38"/>
-    </row>
-    <row r="72" spans="2:16" ht="21">
-      <c r="B72" s="111" t="s">
+      <c r="L69" s="41">
+        <v>52</v>
+      </c>
+      <c r="M69" s="41">
+        <v>35</v>
+      </c>
+      <c r="N69" s="117">
+        <v>45709</v>
+      </c>
+      <c r="O69" s="117">
+        <v>45739</v>
+      </c>
+      <c r="P69" s="41" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" ht="22.5">
+      <c r="B70" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="C72" s="111"/>
-      <c r="D72" s="111"/>
-      <c r="E72" s="111"/>
-      <c r="F72" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="G72" s="72"/>
-      <c r="H72" s="72"/>
-      <c r="I72" s="94">
-        <f>SUM(I65:I71)</f>
-        <v>57</v>
-      </c>
-      <c r="J72" s="73">
-        <f>SUM(J65:J71)</f>
-        <v>0.71166600000000002</v>
-      </c>
-      <c r="K72" s="72"/>
-      <c r="L72" s="72"/>
-      <c r="M72" s="72"/>
-      <c r="N72" s="74"/>
-      <c r="O72" s="74"/>
-      <c r="P72" s="74"/>
-    </row>
-    <row r="73" spans="2:16" ht="19.8">
+      <c r="C70" s="122"/>
+      <c r="D70" s="122"/>
+      <c r="E70" s="122"/>
+      <c r="F70" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="G70" s="103"/>
+      <c r="H70" s="103"/>
+      <c r="I70" s="103">
+        <v>55</v>
+      </c>
+      <c r="J70" s="104">
+        <v>0.25480000000000003</v>
+      </c>
+      <c r="K70" s="103"/>
+      <c r="L70" s="103"/>
+      <c r="M70" s="103"/>
+      <c r="N70" s="63"/>
+      <c r="O70" s="63"/>
+      <c r="P70" s="63"/>
+    </row>
+    <row r="71" spans="2:16" ht="42">
+      <c r="B71" s="105" t="s">
+        <v>359</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="D71" s="105" t="s">
+        <v>361</v>
+      </c>
+      <c r="E71" s="42">
+        <v>45701</v>
+      </c>
+      <c r="F71" s="100" t="s">
+        <v>225</v>
+      </c>
+      <c r="G71" s="106" t="s">
+        <v>362</v>
+      </c>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41">
+        <v>400</v>
+      </c>
+      <c r="J71" s="101">
+        <v>1.089855</v>
+      </c>
+      <c r="K71" s="41">
+        <v>117</v>
+      </c>
+      <c r="L71" s="41">
+        <v>115</v>
+      </c>
+      <c r="M71" s="41">
+        <v>81</v>
+      </c>
+      <c r="N71" s="41"/>
+      <c r="O71" s="41"/>
+      <c r="P71" s="39" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" ht="22.5">
+      <c r="B72" s="122" t="s">
+        <v>220</v>
+      </c>
+      <c r="C72" s="122"/>
+      <c r="D72" s="122"/>
+      <c r="E72" s="122"/>
+      <c r="F72" s="102" t="s">
+        <v>225</v>
+      </c>
+      <c r="G72" s="107"/>
+      <c r="H72" s="103"/>
+      <c r="I72" s="103">
+        <v>400</v>
+      </c>
+      <c r="J72" s="104">
+        <v>1.089855</v>
+      </c>
+      <c r="K72" s="103"/>
+      <c r="L72" s="103"/>
+      <c r="M72" s="103"/>
+      <c r="N72" s="63"/>
+      <c r="O72" s="63"/>
+      <c r="P72" s="108" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" ht="42">
       <c r="B73" s="41" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D73" s="41" t="s">
-        <v>361</v>
+        <v>217</v>
       </c>
       <c r="E73" s="42">
-        <v>45703</v>
-      </c>
-      <c r="F73" s="101" t="s">
-        <v>362</v>
+        <v>45706</v>
+      </c>
+      <c r="F73" s="100" t="s">
+        <v>367</v>
       </c>
       <c r="G73" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="H73" s="41"/>
+      <c r="H73" s="41">
+        <v>5660</v>
+      </c>
       <c r="I73" s="41">
-        <v>55</v>
-      </c>
-      <c r="J73" s="102">
-        <v>0.25480000000000003</v>
+        <v>3400</v>
+      </c>
+      <c r="J73" s="101">
+        <v>16.456440000000001</v>
       </c>
       <c r="K73" s="41">
         <v>70</v>
@@ -6574,321 +7145,544 @@
         <v>52</v>
       </c>
       <c r="M73" s="41">
-        <v>35</v>
-      </c>
-      <c r="N73" s="41"/>
-      <c r="O73" s="41"/>
+        <v>33</v>
+      </c>
+      <c r="N73" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="O73" s="41" t="s">
+        <v>244</v>
+      </c>
       <c r="P73" s="41" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="2:16" ht="21">
-      <c r="B74" s="111" t="s">
+    <row r="74" spans="2:16" ht="22.5">
+      <c r="B74" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="111"/>
-      <c r="D74" s="111"/>
-      <c r="E74" s="111"/>
-      <c r="F74" s="103" t="s">
-        <v>228</v>
-      </c>
-      <c r="G74" s="104"/>
-      <c r="H74" s="104"/>
-      <c r="I74" s="104">
-        <v>55</v>
-      </c>
-      <c r="J74" s="105">
-        <v>0.25480000000000003</v>
-      </c>
-      <c r="K74" s="104"/>
-      <c r="L74" s="104"/>
-      <c r="M74" s="104"/>
+      <c r="C74" s="122"/>
+      <c r="D74" s="122"/>
+      <c r="E74" s="122"/>
+      <c r="F74" s="102" t="s">
+        <v>368</v>
+      </c>
+      <c r="G74" s="109"/>
+      <c r="H74" s="103"/>
+      <c r="I74" s="109">
+        <v>3400</v>
+      </c>
+      <c r="J74" s="104">
+        <v>16.456440000000001</v>
+      </c>
+      <c r="K74" s="103"/>
+      <c r="L74" s="103"/>
+      <c r="M74" s="103"/>
       <c r="N74" s="63"/>
       <c r="O74" s="63"/>
       <c r="P74" s="63"/>
     </row>
-    <row r="75" spans="2:16" ht="39.6">
-      <c r="B75" s="106" t="s">
-        <v>363</v>
-      </c>
-      <c r="C75" s="39" t="s">
-        <v>364</v>
-      </c>
-      <c r="D75" s="106" t="s">
-        <v>365</v>
+    <row r="75" spans="2:16" ht="21">
+      <c r="B75" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="C75" s="41">
+        <v>18680185099</v>
+      </c>
+      <c r="D75" s="41" t="s">
+        <v>370</v>
       </c>
       <c r="E75" s="42">
-        <v>45701</v>
-      </c>
-      <c r="F75" s="101" t="s">
-        <v>225</v>
-      </c>
-      <c r="G75" s="107" t="s">
-        <v>366</v>
-      </c>
-      <c r="H75" s="41"/>
+        <v>45706</v>
+      </c>
+      <c r="F75" s="100" t="s">
+        <v>371</v>
+      </c>
+      <c r="G75" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="H75" s="41">
+        <v>3400</v>
+      </c>
       <c r="I75" s="41">
-        <v>400</v>
-      </c>
-      <c r="J75" s="102">
-        <v>1.089855</v>
+        <v>1000</v>
+      </c>
+      <c r="J75" s="101">
+        <v>2.4089999999999998</v>
       </c>
       <c r="K75" s="41">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="L75" s="41">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="M75" s="41">
-        <v>81</v>
-      </c>
-      <c r="N75" s="41"/>
-      <c r="O75" s="41"/>
-      <c r="P75" s="39" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="76" spans="2:16" ht="21">
-      <c r="B76" s="111" t="s">
+        <v>73</v>
+      </c>
+      <c r="N75" s="39"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="41"/>
+    </row>
+    <row r="76" spans="2:16" ht="22.5">
+      <c r="B76" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="C76" s="111"/>
-      <c r="D76" s="111"/>
-      <c r="E76" s="111"/>
-      <c r="F76" s="103" t="s">
-        <v>225</v>
-      </c>
-      <c r="G76" s="108"/>
-      <c r="H76" s="104"/>
-      <c r="I76" s="104">
-        <v>400</v>
-      </c>
-      <c r="J76" s="105">
-        <v>1.089855</v>
-      </c>
-      <c r="K76" s="104"/>
-      <c r="L76" s="104"/>
-      <c r="M76" s="104"/>
+      <c r="C76" s="122"/>
+      <c r="D76" s="122"/>
+      <c r="E76" s="122"/>
+      <c r="F76" s="102" t="s">
+        <v>373</v>
+      </c>
+      <c r="G76" s="83"/>
+      <c r="H76" s="103"/>
+      <c r="I76" s="103">
+        <v>1000</v>
+      </c>
+      <c r="J76" s="104">
+        <v>2.4089999999999998</v>
+      </c>
+      <c r="K76" s="103"/>
+      <c r="L76" s="103"/>
+      <c r="M76" s="103"/>
       <c r="N76" s="63"/>
       <c r="O76" s="63"/>
-      <c r="P76" s="109" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" ht="39.6">
+      <c r="P76" s="63"/>
+    </row>
+    <row r="77" spans="2:16" ht="21">
       <c r="B77" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="C77" s="41" t="s">
-        <v>370</v>
+        <v>421</v>
+      </c>
+      <c r="C77" s="41">
+        <v>18122785217</v>
       </c>
       <c r="D77" s="41" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="E77" s="42">
-        <v>45706</v>
-      </c>
-      <c r="F77" s="101" t="s">
-        <v>371</v>
+        <v>45710</v>
+      </c>
+      <c r="F77" s="100" t="s">
+        <v>422</v>
       </c>
       <c r="G77" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="H77" s="41">
-        <v>5660</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="H77" s="41"/>
       <c r="I77" s="41">
-        <v>3400</v>
-      </c>
-      <c r="J77" s="102">
-        <v>16.456440000000001</v>
+        <f>24*400</f>
+        <v>9600</v>
+      </c>
+      <c r="J77" s="101">
+        <f>K77*L77*M77/1000000*400</f>
+        <v>16.32</v>
       </c>
       <c r="K77" s="41">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="L77" s="41">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M77" s="41">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N77" s="41" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="O77" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="P77" s="41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="2:16" ht="21">
-      <c r="B78" s="111" t="s">
+        <v>274</v>
+      </c>
+      <c r="P77" s="41"/>
+    </row>
+    <row r="78" spans="2:16" ht="22.5">
+      <c r="B78" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="C78" s="111"/>
-      <c r="D78" s="111"/>
-      <c r="E78" s="111"/>
-      <c r="F78" s="103" t="s">
-        <v>372</v>
-      </c>
-      <c r="G78" s="110"/>
-      <c r="H78" s="104"/>
-      <c r="I78" s="110">
-        <v>3400</v>
-      </c>
-      <c r="J78" s="105">
-        <v>16.456440000000001</v>
-      </c>
-      <c r="K78" s="104"/>
-      <c r="L78" s="104"/>
-      <c r="M78" s="104"/>
+      <c r="C78" s="122"/>
+      <c r="D78" s="122"/>
+      <c r="E78" s="122"/>
+      <c r="F78" s="102" t="s">
+        <v>423</v>
+      </c>
+      <c r="G78" s="103"/>
+      <c r="H78" s="103"/>
+      <c r="I78" s="103">
+        <f>SUM(I77:I77)</f>
+        <v>9600</v>
+      </c>
+      <c r="J78" s="104">
+        <f>SUM(J77:J77)</f>
+        <v>16.32</v>
+      </c>
+      <c r="K78" s="103"/>
+      <c r="L78" s="103"/>
+      <c r="M78" s="103"/>
       <c r="N78" s="63"/>
       <c r="O78" s="63"/>
       <c r="P78" s="63"/>
     </row>
-    <row r="79" spans="2:16" ht="19.8">
+    <row r="79" spans="2:16" ht="42">
       <c r="B79" s="41" t="s">
-        <v>373</v>
-      </c>
-      <c r="C79" s="41">
-        <v>18680185099</v>
+        <v>424</v>
+      </c>
+      <c r="C79" s="41" t="s">
+        <v>425</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>374</v>
+        <v>217</v>
       </c>
       <c r="E79" s="42">
-        <v>45706</v>
-      </c>
-      <c r="F79" s="101" t="s">
-        <v>375</v>
-      </c>
-      <c r="G79" s="39" t="s">
-        <v>376</v>
+        <v>45712</v>
+      </c>
+      <c r="F79" s="100" t="s">
+        <v>426</v>
+      </c>
+      <c r="G79" s="41" t="s">
+        <v>237</v>
       </c>
       <c r="H79" s="41">
-        <v>3400</v>
+        <v>902</v>
       </c>
       <c r="I79" s="41">
-        <v>1000</v>
-      </c>
-      <c r="J79" s="102">
-        <v>2.4089999999999998</v>
+        <v>750</v>
+      </c>
+      <c r="J79" s="101">
+        <v>2.7225000000000001</v>
       </c>
       <c r="K79" s="41">
+        <v>55</v>
+      </c>
+      <c r="L79" s="41">
         <v>50</v>
       </c>
-      <c r="L79" s="41">
+      <c r="M79" s="41">
         <v>33</v>
       </c>
-      <c r="M79" s="41">
-        <v>73</v>
-      </c>
-      <c r="N79" s="39"/>
-      <c r="O79" s="39"/>
-      <c r="P79" s="41"/>
-    </row>
-    <row r="80" spans="2:16" ht="21">
-      <c r="B80" s="111" t="s">
+      <c r="N79" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="O79" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="P79" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" ht="22.5">
+      <c r="B80" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="C80" s="111"/>
-      <c r="D80" s="111"/>
-      <c r="E80" s="111"/>
-      <c r="F80" s="103" t="s">
-        <v>377</v>
-      </c>
-      <c r="G80" s="83"/>
-      <c r="H80" s="104"/>
-      <c r="I80" s="104">
-        <v>1000</v>
-      </c>
-      <c r="J80" s="105">
-        <v>2.4089999999999998</v>
-      </c>
-      <c r="K80" s="104"/>
-      <c r="L80" s="104"/>
-      <c r="M80" s="104"/>
+      <c r="C80" s="122"/>
+      <c r="D80" s="122"/>
+      <c r="E80" s="122"/>
+      <c r="F80" s="102" t="s">
+        <v>427</v>
+      </c>
+      <c r="G80" s="103"/>
+      <c r="H80" s="103"/>
+      <c r="I80" s="103">
+        <v>750</v>
+      </c>
+      <c r="J80" s="104">
+        <v>2.7225000000000001</v>
+      </c>
+      <c r="K80" s="103"/>
+      <c r="L80" s="103"/>
+      <c r="M80" s="103"/>
       <c r="N80" s="63"/>
       <c r="O80" s="63"/>
       <c r="P80" s="63"/>
     </row>
+    <row r="81" spans="2:16" ht="21">
+      <c r="B81" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="C81" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="D81" s="41" t="s">
+        <v>430</v>
+      </c>
+      <c r="E81" s="42">
+        <v>45712</v>
+      </c>
+      <c r="F81" s="118" t="s">
+        <v>431</v>
+      </c>
+      <c r="G81" s="110" t="s">
+        <v>432</v>
+      </c>
+      <c r="H81" s="110">
+        <v>100</v>
+      </c>
+      <c r="I81" s="110">
+        <v>225</v>
+      </c>
+      <c r="J81" s="119">
+        <v>1.0647</v>
+      </c>
+      <c r="K81" s="110">
+        <v>65</v>
+      </c>
+      <c r="L81" s="110">
+        <v>52</v>
+      </c>
+      <c r="M81" s="110">
+        <v>35</v>
+      </c>
+      <c r="N81" s="41"/>
+      <c r="O81" s="41"/>
+      <c r="P81" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" ht="22.5">
+      <c r="B82" s="122" t="s">
+        <v>220</v>
+      </c>
+      <c r="C82" s="122"/>
+      <c r="D82" s="122"/>
+      <c r="E82" s="122"/>
+      <c r="F82" s="102" t="s">
+        <v>433</v>
+      </c>
+      <c r="G82" s="103"/>
+      <c r="H82" s="103"/>
+      <c r="I82" s="103">
+        <v>225</v>
+      </c>
+      <c r="J82" s="104">
+        <v>1.0647</v>
+      </c>
+      <c r="K82" s="103"/>
+      <c r="L82" s="103"/>
+      <c r="M82" s="103"/>
+      <c r="N82" s="63"/>
+      <c r="O82" s="63"/>
+      <c r="P82" s="63"/>
+    </row>
+    <row r="83" spans="2:16" ht="42">
+      <c r="B83" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C83" s="39" t="s">
+        <v>462</v>
+      </c>
+      <c r="D83" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="E83" s="29">
+        <v>45713</v>
+      </c>
+      <c r="F83" s="68" t="s">
+        <v>464</v>
+      </c>
+      <c r="G83" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="H83" s="38"/>
+      <c r="I83" s="38">
+        <v>100</v>
+      </c>
+      <c r="J83" s="69">
+        <v>0.48843000000000003</v>
+      </c>
+      <c r="K83" s="38">
+        <v>67</v>
+      </c>
+      <c r="L83" s="38">
+        <v>90</v>
+      </c>
+      <c r="M83" s="38">
+        <v>27</v>
+      </c>
+      <c r="N83" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="O83" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="P83" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" ht="22.5">
+      <c r="B84" s="122" t="s">
+        <v>220</v>
+      </c>
+      <c r="C84" s="122"/>
+      <c r="D84" s="122"/>
+      <c r="E84" s="122"/>
+      <c r="F84" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="G84" s="72"/>
+      <c r="H84" s="72"/>
+      <c r="I84" s="72">
+        <v>100</v>
+      </c>
+      <c r="J84" s="73">
+        <v>0.48843000000000003</v>
+      </c>
+      <c r="K84" s="72"/>
+      <c r="L84" s="72"/>
+      <c r="M84" s="72"/>
+      <c r="N84" s="74"/>
+      <c r="O84" s="74"/>
+      <c r="P84" s="74"/>
+    </row>
+    <row r="85" spans="2:16" ht="42">
+      <c r="B85" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="C85" s="39" t="s">
+        <v>466</v>
+      </c>
+      <c r="D85" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="E85" s="29">
+        <v>45713</v>
+      </c>
+      <c r="F85" s="68" t="s">
+        <v>367</v>
+      </c>
+      <c r="G85" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="H85" s="38">
+        <v>5480</v>
+      </c>
+      <c r="I85" s="38">
+        <v>2900</v>
+      </c>
+      <c r="J85" s="69">
+        <v>13.53834</v>
+      </c>
+      <c r="K85" s="38">
+        <v>61</v>
+      </c>
+      <c r="L85" s="38">
+        <v>60</v>
+      </c>
+      <c r="M85" s="38">
+        <v>27</v>
+      </c>
+      <c r="N85" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="O85" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="P85" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" ht="22.5">
+      <c r="B86" s="122" t="s">
+        <v>220</v>
+      </c>
+      <c r="C86" s="122"/>
+      <c r="D86" s="122"/>
+      <c r="E86" s="122"/>
+      <c r="F86" s="71" t="s">
+        <v>368</v>
+      </c>
+      <c r="G86" s="72"/>
+      <c r="H86" s="72"/>
+      <c r="I86" s="72">
+        <v>2900</v>
+      </c>
+      <c r="J86" s="73">
+        <v>13.53834</v>
+      </c>
+      <c r="K86" s="72"/>
+      <c r="L86" s="72"/>
+      <c r="M86" s="72"/>
+      <c r="N86" s="74"/>
+      <c r="O86" s="74"/>
+      <c r="P86" s="74"/>
+    </row>
+    <row r="87" spans="2:16" ht="21">
+      <c r="B87" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="E87" s="29">
+        <v>45713</v>
+      </c>
+      <c r="F87" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="G87" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="H87" s="38">
+        <v>300</v>
+      </c>
+      <c r="I87" s="38">
+        <v>3750</v>
+      </c>
+      <c r="J87" s="69">
+        <v>6.12</v>
+      </c>
+      <c r="K87" s="38">
+        <v>40</v>
+      </c>
+      <c r="L87" s="38">
+        <v>34</v>
+      </c>
+      <c r="M87" s="38">
+        <v>30</v>
+      </c>
+      <c r="N87" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="O87" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="P87" s="38"/>
+    </row>
+    <row r="88" spans="2:16" ht="22.5">
+      <c r="B88" s="122" t="s">
+        <v>220</v>
+      </c>
+      <c r="C88" s="122"/>
+      <c r="D88" s="122"/>
+      <c r="E88" s="122"/>
+      <c r="F88" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="G88" s="72"/>
+      <c r="H88" s="72"/>
+      <c r="I88" s="72">
+        <v>3750</v>
+      </c>
+      <c r="J88" s="73">
+        <v>6.12</v>
+      </c>
+      <c r="K88" s="72"/>
+      <c r="L88" s="72"/>
+      <c r="M88" s="72"/>
+      <c r="N88" s="74"/>
+      <c r="O88" s="74"/>
+      <c r="P88" s="74"/>
+    </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="G65:G68"/>
-    <mergeCell ref="I65:I68"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="O58:O59"/>
+  <mergeCells count="95">
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="P55:P57"/>
     <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="N61:N63"/>
-    <mergeCell ref="O61:O63"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="N45:N47"/>
-    <mergeCell ref="O45:O47"/>
-    <mergeCell ref="P45:P47"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="I38:I43"/>
-    <mergeCell ref="N38:N43"/>
-    <mergeCell ref="O38:O43"/>
-    <mergeCell ref="P38:P43"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="E38:E43"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="N61:N67"/>
+    <mergeCell ref="O61:O67"/>
+    <mergeCell ref="P61:P67"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B6:E6"/>
@@ -6897,12 +7691,82 @@
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="I7:I10"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I37"/>
+    <mergeCell ref="N32:N37"/>
+    <mergeCell ref="O32:O37"/>
+    <mergeCell ref="P32:P37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="N55:N57"/>
+    <mergeCell ref="O55:O57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B76:E76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6910,32 +7774,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DD94FD-D993-429D-A766-D707FAC76EEB}">
-  <dimension ref="A1:P136"/>
+  <dimension ref="A1:P158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A135" sqref="A135"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="37.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
     <col min="11" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
-    <col min="16" max="16" width="19.5546875" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21">
+    <row r="1" spans="1:16" ht="22.5">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -6963,7 +7827,7 @@
       <c r="O1" s="7"/>
       <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:16" ht="75.599999999999994">
+    <row r="2" spans="1:16" ht="72">
       <c r="A2" s="27" t="s">
         <v>5</v>
       </c>
@@ -6994,11 +7858,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="112" t="s">
+      <c r="K2" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -7009,11 +7873,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="33.6">
-      <c r="A3" s="138" t="s">
+    <row r="3" spans="1:16" ht="33.75">
+      <c r="A3" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="138"/>
+      <c r="B3" s="173"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -7029,7 +7893,7 @@
       <c r="O3" s="24"/>
       <c r="P3" s="25"/>
     </row>
-    <row r="5" spans="1:16" ht="19.8">
+    <row r="5" spans="1:16" ht="21">
       <c r="A5" s="28" t="s">
         <v>21</v>
       </c>
@@ -7074,7 +7938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="21">
+    <row r="6" spans="1:16" ht="22.5">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
@@ -7099,7 +7963,7 @@
       <c r="N6" s="36"/>
       <c r="O6" s="36"/>
     </row>
-    <row r="7" spans="1:16" ht="19.8">
+    <row r="7" spans="1:16" ht="21">
       <c r="A7" s="28" t="s">
         <v>27</v>
       </c>
@@ -7144,7 +8008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="21">
+    <row r="8" spans="1:16" ht="22.5">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -7169,7 +8033,7 @@
       <c r="N8" s="36"/>
       <c r="O8" s="36"/>
     </row>
-    <row r="9" spans="1:16" ht="39.6">
+    <row r="9" spans="1:16" ht="42">
       <c r="A9" s="28" t="s">
         <v>30</v>
       </c>
@@ -7214,7 +8078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="21">
+    <row r="10" spans="1:16" ht="22.5">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -7239,7 +8103,7 @@
       <c r="N10" s="36"/>
       <c r="O10" s="36"/>
     </row>
-    <row r="11" spans="1:16" ht="19.8">
+    <row r="11" spans="1:16" ht="42">
       <c r="A11" s="28" t="s">
         <v>33</v>
       </c>
@@ -7284,7 +8148,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="21">
+    <row r="12" spans="1:16" ht="22.5">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -7309,7 +8173,7 @@
       <c r="N12" s="36"/>
       <c r="O12" s="36"/>
     </row>
-    <row r="13" spans="1:16" ht="19.8">
+    <row r="13" spans="1:16" ht="21">
       <c r="A13" s="28" t="s">
         <v>36</v>
       </c>
@@ -7350,7 +8214,7 @@
       <c r="N13" s="28"/>
       <c r="O13" s="28"/>
     </row>
-    <row r="14" spans="1:16" ht="21">
+    <row r="14" spans="1:16" ht="22.5">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -7375,7 +8239,7 @@
       <c r="N14" s="36"/>
       <c r="O14" s="36"/>
     </row>
-    <row r="15" spans="1:16" ht="19.8">
+    <row r="15" spans="1:16" ht="21">
       <c r="A15" s="28" t="s">
         <v>41</v>
       </c>
@@ -7420,7 +8284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="21">
+    <row r="16" spans="1:16" ht="22.5">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -7445,7 +8309,7 @@
       <c r="N16" s="36"/>
       <c r="O16" s="36"/>
     </row>
-    <row r="17" spans="1:15" ht="19.8">
+    <row r="17" spans="1:15" ht="21">
       <c r="A17" s="28" t="s">
         <v>45</v>
       </c>
@@ -7490,7 +8354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="21">
+    <row r="18" spans="1:15" ht="22.5">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -7515,7 +8379,7 @@
       <c r="N18" s="36"/>
       <c r="O18" s="36"/>
     </row>
-    <row r="19" spans="1:15" ht="39.6">
+    <row r="19" spans="1:15" ht="42">
       <c r="A19" s="28" t="s">
         <v>48</v>
       </c>
@@ -7560,7 +8424,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="21">
+    <row r="20" spans="1:15" ht="22.5">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -7585,17 +8449,17 @@
       <c r="N20" s="36"/>
       <c r="O20" s="36"/>
     </row>
-    <row r="21" spans="1:15" ht="19.8">
+    <row r="21" spans="1:15" ht="42">
       <c r="A21" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="139" t="s">
+      <c r="B21" s="156" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="139" t="s">
+      <c r="D21" s="156" t="s">
         <v>51</v>
       </c>
       <c r="E21" s="126">
@@ -7604,10 +8468,10 @@
       <c r="F21" s="28">
         <v>1</v>
       </c>
-      <c r="G21" s="139" t="s">
+      <c r="G21" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="139">
+      <c r="H21" s="156">
         <v>2</v>
       </c>
       <c r="I21" s="28">
@@ -7626,25 +8490,25 @@
         <v>13</v>
       </c>
       <c r="N21" s="28"/>
-      <c r="O21" s="139" t="s">
+      <c r="O21" s="156" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="19.8">
+    <row r="22" spans="1:15" ht="42">
       <c r="A22" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="140"/>
+      <c r="B22" s="158"/>
       <c r="C22" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="140"/>
-      <c r="E22" s="127"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="128"/>
       <c r="F22" s="28">
         <v>2</v>
       </c>
-      <c r="G22" s="140"/>
-      <c r="H22" s="140"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
       <c r="I22" s="28">
         <v>1.1000000000000001</v>
       </c>
@@ -7661,9 +8525,9 @@
         <v>13</v>
       </c>
       <c r="N22" s="28"/>
-      <c r="O22" s="140"/>
-    </row>
-    <row r="23" spans="1:15" ht="21">
+      <c r="O22" s="158"/>
+    </row>
+    <row r="23" spans="1:15" ht="22.5">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -7688,7 +8552,7 @@
       <c r="N23" s="36"/>
       <c r="O23" s="36"/>
     </row>
-    <row r="24" spans="1:15" ht="39.6">
+    <row r="24" spans="1:15" ht="42">
       <c r="A24" s="28" t="s">
         <v>58</v>
       </c>
@@ -7733,7 +8597,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="21">
+    <row r="25" spans="1:15" ht="22.5">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -7758,7 +8622,7 @@
       <c r="N25" s="36"/>
       <c r="O25" s="36"/>
     </row>
-    <row r="26" spans="1:15" ht="19.8">
+    <row r="26" spans="1:15" ht="21">
       <c r="A26" s="28" t="s">
         <v>61</v>
       </c>
@@ -7803,7 +8667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="21">
+    <row r="27" spans="1:15" ht="22.5">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -7828,7 +8692,7 @@
       <c r="N27" s="36"/>
       <c r="O27" s="36"/>
     </row>
-    <row r="28" spans="1:15" ht="19.8">
+    <row r="28" spans="1:15" ht="21">
       <c r="A28" s="28" t="s">
         <v>64</v>
       </c>
@@ -7871,7 +8735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="21">
+    <row r="29" spans="1:15" ht="22.5">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -7896,7 +8760,7 @@
       <c r="N29" s="36"/>
       <c r="O29" s="36"/>
     </row>
-    <row r="30" spans="1:15" ht="19.8">
+    <row r="30" spans="1:15" ht="21">
       <c r="A30" s="28" t="s">
         <v>68</v>
       </c>
@@ -7942,7 +8806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="21">
+    <row r="31" spans="1:15" ht="22.5">
       <c r="A31" s="32"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -7967,7 +8831,7 @@
       <c r="N31" s="36"/>
       <c r="O31" s="36"/>
     </row>
-    <row r="32" spans="1:15" ht="19.8">
+    <row r="32" spans="1:15" ht="21">
       <c r="A32" s="28" t="s">
         <v>71</v>
       </c>
@@ -8013,7 +8877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="21">
+    <row r="33" spans="1:15" ht="22.5">
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
@@ -8038,7 +8902,7 @@
       <c r="N33" s="36"/>
       <c r="O33" s="36"/>
     </row>
-    <row r="34" spans="1:15" ht="19.8">
+    <row r="34" spans="1:15" ht="21">
       <c r="A34" s="38" t="s">
         <v>74</v>
       </c>
@@ -8081,7 +8945,7 @@
       <c r="N34" s="38"/>
       <c r="O34" s="38"/>
     </row>
-    <row r="35" spans="1:15" ht="21">
+    <row r="35" spans="1:15" ht="22.5">
       <c r="A35" s="32"/>
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
@@ -8106,7 +8970,7 @@
       <c r="N35" s="36"/>
       <c r="O35" s="36"/>
     </row>
-    <row r="36" spans="1:15" ht="19.8">
+    <row r="36" spans="1:15" ht="21">
       <c r="A36" s="28" t="s">
         <v>79</v>
       </c>
@@ -8147,7 +9011,7 @@
       <c r="N36" s="28"/>
       <c r="O36" s="28"/>
     </row>
-    <row r="37" spans="1:15" ht="21">
+    <row r="37" spans="1:15" ht="22.5">
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
@@ -8172,7 +9036,7 @@
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
     </row>
-    <row r="38" spans="1:15" ht="19.8">
+    <row r="38" spans="1:15" ht="42">
       <c r="A38" s="28" t="s">
         <v>84</v>
       </c>
@@ -8217,7 +9081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="21">
+    <row r="39" spans="1:15" ht="22.5">
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
@@ -8242,17 +9106,17 @@
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
     </row>
-    <row r="40" spans="1:15" ht="19.8">
+    <row r="40" spans="1:15" ht="21">
       <c r="A40" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="139" t="s">
+      <c r="B40" s="156" t="s">
         <v>89</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="139" t="s">
+      <c r="D40" s="156" t="s">
         <v>51</v>
       </c>
       <c r="E40" s="126">
@@ -8261,10 +9125,10 @@
       <c r="F40" s="28">
         <v>1</v>
       </c>
-      <c r="G40" s="139" t="s">
+      <c r="G40" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="139">
+      <c r="H40" s="156">
         <v>3</v>
       </c>
       <c r="I40" s="28">
@@ -8283,25 +9147,25 @@
         <v>20</v>
       </c>
       <c r="N40" s="28"/>
-      <c r="O40" s="139" t="s">
+      <c r="O40" s="156" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="19.8">
+    <row r="41" spans="1:15" ht="21">
       <c r="A41" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="145"/>
+      <c r="B41" s="157"/>
       <c r="C41" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="145"/>
-      <c r="E41" s="130"/>
+      <c r="D41" s="157"/>
+      <c r="E41" s="127"/>
       <c r="F41" s="28">
         <v>2</v>
       </c>
-      <c r="G41" s="145"/>
-      <c r="H41" s="145"/>
+      <c r="G41" s="157"/>
+      <c r="H41" s="157"/>
       <c r="I41" s="28">
         <v>1.4</v>
       </c>
@@ -8318,23 +9182,23 @@
         <v>20</v>
       </c>
       <c r="N41" s="28"/>
-      <c r="O41" s="145"/>
-    </row>
-    <row r="42" spans="1:15" ht="19.8">
+      <c r="O41" s="157"/>
+    </row>
+    <row r="42" spans="1:15" ht="21">
       <c r="A42" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="140"/>
+      <c r="B42" s="158"/>
       <c r="C42" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="140"/>
-      <c r="E42" s="127"/>
+      <c r="D42" s="158"/>
+      <c r="E42" s="128"/>
       <c r="F42" s="28">
         <v>3</v>
       </c>
-      <c r="G42" s="140"/>
-      <c r="H42" s="140"/>
+      <c r="G42" s="158"/>
+      <c r="H42" s="158"/>
       <c r="I42" s="28">
         <v>2</v>
       </c>
@@ -8351,9 +9215,9 @@
         <v>20</v>
       </c>
       <c r="N42" s="28"/>
-      <c r="O42" s="140"/>
-    </row>
-    <row r="43" spans="1:15" ht="21">
+      <c r="O42" s="158"/>
+    </row>
+    <row r="43" spans="1:15" ht="22.5">
       <c r="A43" s="32"/>
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
@@ -8378,7 +9242,7 @@
       <c r="N43" s="36"/>
       <c r="O43" s="36"/>
     </row>
-    <row r="44" spans="1:15" ht="19.8">
+    <row r="44" spans="1:15" ht="21">
       <c r="A44" s="28" t="s">
         <v>95</v>
       </c>
@@ -8423,7 +9287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="21">
+    <row r="45" spans="1:15" ht="22.5">
       <c r="A45" s="32"/>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
@@ -8448,7 +9312,7 @@
       <c r="N45" s="36"/>
       <c r="O45" s="36"/>
     </row>
-    <row r="46" spans="1:15" ht="19.8">
+    <row r="46" spans="1:15" ht="21">
       <c r="A46" s="41" t="s">
         <v>99</v>
       </c>
@@ -8495,7 +9359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="21">
+    <row r="47" spans="1:15" ht="22.5">
       <c r="A47" s="32"/>
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
@@ -8520,7 +9384,7 @@
       <c r="N47" s="36"/>
       <c r="O47" s="36"/>
     </row>
-    <row r="48" spans="1:15" ht="39.6">
+    <row r="48" spans="1:15" ht="42">
       <c r="A48" s="41" t="s">
         <v>103</v>
       </c>
@@ -8565,7 +9429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="21">
+    <row r="49" spans="1:15" ht="22.5">
       <c r="A49" s="32"/>
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
@@ -8590,71 +9454,71 @@
       <c r="N49" s="36"/>
       <c r="O49" s="36"/>
     </row>
-    <row r="50" spans="1:15" ht="19.8">
+    <row r="50" spans="1:15" ht="21">
       <c r="A50" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="143" t="s">
+      <c r="B50" s="136" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="143" t="s">
+      <c r="C50" s="136" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="143" t="s">
+      <c r="D50" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="141">
+      <c r="E50" s="133">
         <v>45666</v>
       </c>
       <c r="F50" s="41">
         <v>1</v>
       </c>
-      <c r="G50" s="143" t="s">
+      <c r="G50" s="136" t="s">
         <v>25</v>
       </c>
       <c r="H50" s="41"/>
-      <c r="I50" s="143">
+      <c r="I50" s="136">
         <v>10.199999999999999</v>
       </c>
-      <c r="J50" s="146">
+      <c r="J50" s="171">
         <v>0.10335</v>
       </c>
-      <c r="K50" s="143">
+      <c r="K50" s="136">
         <v>53</v>
       </c>
-      <c r="L50" s="143">
+      <c r="L50" s="136">
         <v>39</v>
       </c>
-      <c r="M50" s="143">
+      <c r="M50" s="136">
         <v>50</v>
       </c>
       <c r="N50" s="41"/>
-      <c r="O50" s="143" t="s">
+      <c r="O50" s="136" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="19.8">
+    <row r="51" spans="1:15" ht="21">
       <c r="A51" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="144"/>
-      <c r="C51" s="144"/>
-      <c r="D51" s="144"/>
-      <c r="E51" s="142"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="138"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="135"/>
       <c r="F51" s="41">
         <v>2</v>
       </c>
-      <c r="G51" s="144"/>
+      <c r="G51" s="138"/>
       <c r="H51" s="41"/>
-      <c r="I51" s="144"/>
-      <c r="J51" s="147"/>
-      <c r="K51" s="144"/>
-      <c r="L51" s="144"/>
-      <c r="M51" s="144"/>
+      <c r="I51" s="138"/>
+      <c r="J51" s="172"/>
+      <c r="K51" s="138"/>
+      <c r="L51" s="138"/>
+      <c r="M51" s="138"/>
       <c r="N51" s="41"/>
-      <c r="O51" s="144"/>
-    </row>
-    <row r="52" spans="1:15" ht="21">
+      <c r="O51" s="138"/>
+    </row>
+    <row r="52" spans="1:15" ht="22.5">
       <c r="A52" s="32"/>
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
@@ -8679,29 +9543,29 @@
       <c r="N52" s="36"/>
       <c r="O52" s="36"/>
     </row>
-    <row r="53" spans="1:15" ht="19.8">
+    <row r="53" spans="1:15" ht="21">
       <c r="A53" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="132" t="s">
+      <c r="B53" s="167" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="132" t="s">
+      <c r="C53" s="167" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="132" t="s">
+      <c r="D53" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="135">
+      <c r="E53" s="169">
         <v>45668</v>
       </c>
       <c r="F53" s="44">
         <v>1</v>
       </c>
-      <c r="G53" s="117" t="s">
+      <c r="G53" s="144" t="s">
         <v>114</v>
       </c>
-      <c r="H53" s="132">
+      <c r="H53" s="167">
         <v>1676</v>
       </c>
       <c r="I53" s="44">
@@ -8721,23 +9585,23 @@
         <v>43</v>
       </c>
       <c r="N53" s="44"/>
-      <c r="O53" s="132" t="s">
+      <c r="O53" s="167" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="19.8">
+    <row r="54" spans="1:15" ht="21">
       <c r="A54" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="134"/>
-      <c r="C54" s="134"/>
-      <c r="D54" s="134"/>
-      <c r="E54" s="137"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
+      <c r="E54" s="170"/>
       <c r="F54" s="44">
         <v>2</v>
       </c>
-      <c r="G54" s="119"/>
-      <c r="H54" s="134"/>
+      <c r="G54" s="150"/>
+      <c r="H54" s="168"/>
       <c r="I54" s="44">
         <v>16.7</v>
       </c>
@@ -8755,9 +9619,9 @@
         <v>30</v>
       </c>
       <c r="N54" s="44"/>
-      <c r="O54" s="134"/>
-    </row>
-    <row r="55" spans="1:15" ht="21">
+      <c r="O54" s="168"/>
+    </row>
+    <row r="55" spans="1:15" ht="22.5">
       <c r="A55" s="32"/>
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
@@ -8782,29 +9646,29 @@
       <c r="N55" s="50"/>
       <c r="O55" s="51"/>
     </row>
-    <row r="56" spans="1:15" ht="19.8">
+    <row r="56" spans="1:15" ht="21">
       <c r="A56" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="132" t="s">
+      <c r="B56" s="167" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="132" t="s">
+      <c r="C56" s="167" t="s">
         <v>119</v>
       </c>
-      <c r="D56" s="132" t="s">
+      <c r="D56" s="167" t="s">
         <v>82</v>
       </c>
-      <c r="E56" s="135">
+      <c r="E56" s="169">
         <v>45670</v>
       </c>
       <c r="F56" s="44">
         <v>1</v>
       </c>
-      <c r="G56" s="117" t="s">
+      <c r="G56" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="H56" s="132">
+      <c r="H56" s="167">
         <v>145</v>
       </c>
       <c r="I56" s="44">
@@ -8824,23 +9688,23 @@
         <v>23</v>
       </c>
       <c r="N56" s="52"/>
-      <c r="O56" s="132" t="s">
+      <c r="O56" s="167" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="19.8">
+    <row r="57" spans="1:15" ht="21">
       <c r="A57" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="134"/>
-      <c r="C57" s="134"/>
-      <c r="D57" s="134"/>
-      <c r="E57" s="137"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
+      <c r="E57" s="170"/>
       <c r="F57" s="44">
         <v>2</v>
       </c>
-      <c r="G57" s="119"/>
-      <c r="H57" s="134"/>
+      <c r="G57" s="150"/>
+      <c r="H57" s="168"/>
       <c r="I57" s="44">
         <v>13.7</v>
       </c>
@@ -8858,9 +9722,9 @@
         <v>49</v>
       </c>
       <c r="N57" s="44"/>
-      <c r="O57" s="134"/>
-    </row>
-    <row r="58" spans="1:15" ht="21">
+      <c r="O57" s="168"/>
+    </row>
+    <row r="58" spans="1:15" ht="22.5">
       <c r="A58" s="32"/>
       <c r="B58" s="32"/>
       <c r="C58" s="32"/>
@@ -8885,7 +9749,7 @@
       <c r="N58" s="50"/>
       <c r="O58" s="51"/>
     </row>
-    <row r="59" spans="1:15" ht="19.8">
+    <row r="59" spans="1:15" ht="21">
       <c r="A59" s="53" t="s">
         <v>123</v>
       </c>
@@ -8927,7 +9791,7 @@
       <c r="N59" s="53"/>
       <c r="O59" s="41"/>
     </row>
-    <row r="60" spans="1:15" ht="21">
+    <row r="60" spans="1:15" ht="22.5">
       <c r="A60" s="32"/>
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
@@ -8952,7 +9816,7 @@
       <c r="N60" s="55"/>
       <c r="O60" s="56"/>
     </row>
-    <row r="61" spans="1:15" ht="34.799999999999997">
+    <row r="61" spans="1:15" ht="37.5">
       <c r="A61" s="53" t="s">
         <v>128</v>
       </c>
@@ -8994,7 +9858,7 @@
       <c r="N61" s="53"/>
       <c r="O61" s="41"/>
     </row>
-    <row r="62" spans="1:15" ht="21">
+    <row r="62" spans="1:15" ht="22.5">
       <c r="A62" s="32"/>
       <c r="B62" s="32"/>
       <c r="C62" s="32"/>
@@ -9019,7 +9883,7 @@
       <c r="N62" s="55"/>
       <c r="O62" s="56"/>
     </row>
-    <row r="63" spans="1:15" ht="39.6">
+    <row r="63" spans="1:15" ht="42">
       <c r="A63" s="53" t="s">
         <v>132</v>
       </c>
@@ -9061,7 +9925,7 @@
       <c r="N63" s="53"/>
       <c r="O63" s="53"/>
     </row>
-    <row r="64" spans="1:15" ht="21">
+    <row r="64" spans="1:15" ht="22.5">
       <c r="A64" s="32"/>
       <c r="B64" s="32"/>
       <c r="C64" s="32"/>
@@ -9086,7 +9950,7 @@
       <c r="N64" s="55"/>
       <c r="O64" s="56"/>
     </row>
-    <row r="65" spans="1:15" ht="57">
+    <row r="65" spans="1:15" ht="60.75">
       <c r="A65" s="44" t="s">
         <v>137</v>
       </c>
@@ -9133,7 +9997,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="21">
+    <row r="66" spans="1:15" ht="22.5">
       <c r="A66" s="32"/>
       <c r="B66" s="32"/>
       <c r="C66" s="32"/>
@@ -9156,7 +10020,7 @@
       <c r="N66" s="50"/>
       <c r="O66" s="50"/>
     </row>
-    <row r="67" spans="1:15" ht="57">
+    <row r="67" spans="1:15" ht="60.75">
       <c r="A67" s="44" t="s">
         <v>144</v>
       </c>
@@ -9201,7 +10065,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="21">
+    <row r="68" spans="1:15" ht="22.5">
       <c r="A68" s="32"/>
       <c r="B68" s="32"/>
       <c r="C68" s="32"/>
@@ -9224,7 +10088,7 @@
       <c r="N68" s="50"/>
       <c r="O68" s="50"/>
     </row>
-    <row r="69" spans="1:15" ht="19.8">
+    <row r="69" spans="1:15" ht="37.5">
       <c r="A69" s="58"/>
       <c r="B69" s="59" t="s">
         <v>148</v>
@@ -9268,7 +10132,7 @@
       </c>
       <c r="O69" s="44"/>
     </row>
-    <row r="70" spans="1:15" ht="21">
+    <row r="70" spans="1:15" ht="22.5">
       <c r="A70" s="32"/>
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
@@ -9291,24 +10155,24 @@
       <c r="N70" s="50"/>
       <c r="O70" s="50"/>
     </row>
-    <row r="71" spans="1:15" ht="19.8">
+    <row r="71" spans="1:15" ht="21">
       <c r="A71" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="B71" s="148" t="s">
+      <c r="B71" s="163" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="148"/>
-      <c r="D71" s="148" t="s">
+      <c r="C71" s="163"/>
+      <c r="D71" s="163" t="s">
         <v>156</v>
       </c>
-      <c r="E71" s="141">
+      <c r="E71" s="133">
         <v>45673</v>
       </c>
       <c r="F71" s="53">
         <v>1</v>
       </c>
-      <c r="G71" s="148" t="s">
+      <c r="G71" s="163" t="s">
         <v>157</v>
       </c>
       <c r="H71" s="53">
@@ -9333,18 +10197,18 @@
       <c r="N71" s="53"/>
       <c r="O71" s="53"/>
     </row>
-    <row r="72" spans="1:15" ht="19.8">
+    <row r="72" spans="1:15" ht="21">
       <c r="A72" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="149"/>
-      <c r="C72" s="149"/>
-      <c r="D72" s="149"/>
-      <c r="E72" s="151"/>
+      <c r="B72" s="164"/>
+      <c r="C72" s="164"/>
+      <c r="D72" s="164"/>
+      <c r="E72" s="134"/>
       <c r="F72" s="53">
         <v>2</v>
       </c>
-      <c r="G72" s="149"/>
+      <c r="G72" s="164"/>
       <c r="H72" s="53">
         <v>240</v>
       </c>
@@ -9367,18 +10231,18 @@
       <c r="N72" s="53"/>
       <c r="O72" s="53"/>
     </row>
-    <row r="73" spans="1:15" ht="19.8">
+    <row r="73" spans="1:15" ht="21">
       <c r="A73" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="B73" s="149"/>
-      <c r="C73" s="149"/>
-      <c r="D73" s="149"/>
-      <c r="E73" s="151"/>
+      <c r="B73" s="164"/>
+      <c r="C73" s="164"/>
+      <c r="D73" s="164"/>
+      <c r="E73" s="134"/>
       <c r="F73" s="53">
         <v>3</v>
       </c>
-      <c r="G73" s="149"/>
+      <c r="G73" s="164"/>
       <c r="H73" s="53">
         <v>300</v>
       </c>
@@ -9401,18 +10265,18 @@
       <c r="N73" s="53"/>
       <c r="O73" s="53"/>
     </row>
-    <row r="74" spans="1:15" ht="19.8">
+    <row r="74" spans="1:15" ht="21">
       <c r="A74" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="B74" s="149"/>
-      <c r="C74" s="149"/>
-      <c r="D74" s="149"/>
-      <c r="E74" s="151"/>
+      <c r="B74" s="164"/>
+      <c r="C74" s="164"/>
+      <c r="D74" s="164"/>
+      <c r="E74" s="134"/>
       <c r="F74" s="53">
         <v>4</v>
       </c>
-      <c r="G74" s="149"/>
+      <c r="G74" s="164"/>
       <c r="H74" s="53">
         <v>230</v>
       </c>
@@ -9435,18 +10299,18 @@
       <c r="N74" s="53"/>
       <c r="O74" s="53"/>
     </row>
-    <row r="75" spans="1:15" ht="19.8">
+    <row r="75" spans="1:15" ht="21">
       <c r="A75" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="B75" s="149"/>
-      <c r="C75" s="149"/>
-      <c r="D75" s="149"/>
-      <c r="E75" s="151"/>
+      <c r="B75" s="164"/>
+      <c r="C75" s="164"/>
+      <c r="D75" s="164"/>
+      <c r="E75" s="134"/>
       <c r="F75" s="53">
         <v>5</v>
       </c>
-      <c r="G75" s="149"/>
+      <c r="G75" s="164"/>
       <c r="H75" s="53">
         <v>220</v>
       </c>
@@ -9469,18 +10333,18 @@
       <c r="N75" s="53"/>
       <c r="O75" s="53"/>
     </row>
-    <row r="76" spans="1:15" ht="19.8">
+    <row r="76" spans="1:15" ht="21">
       <c r="A76" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B76" s="149"/>
-      <c r="C76" s="149"/>
-      <c r="D76" s="149"/>
-      <c r="E76" s="151"/>
+      <c r="B76" s="164"/>
+      <c r="C76" s="164"/>
+      <c r="D76" s="164"/>
+      <c r="E76" s="134"/>
       <c r="F76" s="53">
         <v>6</v>
       </c>
-      <c r="G76" s="149"/>
+      <c r="G76" s="164"/>
       <c r="H76" s="53">
         <v>200</v>
       </c>
@@ -9503,18 +10367,18 @@
       <c r="N76" s="53"/>
       <c r="O76" s="53"/>
     </row>
-    <row r="77" spans="1:15" ht="19.8">
+    <row r="77" spans="1:15" ht="21">
       <c r="A77" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B77" s="149"/>
-      <c r="C77" s="149"/>
-      <c r="D77" s="149"/>
-      <c r="E77" s="151"/>
+      <c r="B77" s="164"/>
+      <c r="C77" s="164"/>
+      <c r="D77" s="164"/>
+      <c r="E77" s="134"/>
       <c r="F77" s="53">
         <v>7</v>
       </c>
-      <c r="G77" s="149"/>
+      <c r="G77" s="164"/>
       <c r="H77" s="53">
         <v>190</v>
       </c>
@@ -9537,18 +10401,18 @@
       <c r="N77" s="53"/>
       <c r="O77" s="53"/>
     </row>
-    <row r="78" spans="1:15" ht="19.8">
+    <row r="78" spans="1:15" ht="21">
       <c r="A78" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="149"/>
-      <c r="C78" s="149"/>
-      <c r="D78" s="149"/>
-      <c r="E78" s="151"/>
+      <c r="B78" s="164"/>
+      <c r="C78" s="164"/>
+      <c r="D78" s="164"/>
+      <c r="E78" s="134"/>
       <c r="F78" s="53">
         <v>8</v>
       </c>
-      <c r="G78" s="149"/>
+      <c r="G78" s="164"/>
       <c r="H78" s="53">
         <v>200</v>
       </c>
@@ -9571,18 +10435,18 @@
       <c r="N78" s="53"/>
       <c r="O78" s="53"/>
     </row>
-    <row r="79" spans="1:15" ht="19.8">
+    <row r="79" spans="1:15" ht="21">
       <c r="A79" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="B79" s="149"/>
-      <c r="C79" s="149"/>
-      <c r="D79" s="149"/>
-      <c r="E79" s="151"/>
+      <c r="B79" s="164"/>
+      <c r="C79" s="164"/>
+      <c r="D79" s="164"/>
+      <c r="E79" s="134"/>
       <c r="F79" s="53">
         <v>9</v>
       </c>
-      <c r="G79" s="149"/>
+      <c r="G79" s="164"/>
       <c r="H79" s="53">
         <v>200</v>
       </c>
@@ -9605,18 +10469,18 @@
       <c r="N79" s="53"/>
       <c r="O79" s="53"/>
     </row>
-    <row r="80" spans="1:15" ht="19.8">
+    <row r="80" spans="1:15" ht="21">
       <c r="A80" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="B80" s="149"/>
-      <c r="C80" s="149"/>
-      <c r="D80" s="149"/>
-      <c r="E80" s="151"/>
+      <c r="B80" s="164"/>
+      <c r="C80" s="164"/>
+      <c r="D80" s="164"/>
+      <c r="E80" s="134"/>
       <c r="F80" s="53">
         <v>10</v>
       </c>
-      <c r="G80" s="149"/>
+      <c r="G80" s="164"/>
       <c r="H80" s="53">
         <v>200</v>
       </c>
@@ -9639,18 +10503,18 @@
       <c r="N80" s="53"/>
       <c r="O80" s="53"/>
     </row>
-    <row r="81" spans="1:15" ht="19.8">
+    <row r="81" spans="1:15" ht="21">
       <c r="A81" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="B81" s="150"/>
-      <c r="C81" s="150"/>
-      <c r="D81" s="150"/>
-      <c r="E81" s="142"/>
+      <c r="B81" s="165"/>
+      <c r="C81" s="165"/>
+      <c r="D81" s="165"/>
+      <c r="E81" s="135"/>
       <c r="F81" s="53">
         <v>11</v>
       </c>
-      <c r="G81" s="150"/>
+      <c r="G81" s="165"/>
       <c r="H81" s="53">
         <v>200</v>
       </c>
@@ -9673,7 +10537,7 @@
       <c r="N81" s="53"/>
       <c r="O81" s="53"/>
     </row>
-    <row r="82" spans="1:15" ht="21">
+    <row r="82" spans="1:15" ht="22.5">
       <c r="A82" s="32"/>
       <c r="B82" s="32"/>
       <c r="C82" s="32"/>
@@ -9698,7 +10562,7 @@
       <c r="N82" s="56"/>
       <c r="O82" s="56"/>
     </row>
-    <row r="83" spans="1:15" ht="19.8">
+    <row r="83" spans="1:15" ht="21">
       <c r="A83" s="53" t="s">
         <v>168</v>
       </c>
@@ -9743,7 +10607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="21">
+    <row r="84" spans="1:15" ht="22.5">
       <c r="A84" s="32"/>
       <c r="B84" s="32"/>
       <c r="C84" s="32"/>
@@ -9768,7 +10632,7 @@
       <c r="N84" s="63"/>
       <c r="O84" s="63"/>
     </row>
-    <row r="85" spans="1:15" ht="19.8">
+    <row r="85" spans="1:15" ht="42">
       <c r="A85" s="53" t="s">
         <v>172</v>
       </c>
@@ -9811,7 +10675,7 @@
       <c r="N85" s="53"/>
       <c r="O85" s="53"/>
     </row>
-    <row r="86" spans="1:15" ht="21">
+    <row r="86" spans="1:15" ht="22.5">
       <c r="A86" s="64"/>
       <c r="B86" s="64"/>
       <c r="C86" s="64"/>
@@ -9836,7 +10700,7 @@
       <c r="N86" s="63"/>
       <c r="O86" s="63"/>
     </row>
-    <row r="87" spans="1:15" ht="19.8">
+    <row r="87" spans="1:15" ht="42">
       <c r="A87" s="53" t="s">
         <v>177</v>
       </c>
@@ -9879,7 +10743,7 @@
       <c r="N87" s="53"/>
       <c r="O87" s="53"/>
     </row>
-    <row r="88" spans="1:15" ht="21">
+    <row r="88" spans="1:15" ht="22.5">
       <c r="A88" s="64"/>
       <c r="B88" s="64"/>
       <c r="C88" s="64"/>
@@ -9904,7 +10768,7 @@
       <c r="N88" s="63"/>
       <c r="O88" s="63"/>
     </row>
-    <row r="89" spans="1:15" ht="19.8">
+    <row r="89" spans="1:15" ht="42">
       <c r="A89" s="53" t="s">
         <v>181</v>
       </c>
@@ -9947,7 +10811,7 @@
       <c r="N89" s="53"/>
       <c r="O89" s="53"/>
     </row>
-    <row r="90" spans="1:15" ht="21">
+    <row r="90" spans="1:15" ht="22.5">
       <c r="A90" s="64"/>
       <c r="B90" s="64"/>
       <c r="C90" s="64"/>
@@ -9972,7 +10836,7 @@
       <c r="N90" s="63"/>
       <c r="O90" s="63"/>
     </row>
-    <row r="91" spans="1:15" ht="19.8">
+    <row r="91" spans="1:15" ht="21">
       <c r="A91" s="53" t="s">
         <v>185</v>
       </c>
@@ -10013,7 +10877,7 @@
       <c r="N91" s="53"/>
       <c r="O91" s="53"/>
     </row>
-    <row r="92" spans="1:15" ht="21">
+    <row r="92" spans="1:15" ht="22.5">
       <c r="A92" s="64"/>
       <c r="B92" s="64"/>
       <c r="C92" s="64"/>
@@ -10038,7 +10902,7 @@
       <c r="N92" s="63"/>
       <c r="O92" s="63"/>
     </row>
-    <row r="93" spans="1:15" ht="19.8">
+    <row r="93" spans="1:15" ht="21">
       <c r="A93" s="41" t="s">
         <v>189</v>
       </c>
@@ -10081,7 +10945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="21">
+    <row r="94" spans="1:15" ht="22.5">
       <c r="A94" s="66"/>
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
@@ -10106,7 +10970,7 @@
       <c r="N94" s="63"/>
       <c r="O94" s="63"/>
     </row>
-    <row r="95" spans="1:15" ht="59.4">
+    <row r="95" spans="1:15" ht="63">
       <c r="A95" s="44" t="s">
         <v>193</v>
       </c>
@@ -10147,7 +11011,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="21">
+    <row r="96" spans="1:15" ht="22.5">
       <c r="A96" s="64"/>
       <c r="B96" s="64"/>
       <c r="C96" s="64"/>
@@ -10170,7 +11034,7 @@
       <c r="N96" s="50"/>
       <c r="O96" s="50"/>
     </row>
-    <row r="97" spans="1:15" ht="19.8">
+    <row r="97" spans="1:15" ht="21">
       <c r="A97" s="53" t="s">
         <v>197</v>
       </c>
@@ -10214,7 +11078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="21">
+    <row r="98" spans="1:15" ht="22.5">
       <c r="A98" s="64"/>
       <c r="B98" s="64"/>
       <c r="C98" s="64"/>
@@ -10239,7 +11103,7 @@
       <c r="N98" s="56"/>
       <c r="O98" s="56"/>
     </row>
-    <row r="99" spans="1:15" ht="19.8">
+    <row r="99" spans="1:15" ht="42">
       <c r="A99" s="53" t="s">
         <v>200</v>
       </c>
@@ -10280,7 +11144,7 @@
       <c r="N99" s="53"/>
       <c r="O99" s="53"/>
     </row>
-    <row r="100" spans="1:15" ht="21">
+    <row r="100" spans="1:15" ht="22.5">
       <c r="A100" s="64"/>
       <c r="B100" s="64"/>
       <c r="C100" s="64"/>
@@ -10305,7 +11169,7 @@
       <c r="N100" s="56"/>
       <c r="O100" s="56"/>
     </row>
-    <row r="101" spans="1:15" ht="37.200000000000003">
+    <row r="101" spans="1:15" ht="58.5">
       <c r="A101" s="53" t="s">
         <v>204</v>
       </c>
@@ -10350,7 +11214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="21">
+    <row r="102" spans="1:15" ht="22.5">
       <c r="A102" s="64"/>
       <c r="B102" s="64"/>
       <c r="C102" s="64"/>
@@ -10373,26 +11237,26 @@
       <c r="N102" s="56"/>
       <c r="O102" s="56"/>
     </row>
-    <row r="103" spans="1:15" ht="19.8">
+    <row r="103" spans="1:15" ht="21">
       <c r="A103" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="B103" s="148" t="s">
+      <c r="B103" s="163" t="s">
         <v>209</v>
       </c>
-      <c r="C103" s="148" t="s">
+      <c r="C103" s="163" t="s">
         <v>210</v>
       </c>
-      <c r="D103" s="148" t="s">
+      <c r="D103" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="E103" s="141">
+      <c r="E103" s="133">
         <v>45680</v>
       </c>
       <c r="F103" s="53">
         <v>1</v>
       </c>
-      <c r="G103" s="152" t="s">
+      <c r="G103" s="166" t="s">
         <v>211</v>
       </c>
       <c r="H103" s="53"/>
@@ -10415,18 +11279,18 @@
       <c r="N103" s="53"/>
       <c r="O103" s="53"/>
     </row>
-    <row r="104" spans="1:15" ht="19.8">
+    <row r="104" spans="1:15" ht="21">
       <c r="A104" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="B104" s="149"/>
-      <c r="C104" s="149"/>
-      <c r="D104" s="149"/>
-      <c r="E104" s="151"/>
+      <c r="B104" s="164"/>
+      <c r="C104" s="164"/>
+      <c r="D104" s="164"/>
+      <c r="E104" s="134"/>
       <c r="F104" s="53">
         <v>2</v>
       </c>
-      <c r="G104" s="149"/>
+      <c r="G104" s="164"/>
       <c r="H104" s="53"/>
       <c r="I104" s="53">
         <v>9.1</v>
@@ -10447,18 +11311,18 @@
       <c r="N104" s="53"/>
       <c r="O104" s="53"/>
     </row>
-    <row r="105" spans="1:15" ht="19.8">
+    <row r="105" spans="1:15" ht="21">
       <c r="A105" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="B105" s="149"/>
-      <c r="C105" s="149"/>
-      <c r="D105" s="149"/>
-      <c r="E105" s="151"/>
+      <c r="B105" s="164"/>
+      <c r="C105" s="164"/>
+      <c r="D105" s="164"/>
+      <c r="E105" s="134"/>
       <c r="F105" s="53">
         <v>3</v>
       </c>
-      <c r="G105" s="149"/>
+      <c r="G105" s="164"/>
       <c r="H105" s="53"/>
       <c r="I105" s="53">
         <v>24.1</v>
@@ -10479,18 +11343,18 @@
       <c r="N105" s="53"/>
       <c r="O105" s="53"/>
     </row>
-    <row r="106" spans="1:15" ht="19.8">
+    <row r="106" spans="1:15" ht="21">
       <c r="A106" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="B106" s="150"/>
-      <c r="C106" s="150"/>
-      <c r="D106" s="150"/>
-      <c r="E106" s="142"/>
+      <c r="B106" s="165"/>
+      <c r="C106" s="165"/>
+      <c r="D106" s="165"/>
+      <c r="E106" s="135"/>
       <c r="F106" s="53">
         <v>4</v>
       </c>
-      <c r="G106" s="150"/>
+      <c r="G106" s="165"/>
       <c r="H106" s="53"/>
       <c r="I106" s="53">
         <v>6.4</v>
@@ -10511,7 +11375,7 @@
       <c r="N106" s="53"/>
       <c r="O106" s="53"/>
     </row>
-    <row r="107" spans="1:15" ht="21">
+    <row r="107" spans="1:15" ht="22.5">
       <c r="A107" s="64"/>
       <c r="B107" s="64"/>
       <c r="C107" s="64"/>
@@ -10536,27 +11400,27 @@
       <c r="N107" s="56"/>
       <c r="O107" s="56"/>
     </row>
-    <row r="108" spans="1:15" ht="19.8">
+    <row r="108" spans="1:15" ht="21">
       <c r="A108" s="53" t="s">
+        <v>327</v>
+      </c>
+      <c r="B108" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="C108" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="D108" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="E108" s="99">
+        <v>45698</v>
+      </c>
+      <c r="F108" s="53">
+        <v>1</v>
+      </c>
+      <c r="G108" s="53" t="s">
         <v>331</v>
-      </c>
-      <c r="B108" s="53" t="s">
-        <v>332</v>
-      </c>
-      <c r="C108" s="53" t="s">
-        <v>333</v>
-      </c>
-      <c r="D108" s="53" t="s">
-        <v>334</v>
-      </c>
-      <c r="E108" s="100">
-        <v>45698</v>
-      </c>
-      <c r="F108" s="53">
-        <v>1</v>
-      </c>
-      <c r="G108" s="53" t="s">
-        <v>335</v>
       </c>
       <c r="H108" s="53">
         <v>1</v>
@@ -10577,13 +11441,13 @@
         <v>15</v>
       </c>
       <c r="N108" s="53" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="O108" s="53" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="21">
+    <row r="109" spans="1:15" ht="22.5">
       <c r="A109" s="64"/>
       <c r="B109" s="64"/>
       <c r="C109" s="64"/>
@@ -10608,29 +11472,29 @@
       <c r="N109" s="56"/>
       <c r="O109" s="56"/>
     </row>
-    <row r="110" spans="1:15" ht="19.8">
+    <row r="110" spans="1:15" ht="21">
       <c r="A110" s="53" t="s">
-        <v>337</v>
-      </c>
-      <c r="B110" s="153" t="s">
-        <v>338</v>
+        <v>333</v>
+      </c>
+      <c r="B110" s="161" t="s">
+        <v>334</v>
       </c>
       <c r="C110" s="53" t="s">
-        <v>339</v>
-      </c>
-      <c r="D110" s="153" t="s">
-        <v>334</v>
-      </c>
-      <c r="E110" s="154">
+        <v>335</v>
+      </c>
+      <c r="D110" s="161" t="s">
+        <v>330</v>
+      </c>
+      <c r="E110" s="162">
         <v>45698</v>
       </c>
       <c r="F110" s="53">
         <v>1</v>
       </c>
-      <c r="G110" s="153" t="s">
-        <v>335</v>
-      </c>
-      <c r="H110" s="153">
+      <c r="G110" s="161" t="s">
+        <v>331</v>
+      </c>
+      <c r="H110" s="161">
         <v>2</v>
       </c>
       <c r="I110" s="53">
@@ -10649,25 +11513,25 @@
         <v>10</v>
       </c>
       <c r="N110" s="53"/>
-      <c r="O110" s="153" t="s">
+      <c r="O110" s="161" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="19.8">
+    <row r="111" spans="1:15" ht="21">
       <c r="A111" s="53" t="s">
-        <v>340</v>
-      </c>
-      <c r="B111" s="153"/>
+        <v>336</v>
+      </c>
+      <c r="B111" s="161"/>
       <c r="C111" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="D111" s="153"/>
-      <c r="E111" s="154"/>
+        <v>337</v>
+      </c>
+      <c r="D111" s="161"/>
+      <c r="E111" s="162"/>
       <c r="F111" s="53">
         <v>2</v>
       </c>
-      <c r="G111" s="153"/>
-      <c r="H111" s="153"/>
+      <c r="G111" s="161"/>
+      <c r="H111" s="161"/>
       <c r="I111" s="53">
         <v>1.4</v>
       </c>
@@ -10684,9 +11548,9 @@
         <v>14</v>
       </c>
       <c r="N111" s="53"/>
-      <c r="O111" s="153"/>
-    </row>
-    <row r="112" spans="1:15" ht="21">
+      <c r="O111" s="161"/>
+    </row>
+    <row r="112" spans="1:15" ht="22.5">
       <c r="A112" s="64"/>
       <c r="B112" s="64"/>
       <c r="C112" s="64"/>
@@ -10711,27 +11575,27 @@
       <c r="N112" s="56"/>
       <c r="O112" s="56"/>
     </row>
-    <row r="113" spans="1:15" ht="19.8">
+    <row r="113" spans="1:15" ht="21">
       <c r="A113" s="53" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B113" s="53" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C113" s="53" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D113" s="53" t="s">
-        <v>345</v>
-      </c>
-      <c r="E113" s="100">
+        <v>341</v>
+      </c>
+      <c r="E113" s="99">
         <v>45698</v>
       </c>
       <c r="F113" s="53">
         <v>1</v>
       </c>
       <c r="G113" s="53" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H113" s="53">
         <v>1</v>
@@ -10757,7 +11621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="21">
+    <row r="114" spans="1:15" ht="22.5">
       <c r="A114" s="64"/>
       <c r="B114" s="64"/>
       <c r="C114" s="64"/>
@@ -10782,15 +11646,15 @@
       <c r="N114" s="56"/>
       <c r="O114" s="56"/>
     </row>
-    <row r="115" spans="1:15" ht="19.8">
+    <row r="115" spans="1:15" ht="21">
       <c r="A115" s="53" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B115" s="53" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C115" s="53" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D115" s="53" t="s">
         <v>192</v>
@@ -10828,7 +11692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="21">
+    <row r="116" spans="1:15" ht="22.5">
       <c r="A116" s="64"/>
       <c r="B116" s="64"/>
       <c r="C116" s="64"/>
@@ -10853,18 +11717,18 @@
       <c r="N116" s="56"/>
       <c r="O116" s="56"/>
     </row>
-    <row r="117" spans="1:15" ht="19.8">
+    <row r="117" spans="1:15" ht="21">
       <c r="A117" s="53" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B117" s="53" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C117" s="53" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D117" s="53" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E117" s="42">
         <v>45703</v>
@@ -10873,7 +11737,7 @@
         <v>1</v>
       </c>
       <c r="G117" s="37" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H117" s="53">
         <v>1</v>
@@ -10897,7 +11761,7 @@
       <c r="N117" s="53"/>
       <c r="O117" s="53"/>
     </row>
-    <row r="118" spans="1:15" ht="21">
+    <row r="118" spans="1:15" ht="22.5">
       <c r="A118" s="64"/>
       <c r="B118" s="64"/>
       <c r="C118" s="64"/>
@@ -10922,18 +11786,18 @@
       <c r="N118" s="56"/>
       <c r="O118" s="56"/>
     </row>
-    <row r="119" spans="1:15" ht="19.8">
+    <row r="119" spans="1:15" ht="42">
       <c r="A119" s="53" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B119" s="53" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C119" s="53" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D119" s="53" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E119" s="42">
         <v>45705</v>
@@ -10942,7 +11806,7 @@
         <v>1</v>
       </c>
       <c r="G119" s="53" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H119" s="53"/>
       <c r="I119" s="53">
@@ -10964,7 +11828,7 @@
       <c r="N119" s="53"/>
       <c r="O119" s="53"/>
     </row>
-    <row r="120" spans="1:15" ht="21">
+    <row r="120" spans="1:15" ht="22.5">
       <c r="A120" s="64"/>
       <c r="B120" s="64"/>
       <c r="C120" s="64"/>
@@ -10989,15 +11853,15 @@
       <c r="N120" s="56"/>
       <c r="O120" s="56"/>
     </row>
-    <row r="121" spans="1:15" ht="19.8">
+    <row r="121" spans="1:15" ht="21">
       <c r="A121" s="53" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B121" s="53" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C121" s="53" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D121" s="53" t="s">
         <v>24</v>
@@ -11032,7 +11896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="21">
+    <row r="122" spans="1:15" ht="22.5">
       <c r="A122" s="64"/>
       <c r="B122" s="64"/>
       <c r="C122" s="64"/>
@@ -11057,29 +11921,29 @@
       <c r="N122" s="56"/>
       <c r="O122" s="56"/>
     </row>
-    <row r="123" spans="1:15" ht="19.8">
+    <row r="123" spans="1:15" ht="21">
       <c r="A123" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="B123" s="167" t="s">
+        <v>378</v>
+      </c>
+      <c r="C123" s="167" t="s">
+        <v>379</v>
+      </c>
+      <c r="D123" s="167" t="s">
+        <v>380</v>
+      </c>
+      <c r="E123" s="169">
+        <v>45706</v>
+      </c>
+      <c r="F123" s="44">
+        <v>1</v>
+      </c>
+      <c r="G123" s="144" t="s">
         <v>381</v>
       </c>
-      <c r="B123" s="132" t="s">
-        <v>382</v>
-      </c>
-      <c r="C123" s="132" t="s">
-        <v>383</v>
-      </c>
-      <c r="D123" s="132" t="s">
-        <v>384</v>
-      </c>
-      <c r="E123" s="135">
-        <v>45706</v>
-      </c>
-      <c r="F123" s="44">
-        <v>1</v>
-      </c>
-      <c r="G123" s="117" t="s">
-        <v>385</v>
-      </c>
-      <c r="H123" s="132">
+      <c r="H123" s="167">
         <v>553</v>
       </c>
       <c r="I123" s="44">
@@ -11098,23 +11962,23 @@
         <v>49</v>
       </c>
       <c r="N123" s="44"/>
-      <c r="O123" s="132" t="s">
+      <c r="O123" s="167" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="19.8">
+    <row r="124" spans="1:15" ht="21">
       <c r="A124" s="44" t="s">
-        <v>386</v>
-      </c>
-      <c r="B124" s="133"/>
-      <c r="C124" s="133"/>
-      <c r="D124" s="133"/>
-      <c r="E124" s="136"/>
+        <v>382</v>
+      </c>
+      <c r="B124" s="174"/>
+      <c r="C124" s="174"/>
+      <c r="D124" s="174"/>
+      <c r="E124" s="175"/>
       <c r="F124" s="44">
         <v>2</v>
       </c>
-      <c r="G124" s="118"/>
-      <c r="H124" s="133"/>
+      <c r="G124" s="149"/>
+      <c r="H124" s="174"/>
       <c r="I124" s="44">
         <v>11.9</v>
       </c>
@@ -11131,21 +11995,21 @@
         <v>49</v>
       </c>
       <c r="N124" s="44"/>
-      <c r="O124" s="133"/>
-    </row>
-    <row r="125" spans="1:15" ht="19.8">
+      <c r="O124" s="174"/>
+    </row>
+    <row r="125" spans="1:15" ht="21">
       <c r="A125" s="44" t="s">
-        <v>387</v>
-      </c>
-      <c r="B125" s="133"/>
-      <c r="C125" s="133"/>
-      <c r="D125" s="133"/>
-      <c r="E125" s="136"/>
+        <v>383</v>
+      </c>
+      <c r="B125" s="174"/>
+      <c r="C125" s="174"/>
+      <c r="D125" s="174"/>
+      <c r="E125" s="175"/>
       <c r="F125" s="44">
         <v>3</v>
       </c>
-      <c r="G125" s="118"/>
-      <c r="H125" s="133"/>
+      <c r="G125" s="149"/>
+      <c r="H125" s="174"/>
       <c r="I125" s="44">
         <v>13.8</v>
       </c>
@@ -11162,21 +12026,21 @@
         <v>49</v>
       </c>
       <c r="N125" s="44"/>
-      <c r="O125" s="133"/>
-    </row>
-    <row r="126" spans="1:15" ht="19.8">
+      <c r="O125" s="174"/>
+    </row>
+    <row r="126" spans="1:15" ht="21">
       <c r="A126" s="44" t="s">
-        <v>388</v>
-      </c>
-      <c r="B126" s="133"/>
-      <c r="C126" s="133"/>
-      <c r="D126" s="133"/>
-      <c r="E126" s="136"/>
+        <v>384</v>
+      </c>
+      <c r="B126" s="174"/>
+      <c r="C126" s="174"/>
+      <c r="D126" s="174"/>
+      <c r="E126" s="175"/>
       <c r="F126" s="44">
         <v>4</v>
       </c>
-      <c r="G126" s="118"/>
-      <c r="H126" s="133"/>
+      <c r="G126" s="149"/>
+      <c r="H126" s="174"/>
       <c r="I126" s="44">
         <v>17.600000000000001</v>
       </c>
@@ -11193,21 +12057,21 @@
         <v>49</v>
       </c>
       <c r="N126" s="44"/>
-      <c r="O126" s="133"/>
-    </row>
-    <row r="127" spans="1:15" ht="19.8">
+      <c r="O126" s="174"/>
+    </row>
+    <row r="127" spans="1:15" ht="21">
       <c r="A127" s="44" t="s">
-        <v>389</v>
-      </c>
-      <c r="B127" s="133"/>
-      <c r="C127" s="133"/>
-      <c r="D127" s="133"/>
-      <c r="E127" s="136"/>
+        <v>385</v>
+      </c>
+      <c r="B127" s="174"/>
+      <c r="C127" s="174"/>
+      <c r="D127" s="174"/>
+      <c r="E127" s="175"/>
       <c r="F127" s="44">
         <v>5</v>
       </c>
-      <c r="G127" s="118"/>
-      <c r="H127" s="133"/>
+      <c r="G127" s="149"/>
+      <c r="H127" s="174"/>
       <c r="I127" s="44">
         <v>7.8</v>
       </c>
@@ -11224,21 +12088,21 @@
         <v>43</v>
       </c>
       <c r="N127" s="44"/>
-      <c r="O127" s="133"/>
-    </row>
-    <row r="128" spans="1:15" ht="19.8">
+      <c r="O127" s="174"/>
+    </row>
+    <row r="128" spans="1:15" ht="21">
       <c r="A128" s="44" t="s">
-        <v>390</v>
-      </c>
-      <c r="B128" s="133"/>
-      <c r="C128" s="133"/>
-      <c r="D128" s="133"/>
-      <c r="E128" s="136"/>
+        <v>386</v>
+      </c>
+      <c r="B128" s="174"/>
+      <c r="C128" s="174"/>
+      <c r="D128" s="174"/>
+      <c r="E128" s="175"/>
       <c r="F128" s="44">
         <v>6</v>
       </c>
-      <c r="G128" s="118"/>
-      <c r="H128" s="133"/>
+      <c r="G128" s="149"/>
+      <c r="H128" s="174"/>
       <c r="I128" s="44">
         <v>15.5</v>
       </c>
@@ -11255,21 +12119,21 @@
         <v>49</v>
       </c>
       <c r="N128" s="44"/>
-      <c r="O128" s="133"/>
-    </row>
-    <row r="129" spans="1:15" ht="19.8">
+      <c r="O128" s="174"/>
+    </row>
+    <row r="129" spans="1:15" ht="21">
       <c r="A129" s="44" t="s">
-        <v>391</v>
-      </c>
-      <c r="B129" s="134"/>
-      <c r="C129" s="134"/>
-      <c r="D129" s="134"/>
-      <c r="E129" s="137"/>
+        <v>387</v>
+      </c>
+      <c r="B129" s="168"/>
+      <c r="C129" s="168"/>
+      <c r="D129" s="168"/>
+      <c r="E129" s="170"/>
       <c r="F129" s="44">
         <v>7</v>
       </c>
-      <c r="G129" s="119"/>
-      <c r="H129" s="134"/>
+      <c r="G129" s="150"/>
+      <c r="H129" s="168"/>
       <c r="I129" s="44">
         <v>14.6</v>
       </c>
@@ -11286,9 +12150,9 @@
         <v>49</v>
       </c>
       <c r="N129" s="44"/>
-      <c r="O129" s="134"/>
-    </row>
-    <row r="130" spans="1:15" ht="21">
+      <c r="O129" s="168"/>
+    </row>
+    <row r="130" spans="1:15" ht="22.5">
       <c r="A130" s="64"/>
       <c r="B130" s="64"/>
       <c r="C130" s="64"/>
@@ -11311,18 +12175,18 @@
       <c r="N130" s="50"/>
       <c r="O130" s="51"/>
     </row>
-    <row r="131" spans="1:15" ht="19.8">
+    <row r="131" spans="1:15" ht="21">
       <c r="A131" s="53" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B131" s="53" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C131" s="53" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D131" s="53" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E131" s="42">
         <v>45707</v>
@@ -11331,7 +12195,7 @@
         <v>1</v>
       </c>
       <c r="G131" s="37" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H131" s="53"/>
       <c r="I131" s="53">
@@ -11354,7 +12218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="21">
+    <row r="132" spans="1:15" ht="22.5">
       <c r="A132" s="64"/>
       <c r="B132" s="64"/>
       <c r="C132" s="64"/>
@@ -11379,15 +12243,15 @@
       <c r="N132" s="56"/>
       <c r="O132" s="56"/>
     </row>
-    <row r="133" spans="1:15" ht="19.8">
+    <row r="133" spans="1:15" ht="21">
       <c r="A133" s="53" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B133" s="53" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C133" s="53" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D133" s="53" t="s">
         <v>24</v>
@@ -11424,7 +12288,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="21">
+    <row r="134" spans="1:15" ht="22.5">
       <c r="A134" s="64"/>
       <c r="B134" s="64"/>
       <c r="C134" s="64"/>
@@ -11449,18 +12313,18 @@
       <c r="N134" s="56"/>
       <c r="O134" s="56"/>
     </row>
-    <row r="135" spans="1:15" ht="19.8">
+    <row r="135" spans="1:15" ht="21">
       <c r="A135" s="53" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B135" s="53" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C135" s="53" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D135" s="53" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E135" s="42">
         <v>45707</v>
@@ -11490,7 +12354,7 @@
       <c r="N135" s="53"/>
       <c r="O135" s="53"/>
     </row>
-    <row r="136" spans="1:15" ht="21">
+    <row r="136" spans="1:15" ht="22.5">
       <c r="A136" s="64"/>
       <c r="B136" s="64"/>
       <c r="C136" s="64"/>
@@ -11515,43 +12379,761 @@
       <c r="N136" s="56"/>
       <c r="O136" s="56"/>
     </row>
+    <row r="137" spans="1:15" ht="21">
+      <c r="A137" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="B137" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="C137" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="D137" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E137" s="29">
+        <v>45709</v>
+      </c>
+      <c r="F137" s="28">
+        <v>1</v>
+      </c>
+      <c r="G137" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H137" s="28"/>
+      <c r="I137" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="J137" s="30">
+        <f>K137*L137*M137/1000000</f>
+        <v>1.3650000000000001E-2</v>
+      </c>
+      <c r="K137" s="28">
+        <v>35</v>
+      </c>
+      <c r="L137" s="28">
+        <v>26</v>
+      </c>
+      <c r="M137" s="28">
+        <v>15</v>
+      </c>
+      <c r="N137" s="28"/>
+      <c r="O137" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" ht="22.5">
+      <c r="A138" s="64"/>
+      <c r="B138" s="64"/>
+      <c r="C138" s="64"/>
+      <c r="D138" s="64"/>
+      <c r="E138" s="64"/>
+      <c r="F138" s="34">
+        <v>1</v>
+      </c>
+      <c r="G138" s="67"/>
+      <c r="H138" s="34"/>
+      <c r="I138" s="34">
+        <f>SUM(I137:I137)</f>
+        <v>1.2</v>
+      </c>
+      <c r="J138" s="35">
+        <f>SUM(J137:J137)</f>
+        <v>1.3650000000000001E-2</v>
+      </c>
+      <c r="K138" s="34"/>
+      <c r="L138" s="34"/>
+      <c r="M138" s="34"/>
+      <c r="N138" s="36"/>
+      <c r="O138" s="36"/>
+    </row>
+    <row r="139" spans="1:15" ht="21">
+      <c r="A139" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="B139" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="C139" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="D139" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E139" s="29">
+        <v>45710</v>
+      </c>
+      <c r="F139" s="28">
+        <v>1</v>
+      </c>
+      <c r="G139" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H139" s="28">
+        <v>1</v>
+      </c>
+      <c r="I139" s="28">
+        <v>2.1</v>
+      </c>
+      <c r="J139" s="30">
+        <f>K139*L139*M139/1000000</f>
+        <v>2.0552999999999998E-2</v>
+      </c>
+      <c r="K139" s="28">
+        <v>39</v>
+      </c>
+      <c r="L139" s="28">
+        <v>31</v>
+      </c>
+      <c r="M139" s="28">
+        <v>17</v>
+      </c>
+      <c r="N139" s="28"/>
+      <c r="O139" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" ht="22.5">
+      <c r="A140" s="64"/>
+      <c r="B140" s="64"/>
+      <c r="C140" s="64"/>
+      <c r="D140" s="64"/>
+      <c r="E140" s="64"/>
+      <c r="F140" s="34">
+        <v>1</v>
+      </c>
+      <c r="G140" s="67"/>
+      <c r="H140" s="34"/>
+      <c r="I140" s="34">
+        <f>SUM(I139:I139)</f>
+        <v>2.1</v>
+      </c>
+      <c r="J140" s="35">
+        <f>SUM(J139:J139)</f>
+        <v>2.0552999999999998E-2</v>
+      </c>
+      <c r="K140" s="34"/>
+      <c r="L140" s="34"/>
+      <c r="M140" s="34"/>
+      <c r="N140" s="36"/>
+      <c r="O140" s="36"/>
+    </row>
+    <row r="141" spans="1:15" ht="21">
+      <c r="A141" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="B141" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="C141" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="D141" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E141" s="29">
+        <v>45710</v>
+      </c>
+      <c r="F141" s="28">
+        <v>1</v>
+      </c>
+      <c r="G141" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H141" s="28">
+        <v>1</v>
+      </c>
+      <c r="I141" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="J141" s="30">
+        <f>K141*L141*M141/1000000</f>
+        <v>1.7441999999999999E-2</v>
+      </c>
+      <c r="K141" s="28">
+        <v>38</v>
+      </c>
+      <c r="L141" s="28">
+        <v>27</v>
+      </c>
+      <c r="M141" s="28">
+        <v>17</v>
+      </c>
+      <c r="N141" s="28"/>
+      <c r="O141" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" ht="22.5">
+      <c r="A142" s="64"/>
+      <c r="B142" s="64"/>
+      <c r="C142" s="64"/>
+      <c r="D142" s="64"/>
+      <c r="E142" s="64"/>
+      <c r="F142" s="34">
+        <v>1</v>
+      </c>
+      <c r="G142" s="67"/>
+      <c r="H142" s="34"/>
+      <c r="I142" s="34">
+        <f>SUM(I141:I141)</f>
+        <v>1.8</v>
+      </c>
+      <c r="J142" s="35">
+        <f>SUM(J141:J141)</f>
+        <v>1.7441999999999999E-2</v>
+      </c>
+      <c r="K142" s="34"/>
+      <c r="L142" s="34"/>
+      <c r="M142" s="34"/>
+      <c r="N142" s="36"/>
+      <c r="O142" s="36"/>
+    </row>
+    <row r="143" spans="1:15" ht="21">
+      <c r="A143" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B143" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="C143" s="37" t="s">
+        <v>435</v>
+      </c>
+      <c r="D143" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="E143" s="120">
+        <v>45712</v>
+      </c>
+      <c r="F143" s="28">
+        <v>1</v>
+      </c>
+      <c r="G143" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H143" s="28">
+        <v>1</v>
+      </c>
+      <c r="I143" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="J143" s="30">
+        <v>1.17E-2</v>
+      </c>
+      <c r="K143" s="28">
+        <v>36</v>
+      </c>
+      <c r="L143" s="28">
+        <v>25</v>
+      </c>
+      <c r="M143" s="28">
+        <v>13</v>
+      </c>
+      <c r="N143" s="28"/>
+      <c r="O143" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" ht="22.5">
+      <c r="A144" s="64"/>
+      <c r="B144" s="64"/>
+      <c r="C144" s="64"/>
+      <c r="D144" s="64"/>
+      <c r="E144" s="64"/>
+      <c r="F144" s="34">
+        <v>1</v>
+      </c>
+      <c r="G144" s="67"/>
+      <c r="H144" s="34"/>
+      <c r="I144" s="34">
+        <f>SUM(I143:I143)</f>
+        <v>0.7</v>
+      </c>
+      <c r="J144" s="35">
+        <f>SUM(J143:J143)</f>
+        <v>1.17E-2</v>
+      </c>
+      <c r="K144" s="34"/>
+      <c r="L144" s="34"/>
+      <c r="M144" s="34"/>
+      <c r="N144" s="36"/>
+      <c r="O144" s="36"/>
+    </row>
+    <row r="145" spans="1:15" ht="21">
+      <c r="A145" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="B145" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="C145" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="D145" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="E145" s="120">
+        <v>45712</v>
+      </c>
+      <c r="F145" s="28">
+        <v>1</v>
+      </c>
+      <c r="G145" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="H145" s="28"/>
+      <c r="I145" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="J145" s="30">
+        <v>9.9749999999999995E-3</v>
+      </c>
+      <c r="K145" s="28">
+        <v>25</v>
+      </c>
+      <c r="L145" s="28">
+        <v>21</v>
+      </c>
+      <c r="M145" s="28">
+        <v>19</v>
+      </c>
+      <c r="N145" s="28"/>
+      <c r="O145" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" ht="22.5">
+      <c r="A146" s="64"/>
+      <c r="B146" s="64"/>
+      <c r="C146" s="64"/>
+      <c r="D146" s="64"/>
+      <c r="E146" s="64"/>
+      <c r="F146" s="34">
+        <v>1</v>
+      </c>
+      <c r="G146" s="67"/>
+      <c r="H146" s="34"/>
+      <c r="I146" s="34">
+        <f>SUM(I145:I145)</f>
+        <v>1.2</v>
+      </c>
+      <c r="J146" s="35">
+        <f>SUM(J145:J145)</f>
+        <v>9.9749999999999995E-3</v>
+      </c>
+      <c r="K146" s="34"/>
+      <c r="L146" s="34"/>
+      <c r="M146" s="34"/>
+      <c r="N146" s="36"/>
+      <c r="O146" s="36"/>
+    </row>
+    <row r="147" spans="1:15" ht="21">
+      <c r="A147" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="B147" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="C147" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="D147" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="E147" s="120">
+        <v>45712</v>
+      </c>
+      <c r="F147" s="28">
+        <v>1</v>
+      </c>
+      <c r="G147" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="H147" s="28">
+        <v>10</v>
+      </c>
+      <c r="I147" s="28">
+        <v>10.1</v>
+      </c>
+      <c r="J147" s="30">
+        <v>3.9269999999999999E-2</v>
+      </c>
+      <c r="K147" s="28">
+        <v>35</v>
+      </c>
+      <c r="L147" s="28">
+        <v>34</v>
+      </c>
+      <c r="M147" s="28">
+        <v>33</v>
+      </c>
+      <c r="N147" s="28"/>
+      <c r="O147" s="28"/>
+    </row>
+    <row r="148" spans="1:15" ht="22.5">
+      <c r="A148" s="64"/>
+      <c r="B148" s="64"/>
+      <c r="C148" s="64"/>
+      <c r="D148" s="64"/>
+      <c r="E148" s="64"/>
+      <c r="F148" s="34">
+        <v>1</v>
+      </c>
+      <c r="G148" s="67"/>
+      <c r="H148" s="34"/>
+      <c r="I148" s="34">
+        <v>10.1</v>
+      </c>
+      <c r="J148" s="35">
+        <v>3.9269999999999999E-2</v>
+      </c>
+      <c r="K148" s="34"/>
+      <c r="L148" s="34"/>
+      <c r="M148" s="34"/>
+      <c r="N148" s="36"/>
+      <c r="O148" s="36"/>
+    </row>
+    <row r="149" spans="1:15" ht="21">
+      <c r="A149" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="B149" s="156" t="s">
+        <v>448</v>
+      </c>
+      <c r="C149" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="D149" s="156" t="s">
+        <v>51</v>
+      </c>
+      <c r="E149" s="159">
+        <v>45713</v>
+      </c>
+      <c r="F149" s="28">
+        <v>1</v>
+      </c>
+      <c r="G149" s="156" t="s">
+        <v>25</v>
+      </c>
+      <c r="H149" s="28"/>
+      <c r="I149" s="28">
+        <v>1.4</v>
+      </c>
+      <c r="J149" s="30">
+        <v>1.3875E-2</v>
+      </c>
+      <c r="K149" s="28">
+        <v>25</v>
+      </c>
+      <c r="L149" s="28">
+        <v>15</v>
+      </c>
+      <c r="M149" s="28">
+        <v>37</v>
+      </c>
+      <c r="N149" s="28"/>
+      <c r="O149" s="156" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="21">
+      <c r="A150" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="B150" s="158"/>
+      <c r="C150" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="D150" s="158"/>
+      <c r="E150" s="160"/>
+      <c r="F150" s="28">
+        <v>2</v>
+      </c>
+      <c r="G150" s="158"/>
+      <c r="H150" s="28"/>
+      <c r="I150" s="28">
+        <v>2</v>
+      </c>
+      <c r="J150" s="30">
+        <v>1.9344E-2</v>
+      </c>
+      <c r="K150" s="28">
+        <v>39</v>
+      </c>
+      <c r="L150" s="28">
+        <v>31</v>
+      </c>
+      <c r="M150" s="28">
+        <v>16</v>
+      </c>
+      <c r="N150" s="28"/>
+      <c r="O150" s="158"/>
+    </row>
+    <row r="151" spans="1:15" ht="22.5">
+      <c r="A151" s="64"/>
+      <c r="B151" s="64"/>
+      <c r="C151" s="64"/>
+      <c r="D151" s="64"/>
+      <c r="E151" s="64"/>
+      <c r="F151" s="34">
+        <v>2</v>
+      </c>
+      <c r="G151" s="67"/>
+      <c r="H151" s="34"/>
+      <c r="I151" s="34">
+        <f>SUM(I149:I150)</f>
+        <v>3.4</v>
+      </c>
+      <c r="J151" s="35">
+        <f>SUM(J149:J150)</f>
+        <v>3.3218999999999999E-2</v>
+      </c>
+      <c r="K151" s="34"/>
+      <c r="L151" s="34"/>
+      <c r="M151" s="34"/>
+      <c r="N151" s="36"/>
+      <c r="O151" s="36"/>
+    </row>
+    <row r="152" spans="1:15" ht="21">
+      <c r="A152" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="B152" s="156" t="s">
+        <v>453</v>
+      </c>
+      <c r="C152" s="156" t="s">
+        <v>454</v>
+      </c>
+      <c r="D152" s="156" t="s">
+        <v>455</v>
+      </c>
+      <c r="E152" s="159">
+        <v>45713</v>
+      </c>
+      <c r="F152" s="28">
+        <v>1</v>
+      </c>
+      <c r="G152" s="156" t="s">
+        <v>25</v>
+      </c>
+      <c r="H152" s="156">
+        <v>120</v>
+      </c>
+      <c r="I152" s="28">
+        <v>20.7</v>
+      </c>
+      <c r="J152" s="30">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="K152" s="28">
+        <v>60</v>
+      </c>
+      <c r="L152" s="28">
+        <v>39</v>
+      </c>
+      <c r="M152" s="28">
+        <v>50</v>
+      </c>
+      <c r="N152" s="28"/>
+      <c r="O152" s="156" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="21">
+      <c r="A153" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="B153" s="157"/>
+      <c r="C153" s="157"/>
+      <c r="D153" s="157"/>
+      <c r="E153" s="124"/>
+      <c r="F153" s="28">
+        <v>2</v>
+      </c>
+      <c r="G153" s="157"/>
+      <c r="H153" s="157"/>
+      <c r="I153" s="28">
+        <v>19.5</v>
+      </c>
+      <c r="J153" s="30">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="K153" s="28">
+        <v>60</v>
+      </c>
+      <c r="L153" s="28">
+        <v>39</v>
+      </c>
+      <c r="M153" s="28">
+        <v>50</v>
+      </c>
+      <c r="N153" s="28"/>
+      <c r="O153" s="157"/>
+    </row>
+    <row r="154" spans="1:15" ht="21">
+      <c r="A154" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="B154" s="157"/>
+      <c r="C154" s="157"/>
+      <c r="D154" s="157"/>
+      <c r="E154" s="124"/>
+      <c r="F154" s="28">
+        <v>3</v>
+      </c>
+      <c r="G154" s="157"/>
+      <c r="H154" s="157"/>
+      <c r="I154" s="28">
+        <v>22</v>
+      </c>
+      <c r="J154" s="30">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="K154" s="28">
+        <v>60</v>
+      </c>
+      <c r="L154" s="28">
+        <v>39</v>
+      </c>
+      <c r="M154" s="28">
+        <v>50</v>
+      </c>
+      <c r="N154" s="28"/>
+      <c r="O154" s="157"/>
+    </row>
+    <row r="155" spans="1:15" ht="21">
+      <c r="A155" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="B155" s="157"/>
+      <c r="C155" s="157"/>
+      <c r="D155" s="157"/>
+      <c r="E155" s="124"/>
+      <c r="F155" s="28">
+        <v>4</v>
+      </c>
+      <c r="G155" s="157"/>
+      <c r="H155" s="157"/>
+      <c r="I155" s="28">
+        <v>21.2</v>
+      </c>
+      <c r="J155" s="30">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="K155" s="28">
+        <v>60</v>
+      </c>
+      <c r="L155" s="28">
+        <v>39</v>
+      </c>
+      <c r="M155" s="28">
+        <v>50</v>
+      </c>
+      <c r="N155" s="28"/>
+      <c r="O155" s="157"/>
+    </row>
+    <row r="156" spans="1:15" ht="21">
+      <c r="A156" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="B156" s="157"/>
+      <c r="C156" s="157"/>
+      <c r="D156" s="157"/>
+      <c r="E156" s="124"/>
+      <c r="F156" s="28">
+        <v>5</v>
+      </c>
+      <c r="G156" s="157"/>
+      <c r="H156" s="157"/>
+      <c r="I156" s="28">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J156" s="30">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="K156" s="28">
+        <v>60</v>
+      </c>
+      <c r="L156" s="28">
+        <v>39</v>
+      </c>
+      <c r="M156" s="28">
+        <v>50</v>
+      </c>
+      <c r="N156" s="28"/>
+      <c r="O156" s="157"/>
+    </row>
+    <row r="157" spans="1:15" ht="21">
+      <c r="A157" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="B157" s="158"/>
+      <c r="C157" s="158"/>
+      <c r="D157" s="158"/>
+      <c r="E157" s="125"/>
+      <c r="F157" s="28">
+        <v>6</v>
+      </c>
+      <c r="G157" s="158"/>
+      <c r="H157" s="158"/>
+      <c r="I157" s="28">
+        <v>20.2</v>
+      </c>
+      <c r="J157" s="30">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="K157" s="28">
+        <v>60</v>
+      </c>
+      <c r="L157" s="28">
+        <v>39</v>
+      </c>
+      <c r="M157" s="28">
+        <v>50</v>
+      </c>
+      <c r="N157" s="28"/>
+      <c r="O157" s="158"/>
+    </row>
+    <row r="158" spans="1:15" ht="22.5">
+      <c r="A158" s="64"/>
+      <c r="B158" s="64"/>
+      <c r="C158" s="64"/>
+      <c r="D158" s="64"/>
+      <c r="E158" s="64"/>
+      <c r="F158" s="34">
+        <v>6</v>
+      </c>
+      <c r="G158" s="34"/>
+      <c r="H158" s="34"/>
+      <c r="I158" s="34">
+        <v>123.2</v>
+      </c>
+      <c r="J158" s="35">
+        <v>0.70200000000000007</v>
+      </c>
+      <c r="K158" s="34"/>
+      <c r="L158" s="34"/>
+      <c r="M158" s="34"/>
+      <c r="N158" s="36"/>
+      <c r="O158" s="121"/>
+    </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="O110:O111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="G103:G106"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="B71:B81"/>
-    <mergeCell ref="C71:C81"/>
-    <mergeCell ref="D71:D81"/>
-    <mergeCell ref="E71:E81"/>
-    <mergeCell ref="G71:G81"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G53:G54"/>
+  <mergeCells count="74">
+    <mergeCell ref="H123:H129"/>
+    <mergeCell ref="O123:O129"/>
+    <mergeCell ref="B123:B129"/>
+    <mergeCell ref="C123:C129"/>
+    <mergeCell ref="D123:D129"/>
+    <mergeCell ref="E123:E129"/>
+    <mergeCell ref="G123:G129"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="G50:G51"/>
     <mergeCell ref="O21:O22"/>
@@ -11565,20 +13147,53 @@
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="D50:D51"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H123:H129"/>
-    <mergeCell ref="O123:O129"/>
-    <mergeCell ref="B123:B129"/>
-    <mergeCell ref="C123:C129"/>
-    <mergeCell ref="D123:D129"/>
-    <mergeCell ref="E123:E129"/>
-    <mergeCell ref="G123:G129"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="B71:B81"/>
+    <mergeCell ref="C71:C81"/>
+    <mergeCell ref="D71:D81"/>
+    <mergeCell ref="E71:E81"/>
+    <mergeCell ref="G71:G81"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="G103:G106"/>
+    <mergeCell ref="O110:O111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="O149:O150"/>
+    <mergeCell ref="H152:H157"/>
+    <mergeCell ref="O152:O157"/>
+    <mergeCell ref="B152:B157"/>
+    <mergeCell ref="C152:C157"/>
+    <mergeCell ref="D152:D157"/>
+    <mergeCell ref="E152:E157"/>
+    <mergeCell ref="G152:G157"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11586,32 +13201,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7700874C-43FE-4C20-8201-C5970C6B69F4}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="37.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
     <col min="11" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
-    <col min="16" max="16" width="17.109375" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.2">
+    <row r="1" spans="1:16" ht="24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11639,7 +13254,7 @@
       <c r="O1" s="7"/>
       <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:16" ht="59.4">
+    <row r="2" spans="1:16" ht="63">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -11670,11 +13285,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="112" t="s">
+      <c r="K2" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -11685,11 +13300,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="33.6">
-      <c r="A3" s="113" t="s">
+    <row r="3" spans="1:16" ht="33.75">
+      <c r="A3" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="113"/>
+      <c r="B3" s="155"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -11705,117 +13320,117 @@
       <c r="O3" s="24"/>
       <c r="P3" s="25"/>
     </row>
-    <row r="5" spans="1:16" ht="39.6">
-      <c r="B5" s="84" t="s">
+    <row r="5" spans="1:16" ht="42">
+      <c r="B5" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="E5" s="85">
+      <c r="E5" s="29">
         <v>45667</v>
       </c>
-      <c r="F5" s="86" t="s">
-        <v>264</v>
-      </c>
-      <c r="G5" s="87" t="s">
+      <c r="F5" s="68" t="s">
+        <v>270</v>
+      </c>
+      <c r="G5" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="H5" s="84">
+      <c r="H5" s="38">
         <f>2*750</f>
         <v>1500</v>
       </c>
-      <c r="I5" s="84">
+      <c r="I5" s="38">
         <f>24*200</f>
         <v>4800</v>
       </c>
-      <c r="J5" s="88">
+      <c r="J5" s="69">
         <f>K5*L5*M5/1000000*200</f>
         <v>8.16</v>
       </c>
-      <c r="K5" s="84">
+      <c r="K5" s="38">
         <v>40</v>
       </c>
-      <c r="L5" s="84">
+      <c r="L5" s="38">
         <v>34</v>
       </c>
-      <c r="M5" s="84">
+      <c r="M5" s="38">
         <v>30</v>
       </c>
       <c r="N5" s="70">
-        <v>45673</v>
+        <v>45671</v>
       </c>
       <c r="O5" s="70">
-        <v>45715</v>
+        <v>45714</v>
       </c>
       <c r="P5" s="38" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="21">
-      <c r="B6" s="111" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="22.5">
+      <c r="B6" s="129" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="89" t="s">
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="G6" s="90"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="92">
+      <c r="G6" s="83"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="81">
         <f>SUM(I5:I5)</f>
         <v>4800</v>
       </c>
-      <c r="J6" s="93">
+      <c r="J6" s="73">
         <f>SUM(J5:J5)</f>
         <v>8.16</v>
       </c>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
       <c r="N6" s="74"/>
       <c r="O6" s="74"/>
       <c r="P6" s="74"/>
     </row>
-    <row r="7" spans="1:16" ht="39.6">
-      <c r="B7" s="38" t="s">
+    <row r="7" spans="1:16" ht="42">
+      <c r="B7" s="84" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38" t="s">
+      <c r="C7" s="84"/>
+      <c r="D7" s="84" t="s">
         <v>263</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="85">
         <v>45667</v>
       </c>
-      <c r="F7" s="68" t="s">
-        <v>268</v>
-      </c>
-      <c r="G7" s="39" t="s">
+      <c r="F7" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="G7" s="87" t="s">
         <v>265</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="84">
         <f>2*750</f>
         <v>1500</v>
       </c>
-      <c r="I7" s="38">
-        <f>24*150</f>
-        <v>3600</v>
-      </c>
-      <c r="J7" s="69">
-        <f>K7*L7*M7/1000000*150</f>
-        <v>6.12</v>
-      </c>
-      <c r="K7" s="38">
+      <c r="I7" s="84">
+        <f>24*200</f>
+        <v>4800</v>
+      </c>
+      <c r="J7" s="88">
+        <f>K7*L7*M7/1000000*200</f>
+        <v>8.16</v>
+      </c>
+      <c r="K7" s="84">
         <v>40</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="84">
         <v>34</v>
       </c>
-      <c r="M7" s="38">
+      <c r="M7" s="84">
         <v>30</v>
       </c>
       <c r="N7" s="70">
@@ -11825,37 +13440,37 @@
         <v>45715</v>
       </c>
       <c r="P7" s="38" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="21">
-      <c r="B8" s="111" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="22.5">
+      <c r="B8" s="129" t="s">
         <v>220</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="71" t="s">
-        <v>239</v>
-      </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72">
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="G8" s="90"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="92">
         <f>SUM(I7:I7)</f>
-        <v>3600</v>
-      </c>
-      <c r="J8" s="73">
+        <v>4800</v>
+      </c>
+      <c r="J8" s="93">
         <f>SUM(J7:J7)</f>
-        <v>6.12</v>
-      </c>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
+        <v>8.16</v>
+      </c>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
       <c r="N8" s="74"/>
       <c r="O8" s="74"/>
       <c r="P8" s="74"/>
     </row>
-    <row r="9" spans="1:16" ht="39.6">
+    <row r="9" spans="1:16" ht="42">
       <c r="B9" s="38" t="s">
         <v>262</v>
       </c>
@@ -11867,7 +13482,7 @@
         <v>45667</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G9" s="39" t="s">
         <v>265</v>
@@ -11877,12 +13492,12 @@
         <v>1500</v>
       </c>
       <c r="I9" s="38">
-        <f>24*200</f>
-        <v>4800</v>
+        <f>24*150</f>
+        <v>3600</v>
       </c>
       <c r="J9" s="69">
-        <f>K9*L9*M9/1000000*200</f>
-        <v>8.16</v>
+        <f>K9*L9*M9/1000000*150</f>
+        <v>6.12</v>
       </c>
       <c r="K9" s="38">
         <v>40</v>
@@ -11894,34 +13509,34 @@
         <v>30</v>
       </c>
       <c r="N9" s="70">
-        <v>45671</v>
+        <v>45673</v>
       </c>
       <c r="O9" s="70">
-        <v>45714</v>
+        <v>45715</v>
       </c>
       <c r="P9" s="38" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="21">
-      <c r="B10" s="111" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="22.5">
+      <c r="B10" s="129" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="131"/>
       <c r="F10" s="71" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="G10" s="83"/>
       <c r="H10" s="72"/>
-      <c r="I10" s="81">
+      <c r="I10" s="72">
         <f>SUM(I9:I9)</f>
-        <v>4800</v>
+        <v>3600</v>
       </c>
       <c r="J10" s="73">
         <f>SUM(J9:J9)</f>
-        <v>8.16</v>
+        <v>6.12</v>
       </c>
       <c r="K10" s="72"/>
       <c r="L10" s="72"/>
@@ -11930,405 +13545,344 @@
       <c r="O10" s="74"/>
       <c r="P10" s="74"/>
     </row>
-    <row r="11" spans="1:16" ht="39.6">
-      <c r="B11" s="84" t="s">
+    <row r="11" spans="1:16" ht="42">
+      <c r="B11" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84" t="s">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="29">
         <v>45667</v>
       </c>
-      <c r="F11" s="86" t="s">
-        <v>264</v>
-      </c>
-      <c r="G11" s="87" t="s">
+      <c r="F11" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="G11" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="38">
         <f>2*750</f>
         <v>1500</v>
       </c>
-      <c r="I11" s="84">
+      <c r="I11" s="38">
         <f>24*200</f>
         <v>4800</v>
       </c>
-      <c r="J11" s="88">
+      <c r="J11" s="69">
         <f>K11*L11*M11/1000000*200</f>
         <v>8.16</v>
       </c>
-      <c r="K11" s="84">
+      <c r="K11" s="38">
         <v>40</v>
       </c>
-      <c r="L11" s="84">
+      <c r="L11" s="38">
         <v>34</v>
       </c>
-      <c r="M11" s="84">
+      <c r="M11" s="38">
         <v>30</v>
       </c>
       <c r="N11" s="70">
-        <v>45673</v>
+        <v>45675</v>
       </c>
       <c r="O11" s="70">
-        <v>45715</v>
+        <v>45716</v>
       </c>
       <c r="P11" s="38" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="21">
-      <c r="B12" s="111" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="22.5">
+      <c r="B12" s="129" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="89" t="s">
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="92">
+      <c r="G12" s="83"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="81">
         <f>SUM(I11:I11)</f>
         <v>4800</v>
       </c>
-      <c r="J12" s="93">
+      <c r="J12" s="73">
         <f>SUM(J11:J11)</f>
         <v>8.16</v>
       </c>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="74"/>
       <c r="O12" s="74"/>
       <c r="P12" s="74"/>
     </row>
-    <row r="13" spans="1:16" ht="39.6">
-      <c r="B13" s="38" t="s">
-        <v>262</v>
+    <row r="13" spans="1:16" ht="42">
+      <c r="B13" s="123" t="s">
+        <v>299</v>
       </c>
       <c r="C13" s="38"/>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="123" t="s">
         <v>263</v>
       </c>
-      <c r="E13" s="29">
-        <v>45667</v>
+      <c r="E13" s="126">
+        <v>45671</v>
       </c>
       <c r="F13" s="68" t="s">
-        <v>268</v>
-      </c>
-      <c r="G13" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="G13" s="111" t="s">
         <v>265</v>
       </c>
-      <c r="H13" s="38">
-        <f>2*750</f>
-        <v>1500</v>
-      </c>
-      <c r="I13" s="38">
-        <f>24*150</f>
-        <v>3600</v>
-      </c>
-      <c r="J13" s="69">
-        <f>K13*L13*M13/1000000*150</f>
+      <c r="H13" s="41">
+        <f>2*185</f>
+        <v>370</v>
+      </c>
+      <c r="I13" s="41">
+        <f>24*186</f>
+        <v>4464</v>
+      </c>
+      <c r="J13" s="101">
+        <f>K13*L13*M13/1000000*185</f>
+        <v>7.5480000000000009</v>
+      </c>
+      <c r="K13" s="41">
+        <v>34</v>
+      </c>
+      <c r="L13" s="41">
+        <v>40</v>
+      </c>
+      <c r="M13" s="41">
+        <v>30</v>
+      </c>
+      <c r="N13" s="70">
+        <v>45680</v>
+      </c>
+      <c r="O13" s="70">
+        <v>45716</v>
+      </c>
+      <c r="P13" s="38" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="21">
+      <c r="B14" s="125"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="68" t="s">
+        <v>301</v>
+      </c>
+      <c r="G14" s="112" t="s">
+        <v>409</v>
+      </c>
+      <c r="H14" s="41">
+        <v>12</v>
+      </c>
+      <c r="I14" s="41">
+        <v>400</v>
+      </c>
+      <c r="J14" s="101">
+        <f>K14*L14*M14/1000000</f>
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="K14" s="41">
+        <v>64</v>
+      </c>
+      <c r="L14" s="41">
+        <v>105</v>
+      </c>
+      <c r="M14" s="41">
+        <v>100</v>
+      </c>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+    </row>
+    <row r="15" spans="1:16" ht="22.5">
+      <c r="B15" s="122" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="71" t="s">
+        <v>301</v>
+      </c>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72">
+        <f>SUM(I13:I14)</f>
+        <v>4864</v>
+      </c>
+      <c r="J15" s="73">
+        <f>SUM(J13:J14)</f>
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+    </row>
+    <row r="16" spans="1:16" ht="21">
+      <c r="B16" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="C16" s="41">
+        <v>18122785217</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="E16" s="42">
+        <v>45710</v>
+      </c>
+      <c r="F16" s="100" t="s">
+        <v>422</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41">
+        <f>24*400</f>
+        <v>9600</v>
+      </c>
+      <c r="J16" s="101">
+        <f>K16*L16*M16/1000000*400</f>
+        <v>16.32</v>
+      </c>
+      <c r="K16" s="41">
+        <v>40</v>
+      </c>
+      <c r="L16" s="41">
+        <v>34</v>
+      </c>
+      <c r="M16" s="41">
+        <v>30</v>
+      </c>
+      <c r="N16" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="O16" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="P16" s="41"/>
+    </row>
+    <row r="17" spans="2:16" ht="22.5">
+      <c r="B17" s="122" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="102" t="s">
+        <v>423</v>
+      </c>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103">
+        <f>SUM(I16:I16)</f>
+        <v>9600</v>
+      </c>
+      <c r="J17" s="104">
+        <f>SUM(J16:J16)</f>
+        <v>16.32</v>
+      </c>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+    </row>
+    <row r="18" spans="2:16" ht="21">
+      <c r="B18" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="E18" s="29">
+        <v>45713</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="H18" s="38">
+        <v>300</v>
+      </c>
+      <c r="I18" s="38">
+        <v>3750</v>
+      </c>
+      <c r="J18" s="69">
         <v>6.12</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K18" s="38">
         <v>40</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L18" s="38">
         <v>34</v>
       </c>
-      <c r="M13" s="38">
+      <c r="M18" s="38">
         <v>30</v>
       </c>
-      <c r="N13" s="70">
-        <v>45673</v>
-      </c>
-      <c r="O13" s="70">
-        <v>45715</v>
-      </c>
-      <c r="P13" s="38" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="21">
-      <c r="B14" s="111" t="s">
+      <c r="N18" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="O18" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="P18" s="38"/>
+    </row>
+    <row r="19" spans="2:16" ht="22.5">
+      <c r="B19" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="71" t="s">
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="G14" s="83"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72">
-        <f>SUM(I13:I13)</f>
-        <v>3600</v>
-      </c>
-      <c r="J14" s="73">
-        <f>SUM(J13:J13)</f>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72">
+        <v>3750</v>
+      </c>
+      <c r="J19" s="73">
         <v>6.12</v>
       </c>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-    </row>
-    <row r="15" spans="1:16" ht="39.6">
-      <c r="B15" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="E15" s="29">
-        <v>45667</v>
-      </c>
-      <c r="F15" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="H15" s="38">
-        <f>2*750</f>
-        <v>1500</v>
-      </c>
-      <c r="I15" s="38">
-        <f>24*200</f>
-        <v>4800</v>
-      </c>
-      <c r="J15" s="69">
-        <f>K15*L15*M15/1000000*200</f>
-        <v>8.16</v>
-      </c>
-      <c r="K15" s="38">
-        <v>40</v>
-      </c>
-      <c r="L15" s="38">
-        <v>34</v>
-      </c>
-      <c r="M15" s="38">
-        <v>30</v>
-      </c>
-      <c r="N15" s="70">
-        <v>45675</v>
-      </c>
-      <c r="O15" s="70"/>
-      <c r="P15" s="38" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="21">
-      <c r="B16" s="111" t="s">
-        <v>220</v>
-      </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="G16" s="83"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="81">
-        <f>SUM(I15:I15)</f>
-        <v>4800</v>
-      </c>
-      <c r="J16" s="73">
-        <f>SUM(J15:J15)</f>
-        <v>8.16</v>
-      </c>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-    </row>
-    <row r="17" spans="2:16" ht="19.8">
-      <c r="B17" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="E17" s="29">
-        <v>45667</v>
-      </c>
-      <c r="F17" s="68" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="H17" s="38">
-        <v>1500</v>
-      </c>
-      <c r="I17" s="38">
-        <v>18000</v>
-      </c>
-      <c r="J17" s="69">
-        <v>30.6</v>
-      </c>
-      <c r="K17" s="38">
-        <v>40</v>
-      </c>
-      <c r="L17" s="38">
-        <v>34</v>
-      </c>
-      <c r="M17" s="38">
-        <v>30</v>
-      </c>
-      <c r="N17" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="O17" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="P17" s="38"/>
-    </row>
-    <row r="18" spans="2:16" ht="21">
-      <c r="B18" s="111" t="s">
-        <v>220</v>
-      </c>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="71" t="s">
-        <v>276</v>
-      </c>
-      <c r="G18" s="83"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="81">
-        <v>18000</v>
-      </c>
-      <c r="J18" s="73">
-        <v>30.6</v>
-      </c>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-    </row>
-    <row r="19" spans="2:16" ht="19.8">
-      <c r="B19" s="124" t="s">
-        <v>301</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="124" t="s">
-        <v>263</v>
-      </c>
-      <c r="E19" s="126">
-        <v>45671</v>
-      </c>
-      <c r="F19" s="68" t="s">
-        <v>302</v>
-      </c>
-      <c r="G19" s="124" t="s">
-        <v>265</v>
-      </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="69">
-        <v>7.7367000000000008</v>
-      </c>
-      <c r="K19" s="38">
-        <v>34</v>
-      </c>
-      <c r="L19" s="38">
-        <v>41</v>
-      </c>
-      <c r="M19" s="38">
-        <v>30</v>
-      </c>
-      <c r="N19" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="O19" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="P19" s="38"/>
-    </row>
-    <row r="20" spans="2:16" ht="19.8">
-      <c r="B20" s="125"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="68" t="s">
-        <v>303</v>
-      </c>
-      <c r="G20" s="125"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="69">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="K20" s="38">
-        <v>64</v>
-      </c>
-      <c r="L20" s="38">
-        <v>105</v>
-      </c>
-      <c r="M20" s="38">
-        <v>100</v>
-      </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-    </row>
-    <row r="21" spans="2:16" ht="21">
-      <c r="B21" s="111" t="s">
-        <v>220</v>
-      </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="71" t="s">
-        <v>303</v>
-      </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72">
-        <v>0</v>
-      </c>
-      <c r="J21" s="73">
-        <v>8.4087000000000014</v>
-      </c>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B12:E12"/>
+  <mergeCells count="12">
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Customer/Cust 2025/Cargo W99 2025.xlsx
+++ b/Customer/Cust 2025/Cargo W99 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Customer\Cust 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89659DC9-9D85-4158-A50D-25A1F2C5D00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7D4F22-3274-4412-82A7-4D71BCED156E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E000C531-AA46-4CF4-8BD7-2185A135A010}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E000C531-AA46-4CF4-8BD7-2185A135A010}"/>
   </bookViews>
   <sheets>
     <sheet name="SEA" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="480">
   <si>
     <t>Hijau barang terkirim, Lunas, beres</t>
   </si>
@@ -3484,6 +3484,65 @@
   </si>
   <si>
     <t>279/W99/INDRA/SEA</t>
+  </si>
+  <si>
+    <t>L59</t>
+  </si>
+  <si>
+    <t>A0035270</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0268122339303</t>
+    </r>
+  </si>
+  <si>
+    <t>玩具 toy</t>
+  </si>
+  <si>
+    <t>L60</t>
+  </si>
+  <si>
+    <t>L61</t>
+  </si>
+  <si>
+    <t>L62</t>
+  </si>
+  <si>
+    <t>L63</t>
+  </si>
+  <si>
+    <t>L64</t>
+  </si>
+  <si>
+    <t>L65</t>
+  </si>
+  <si>
+    <t>L66</t>
   </si>
 </sst>
 </file>
@@ -3758,7 +3817,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4123,115 +4182,160 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4240,50 +4344,14 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4603,9 +4671,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03568550-BD00-482C-9F46-E2F5DB6F38F1}">
   <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87:P88"/>
+      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4685,11 +4753,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="154" t="s">
+      <c r="K2" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -4701,10 +4769,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="155"/>
+      <c r="B3" s="134"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -4766,12 +4834,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.5">
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
       <c r="F6" s="71" t="s">
         <v>221</v>
       </c>
@@ -4791,16 +4859,16 @@
       <c r="P6" s="74"/>
     </row>
     <row r="7" spans="1:16" ht="37.5">
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="135" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="144" t="s">
+      <c r="C7" s="138" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="147" t="s">
+      <c r="D7" s="135" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="151">
+      <c r="E7" s="141">
         <v>45659</v>
       </c>
       <c r="F7" s="75" t="s">
@@ -4812,7 +4880,7 @@
       <c r="H7" s="76">
         <v>1</v>
       </c>
-      <c r="I7" s="147">
+      <c r="I7" s="135">
         <v>255</v>
       </c>
       <c r="J7" s="77">
@@ -4827,21 +4895,21 @@
       <c r="M7" s="76">
         <v>62</v>
       </c>
-      <c r="N7" s="148">
+      <c r="N7" s="144">
         <v>45663</v>
       </c>
-      <c r="O7" s="148">
+      <c r="O7" s="144">
         <v>45705</v>
       </c>
-      <c r="P7" s="147" t="s">
+      <c r="P7" s="135" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="21">
-      <c r="B8" s="145"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="152"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="142"/>
       <c r="F8" s="75" t="s">
         <v>228</v>
       </c>
@@ -4851,7 +4919,7 @@
       <c r="H8" s="76">
         <v>1</v>
       </c>
-      <c r="I8" s="145"/>
+      <c r="I8" s="136"/>
       <c r="J8" s="77">
         <v>0.54978000000000005</v>
       </c>
@@ -4864,15 +4932,15 @@
       <c r="M8" s="76">
         <v>77</v>
       </c>
-      <c r="N8" s="145"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
     </row>
     <row r="9" spans="1:16" ht="37.5">
-      <c r="B9" s="145"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="152"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="142"/>
       <c r="F9" s="75" t="s">
         <v>230</v>
       </c>
@@ -4882,7 +4950,7 @@
       <c r="H9" s="76">
         <v>1</v>
       </c>
-      <c r="I9" s="145"/>
+      <c r="I9" s="136"/>
       <c r="J9" s="77">
         <v>0.51480000000000004</v>
       </c>
@@ -4895,15 +4963,15 @@
       <c r="M9" s="76">
         <v>65</v>
       </c>
-      <c r="N9" s="145"/>
-      <c r="O9" s="145"/>
-      <c r="P9" s="145"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="136"/>
     </row>
     <row r="10" spans="1:16" ht="56.25">
-      <c r="B10" s="146"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="153"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="143"/>
       <c r="F10" s="75" t="s">
         <v>232</v>
       </c>
@@ -4913,7 +4981,7 @@
       <c r="H10" s="76">
         <v>1</v>
       </c>
-      <c r="I10" s="146"/>
+      <c r="I10" s="137"/>
       <c r="J10" s="77">
         <v>7.3800000000000004E-2</v>
       </c>
@@ -4926,17 +4994,17 @@
       <c r="M10" s="76">
         <v>18</v>
       </c>
-      <c r="N10" s="146"/>
-      <c r="O10" s="146"/>
-      <c r="P10" s="146"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="137"/>
+      <c r="P10" s="137"/>
     </row>
     <row r="11" spans="1:16" ht="22.5">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
       <c r="F11" s="71" t="s">
         <v>232</v>
       </c>
@@ -5006,12 +5074,12 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="22.5">
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="71" t="s">
         <v>239</v>
       </c>
@@ -5083,12 +5151,12 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="22.5">
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
       <c r="F15" s="71" t="s">
         <v>242</v>
       </c>
@@ -5157,12 +5225,12 @@
       </c>
     </row>
     <row r="17" spans="2:16" ht="22.5">
-      <c r="B17" s="122" t="s">
+      <c r="B17" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
       <c r="F17" s="71" t="s">
         <v>246</v>
       </c>
@@ -5227,12 +5295,12 @@
       </c>
     </row>
     <row r="19" spans="2:16" ht="22.5">
-      <c r="B19" s="122" t="s">
+      <c r="B19" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
       <c r="F19" s="71" t="s">
         <v>252</v>
       </c>
@@ -5300,12 +5368,12 @@
       </c>
     </row>
     <row r="21" spans="2:16" ht="22.5">
-      <c r="B21" s="122" t="s">
+      <c r="B21" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
       <c r="F21" s="71" t="s">
         <v>255</v>
       </c>
@@ -5374,12 +5442,12 @@
       </c>
     </row>
     <row r="23" spans="2:16" ht="22.5">
-      <c r="B23" s="122" t="s">
+      <c r="B23" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="71" t="s">
         <v>232</v>
       </c>
@@ -5447,12 +5515,12 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="22.5">
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="131"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="132"/>
       <c r="F25" s="71" t="s">
         <v>267</v>
       </c>
@@ -5522,12 +5590,12 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="22.5">
-      <c r="B27" s="129" t="s">
+      <c r="B27" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="131"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="132"/>
       <c r="F27" s="89" t="s">
         <v>267</v>
       </c>
@@ -5597,12 +5665,12 @@
       </c>
     </row>
     <row r="29" spans="2:16" ht="22.5">
-      <c r="B29" s="129" t="s">
+      <c r="B29" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="131"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="132"/>
       <c r="F29" s="71" t="s">
         <v>239</v>
       </c>
@@ -5672,12 +5740,12 @@
       </c>
     </row>
     <row r="31" spans="2:16" ht="22.5">
-      <c r="B31" s="129" t="s">
+      <c r="B31" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="132"/>
       <c r="F31" s="71" t="s">
         <v>267</v>
       </c>
@@ -5699,28 +5767,28 @@
       <c r="P31" s="74"/>
     </row>
     <row r="32" spans="2:16" ht="21">
-      <c r="B32" s="147" t="s">
+      <c r="B32" s="135" t="s">
         <v>275</v>
       </c>
-      <c r="C32" s="144" t="s">
+      <c r="C32" s="138" t="s">
         <v>276</v>
       </c>
-      <c r="D32" s="147" t="s">
+      <c r="D32" s="135" t="s">
         <v>277</v>
       </c>
-      <c r="E32" s="151">
+      <c r="E32" s="141">
         <v>45668</v>
       </c>
       <c r="F32" s="75" t="s">
         <v>278</v>
       </c>
-      <c r="G32" s="144" t="s">
+      <c r="G32" s="138" t="s">
         <v>279</v>
       </c>
       <c r="H32" s="76">
         <v>385</v>
       </c>
-      <c r="I32" s="147">
+      <c r="I32" s="135">
         <v>1451</v>
       </c>
       <c r="J32" s="77">
@@ -5735,29 +5803,29 @@
       <c r="M32" s="76">
         <v>30</v>
       </c>
-      <c r="N32" s="148">
+      <c r="N32" s="144">
         <v>45671</v>
       </c>
-      <c r="O32" s="148">
+      <c r="O32" s="144">
         <v>45714</v>
       </c>
-      <c r="P32" s="147" t="s">
+      <c r="P32" s="135" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="21">
-      <c r="B33" s="145"/>
-      <c r="C33" s="149"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="152"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="139"/>
+      <c r="D33" s="136"/>
+      <c r="E33" s="142"/>
       <c r="F33" s="75" t="s">
         <v>281</v>
       </c>
-      <c r="G33" s="150"/>
+      <c r="G33" s="140"/>
       <c r="H33" s="76">
         <v>36</v>
       </c>
-      <c r="I33" s="145"/>
+      <c r="I33" s="136"/>
       <c r="J33" s="77">
         <v>0.29759999999999998</v>
       </c>
@@ -5770,15 +5838,15 @@
       <c r="M33" s="76">
         <v>20</v>
       </c>
-      <c r="N33" s="145"/>
-      <c r="O33" s="145"/>
-      <c r="P33" s="145"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="136"/>
+      <c r="P33" s="136"/>
     </row>
     <row r="34" spans="2:16" ht="21">
-      <c r="B34" s="145"/>
-      <c r="C34" s="149"/>
-      <c r="D34" s="145"/>
-      <c r="E34" s="152"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="136"/>
+      <c r="E34" s="142"/>
       <c r="F34" s="75" t="s">
         <v>282</v>
       </c>
@@ -5788,7 +5856,7 @@
       <c r="H34" s="76">
         <v>26</v>
       </c>
-      <c r="I34" s="145"/>
+      <c r="I34" s="136"/>
       <c r="J34" s="77">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -5801,15 +5869,15 @@
       <c r="M34" s="76">
         <v>33</v>
       </c>
-      <c r="N34" s="145"/>
-      <c r="O34" s="145"/>
-      <c r="P34" s="145"/>
+      <c r="N34" s="136"/>
+      <c r="O34" s="136"/>
+      <c r="P34" s="136"/>
     </row>
     <row r="35" spans="2:16" ht="21">
-      <c r="B35" s="145"/>
-      <c r="C35" s="149"/>
-      <c r="D35" s="145"/>
-      <c r="E35" s="152"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="139"/>
+      <c r="D35" s="136"/>
+      <c r="E35" s="142"/>
       <c r="F35" s="75" t="s">
         <v>284</v>
       </c>
@@ -5819,7 +5887,7 @@
       <c r="H35" s="76">
         <v>121</v>
       </c>
-      <c r="I35" s="145"/>
+      <c r="I35" s="136"/>
       <c r="J35" s="77">
         <v>3.456E-2</v>
       </c>
@@ -5832,15 +5900,15 @@
       <c r="M35" s="76">
         <v>24</v>
       </c>
-      <c r="N35" s="145"/>
-      <c r="O35" s="145"/>
-      <c r="P35" s="145"/>
+      <c r="N35" s="136"/>
+      <c r="O35" s="136"/>
+      <c r="P35" s="136"/>
     </row>
     <row r="36" spans="2:16" ht="37.5">
-      <c r="B36" s="145"/>
-      <c r="C36" s="149"/>
-      <c r="D36" s="145"/>
-      <c r="E36" s="152"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="136"/>
+      <c r="E36" s="142"/>
       <c r="F36" s="75" t="s">
         <v>286</v>
       </c>
@@ -5850,7 +5918,7 @@
       <c r="H36" s="76">
         <v>24</v>
       </c>
-      <c r="I36" s="145"/>
+      <c r="I36" s="136"/>
       <c r="J36" s="77">
         <v>7.4880000000000002E-2</v>
       </c>
@@ -5863,15 +5931,15 @@
       <c r="M36" s="76">
         <v>15</v>
       </c>
-      <c r="N36" s="145"/>
-      <c r="O36" s="145"/>
-      <c r="P36" s="145"/>
+      <c r="N36" s="136"/>
+      <c r="O36" s="136"/>
+      <c r="P36" s="136"/>
     </row>
     <row r="37" spans="2:16" ht="21">
-      <c r="B37" s="146"/>
-      <c r="C37" s="150"/>
-      <c r="D37" s="146"/>
-      <c r="E37" s="153"/>
+      <c r="B37" s="137"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="143"/>
       <c r="F37" s="75" t="s">
         <v>287</v>
       </c>
@@ -5881,7 +5949,7 @@
       <c r="H37" s="76">
         <v>150</v>
       </c>
-      <c r="I37" s="146"/>
+      <c r="I37" s="137"/>
       <c r="J37" s="77">
         <v>1.512</v>
       </c>
@@ -5894,17 +5962,17 @@
       <c r="M37" s="76">
         <v>30</v>
       </c>
-      <c r="N37" s="146"/>
-      <c r="O37" s="146"/>
-      <c r="P37" s="146"/>
+      <c r="N37" s="137"/>
+      <c r="O37" s="137"/>
+      <c r="P37" s="137"/>
     </row>
     <row r="38" spans="2:16" ht="22.5">
-      <c r="B38" s="122" t="s">
+      <c r="B38" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C38" s="122"/>
-      <c r="D38" s="122"/>
-      <c r="E38" s="122"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
       <c r="F38" s="71" t="s">
         <v>288</v>
       </c>
@@ -5924,28 +5992,28 @@
       <c r="P38" s="79"/>
     </row>
     <row r="39" spans="2:16" ht="21">
-      <c r="B39" s="147" t="s">
+      <c r="B39" s="135" t="s">
         <v>289</v>
       </c>
-      <c r="C39" s="144" t="s">
+      <c r="C39" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="D39" s="147" t="s">
+      <c r="D39" s="135" t="s">
         <v>291</v>
       </c>
-      <c r="E39" s="151">
+      <c r="E39" s="141">
         <v>45668</v>
       </c>
       <c r="F39" s="75" t="s">
         <v>292</v>
       </c>
-      <c r="G39" s="144" t="s">
+      <c r="G39" s="138" t="s">
         <v>293</v>
       </c>
       <c r="H39" s="76">
         <v>300</v>
       </c>
-      <c r="I39" s="147">
+      <c r="I39" s="135">
         <v>680</v>
       </c>
       <c r="J39" s="77">
@@ -5960,29 +6028,29 @@
       <c r="M39" s="76">
         <v>24</v>
       </c>
-      <c r="N39" s="148">
+      <c r="N39" s="144">
         <v>45671</v>
       </c>
-      <c r="O39" s="148">
+      <c r="O39" s="144">
         <v>45714</v>
       </c>
-      <c r="P39" s="147" t="s">
+      <c r="P39" s="135" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="21">
-      <c r="B40" s="145"/>
-      <c r="C40" s="149"/>
-      <c r="D40" s="145"/>
-      <c r="E40" s="152"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="136"/>
+      <c r="E40" s="142"/>
       <c r="F40" s="75" t="s">
         <v>295</v>
       </c>
-      <c r="G40" s="145"/>
+      <c r="G40" s="136"/>
       <c r="H40" s="76">
         <v>80</v>
       </c>
-      <c r="I40" s="145"/>
+      <c r="I40" s="136"/>
       <c r="J40" s="77">
         <v>0.189</v>
       </c>
@@ -5995,23 +6063,23 @@
       <c r="M40" s="76">
         <v>30</v>
       </c>
-      <c r="N40" s="145"/>
-      <c r="O40" s="145"/>
-      <c r="P40" s="145"/>
+      <c r="N40" s="136"/>
+      <c r="O40" s="136"/>
+      <c r="P40" s="136"/>
     </row>
     <row r="41" spans="2:16" ht="21">
-      <c r="B41" s="146"/>
-      <c r="C41" s="150"/>
-      <c r="D41" s="146"/>
-      <c r="E41" s="153"/>
+      <c r="B41" s="137"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="143"/>
       <c r="F41" s="75" t="s">
         <v>296</v>
       </c>
-      <c r="G41" s="146"/>
+      <c r="G41" s="137"/>
       <c r="H41" s="76">
         <v>5100</v>
       </c>
-      <c r="I41" s="146"/>
+      <c r="I41" s="137"/>
       <c r="J41" s="77">
         <v>2.7820800000000001</v>
       </c>
@@ -6024,17 +6092,17 @@
       <c r="M41" s="76">
         <v>28</v>
       </c>
-      <c r="N41" s="146"/>
-      <c r="O41" s="146"/>
-      <c r="P41" s="146"/>
+      <c r="N41" s="137"/>
+      <c r="O41" s="137"/>
+      <c r="P41" s="137"/>
     </row>
     <row r="42" spans="2:16" ht="22.5">
-      <c r="B42" s="122" t="s">
+      <c r="B42" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C42" s="122"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="122"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="127"/>
       <c r="F42" s="71" t="s">
         <v>282</v>
       </c>
@@ -6099,12 +6167,12 @@
       <c r="P43" s="76"/>
     </row>
     <row r="44" spans="2:16" ht="22.5">
-      <c r="B44" s="122" t="s">
+      <c r="B44" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C44" s="122"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="122"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="127"/>
+      <c r="E44" s="127"/>
       <c r="F44" s="71" t="s">
         <v>298</v>
       </c>
@@ -6124,14 +6192,14 @@
       <c r="P44" s="79"/>
     </row>
     <row r="45" spans="2:16" ht="42">
-      <c r="B45" s="123" t="s">
+      <c r="B45" s="122" t="s">
         <v>299</v>
       </c>
       <c r="C45" s="38"/>
-      <c r="D45" s="123" t="s">
+      <c r="D45" s="122" t="s">
         <v>263</v>
       </c>
-      <c r="E45" s="126">
+      <c r="E45" s="145">
         <v>45671</v>
       </c>
       <c r="F45" s="68" t="s">
@@ -6172,10 +6240,10 @@
       </c>
     </row>
     <row r="46" spans="2:16" ht="21">
-      <c r="B46" s="125"/>
+      <c r="B46" s="123"/>
       <c r="C46" s="38"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="128"/>
+      <c r="D46" s="123"/>
+      <c r="E46" s="146"/>
       <c r="F46" s="68" t="s">
         <v>301</v>
       </c>
@@ -6206,12 +6274,12 @@
       <c r="P46" s="38"/>
     </row>
     <row r="47" spans="2:16" ht="22.5">
-      <c r="B47" s="122" t="s">
+      <c r="B47" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C47" s="122"/>
-      <c r="D47" s="122"/>
-      <c r="E47" s="122"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="127"/>
       <c r="F47" s="71" t="s">
         <v>301</v>
       </c>
@@ -6280,12 +6348,12 @@
       </c>
     </row>
     <row r="49" spans="2:16" ht="22.5">
-      <c r="B49" s="122" t="s">
+      <c r="B49" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C49" s="122"/>
-      <c r="D49" s="122"/>
-      <c r="E49" s="122"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="127"/>
       <c r="F49" s="71" t="s">
         <v>225</v>
       </c>
@@ -6353,12 +6421,12 @@
       </c>
     </row>
     <row r="51" spans="2:16" ht="22.5">
-      <c r="B51" s="129" t="s">
+      <c r="B51" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C51" s="130"/>
-      <c r="D51" s="130"/>
-      <c r="E51" s="131"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="132"/>
       <c r="F51" s="71" t="s">
         <v>225</v>
       </c>
@@ -6380,29 +6448,29 @@
       <c r="P51" s="79"/>
     </row>
     <row r="52" spans="2:16" ht="21" customHeight="1">
-      <c r="B52" s="123" t="s">
+      <c r="B52" s="122" t="s">
         <v>310</v>
       </c>
-      <c r="C52" s="123" t="s">
+      <c r="C52" s="122" t="s">
         <v>311</v>
       </c>
-      <c r="D52" s="123" t="s">
+      <c r="D52" s="122" t="s">
         <v>217</v>
       </c>
-      <c r="E52" s="126">
+      <c r="E52" s="145">
         <v>45676</v>
       </c>
       <c r="F52" s="68" t="s">
         <v>312</v>
       </c>
-      <c r="G52" s="123" t="s">
+      <c r="G52" s="122" t="s">
         <v>237</v>
       </c>
       <c r="H52" s="38">
         <f>35*28</f>
         <v>980</v>
       </c>
-      <c r="I52" s="123">
+      <c r="I52" s="122">
         <f>25*52</f>
         <v>1300</v>
       </c>
@@ -6419,30 +6487,30 @@
       <c r="M52" s="38">
         <v>29</v>
       </c>
-      <c r="N52" s="142">
+      <c r="N52" s="128">
         <v>45679</v>
       </c>
-      <c r="O52" s="142">
+      <c r="O52" s="128">
         <v>45716</v>
       </c>
-      <c r="P52" s="123" t="s">
+      <c r="P52" s="122" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="21">
-      <c r="B53" s="125"/>
-      <c r="C53" s="125"/>
-      <c r="D53" s="125"/>
-      <c r="E53" s="128"/>
+      <c r="B53" s="123"/>
+      <c r="C53" s="123"/>
+      <c r="D53" s="123"/>
+      <c r="E53" s="146"/>
       <c r="F53" s="68" t="s">
         <v>313</v>
       </c>
-      <c r="G53" s="125"/>
+      <c r="G53" s="123"/>
       <c r="H53" s="38">
         <f>35*24</f>
         <v>840</v>
       </c>
-      <c r="I53" s="125"/>
+      <c r="I53" s="123"/>
       <c r="J53" s="69">
         <f>K53*L53*M53/1000000*24</f>
         <v>2.3353920000000001</v>
@@ -6456,17 +6524,17 @@
       <c r="M53" s="38">
         <v>36</v>
       </c>
-      <c r="N53" s="143"/>
-      <c r="O53" s="143"/>
-      <c r="P53" s="125"/>
+      <c r="N53" s="147"/>
+      <c r="O53" s="147"/>
+      <c r="P53" s="123"/>
     </row>
     <row r="54" spans="2:16" ht="22.5">
-      <c r="B54" s="129" t="s">
+      <c r="B54" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C54" s="130"/>
-      <c r="D54" s="130"/>
-      <c r="E54" s="131"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="132"/>
       <c r="F54" s="71" t="s">
         <v>314</v>
       </c>
@@ -6488,27 +6556,27 @@
       <c r="P54" s="74"/>
     </row>
     <row r="55" spans="2:16" ht="21" customHeight="1">
-      <c r="B55" s="136" t="s">
+      <c r="B55" s="124" t="s">
         <v>315</v>
       </c>
-      <c r="C55" s="136"/>
-      <c r="D55" s="136" t="s">
+      <c r="C55" s="124"/>
+      <c r="D55" s="124" t="s">
         <v>217</v>
       </c>
-      <c r="E55" s="133">
+      <c r="E55" s="148">
         <v>45677</v>
       </c>
       <c r="F55" s="100" t="s">
         <v>316</v>
       </c>
-      <c r="G55" s="136" t="s">
+      <c r="G55" s="124" t="s">
         <v>237</v>
       </c>
       <c r="H55" s="41">
         <f>50*20+60*32+40</f>
         <v>2960</v>
       </c>
-      <c r="I55" s="136">
+      <c r="I55" s="124">
         <f>25*169</f>
         <v>4225</v>
       </c>
@@ -6525,30 +6593,30 @@
       <c r="M55" s="41">
         <v>40</v>
       </c>
-      <c r="N55" s="139">
+      <c r="N55" s="151">
         <v>45680</v>
       </c>
-      <c r="O55" s="139">
+      <c r="O55" s="151">
         <v>45716</v>
       </c>
-      <c r="P55" s="136" t="s">
+      <c r="P55" s="124" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="56" spans="2:16" ht="21">
-      <c r="B56" s="137"/>
-      <c r="C56" s="137"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="134"/>
+      <c r="B56" s="125"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="125"/>
+      <c r="E56" s="149"/>
       <c r="F56" s="100" t="s">
         <v>317</v>
       </c>
-      <c r="G56" s="137"/>
+      <c r="G56" s="125"/>
       <c r="H56" s="41">
         <f>40*16</f>
         <v>640</v>
       </c>
-      <c r="I56" s="137"/>
+      <c r="I56" s="125"/>
       <c r="J56" s="101">
         <f>K56*L56*M56/1000000*16</f>
         <v>1.66656</v>
@@ -6562,24 +6630,24 @@
       <c r="M56" s="41">
         <v>28</v>
       </c>
-      <c r="N56" s="140"/>
-      <c r="O56" s="140"/>
-      <c r="P56" s="137"/>
+      <c r="N56" s="152"/>
+      <c r="O56" s="152"/>
+      <c r="P56" s="125"/>
     </row>
     <row r="57" spans="2:16" ht="21">
-      <c r="B57" s="138"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="135"/>
+      <c r="B57" s="126"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="126"/>
+      <c r="E57" s="150"/>
       <c r="F57" s="100" t="s">
         <v>414</v>
       </c>
-      <c r="G57" s="138"/>
+      <c r="G57" s="126"/>
       <c r="H57" s="41">
         <f>40*270</f>
         <v>10800</v>
       </c>
-      <c r="I57" s="138"/>
+      <c r="I57" s="126"/>
       <c r="J57" s="101">
         <f>K57*L57*M57/1000000*100</f>
         <v>11.899999999999999</v>
@@ -6593,17 +6661,17 @@
       <c r="M57" s="41">
         <v>70</v>
       </c>
-      <c r="N57" s="141"/>
-      <c r="O57" s="141"/>
-      <c r="P57" s="138"/>
+      <c r="N57" s="153"/>
+      <c r="O57" s="153"/>
+      <c r="P57" s="126"/>
     </row>
     <row r="58" spans="2:16" ht="22.5">
-      <c r="B58" s="129" t="s">
+      <c r="B58" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="130"/>
-      <c r="D58" s="130"/>
-      <c r="E58" s="131"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="131"/>
+      <c r="E58" s="132"/>
       <c r="F58" s="102" t="s">
         <v>415</v>
       </c>
@@ -6673,12 +6741,12 @@
       </c>
     </row>
     <row r="60" spans="2:16" ht="22.5">
-      <c r="B60" s="122" t="s">
+      <c r="B60" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C60" s="122"/>
-      <c r="D60" s="122"/>
-      <c r="E60" s="122"/>
+      <c r="C60" s="127"/>
+      <c r="D60" s="127"/>
+      <c r="E60" s="127"/>
       <c r="F60" s="102" t="s">
         <v>418</v>
       </c>
@@ -6700,28 +6768,28 @@
       <c r="P60" s="63"/>
     </row>
     <row r="61" spans="2:16" ht="21" customHeight="1">
-      <c r="B61" s="123" t="s">
+      <c r="B61" s="122" t="s">
         <v>318</v>
       </c>
-      <c r="C61" s="132" t="s">
+      <c r="C61" s="154" t="s">
         <v>319</v>
       </c>
-      <c r="D61" s="123" t="s">
+      <c r="D61" s="122" t="s">
         <v>320</v>
       </c>
-      <c r="E61" s="126">
+      <c r="E61" s="145">
         <v>45678</v>
       </c>
       <c r="F61" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="G61" s="123" t="s">
+      <c r="G61" s="122" t="s">
         <v>321</v>
       </c>
       <c r="H61" s="38">
         <v>1</v>
       </c>
-      <c r="I61" s="123">
+      <c r="I61" s="122">
         <v>37</v>
       </c>
       <c r="J61" s="69">
@@ -6737,29 +6805,29 @@
       <c r="M61" s="38">
         <v>40</v>
       </c>
-      <c r="N61" s="142">
+      <c r="N61" s="128">
         <v>45681</v>
       </c>
-      <c r="O61" s="142">
+      <c r="O61" s="128">
         <v>45714</v>
       </c>
-      <c r="P61" s="123" t="s">
+      <c r="P61" s="122" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="62" spans="2:16" ht="21">
-      <c r="B62" s="124"/>
-      <c r="C62" s="124"/>
-      <c r="D62" s="124"/>
-      <c r="E62" s="127"/>
+      <c r="B62" s="129"/>
+      <c r="C62" s="129"/>
+      <c r="D62" s="129"/>
+      <c r="E62" s="155"/>
       <c r="F62" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="G62" s="124"/>
+      <c r="G62" s="129"/>
       <c r="H62" s="38">
         <v>10</v>
       </c>
-      <c r="I62" s="124"/>
+      <c r="I62" s="129"/>
       <c r="J62" s="69">
         <f t="shared" si="0"/>
         <v>0.18360000000000001</v>
@@ -6773,23 +6841,23 @@
       <c r="M62" s="38">
         <v>85</v>
       </c>
-      <c r="N62" s="124"/>
-      <c r="O62" s="124"/>
-      <c r="P62" s="124"/>
+      <c r="N62" s="129"/>
+      <c r="O62" s="129"/>
+      <c r="P62" s="129"/>
     </row>
     <row r="63" spans="2:16" ht="21">
-      <c r="B63" s="124"/>
-      <c r="C63" s="124"/>
-      <c r="D63" s="124"/>
-      <c r="E63" s="127"/>
+      <c r="B63" s="129"/>
+      <c r="C63" s="129"/>
+      <c r="D63" s="129"/>
+      <c r="E63" s="155"/>
       <c r="F63" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="G63" s="124"/>
+      <c r="G63" s="129"/>
       <c r="H63" s="38">
         <v>10</v>
       </c>
-      <c r="I63" s="124"/>
+      <c r="I63" s="129"/>
       <c r="J63" s="69">
         <f t="shared" si="0"/>
         <v>0.18240999999999999</v>
@@ -6803,23 +6871,23 @@
       <c r="M63" s="38">
         <v>37</v>
       </c>
-      <c r="N63" s="124"/>
-      <c r="O63" s="124"/>
-      <c r="P63" s="124"/>
+      <c r="N63" s="129"/>
+      <c r="O63" s="129"/>
+      <c r="P63" s="129"/>
     </row>
     <row r="64" spans="2:16" ht="21">
-      <c r="B64" s="125"/>
-      <c r="C64" s="125"/>
-      <c r="D64" s="125"/>
-      <c r="E64" s="128"/>
+      <c r="B64" s="123"/>
+      <c r="C64" s="123"/>
+      <c r="D64" s="123"/>
+      <c r="E64" s="146"/>
       <c r="F64" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="G64" s="125"/>
+      <c r="G64" s="123"/>
       <c r="H64" s="38">
         <v>2</v>
       </c>
-      <c r="I64" s="125"/>
+      <c r="I64" s="123"/>
       <c r="J64" s="69">
         <f t="shared" si="0"/>
         <v>4.9919999999999999E-2</v>
@@ -6833,33 +6901,33 @@
       <c r="M64" s="38">
         <v>20</v>
       </c>
-      <c r="N64" s="124"/>
-      <c r="O64" s="124"/>
-      <c r="P64" s="124"/>
+      <c r="N64" s="129"/>
+      <c r="O64" s="129"/>
+      <c r="P64" s="129"/>
     </row>
     <row r="65" spans="2:16" ht="21">
-      <c r="B65" s="123" t="s">
+      <c r="B65" s="122" t="s">
         <v>322</v>
       </c>
       <c r="C65" s="39" t="s">
         <v>323</v>
       </c>
-      <c r="D65" s="123" t="s">
+      <c r="D65" s="122" t="s">
         <v>320</v>
       </c>
-      <c r="E65" s="126">
+      <c r="E65" s="145">
         <v>45678</v>
       </c>
       <c r="F65" s="68" t="s">
         <v>324</v>
       </c>
-      <c r="G65" s="123" t="s">
+      <c r="G65" s="122" t="s">
         <v>321</v>
       </c>
       <c r="H65" s="38">
         <v>3</v>
       </c>
-      <c r="I65" s="123">
+      <c r="I65" s="122">
         <v>20</v>
       </c>
       <c r="J65" s="69">
@@ -6875,25 +6943,25 @@
       <c r="M65" s="38">
         <v>28</v>
       </c>
-      <c r="N65" s="124"/>
-      <c r="O65" s="124"/>
-      <c r="P65" s="124"/>
+      <c r="N65" s="129"/>
+      <c r="O65" s="129"/>
+      <c r="P65" s="129"/>
     </row>
     <row r="66" spans="2:16" ht="21">
-      <c r="B66" s="124"/>
+      <c r="B66" s="129"/>
       <c r="C66" s="38">
         <v>2660</v>
       </c>
-      <c r="D66" s="124"/>
-      <c r="E66" s="127"/>
+      <c r="D66" s="129"/>
+      <c r="E66" s="155"/>
       <c r="F66" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="G66" s="124"/>
+      <c r="G66" s="129"/>
       <c r="H66" s="38">
         <v>10</v>
       </c>
-      <c r="I66" s="124"/>
+      <c r="I66" s="129"/>
       <c r="J66" s="69">
         <f t="shared" si="0"/>
         <v>4.2335999999999999E-2</v>
@@ -6907,25 +6975,25 @@
       <c r="M66" s="38">
         <v>28</v>
       </c>
-      <c r="N66" s="124"/>
-      <c r="O66" s="124"/>
-      <c r="P66" s="124"/>
+      <c r="N66" s="129"/>
+      <c r="O66" s="129"/>
+      <c r="P66" s="129"/>
     </row>
     <row r="67" spans="2:16" ht="21">
-      <c r="B67" s="125"/>
+      <c r="B67" s="123"/>
       <c r="C67" s="38">
         <v>2461</v>
       </c>
-      <c r="D67" s="125"/>
-      <c r="E67" s="128"/>
+      <c r="D67" s="123"/>
+      <c r="E67" s="146"/>
       <c r="F67" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="G67" s="125"/>
+      <c r="G67" s="123"/>
       <c r="H67" s="38">
         <v>130</v>
       </c>
-      <c r="I67" s="125"/>
+      <c r="I67" s="123"/>
       <c r="J67" s="69">
         <f t="shared" si="0"/>
         <v>0.1176</v>
@@ -6939,17 +7007,17 @@
       <c r="M67" s="38">
         <v>56</v>
       </c>
-      <c r="N67" s="125"/>
-      <c r="O67" s="125"/>
-      <c r="P67" s="125"/>
+      <c r="N67" s="123"/>
+      <c r="O67" s="123"/>
+      <c r="P67" s="123"/>
     </row>
     <row r="68" spans="2:16" ht="22.5">
-      <c r="B68" s="122" t="s">
+      <c r="B68" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C68" s="122"/>
-      <c r="D68" s="122"/>
-      <c r="E68" s="122"/>
+      <c r="C68" s="127"/>
+      <c r="D68" s="127"/>
+      <c r="E68" s="127"/>
       <c r="F68" s="71" t="s">
         <v>326</v>
       </c>
@@ -7018,12 +7086,12 @@
       </c>
     </row>
     <row r="70" spans="2:16" ht="22.5">
-      <c r="B70" s="122" t="s">
+      <c r="B70" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C70" s="122"/>
-      <c r="D70" s="122"/>
-      <c r="E70" s="122"/>
+      <c r="C70" s="127"/>
+      <c r="D70" s="127"/>
+      <c r="E70" s="127"/>
       <c r="F70" s="102" t="s">
         <v>228</v>
       </c>
@@ -7084,12 +7152,12 @@
       </c>
     </row>
     <row r="72" spans="2:16" ht="22.5">
-      <c r="B72" s="122" t="s">
+      <c r="B72" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C72" s="122"/>
-      <c r="D72" s="122"/>
-      <c r="E72" s="122"/>
+      <c r="C72" s="127"/>
+      <c r="D72" s="127"/>
+      <c r="E72" s="127"/>
       <c r="F72" s="102" t="s">
         <v>225</v>
       </c>
@@ -7158,12 +7226,12 @@
       </c>
     </row>
     <row r="74" spans="2:16" ht="22.5">
-      <c r="B74" s="122" t="s">
+      <c r="B74" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="122"/>
-      <c r="D74" s="122"/>
-      <c r="E74" s="122"/>
+      <c r="C74" s="127"/>
+      <c r="D74" s="127"/>
+      <c r="E74" s="127"/>
       <c r="F74" s="102" t="s">
         <v>368</v>
       </c>
@@ -7224,12 +7292,12 @@
       <c r="P75" s="41"/>
     </row>
     <row r="76" spans="2:16" ht="22.5">
-      <c r="B76" s="122" t="s">
+      <c r="B76" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C76" s="122"/>
-      <c r="D76" s="122"/>
-      <c r="E76" s="122"/>
+      <c r="C76" s="127"/>
+      <c r="D76" s="127"/>
+      <c r="E76" s="127"/>
       <c r="F76" s="102" t="s">
         <v>373</v>
       </c>
@@ -7294,12 +7362,12 @@
       <c r="P77" s="41"/>
     </row>
     <row r="78" spans="2:16" ht="22.5">
-      <c r="B78" s="122" t="s">
+      <c r="B78" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C78" s="122"/>
-      <c r="D78" s="122"/>
-      <c r="E78" s="122"/>
+      <c r="C78" s="127"/>
+      <c r="D78" s="127"/>
+      <c r="E78" s="127"/>
       <c r="F78" s="102" t="s">
         <v>423</v>
       </c>
@@ -7368,12 +7436,12 @@
       </c>
     </row>
     <row r="80" spans="2:16" ht="22.5">
-      <c r="B80" s="122" t="s">
+      <c r="B80" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C80" s="122"/>
-      <c r="D80" s="122"/>
-      <c r="E80" s="122"/>
+      <c r="C80" s="127"/>
+      <c r="D80" s="127"/>
+      <c r="E80" s="127"/>
       <c r="F80" s="102" t="s">
         <v>427</v>
       </c>
@@ -7436,12 +7504,12 @@
       </c>
     </row>
     <row r="82" spans="2:16" ht="22.5">
-      <c r="B82" s="122" t="s">
+      <c r="B82" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C82" s="122"/>
-      <c r="D82" s="122"/>
-      <c r="E82" s="122"/>
+      <c r="C82" s="127"/>
+      <c r="D82" s="127"/>
+      <c r="E82" s="127"/>
       <c r="F82" s="102" t="s">
         <v>433</v>
       </c>
@@ -7506,12 +7574,12 @@
       </c>
     </row>
     <row r="84" spans="2:16" ht="22.5">
-      <c r="B84" s="122" t="s">
+      <c r="B84" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C84" s="122"/>
-      <c r="D84" s="122"/>
-      <c r="E84" s="122"/>
+      <c r="C84" s="127"/>
+      <c r="D84" s="127"/>
+      <c r="E84" s="127"/>
       <c r="F84" s="71" t="s">
         <v>230</v>
       </c>
@@ -7578,12 +7646,12 @@
       </c>
     </row>
     <row r="86" spans="2:16" ht="22.5">
-      <c r="B86" s="122" t="s">
+      <c r="B86" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C86" s="122"/>
-      <c r="D86" s="122"/>
-      <c r="E86" s="122"/>
+      <c r="C86" s="127"/>
+      <c r="D86" s="127"/>
+      <c r="E86" s="127"/>
       <c r="F86" s="71" t="s">
         <v>368</v>
       </c>
@@ -7646,12 +7714,12 @@
       <c r="P87" s="38"/>
     </row>
     <row r="88" spans="2:16" ht="22.5">
-      <c r="B88" s="122" t="s">
+      <c r="B88" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C88" s="122"/>
-      <c r="D88" s="122"/>
-      <c r="E88" s="122"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
       <c r="F88" s="71" t="s">
         <v>239</v>
       </c>
@@ -7672,6 +7740,85 @@
     </row>
   </sheetData>
   <mergeCells count="95">
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I37"/>
+    <mergeCell ref="N32:N37"/>
+    <mergeCell ref="O32:O37"/>
+    <mergeCell ref="P32:P37"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="I7:I10"/>
     <mergeCell ref="P52:P53"/>
     <mergeCell ref="P55:P57"/>
     <mergeCell ref="B60:E60"/>
@@ -7683,90 +7830,11 @@
     <mergeCell ref="B55:B57"/>
     <mergeCell ref="C55:C57"/>
     <mergeCell ref="D55:D57"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="E32:E37"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I37"/>
-    <mergeCell ref="N32:N37"/>
-    <mergeCell ref="O32:O37"/>
-    <mergeCell ref="P32:P37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="O39:O41"/>
-    <mergeCell ref="P39:P41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="G52:G53"/>
     <mergeCell ref="E55:E57"/>
     <mergeCell ref="G55:G57"/>
     <mergeCell ref="I55:I57"/>
     <mergeCell ref="N55:N57"/>
     <mergeCell ref="O55:O57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="I61:I64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B76:E76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7774,11 +7842,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DD94FD-D993-429D-A766-D707FAC76EEB}">
-  <dimension ref="A1:P158"/>
+  <dimension ref="A1:P167"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A143" sqref="A143"/>
+      <pane ySplit="3" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B159" sqref="B159:B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7858,11 +7926,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="154" t="s">
+      <c r="K2" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -7874,10 +7942,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="173"/>
+      <c r="B3" s="162"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -8453,25 +8521,25 @@
       <c r="A21" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="156" t="s">
+      <c r="B21" s="163" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="156" t="s">
+      <c r="D21" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="126">
+      <c r="E21" s="145">
         <v>45661</v>
       </c>
       <c r="F21" s="28">
         <v>1</v>
       </c>
-      <c r="G21" s="156" t="s">
+      <c r="G21" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="156">
+      <c r="H21" s="163">
         <v>2</v>
       </c>
       <c r="I21" s="28">
@@ -8490,7 +8558,7 @@
         <v>13</v>
       </c>
       <c r="N21" s="28"/>
-      <c r="O21" s="156" t="s">
+      <c r="O21" s="163" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8498,17 +8566,17 @@
       <c r="A22" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="158"/>
+      <c r="B22" s="164"/>
       <c r="C22" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="158"/>
-      <c r="E22" s="128"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="146"/>
       <c r="F22" s="28">
         <v>2</v>
       </c>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
       <c r="I22" s="28">
         <v>1.1000000000000001</v>
       </c>
@@ -8525,7 +8593,7 @@
         <v>13</v>
       </c>
       <c r="N22" s="28"/>
-      <c r="O22" s="158"/>
+      <c r="O22" s="164"/>
     </row>
     <row r="23" spans="1:15" ht="22.5">
       <c r="A23" s="32"/>
@@ -9110,25 +9178,25 @@
       <c r="A40" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="156" t="s">
+      <c r="B40" s="163" t="s">
         <v>89</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="156" t="s">
+      <c r="D40" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="126">
+      <c r="E40" s="145">
         <v>45664</v>
       </c>
       <c r="F40" s="28">
         <v>1</v>
       </c>
-      <c r="G40" s="156" t="s">
+      <c r="G40" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="156">
+      <c r="H40" s="163">
         <v>3</v>
       </c>
       <c r="I40" s="28">
@@ -9147,7 +9215,7 @@
         <v>20</v>
       </c>
       <c r="N40" s="28"/>
-      <c r="O40" s="156" t="s">
+      <c r="O40" s="163" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9155,17 +9223,17 @@
       <c r="A41" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="157"/>
+      <c r="B41" s="165"/>
       <c r="C41" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="157"/>
-      <c r="E41" s="127"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="155"/>
       <c r="F41" s="28">
         <v>2</v>
       </c>
-      <c r="G41" s="157"/>
-      <c r="H41" s="157"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="165"/>
       <c r="I41" s="28">
         <v>1.4</v>
       </c>
@@ -9182,23 +9250,23 @@
         <v>20</v>
       </c>
       <c r="N41" s="28"/>
-      <c r="O41" s="157"/>
+      <c r="O41" s="165"/>
     </row>
     <row r="42" spans="1:15" ht="21">
       <c r="A42" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="158"/>
+      <c r="B42" s="164"/>
       <c r="C42" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="158"/>
-      <c r="E42" s="128"/>
+      <c r="D42" s="164"/>
+      <c r="E42" s="146"/>
       <c r="F42" s="28">
         <v>3</v>
       </c>
-      <c r="G42" s="158"/>
-      <c r="H42" s="158"/>
+      <c r="G42" s="164"/>
+      <c r="H42" s="164"/>
       <c r="I42" s="28">
         <v>2</v>
       </c>
@@ -9215,7 +9283,7 @@
         <v>20</v>
       </c>
       <c r="N42" s="28"/>
-      <c r="O42" s="158"/>
+      <c r="O42" s="164"/>
     </row>
     <row r="43" spans="1:15" ht="22.5">
       <c r="A43" s="32"/>
@@ -9458,42 +9526,42 @@
       <c r="A50" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="136" t="s">
+      <c r="B50" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="136" t="s">
+      <c r="C50" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="136" t="s">
+      <c r="D50" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="133">
+      <c r="E50" s="148">
         <v>45666</v>
       </c>
       <c r="F50" s="41">
         <v>1</v>
       </c>
-      <c r="G50" s="136" t="s">
+      <c r="G50" s="124" t="s">
         <v>25</v>
       </c>
       <c r="H50" s="41"/>
-      <c r="I50" s="136">
+      <c r="I50" s="124">
         <v>10.199999999999999</v>
       </c>
-      <c r="J50" s="171">
+      <c r="J50" s="166">
         <v>0.10335</v>
       </c>
-      <c r="K50" s="136">
+      <c r="K50" s="124">
         <v>53</v>
       </c>
-      <c r="L50" s="136">
+      <c r="L50" s="124">
         <v>39</v>
       </c>
-      <c r="M50" s="136">
+      <c r="M50" s="124">
         <v>50</v>
       </c>
       <c r="N50" s="41"/>
-      <c r="O50" s="136" t="s">
+      <c r="O50" s="124" t="s">
         <v>109</v>
       </c>
     </row>
@@ -9501,22 +9569,22 @@
       <c r="A51" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="138"/>
-      <c r="C51" s="138"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="135"/>
+      <c r="B51" s="126"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="150"/>
       <c r="F51" s="41">
         <v>2</v>
       </c>
-      <c r="G51" s="138"/>
+      <c r="G51" s="126"/>
       <c r="H51" s="41"/>
-      <c r="I51" s="138"/>
-      <c r="J51" s="172"/>
-      <c r="K51" s="138"/>
-      <c r="L51" s="138"/>
-      <c r="M51" s="138"/>
+      <c r="I51" s="126"/>
+      <c r="J51" s="167"/>
+      <c r="K51" s="126"/>
+      <c r="L51" s="126"/>
+      <c r="M51" s="126"/>
       <c r="N51" s="41"/>
-      <c r="O51" s="138"/>
+      <c r="O51" s="126"/>
     </row>
     <row r="52" spans="1:15" ht="22.5">
       <c r="A52" s="32"/>
@@ -9547,25 +9615,25 @@
       <c r="A53" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="167" t="s">
+      <c r="B53" s="156" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="167" t="s">
+      <c r="C53" s="156" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="167" t="s">
+      <c r="D53" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="169">
+      <c r="E53" s="159">
         <v>45668</v>
       </c>
       <c r="F53" s="44">
         <v>1</v>
       </c>
-      <c r="G53" s="144" t="s">
+      <c r="G53" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="H53" s="167">
+      <c r="H53" s="156">
         <v>1676</v>
       </c>
       <c r="I53" s="44">
@@ -9585,7 +9653,7 @@
         <v>43</v>
       </c>
       <c r="N53" s="44"/>
-      <c r="O53" s="167" t="s">
+      <c r="O53" s="156" t="s">
         <v>115</v>
       </c>
     </row>
@@ -9593,15 +9661,15 @@
       <c r="A54" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="168"/>
-      <c r="C54" s="168"/>
-      <c r="D54" s="168"/>
-      <c r="E54" s="170"/>
+      <c r="B54" s="158"/>
+      <c r="C54" s="158"/>
+      <c r="D54" s="158"/>
+      <c r="E54" s="161"/>
       <c r="F54" s="44">
         <v>2</v>
       </c>
-      <c r="G54" s="150"/>
-      <c r="H54" s="168"/>
+      <c r="G54" s="140"/>
+      <c r="H54" s="158"/>
       <c r="I54" s="44">
         <v>16.7</v>
       </c>
@@ -9619,7 +9687,7 @@
         <v>30</v>
       </c>
       <c r="N54" s="44"/>
-      <c r="O54" s="168"/>
+      <c r="O54" s="158"/>
     </row>
     <row r="55" spans="1:15" ht="22.5">
       <c r="A55" s="32"/>
@@ -9650,25 +9718,25 @@
       <c r="A56" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="167" t="s">
+      <c r="B56" s="156" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="167" t="s">
+      <c r="C56" s="156" t="s">
         <v>119</v>
       </c>
-      <c r="D56" s="167" t="s">
+      <c r="D56" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="E56" s="169">
+      <c r="E56" s="159">
         <v>45670</v>
       </c>
       <c r="F56" s="44">
         <v>1</v>
       </c>
-      <c r="G56" s="144" t="s">
+      <c r="G56" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="H56" s="167">
+      <c r="H56" s="156">
         <v>145</v>
       </c>
       <c r="I56" s="44">
@@ -9688,7 +9756,7 @@
         <v>23</v>
       </c>
       <c r="N56" s="52"/>
-      <c r="O56" s="167" t="s">
+      <c r="O56" s="156" t="s">
         <v>121</v>
       </c>
     </row>
@@ -9696,15 +9764,15 @@
       <c r="A57" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="168"/>
-      <c r="C57" s="168"/>
-      <c r="D57" s="168"/>
-      <c r="E57" s="170"/>
+      <c r="B57" s="158"/>
+      <c r="C57" s="158"/>
+      <c r="D57" s="158"/>
+      <c r="E57" s="161"/>
       <c r="F57" s="44">
         <v>2</v>
       </c>
-      <c r="G57" s="150"/>
-      <c r="H57" s="168"/>
+      <c r="G57" s="140"/>
+      <c r="H57" s="158"/>
       <c r="I57" s="44">
         <v>13.7</v>
       </c>
@@ -9722,7 +9790,7 @@
         <v>49</v>
       </c>
       <c r="N57" s="44"/>
-      <c r="O57" s="168"/>
+      <c r="O57" s="158"/>
     </row>
     <row r="58" spans="1:15" ht="22.5">
       <c r="A58" s="32"/>
@@ -10159,20 +10227,20 @@
       <c r="A71" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="B71" s="163" t="s">
+      <c r="B71" s="168" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="163"/>
-      <c r="D71" s="163" t="s">
+      <c r="C71" s="168"/>
+      <c r="D71" s="168" t="s">
         <v>156</v>
       </c>
-      <c r="E71" s="133">
+      <c r="E71" s="148">
         <v>45673</v>
       </c>
       <c r="F71" s="53">
         <v>1</v>
       </c>
-      <c r="G71" s="163" t="s">
+      <c r="G71" s="168" t="s">
         <v>157</v>
       </c>
       <c r="H71" s="53">
@@ -10201,14 +10269,14 @@
       <c r="A72" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="164"/>
-      <c r="C72" s="164"/>
-      <c r="D72" s="164"/>
-      <c r="E72" s="134"/>
+      <c r="B72" s="169"/>
+      <c r="C72" s="169"/>
+      <c r="D72" s="169"/>
+      <c r="E72" s="149"/>
       <c r="F72" s="53">
         <v>2</v>
       </c>
-      <c r="G72" s="164"/>
+      <c r="G72" s="169"/>
       <c r="H72" s="53">
         <v>240</v>
       </c>
@@ -10235,14 +10303,14 @@
       <c r="A73" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="B73" s="164"/>
-      <c r="C73" s="164"/>
-      <c r="D73" s="164"/>
-      <c r="E73" s="134"/>
+      <c r="B73" s="169"/>
+      <c r="C73" s="169"/>
+      <c r="D73" s="169"/>
+      <c r="E73" s="149"/>
       <c r="F73" s="53">
         <v>3</v>
       </c>
-      <c r="G73" s="164"/>
+      <c r="G73" s="169"/>
       <c r="H73" s="53">
         <v>300</v>
       </c>
@@ -10269,14 +10337,14 @@
       <c r="A74" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="B74" s="164"/>
-      <c r="C74" s="164"/>
-      <c r="D74" s="164"/>
-      <c r="E74" s="134"/>
+      <c r="B74" s="169"/>
+      <c r="C74" s="169"/>
+      <c r="D74" s="169"/>
+      <c r="E74" s="149"/>
       <c r="F74" s="53">
         <v>4</v>
       </c>
-      <c r="G74" s="164"/>
+      <c r="G74" s="169"/>
       <c r="H74" s="53">
         <v>230</v>
       </c>
@@ -10303,14 +10371,14 @@
       <c r="A75" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="B75" s="164"/>
-      <c r="C75" s="164"/>
-      <c r="D75" s="164"/>
-      <c r="E75" s="134"/>
+      <c r="B75" s="169"/>
+      <c r="C75" s="169"/>
+      <c r="D75" s="169"/>
+      <c r="E75" s="149"/>
       <c r="F75" s="53">
         <v>5</v>
       </c>
-      <c r="G75" s="164"/>
+      <c r="G75" s="169"/>
       <c r="H75" s="53">
         <v>220</v>
       </c>
@@ -10337,14 +10405,14 @@
       <c r="A76" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B76" s="164"/>
-      <c r="C76" s="164"/>
-      <c r="D76" s="164"/>
-      <c r="E76" s="134"/>
+      <c r="B76" s="169"/>
+      <c r="C76" s="169"/>
+      <c r="D76" s="169"/>
+      <c r="E76" s="149"/>
       <c r="F76" s="53">
         <v>6</v>
       </c>
-      <c r="G76" s="164"/>
+      <c r="G76" s="169"/>
       <c r="H76" s="53">
         <v>200</v>
       </c>
@@ -10371,14 +10439,14 @@
       <c r="A77" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B77" s="164"/>
-      <c r="C77" s="164"/>
-      <c r="D77" s="164"/>
-      <c r="E77" s="134"/>
+      <c r="B77" s="169"/>
+      <c r="C77" s="169"/>
+      <c r="D77" s="169"/>
+      <c r="E77" s="149"/>
       <c r="F77" s="53">
         <v>7</v>
       </c>
-      <c r="G77" s="164"/>
+      <c r="G77" s="169"/>
       <c r="H77" s="53">
         <v>190</v>
       </c>
@@ -10405,14 +10473,14 @@
       <c r="A78" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="164"/>
-      <c r="C78" s="164"/>
-      <c r="D78" s="164"/>
-      <c r="E78" s="134"/>
+      <c r="B78" s="169"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="169"/>
+      <c r="E78" s="149"/>
       <c r="F78" s="53">
         <v>8</v>
       </c>
-      <c r="G78" s="164"/>
+      <c r="G78" s="169"/>
       <c r="H78" s="53">
         <v>200</v>
       </c>
@@ -10439,14 +10507,14 @@
       <c r="A79" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="B79" s="164"/>
-      <c r="C79" s="164"/>
-      <c r="D79" s="164"/>
-      <c r="E79" s="134"/>
+      <c r="B79" s="169"/>
+      <c r="C79" s="169"/>
+      <c r="D79" s="169"/>
+      <c r="E79" s="149"/>
       <c r="F79" s="53">
         <v>9</v>
       </c>
-      <c r="G79" s="164"/>
+      <c r="G79" s="169"/>
       <c r="H79" s="53">
         <v>200</v>
       </c>
@@ -10473,14 +10541,14 @@
       <c r="A80" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="B80" s="164"/>
-      <c r="C80" s="164"/>
-      <c r="D80" s="164"/>
-      <c r="E80" s="134"/>
+      <c r="B80" s="169"/>
+      <c r="C80" s="169"/>
+      <c r="D80" s="169"/>
+      <c r="E80" s="149"/>
       <c r="F80" s="53">
         <v>10</v>
       </c>
-      <c r="G80" s="164"/>
+      <c r="G80" s="169"/>
       <c r="H80" s="53">
         <v>200</v>
       </c>
@@ -10507,14 +10575,14 @@
       <c r="A81" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="B81" s="165"/>
-      <c r="C81" s="165"/>
-      <c r="D81" s="165"/>
-      <c r="E81" s="135"/>
+      <c r="B81" s="170"/>
+      <c r="C81" s="170"/>
+      <c r="D81" s="170"/>
+      <c r="E81" s="150"/>
       <c r="F81" s="53">
         <v>11</v>
       </c>
-      <c r="G81" s="165"/>
+      <c r="G81" s="170"/>
       <c r="H81" s="53">
         <v>200</v>
       </c>
@@ -11241,22 +11309,22 @@
       <c r="A103" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="B103" s="163" t="s">
+      <c r="B103" s="168" t="s">
         <v>209</v>
       </c>
-      <c r="C103" s="163" t="s">
+      <c r="C103" s="168" t="s">
         <v>210</v>
       </c>
-      <c r="D103" s="163" t="s">
+      <c r="D103" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="E103" s="133">
+      <c r="E103" s="148">
         <v>45680</v>
       </c>
       <c r="F103" s="53">
         <v>1</v>
       </c>
-      <c r="G103" s="166" t="s">
+      <c r="G103" s="171" t="s">
         <v>211</v>
       </c>
       <c r="H103" s="53"/>
@@ -11283,14 +11351,14 @@
       <c r="A104" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="B104" s="164"/>
-      <c r="C104" s="164"/>
-      <c r="D104" s="164"/>
-      <c r="E104" s="134"/>
+      <c r="B104" s="169"/>
+      <c r="C104" s="169"/>
+      <c r="D104" s="169"/>
+      <c r="E104" s="149"/>
       <c r="F104" s="53">
         <v>2</v>
       </c>
-      <c r="G104" s="164"/>
+      <c r="G104" s="169"/>
       <c r="H104" s="53"/>
       <c r="I104" s="53">
         <v>9.1</v>
@@ -11315,14 +11383,14 @@
       <c r="A105" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="B105" s="164"/>
-      <c r="C105" s="164"/>
-      <c r="D105" s="164"/>
-      <c r="E105" s="134"/>
+      <c r="B105" s="169"/>
+      <c r="C105" s="169"/>
+      <c r="D105" s="169"/>
+      <c r="E105" s="149"/>
       <c r="F105" s="53">
         <v>3</v>
       </c>
-      <c r="G105" s="164"/>
+      <c r="G105" s="169"/>
       <c r="H105" s="53"/>
       <c r="I105" s="53">
         <v>24.1</v>
@@ -11347,14 +11415,14 @@
       <c r="A106" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="B106" s="165"/>
-      <c r="C106" s="165"/>
-      <c r="D106" s="165"/>
-      <c r="E106" s="135"/>
+      <c r="B106" s="170"/>
+      <c r="C106" s="170"/>
+      <c r="D106" s="170"/>
+      <c r="E106" s="150"/>
       <c r="F106" s="53">
         <v>4</v>
       </c>
-      <c r="G106" s="165"/>
+      <c r="G106" s="170"/>
       <c r="H106" s="53"/>
       <c r="I106" s="53">
         <v>6.4</v>
@@ -11476,25 +11544,25 @@
       <c r="A110" s="53" t="s">
         <v>333</v>
       </c>
-      <c r="B110" s="161" t="s">
+      <c r="B110" s="172" t="s">
         <v>334</v>
       </c>
       <c r="C110" s="53" t="s">
         <v>335</v>
       </c>
-      <c r="D110" s="161" t="s">
+      <c r="D110" s="172" t="s">
         <v>330</v>
       </c>
-      <c r="E110" s="162">
+      <c r="E110" s="173">
         <v>45698</v>
       </c>
       <c r="F110" s="53">
         <v>1</v>
       </c>
-      <c r="G110" s="161" t="s">
+      <c r="G110" s="172" t="s">
         <v>331</v>
       </c>
-      <c r="H110" s="161">
+      <c r="H110" s="172">
         <v>2</v>
       </c>
       <c r="I110" s="53">
@@ -11513,7 +11581,7 @@
         <v>10</v>
       </c>
       <c r="N110" s="53"/>
-      <c r="O110" s="161" t="s">
+      <c r="O110" s="172" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11521,17 +11589,17 @@
       <c r="A111" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="B111" s="161"/>
+      <c r="B111" s="172"/>
       <c r="C111" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="D111" s="161"/>
-      <c r="E111" s="162"/>
+      <c r="D111" s="172"/>
+      <c r="E111" s="173"/>
       <c r="F111" s="53">
         <v>2</v>
       </c>
-      <c r="G111" s="161"/>
-      <c r="H111" s="161"/>
+      <c r="G111" s="172"/>
+      <c r="H111" s="172"/>
       <c r="I111" s="53">
         <v>1.4</v>
       </c>
@@ -11548,7 +11616,7 @@
         <v>14</v>
       </c>
       <c r="N111" s="53"/>
-      <c r="O111" s="161"/>
+      <c r="O111" s="172"/>
     </row>
     <row r="112" spans="1:15" ht="22.5">
       <c r="A112" s="64"/>
@@ -11925,25 +11993,25 @@
       <c r="A123" s="44" t="s">
         <v>377</v>
       </c>
-      <c r="B123" s="167" t="s">
+      <c r="B123" s="156" t="s">
         <v>378</v>
       </c>
-      <c r="C123" s="167" t="s">
+      <c r="C123" s="156" t="s">
         <v>379</v>
       </c>
-      <c r="D123" s="167" t="s">
+      <c r="D123" s="156" t="s">
         <v>380</v>
       </c>
-      <c r="E123" s="169">
+      <c r="E123" s="159">
         <v>45706</v>
       </c>
       <c r="F123" s="44">
         <v>1</v>
       </c>
-      <c r="G123" s="144" t="s">
+      <c r="G123" s="138" t="s">
         <v>381</v>
       </c>
-      <c r="H123" s="167">
+      <c r="H123" s="156">
         <v>553</v>
       </c>
       <c r="I123" s="44">
@@ -11962,7 +12030,7 @@
         <v>49</v>
       </c>
       <c r="N123" s="44"/>
-      <c r="O123" s="167" t="s">
+      <c r="O123" s="156" t="s">
         <v>196</v>
       </c>
     </row>
@@ -11970,15 +12038,15 @@
       <c r="A124" s="44" t="s">
         <v>382</v>
       </c>
-      <c r="B124" s="174"/>
-      <c r="C124" s="174"/>
-      <c r="D124" s="174"/>
-      <c r="E124" s="175"/>
+      <c r="B124" s="157"/>
+      <c r="C124" s="157"/>
+      <c r="D124" s="157"/>
+      <c r="E124" s="160"/>
       <c r="F124" s="44">
         <v>2</v>
       </c>
-      <c r="G124" s="149"/>
-      <c r="H124" s="174"/>
+      <c r="G124" s="139"/>
+      <c r="H124" s="157"/>
       <c r="I124" s="44">
         <v>11.9</v>
       </c>
@@ -11995,21 +12063,21 @@
         <v>49</v>
       </c>
       <c r="N124" s="44"/>
-      <c r="O124" s="174"/>
+      <c r="O124" s="157"/>
     </row>
     <row r="125" spans="1:15" ht="21">
       <c r="A125" s="44" t="s">
         <v>383</v>
       </c>
-      <c r="B125" s="174"/>
-      <c r="C125" s="174"/>
-      <c r="D125" s="174"/>
-      <c r="E125" s="175"/>
+      <c r="B125" s="157"/>
+      <c r="C125" s="157"/>
+      <c r="D125" s="157"/>
+      <c r="E125" s="160"/>
       <c r="F125" s="44">
         <v>3</v>
       </c>
-      <c r="G125" s="149"/>
-      <c r="H125" s="174"/>
+      <c r="G125" s="139"/>
+      <c r="H125" s="157"/>
       <c r="I125" s="44">
         <v>13.8</v>
       </c>
@@ -12026,21 +12094,21 @@
         <v>49</v>
       </c>
       <c r="N125" s="44"/>
-      <c r="O125" s="174"/>
+      <c r="O125" s="157"/>
     </row>
     <row r="126" spans="1:15" ht="21">
       <c r="A126" s="44" t="s">
         <v>384</v>
       </c>
-      <c r="B126" s="174"/>
-      <c r="C126" s="174"/>
-      <c r="D126" s="174"/>
-      <c r="E126" s="175"/>
+      <c r="B126" s="157"/>
+      <c r="C126" s="157"/>
+      <c r="D126" s="157"/>
+      <c r="E126" s="160"/>
       <c r="F126" s="44">
         <v>4</v>
       </c>
-      <c r="G126" s="149"/>
-      <c r="H126" s="174"/>
+      <c r="G126" s="139"/>
+      <c r="H126" s="157"/>
       <c r="I126" s="44">
         <v>17.600000000000001</v>
       </c>
@@ -12057,21 +12125,21 @@
         <v>49</v>
       </c>
       <c r="N126" s="44"/>
-      <c r="O126" s="174"/>
+      <c r="O126" s="157"/>
     </row>
     <row r="127" spans="1:15" ht="21">
       <c r="A127" s="44" t="s">
         <v>385</v>
       </c>
-      <c r="B127" s="174"/>
-      <c r="C127" s="174"/>
-      <c r="D127" s="174"/>
-      <c r="E127" s="175"/>
+      <c r="B127" s="157"/>
+      <c r="C127" s="157"/>
+      <c r="D127" s="157"/>
+      <c r="E127" s="160"/>
       <c r="F127" s="44">
         <v>5</v>
       </c>
-      <c r="G127" s="149"/>
-      <c r="H127" s="174"/>
+      <c r="G127" s="139"/>
+      <c r="H127" s="157"/>
       <c r="I127" s="44">
         <v>7.8</v>
       </c>
@@ -12088,21 +12156,21 @@
         <v>43</v>
       </c>
       <c r="N127" s="44"/>
-      <c r="O127" s="174"/>
+      <c r="O127" s="157"/>
     </row>
     <row r="128" spans="1:15" ht="21">
       <c r="A128" s="44" t="s">
         <v>386</v>
       </c>
-      <c r="B128" s="174"/>
-      <c r="C128" s="174"/>
-      <c r="D128" s="174"/>
-      <c r="E128" s="175"/>
+      <c r="B128" s="157"/>
+      <c r="C128" s="157"/>
+      <c r="D128" s="157"/>
+      <c r="E128" s="160"/>
       <c r="F128" s="44">
         <v>6</v>
       </c>
-      <c r="G128" s="149"/>
-      <c r="H128" s="174"/>
+      <c r="G128" s="139"/>
+      <c r="H128" s="157"/>
       <c r="I128" s="44">
         <v>15.5</v>
       </c>
@@ -12119,21 +12187,21 @@
         <v>49</v>
       </c>
       <c r="N128" s="44"/>
-      <c r="O128" s="174"/>
+      <c r="O128" s="157"/>
     </row>
     <row r="129" spans="1:15" ht="21">
       <c r="A129" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="B129" s="168"/>
-      <c r="C129" s="168"/>
-      <c r="D129" s="168"/>
-      <c r="E129" s="170"/>
+      <c r="B129" s="158"/>
+      <c r="C129" s="158"/>
+      <c r="D129" s="158"/>
+      <c r="E129" s="161"/>
       <c r="F129" s="44">
         <v>7</v>
       </c>
-      <c r="G129" s="150"/>
-      <c r="H129" s="168"/>
+      <c r="G129" s="140"/>
+      <c r="H129" s="158"/>
       <c r="I129" s="44">
         <v>14.6</v>
       </c>
@@ -12150,7 +12218,7 @@
         <v>49</v>
       </c>
       <c r="N129" s="44"/>
-      <c r="O129" s="168"/>
+      <c r="O129" s="158"/>
     </row>
     <row r="130" spans="1:15" ht="22.5">
       <c r="A130" s="64"/>
@@ -12798,22 +12866,22 @@
       <c r="A149" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B149" s="156" t="s">
+      <c r="B149" s="163" t="s">
         <v>448</v>
       </c>
       <c r="C149" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="D149" s="156" t="s">
+      <c r="D149" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="E149" s="159">
+      <c r="E149" s="174">
         <v>45713</v>
       </c>
       <c r="F149" s="28">
         <v>1</v>
       </c>
-      <c r="G149" s="156" t="s">
+      <c r="G149" s="163" t="s">
         <v>25</v>
       </c>
       <c r="H149" s="28"/>
@@ -12833,7 +12901,7 @@
         <v>37</v>
       </c>
       <c r="N149" s="28"/>
-      <c r="O149" s="156" t="s">
+      <c r="O149" s="163" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12841,16 +12909,16 @@
       <c r="A150" s="28" t="s">
         <v>450</v>
       </c>
-      <c r="B150" s="158"/>
+      <c r="B150" s="164"/>
       <c r="C150" s="28" t="s">
         <v>451</v>
       </c>
-      <c r="D150" s="158"/>
-      <c r="E150" s="160"/>
+      <c r="D150" s="164"/>
+      <c r="E150" s="175"/>
       <c r="F150" s="28">
         <v>2</v>
       </c>
-      <c r="G150" s="158"/>
+      <c r="G150" s="164"/>
       <c r="H150" s="28"/>
       <c r="I150" s="28">
         <v>2</v>
@@ -12868,7 +12936,7 @@
         <v>16</v>
       </c>
       <c r="N150" s="28"/>
-      <c r="O150" s="158"/>
+      <c r="O150" s="164"/>
     </row>
     <row r="151" spans="1:15" ht="22.5">
       <c r="A151" s="64"/>
@@ -12899,25 +12967,25 @@
       <c r="A152" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="B152" s="156" t="s">
+      <c r="B152" s="163" t="s">
         <v>453</v>
       </c>
-      <c r="C152" s="156" t="s">
+      <c r="C152" s="163" t="s">
         <v>454</v>
       </c>
-      <c r="D152" s="156" t="s">
+      <c r="D152" s="163" t="s">
         <v>455</v>
       </c>
-      <c r="E152" s="159">
+      <c r="E152" s="174">
         <v>45713</v>
       </c>
       <c r="F152" s="28">
         <v>1</v>
       </c>
-      <c r="G152" s="156" t="s">
+      <c r="G152" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="H152" s="156">
+      <c r="H152" s="163">
         <v>120</v>
       </c>
       <c r="I152" s="28">
@@ -12936,7 +13004,7 @@
         <v>50</v>
       </c>
       <c r="N152" s="28"/>
-      <c r="O152" s="156" t="s">
+      <c r="O152" s="163" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12944,15 +13012,15 @@
       <c r="A153" s="28" t="s">
         <v>456</v>
       </c>
-      <c r="B153" s="157"/>
-      <c r="C153" s="157"/>
-      <c r="D153" s="157"/>
-      <c r="E153" s="124"/>
+      <c r="B153" s="165"/>
+      <c r="C153" s="165"/>
+      <c r="D153" s="165"/>
+      <c r="E153" s="129"/>
       <c r="F153" s="28">
         <v>2</v>
       </c>
-      <c r="G153" s="157"/>
-      <c r="H153" s="157"/>
+      <c r="G153" s="165"/>
+      <c r="H153" s="165"/>
       <c r="I153" s="28">
         <v>19.5</v>
       </c>
@@ -12969,21 +13037,21 @@
         <v>50</v>
       </c>
       <c r="N153" s="28"/>
-      <c r="O153" s="157"/>
+      <c r="O153" s="165"/>
     </row>
     <row r="154" spans="1:15" ht="21">
       <c r="A154" s="28" t="s">
         <v>457</v>
       </c>
-      <c r="B154" s="157"/>
-      <c r="C154" s="157"/>
-      <c r="D154" s="157"/>
-      <c r="E154" s="124"/>
+      <c r="B154" s="165"/>
+      <c r="C154" s="165"/>
+      <c r="D154" s="165"/>
+      <c r="E154" s="129"/>
       <c r="F154" s="28">
         <v>3</v>
       </c>
-      <c r="G154" s="157"/>
-      <c r="H154" s="157"/>
+      <c r="G154" s="165"/>
+      <c r="H154" s="165"/>
       <c r="I154" s="28">
         <v>22</v>
       </c>
@@ -13000,21 +13068,21 @@
         <v>50</v>
       </c>
       <c r="N154" s="28"/>
-      <c r="O154" s="157"/>
+      <c r="O154" s="165"/>
     </row>
     <row r="155" spans="1:15" ht="21">
       <c r="A155" s="28" t="s">
         <v>458</v>
       </c>
-      <c r="B155" s="157"/>
-      <c r="C155" s="157"/>
-      <c r="D155" s="157"/>
-      <c r="E155" s="124"/>
+      <c r="B155" s="165"/>
+      <c r="C155" s="165"/>
+      <c r="D155" s="165"/>
+      <c r="E155" s="129"/>
       <c r="F155" s="28">
         <v>4</v>
       </c>
-      <c r="G155" s="157"/>
-      <c r="H155" s="157"/>
+      <c r="G155" s="165"/>
+      <c r="H155" s="165"/>
       <c r="I155" s="28">
         <v>21.2</v>
       </c>
@@ -13031,21 +13099,21 @@
         <v>50</v>
       </c>
       <c r="N155" s="28"/>
-      <c r="O155" s="157"/>
+      <c r="O155" s="165"/>
     </row>
     <row r="156" spans="1:15" ht="21">
       <c r="A156" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="B156" s="157"/>
-      <c r="C156" s="157"/>
-      <c r="D156" s="157"/>
-      <c r="E156" s="124"/>
+      <c r="B156" s="165"/>
+      <c r="C156" s="165"/>
+      <c r="D156" s="165"/>
+      <c r="E156" s="129"/>
       <c r="F156" s="28">
         <v>5</v>
       </c>
-      <c r="G156" s="157"/>
-      <c r="H156" s="157"/>
+      <c r="G156" s="165"/>
+      <c r="H156" s="165"/>
       <c r="I156" s="28">
         <v>19.600000000000001</v>
       </c>
@@ -13062,21 +13130,21 @@
         <v>50</v>
       </c>
       <c r="N156" s="28"/>
-      <c r="O156" s="157"/>
+      <c r="O156" s="165"/>
     </row>
     <row r="157" spans="1:15" ht="21">
       <c r="A157" s="28" t="s">
         <v>460</v>
       </c>
-      <c r="B157" s="158"/>
-      <c r="C157" s="158"/>
-      <c r="D157" s="158"/>
-      <c r="E157" s="125"/>
+      <c r="B157" s="164"/>
+      <c r="C157" s="164"/>
+      <c r="D157" s="164"/>
+      <c r="E157" s="123"/>
       <c r="F157" s="28">
         <v>6</v>
       </c>
-      <c r="G157" s="158"/>
-      <c r="H157" s="158"/>
+      <c r="G157" s="164"/>
+      <c r="H157" s="164"/>
       <c r="I157" s="28">
         <v>20.2</v>
       </c>
@@ -13093,7 +13161,7 @@
         <v>50</v>
       </c>
       <c r="N157" s="28"/>
-      <c r="O157" s="158"/>
+      <c r="O157" s="164"/>
     </row>
     <row r="158" spans="1:15" ht="22.5">
       <c r="A158" s="64"/>
@@ -13118,22 +13186,355 @@
       <c r="N158" s="36"/>
       <c r="O158" s="121"/>
     </row>
+    <row r="159" spans="1:15" ht="21">
+      <c r="A159" s="53" t="s">
+        <v>469</v>
+      </c>
+      <c r="B159" s="168" t="s">
+        <v>470</v>
+      </c>
+      <c r="C159" s="168" t="s">
+        <v>471</v>
+      </c>
+      <c r="D159" s="168" t="s">
+        <v>192</v>
+      </c>
+      <c r="E159" s="148">
+        <v>45714</v>
+      </c>
+      <c r="F159" s="53">
+        <v>1</v>
+      </c>
+      <c r="G159" s="168" t="s">
+        <v>472</v>
+      </c>
+      <c r="H159" s="168"/>
+      <c r="I159" s="53">
+        <v>7.1</v>
+      </c>
+      <c r="J159" s="54">
+        <f t="shared" ref="J159:J166" si="1">K159*L159*M159/1000000</f>
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="K159" s="53">
+        <v>49</v>
+      </c>
+      <c r="L159" s="53">
+        <v>40</v>
+      </c>
+      <c r="M159" s="53">
+        <v>40</v>
+      </c>
+      <c r="N159" s="53"/>
+      <c r="O159" s="168" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" ht="21">
+      <c r="A160" s="53" t="s">
+        <v>473</v>
+      </c>
+      <c r="B160" s="169"/>
+      <c r="C160" s="169"/>
+      <c r="D160" s="169"/>
+      <c r="E160" s="149"/>
+      <c r="F160" s="53">
+        <v>2</v>
+      </c>
+      <c r="G160" s="169"/>
+      <c r="H160" s="169"/>
+      <c r="I160" s="53">
+        <v>7.3</v>
+      </c>
+      <c r="J160" s="54">
+        <f t="shared" si="1"/>
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="K160" s="53">
+        <v>49</v>
+      </c>
+      <c r="L160" s="53">
+        <v>40</v>
+      </c>
+      <c r="M160" s="53">
+        <v>40</v>
+      </c>
+      <c r="N160" s="53"/>
+      <c r="O160" s="169"/>
+    </row>
+    <row r="161" spans="1:15" ht="21">
+      <c r="A161" s="53" t="s">
+        <v>474</v>
+      </c>
+      <c r="B161" s="169"/>
+      <c r="C161" s="169"/>
+      <c r="D161" s="169"/>
+      <c r="E161" s="149"/>
+      <c r="F161" s="53">
+        <v>3</v>
+      </c>
+      <c r="G161" s="169"/>
+      <c r="H161" s="169"/>
+      <c r="I161" s="53">
+        <v>7</v>
+      </c>
+      <c r="J161" s="54">
+        <f t="shared" si="1"/>
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="K161" s="53">
+        <v>49</v>
+      </c>
+      <c r="L161" s="53">
+        <v>40</v>
+      </c>
+      <c r="M161" s="53">
+        <v>40</v>
+      </c>
+      <c r="N161" s="53"/>
+      <c r="O161" s="169"/>
+    </row>
+    <row r="162" spans="1:15" ht="21">
+      <c r="A162" s="53" t="s">
+        <v>475</v>
+      </c>
+      <c r="B162" s="169"/>
+      <c r="C162" s="169"/>
+      <c r="D162" s="169"/>
+      <c r="E162" s="149"/>
+      <c r="F162" s="53">
+        <v>4</v>
+      </c>
+      <c r="G162" s="169"/>
+      <c r="H162" s="169"/>
+      <c r="I162" s="53">
+        <v>8.4</v>
+      </c>
+      <c r="J162" s="54">
+        <f t="shared" si="1"/>
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="K162" s="53">
+        <v>49</v>
+      </c>
+      <c r="L162" s="53">
+        <v>40</v>
+      </c>
+      <c r="M162" s="53">
+        <v>40</v>
+      </c>
+      <c r="N162" s="53"/>
+      <c r="O162" s="169"/>
+    </row>
+    <row r="163" spans="1:15" ht="21">
+      <c r="A163" s="53" t="s">
+        <v>476</v>
+      </c>
+      <c r="B163" s="169"/>
+      <c r="C163" s="169"/>
+      <c r="D163" s="169"/>
+      <c r="E163" s="149"/>
+      <c r="F163" s="53">
+        <v>5</v>
+      </c>
+      <c r="G163" s="169"/>
+      <c r="H163" s="169"/>
+      <c r="I163" s="53">
+        <v>6.7</v>
+      </c>
+      <c r="J163" s="54">
+        <f t="shared" si="1"/>
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="K163" s="53">
+        <v>49</v>
+      </c>
+      <c r="L163" s="53">
+        <v>40</v>
+      </c>
+      <c r="M163" s="53">
+        <v>40</v>
+      </c>
+      <c r="N163" s="53"/>
+      <c r="O163" s="169"/>
+    </row>
+    <row r="164" spans="1:15" ht="21">
+      <c r="A164" s="53" t="s">
+        <v>477</v>
+      </c>
+      <c r="B164" s="169"/>
+      <c r="C164" s="169"/>
+      <c r="D164" s="169"/>
+      <c r="E164" s="149"/>
+      <c r="F164" s="53">
+        <v>6</v>
+      </c>
+      <c r="G164" s="169"/>
+      <c r="H164" s="169"/>
+      <c r="I164" s="53">
+        <v>6.9</v>
+      </c>
+      <c r="J164" s="54">
+        <f t="shared" si="1"/>
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="K164" s="53">
+        <v>49</v>
+      </c>
+      <c r="L164" s="53">
+        <v>40</v>
+      </c>
+      <c r="M164" s="53">
+        <v>40</v>
+      </c>
+      <c r="N164" s="53"/>
+      <c r="O164" s="169"/>
+    </row>
+    <row r="165" spans="1:15" ht="21">
+      <c r="A165" s="53" t="s">
+        <v>478</v>
+      </c>
+      <c r="B165" s="169"/>
+      <c r="C165" s="169"/>
+      <c r="D165" s="169"/>
+      <c r="E165" s="149"/>
+      <c r="F165" s="53">
+        <v>7</v>
+      </c>
+      <c r="G165" s="169"/>
+      <c r="H165" s="169"/>
+      <c r="I165" s="53">
+        <v>5.8</v>
+      </c>
+      <c r="J165" s="54">
+        <f t="shared" si="1"/>
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="K165" s="53">
+        <v>49</v>
+      </c>
+      <c r="L165" s="53">
+        <v>40</v>
+      </c>
+      <c r="M165" s="53">
+        <v>40</v>
+      </c>
+      <c r="N165" s="53"/>
+      <c r="O165" s="169"/>
+    </row>
+    <row r="166" spans="1:15" ht="21">
+      <c r="A166" s="53" t="s">
+        <v>479</v>
+      </c>
+      <c r="B166" s="170"/>
+      <c r="C166" s="170"/>
+      <c r="D166" s="170"/>
+      <c r="E166" s="150"/>
+      <c r="F166" s="53">
+        <v>8</v>
+      </c>
+      <c r="G166" s="170"/>
+      <c r="H166" s="170"/>
+      <c r="I166" s="53">
+        <v>7.1</v>
+      </c>
+      <c r="J166" s="54">
+        <f t="shared" si="1"/>
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="K166" s="53">
+        <v>49</v>
+      </c>
+      <c r="L166" s="53">
+        <v>40</v>
+      </c>
+      <c r="M166" s="53">
+        <v>40</v>
+      </c>
+      <c r="N166" s="53"/>
+      <c r="O166" s="170"/>
+    </row>
+    <row r="167" spans="1:15" ht="22.5">
+      <c r="A167" s="176"/>
+      <c r="B167" s="177"/>
+      <c r="C167" s="177"/>
+      <c r="D167" s="177"/>
+      <c r="E167" s="178"/>
+      <c r="F167" s="46">
+        <v>8</v>
+      </c>
+      <c r="G167" s="48"/>
+      <c r="H167" s="48"/>
+      <c r="I167" s="46">
+        <f>SUM(I159:I166)</f>
+        <v>56.3</v>
+      </c>
+      <c r="J167" s="49">
+        <f>SUM(J159:J166)</f>
+        <v>0.62720000000000009</v>
+      </c>
+      <c r="K167" s="46"/>
+      <c r="L167" s="46"/>
+      <c r="M167" s="46"/>
+      <c r="N167" s="56"/>
+      <c r="O167" s="56"/>
+    </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="H123:H129"/>
-    <mergeCell ref="O123:O129"/>
-    <mergeCell ref="B123:B129"/>
-    <mergeCell ref="C123:C129"/>
-    <mergeCell ref="D123:D129"/>
-    <mergeCell ref="E123:E129"/>
-    <mergeCell ref="G123:G129"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
+  <mergeCells count="81">
+    <mergeCell ref="H159:H166"/>
+    <mergeCell ref="O159:O166"/>
+    <mergeCell ref="B159:B166"/>
+    <mergeCell ref="C159:C166"/>
+    <mergeCell ref="D159:D166"/>
+    <mergeCell ref="E159:E166"/>
+    <mergeCell ref="G159:G166"/>
+    <mergeCell ref="H152:H157"/>
+    <mergeCell ref="O152:O157"/>
+    <mergeCell ref="B152:B157"/>
+    <mergeCell ref="C152:C157"/>
+    <mergeCell ref="D152:D157"/>
+    <mergeCell ref="E152:E157"/>
+    <mergeCell ref="G152:G157"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="O149:O150"/>
+    <mergeCell ref="O110:O111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="G103:G106"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="B71:B81"/>
+    <mergeCell ref="C71:C81"/>
+    <mergeCell ref="D71:D81"/>
+    <mergeCell ref="E71:E81"/>
+    <mergeCell ref="G71:G81"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G53:G54"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="G50:G51"/>
     <mergeCell ref="O21:O22"/>
@@ -13147,53 +13548,20 @@
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="D50:D51"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="B71:B81"/>
-    <mergeCell ref="C71:C81"/>
-    <mergeCell ref="D71:D81"/>
-    <mergeCell ref="E71:E81"/>
-    <mergeCell ref="G71:G81"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="G103:G106"/>
-    <mergeCell ref="O110:O111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="O149:O150"/>
-    <mergeCell ref="H152:H157"/>
-    <mergeCell ref="O152:O157"/>
-    <mergeCell ref="B152:B157"/>
-    <mergeCell ref="C152:C157"/>
-    <mergeCell ref="D152:D157"/>
-    <mergeCell ref="E152:E157"/>
-    <mergeCell ref="G152:G157"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H123:H129"/>
+    <mergeCell ref="O123:O129"/>
+    <mergeCell ref="B123:B129"/>
+    <mergeCell ref="C123:C129"/>
+    <mergeCell ref="D123:D129"/>
+    <mergeCell ref="E123:E129"/>
+    <mergeCell ref="G123:G129"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13203,7 +13571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7700874C-43FE-4C20-8201-C5970C6B69F4}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
@@ -13285,11 +13653,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="154" t="s">
+      <c r="K2" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -13301,10 +13669,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="155"/>
+      <c r="B3" s="134"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -13369,12 +13737,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.5">
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="132"/>
       <c r="F6" s="71" t="s">
         <v>267</v>
       </c>
@@ -13444,12 +13812,12 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="22.5">
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
       <c r="F8" s="89" t="s">
         <v>267</v>
       </c>
@@ -13519,12 +13887,12 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="22.5">
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="131"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="132"/>
       <c r="F10" s="71" t="s">
         <v>239</v>
       </c>
@@ -13594,12 +13962,12 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="22.5">
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="132"/>
       <c r="F12" s="71" t="s">
         <v>267</v>
       </c>
@@ -13621,14 +13989,14 @@
       <c r="P12" s="74"/>
     </row>
     <row r="13" spans="1:16" ht="42">
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="122" t="s">
         <v>299</v>
       </c>
       <c r="C13" s="38"/>
-      <c r="D13" s="123" t="s">
+      <c r="D13" s="122" t="s">
         <v>263</v>
       </c>
-      <c r="E13" s="126">
+      <c r="E13" s="145">
         <v>45671</v>
       </c>
       <c r="F13" s="68" t="s">
@@ -13669,10 +14037,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="21">
-      <c r="B14" s="125"/>
+      <c r="B14" s="123"/>
       <c r="C14" s="38"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="128"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="146"/>
       <c r="F14" s="68" t="s">
         <v>301</v>
       </c>
@@ -13703,12 +14071,12 @@
       <c r="P14" s="38"/>
     </row>
     <row r="15" spans="1:16" ht="22.5">
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
       <c r="F15" s="71" t="s">
         <v>301</v>
       </c>
@@ -13775,12 +14143,12 @@
       <c r="P16" s="41"/>
     </row>
     <row r="17" spans="2:16" ht="22.5">
-      <c r="B17" s="122" t="s">
+      <c r="B17" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
       <c r="F17" s="102" t="s">
         <v>423</v>
       </c>
@@ -13845,12 +14213,12 @@
       <c r="P18" s="38"/>
     </row>
     <row r="19" spans="2:16" ht="22.5">
-      <c r="B19" s="122" t="s">
+      <c r="B19" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
       <c r="F19" s="71" t="s">
         <v>239</v>
       </c>

--- a/Customer/Cust 2025/Cargo W99 2025.xlsx
+++ b/Customer/Cust 2025/Cargo W99 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Customer\Cust 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7D4F22-3274-4412-82A7-4D71BCED156E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427B49AE-DF6A-4661-AA4A-279B44FEFF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E000C531-AA46-4CF4-8BD7-2185A135A010}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="533">
   <si>
     <t>Hijau barang terkirim, Lunas, beres</t>
   </si>
@@ -3543,6 +3543,482 @@
   </si>
   <si>
     <t>L66</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>A0035287</t>
+  </si>
+  <si>
+    <r>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>3160665759443</t>
+    </r>
+  </si>
+  <si>
+    <t>M15</t>
+  </si>
+  <si>
+    <t>A0035289</t>
+  </si>
+  <si>
+    <r>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>1543238757663</t>
+    </r>
+  </si>
+  <si>
+    <t>279-W99-MXC-AIR</t>
+  </si>
+  <si>
+    <t>M25</t>
+  </si>
+  <si>
+    <t>A0035298</t>
+  </si>
+  <si>
+    <r>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>3148853857104</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>人造关节Artificial joint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>骨科手术器械bone surgery set</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CUST BAYAR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退税</t>
+    </r>
+  </si>
+  <si>
+    <t>M26</t>
+  </si>
+  <si>
+    <t>M27</t>
+  </si>
+  <si>
+    <t>M28</t>
+  </si>
+  <si>
+    <t>M29</t>
+  </si>
+  <si>
+    <t>M31</t>
+  </si>
+  <si>
+    <t>M36</t>
+  </si>
+  <si>
+    <t>A0035301</t>
+  </si>
+  <si>
+    <r>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>0268178063238</t>
+    </r>
+  </si>
+  <si>
+    <t>M37</t>
+  </si>
+  <si>
+    <t>M38</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>A0035348</t>
+  </si>
+  <si>
+    <r>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1543238757690</t>
+    </r>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1543238757714</t>
+    </r>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1543238757705</t>
+    </r>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>A0035390</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1549902447728</t>
+    </r>
+  </si>
+  <si>
+    <t>S26</t>
+  </si>
+  <si>
+    <t>A0035401</t>
+  </si>
+  <si>
+    <r>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1543238757802</t>
+    </r>
+  </si>
+  <si>
+    <t>S27</t>
+  </si>
+  <si>
+    <r>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1543238757787</t>
+    </r>
+  </si>
+  <si>
+    <t>T34</t>
+  </si>
+  <si>
+    <t>A0035454</t>
+  </si>
+  <si>
+    <r>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3167522459983</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>自行车轮胎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bicycle</t>
+    </r>
+  </si>
+  <si>
+    <t>T27</t>
+  </si>
+  <si>
+    <t>A0035447</t>
+  </si>
+  <si>
+    <r>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1543238757839</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">鞋子   shoe </t>
+  </si>
+  <si>
+    <t>T65</t>
+  </si>
+  <si>
+    <t>A0035482</t>
+  </si>
+  <si>
+    <r>
+      <t>上衣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  tops   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>裙子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>skirt</t>
+    </r>
+  </si>
+  <si>
+    <t>T66</t>
+  </si>
+  <si>
+    <t>S0085711</t>
+  </si>
+  <si>
+    <t>1-50</t>
+  </si>
+  <si>
+    <t>51-100</t>
+  </si>
+  <si>
+    <t>101-107</t>
   </si>
 </sst>
 </file>
@@ -3817,7 +4293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4182,12 +4658,90 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4197,69 +4751,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4278,80 +4769,71 @@
     <xf numFmtId="15" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4669,11 +5151,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03568550-BD00-482C-9F46-E2F5DB6F38F1}">
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:P92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
+      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B89" sqref="B89:B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4753,11 +5235,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="133" t="s">
+      <c r="K2" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -4769,10 +5251,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="134"/>
+      <c r="B3" s="149"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -4834,12 +5316,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.5">
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
       <c r="F6" s="71" t="s">
         <v>221</v>
       </c>
@@ -4859,16 +5341,16 @@
       <c r="P6" s="74"/>
     </row>
     <row r="7" spans="1:16" ht="37.5">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="141" t="s">
         <v>222</v>
       </c>
       <c r="C7" s="138" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="135" t="s">
+      <c r="D7" s="141" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="141">
+      <c r="E7" s="145">
         <v>45659</v>
       </c>
       <c r="F7" s="75" t="s">
@@ -4880,7 +5362,7 @@
       <c r="H7" s="76">
         <v>1</v>
       </c>
-      <c r="I7" s="135">
+      <c r="I7" s="141">
         <v>255</v>
       </c>
       <c r="J7" s="77">
@@ -4895,21 +5377,21 @@
       <c r="M7" s="76">
         <v>62</v>
       </c>
-      <c r="N7" s="144">
+      <c r="N7" s="142">
         <v>45663</v>
       </c>
-      <c r="O7" s="144">
+      <c r="O7" s="142">
         <v>45705</v>
       </c>
-      <c r="P7" s="135" t="s">
+      <c r="P7" s="141" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="21">
-      <c r="B8" s="136"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="142"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="146"/>
       <c r="F8" s="75" t="s">
         <v>228</v>
       </c>
@@ -4919,7 +5401,7 @@
       <c r="H8" s="76">
         <v>1</v>
       </c>
-      <c r="I8" s="136"/>
+      <c r="I8" s="139"/>
       <c r="J8" s="77">
         <v>0.54978000000000005</v>
       </c>
@@ -4932,15 +5414,15 @@
       <c r="M8" s="76">
         <v>77</v>
       </c>
-      <c r="N8" s="136"/>
-      <c r="O8" s="136"/>
-      <c r="P8" s="136"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="139"/>
+      <c r="P8" s="139"/>
     </row>
     <row r="9" spans="1:16" ht="37.5">
-      <c r="B9" s="136"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="142"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="146"/>
       <c r="F9" s="75" t="s">
         <v>230</v>
       </c>
@@ -4950,7 +5432,7 @@
       <c r="H9" s="76">
         <v>1</v>
       </c>
-      <c r="I9" s="136"/>
+      <c r="I9" s="139"/>
       <c r="J9" s="77">
         <v>0.51480000000000004</v>
       </c>
@@ -4963,15 +5445,15 @@
       <c r="M9" s="76">
         <v>65</v>
       </c>
-      <c r="N9" s="136"/>
-      <c r="O9" s="136"/>
-      <c r="P9" s="136"/>
+      <c r="N9" s="139"/>
+      <c r="O9" s="139"/>
+      <c r="P9" s="139"/>
     </row>
     <row r="10" spans="1:16" ht="56.25">
-      <c r="B10" s="137"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="143"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="147"/>
       <c r="F10" s="75" t="s">
         <v>232</v>
       </c>
@@ -4981,7 +5463,7 @@
       <c r="H10" s="76">
         <v>1</v>
       </c>
-      <c r="I10" s="137"/>
+      <c r="I10" s="140"/>
       <c r="J10" s="77">
         <v>7.3800000000000004E-2</v>
       </c>
@@ -4994,17 +5476,17 @@
       <c r="M10" s="76">
         <v>18</v>
       </c>
-      <c r="N10" s="137"/>
-      <c r="O10" s="137"/>
-      <c r="P10" s="137"/>
+      <c r="N10" s="140"/>
+      <c r="O10" s="140"/>
+      <c r="P10" s="140"/>
     </row>
     <row r="11" spans="1:16" ht="22.5">
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="71" t="s">
         <v>232</v>
       </c>
@@ -5074,12 +5556,12 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="22.5">
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
       <c r="F13" s="71" t="s">
         <v>239</v>
       </c>
@@ -5151,12 +5633,12 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="22.5">
-      <c r="B15" s="127" t="s">
+      <c r="B15" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="71" t="s">
         <v>242</v>
       </c>
@@ -5225,12 +5707,12 @@
       </c>
     </row>
     <row r="17" spans="2:16" ht="22.5">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="71" t="s">
         <v>246</v>
       </c>
@@ -5295,12 +5777,12 @@
       </c>
     </row>
     <row r="19" spans="2:16" ht="22.5">
-      <c r="B19" s="127" t="s">
+      <c r="B19" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
       <c r="F19" s="71" t="s">
         <v>252</v>
       </c>
@@ -5368,12 +5850,12 @@
       </c>
     </row>
     <row r="21" spans="2:16" ht="22.5">
-      <c r="B21" s="127" t="s">
+      <c r="B21" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
       <c r="F21" s="71" t="s">
         <v>255</v>
       </c>
@@ -5442,12 +5924,12 @@
       </c>
     </row>
     <row r="23" spans="2:16" ht="22.5">
-      <c r="B23" s="127" t="s">
+      <c r="B23" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
       <c r="F23" s="71" t="s">
         <v>232</v>
       </c>
@@ -5515,12 +5997,12 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="22.5">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="C25" s="131"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="132"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="134"/>
       <c r="F25" s="71" t="s">
         <v>267</v>
       </c>
@@ -5590,12 +6072,12 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="22.5">
-      <c r="B27" s="130" t="s">
+      <c r="B27" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="132"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="134"/>
       <c r="F27" s="89" t="s">
         <v>267</v>
       </c>
@@ -5665,12 +6147,12 @@
       </c>
     </row>
     <row r="29" spans="2:16" ht="22.5">
-      <c r="B29" s="130" t="s">
+      <c r="B29" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="132"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="71" t="s">
         <v>239</v>
       </c>
@@ -5740,12 +6222,12 @@
       </c>
     </row>
     <row r="31" spans="2:16" ht="22.5">
-      <c r="B31" s="130" t="s">
+      <c r="B31" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="C31" s="131"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="132"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="134"/>
       <c r="F31" s="71" t="s">
         <v>267</v>
       </c>
@@ -5767,16 +6249,16 @@
       <c r="P31" s="74"/>
     </row>
     <row r="32" spans="2:16" ht="21">
-      <c r="B32" s="135" t="s">
+      <c r="B32" s="141" t="s">
         <v>275</v>
       </c>
       <c r="C32" s="138" t="s">
         <v>276</v>
       </c>
-      <c r="D32" s="135" t="s">
+      <c r="D32" s="141" t="s">
         <v>277</v>
       </c>
-      <c r="E32" s="141">
+      <c r="E32" s="145">
         <v>45668</v>
       </c>
       <c r="F32" s="75" t="s">
@@ -5788,7 +6270,7 @@
       <c r="H32" s="76">
         <v>385</v>
       </c>
-      <c r="I32" s="135">
+      <c r="I32" s="141">
         <v>1451</v>
       </c>
       <c r="J32" s="77">
@@ -5803,29 +6285,29 @@
       <c r="M32" s="76">
         <v>30</v>
       </c>
-      <c r="N32" s="144">
+      <c r="N32" s="142">
         <v>45671</v>
       </c>
-      <c r="O32" s="144">
+      <c r="O32" s="142">
         <v>45714</v>
       </c>
-      <c r="P32" s="135" t="s">
+      <c r="P32" s="141" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="21">
-      <c r="B33" s="136"/>
-      <c r="C33" s="139"/>
-      <c r="D33" s="136"/>
-      <c r="E33" s="142"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="146"/>
       <c r="F33" s="75" t="s">
         <v>281</v>
       </c>
-      <c r="G33" s="140"/>
+      <c r="G33" s="144"/>
       <c r="H33" s="76">
         <v>36</v>
       </c>
-      <c r="I33" s="136"/>
+      <c r="I33" s="139"/>
       <c r="J33" s="77">
         <v>0.29759999999999998</v>
       </c>
@@ -5838,15 +6320,15 @@
       <c r="M33" s="76">
         <v>20</v>
       </c>
-      <c r="N33" s="136"/>
-      <c r="O33" s="136"/>
-      <c r="P33" s="136"/>
+      <c r="N33" s="139"/>
+      <c r="O33" s="139"/>
+      <c r="P33" s="139"/>
     </row>
     <row r="34" spans="2:16" ht="21">
-      <c r="B34" s="136"/>
-      <c r="C34" s="139"/>
-      <c r="D34" s="136"/>
-      <c r="E34" s="142"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="146"/>
       <c r="F34" s="75" t="s">
         <v>282</v>
       </c>
@@ -5856,7 +6338,7 @@
       <c r="H34" s="76">
         <v>26</v>
       </c>
-      <c r="I34" s="136"/>
+      <c r="I34" s="139"/>
       <c r="J34" s="77">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -5869,15 +6351,15 @@
       <c r="M34" s="76">
         <v>33</v>
       </c>
-      <c r="N34" s="136"/>
-      <c r="O34" s="136"/>
-      <c r="P34" s="136"/>
+      <c r="N34" s="139"/>
+      <c r="O34" s="139"/>
+      <c r="P34" s="139"/>
     </row>
     <row r="35" spans="2:16" ht="21">
-      <c r="B35" s="136"/>
-      <c r="C35" s="139"/>
-      <c r="D35" s="136"/>
-      <c r="E35" s="142"/>
+      <c r="B35" s="139"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="139"/>
+      <c r="E35" s="146"/>
       <c r="F35" s="75" t="s">
         <v>284</v>
       </c>
@@ -5887,7 +6369,7 @@
       <c r="H35" s="76">
         <v>121</v>
       </c>
-      <c r="I35" s="136"/>
+      <c r="I35" s="139"/>
       <c r="J35" s="77">
         <v>3.456E-2</v>
       </c>
@@ -5900,15 +6382,15 @@
       <c r="M35" s="76">
         <v>24</v>
       </c>
-      <c r="N35" s="136"/>
-      <c r="O35" s="136"/>
-      <c r="P35" s="136"/>
+      <c r="N35" s="139"/>
+      <c r="O35" s="139"/>
+      <c r="P35" s="139"/>
     </row>
     <row r="36" spans="2:16" ht="37.5">
-      <c r="B36" s="136"/>
-      <c r="C36" s="139"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="142"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="139"/>
+      <c r="E36" s="146"/>
       <c r="F36" s="75" t="s">
         <v>286</v>
       </c>
@@ -5918,7 +6400,7 @@
       <c r="H36" s="76">
         <v>24</v>
       </c>
-      <c r="I36" s="136"/>
+      <c r="I36" s="139"/>
       <c r="J36" s="77">
         <v>7.4880000000000002E-2</v>
       </c>
@@ -5931,15 +6413,15 @@
       <c r="M36" s="76">
         <v>15</v>
       </c>
-      <c r="N36" s="136"/>
-      <c r="O36" s="136"/>
-      <c r="P36" s="136"/>
+      <c r="N36" s="139"/>
+      <c r="O36" s="139"/>
+      <c r="P36" s="139"/>
     </row>
     <row r="37" spans="2:16" ht="21">
-      <c r="B37" s="137"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="143"/>
+      <c r="B37" s="140"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="147"/>
       <c r="F37" s="75" t="s">
         <v>287</v>
       </c>
@@ -5949,7 +6431,7 @@
       <c r="H37" s="76">
         <v>150</v>
       </c>
-      <c r="I37" s="137"/>
+      <c r="I37" s="140"/>
       <c r="J37" s="77">
         <v>1.512</v>
       </c>
@@ -5962,17 +6444,17 @@
       <c r="M37" s="76">
         <v>30</v>
       </c>
-      <c r="N37" s="137"/>
-      <c r="O37" s="137"/>
-      <c r="P37" s="137"/>
+      <c r="N37" s="140"/>
+      <c r="O37" s="140"/>
+      <c r="P37" s="140"/>
     </row>
     <row r="38" spans="2:16" ht="22.5">
-      <c r="B38" s="127" t="s">
+      <c r="B38" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C38" s="127"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="127"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
       <c r="F38" s="71" t="s">
         <v>288</v>
       </c>
@@ -5992,16 +6474,16 @@
       <c r="P38" s="79"/>
     </row>
     <row r="39" spans="2:16" ht="21">
-      <c r="B39" s="135" t="s">
+      <c r="B39" s="141" t="s">
         <v>289</v>
       </c>
       <c r="C39" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="D39" s="135" t="s">
+      <c r="D39" s="141" t="s">
         <v>291</v>
       </c>
-      <c r="E39" s="141">
+      <c r="E39" s="145">
         <v>45668</v>
       </c>
       <c r="F39" s="75" t="s">
@@ -6013,7 +6495,7 @@
       <c r="H39" s="76">
         <v>300</v>
       </c>
-      <c r="I39" s="135">
+      <c r="I39" s="141">
         <v>680</v>
       </c>
       <c r="J39" s="77">
@@ -6028,29 +6510,29 @@
       <c r="M39" s="76">
         <v>24</v>
       </c>
-      <c r="N39" s="144">
+      <c r="N39" s="142">
         <v>45671</v>
       </c>
-      <c r="O39" s="144">
+      <c r="O39" s="142">
         <v>45714</v>
       </c>
-      <c r="P39" s="135" t="s">
+      <c r="P39" s="141" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="21">
-      <c r="B40" s="136"/>
-      <c r="C40" s="139"/>
-      <c r="D40" s="136"/>
-      <c r="E40" s="142"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="139"/>
+      <c r="E40" s="146"/>
       <c r="F40" s="75" t="s">
         <v>295</v>
       </c>
-      <c r="G40" s="136"/>
+      <c r="G40" s="139"/>
       <c r="H40" s="76">
         <v>80</v>
       </c>
-      <c r="I40" s="136"/>
+      <c r="I40" s="139"/>
       <c r="J40" s="77">
         <v>0.189</v>
       </c>
@@ -6063,23 +6545,23 @@
       <c r="M40" s="76">
         <v>30</v>
       </c>
-      <c r="N40" s="136"/>
-      <c r="O40" s="136"/>
-      <c r="P40" s="136"/>
+      <c r="N40" s="139"/>
+      <c r="O40" s="139"/>
+      <c r="P40" s="139"/>
     </row>
     <row r="41" spans="2:16" ht="21">
-      <c r="B41" s="137"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="143"/>
+      <c r="B41" s="140"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="147"/>
       <c r="F41" s="75" t="s">
         <v>296</v>
       </c>
-      <c r="G41" s="137"/>
+      <c r="G41" s="140"/>
       <c r="H41" s="76">
         <v>5100</v>
       </c>
-      <c r="I41" s="137"/>
+      <c r="I41" s="140"/>
       <c r="J41" s="77">
         <v>2.7820800000000001</v>
       </c>
@@ -6092,17 +6574,17 @@
       <c r="M41" s="76">
         <v>28</v>
       </c>
-      <c r="N41" s="137"/>
-      <c r="O41" s="137"/>
-      <c r="P41" s="137"/>
+      <c r="N41" s="140"/>
+      <c r="O41" s="140"/>
+      <c r="P41" s="140"/>
     </row>
     <row r="42" spans="2:16" ht="22.5">
-      <c r="B42" s="127" t="s">
+      <c r="B42" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C42" s="127"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="127"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
       <c r="F42" s="71" t="s">
         <v>282</v>
       </c>
@@ -6167,12 +6649,12 @@
       <c r="P43" s="76"/>
     </row>
     <row r="44" spans="2:16" ht="22.5">
-      <c r="B44" s="127" t="s">
+      <c r="B44" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C44" s="127"/>
-      <c r="D44" s="127"/>
-      <c r="E44" s="127"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
       <c r="F44" s="71" t="s">
         <v>298</v>
       </c>
@@ -6192,14 +6674,14 @@
       <c r="P44" s="79"/>
     </row>
     <row r="45" spans="2:16" ht="42">
-      <c r="B45" s="122" t="s">
+      <c r="B45" s="126" t="s">
         <v>299</v>
       </c>
       <c r="C45" s="38"/>
-      <c r="D45" s="122" t="s">
+      <c r="D45" s="126" t="s">
         <v>263</v>
       </c>
-      <c r="E45" s="145">
+      <c r="E45" s="129">
         <v>45671</v>
       </c>
       <c r="F45" s="68" t="s">
@@ -6240,10 +6722,10 @@
       </c>
     </row>
     <row r="46" spans="2:16" ht="21">
-      <c r="B46" s="123"/>
+      <c r="B46" s="128"/>
       <c r="C46" s="38"/>
-      <c r="D46" s="123"/>
-      <c r="E46" s="146"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="131"/>
       <c r="F46" s="68" t="s">
         <v>301</v>
       </c>
@@ -6274,12 +6756,12 @@
       <c r="P46" s="38"/>
     </row>
     <row r="47" spans="2:16" ht="22.5">
-      <c r="B47" s="127" t="s">
+      <c r="B47" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C47" s="127"/>
-      <c r="D47" s="127"/>
-      <c r="E47" s="127"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="125"/>
       <c r="F47" s="71" t="s">
         <v>301</v>
       </c>
@@ -6348,12 +6830,12 @@
       </c>
     </row>
     <row r="49" spans="2:16" ht="22.5">
-      <c r="B49" s="127" t="s">
+      <c r="B49" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="127"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="125"/>
       <c r="F49" s="71" t="s">
         <v>225</v>
       </c>
@@ -6421,12 +6903,12 @@
       </c>
     </row>
     <row r="51" spans="2:16" ht="22.5">
-      <c r="B51" s="130" t="s">
+      <c r="B51" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="C51" s="131"/>
-      <c r="D51" s="131"/>
-      <c r="E51" s="132"/>
+      <c r="C51" s="133"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="134"/>
       <c r="F51" s="71" t="s">
         <v>225</v>
       </c>
@@ -6448,29 +6930,29 @@
       <c r="P51" s="79"/>
     </row>
     <row r="52" spans="2:16" ht="21" customHeight="1">
-      <c r="B52" s="122" t="s">
+      <c r="B52" s="126" t="s">
         <v>310</v>
       </c>
-      <c r="C52" s="122" t="s">
+      <c r="C52" s="126" t="s">
         <v>311</v>
       </c>
-      <c r="D52" s="122" t="s">
+      <c r="D52" s="126" t="s">
         <v>217</v>
       </c>
-      <c r="E52" s="145">
+      <c r="E52" s="129">
         <v>45676</v>
       </c>
       <c r="F52" s="68" t="s">
         <v>312</v>
       </c>
-      <c r="G52" s="122" t="s">
+      <c r="G52" s="126" t="s">
         <v>237</v>
       </c>
       <c r="H52" s="38">
         <f>35*28</f>
         <v>980</v>
       </c>
-      <c r="I52" s="122">
+      <c r="I52" s="126">
         <f>25*52</f>
         <v>1300</v>
       </c>
@@ -6487,30 +6969,30 @@
       <c r="M52" s="38">
         <v>29</v>
       </c>
-      <c r="N52" s="128">
+      <c r="N52" s="136">
         <v>45679</v>
       </c>
-      <c r="O52" s="128">
+      <c r="O52" s="136">
         <v>45716</v>
       </c>
-      <c r="P52" s="122" t="s">
+      <c r="P52" s="126" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="21">
-      <c r="B53" s="123"/>
-      <c r="C53" s="123"/>
-      <c r="D53" s="123"/>
-      <c r="E53" s="146"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="131"/>
       <c r="F53" s="68" t="s">
         <v>313</v>
       </c>
-      <c r="G53" s="123"/>
+      <c r="G53" s="128"/>
       <c r="H53" s="38">
         <f>35*24</f>
         <v>840</v>
       </c>
-      <c r="I53" s="123"/>
+      <c r="I53" s="128"/>
       <c r="J53" s="69">
         <f>K53*L53*M53/1000000*24</f>
         <v>2.3353920000000001</v>
@@ -6524,17 +7006,17 @@
       <c r="M53" s="38">
         <v>36</v>
       </c>
-      <c r="N53" s="147"/>
-      <c r="O53" s="147"/>
-      <c r="P53" s="123"/>
+      <c r="N53" s="137"/>
+      <c r="O53" s="137"/>
+      <c r="P53" s="128"/>
     </row>
     <row r="54" spans="2:16" ht="22.5">
-      <c r="B54" s="130" t="s">
+      <c r="B54" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="C54" s="131"/>
-      <c r="D54" s="131"/>
-      <c r="E54" s="132"/>
+      <c r="C54" s="133"/>
+      <c r="D54" s="133"/>
+      <c r="E54" s="134"/>
       <c r="F54" s="71" t="s">
         <v>314</v>
       </c>
@@ -6556,27 +7038,27 @@
       <c r="P54" s="74"/>
     </row>
     <row r="55" spans="2:16" ht="21" customHeight="1">
-      <c r="B55" s="124" t="s">
+      <c r="B55" s="150" t="s">
         <v>315</v>
       </c>
-      <c r="C55" s="124"/>
-      <c r="D55" s="124" t="s">
+      <c r="C55" s="150"/>
+      <c r="D55" s="150" t="s">
         <v>217</v>
       </c>
-      <c r="E55" s="148">
+      <c r="E55" s="153">
         <v>45677</v>
       </c>
       <c r="F55" s="100" t="s">
         <v>316</v>
       </c>
-      <c r="G55" s="124" t="s">
+      <c r="G55" s="150" t="s">
         <v>237</v>
       </c>
       <c r="H55" s="41">
         <f>50*20+60*32+40</f>
         <v>2960</v>
       </c>
-      <c r="I55" s="124">
+      <c r="I55" s="150">
         <f>25*169</f>
         <v>4225</v>
       </c>
@@ -6593,30 +7075,30 @@
       <c r="M55" s="41">
         <v>40</v>
       </c>
-      <c r="N55" s="151">
+      <c r="N55" s="156">
         <v>45680</v>
       </c>
-      <c r="O55" s="151">
+      <c r="O55" s="156">
         <v>45716</v>
       </c>
-      <c r="P55" s="124" t="s">
+      <c r="P55" s="150" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="56" spans="2:16" ht="21">
-      <c r="B56" s="125"/>
-      <c r="C56" s="125"/>
-      <c r="D56" s="125"/>
-      <c r="E56" s="149"/>
+      <c r="B56" s="151"/>
+      <c r="C56" s="151"/>
+      <c r="D56" s="151"/>
+      <c r="E56" s="154"/>
       <c r="F56" s="100" t="s">
         <v>317</v>
       </c>
-      <c r="G56" s="125"/>
+      <c r="G56" s="151"/>
       <c r="H56" s="41">
         <f>40*16</f>
         <v>640</v>
       </c>
-      <c r="I56" s="125"/>
+      <c r="I56" s="151"/>
       <c r="J56" s="101">
         <f>K56*L56*M56/1000000*16</f>
         <v>1.66656</v>
@@ -6630,24 +7112,24 @@
       <c r="M56" s="41">
         <v>28</v>
       </c>
-      <c r="N56" s="152"/>
-      <c r="O56" s="152"/>
-      <c r="P56" s="125"/>
+      <c r="N56" s="157"/>
+      <c r="O56" s="157"/>
+      <c r="P56" s="151"/>
     </row>
     <row r="57" spans="2:16" ht="21">
-      <c r="B57" s="126"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="150"/>
+      <c r="B57" s="152"/>
+      <c r="C57" s="152"/>
+      <c r="D57" s="152"/>
+      <c r="E57" s="155"/>
       <c r="F57" s="100" t="s">
         <v>414</v>
       </c>
-      <c r="G57" s="126"/>
+      <c r="G57" s="152"/>
       <c r="H57" s="41">
         <f>40*270</f>
         <v>10800</v>
       </c>
-      <c r="I57" s="126"/>
+      <c r="I57" s="152"/>
       <c r="J57" s="101">
         <f>K57*L57*M57/1000000*100</f>
         <v>11.899999999999999</v>
@@ -6661,17 +7143,17 @@
       <c r="M57" s="41">
         <v>70</v>
       </c>
-      <c r="N57" s="153"/>
-      <c r="O57" s="153"/>
-      <c r="P57" s="126"/>
+      <c r="N57" s="158"/>
+      <c r="O57" s="158"/>
+      <c r="P57" s="152"/>
     </row>
     <row r="58" spans="2:16" ht="22.5">
-      <c r="B58" s="130" t="s">
+      <c r="B58" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="131"/>
-      <c r="D58" s="131"/>
-      <c r="E58" s="132"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="133"/>
+      <c r="E58" s="134"/>
       <c r="F58" s="102" t="s">
         <v>415</v>
       </c>
@@ -6741,12 +7223,12 @@
       </c>
     </row>
     <row r="60" spans="2:16" ht="22.5">
-      <c r="B60" s="127" t="s">
+      <c r="B60" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C60" s="127"/>
-      <c r="D60" s="127"/>
-      <c r="E60" s="127"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="125"/>
+      <c r="E60" s="125"/>
       <c r="F60" s="102" t="s">
         <v>418</v>
       </c>
@@ -6768,28 +7250,28 @@
       <c r="P60" s="63"/>
     </row>
     <row r="61" spans="2:16" ht="21" customHeight="1">
-      <c r="B61" s="122" t="s">
+      <c r="B61" s="126" t="s">
         <v>318</v>
       </c>
-      <c r="C61" s="154" t="s">
+      <c r="C61" s="135" t="s">
         <v>319</v>
       </c>
-      <c r="D61" s="122" t="s">
+      <c r="D61" s="126" t="s">
         <v>320</v>
       </c>
-      <c r="E61" s="145">
+      <c r="E61" s="129">
         <v>45678</v>
       </c>
       <c r="F61" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="G61" s="122" t="s">
+      <c r="G61" s="126" t="s">
         <v>321</v>
       </c>
       <c r="H61" s="38">
         <v>1</v>
       </c>
-      <c r="I61" s="122">
+      <c r="I61" s="126">
         <v>37</v>
       </c>
       <c r="J61" s="69">
@@ -6805,29 +7287,29 @@
       <c r="M61" s="38">
         <v>40</v>
       </c>
-      <c r="N61" s="128">
+      <c r="N61" s="136">
         <v>45681</v>
       </c>
-      <c r="O61" s="128">
+      <c r="O61" s="136">
         <v>45714</v>
       </c>
-      <c r="P61" s="122" t="s">
+      <c r="P61" s="126" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="62" spans="2:16" ht="21">
-      <c r="B62" s="129"/>
-      <c r="C62" s="129"/>
-      <c r="D62" s="129"/>
-      <c r="E62" s="155"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="127"/>
+      <c r="D62" s="127"/>
+      <c r="E62" s="130"/>
       <c r="F62" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="G62" s="129"/>
+      <c r="G62" s="127"/>
       <c r="H62" s="38">
         <v>10</v>
       </c>
-      <c r="I62" s="129"/>
+      <c r="I62" s="127"/>
       <c r="J62" s="69">
         <f t="shared" si="0"/>
         <v>0.18360000000000001</v>
@@ -6841,23 +7323,23 @@
       <c r="M62" s="38">
         <v>85</v>
       </c>
-      <c r="N62" s="129"/>
-      <c r="O62" s="129"/>
-      <c r="P62" s="129"/>
+      <c r="N62" s="127"/>
+      <c r="O62" s="127"/>
+      <c r="P62" s="127"/>
     </row>
     <row r="63" spans="2:16" ht="21">
-      <c r="B63" s="129"/>
-      <c r="C63" s="129"/>
-      <c r="D63" s="129"/>
-      <c r="E63" s="155"/>
+      <c r="B63" s="127"/>
+      <c r="C63" s="127"/>
+      <c r="D63" s="127"/>
+      <c r="E63" s="130"/>
       <c r="F63" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="G63" s="129"/>
+      <c r="G63" s="127"/>
       <c r="H63" s="38">
         <v>10</v>
       </c>
-      <c r="I63" s="129"/>
+      <c r="I63" s="127"/>
       <c r="J63" s="69">
         <f t="shared" si="0"/>
         <v>0.18240999999999999</v>
@@ -6871,23 +7353,23 @@
       <c r="M63" s="38">
         <v>37</v>
       </c>
-      <c r="N63" s="129"/>
-      <c r="O63" s="129"/>
-      <c r="P63" s="129"/>
+      <c r="N63" s="127"/>
+      <c r="O63" s="127"/>
+      <c r="P63" s="127"/>
     </row>
     <row r="64" spans="2:16" ht="21">
-      <c r="B64" s="123"/>
-      <c r="C64" s="123"/>
-      <c r="D64" s="123"/>
-      <c r="E64" s="146"/>
+      <c r="B64" s="128"/>
+      <c r="C64" s="128"/>
+      <c r="D64" s="128"/>
+      <c r="E64" s="131"/>
       <c r="F64" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="G64" s="123"/>
+      <c r="G64" s="128"/>
       <c r="H64" s="38">
         <v>2</v>
       </c>
-      <c r="I64" s="123"/>
+      <c r="I64" s="128"/>
       <c r="J64" s="69">
         <f t="shared" si="0"/>
         <v>4.9919999999999999E-2</v>
@@ -6901,33 +7383,33 @@
       <c r="M64" s="38">
         <v>20</v>
       </c>
-      <c r="N64" s="129"/>
-      <c r="O64" s="129"/>
-      <c r="P64" s="129"/>
+      <c r="N64" s="127"/>
+      <c r="O64" s="127"/>
+      <c r="P64" s="127"/>
     </row>
     <row r="65" spans="2:16" ht="21">
-      <c r="B65" s="122" t="s">
+      <c r="B65" s="126" t="s">
         <v>322</v>
       </c>
       <c r="C65" s="39" t="s">
         <v>323</v>
       </c>
-      <c r="D65" s="122" t="s">
+      <c r="D65" s="126" t="s">
         <v>320</v>
       </c>
-      <c r="E65" s="145">
+      <c r="E65" s="129">
         <v>45678</v>
       </c>
       <c r="F65" s="68" t="s">
         <v>324</v>
       </c>
-      <c r="G65" s="122" t="s">
+      <c r="G65" s="126" t="s">
         <v>321</v>
       </c>
       <c r="H65" s="38">
         <v>3</v>
       </c>
-      <c r="I65" s="122">
+      <c r="I65" s="126">
         <v>20</v>
       </c>
       <c r="J65" s="69">
@@ -6943,25 +7425,25 @@
       <c r="M65" s="38">
         <v>28</v>
       </c>
-      <c r="N65" s="129"/>
-      <c r="O65" s="129"/>
-      <c r="P65" s="129"/>
+      <c r="N65" s="127"/>
+      <c r="O65" s="127"/>
+      <c r="P65" s="127"/>
     </row>
     <row r="66" spans="2:16" ht="21">
-      <c r="B66" s="129"/>
+      <c r="B66" s="127"/>
       <c r="C66" s="38">
         <v>2660</v>
       </c>
-      <c r="D66" s="129"/>
-      <c r="E66" s="155"/>
+      <c r="D66" s="127"/>
+      <c r="E66" s="130"/>
       <c r="F66" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="G66" s="129"/>
+      <c r="G66" s="127"/>
       <c r="H66" s="38">
         <v>10</v>
       </c>
-      <c r="I66" s="129"/>
+      <c r="I66" s="127"/>
       <c r="J66" s="69">
         <f t="shared" si="0"/>
         <v>4.2335999999999999E-2</v>
@@ -6975,25 +7457,25 @@
       <c r="M66" s="38">
         <v>28</v>
       </c>
-      <c r="N66" s="129"/>
-      <c r="O66" s="129"/>
-      <c r="P66" s="129"/>
+      <c r="N66" s="127"/>
+      <c r="O66" s="127"/>
+      <c r="P66" s="127"/>
     </row>
     <row r="67" spans="2:16" ht="21">
-      <c r="B67" s="123"/>
+      <c r="B67" s="128"/>
       <c r="C67" s="38">
         <v>2461</v>
       </c>
-      <c r="D67" s="123"/>
-      <c r="E67" s="146"/>
+      <c r="D67" s="128"/>
+      <c r="E67" s="131"/>
       <c r="F67" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="G67" s="123"/>
+      <c r="G67" s="128"/>
       <c r="H67" s="38">
         <v>130</v>
       </c>
-      <c r="I67" s="123"/>
+      <c r="I67" s="128"/>
       <c r="J67" s="69">
         <f t="shared" si="0"/>
         <v>0.1176</v>
@@ -7007,17 +7489,17 @@
       <c r="M67" s="38">
         <v>56</v>
       </c>
-      <c r="N67" s="123"/>
-      <c r="O67" s="123"/>
-      <c r="P67" s="123"/>
+      <c r="N67" s="128"/>
+      <c r="O67" s="128"/>
+      <c r="P67" s="128"/>
     </row>
     <row r="68" spans="2:16" ht="22.5">
-      <c r="B68" s="127" t="s">
+      <c r="B68" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C68" s="127"/>
-      <c r="D68" s="127"/>
-      <c r="E68" s="127"/>
+      <c r="C68" s="125"/>
+      <c r="D68" s="125"/>
+      <c r="E68" s="125"/>
       <c r="F68" s="71" t="s">
         <v>326</v>
       </c>
@@ -7086,12 +7568,12 @@
       </c>
     </row>
     <row r="70" spans="2:16" ht="22.5">
-      <c r="B70" s="127" t="s">
+      <c r="B70" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C70" s="127"/>
-      <c r="D70" s="127"/>
-      <c r="E70" s="127"/>
+      <c r="C70" s="125"/>
+      <c r="D70" s="125"/>
+      <c r="E70" s="125"/>
       <c r="F70" s="102" t="s">
         <v>228</v>
       </c>
@@ -7152,12 +7634,12 @@
       </c>
     </row>
     <row r="72" spans="2:16" ht="22.5">
-      <c r="B72" s="127" t="s">
+      <c r="B72" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C72" s="127"/>
-      <c r="D72" s="127"/>
-      <c r="E72" s="127"/>
+      <c r="C72" s="125"/>
+      <c r="D72" s="125"/>
+      <c r="E72" s="125"/>
       <c r="F72" s="102" t="s">
         <v>225</v>
       </c>
@@ -7226,12 +7708,12 @@
       </c>
     </row>
     <row r="74" spans="2:16" ht="22.5">
-      <c r="B74" s="127" t="s">
+      <c r="B74" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="127"/>
-      <c r="D74" s="127"/>
-      <c r="E74" s="127"/>
+      <c r="C74" s="125"/>
+      <c r="D74" s="125"/>
+      <c r="E74" s="125"/>
       <c r="F74" s="102" t="s">
         <v>368</v>
       </c>
@@ -7292,12 +7774,12 @@
       <c r="P75" s="41"/>
     </row>
     <row r="76" spans="2:16" ht="22.5">
-      <c r="B76" s="127" t="s">
+      <c r="B76" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C76" s="127"/>
-      <c r="D76" s="127"/>
-      <c r="E76" s="127"/>
+      <c r="C76" s="125"/>
+      <c r="D76" s="125"/>
+      <c r="E76" s="125"/>
       <c r="F76" s="102" t="s">
         <v>373</v>
       </c>
@@ -7362,12 +7844,12 @@
       <c r="P77" s="41"/>
     </row>
     <row r="78" spans="2:16" ht="22.5">
-      <c r="B78" s="127" t="s">
+      <c r="B78" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C78" s="127"/>
-      <c r="D78" s="127"/>
-      <c r="E78" s="127"/>
+      <c r="C78" s="125"/>
+      <c r="D78" s="125"/>
+      <c r="E78" s="125"/>
       <c r="F78" s="102" t="s">
         <v>423</v>
       </c>
@@ -7436,12 +7918,12 @@
       </c>
     </row>
     <row r="80" spans="2:16" ht="22.5">
-      <c r="B80" s="127" t="s">
+      <c r="B80" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C80" s="127"/>
-      <c r="D80" s="127"/>
-      <c r="E80" s="127"/>
+      <c r="C80" s="125"/>
+      <c r="D80" s="125"/>
+      <c r="E80" s="125"/>
       <c r="F80" s="102" t="s">
         <v>427</v>
       </c>
@@ -7504,12 +7986,12 @@
       </c>
     </row>
     <row r="82" spans="2:16" ht="22.5">
-      <c r="B82" s="127" t="s">
+      <c r="B82" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C82" s="127"/>
-      <c r="D82" s="127"/>
-      <c r="E82" s="127"/>
+      <c r="C82" s="125"/>
+      <c r="D82" s="125"/>
+      <c r="E82" s="125"/>
       <c r="F82" s="102" t="s">
         <v>433</v>
       </c>
@@ -7574,12 +8056,12 @@
       </c>
     </row>
     <row r="84" spans="2:16" ht="22.5">
-      <c r="B84" s="127" t="s">
+      <c r="B84" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C84" s="127"/>
-      <c r="D84" s="127"/>
-      <c r="E84" s="127"/>
+      <c r="C84" s="125"/>
+      <c r="D84" s="125"/>
+      <c r="E84" s="125"/>
       <c r="F84" s="71" t="s">
         <v>230</v>
       </c>
@@ -7646,12 +8128,12 @@
       </c>
     </row>
     <row r="86" spans="2:16" ht="22.5">
-      <c r="B86" s="127" t="s">
+      <c r="B86" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C86" s="127"/>
-      <c r="D86" s="127"/>
-      <c r="E86" s="127"/>
+      <c r="C86" s="125"/>
+      <c r="D86" s="125"/>
+      <c r="E86" s="125"/>
       <c r="F86" s="71" t="s">
         <v>368</v>
       </c>
@@ -7714,12 +8196,12 @@
       <c r="P87" s="38"/>
     </row>
     <row r="88" spans="2:16" ht="22.5">
-      <c r="B88" s="127" t="s">
+      <c r="B88" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C88" s="127"/>
-      <c r="D88" s="127"/>
-      <c r="E88" s="127"/>
+      <c r="C88" s="125"/>
+      <c r="D88" s="125"/>
+      <c r="E88" s="125"/>
       <c r="F88" s="71" t="s">
         <v>239</v>
       </c>
@@ -7738,87 +8220,151 @@
       <c r="O88" s="74"/>
       <c r="P88" s="74"/>
     </row>
+    <row r="89" spans="2:16" ht="21">
+      <c r="B89" s="150" t="s">
+        <v>529</v>
+      </c>
+      <c r="C89" s="150">
+        <v>15262730846</v>
+      </c>
+      <c r="D89" s="150" t="s">
+        <v>217</v>
+      </c>
+      <c r="E89" s="153">
+        <v>45719</v>
+      </c>
+      <c r="F89" s="100" t="s">
+        <v>530</v>
+      </c>
+      <c r="G89" s="150" t="s">
+        <v>237</v>
+      </c>
+      <c r="H89" s="41">
+        <v>1500</v>
+      </c>
+      <c r="I89" s="150">
+        <v>2675</v>
+      </c>
+      <c r="J89" s="101">
+        <v>4.8544999999999998</v>
+      </c>
+      <c r="K89" s="41">
+        <v>73</v>
+      </c>
+      <c r="L89" s="41">
+        <v>70</v>
+      </c>
+      <c r="M89" s="41">
+        <v>19</v>
+      </c>
+      <c r="N89" s="150" t="s">
+        <v>244</v>
+      </c>
+      <c r="O89" s="150" t="s">
+        <v>244</v>
+      </c>
+      <c r="P89" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" ht="21">
+      <c r="B90" s="151"/>
+      <c r="C90" s="151"/>
+      <c r="D90" s="151"/>
+      <c r="E90" s="154"/>
+      <c r="F90" s="100" t="s">
+        <v>531</v>
+      </c>
+      <c r="G90" s="151"/>
+      <c r="H90" s="41">
+        <v>1500</v>
+      </c>
+      <c r="I90" s="151"/>
+      <c r="J90" s="101">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="K90" s="41">
+        <v>74</v>
+      </c>
+      <c r="L90" s="41">
+        <v>52</v>
+      </c>
+      <c r="M90" s="41">
+        <v>25</v>
+      </c>
+      <c r="N90" s="151"/>
+      <c r="O90" s="151"/>
+      <c r="P90" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" ht="21">
+      <c r="B91" s="152"/>
+      <c r="C91" s="152"/>
+      <c r="D91" s="152"/>
+      <c r="E91" s="155"/>
+      <c r="F91" s="100" t="s">
+        <v>532</v>
+      </c>
+      <c r="G91" s="152"/>
+      <c r="H91" s="41">
+        <v>210</v>
+      </c>
+      <c r="I91" s="152"/>
+      <c r="J91" s="101">
+        <v>0.63724500000000006</v>
+      </c>
+      <c r="K91" s="41">
+        <v>51</v>
+      </c>
+      <c r="L91" s="41">
+        <v>51</v>
+      </c>
+      <c r="M91" s="41">
+        <v>35</v>
+      </c>
+      <c r="N91" s="152"/>
+      <c r="O91" s="152"/>
+      <c r="P91" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16" ht="22.5">
+      <c r="B92" s="125" t="s">
+        <v>220</v>
+      </c>
+      <c r="C92" s="125"/>
+      <c r="D92" s="125"/>
+      <c r="E92" s="125"/>
+      <c r="F92" s="102" t="s">
+        <v>255</v>
+      </c>
+      <c r="G92" s="103"/>
+      <c r="H92" s="103"/>
+      <c r="I92" s="103">
+        <v>2675</v>
+      </c>
+      <c r="J92" s="104">
+        <v>10.301745</v>
+      </c>
+      <c r="K92" s="103"/>
+      <c r="L92" s="103"/>
+      <c r="M92" s="103"/>
+      <c r="N92" s="63"/>
+      <c r="O92" s="63"/>
+      <c r="P92" s="63"/>
+    </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="I61:I64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="O39:O41"/>
-    <mergeCell ref="P39:P41"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I37"/>
-    <mergeCell ref="N32:N37"/>
-    <mergeCell ref="O32:O37"/>
-    <mergeCell ref="P32:P37"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="E32:E37"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="I7:I10"/>
+  <mergeCells count="104">
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="N89:N91"/>
+    <mergeCell ref="O89:O91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="G89:G91"/>
     <mergeCell ref="P52:P53"/>
     <mergeCell ref="P55:P57"/>
     <mergeCell ref="B60:E60"/>
@@ -7835,6 +8381,85 @@
     <mergeCell ref="I55:I57"/>
     <mergeCell ref="N55:N57"/>
     <mergeCell ref="O55:O57"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I37"/>
+    <mergeCell ref="N32:N37"/>
+    <mergeCell ref="O32:O37"/>
+    <mergeCell ref="P32:P37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B76:E76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7842,11 +8467,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DD94FD-D993-429D-A766-D707FAC76EEB}">
-  <dimension ref="A1:P167"/>
+  <dimension ref="A1:P199"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B159" sqref="B159:B166"/>
+      <pane ySplit="3" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7926,11 +8551,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="133" t="s">
+      <c r="K2" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -7942,10 +8567,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="162"/>
+      <c r="B3" s="176"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -8521,25 +9146,25 @@
       <c r="A21" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="163" t="s">
+      <c r="B21" s="162" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="163" t="s">
+      <c r="D21" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="145">
+      <c r="E21" s="129">
         <v>45661</v>
       </c>
       <c r="F21" s="28">
         <v>1</v>
       </c>
-      <c r="G21" s="163" t="s">
+      <c r="G21" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="163">
+      <c r="H21" s="162">
         <v>2</v>
       </c>
       <c r="I21" s="28">
@@ -8558,7 +9183,7 @@
         <v>13</v>
       </c>
       <c r="N21" s="28"/>
-      <c r="O21" s="163" t="s">
+      <c r="O21" s="162" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8571,7 +9196,7 @@
         <v>57</v>
       </c>
       <c r="D22" s="164"/>
-      <c r="E22" s="146"/>
+      <c r="E22" s="131"/>
       <c r="F22" s="28">
         <v>2</v>
       </c>
@@ -9178,25 +9803,25 @@
       <c r="A40" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="163" t="s">
+      <c r="B40" s="162" t="s">
         <v>89</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="163" t="s">
+      <c r="D40" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="145">
+      <c r="E40" s="129">
         <v>45664</v>
       </c>
       <c r="F40" s="28">
         <v>1</v>
       </c>
-      <c r="G40" s="163" t="s">
+      <c r="G40" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="163">
+      <c r="H40" s="162">
         <v>3</v>
       </c>
       <c r="I40" s="28">
@@ -9215,7 +9840,7 @@
         <v>20</v>
       </c>
       <c r="N40" s="28"/>
-      <c r="O40" s="163" t="s">
+      <c r="O40" s="162" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9223,17 +9848,17 @@
       <c r="A41" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="165"/>
+      <c r="B41" s="163"/>
       <c r="C41" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="165"/>
-      <c r="E41" s="155"/>
+      <c r="D41" s="163"/>
+      <c r="E41" s="130"/>
       <c r="F41" s="28">
         <v>2</v>
       </c>
-      <c r="G41" s="165"/>
-      <c r="H41" s="165"/>
+      <c r="G41" s="163"/>
+      <c r="H41" s="163"/>
       <c r="I41" s="28">
         <v>1.4</v>
       </c>
@@ -9250,7 +9875,7 @@
         <v>20</v>
       </c>
       <c r="N41" s="28"/>
-      <c r="O41" s="165"/>
+      <c r="O41" s="163"/>
     </row>
     <row r="42" spans="1:15" ht="21">
       <c r="A42" s="28" t="s">
@@ -9261,7 +9886,7 @@
         <v>94</v>
       </c>
       <c r="D42" s="164"/>
-      <c r="E42" s="146"/>
+      <c r="E42" s="131"/>
       <c r="F42" s="28">
         <v>3</v>
       </c>
@@ -9526,42 +10151,42 @@
       <c r="A50" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="124" t="s">
+      <c r="B50" s="150" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="124" t="s">
+      <c r="C50" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="124" t="s">
+      <c r="D50" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="148">
+      <c r="E50" s="153">
         <v>45666</v>
       </c>
       <c r="F50" s="41">
         <v>1</v>
       </c>
-      <c r="G50" s="124" t="s">
+      <c r="G50" s="150" t="s">
         <v>25</v>
       </c>
       <c r="H50" s="41"/>
-      <c r="I50" s="124">
+      <c r="I50" s="150">
         <v>10.199999999999999</v>
       </c>
-      <c r="J50" s="166">
+      <c r="J50" s="174">
         <v>0.10335</v>
       </c>
-      <c r="K50" s="124">
+      <c r="K50" s="150">
         <v>53</v>
       </c>
-      <c r="L50" s="124">
+      <c r="L50" s="150">
         <v>39</v>
       </c>
-      <c r="M50" s="124">
+      <c r="M50" s="150">
         <v>50</v>
       </c>
       <c r="N50" s="41"/>
-      <c r="O50" s="124" t="s">
+      <c r="O50" s="150" t="s">
         <v>109</v>
       </c>
     </row>
@@ -9569,22 +10194,22 @@
       <c r="A51" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="126"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="150"/>
+      <c r="B51" s="152"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="152"/>
+      <c r="E51" s="155"/>
       <c r="F51" s="41">
         <v>2</v>
       </c>
-      <c r="G51" s="126"/>
+      <c r="G51" s="152"/>
       <c r="H51" s="41"/>
-      <c r="I51" s="126"/>
-      <c r="J51" s="167"/>
-      <c r="K51" s="126"/>
-      <c r="L51" s="126"/>
-      <c r="M51" s="126"/>
+      <c r="I51" s="152"/>
+      <c r="J51" s="175"/>
+      <c r="K51" s="152"/>
+      <c r="L51" s="152"/>
+      <c r="M51" s="152"/>
       <c r="N51" s="41"/>
-      <c r="O51" s="126"/>
+      <c r="O51" s="152"/>
     </row>
     <row r="52" spans="1:15" ht="22.5">
       <c r="A52" s="32"/>
@@ -9615,16 +10240,16 @@
       <c r="A53" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="156" t="s">
+      <c r="B53" s="170" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="156" t="s">
+      <c r="C53" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="156" t="s">
+      <c r="D53" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="159">
+      <c r="E53" s="172">
         <v>45668</v>
       </c>
       <c r="F53" s="44">
@@ -9633,7 +10258,7 @@
       <c r="G53" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="H53" s="156">
+      <c r="H53" s="170">
         <v>1676</v>
       </c>
       <c r="I53" s="44">
@@ -9653,7 +10278,7 @@
         <v>43</v>
       </c>
       <c r="N53" s="44"/>
-      <c r="O53" s="156" t="s">
+      <c r="O53" s="170" t="s">
         <v>115</v>
       </c>
     </row>
@@ -9661,15 +10286,15 @@
       <c r="A54" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="158"/>
-      <c r="C54" s="158"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="161"/>
+      <c r="B54" s="171"/>
+      <c r="C54" s="171"/>
+      <c r="D54" s="171"/>
+      <c r="E54" s="173"/>
       <c r="F54" s="44">
         <v>2</v>
       </c>
-      <c r="G54" s="140"/>
-      <c r="H54" s="158"/>
+      <c r="G54" s="144"/>
+      <c r="H54" s="171"/>
       <c r="I54" s="44">
         <v>16.7</v>
       </c>
@@ -9687,7 +10312,7 @@
         <v>30</v>
       </c>
       <c r="N54" s="44"/>
-      <c r="O54" s="158"/>
+      <c r="O54" s="171"/>
     </row>
     <row r="55" spans="1:15" ht="22.5">
       <c r="A55" s="32"/>
@@ -9718,16 +10343,16 @@
       <c r="A56" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="156" t="s">
+      <c r="B56" s="170" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="156" t="s">
+      <c r="C56" s="170" t="s">
         <v>119</v>
       </c>
-      <c r="D56" s="156" t="s">
+      <c r="D56" s="170" t="s">
         <v>82</v>
       </c>
-      <c r="E56" s="159">
+      <c r="E56" s="172">
         <v>45670</v>
       </c>
       <c r="F56" s="44">
@@ -9736,7 +10361,7 @@
       <c r="G56" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="H56" s="156">
+      <c r="H56" s="170">
         <v>145</v>
       </c>
       <c r="I56" s="44">
@@ -9756,7 +10381,7 @@
         <v>23</v>
       </c>
       <c r="N56" s="52"/>
-      <c r="O56" s="156" t="s">
+      <c r="O56" s="170" t="s">
         <v>121</v>
       </c>
     </row>
@@ -9764,15 +10389,15 @@
       <c r="A57" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="158"/>
-      <c r="C57" s="158"/>
-      <c r="D57" s="158"/>
-      <c r="E57" s="161"/>
+      <c r="B57" s="171"/>
+      <c r="C57" s="171"/>
+      <c r="D57" s="171"/>
+      <c r="E57" s="173"/>
       <c r="F57" s="44">
         <v>2</v>
       </c>
-      <c r="G57" s="140"/>
-      <c r="H57" s="158"/>
+      <c r="G57" s="144"/>
+      <c r="H57" s="171"/>
       <c r="I57" s="44">
         <v>13.7</v>
       </c>
@@ -9790,7 +10415,7 @@
         <v>49</v>
       </c>
       <c r="N57" s="44"/>
-      <c r="O57" s="158"/>
+      <c r="O57" s="171"/>
     </row>
     <row r="58" spans="1:15" ht="22.5">
       <c r="A58" s="32"/>
@@ -10227,20 +10852,20 @@
       <c r="A71" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="B71" s="168" t="s">
+      <c r="B71" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="168"/>
-      <c r="D71" s="168" t="s">
+      <c r="C71" s="159"/>
+      <c r="D71" s="159" t="s">
         <v>156</v>
       </c>
-      <c r="E71" s="148">
+      <c r="E71" s="153">
         <v>45673</v>
       </c>
       <c r="F71" s="53">
         <v>1</v>
       </c>
-      <c r="G71" s="168" t="s">
+      <c r="G71" s="159" t="s">
         <v>157</v>
       </c>
       <c r="H71" s="53">
@@ -10269,14 +10894,14 @@
       <c r="A72" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="169"/>
-      <c r="C72" s="169"/>
-      <c r="D72" s="169"/>
-      <c r="E72" s="149"/>
+      <c r="B72" s="160"/>
+      <c r="C72" s="160"/>
+      <c r="D72" s="160"/>
+      <c r="E72" s="154"/>
       <c r="F72" s="53">
         <v>2</v>
       </c>
-      <c r="G72" s="169"/>
+      <c r="G72" s="160"/>
       <c r="H72" s="53">
         <v>240</v>
       </c>
@@ -10303,14 +10928,14 @@
       <c r="A73" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="B73" s="169"/>
-      <c r="C73" s="169"/>
-      <c r="D73" s="169"/>
-      <c r="E73" s="149"/>
+      <c r="B73" s="160"/>
+      <c r="C73" s="160"/>
+      <c r="D73" s="160"/>
+      <c r="E73" s="154"/>
       <c r="F73" s="53">
         <v>3</v>
       </c>
-      <c r="G73" s="169"/>
+      <c r="G73" s="160"/>
       <c r="H73" s="53">
         <v>300</v>
       </c>
@@ -10337,14 +10962,14 @@
       <c r="A74" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="B74" s="169"/>
-      <c r="C74" s="169"/>
-      <c r="D74" s="169"/>
-      <c r="E74" s="149"/>
+      <c r="B74" s="160"/>
+      <c r="C74" s="160"/>
+      <c r="D74" s="160"/>
+      <c r="E74" s="154"/>
       <c r="F74" s="53">
         <v>4</v>
       </c>
-      <c r="G74" s="169"/>
+      <c r="G74" s="160"/>
       <c r="H74" s="53">
         <v>230</v>
       </c>
@@ -10371,14 +10996,14 @@
       <c r="A75" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="B75" s="169"/>
-      <c r="C75" s="169"/>
-      <c r="D75" s="169"/>
-      <c r="E75" s="149"/>
+      <c r="B75" s="160"/>
+      <c r="C75" s="160"/>
+      <c r="D75" s="160"/>
+      <c r="E75" s="154"/>
       <c r="F75" s="53">
         <v>5</v>
       </c>
-      <c r="G75" s="169"/>
+      <c r="G75" s="160"/>
       <c r="H75" s="53">
         <v>220</v>
       </c>
@@ -10405,14 +11030,14 @@
       <c r="A76" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B76" s="169"/>
-      <c r="C76" s="169"/>
-      <c r="D76" s="169"/>
-      <c r="E76" s="149"/>
+      <c r="B76" s="160"/>
+      <c r="C76" s="160"/>
+      <c r="D76" s="160"/>
+      <c r="E76" s="154"/>
       <c r="F76" s="53">
         <v>6</v>
       </c>
-      <c r="G76" s="169"/>
+      <c r="G76" s="160"/>
       <c r="H76" s="53">
         <v>200</v>
       </c>
@@ -10439,14 +11064,14 @@
       <c r="A77" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B77" s="169"/>
-      <c r="C77" s="169"/>
-      <c r="D77" s="169"/>
-      <c r="E77" s="149"/>
+      <c r="B77" s="160"/>
+      <c r="C77" s="160"/>
+      <c r="D77" s="160"/>
+      <c r="E77" s="154"/>
       <c r="F77" s="53">
         <v>7</v>
       </c>
-      <c r="G77" s="169"/>
+      <c r="G77" s="160"/>
       <c r="H77" s="53">
         <v>190</v>
       </c>
@@ -10473,14 +11098,14 @@
       <c r="A78" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="169"/>
-      <c r="C78" s="169"/>
-      <c r="D78" s="169"/>
-      <c r="E78" s="149"/>
+      <c r="B78" s="160"/>
+      <c r="C78" s="160"/>
+      <c r="D78" s="160"/>
+      <c r="E78" s="154"/>
       <c r="F78" s="53">
         <v>8</v>
       </c>
-      <c r="G78" s="169"/>
+      <c r="G78" s="160"/>
       <c r="H78" s="53">
         <v>200</v>
       </c>
@@ -10507,14 +11132,14 @@
       <c r="A79" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="B79" s="169"/>
-      <c r="C79" s="169"/>
-      <c r="D79" s="169"/>
-      <c r="E79" s="149"/>
+      <c r="B79" s="160"/>
+      <c r="C79" s="160"/>
+      <c r="D79" s="160"/>
+      <c r="E79" s="154"/>
       <c r="F79" s="53">
         <v>9</v>
       </c>
-      <c r="G79" s="169"/>
+      <c r="G79" s="160"/>
       <c r="H79" s="53">
         <v>200</v>
       </c>
@@ -10541,14 +11166,14 @@
       <c r="A80" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="B80" s="169"/>
-      <c r="C80" s="169"/>
-      <c r="D80" s="169"/>
-      <c r="E80" s="149"/>
+      <c r="B80" s="160"/>
+      <c r="C80" s="160"/>
+      <c r="D80" s="160"/>
+      <c r="E80" s="154"/>
       <c r="F80" s="53">
         <v>10</v>
       </c>
-      <c r="G80" s="169"/>
+      <c r="G80" s="160"/>
       <c r="H80" s="53">
         <v>200</v>
       </c>
@@ -10575,14 +11200,14 @@
       <c r="A81" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="B81" s="170"/>
-      <c r="C81" s="170"/>
-      <c r="D81" s="170"/>
-      <c r="E81" s="150"/>
+      <c r="B81" s="161"/>
+      <c r="C81" s="161"/>
+      <c r="D81" s="161"/>
+      <c r="E81" s="155"/>
       <c r="F81" s="53">
         <v>11</v>
       </c>
-      <c r="G81" s="170"/>
+      <c r="G81" s="161"/>
       <c r="H81" s="53">
         <v>200</v>
       </c>
@@ -11309,22 +11934,22 @@
       <c r="A103" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="B103" s="168" t="s">
+      <c r="B103" s="159" t="s">
         <v>209</v>
       </c>
-      <c r="C103" s="168" t="s">
+      <c r="C103" s="159" t="s">
         <v>210</v>
       </c>
-      <c r="D103" s="168" t="s">
+      <c r="D103" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="E103" s="148">
+      <c r="E103" s="153">
         <v>45680</v>
       </c>
       <c r="F103" s="53">
         <v>1</v>
       </c>
-      <c r="G103" s="171" t="s">
+      <c r="G103" s="169" t="s">
         <v>211</v>
       </c>
       <c r="H103" s="53"/>
@@ -11351,14 +11976,14 @@
       <c r="A104" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="B104" s="169"/>
-      <c r="C104" s="169"/>
-      <c r="D104" s="169"/>
-      <c r="E104" s="149"/>
+      <c r="B104" s="160"/>
+      <c r="C104" s="160"/>
+      <c r="D104" s="160"/>
+      <c r="E104" s="154"/>
       <c r="F104" s="53">
         <v>2</v>
       </c>
-      <c r="G104" s="169"/>
+      <c r="G104" s="160"/>
       <c r="H104" s="53"/>
       <c r="I104" s="53">
         <v>9.1</v>
@@ -11383,14 +12008,14 @@
       <c r="A105" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="B105" s="169"/>
-      <c r="C105" s="169"/>
-      <c r="D105" s="169"/>
-      <c r="E105" s="149"/>
+      <c r="B105" s="160"/>
+      <c r="C105" s="160"/>
+      <c r="D105" s="160"/>
+      <c r="E105" s="154"/>
       <c r="F105" s="53">
         <v>3</v>
       </c>
-      <c r="G105" s="169"/>
+      <c r="G105" s="160"/>
       <c r="H105" s="53"/>
       <c r="I105" s="53">
         <v>24.1</v>
@@ -11415,14 +12040,14 @@
       <c r="A106" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="B106" s="170"/>
-      <c r="C106" s="170"/>
-      <c r="D106" s="170"/>
-      <c r="E106" s="150"/>
+      <c r="B106" s="161"/>
+      <c r="C106" s="161"/>
+      <c r="D106" s="161"/>
+      <c r="E106" s="155"/>
       <c r="F106" s="53">
         <v>4</v>
       </c>
-      <c r="G106" s="170"/>
+      <c r="G106" s="161"/>
       <c r="H106" s="53"/>
       <c r="I106" s="53">
         <v>6.4</v>
@@ -11544,25 +12169,25 @@
       <c r="A110" s="53" t="s">
         <v>333</v>
       </c>
-      <c r="B110" s="172" t="s">
+      <c r="B110" s="167" t="s">
         <v>334</v>
       </c>
       <c r="C110" s="53" t="s">
         <v>335</v>
       </c>
-      <c r="D110" s="172" t="s">
+      <c r="D110" s="167" t="s">
         <v>330</v>
       </c>
-      <c r="E110" s="173">
+      <c r="E110" s="168">
         <v>45698</v>
       </c>
       <c r="F110" s="53">
         <v>1</v>
       </c>
-      <c r="G110" s="172" t="s">
+      <c r="G110" s="167" t="s">
         <v>331</v>
       </c>
-      <c r="H110" s="172">
+      <c r="H110" s="167">
         <v>2</v>
       </c>
       <c r="I110" s="53">
@@ -11581,7 +12206,7 @@
         <v>10</v>
       </c>
       <c r="N110" s="53"/>
-      <c r="O110" s="172" t="s">
+      <c r="O110" s="167" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11589,17 +12214,17 @@
       <c r="A111" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="B111" s="172"/>
+      <c r="B111" s="167"/>
       <c r="C111" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="D111" s="172"/>
-      <c r="E111" s="173"/>
+      <c r="D111" s="167"/>
+      <c r="E111" s="168"/>
       <c r="F111" s="53">
         <v>2</v>
       </c>
-      <c r="G111" s="172"/>
-      <c r="H111" s="172"/>
+      <c r="G111" s="167"/>
+      <c r="H111" s="167"/>
       <c r="I111" s="53">
         <v>1.4</v>
       </c>
@@ -11616,7 +12241,7 @@
         <v>14</v>
       </c>
       <c r="N111" s="53"/>
-      <c r="O111" s="172"/>
+      <c r="O111" s="167"/>
     </row>
     <row r="112" spans="1:15" ht="22.5">
       <c r="A112" s="64"/>
@@ -11993,16 +12618,16 @@
       <c r="A123" s="44" t="s">
         <v>377</v>
       </c>
-      <c r="B123" s="156" t="s">
+      <c r="B123" s="170" t="s">
         <v>378</v>
       </c>
-      <c r="C123" s="156" t="s">
+      <c r="C123" s="170" t="s">
         <v>379</v>
       </c>
-      <c r="D123" s="156" t="s">
+      <c r="D123" s="170" t="s">
         <v>380</v>
       </c>
-      <c r="E123" s="159">
+      <c r="E123" s="172">
         <v>45706</v>
       </c>
       <c r="F123" s="44">
@@ -12011,7 +12636,7 @@
       <c r="G123" s="138" t="s">
         <v>381</v>
       </c>
-      <c r="H123" s="156">
+      <c r="H123" s="170">
         <v>553</v>
       </c>
       <c r="I123" s="44">
@@ -12030,7 +12655,7 @@
         <v>49</v>
       </c>
       <c r="N123" s="44"/>
-      <c r="O123" s="156" t="s">
+      <c r="O123" s="170" t="s">
         <v>196</v>
       </c>
     </row>
@@ -12038,15 +12663,15 @@
       <c r="A124" s="44" t="s">
         <v>382</v>
       </c>
-      <c r="B124" s="157"/>
-      <c r="C124" s="157"/>
-      <c r="D124" s="157"/>
-      <c r="E124" s="160"/>
+      <c r="B124" s="177"/>
+      <c r="C124" s="177"/>
+      <c r="D124" s="177"/>
+      <c r="E124" s="178"/>
       <c r="F124" s="44">
         <v>2</v>
       </c>
-      <c r="G124" s="139"/>
-      <c r="H124" s="157"/>
+      <c r="G124" s="143"/>
+      <c r="H124" s="177"/>
       <c r="I124" s="44">
         <v>11.9</v>
       </c>
@@ -12063,21 +12688,21 @@
         <v>49</v>
       </c>
       <c r="N124" s="44"/>
-      <c r="O124" s="157"/>
+      <c r="O124" s="177"/>
     </row>
     <row r="125" spans="1:15" ht="21">
       <c r="A125" s="44" t="s">
         <v>383</v>
       </c>
-      <c r="B125" s="157"/>
-      <c r="C125" s="157"/>
-      <c r="D125" s="157"/>
-      <c r="E125" s="160"/>
+      <c r="B125" s="177"/>
+      <c r="C125" s="177"/>
+      <c r="D125" s="177"/>
+      <c r="E125" s="178"/>
       <c r="F125" s="44">
         <v>3</v>
       </c>
-      <c r="G125" s="139"/>
-      <c r="H125" s="157"/>
+      <c r="G125" s="143"/>
+      <c r="H125" s="177"/>
       <c r="I125" s="44">
         <v>13.8</v>
       </c>
@@ -12094,21 +12719,21 @@
         <v>49</v>
       </c>
       <c r="N125" s="44"/>
-      <c r="O125" s="157"/>
+      <c r="O125" s="177"/>
     </row>
     <row r="126" spans="1:15" ht="21">
       <c r="A126" s="44" t="s">
         <v>384</v>
       </c>
-      <c r="B126" s="157"/>
-      <c r="C126" s="157"/>
-      <c r="D126" s="157"/>
-      <c r="E126" s="160"/>
+      <c r="B126" s="177"/>
+      <c r="C126" s="177"/>
+      <c r="D126" s="177"/>
+      <c r="E126" s="178"/>
       <c r="F126" s="44">
         <v>4</v>
       </c>
-      <c r="G126" s="139"/>
-      <c r="H126" s="157"/>
+      <c r="G126" s="143"/>
+      <c r="H126" s="177"/>
       <c r="I126" s="44">
         <v>17.600000000000001</v>
       </c>
@@ -12125,21 +12750,21 @@
         <v>49</v>
       </c>
       <c r="N126" s="44"/>
-      <c r="O126" s="157"/>
+      <c r="O126" s="177"/>
     </row>
     <row r="127" spans="1:15" ht="21">
       <c r="A127" s="44" t="s">
         <v>385</v>
       </c>
-      <c r="B127" s="157"/>
-      <c r="C127" s="157"/>
-      <c r="D127" s="157"/>
-      <c r="E127" s="160"/>
+      <c r="B127" s="177"/>
+      <c r="C127" s="177"/>
+      <c r="D127" s="177"/>
+      <c r="E127" s="178"/>
       <c r="F127" s="44">
         <v>5</v>
       </c>
-      <c r="G127" s="139"/>
-      <c r="H127" s="157"/>
+      <c r="G127" s="143"/>
+      <c r="H127" s="177"/>
       <c r="I127" s="44">
         <v>7.8</v>
       </c>
@@ -12156,21 +12781,21 @@
         <v>43</v>
       </c>
       <c r="N127" s="44"/>
-      <c r="O127" s="157"/>
+      <c r="O127" s="177"/>
     </row>
     <row r="128" spans="1:15" ht="21">
       <c r="A128" s="44" t="s">
         <v>386</v>
       </c>
-      <c r="B128" s="157"/>
-      <c r="C128" s="157"/>
-      <c r="D128" s="157"/>
-      <c r="E128" s="160"/>
+      <c r="B128" s="177"/>
+      <c r="C128" s="177"/>
+      <c r="D128" s="177"/>
+      <c r="E128" s="178"/>
       <c r="F128" s="44">
         <v>6</v>
       </c>
-      <c r="G128" s="139"/>
-      <c r="H128" s="157"/>
+      <c r="G128" s="143"/>
+      <c r="H128" s="177"/>
       <c r="I128" s="44">
         <v>15.5</v>
       </c>
@@ -12187,21 +12812,21 @@
         <v>49</v>
       </c>
       <c r="N128" s="44"/>
-      <c r="O128" s="157"/>
+      <c r="O128" s="177"/>
     </row>
     <row r="129" spans="1:15" ht="21">
       <c r="A129" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="B129" s="158"/>
-      <c r="C129" s="158"/>
-      <c r="D129" s="158"/>
-      <c r="E129" s="161"/>
+      <c r="B129" s="171"/>
+      <c r="C129" s="171"/>
+      <c r="D129" s="171"/>
+      <c r="E129" s="173"/>
       <c r="F129" s="44">
         <v>7</v>
       </c>
-      <c r="G129" s="140"/>
-      <c r="H129" s="158"/>
+      <c r="G129" s="144"/>
+      <c r="H129" s="171"/>
       <c r="I129" s="44">
         <v>14.6</v>
       </c>
@@ -12218,7 +12843,7 @@
         <v>49</v>
       </c>
       <c r="N129" s="44"/>
-      <c r="O129" s="158"/>
+      <c r="O129" s="171"/>
     </row>
     <row r="130" spans="1:15" ht="22.5">
       <c r="A130" s="64"/>
@@ -12866,22 +13491,22 @@
       <c r="A149" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B149" s="163" t="s">
+      <c r="B149" s="162" t="s">
         <v>448</v>
       </c>
       <c r="C149" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="D149" s="163" t="s">
+      <c r="D149" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="E149" s="174">
+      <c r="E149" s="165">
         <v>45713</v>
       </c>
       <c r="F149" s="28">
         <v>1</v>
       </c>
-      <c r="G149" s="163" t="s">
+      <c r="G149" s="162" t="s">
         <v>25</v>
       </c>
       <c r="H149" s="28"/>
@@ -12901,7 +13526,7 @@
         <v>37</v>
       </c>
       <c r="N149" s="28"/>
-      <c r="O149" s="163" t="s">
+      <c r="O149" s="162" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12914,7 +13539,7 @@
         <v>451</v>
       </c>
       <c r="D150" s="164"/>
-      <c r="E150" s="175"/>
+      <c r="E150" s="166"/>
       <c r="F150" s="28">
         <v>2</v>
       </c>
@@ -12967,25 +13592,25 @@
       <c r="A152" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="B152" s="163" t="s">
+      <c r="B152" s="162" t="s">
         <v>453</v>
       </c>
-      <c r="C152" s="163" t="s">
+      <c r="C152" s="162" t="s">
         <v>454</v>
       </c>
-      <c r="D152" s="163" t="s">
+      <c r="D152" s="162" t="s">
         <v>455</v>
       </c>
-      <c r="E152" s="174">
+      <c r="E152" s="165">
         <v>45713</v>
       </c>
       <c r="F152" s="28">
         <v>1</v>
       </c>
-      <c r="G152" s="163" t="s">
+      <c r="G152" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="H152" s="163">
+      <c r="H152" s="162">
         <v>120</v>
       </c>
       <c r="I152" s="28">
@@ -13004,7 +13629,7 @@
         <v>50</v>
       </c>
       <c r="N152" s="28"/>
-      <c r="O152" s="163" t="s">
+      <c r="O152" s="162" t="s">
         <v>26</v>
       </c>
     </row>
@@ -13012,15 +13637,15 @@
       <c r="A153" s="28" t="s">
         <v>456</v>
       </c>
-      <c r="B153" s="165"/>
-      <c r="C153" s="165"/>
-      <c r="D153" s="165"/>
-      <c r="E153" s="129"/>
+      <c r="B153" s="163"/>
+      <c r="C153" s="163"/>
+      <c r="D153" s="163"/>
+      <c r="E153" s="127"/>
       <c r="F153" s="28">
         <v>2</v>
       </c>
-      <c r="G153" s="165"/>
-      <c r="H153" s="165"/>
+      <c r="G153" s="163"/>
+      <c r="H153" s="163"/>
       <c r="I153" s="28">
         <v>19.5</v>
       </c>
@@ -13037,21 +13662,21 @@
         <v>50</v>
       </c>
       <c r="N153" s="28"/>
-      <c r="O153" s="165"/>
+      <c r="O153" s="163"/>
     </row>
     <row r="154" spans="1:15" ht="21">
       <c r="A154" s="28" t="s">
         <v>457</v>
       </c>
-      <c r="B154" s="165"/>
-      <c r="C154" s="165"/>
-      <c r="D154" s="165"/>
-      <c r="E154" s="129"/>
+      <c r="B154" s="163"/>
+      <c r="C154" s="163"/>
+      <c r="D154" s="163"/>
+      <c r="E154" s="127"/>
       <c r="F154" s="28">
         <v>3</v>
       </c>
-      <c r="G154" s="165"/>
-      <c r="H154" s="165"/>
+      <c r="G154" s="163"/>
+      <c r="H154" s="163"/>
       <c r="I154" s="28">
         <v>22</v>
       </c>
@@ -13068,21 +13693,21 @@
         <v>50</v>
       </c>
       <c r="N154" s="28"/>
-      <c r="O154" s="165"/>
+      <c r="O154" s="163"/>
     </row>
     <row r="155" spans="1:15" ht="21">
       <c r="A155" s="28" t="s">
         <v>458</v>
       </c>
-      <c r="B155" s="165"/>
-      <c r="C155" s="165"/>
-      <c r="D155" s="165"/>
-      <c r="E155" s="129"/>
+      <c r="B155" s="163"/>
+      <c r="C155" s="163"/>
+      <c r="D155" s="163"/>
+      <c r="E155" s="127"/>
       <c r="F155" s="28">
         <v>4</v>
       </c>
-      <c r="G155" s="165"/>
-      <c r="H155" s="165"/>
+      <c r="G155" s="163"/>
+      <c r="H155" s="163"/>
       <c r="I155" s="28">
         <v>21.2</v>
       </c>
@@ -13099,21 +13724,21 @@
         <v>50</v>
       </c>
       <c r="N155" s="28"/>
-      <c r="O155" s="165"/>
+      <c r="O155" s="163"/>
     </row>
     <row r="156" spans="1:15" ht="21">
       <c r="A156" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="B156" s="165"/>
-      <c r="C156" s="165"/>
-      <c r="D156" s="165"/>
-      <c r="E156" s="129"/>
+      <c r="B156" s="163"/>
+      <c r="C156" s="163"/>
+      <c r="D156" s="163"/>
+      <c r="E156" s="127"/>
       <c r="F156" s="28">
         <v>5</v>
       </c>
-      <c r="G156" s="165"/>
-      <c r="H156" s="165"/>
+      <c r="G156" s="163"/>
+      <c r="H156" s="163"/>
       <c r="I156" s="28">
         <v>19.600000000000001</v>
       </c>
@@ -13130,7 +13755,7 @@
         <v>50</v>
       </c>
       <c r="N156" s="28"/>
-      <c r="O156" s="165"/>
+      <c r="O156" s="163"/>
     </row>
     <row r="157" spans="1:15" ht="21">
       <c r="A157" s="28" t="s">
@@ -13139,7 +13764,7 @@
       <c r="B157" s="164"/>
       <c r="C157" s="164"/>
       <c r="D157" s="164"/>
-      <c r="E157" s="123"/>
+      <c r="E157" s="128"/>
       <c r="F157" s="28">
         <v>6</v>
       </c>
@@ -13190,25 +13815,25 @@
       <c r="A159" s="53" t="s">
         <v>469</v>
       </c>
-      <c r="B159" s="168" t="s">
+      <c r="B159" s="159" t="s">
         <v>470</v>
       </c>
-      <c r="C159" s="168" t="s">
+      <c r="C159" s="159" t="s">
         <v>471</v>
       </c>
-      <c r="D159" s="168" t="s">
+      <c r="D159" s="159" t="s">
         <v>192</v>
       </c>
-      <c r="E159" s="148">
+      <c r="E159" s="153">
         <v>45714</v>
       </c>
       <c r="F159" s="53">
         <v>1</v>
       </c>
-      <c r="G159" s="168" t="s">
+      <c r="G159" s="159" t="s">
         <v>472</v>
       </c>
-      <c r="H159" s="168"/>
+      <c r="H159" s="159"/>
       <c r="I159" s="53">
         <v>7.1</v>
       </c>
@@ -13226,7 +13851,7 @@
         <v>40</v>
       </c>
       <c r="N159" s="53"/>
-      <c r="O159" s="168" t="s">
+      <c r="O159" s="159" t="s">
         <v>26</v>
       </c>
     </row>
@@ -13234,15 +13859,15 @@
       <c r="A160" s="53" t="s">
         <v>473</v>
       </c>
-      <c r="B160" s="169"/>
-      <c r="C160" s="169"/>
-      <c r="D160" s="169"/>
-      <c r="E160" s="149"/>
+      <c r="B160" s="160"/>
+      <c r="C160" s="160"/>
+      <c r="D160" s="160"/>
+      <c r="E160" s="154"/>
       <c r="F160" s="53">
         <v>2</v>
       </c>
-      <c r="G160" s="169"/>
-      <c r="H160" s="169"/>
+      <c r="G160" s="160"/>
+      <c r="H160" s="160"/>
       <c r="I160" s="53">
         <v>7.3</v>
       </c>
@@ -13260,21 +13885,21 @@
         <v>40</v>
       </c>
       <c r="N160" s="53"/>
-      <c r="O160" s="169"/>
+      <c r="O160" s="160"/>
     </row>
     <row r="161" spans="1:15" ht="21">
       <c r="A161" s="53" t="s">
         <v>474</v>
       </c>
-      <c r="B161" s="169"/>
-      <c r="C161" s="169"/>
-      <c r="D161" s="169"/>
-      <c r="E161" s="149"/>
+      <c r="B161" s="160"/>
+      <c r="C161" s="160"/>
+      <c r="D161" s="160"/>
+      <c r="E161" s="154"/>
       <c r="F161" s="53">
         <v>3</v>
       </c>
-      <c r="G161" s="169"/>
-      <c r="H161" s="169"/>
+      <c r="G161" s="160"/>
+      <c r="H161" s="160"/>
       <c r="I161" s="53">
         <v>7</v>
       </c>
@@ -13292,21 +13917,21 @@
         <v>40</v>
       </c>
       <c r="N161" s="53"/>
-      <c r="O161" s="169"/>
+      <c r="O161" s="160"/>
     </row>
     <row r="162" spans="1:15" ht="21">
       <c r="A162" s="53" t="s">
         <v>475</v>
       </c>
-      <c r="B162" s="169"/>
-      <c r="C162" s="169"/>
-      <c r="D162" s="169"/>
-      <c r="E162" s="149"/>
+      <c r="B162" s="160"/>
+      <c r="C162" s="160"/>
+      <c r="D162" s="160"/>
+      <c r="E162" s="154"/>
       <c r="F162" s="53">
         <v>4</v>
       </c>
-      <c r="G162" s="169"/>
-      <c r="H162" s="169"/>
+      <c r="G162" s="160"/>
+      <c r="H162" s="160"/>
       <c r="I162" s="53">
         <v>8.4</v>
       </c>
@@ -13324,21 +13949,21 @@
         <v>40</v>
       </c>
       <c r="N162" s="53"/>
-      <c r="O162" s="169"/>
+      <c r="O162" s="160"/>
     </row>
     <row r="163" spans="1:15" ht="21">
       <c r="A163" s="53" t="s">
         <v>476</v>
       </c>
-      <c r="B163" s="169"/>
-      <c r="C163" s="169"/>
-      <c r="D163" s="169"/>
-      <c r="E163" s="149"/>
+      <c r="B163" s="160"/>
+      <c r="C163" s="160"/>
+      <c r="D163" s="160"/>
+      <c r="E163" s="154"/>
       <c r="F163" s="53">
         <v>5</v>
       </c>
-      <c r="G163" s="169"/>
-      <c r="H163" s="169"/>
+      <c r="G163" s="160"/>
+      <c r="H163" s="160"/>
       <c r="I163" s="53">
         <v>6.7</v>
       </c>
@@ -13356,21 +13981,21 @@
         <v>40</v>
       </c>
       <c r="N163" s="53"/>
-      <c r="O163" s="169"/>
+      <c r="O163" s="160"/>
     </row>
     <row r="164" spans="1:15" ht="21">
       <c r="A164" s="53" t="s">
         <v>477</v>
       </c>
-      <c r="B164" s="169"/>
-      <c r="C164" s="169"/>
-      <c r="D164" s="169"/>
-      <c r="E164" s="149"/>
+      <c r="B164" s="160"/>
+      <c r="C164" s="160"/>
+      <c r="D164" s="160"/>
+      <c r="E164" s="154"/>
       <c r="F164" s="53">
         <v>6</v>
       </c>
-      <c r="G164" s="169"/>
-      <c r="H164" s="169"/>
+      <c r="G164" s="160"/>
+      <c r="H164" s="160"/>
       <c r="I164" s="53">
         <v>6.9</v>
       </c>
@@ -13388,21 +14013,21 @@
         <v>40</v>
       </c>
       <c r="N164" s="53"/>
-      <c r="O164" s="169"/>
+      <c r="O164" s="160"/>
     </row>
     <row r="165" spans="1:15" ht="21">
       <c r="A165" s="53" t="s">
         <v>478</v>
       </c>
-      <c r="B165" s="169"/>
-      <c r="C165" s="169"/>
-      <c r="D165" s="169"/>
-      <c r="E165" s="149"/>
+      <c r="B165" s="160"/>
+      <c r="C165" s="160"/>
+      <c r="D165" s="160"/>
+      <c r="E165" s="154"/>
       <c r="F165" s="53">
         <v>7</v>
       </c>
-      <c r="G165" s="169"/>
-      <c r="H165" s="169"/>
+      <c r="G165" s="160"/>
+      <c r="H165" s="160"/>
       <c r="I165" s="53">
         <v>5.8</v>
       </c>
@@ -13420,21 +14045,21 @@
         <v>40</v>
       </c>
       <c r="N165" s="53"/>
-      <c r="O165" s="169"/>
+      <c r="O165" s="160"/>
     </row>
     <row r="166" spans="1:15" ht="21">
       <c r="A166" s="53" t="s">
         <v>479</v>
       </c>
-      <c r="B166" s="170"/>
-      <c r="C166" s="170"/>
-      <c r="D166" s="170"/>
-      <c r="E166" s="150"/>
+      <c r="B166" s="161"/>
+      <c r="C166" s="161"/>
+      <c r="D166" s="161"/>
+      <c r="E166" s="155"/>
       <c r="F166" s="53">
         <v>8</v>
       </c>
-      <c r="G166" s="170"/>
-      <c r="H166" s="170"/>
+      <c r="G166" s="161"/>
+      <c r="H166" s="161"/>
       <c r="I166" s="53">
         <v>7.1</v>
       </c>
@@ -13452,14 +14077,14 @@
         <v>40</v>
       </c>
       <c r="N166" s="53"/>
-      <c r="O166" s="170"/>
+      <c r="O166" s="161"/>
     </row>
     <row r="167" spans="1:15" ht="22.5">
-      <c r="A167" s="176"/>
-      <c r="B167" s="177"/>
-      <c r="C167" s="177"/>
-      <c r="D167" s="177"/>
-      <c r="E167" s="178"/>
+      <c r="A167" s="122"/>
+      <c r="B167" s="123"/>
+      <c r="C167" s="123"/>
+      <c r="D167" s="123"/>
+      <c r="E167" s="124"/>
       <c r="F167" s="46">
         <v>8</v>
       </c>
@@ -13479,62 +14104,1125 @@
       <c r="N167" s="56"/>
       <c r="O167" s="56"/>
     </row>
+    <row r="168" spans="1:15" ht="21">
+      <c r="A168" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="B168" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="C168" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D168" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E168" s="29">
+        <v>45715</v>
+      </c>
+      <c r="F168" s="28">
+        <v>1</v>
+      </c>
+      <c r="G168" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H168" s="28">
+        <v>1</v>
+      </c>
+      <c r="I168" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="J168" s="30">
+        <v>2.8275000000000002E-2</v>
+      </c>
+      <c r="K168" s="28">
+        <v>39</v>
+      </c>
+      <c r="L168" s="28">
+        <v>29</v>
+      </c>
+      <c r="M168" s="28">
+        <v>25</v>
+      </c>
+      <c r="N168" s="28"/>
+      <c r="O168" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" ht="22.5">
+      <c r="A169" s="64"/>
+      <c r="B169" s="64"/>
+      <c r="C169" s="64"/>
+      <c r="D169" s="64"/>
+      <c r="E169" s="64"/>
+      <c r="F169" s="34">
+        <v>1</v>
+      </c>
+      <c r="G169" s="67"/>
+      <c r="H169" s="34"/>
+      <c r="I169" s="34">
+        <f>I168</f>
+        <v>1.8</v>
+      </c>
+      <c r="J169" s="35">
+        <f>J168</f>
+        <v>2.8275000000000002E-2</v>
+      </c>
+      <c r="K169" s="34"/>
+      <c r="L169" s="34"/>
+      <c r="M169" s="34"/>
+      <c r="N169" s="36"/>
+      <c r="O169" s="36"/>
+    </row>
+    <row r="170" spans="1:15" ht="21">
+      <c r="A170" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="B170" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="C170" s="28" t="s">
+        <v>485</v>
+      </c>
+      <c r="D170" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="E170" s="29">
+        <v>45715</v>
+      </c>
+      <c r="F170" s="28">
+        <v>1</v>
+      </c>
+      <c r="G170" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H170" s="28">
+        <v>10</v>
+      </c>
+      <c r="I170" s="28">
+        <v>12.7</v>
+      </c>
+      <c r="J170" s="30">
+        <v>0.11015999999999999</v>
+      </c>
+      <c r="K170" s="28">
+        <v>60</v>
+      </c>
+      <c r="L170" s="28">
+        <v>51</v>
+      </c>
+      <c r="M170" s="28">
+        <v>36</v>
+      </c>
+      <c r="N170" s="28"/>
+      <c r="O170" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" ht="22.5">
+      <c r="A171" s="64"/>
+      <c r="B171" s="64"/>
+      <c r="C171" s="64"/>
+      <c r="D171" s="64"/>
+      <c r="E171" s="64"/>
+      <c r="F171" s="34">
+        <v>1</v>
+      </c>
+      <c r="G171" s="34"/>
+      <c r="H171" s="34"/>
+      <c r="I171" s="34">
+        <v>12.7</v>
+      </c>
+      <c r="J171" s="35">
+        <v>0.11015999999999999</v>
+      </c>
+      <c r="K171" s="34"/>
+      <c r="L171" s="34"/>
+      <c r="M171" s="34"/>
+      <c r="N171" s="36"/>
+      <c r="O171" s="36"/>
+    </row>
+    <row r="172" spans="1:15" ht="21">
+      <c r="A172" s="76" t="s">
+        <v>487</v>
+      </c>
+      <c r="B172" s="141" t="s">
+        <v>488</v>
+      </c>
+      <c r="C172" s="141" t="s">
+        <v>489</v>
+      </c>
+      <c r="D172" s="141" t="s">
+        <v>39</v>
+      </c>
+      <c r="E172" s="145">
+        <v>45715</v>
+      </c>
+      <c r="F172" s="76">
+        <v>1</v>
+      </c>
+      <c r="G172" s="138" t="s">
+        <v>490</v>
+      </c>
+      <c r="H172" s="141">
+        <v>604</v>
+      </c>
+      <c r="I172" s="76">
+        <v>15.9</v>
+      </c>
+      <c r="J172" s="179">
+        <v>8.6730000000000002E-2</v>
+      </c>
+      <c r="K172" s="76">
+        <v>59</v>
+      </c>
+      <c r="L172" s="76">
+        <v>30</v>
+      </c>
+      <c r="M172" s="76">
+        <v>49</v>
+      </c>
+      <c r="N172" s="76"/>
+      <c r="O172" s="141" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" ht="21">
+      <c r="A173" s="76" t="s">
+        <v>492</v>
+      </c>
+      <c r="B173" s="139"/>
+      <c r="C173" s="139"/>
+      <c r="D173" s="139"/>
+      <c r="E173" s="146"/>
+      <c r="F173" s="76">
+        <v>2</v>
+      </c>
+      <c r="G173" s="139"/>
+      <c r="H173" s="139"/>
+      <c r="I173" s="76">
+        <v>14.2</v>
+      </c>
+      <c r="J173" s="179">
+        <v>8.6730000000000002E-2</v>
+      </c>
+      <c r="K173" s="76">
+        <v>59</v>
+      </c>
+      <c r="L173" s="76">
+        <v>30</v>
+      </c>
+      <c r="M173" s="76">
+        <v>49</v>
+      </c>
+      <c r="N173" s="76"/>
+      <c r="O173" s="139"/>
+    </row>
+    <row r="174" spans="1:15" ht="21">
+      <c r="A174" s="76" t="s">
+        <v>493</v>
+      </c>
+      <c r="B174" s="139"/>
+      <c r="C174" s="139"/>
+      <c r="D174" s="139"/>
+      <c r="E174" s="146"/>
+      <c r="F174" s="76">
+        <v>3</v>
+      </c>
+      <c r="G174" s="139"/>
+      <c r="H174" s="139"/>
+      <c r="I174" s="76">
+        <v>14.8</v>
+      </c>
+      <c r="J174" s="179">
+        <v>8.6730000000000002E-2</v>
+      </c>
+      <c r="K174" s="76">
+        <v>59</v>
+      </c>
+      <c r="L174" s="76">
+        <v>30</v>
+      </c>
+      <c r="M174" s="76">
+        <v>49</v>
+      </c>
+      <c r="N174" s="76"/>
+      <c r="O174" s="139"/>
+    </row>
+    <row r="175" spans="1:15" ht="21">
+      <c r="A175" s="76" t="s">
+        <v>494</v>
+      </c>
+      <c r="B175" s="139"/>
+      <c r="C175" s="139"/>
+      <c r="D175" s="139"/>
+      <c r="E175" s="146"/>
+      <c r="F175" s="76">
+        <v>4</v>
+      </c>
+      <c r="G175" s="139"/>
+      <c r="H175" s="139"/>
+      <c r="I175" s="76">
+        <v>16.7</v>
+      </c>
+      <c r="J175" s="179">
+        <v>8.6730000000000002E-2</v>
+      </c>
+      <c r="K175" s="76">
+        <v>59</v>
+      </c>
+      <c r="L175" s="76">
+        <v>30</v>
+      </c>
+      <c r="M175" s="76">
+        <v>49</v>
+      </c>
+      <c r="N175" s="76"/>
+      <c r="O175" s="139"/>
+    </row>
+    <row r="176" spans="1:15" ht="21">
+      <c r="A176" s="76" t="s">
+        <v>495</v>
+      </c>
+      <c r="B176" s="139"/>
+      <c r="C176" s="139"/>
+      <c r="D176" s="139"/>
+      <c r="E176" s="146"/>
+      <c r="F176" s="76">
+        <v>5</v>
+      </c>
+      <c r="G176" s="139"/>
+      <c r="H176" s="139"/>
+      <c r="I176" s="76">
+        <v>7.4</v>
+      </c>
+      <c r="J176" s="179">
+        <v>8.6730000000000002E-2</v>
+      </c>
+      <c r="K176" s="76">
+        <v>59</v>
+      </c>
+      <c r="L176" s="76">
+        <v>30</v>
+      </c>
+      <c r="M176" s="76">
+        <v>49</v>
+      </c>
+      <c r="N176" s="76"/>
+      <c r="O176" s="139"/>
+    </row>
+    <row r="177" spans="1:15" ht="21">
+      <c r="A177" s="76" t="s">
+        <v>338</v>
+      </c>
+      <c r="B177" s="139"/>
+      <c r="C177" s="139"/>
+      <c r="D177" s="139"/>
+      <c r="E177" s="146"/>
+      <c r="F177" s="76">
+        <v>6</v>
+      </c>
+      <c r="G177" s="139"/>
+      <c r="H177" s="139"/>
+      <c r="I177" s="76">
+        <v>5.9</v>
+      </c>
+      <c r="J177" s="179">
+        <v>8.6730000000000002E-2</v>
+      </c>
+      <c r="K177" s="76">
+        <v>59</v>
+      </c>
+      <c r="L177" s="76">
+        <v>30</v>
+      </c>
+      <c r="M177" s="76">
+        <v>49</v>
+      </c>
+      <c r="N177" s="76"/>
+      <c r="O177" s="139"/>
+    </row>
+    <row r="178" spans="1:15" ht="21">
+      <c r="A178" s="76" t="s">
+        <v>496</v>
+      </c>
+      <c r="B178" s="140"/>
+      <c r="C178" s="140"/>
+      <c r="D178" s="140"/>
+      <c r="E178" s="147"/>
+      <c r="F178" s="76">
+        <v>7</v>
+      </c>
+      <c r="G178" s="140"/>
+      <c r="H178" s="140"/>
+      <c r="I178" s="76">
+        <v>3.6</v>
+      </c>
+      <c r="J178" s="179">
+        <v>2.8875000000000001E-2</v>
+      </c>
+      <c r="K178" s="76">
+        <v>35</v>
+      </c>
+      <c r="L178" s="76">
+        <v>33</v>
+      </c>
+      <c r="M178" s="76">
+        <v>25</v>
+      </c>
+      <c r="N178" s="76"/>
+      <c r="O178" s="140"/>
+    </row>
+    <row r="179" spans="1:15" ht="22.5">
+      <c r="A179" s="64"/>
+      <c r="B179" s="64"/>
+      <c r="C179" s="64"/>
+      <c r="D179" s="64"/>
+      <c r="E179" s="64"/>
+      <c r="F179" s="34">
+        <v>7</v>
+      </c>
+      <c r="G179" s="34"/>
+      <c r="H179" s="34"/>
+      <c r="I179" s="34">
+        <v>78.500000000000014</v>
+      </c>
+      <c r="J179" s="35">
+        <v>0.54925499999999994</v>
+      </c>
+      <c r="K179" s="34"/>
+      <c r="L179" s="34"/>
+      <c r="M179" s="34"/>
+      <c r="N179" s="79"/>
+      <c r="O179" s="78"/>
+    </row>
+    <row r="180" spans="1:15" ht="21">
+      <c r="A180" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="B180" s="162" t="s">
+        <v>498</v>
+      </c>
+      <c r="C180" s="162" t="s">
+        <v>499</v>
+      </c>
+      <c r="D180" s="162" t="s">
+        <v>192</v>
+      </c>
+      <c r="E180" s="129">
+        <v>45715</v>
+      </c>
+      <c r="F180" s="28">
+        <v>1</v>
+      </c>
+      <c r="G180" s="162" t="s">
+        <v>25</v>
+      </c>
+      <c r="H180" s="162">
+        <v>20</v>
+      </c>
+      <c r="I180" s="28">
+        <v>7.1</v>
+      </c>
+      <c r="J180" s="30">
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="K180" s="28">
+        <v>49</v>
+      </c>
+      <c r="L180" s="28">
+        <v>40</v>
+      </c>
+      <c r="M180" s="28">
+        <v>40</v>
+      </c>
+      <c r="N180" s="28"/>
+      <c r="O180" s="162" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" ht="21">
+      <c r="A181" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="B181" s="163"/>
+      <c r="C181" s="163"/>
+      <c r="D181" s="163"/>
+      <c r="E181" s="130"/>
+      <c r="F181" s="28">
+        <v>2</v>
+      </c>
+      <c r="G181" s="163"/>
+      <c r="H181" s="163"/>
+      <c r="I181" s="28">
+        <v>6.9</v>
+      </c>
+      <c r="J181" s="30">
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="K181" s="28">
+        <v>49</v>
+      </c>
+      <c r="L181" s="28">
+        <v>40</v>
+      </c>
+      <c r="M181" s="28">
+        <v>40</v>
+      </c>
+      <c r="N181" s="28"/>
+      <c r="O181" s="163"/>
+    </row>
+    <row r="182" spans="1:15" ht="21">
+      <c r="A182" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="B182" s="164"/>
+      <c r="C182" s="164"/>
+      <c r="D182" s="164"/>
+      <c r="E182" s="131"/>
+      <c r="F182" s="28">
+        <v>3</v>
+      </c>
+      <c r="G182" s="164"/>
+      <c r="H182" s="164"/>
+      <c r="I182" s="28">
+        <v>6.9</v>
+      </c>
+      <c r="J182" s="30">
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="K182" s="28">
+        <v>49</v>
+      </c>
+      <c r="L182" s="28">
+        <v>40</v>
+      </c>
+      <c r="M182" s="28">
+        <v>40</v>
+      </c>
+      <c r="N182" s="28"/>
+      <c r="O182" s="164"/>
+    </row>
+    <row r="183" spans="1:15" ht="22.5">
+      <c r="A183" s="64"/>
+      <c r="B183" s="64"/>
+      <c r="C183" s="64"/>
+      <c r="D183" s="64"/>
+      <c r="E183" s="64"/>
+      <c r="F183" s="34">
+        <v>3</v>
+      </c>
+      <c r="G183" s="34"/>
+      <c r="H183" s="34"/>
+      <c r="I183" s="34">
+        <v>20.9</v>
+      </c>
+      <c r="J183" s="35">
+        <v>0.23519999999999999</v>
+      </c>
+      <c r="K183" s="34"/>
+      <c r="L183" s="34"/>
+      <c r="M183" s="34"/>
+      <c r="N183" s="36"/>
+      <c r="O183" s="36"/>
+    </row>
+    <row r="184" spans="1:15" ht="21">
+      <c r="A184" s="53" t="s">
+        <v>502</v>
+      </c>
+      <c r="B184" s="159" t="s">
+        <v>503</v>
+      </c>
+      <c r="C184" s="53" t="s">
+        <v>504</v>
+      </c>
+      <c r="D184" s="159" t="s">
+        <v>486</v>
+      </c>
+      <c r="E184" s="153">
+        <v>45716</v>
+      </c>
+      <c r="F184" s="53">
+        <v>1</v>
+      </c>
+      <c r="G184" s="159" t="s">
+        <v>25</v>
+      </c>
+      <c r="H184" s="53">
+        <v>11</v>
+      </c>
+      <c r="I184" s="53">
+        <v>11.7</v>
+      </c>
+      <c r="J184" s="54">
+        <f>K184*L184*M184/1000000</f>
+        <v>0.11322</v>
+      </c>
+      <c r="K184" s="53">
+        <v>51</v>
+      </c>
+      <c r="L184" s="53">
+        <v>37</v>
+      </c>
+      <c r="M184" s="53">
+        <v>60</v>
+      </c>
+      <c r="N184" s="53"/>
+      <c r="O184" s="159" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" ht="21">
+      <c r="A185" s="53" t="s">
+        <v>505</v>
+      </c>
+      <c r="B185" s="160"/>
+      <c r="C185" s="53" t="s">
+        <v>506</v>
+      </c>
+      <c r="D185" s="160"/>
+      <c r="E185" s="154"/>
+      <c r="F185" s="53">
+        <v>2</v>
+      </c>
+      <c r="G185" s="160"/>
+      <c r="H185" s="53">
+        <v>11</v>
+      </c>
+      <c r="I185" s="53">
+        <v>10.9</v>
+      </c>
+      <c r="J185" s="54">
+        <f>K185*L185*M185/1000000</f>
+        <v>0.11322</v>
+      </c>
+      <c r="K185" s="53">
+        <v>51</v>
+      </c>
+      <c r="L185" s="53">
+        <v>37</v>
+      </c>
+      <c r="M185" s="53">
+        <v>60</v>
+      </c>
+      <c r="N185" s="53"/>
+      <c r="O185" s="160"/>
+    </row>
+    <row r="186" spans="1:15" ht="21">
+      <c r="A186" s="53" t="s">
+        <v>507</v>
+      </c>
+      <c r="B186" s="161"/>
+      <c r="C186" s="53" t="s">
+        <v>508</v>
+      </c>
+      <c r="D186" s="161"/>
+      <c r="E186" s="155"/>
+      <c r="F186" s="53">
+        <v>3</v>
+      </c>
+      <c r="G186" s="161"/>
+      <c r="H186" s="53">
+        <v>10</v>
+      </c>
+      <c r="I186" s="53">
+        <v>11.1</v>
+      </c>
+      <c r="J186" s="54">
+        <f>K186*L186*M186/1000000</f>
+        <v>0.11322</v>
+      </c>
+      <c r="K186" s="53">
+        <v>51</v>
+      </c>
+      <c r="L186" s="53">
+        <v>37</v>
+      </c>
+      <c r="M186" s="53">
+        <v>60</v>
+      </c>
+      <c r="N186" s="53"/>
+      <c r="O186" s="161"/>
+    </row>
+    <row r="187" spans="1:15" ht="22.5">
+      <c r="A187" s="64"/>
+      <c r="B187" s="64"/>
+      <c r="C187" s="64"/>
+      <c r="D187" s="64"/>
+      <c r="E187" s="64"/>
+      <c r="F187" s="46">
+        <v>3</v>
+      </c>
+      <c r="G187" s="46"/>
+      <c r="H187" s="46"/>
+      <c r="I187" s="46">
+        <f>SUM(I184:I186)</f>
+        <v>33.700000000000003</v>
+      </c>
+      <c r="J187" s="49">
+        <f>SUM(J184:J186)</f>
+        <v>0.33966000000000002</v>
+      </c>
+      <c r="K187" s="46"/>
+      <c r="L187" s="46"/>
+      <c r="M187" s="46"/>
+      <c r="N187" s="56"/>
+      <c r="O187" s="56"/>
+    </row>
+    <row r="188" spans="1:15" ht="21">
+      <c r="A188" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="B188" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="C188" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="D188" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E188" s="42">
+        <v>45717</v>
+      </c>
+      <c r="F188" s="53">
+        <v>1</v>
+      </c>
+      <c r="G188" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H188" s="53">
+        <v>1</v>
+      </c>
+      <c r="I188" s="53">
+        <v>1.4</v>
+      </c>
+      <c r="J188" s="54">
+        <v>1.404E-2</v>
+      </c>
+      <c r="K188" s="53">
+        <v>26</v>
+      </c>
+      <c r="L188" s="53">
+        <v>15</v>
+      </c>
+      <c r="M188" s="53">
+        <v>36</v>
+      </c>
+      <c r="N188" s="53"/>
+      <c r="O188" s="53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" ht="22.5">
+      <c r="A189" s="122"/>
+      <c r="B189" s="123"/>
+      <c r="C189" s="123"/>
+      <c r="D189" s="123"/>
+      <c r="E189" s="124"/>
+      <c r="F189" s="34">
+        <v>1</v>
+      </c>
+      <c r="G189" s="34"/>
+      <c r="H189" s="34"/>
+      <c r="I189" s="34">
+        <f>I188</f>
+        <v>1.4</v>
+      </c>
+      <c r="J189" s="35">
+        <f>J188</f>
+        <v>1.404E-2</v>
+      </c>
+      <c r="K189" s="34"/>
+      <c r="L189" s="34"/>
+      <c r="M189" s="34"/>
+      <c r="N189" s="36"/>
+      <c r="O189" s="36"/>
+    </row>
+    <row r="190" spans="1:15" ht="21">
+      <c r="A190" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="B190" s="159" t="s">
+        <v>513</v>
+      </c>
+      <c r="C190" s="53" t="s">
+        <v>514</v>
+      </c>
+      <c r="D190" s="159" t="s">
+        <v>486</v>
+      </c>
+      <c r="E190" s="153">
+        <v>45717</v>
+      </c>
+      <c r="F190" s="53">
+        <v>1</v>
+      </c>
+      <c r="G190" s="159" t="s">
+        <v>25</v>
+      </c>
+      <c r="H190" s="53">
+        <v>10</v>
+      </c>
+      <c r="I190" s="53">
+        <v>12.5</v>
+      </c>
+      <c r="J190" s="54">
+        <v>0.108</v>
+      </c>
+      <c r="K190" s="53">
+        <v>50</v>
+      </c>
+      <c r="L190" s="53">
+        <v>36</v>
+      </c>
+      <c r="M190" s="53">
+        <v>60</v>
+      </c>
+      <c r="N190" s="53"/>
+      <c r="O190" s="159" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" ht="21">
+      <c r="A191" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="B191" s="161"/>
+      <c r="C191" s="53" t="s">
+        <v>516</v>
+      </c>
+      <c r="D191" s="161"/>
+      <c r="E191" s="155"/>
+      <c r="F191" s="53">
+        <v>2</v>
+      </c>
+      <c r="G191" s="161"/>
+      <c r="H191" s="53">
+        <v>10</v>
+      </c>
+      <c r="I191" s="53">
+        <v>12.1</v>
+      </c>
+      <c r="J191" s="54">
+        <v>0.108</v>
+      </c>
+      <c r="K191" s="53">
+        <v>50</v>
+      </c>
+      <c r="L191" s="53">
+        <v>36</v>
+      </c>
+      <c r="M191" s="53">
+        <v>60</v>
+      </c>
+      <c r="N191" s="53"/>
+      <c r="O191" s="161"/>
+    </row>
+    <row r="192" spans="1:15" ht="22.5">
+      <c r="A192" s="122"/>
+      <c r="B192" s="123"/>
+      <c r="C192" s="123"/>
+      <c r="D192" s="123"/>
+      <c r="E192" s="124"/>
+      <c r="F192" s="46">
+        <v>2</v>
+      </c>
+      <c r="G192" s="46"/>
+      <c r="H192" s="46"/>
+      <c r="I192" s="46">
+        <v>24.6</v>
+      </c>
+      <c r="J192" s="49">
+        <v>0.216</v>
+      </c>
+      <c r="K192" s="46"/>
+      <c r="L192" s="46"/>
+      <c r="M192" s="46"/>
+      <c r="N192" s="56"/>
+      <c r="O192" s="180"/>
+    </row>
+    <row r="193" spans="1:15" ht="21">
+      <c r="A193" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="B193" s="53" t="s">
+        <v>518</v>
+      </c>
+      <c r="C193" s="53" t="s">
+        <v>519</v>
+      </c>
+      <c r="D193" s="53" t="s">
+        <v>348</v>
+      </c>
+      <c r="E193" s="42">
+        <v>45719</v>
+      </c>
+      <c r="F193" s="53">
+        <v>1</v>
+      </c>
+      <c r="G193" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="H193" s="53">
+        <v>1</v>
+      </c>
+      <c r="I193" s="53">
+        <v>1.3</v>
+      </c>
+      <c r="J193" s="54">
+        <v>1.456E-2</v>
+      </c>
+      <c r="K193" s="53">
+        <v>28</v>
+      </c>
+      <c r="L193" s="53">
+        <v>26</v>
+      </c>
+      <c r="M193" s="53">
+        <v>20</v>
+      </c>
+      <c r="N193" s="53"/>
+      <c r="O193" s="53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" ht="22.5">
+      <c r="A194" s="122"/>
+      <c r="B194" s="123"/>
+      <c r="C194" s="123"/>
+      <c r="D194" s="123"/>
+      <c r="E194" s="124"/>
+      <c r="F194" s="34">
+        <v>1</v>
+      </c>
+      <c r="G194" s="34"/>
+      <c r="H194" s="34"/>
+      <c r="I194" s="34">
+        <f>I193</f>
+        <v>1.3</v>
+      </c>
+      <c r="J194" s="35">
+        <f>J193</f>
+        <v>1.456E-2</v>
+      </c>
+      <c r="K194" s="34"/>
+      <c r="L194" s="34"/>
+      <c r="M194" s="34"/>
+      <c r="N194" s="36"/>
+      <c r="O194" s="36"/>
+    </row>
+    <row r="195" spans="1:15" ht="21">
+      <c r="A195" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="B195" s="53" t="s">
+        <v>522</v>
+      </c>
+      <c r="C195" s="53" t="s">
+        <v>523</v>
+      </c>
+      <c r="D195" s="53" t="s">
+        <v>486</v>
+      </c>
+      <c r="E195" s="42">
+        <v>45719</v>
+      </c>
+      <c r="F195" s="53">
+        <v>1</v>
+      </c>
+      <c r="G195" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="H195" s="53">
+        <v>11</v>
+      </c>
+      <c r="I195" s="53">
+        <v>13.1</v>
+      </c>
+      <c r="J195" s="54">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="K195" s="53">
+        <v>51</v>
+      </c>
+      <c r="L195" s="53">
+        <v>30</v>
+      </c>
+      <c r="M195" s="53">
+        <v>60</v>
+      </c>
+      <c r="N195" s="53"/>
+      <c r="O195" s="53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" ht="22.5">
+      <c r="A196" s="122"/>
+      <c r="B196" s="123"/>
+      <c r="C196" s="123"/>
+      <c r="D196" s="123"/>
+      <c r="E196" s="124"/>
+      <c r="F196" s="34">
+        <v>1</v>
+      </c>
+      <c r="G196" s="34"/>
+      <c r="H196" s="34"/>
+      <c r="I196" s="34">
+        <f>I195</f>
+        <v>13.1</v>
+      </c>
+      <c r="J196" s="35">
+        <f>J195</f>
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="K196" s="34"/>
+      <c r="L196" s="34"/>
+      <c r="M196" s="34"/>
+      <c r="N196" s="36"/>
+      <c r="O196" s="36"/>
+    </row>
+    <row r="197" spans="1:15" ht="21">
+      <c r="A197" s="53" t="s">
+        <v>525</v>
+      </c>
+      <c r="B197" s="159" t="s">
+        <v>526</v>
+      </c>
+      <c r="C197" s="53"/>
+      <c r="D197" s="159" t="s">
+        <v>156</v>
+      </c>
+      <c r="E197" s="153">
+        <v>45719</v>
+      </c>
+      <c r="F197" s="53">
+        <v>1</v>
+      </c>
+      <c r="G197" s="169" t="s">
+        <v>527</v>
+      </c>
+      <c r="H197" s="53">
+        <v>100</v>
+      </c>
+      <c r="I197" s="53">
+        <v>22.2</v>
+      </c>
+      <c r="J197" s="54">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="K197" s="53">
+        <v>59</v>
+      </c>
+      <c r="L197" s="53">
+        <v>50</v>
+      </c>
+      <c r="M197" s="53">
+        <v>40</v>
+      </c>
+      <c r="N197" s="53"/>
+      <c r="O197" s="53"/>
+    </row>
+    <row r="198" spans="1:15" ht="21">
+      <c r="A198" s="53" t="s">
+        <v>528</v>
+      </c>
+      <c r="B198" s="161"/>
+      <c r="C198" s="53"/>
+      <c r="D198" s="161"/>
+      <c r="E198" s="155"/>
+      <c r="F198" s="53">
+        <v>2</v>
+      </c>
+      <c r="G198" s="161"/>
+      <c r="H198" s="53">
+        <v>100</v>
+      </c>
+      <c r="I198" s="53">
+        <v>25.5</v>
+      </c>
+      <c r="J198" s="54">
+        <v>0.119364</v>
+      </c>
+      <c r="K198" s="53">
+        <v>58</v>
+      </c>
+      <c r="L198" s="53">
+        <v>42</v>
+      </c>
+      <c r="M198" s="53">
+        <v>49</v>
+      </c>
+      <c r="N198" s="53"/>
+      <c r="O198" s="53"/>
+    </row>
+    <row r="199" spans="1:15" ht="22.5">
+      <c r="A199" s="122"/>
+      <c r="B199" s="123"/>
+      <c r="C199" s="123"/>
+      <c r="D199" s="123"/>
+      <c r="E199" s="124"/>
+      <c r="F199" s="46">
+        <v>2</v>
+      </c>
+      <c r="G199" s="46"/>
+      <c r="H199" s="46"/>
+      <c r="I199" s="46">
+        <v>24.6</v>
+      </c>
+      <c r="J199" s="49">
+        <v>0.216</v>
+      </c>
+      <c r="K199" s="46"/>
+      <c r="L199" s="46"/>
+      <c r="M199" s="46"/>
+      <c r="N199" s="56"/>
+      <c r="O199" s="180"/>
+    </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="H159:H166"/>
-    <mergeCell ref="O159:O166"/>
-    <mergeCell ref="B159:B166"/>
-    <mergeCell ref="C159:C166"/>
-    <mergeCell ref="D159:D166"/>
-    <mergeCell ref="E159:E166"/>
-    <mergeCell ref="G159:G166"/>
-    <mergeCell ref="H152:H157"/>
-    <mergeCell ref="O152:O157"/>
-    <mergeCell ref="B152:B157"/>
-    <mergeCell ref="C152:C157"/>
-    <mergeCell ref="D152:D157"/>
-    <mergeCell ref="E152:E157"/>
-    <mergeCell ref="G152:G157"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="O149:O150"/>
-    <mergeCell ref="O110:O111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="G103:G106"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="B71:B81"/>
-    <mergeCell ref="C71:C81"/>
-    <mergeCell ref="D71:D81"/>
-    <mergeCell ref="E71:E81"/>
-    <mergeCell ref="G71:G81"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G53:G54"/>
+  <mergeCells count="109">
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="D197:D198"/>
+    <mergeCell ref="E197:E198"/>
+    <mergeCell ref="G197:G198"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="G190:G191"/>
+    <mergeCell ref="O190:O191"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="D184:D186"/>
+    <mergeCell ref="E184:E186"/>
+    <mergeCell ref="G184:G186"/>
+    <mergeCell ref="O184:O186"/>
+    <mergeCell ref="H172:H178"/>
+    <mergeCell ref="O172:O178"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="C180:C182"/>
+    <mergeCell ref="D180:D182"/>
+    <mergeCell ref="E180:E182"/>
+    <mergeCell ref="G180:G182"/>
+    <mergeCell ref="H180:H182"/>
+    <mergeCell ref="O180:O182"/>
+    <mergeCell ref="B172:B178"/>
+    <mergeCell ref="C172:C178"/>
+    <mergeCell ref="D172:D178"/>
+    <mergeCell ref="E172:E178"/>
+    <mergeCell ref="G172:G178"/>
+    <mergeCell ref="H123:H129"/>
+    <mergeCell ref="O123:O129"/>
+    <mergeCell ref="B123:B129"/>
+    <mergeCell ref="C123:C129"/>
+    <mergeCell ref="D123:D129"/>
+    <mergeCell ref="E123:E129"/>
+    <mergeCell ref="G123:G129"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="G50:G51"/>
     <mergeCell ref="O21:O22"/>
@@ -13548,20 +15236,60 @@
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="D50:D51"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H123:H129"/>
-    <mergeCell ref="O123:O129"/>
-    <mergeCell ref="B123:B129"/>
-    <mergeCell ref="C123:C129"/>
-    <mergeCell ref="D123:D129"/>
-    <mergeCell ref="E123:E129"/>
-    <mergeCell ref="G123:G129"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="B71:B81"/>
+    <mergeCell ref="C71:C81"/>
+    <mergeCell ref="D71:D81"/>
+    <mergeCell ref="E71:E81"/>
+    <mergeCell ref="G71:G81"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="G103:G106"/>
+    <mergeCell ref="O110:O111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="O149:O150"/>
+    <mergeCell ref="H152:H157"/>
+    <mergeCell ref="O152:O157"/>
+    <mergeCell ref="B152:B157"/>
+    <mergeCell ref="C152:C157"/>
+    <mergeCell ref="D152:D157"/>
+    <mergeCell ref="E152:E157"/>
+    <mergeCell ref="G152:G157"/>
+    <mergeCell ref="H159:H166"/>
+    <mergeCell ref="O159:O166"/>
+    <mergeCell ref="B159:B166"/>
+    <mergeCell ref="C159:C166"/>
+    <mergeCell ref="D159:D166"/>
+    <mergeCell ref="E159:E166"/>
+    <mergeCell ref="G159:G166"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13653,11 +15381,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="133" t="s">
+      <c r="K2" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -13669,10 +15397,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="134"/>
+      <c r="B3" s="149"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -13737,12 +15465,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.5">
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="132"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="134"/>
       <c r="F6" s="71" t="s">
         <v>267</v>
       </c>
@@ -13812,12 +15540,12 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="22.5">
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="134"/>
       <c r="F8" s="89" t="s">
         <v>267</v>
       </c>
@@ -13887,12 +15615,12 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="22.5">
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="134"/>
       <c r="F10" s="71" t="s">
         <v>239</v>
       </c>
@@ -13962,12 +15690,12 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="22.5">
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="132"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="134"/>
       <c r="F12" s="71" t="s">
         <v>267</v>
       </c>
@@ -13989,14 +15717,14 @@
       <c r="P12" s="74"/>
     </row>
     <row r="13" spans="1:16" ht="42">
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="126" t="s">
         <v>299</v>
       </c>
       <c r="C13" s="38"/>
-      <c r="D13" s="122" t="s">
+      <c r="D13" s="126" t="s">
         <v>263</v>
       </c>
-      <c r="E13" s="145">
+      <c r="E13" s="129">
         <v>45671</v>
       </c>
       <c r="F13" s="68" t="s">
@@ -14037,10 +15765,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="21">
-      <c r="B14" s="123"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="38"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="146"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="131"/>
       <c r="F14" s="68" t="s">
         <v>301</v>
       </c>
@@ -14071,12 +15799,12 @@
       <c r="P14" s="38"/>
     </row>
     <row r="15" spans="1:16" ht="22.5">
-      <c r="B15" s="127" t="s">
+      <c r="B15" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="71" t="s">
         <v>301</v>
       </c>
@@ -14143,12 +15871,12 @@
       <c r="P16" s="41"/>
     </row>
     <row r="17" spans="2:16" ht="22.5">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="102" t="s">
         <v>423</v>
       </c>
@@ -14213,12 +15941,12 @@
       <c r="P18" s="38"/>
     </row>
     <row r="19" spans="2:16" ht="22.5">
-      <c r="B19" s="127" t="s">
+      <c r="B19" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
       <c r="F19" s="71" t="s">
         <v>239</v>
       </c>

--- a/Customer/Cust 2025/Cargo W99 2025.xlsx
+++ b/Customer/Cust 2025/Cargo W99 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Customer\Cust 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427B49AE-DF6A-4661-AA4A-279B44FEFF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0477BA1D-2FF3-4613-9784-C68C3C04D093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E000C531-AA46-4CF4-8BD7-2185A135A010}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E000C531-AA46-4CF4-8BD7-2185A135A010}"/>
   </bookViews>
   <sheets>
     <sheet name="SEA" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="542">
   <si>
     <t>Hijau barang terkirim, Lunas, beres</t>
   </si>
@@ -4019,6 +4019,93 @@
   </si>
   <si>
     <t>101-107</t>
+  </si>
+  <si>
+    <t>W10</t>
+  </si>
+  <si>
+    <t>A0035490</t>
+  </si>
+  <si>
+    <r>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1543238757875</t>
+    </r>
+  </si>
+  <si>
+    <t>鞋子shoe</t>
+  </si>
+  <si>
+    <t>W11</t>
+  </si>
+  <si>
+    <r>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1543238757884</t>
+    </r>
+  </si>
+  <si>
+    <t>X14</t>
+  </si>
+  <si>
+    <t>A0035531</t>
+  </si>
+  <si>
+    <r>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1543238784047</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4293,7 +4380,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4667,117 +4754,126 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4787,52 +4883,46 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5153,7 +5243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03568550-BD00-482C-9F46-E2F5DB6F38F1}">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B89" sqref="B89:B91"/>
     </sheetView>
@@ -5235,11 +5325,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="148" t="s">
+      <c r="K2" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -5251,10 +5341,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="149"/>
+      <c r="B3" s="145"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -5316,12 +5406,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.5">
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
       <c r="F6" s="71" t="s">
         <v>221</v>
       </c>
@@ -5341,16 +5431,16 @@
       <c r="P6" s="74"/>
     </row>
     <row r="7" spans="1:16" ht="37.5">
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="146" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="138" t="s">
+      <c r="C7" s="149" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="141" t="s">
+      <c r="D7" s="146" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="145">
+      <c r="E7" s="152">
         <v>45659</v>
       </c>
       <c r="F7" s="75" t="s">
@@ -5362,7 +5452,7 @@
       <c r="H7" s="76">
         <v>1</v>
       </c>
-      <c r="I7" s="141">
+      <c r="I7" s="146">
         <v>255</v>
       </c>
       <c r="J7" s="77">
@@ -5377,21 +5467,21 @@
       <c r="M7" s="76">
         <v>62</v>
       </c>
-      <c r="N7" s="142">
+      <c r="N7" s="155">
         <v>45663</v>
       </c>
-      <c r="O7" s="142">
+      <c r="O7" s="155">
         <v>45705</v>
       </c>
-      <c r="P7" s="141" t="s">
+      <c r="P7" s="146" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="21">
-      <c r="B8" s="139"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="146"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="153"/>
       <c r="F8" s="75" t="s">
         <v>228</v>
       </c>
@@ -5401,7 +5491,7 @@
       <c r="H8" s="76">
         <v>1</v>
       </c>
-      <c r="I8" s="139"/>
+      <c r="I8" s="147"/>
       <c r="J8" s="77">
         <v>0.54978000000000005</v>
       </c>
@@ -5414,15 +5504,15 @@
       <c r="M8" s="76">
         <v>77</v>
       </c>
-      <c r="N8" s="139"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="139"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="147"/>
+      <c r="P8" s="147"/>
     </row>
     <row r="9" spans="1:16" ht="37.5">
-      <c r="B9" s="139"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="146"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="75" t="s">
         <v>230</v>
       </c>
@@ -5432,7 +5522,7 @@
       <c r="H9" s="76">
         <v>1</v>
       </c>
-      <c r="I9" s="139"/>
+      <c r="I9" s="147"/>
       <c r="J9" s="77">
         <v>0.51480000000000004</v>
       </c>
@@ -5445,15 +5535,15 @@
       <c r="M9" s="76">
         <v>65</v>
       </c>
-      <c r="N9" s="139"/>
-      <c r="O9" s="139"/>
-      <c r="P9" s="139"/>
+      <c r="N9" s="147"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="147"/>
     </row>
     <row r="10" spans="1:16" ht="56.25">
-      <c r="B10" s="140"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="147"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="154"/>
       <c r="F10" s="75" t="s">
         <v>232</v>
       </c>
@@ -5463,7 +5553,7 @@
       <c r="H10" s="76">
         <v>1</v>
       </c>
-      <c r="I10" s="140"/>
+      <c r="I10" s="148"/>
       <c r="J10" s="77">
         <v>7.3800000000000004E-2</v>
       </c>
@@ -5476,17 +5566,17 @@
       <c r="M10" s="76">
         <v>18</v>
       </c>
-      <c r="N10" s="140"/>
-      <c r="O10" s="140"/>
-      <c r="P10" s="140"/>
+      <c r="N10" s="148"/>
+      <c r="O10" s="148"/>
+      <c r="P10" s="148"/>
     </row>
     <row r="11" spans="1:16" ht="22.5">
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
       <c r="F11" s="71" t="s">
         <v>232</v>
       </c>
@@ -5556,12 +5646,12 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="22.5">
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
       <c r="F13" s="71" t="s">
         <v>239</v>
       </c>
@@ -5633,12 +5723,12 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="22.5">
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
       <c r="F15" s="71" t="s">
         <v>242</v>
       </c>
@@ -5707,12 +5797,12 @@
       </c>
     </row>
     <row r="17" spans="2:16" ht="22.5">
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
       <c r="F17" s="71" t="s">
         <v>246</v>
       </c>
@@ -5777,12 +5867,12 @@
       </c>
     </row>
     <row r="19" spans="2:16" ht="22.5">
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
       <c r="F19" s="71" t="s">
         <v>252</v>
       </c>
@@ -5850,12 +5940,12 @@
       </c>
     </row>
     <row r="21" spans="2:16" ht="22.5">
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
       <c r="F21" s="71" t="s">
         <v>255</v>
       </c>
@@ -5924,12 +6014,12 @@
       </c>
     </row>
     <row r="23" spans="2:16" ht="22.5">
-      <c r="B23" s="125" t="s">
+      <c r="B23" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
       <c r="F23" s="71" t="s">
         <v>232</v>
       </c>
@@ -5997,12 +6087,12 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="22.5">
-      <c r="B25" s="132" t="s">
+      <c r="B25" s="138" t="s">
         <v>220</v>
       </c>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="134"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="140"/>
       <c r="F25" s="71" t="s">
         <v>267</v>
       </c>
@@ -6072,12 +6162,12 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="22.5">
-      <c r="B27" s="132" t="s">
+      <c r="B27" s="138" t="s">
         <v>220</v>
       </c>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="134"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="140"/>
       <c r="F27" s="89" t="s">
         <v>267</v>
       </c>
@@ -6147,12 +6237,12 @@
       </c>
     </row>
     <row r="29" spans="2:16" ht="22.5">
-      <c r="B29" s="132" t="s">
+      <c r="B29" s="138" t="s">
         <v>220</v>
       </c>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="140"/>
       <c r="F29" s="71" t="s">
         <v>239</v>
       </c>
@@ -6222,12 +6312,12 @@
       </c>
     </row>
     <row r="31" spans="2:16" ht="22.5">
-      <c r="B31" s="132" t="s">
+      <c r="B31" s="138" t="s">
         <v>220</v>
       </c>
-      <c r="C31" s="133"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="134"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="140"/>
       <c r="F31" s="71" t="s">
         <v>267</v>
       </c>
@@ -6249,28 +6339,28 @@
       <c r="P31" s="74"/>
     </row>
     <row r="32" spans="2:16" ht="21">
-      <c r="B32" s="141" t="s">
+      <c r="B32" s="146" t="s">
         <v>275</v>
       </c>
-      <c r="C32" s="138" t="s">
+      <c r="C32" s="149" t="s">
         <v>276</v>
       </c>
-      <c r="D32" s="141" t="s">
+      <c r="D32" s="146" t="s">
         <v>277</v>
       </c>
-      <c r="E32" s="145">
+      <c r="E32" s="152">
         <v>45668</v>
       </c>
       <c r="F32" s="75" t="s">
         <v>278</v>
       </c>
-      <c r="G32" s="138" t="s">
+      <c r="G32" s="149" t="s">
         <v>279</v>
       </c>
       <c r="H32" s="76">
         <v>385</v>
       </c>
-      <c r="I32" s="141">
+      <c r="I32" s="146">
         <v>1451</v>
       </c>
       <c r="J32" s="77">
@@ -6285,29 +6375,29 @@
       <c r="M32" s="76">
         <v>30</v>
       </c>
-      <c r="N32" s="142">
+      <c r="N32" s="155">
         <v>45671</v>
       </c>
-      <c r="O32" s="142">
+      <c r="O32" s="155">
         <v>45714</v>
       </c>
-      <c r="P32" s="141" t="s">
+      <c r="P32" s="146" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="21">
-      <c r="B33" s="139"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="146"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="153"/>
       <c r="F33" s="75" t="s">
         <v>281</v>
       </c>
-      <c r="G33" s="144"/>
+      <c r="G33" s="151"/>
       <c r="H33" s="76">
         <v>36</v>
       </c>
-      <c r="I33" s="139"/>
+      <c r="I33" s="147"/>
       <c r="J33" s="77">
         <v>0.29759999999999998</v>
       </c>
@@ -6320,15 +6410,15 @@
       <c r="M33" s="76">
         <v>20</v>
       </c>
-      <c r="N33" s="139"/>
-      <c r="O33" s="139"/>
-      <c r="P33" s="139"/>
+      <c r="N33" s="147"/>
+      <c r="O33" s="147"/>
+      <c r="P33" s="147"/>
     </row>
     <row r="34" spans="2:16" ht="21">
-      <c r="B34" s="139"/>
-      <c r="C34" s="143"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="146"/>
+      <c r="B34" s="147"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="153"/>
       <c r="F34" s="75" t="s">
         <v>282</v>
       </c>
@@ -6338,7 +6428,7 @@
       <c r="H34" s="76">
         <v>26</v>
       </c>
-      <c r="I34" s="139"/>
+      <c r="I34" s="147"/>
       <c r="J34" s="77">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -6351,15 +6441,15 @@
       <c r="M34" s="76">
         <v>33</v>
       </c>
-      <c r="N34" s="139"/>
-      <c r="O34" s="139"/>
-      <c r="P34" s="139"/>
+      <c r="N34" s="147"/>
+      <c r="O34" s="147"/>
+      <c r="P34" s="147"/>
     </row>
     <row r="35" spans="2:16" ht="21">
-      <c r="B35" s="139"/>
-      <c r="C35" s="143"/>
-      <c r="D35" s="139"/>
-      <c r="E35" s="146"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="153"/>
       <c r="F35" s="75" t="s">
         <v>284</v>
       </c>
@@ -6369,7 +6459,7 @@
       <c r="H35" s="76">
         <v>121</v>
       </c>
-      <c r="I35" s="139"/>
+      <c r="I35" s="147"/>
       <c r="J35" s="77">
         <v>3.456E-2</v>
       </c>
@@ -6382,15 +6472,15 @@
       <c r="M35" s="76">
         <v>24</v>
       </c>
-      <c r="N35" s="139"/>
-      <c r="O35" s="139"/>
-      <c r="P35" s="139"/>
+      <c r="N35" s="147"/>
+      <c r="O35" s="147"/>
+      <c r="P35" s="147"/>
     </row>
     <row r="36" spans="2:16" ht="37.5">
-      <c r="B36" s="139"/>
-      <c r="C36" s="143"/>
-      <c r="D36" s="139"/>
-      <c r="E36" s="146"/>
+      <c r="B36" s="147"/>
+      <c r="C36" s="150"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="153"/>
       <c r="F36" s="75" t="s">
         <v>286</v>
       </c>
@@ -6400,7 +6490,7 @@
       <c r="H36" s="76">
         <v>24</v>
       </c>
-      <c r="I36" s="139"/>
+      <c r="I36" s="147"/>
       <c r="J36" s="77">
         <v>7.4880000000000002E-2</v>
       </c>
@@ -6413,15 +6503,15 @@
       <c r="M36" s="76">
         <v>15</v>
       </c>
-      <c r="N36" s="139"/>
-      <c r="O36" s="139"/>
-      <c r="P36" s="139"/>
+      <c r="N36" s="147"/>
+      <c r="O36" s="147"/>
+      <c r="P36" s="147"/>
     </row>
     <row r="37" spans="2:16" ht="21">
-      <c r="B37" s="140"/>
-      <c r="C37" s="144"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="147"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="151"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="154"/>
       <c r="F37" s="75" t="s">
         <v>287</v>
       </c>
@@ -6431,7 +6521,7 @@
       <c r="H37" s="76">
         <v>150</v>
       </c>
-      <c r="I37" s="140"/>
+      <c r="I37" s="148"/>
       <c r="J37" s="77">
         <v>1.512</v>
       </c>
@@ -6444,17 +6534,17 @@
       <c r="M37" s="76">
         <v>30</v>
       </c>
-      <c r="N37" s="140"/>
-      <c r="O37" s="140"/>
-      <c r="P37" s="140"/>
+      <c r="N37" s="148"/>
+      <c r="O37" s="148"/>
+      <c r="P37" s="148"/>
     </row>
     <row r="38" spans="2:16" ht="22.5">
-      <c r="B38" s="125" t="s">
+      <c r="B38" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C38" s="125"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="130"/>
       <c r="F38" s="71" t="s">
         <v>288</v>
       </c>
@@ -6474,28 +6564,28 @@
       <c r="P38" s="79"/>
     </row>
     <row r="39" spans="2:16" ht="21">
-      <c r="B39" s="141" t="s">
+      <c r="B39" s="146" t="s">
         <v>289</v>
       </c>
-      <c r="C39" s="138" t="s">
+      <c r="C39" s="149" t="s">
         <v>290</v>
       </c>
-      <c r="D39" s="141" t="s">
+      <c r="D39" s="146" t="s">
         <v>291</v>
       </c>
-      <c r="E39" s="145">
+      <c r="E39" s="152">
         <v>45668</v>
       </c>
       <c r="F39" s="75" t="s">
         <v>292</v>
       </c>
-      <c r="G39" s="138" t="s">
+      <c r="G39" s="149" t="s">
         <v>293</v>
       </c>
       <c r="H39" s="76">
         <v>300</v>
       </c>
-      <c r="I39" s="141">
+      <c r="I39" s="146">
         <v>680</v>
       </c>
       <c r="J39" s="77">
@@ -6510,29 +6600,29 @@
       <c r="M39" s="76">
         <v>24</v>
       </c>
-      <c r="N39" s="142">
+      <c r="N39" s="155">
         <v>45671</v>
       </c>
-      <c r="O39" s="142">
+      <c r="O39" s="155">
         <v>45714</v>
       </c>
-      <c r="P39" s="141" t="s">
+      <c r="P39" s="146" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="21">
-      <c r="B40" s="139"/>
-      <c r="C40" s="143"/>
-      <c r="D40" s="139"/>
-      <c r="E40" s="146"/>
+      <c r="B40" s="147"/>
+      <c r="C40" s="150"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="153"/>
       <c r="F40" s="75" t="s">
         <v>295</v>
       </c>
-      <c r="G40" s="139"/>
+      <c r="G40" s="147"/>
       <c r="H40" s="76">
         <v>80</v>
       </c>
-      <c r="I40" s="139"/>
+      <c r="I40" s="147"/>
       <c r="J40" s="77">
         <v>0.189</v>
       </c>
@@ -6545,23 +6635,23 @@
       <c r="M40" s="76">
         <v>30</v>
       </c>
-      <c r="N40" s="139"/>
-      <c r="O40" s="139"/>
-      <c r="P40" s="139"/>
+      <c r="N40" s="147"/>
+      <c r="O40" s="147"/>
+      <c r="P40" s="147"/>
     </row>
     <row r="41" spans="2:16" ht="21">
-      <c r="B41" s="140"/>
-      <c r="C41" s="144"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="147"/>
+      <c r="B41" s="148"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="154"/>
       <c r="F41" s="75" t="s">
         <v>296</v>
       </c>
-      <c r="G41" s="140"/>
+      <c r="G41" s="148"/>
       <c r="H41" s="76">
         <v>5100</v>
       </c>
-      <c r="I41" s="140"/>
+      <c r="I41" s="148"/>
       <c r="J41" s="77">
         <v>2.7820800000000001</v>
       </c>
@@ -6574,17 +6664,17 @@
       <c r="M41" s="76">
         <v>28</v>
       </c>
-      <c r="N41" s="140"/>
-      <c r="O41" s="140"/>
-      <c r="P41" s="140"/>
+      <c r="N41" s="148"/>
+      <c r="O41" s="148"/>
+      <c r="P41" s="148"/>
     </row>
     <row r="42" spans="2:16" ht="22.5">
-      <c r="B42" s="125" t="s">
+      <c r="B42" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C42" s="125"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="130"/>
       <c r="F42" s="71" t="s">
         <v>282</v>
       </c>
@@ -6649,12 +6739,12 @@
       <c r="P43" s="76"/>
     </row>
     <row r="44" spans="2:16" ht="22.5">
-      <c r="B44" s="125" t="s">
+      <c r="B44" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130"/>
       <c r="F44" s="71" t="s">
         <v>298</v>
       </c>
@@ -6674,14 +6764,14 @@
       <c r="P44" s="79"/>
     </row>
     <row r="45" spans="2:16" ht="42">
-      <c r="B45" s="126" t="s">
+      <c r="B45" s="134" t="s">
         <v>299</v>
       </c>
       <c r="C45" s="38"/>
-      <c r="D45" s="126" t="s">
+      <c r="D45" s="134" t="s">
         <v>263</v>
       </c>
-      <c r="E45" s="129">
+      <c r="E45" s="156">
         <v>45671</v>
       </c>
       <c r="F45" s="68" t="s">
@@ -6722,10 +6812,10 @@
       </c>
     </row>
     <row r="46" spans="2:16" ht="21">
-      <c r="B46" s="128"/>
+      <c r="B46" s="135"/>
       <c r="C46" s="38"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="131"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="157"/>
       <c r="F46" s="68" t="s">
         <v>301</v>
       </c>
@@ -6756,12 +6846,12 @@
       <c r="P46" s="38"/>
     </row>
     <row r="47" spans="2:16" ht="22.5">
-      <c r="B47" s="125" t="s">
+      <c r="B47" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C47" s="125"/>
-      <c r="D47" s="125"/>
-      <c r="E47" s="125"/>
+      <c r="C47" s="130"/>
+      <c r="D47" s="130"/>
+      <c r="E47" s="130"/>
       <c r="F47" s="71" t="s">
         <v>301</v>
       </c>
@@ -6830,12 +6920,12 @@
       </c>
     </row>
     <row r="49" spans="2:16" ht="22.5">
-      <c r="B49" s="125" t="s">
+      <c r="B49" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C49" s="125"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="125"/>
+      <c r="C49" s="130"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="130"/>
       <c r="F49" s="71" t="s">
         <v>225</v>
       </c>
@@ -6903,12 +6993,12 @@
       </c>
     </row>
     <row r="51" spans="2:16" ht="22.5">
-      <c r="B51" s="132" t="s">
+      <c r="B51" s="138" t="s">
         <v>220</v>
       </c>
-      <c r="C51" s="133"/>
-      <c r="D51" s="133"/>
-      <c r="E51" s="134"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="139"/>
+      <c r="E51" s="140"/>
       <c r="F51" s="71" t="s">
         <v>225</v>
       </c>
@@ -6930,29 +7020,29 @@
       <c r="P51" s="79"/>
     </row>
     <row r="52" spans="2:16" ht="21" customHeight="1">
-      <c r="B52" s="126" t="s">
+      <c r="B52" s="134" t="s">
         <v>310</v>
       </c>
-      <c r="C52" s="126" t="s">
+      <c r="C52" s="134" t="s">
         <v>311</v>
       </c>
-      <c r="D52" s="126" t="s">
+      <c r="D52" s="134" t="s">
         <v>217</v>
       </c>
-      <c r="E52" s="129">
+      <c r="E52" s="156">
         <v>45676</v>
       </c>
       <c r="F52" s="68" t="s">
         <v>312</v>
       </c>
-      <c r="G52" s="126" t="s">
+      <c r="G52" s="134" t="s">
         <v>237</v>
       </c>
       <c r="H52" s="38">
         <f>35*28</f>
         <v>980</v>
       </c>
-      <c r="I52" s="126">
+      <c r="I52" s="134">
         <f>25*52</f>
         <v>1300</v>
       </c>
@@ -6975,24 +7065,24 @@
       <c r="O52" s="136">
         <v>45716</v>
       </c>
-      <c r="P52" s="126" t="s">
+      <c r="P52" s="134" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="21">
-      <c r="B53" s="128"/>
-      <c r="C53" s="128"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="131"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="135"/>
+      <c r="D53" s="135"/>
+      <c r="E53" s="157"/>
       <c r="F53" s="68" t="s">
         <v>313</v>
       </c>
-      <c r="G53" s="128"/>
+      <c r="G53" s="135"/>
       <c r="H53" s="38">
         <f>35*24</f>
         <v>840</v>
       </c>
-      <c r="I53" s="128"/>
+      <c r="I53" s="135"/>
       <c r="J53" s="69">
         <f>K53*L53*M53/1000000*24</f>
         <v>2.3353920000000001</v>
@@ -7006,17 +7096,17 @@
       <c r="M53" s="38">
         <v>36</v>
       </c>
-      <c r="N53" s="137"/>
-      <c r="O53" s="137"/>
-      <c r="P53" s="128"/>
+      <c r="N53" s="158"/>
+      <c r="O53" s="158"/>
+      <c r="P53" s="135"/>
     </row>
     <row r="54" spans="2:16" ht="22.5">
-      <c r="B54" s="132" t="s">
+      <c r="B54" s="138" t="s">
         <v>220</v>
       </c>
-      <c r="C54" s="133"/>
-      <c r="D54" s="133"/>
-      <c r="E54" s="134"/>
+      <c r="C54" s="139"/>
+      <c r="D54" s="139"/>
+      <c r="E54" s="140"/>
       <c r="F54" s="71" t="s">
         <v>314</v>
       </c>
@@ -7038,27 +7128,27 @@
       <c r="P54" s="74"/>
     </row>
     <row r="55" spans="2:16" ht="21" customHeight="1">
-      <c r="B55" s="150" t="s">
+      <c r="B55" s="127" t="s">
         <v>315</v>
       </c>
-      <c r="C55" s="150"/>
-      <c r="D55" s="150" t="s">
+      <c r="C55" s="127"/>
+      <c r="D55" s="127" t="s">
         <v>217</v>
       </c>
-      <c r="E55" s="153">
+      <c r="E55" s="131">
         <v>45677</v>
       </c>
       <c r="F55" s="100" t="s">
         <v>316</v>
       </c>
-      <c r="G55" s="150" t="s">
+      <c r="G55" s="127" t="s">
         <v>237</v>
       </c>
       <c r="H55" s="41">
         <f>50*20+60*32+40</f>
         <v>2960</v>
       </c>
-      <c r="I55" s="150">
+      <c r="I55" s="127">
         <f>25*169</f>
         <v>4225</v>
       </c>
@@ -7075,30 +7165,30 @@
       <c r="M55" s="41">
         <v>40</v>
       </c>
-      <c r="N55" s="156">
+      <c r="N55" s="141">
         <v>45680</v>
       </c>
-      <c r="O55" s="156">
+      <c r="O55" s="141">
         <v>45716</v>
       </c>
-      <c r="P55" s="150" t="s">
+      <c r="P55" s="127" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="56" spans="2:16" ht="21">
-      <c r="B56" s="151"/>
-      <c r="C56" s="151"/>
-      <c r="D56" s="151"/>
-      <c r="E56" s="154"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="128"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="132"/>
       <c r="F56" s="100" t="s">
         <v>317</v>
       </c>
-      <c r="G56" s="151"/>
+      <c r="G56" s="128"/>
       <c r="H56" s="41">
         <f>40*16</f>
         <v>640</v>
       </c>
-      <c r="I56" s="151"/>
+      <c r="I56" s="128"/>
       <c r="J56" s="101">
         <f>K56*L56*M56/1000000*16</f>
         <v>1.66656</v>
@@ -7112,24 +7202,24 @@
       <c r="M56" s="41">
         <v>28</v>
       </c>
-      <c r="N56" s="157"/>
-      <c r="O56" s="157"/>
-      <c r="P56" s="151"/>
+      <c r="N56" s="142"/>
+      <c r="O56" s="142"/>
+      <c r="P56" s="128"/>
     </row>
     <row r="57" spans="2:16" ht="21">
-      <c r="B57" s="152"/>
-      <c r="C57" s="152"/>
-      <c r="D57" s="152"/>
-      <c r="E57" s="155"/>
+      <c r="B57" s="129"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="129"/>
+      <c r="E57" s="133"/>
       <c r="F57" s="100" t="s">
         <v>414</v>
       </c>
-      <c r="G57" s="152"/>
+      <c r="G57" s="129"/>
       <c r="H57" s="41">
         <f>40*270</f>
         <v>10800</v>
       </c>
-      <c r="I57" s="152"/>
+      <c r="I57" s="129"/>
       <c r="J57" s="101">
         <f>K57*L57*M57/1000000*100</f>
         <v>11.899999999999999</v>
@@ -7143,17 +7233,17 @@
       <c r="M57" s="41">
         <v>70</v>
       </c>
-      <c r="N57" s="158"/>
-      <c r="O57" s="158"/>
-      <c r="P57" s="152"/>
+      <c r="N57" s="143"/>
+      <c r="O57" s="143"/>
+      <c r="P57" s="129"/>
     </row>
     <row r="58" spans="2:16" ht="22.5">
-      <c r="B58" s="132" t="s">
+      <c r="B58" s="138" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="133"/>
-      <c r="D58" s="133"/>
-      <c r="E58" s="134"/>
+      <c r="C58" s="139"/>
+      <c r="D58" s="139"/>
+      <c r="E58" s="140"/>
       <c r="F58" s="102" t="s">
         <v>415</v>
       </c>
@@ -7223,12 +7313,12 @@
       </c>
     </row>
     <row r="60" spans="2:16" ht="22.5">
-      <c r="B60" s="125" t="s">
+      <c r="B60" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C60" s="125"/>
-      <c r="D60" s="125"/>
-      <c r="E60" s="125"/>
+      <c r="C60" s="130"/>
+      <c r="D60" s="130"/>
+      <c r="E60" s="130"/>
       <c r="F60" s="102" t="s">
         <v>418</v>
       </c>
@@ -7250,28 +7340,28 @@
       <c r="P60" s="63"/>
     </row>
     <row r="61" spans="2:16" ht="21" customHeight="1">
-      <c r="B61" s="126" t="s">
+      <c r="B61" s="134" t="s">
         <v>318</v>
       </c>
-      <c r="C61" s="135" t="s">
+      <c r="C61" s="159" t="s">
         <v>319</v>
       </c>
-      <c r="D61" s="126" t="s">
+      <c r="D61" s="134" t="s">
         <v>320</v>
       </c>
-      <c r="E61" s="129">
+      <c r="E61" s="156">
         <v>45678</v>
       </c>
       <c r="F61" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="G61" s="126" t="s">
+      <c r="G61" s="134" t="s">
         <v>321</v>
       </c>
       <c r="H61" s="38">
         <v>1</v>
       </c>
-      <c r="I61" s="126">
+      <c r="I61" s="134">
         <v>37</v>
       </c>
       <c r="J61" s="69">
@@ -7293,23 +7383,23 @@
       <c r="O61" s="136">
         <v>45714</v>
       </c>
-      <c r="P61" s="126" t="s">
+      <c r="P61" s="134" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="62" spans="2:16" ht="21">
-      <c r="B62" s="127"/>
-      <c r="C62" s="127"/>
-      <c r="D62" s="127"/>
-      <c r="E62" s="130"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="137"/>
+      <c r="E62" s="160"/>
       <c r="F62" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="G62" s="127"/>
+      <c r="G62" s="137"/>
       <c r="H62" s="38">
         <v>10</v>
       </c>
-      <c r="I62" s="127"/>
+      <c r="I62" s="137"/>
       <c r="J62" s="69">
         <f t="shared" si="0"/>
         <v>0.18360000000000001</v>
@@ -7323,23 +7413,23 @@
       <c r="M62" s="38">
         <v>85</v>
       </c>
-      <c r="N62" s="127"/>
-      <c r="O62" s="127"/>
-      <c r="P62" s="127"/>
+      <c r="N62" s="137"/>
+      <c r="O62" s="137"/>
+      <c r="P62" s="137"/>
     </row>
     <row r="63" spans="2:16" ht="21">
-      <c r="B63" s="127"/>
-      <c r="C63" s="127"/>
-      <c r="D63" s="127"/>
-      <c r="E63" s="130"/>
+      <c r="B63" s="137"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="137"/>
+      <c r="E63" s="160"/>
       <c r="F63" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="G63" s="127"/>
+      <c r="G63" s="137"/>
       <c r="H63" s="38">
         <v>10</v>
       </c>
-      <c r="I63" s="127"/>
+      <c r="I63" s="137"/>
       <c r="J63" s="69">
         <f t="shared" si="0"/>
         <v>0.18240999999999999</v>
@@ -7353,23 +7443,23 @@
       <c r="M63" s="38">
         <v>37</v>
       </c>
-      <c r="N63" s="127"/>
-      <c r="O63" s="127"/>
-      <c r="P63" s="127"/>
+      <c r="N63" s="137"/>
+      <c r="O63" s="137"/>
+      <c r="P63" s="137"/>
     </row>
     <row r="64" spans="2:16" ht="21">
-      <c r="B64" s="128"/>
-      <c r="C64" s="128"/>
-      <c r="D64" s="128"/>
-      <c r="E64" s="131"/>
+      <c r="B64" s="135"/>
+      <c r="C64" s="135"/>
+      <c r="D64" s="135"/>
+      <c r="E64" s="157"/>
       <c r="F64" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="G64" s="128"/>
+      <c r="G64" s="135"/>
       <c r="H64" s="38">
         <v>2</v>
       </c>
-      <c r="I64" s="128"/>
+      <c r="I64" s="135"/>
       <c r="J64" s="69">
         <f t="shared" si="0"/>
         <v>4.9919999999999999E-2</v>
@@ -7383,33 +7473,33 @@
       <c r="M64" s="38">
         <v>20</v>
       </c>
-      <c r="N64" s="127"/>
-      <c r="O64" s="127"/>
-      <c r="P64" s="127"/>
+      <c r="N64" s="137"/>
+      <c r="O64" s="137"/>
+      <c r="P64" s="137"/>
     </row>
     <row r="65" spans="2:16" ht="21">
-      <c r="B65" s="126" t="s">
+      <c r="B65" s="134" t="s">
         <v>322</v>
       </c>
       <c r="C65" s="39" t="s">
         <v>323</v>
       </c>
-      <c r="D65" s="126" t="s">
+      <c r="D65" s="134" t="s">
         <v>320</v>
       </c>
-      <c r="E65" s="129">
+      <c r="E65" s="156">
         <v>45678</v>
       </c>
       <c r="F65" s="68" t="s">
         <v>324</v>
       </c>
-      <c r="G65" s="126" t="s">
+      <c r="G65" s="134" t="s">
         <v>321</v>
       </c>
       <c r="H65" s="38">
         <v>3</v>
       </c>
-      <c r="I65" s="126">
+      <c r="I65" s="134">
         <v>20</v>
       </c>
       <c r="J65" s="69">
@@ -7425,25 +7515,25 @@
       <c r="M65" s="38">
         <v>28</v>
       </c>
-      <c r="N65" s="127"/>
-      <c r="O65" s="127"/>
-      <c r="P65" s="127"/>
+      <c r="N65" s="137"/>
+      <c r="O65" s="137"/>
+      <c r="P65" s="137"/>
     </row>
     <row r="66" spans="2:16" ht="21">
-      <c r="B66" s="127"/>
+      <c r="B66" s="137"/>
       <c r="C66" s="38">
         <v>2660</v>
       </c>
-      <c r="D66" s="127"/>
-      <c r="E66" s="130"/>
+      <c r="D66" s="137"/>
+      <c r="E66" s="160"/>
       <c r="F66" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="G66" s="127"/>
+      <c r="G66" s="137"/>
       <c r="H66" s="38">
         <v>10</v>
       </c>
-      <c r="I66" s="127"/>
+      <c r="I66" s="137"/>
       <c r="J66" s="69">
         <f t="shared" si="0"/>
         <v>4.2335999999999999E-2</v>
@@ -7457,25 +7547,25 @@
       <c r="M66" s="38">
         <v>28</v>
       </c>
-      <c r="N66" s="127"/>
-      <c r="O66" s="127"/>
-      <c r="P66" s="127"/>
+      <c r="N66" s="137"/>
+      <c r="O66" s="137"/>
+      <c r="P66" s="137"/>
     </row>
     <row r="67" spans="2:16" ht="21">
-      <c r="B67" s="128"/>
+      <c r="B67" s="135"/>
       <c r="C67" s="38">
         <v>2461</v>
       </c>
-      <c r="D67" s="128"/>
-      <c r="E67" s="131"/>
+      <c r="D67" s="135"/>
+      <c r="E67" s="157"/>
       <c r="F67" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="G67" s="128"/>
+      <c r="G67" s="135"/>
       <c r="H67" s="38">
         <v>130</v>
       </c>
-      <c r="I67" s="128"/>
+      <c r="I67" s="135"/>
       <c r="J67" s="69">
         <f t="shared" si="0"/>
         <v>0.1176</v>
@@ -7489,17 +7579,17 @@
       <c r="M67" s="38">
         <v>56</v>
       </c>
-      <c r="N67" s="128"/>
-      <c r="O67" s="128"/>
-      <c r="P67" s="128"/>
+      <c r="N67" s="135"/>
+      <c r="O67" s="135"/>
+      <c r="P67" s="135"/>
     </row>
     <row r="68" spans="2:16" ht="22.5">
-      <c r="B68" s="125" t="s">
+      <c r="B68" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C68" s="125"/>
-      <c r="D68" s="125"/>
-      <c r="E68" s="125"/>
+      <c r="C68" s="130"/>
+      <c r="D68" s="130"/>
+      <c r="E68" s="130"/>
       <c r="F68" s="71" t="s">
         <v>326</v>
       </c>
@@ -7568,12 +7658,12 @@
       </c>
     </row>
     <row r="70" spans="2:16" ht="22.5">
-      <c r="B70" s="125" t="s">
+      <c r="B70" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C70" s="125"/>
-      <c r="D70" s="125"/>
-      <c r="E70" s="125"/>
+      <c r="C70" s="130"/>
+      <c r="D70" s="130"/>
+      <c r="E70" s="130"/>
       <c r="F70" s="102" t="s">
         <v>228</v>
       </c>
@@ -7634,12 +7724,12 @@
       </c>
     </row>
     <row r="72" spans="2:16" ht="22.5">
-      <c r="B72" s="125" t="s">
+      <c r="B72" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C72" s="125"/>
-      <c r="D72" s="125"/>
-      <c r="E72" s="125"/>
+      <c r="C72" s="130"/>
+      <c r="D72" s="130"/>
+      <c r="E72" s="130"/>
       <c r="F72" s="102" t="s">
         <v>225</v>
       </c>
@@ -7708,12 +7798,12 @@
       </c>
     </row>
     <row r="74" spans="2:16" ht="22.5">
-      <c r="B74" s="125" t="s">
+      <c r="B74" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="125"/>
-      <c r="D74" s="125"/>
-      <c r="E74" s="125"/>
+      <c r="C74" s="130"/>
+      <c r="D74" s="130"/>
+      <c r="E74" s="130"/>
       <c r="F74" s="102" t="s">
         <v>368</v>
       </c>
@@ -7774,12 +7864,12 @@
       <c r="P75" s="41"/>
     </row>
     <row r="76" spans="2:16" ht="22.5">
-      <c r="B76" s="125" t="s">
+      <c r="B76" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C76" s="125"/>
-      <c r="D76" s="125"/>
-      <c r="E76" s="125"/>
+      <c r="C76" s="130"/>
+      <c r="D76" s="130"/>
+      <c r="E76" s="130"/>
       <c r="F76" s="102" t="s">
         <v>373</v>
       </c>
@@ -7844,12 +7934,12 @@
       <c r="P77" s="41"/>
     </row>
     <row r="78" spans="2:16" ht="22.5">
-      <c r="B78" s="125" t="s">
+      <c r="B78" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C78" s="125"/>
-      <c r="D78" s="125"/>
-      <c r="E78" s="125"/>
+      <c r="C78" s="130"/>
+      <c r="D78" s="130"/>
+      <c r="E78" s="130"/>
       <c r="F78" s="102" t="s">
         <v>423</v>
       </c>
@@ -7918,12 +8008,12 @@
       </c>
     </row>
     <row r="80" spans="2:16" ht="22.5">
-      <c r="B80" s="125" t="s">
+      <c r="B80" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C80" s="125"/>
-      <c r="D80" s="125"/>
-      <c r="E80" s="125"/>
+      <c r="C80" s="130"/>
+      <c r="D80" s="130"/>
+      <c r="E80" s="130"/>
       <c r="F80" s="102" t="s">
         <v>427</v>
       </c>
@@ -7986,12 +8076,12 @@
       </c>
     </row>
     <row r="82" spans="2:16" ht="22.5">
-      <c r="B82" s="125" t="s">
+      <c r="B82" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C82" s="125"/>
-      <c r="D82" s="125"/>
-      <c r="E82" s="125"/>
+      <c r="C82" s="130"/>
+      <c r="D82" s="130"/>
+      <c r="E82" s="130"/>
       <c r="F82" s="102" t="s">
         <v>433</v>
       </c>
@@ -8056,12 +8146,12 @@
       </c>
     </row>
     <row r="84" spans="2:16" ht="22.5">
-      <c r="B84" s="125" t="s">
+      <c r="B84" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C84" s="125"/>
-      <c r="D84" s="125"/>
-      <c r="E84" s="125"/>
+      <c r="C84" s="130"/>
+      <c r="D84" s="130"/>
+      <c r="E84" s="130"/>
       <c r="F84" s="71" t="s">
         <v>230</v>
       </c>
@@ -8128,12 +8218,12 @@
       </c>
     </row>
     <row r="86" spans="2:16" ht="22.5">
-      <c r="B86" s="125" t="s">
+      <c r="B86" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C86" s="125"/>
-      <c r="D86" s="125"/>
-      <c r="E86" s="125"/>
+      <c r="C86" s="130"/>
+      <c r="D86" s="130"/>
+      <c r="E86" s="130"/>
       <c r="F86" s="71" t="s">
         <v>368</v>
       </c>
@@ -8196,12 +8286,12 @@
       <c r="P87" s="38"/>
     </row>
     <row r="88" spans="2:16" ht="22.5">
-      <c r="B88" s="125" t="s">
+      <c r="B88" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C88" s="125"/>
-      <c r="D88" s="125"/>
-      <c r="E88" s="125"/>
+      <c r="C88" s="130"/>
+      <c r="D88" s="130"/>
+      <c r="E88" s="130"/>
       <c r="F88" s="71" t="s">
         <v>239</v>
       </c>
@@ -8221,28 +8311,28 @@
       <c r="P88" s="74"/>
     </row>
     <row r="89" spans="2:16" ht="21">
-      <c r="B89" s="150" t="s">
+      <c r="B89" s="127" t="s">
         <v>529</v>
       </c>
-      <c r="C89" s="150">
+      <c r="C89" s="127">
         <v>15262730846</v>
       </c>
-      <c r="D89" s="150" t="s">
+      <c r="D89" s="127" t="s">
         <v>217</v>
       </c>
-      <c r="E89" s="153">
+      <c r="E89" s="131">
         <v>45719</v>
       </c>
       <c r="F89" s="100" t="s">
         <v>530</v>
       </c>
-      <c r="G89" s="150" t="s">
+      <c r="G89" s="127" t="s">
         <v>237</v>
       </c>
       <c r="H89" s="41">
         <v>1500</v>
       </c>
-      <c r="I89" s="150">
+      <c r="I89" s="127">
         <v>2675</v>
       </c>
       <c r="J89" s="101">
@@ -8257,10 +8347,10 @@
       <c r="M89" s="41">
         <v>19</v>
       </c>
-      <c r="N89" s="150" t="s">
+      <c r="N89" s="127" t="s">
         <v>244</v>
       </c>
-      <c r="O89" s="150" t="s">
+      <c r="O89" s="127" t="s">
         <v>244</v>
       </c>
       <c r="P89" s="41" t="s">
@@ -8268,18 +8358,18 @@
       </c>
     </row>
     <row r="90" spans="2:16" ht="21">
-      <c r="B90" s="151"/>
-      <c r="C90" s="151"/>
-      <c r="D90" s="151"/>
-      <c r="E90" s="154"/>
+      <c r="B90" s="128"/>
+      <c r="C90" s="128"/>
+      <c r="D90" s="128"/>
+      <c r="E90" s="132"/>
       <c r="F90" s="100" t="s">
         <v>531</v>
       </c>
-      <c r="G90" s="151"/>
+      <c r="G90" s="128"/>
       <c r="H90" s="41">
         <v>1500</v>
       </c>
-      <c r="I90" s="151"/>
+      <c r="I90" s="128"/>
       <c r="J90" s="101">
         <v>4.8099999999999996</v>
       </c>
@@ -8292,25 +8382,25 @@
       <c r="M90" s="41">
         <v>25</v>
       </c>
-      <c r="N90" s="151"/>
-      <c r="O90" s="151"/>
+      <c r="N90" s="128"/>
+      <c r="O90" s="128"/>
       <c r="P90" s="41" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="91" spans="2:16" ht="21">
-      <c r="B91" s="152"/>
-      <c r="C91" s="152"/>
-      <c r="D91" s="152"/>
-      <c r="E91" s="155"/>
+      <c r="B91" s="129"/>
+      <c r="C91" s="129"/>
+      <c r="D91" s="129"/>
+      <c r="E91" s="133"/>
       <c r="F91" s="100" t="s">
         <v>532</v>
       </c>
-      <c r="G91" s="152"/>
+      <c r="G91" s="129"/>
       <c r="H91" s="41">
         <v>210</v>
       </c>
-      <c r="I91" s="152"/>
+      <c r="I91" s="129"/>
       <c r="J91" s="101">
         <v>0.63724500000000006</v>
       </c>
@@ -8323,19 +8413,19 @@
       <c r="M91" s="41">
         <v>35</v>
       </c>
-      <c r="N91" s="152"/>
-      <c r="O91" s="152"/>
+      <c r="N91" s="129"/>
+      <c r="O91" s="129"/>
       <c r="P91" s="41" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="92" spans="2:16" ht="22.5">
-      <c r="B92" s="125" t="s">
+      <c r="B92" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C92" s="125"/>
-      <c r="D92" s="125"/>
-      <c r="E92" s="125"/>
+      <c r="C92" s="130"/>
+      <c r="D92" s="130"/>
+      <c r="E92" s="130"/>
       <c r="F92" s="102" t="s">
         <v>255</v>
       </c>
@@ -8356,15 +8446,79 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="N89:N91"/>
-    <mergeCell ref="O89:O91"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="G89:G91"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="N32:N37"/>
+    <mergeCell ref="O32:O37"/>
+    <mergeCell ref="P32:P37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I37"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="P52:P53"/>
     <mergeCell ref="P55:P57"/>
     <mergeCell ref="B60:E60"/>
@@ -8381,85 +8535,21 @@
     <mergeCell ref="I55:I57"/>
     <mergeCell ref="N55:N57"/>
     <mergeCell ref="O55:O57"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="E32:E37"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I37"/>
-    <mergeCell ref="N32:N37"/>
-    <mergeCell ref="O32:O37"/>
-    <mergeCell ref="P32:P37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="O39:O41"/>
-    <mergeCell ref="P39:P41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="N52:N53"/>
     <mergeCell ref="O52:O53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="G52:G53"/>
     <mergeCell ref="B58:E58"/>
     <mergeCell ref="B61:B64"/>
     <mergeCell ref="C61:C64"/>
     <mergeCell ref="D61:D64"/>
     <mergeCell ref="E61:E64"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="I61:I64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="N89:N91"/>
+    <mergeCell ref="O89:O91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="G89:G91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8467,11 +8557,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DD94FD-D993-429D-A766-D707FAC76EEB}">
-  <dimension ref="A1:P199"/>
+  <dimension ref="A1:P204"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A196" sqref="A196"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8551,11 +8641,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="148" t="s">
+      <c r="K2" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -8567,10 +8657,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="176"/>
+      <c r="B3" s="174"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -9146,25 +9236,25 @@
       <c r="A21" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="162" t="s">
+      <c r="B21" s="165" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="162" t="s">
+      <c r="D21" s="165" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="129">
+      <c r="E21" s="156">
         <v>45661</v>
       </c>
       <c r="F21" s="28">
         <v>1</v>
       </c>
-      <c r="G21" s="162" t="s">
+      <c r="G21" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="162">
+      <c r="H21" s="165">
         <v>2</v>
       </c>
       <c r="I21" s="28">
@@ -9183,7 +9273,7 @@
         <v>13</v>
       </c>
       <c r="N21" s="28"/>
-      <c r="O21" s="162" t="s">
+      <c r="O21" s="165" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9191,17 +9281,17 @@
       <c r="A22" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="164"/>
+      <c r="B22" s="167"/>
       <c r="C22" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="164"/>
-      <c r="E22" s="131"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="157"/>
       <c r="F22" s="28">
         <v>2</v>
       </c>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
       <c r="I22" s="28">
         <v>1.1000000000000001</v>
       </c>
@@ -9218,7 +9308,7 @@
         <v>13</v>
       </c>
       <c r="N22" s="28"/>
-      <c r="O22" s="164"/>
+      <c r="O22" s="167"/>
     </row>
     <row r="23" spans="1:15" ht="22.5">
       <c r="A23" s="32"/>
@@ -9803,25 +9893,25 @@
       <c r="A40" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="162" t="s">
+      <c r="B40" s="165" t="s">
         <v>89</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="162" t="s">
+      <c r="D40" s="165" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="129">
+      <c r="E40" s="156">
         <v>45664</v>
       </c>
       <c r="F40" s="28">
         <v>1</v>
       </c>
-      <c r="G40" s="162" t="s">
+      <c r="G40" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="162">
+      <c r="H40" s="165">
         <v>3</v>
       </c>
       <c r="I40" s="28">
@@ -9840,7 +9930,7 @@
         <v>20</v>
       </c>
       <c r="N40" s="28"/>
-      <c r="O40" s="162" t="s">
+      <c r="O40" s="165" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9848,17 +9938,17 @@
       <c r="A41" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="163"/>
+      <c r="B41" s="166"/>
       <c r="C41" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="163"/>
-      <c r="E41" s="130"/>
+      <c r="D41" s="166"/>
+      <c r="E41" s="160"/>
       <c r="F41" s="28">
         <v>2</v>
       </c>
-      <c r="G41" s="163"/>
-      <c r="H41" s="163"/>
+      <c r="G41" s="166"/>
+      <c r="H41" s="166"/>
       <c r="I41" s="28">
         <v>1.4</v>
       </c>
@@ -9875,23 +9965,23 @@
         <v>20</v>
       </c>
       <c r="N41" s="28"/>
-      <c r="O41" s="163"/>
+      <c r="O41" s="166"/>
     </row>
     <row r="42" spans="1:15" ht="21">
       <c r="A42" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="164"/>
+      <c r="B42" s="167"/>
       <c r="C42" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="164"/>
-      <c r="E42" s="131"/>
+      <c r="D42" s="167"/>
+      <c r="E42" s="157"/>
       <c r="F42" s="28">
         <v>3</v>
       </c>
-      <c r="G42" s="164"/>
-      <c r="H42" s="164"/>
+      <c r="G42" s="167"/>
+      <c r="H42" s="167"/>
       <c r="I42" s="28">
         <v>2</v>
       </c>
@@ -9908,7 +9998,7 @@
         <v>20</v>
       </c>
       <c r="N42" s="28"/>
-      <c r="O42" s="164"/>
+      <c r="O42" s="167"/>
     </row>
     <row r="43" spans="1:15" ht="22.5">
       <c r="A43" s="32"/>
@@ -10151,42 +10241,42 @@
       <c r="A50" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="150" t="s">
+      <c r="B50" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="150" t="s">
+      <c r="C50" s="127" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="150" t="s">
+      <c r="D50" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="153">
+      <c r="E50" s="131">
         <v>45666</v>
       </c>
       <c r="F50" s="41">
         <v>1</v>
       </c>
-      <c r="G50" s="150" t="s">
+      <c r="G50" s="127" t="s">
         <v>25</v>
       </c>
       <c r="H50" s="41"/>
-      <c r="I50" s="150">
+      <c r="I50" s="127">
         <v>10.199999999999999</v>
       </c>
-      <c r="J50" s="174">
+      <c r="J50" s="175">
         <v>0.10335</v>
       </c>
-      <c r="K50" s="150">
+      <c r="K50" s="127">
         <v>53</v>
       </c>
-      <c r="L50" s="150">
+      <c r="L50" s="127">
         <v>39</v>
       </c>
-      <c r="M50" s="150">
+      <c r="M50" s="127">
         <v>50</v>
       </c>
       <c r="N50" s="41"/>
-      <c r="O50" s="150" t="s">
+      <c r="O50" s="127" t="s">
         <v>109</v>
       </c>
     </row>
@@ -10194,22 +10284,22 @@
       <c r="A51" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="152"/>
-      <c r="C51" s="152"/>
-      <c r="D51" s="152"/>
-      <c r="E51" s="155"/>
+      <c r="B51" s="129"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="133"/>
       <c r="F51" s="41">
         <v>2</v>
       </c>
-      <c r="G51" s="152"/>
+      <c r="G51" s="129"/>
       <c r="H51" s="41"/>
-      <c r="I51" s="152"/>
-      <c r="J51" s="175"/>
-      <c r="K51" s="152"/>
-      <c r="L51" s="152"/>
-      <c r="M51" s="152"/>
+      <c r="I51" s="129"/>
+      <c r="J51" s="176"/>
+      <c r="K51" s="129"/>
+      <c r="L51" s="129"/>
+      <c r="M51" s="129"/>
       <c r="N51" s="41"/>
-      <c r="O51" s="152"/>
+      <c r="O51" s="129"/>
     </row>
     <row r="52" spans="1:15" ht="22.5">
       <c r="A52" s="32"/>
@@ -10240,25 +10330,25 @@
       <c r="A53" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="170" t="s">
+      <c r="B53" s="168" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="170" t="s">
+      <c r="C53" s="168" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="170" t="s">
+      <c r="D53" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="172">
+      <c r="E53" s="171">
         <v>45668</v>
       </c>
       <c r="F53" s="44">
         <v>1</v>
       </c>
-      <c r="G53" s="138" t="s">
+      <c r="G53" s="149" t="s">
         <v>114</v>
       </c>
-      <c r="H53" s="170">
+      <c r="H53" s="168">
         <v>1676</v>
       </c>
       <c r="I53" s="44">
@@ -10278,7 +10368,7 @@
         <v>43</v>
       </c>
       <c r="N53" s="44"/>
-      <c r="O53" s="170" t="s">
+      <c r="O53" s="168" t="s">
         <v>115</v>
       </c>
     </row>
@@ -10286,15 +10376,15 @@
       <c r="A54" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="171"/>
-      <c r="C54" s="171"/>
-      <c r="D54" s="171"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="170"/>
       <c r="E54" s="173"/>
       <c r="F54" s="44">
         <v>2</v>
       </c>
-      <c r="G54" s="144"/>
-      <c r="H54" s="171"/>
+      <c r="G54" s="151"/>
+      <c r="H54" s="170"/>
       <c r="I54" s="44">
         <v>16.7</v>
       </c>
@@ -10312,7 +10402,7 @@
         <v>30</v>
       </c>
       <c r="N54" s="44"/>
-      <c r="O54" s="171"/>
+      <c r="O54" s="170"/>
     </row>
     <row r="55" spans="1:15" ht="22.5">
       <c r="A55" s="32"/>
@@ -10343,25 +10433,25 @@
       <c r="A56" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="170" t="s">
+      <c r="B56" s="168" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="170" t="s">
+      <c r="C56" s="168" t="s">
         <v>119</v>
       </c>
-      <c r="D56" s="170" t="s">
+      <c r="D56" s="168" t="s">
         <v>82</v>
       </c>
-      <c r="E56" s="172">
+      <c r="E56" s="171">
         <v>45670</v>
       </c>
       <c r="F56" s="44">
         <v>1</v>
       </c>
-      <c r="G56" s="138" t="s">
+      <c r="G56" s="149" t="s">
         <v>120</v>
       </c>
-      <c r="H56" s="170">
+      <c r="H56" s="168">
         <v>145</v>
       </c>
       <c r="I56" s="44">
@@ -10381,7 +10471,7 @@
         <v>23</v>
       </c>
       <c r="N56" s="52"/>
-      <c r="O56" s="170" t="s">
+      <c r="O56" s="168" t="s">
         <v>121</v>
       </c>
     </row>
@@ -10389,15 +10479,15 @@
       <c r="A57" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="171"/>
-      <c r="C57" s="171"/>
-      <c r="D57" s="171"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="170"/>
+      <c r="D57" s="170"/>
       <c r="E57" s="173"/>
       <c r="F57" s="44">
         <v>2</v>
       </c>
-      <c r="G57" s="144"/>
-      <c r="H57" s="171"/>
+      <c r="G57" s="151"/>
+      <c r="H57" s="170"/>
       <c r="I57" s="44">
         <v>13.7</v>
       </c>
@@ -10415,7 +10505,7 @@
         <v>49</v>
       </c>
       <c r="N57" s="44"/>
-      <c r="O57" s="171"/>
+      <c r="O57" s="170"/>
     </row>
     <row r="58" spans="1:15" ht="22.5">
       <c r="A58" s="32"/>
@@ -10852,20 +10942,20 @@
       <c r="A71" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="B71" s="159" t="s">
+      <c r="B71" s="161" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="159"/>
-      <c r="D71" s="159" t="s">
+      <c r="C71" s="161"/>
+      <c r="D71" s="161" t="s">
         <v>156</v>
       </c>
-      <c r="E71" s="153">
+      <c r="E71" s="131">
         <v>45673</v>
       </c>
       <c r="F71" s="53">
         <v>1</v>
       </c>
-      <c r="G71" s="159" t="s">
+      <c r="G71" s="161" t="s">
         <v>157</v>
       </c>
       <c r="H71" s="53">
@@ -10894,14 +10984,14 @@
       <c r="A72" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="160"/>
-      <c r="C72" s="160"/>
-      <c r="D72" s="160"/>
-      <c r="E72" s="154"/>
+      <c r="B72" s="164"/>
+      <c r="C72" s="164"/>
+      <c r="D72" s="164"/>
+      <c r="E72" s="132"/>
       <c r="F72" s="53">
         <v>2</v>
       </c>
-      <c r="G72" s="160"/>
+      <c r="G72" s="164"/>
       <c r="H72" s="53">
         <v>240</v>
       </c>
@@ -10928,14 +11018,14 @@
       <c r="A73" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="B73" s="160"/>
-      <c r="C73" s="160"/>
-      <c r="D73" s="160"/>
-      <c r="E73" s="154"/>
+      <c r="B73" s="164"/>
+      <c r="C73" s="164"/>
+      <c r="D73" s="164"/>
+      <c r="E73" s="132"/>
       <c r="F73" s="53">
         <v>3</v>
       </c>
-      <c r="G73" s="160"/>
+      <c r="G73" s="164"/>
       <c r="H73" s="53">
         <v>300</v>
       </c>
@@ -10962,14 +11052,14 @@
       <c r="A74" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="B74" s="160"/>
-      <c r="C74" s="160"/>
-      <c r="D74" s="160"/>
-      <c r="E74" s="154"/>
+      <c r="B74" s="164"/>
+      <c r="C74" s="164"/>
+      <c r="D74" s="164"/>
+      <c r="E74" s="132"/>
       <c r="F74" s="53">
         <v>4</v>
       </c>
-      <c r="G74" s="160"/>
+      <c r="G74" s="164"/>
       <c r="H74" s="53">
         <v>230</v>
       </c>
@@ -10996,14 +11086,14 @@
       <c r="A75" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="B75" s="160"/>
-      <c r="C75" s="160"/>
-      <c r="D75" s="160"/>
-      <c r="E75" s="154"/>
+      <c r="B75" s="164"/>
+      <c r="C75" s="164"/>
+      <c r="D75" s="164"/>
+      <c r="E75" s="132"/>
       <c r="F75" s="53">
         <v>5</v>
       </c>
-      <c r="G75" s="160"/>
+      <c r="G75" s="164"/>
       <c r="H75" s="53">
         <v>220</v>
       </c>
@@ -11030,14 +11120,14 @@
       <c r="A76" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B76" s="160"/>
-      <c r="C76" s="160"/>
-      <c r="D76" s="160"/>
-      <c r="E76" s="154"/>
+      <c r="B76" s="164"/>
+      <c r="C76" s="164"/>
+      <c r="D76" s="164"/>
+      <c r="E76" s="132"/>
       <c r="F76" s="53">
         <v>6</v>
       </c>
-      <c r="G76" s="160"/>
+      <c r="G76" s="164"/>
       <c r="H76" s="53">
         <v>200</v>
       </c>
@@ -11064,14 +11154,14 @@
       <c r="A77" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B77" s="160"/>
-      <c r="C77" s="160"/>
-      <c r="D77" s="160"/>
-      <c r="E77" s="154"/>
+      <c r="B77" s="164"/>
+      <c r="C77" s="164"/>
+      <c r="D77" s="164"/>
+      <c r="E77" s="132"/>
       <c r="F77" s="53">
         <v>7</v>
       </c>
-      <c r="G77" s="160"/>
+      <c r="G77" s="164"/>
       <c r="H77" s="53">
         <v>190</v>
       </c>
@@ -11098,14 +11188,14 @@
       <c r="A78" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="160"/>
-      <c r="C78" s="160"/>
-      <c r="D78" s="160"/>
-      <c r="E78" s="154"/>
+      <c r="B78" s="164"/>
+      <c r="C78" s="164"/>
+      <c r="D78" s="164"/>
+      <c r="E78" s="132"/>
       <c r="F78" s="53">
         <v>8</v>
       </c>
-      <c r="G78" s="160"/>
+      <c r="G78" s="164"/>
       <c r="H78" s="53">
         <v>200</v>
       </c>
@@ -11132,14 +11222,14 @@
       <c r="A79" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="B79" s="160"/>
-      <c r="C79" s="160"/>
-      <c r="D79" s="160"/>
-      <c r="E79" s="154"/>
+      <c r="B79" s="164"/>
+      <c r="C79" s="164"/>
+      <c r="D79" s="164"/>
+      <c r="E79" s="132"/>
       <c r="F79" s="53">
         <v>9</v>
       </c>
-      <c r="G79" s="160"/>
+      <c r="G79" s="164"/>
       <c r="H79" s="53">
         <v>200</v>
       </c>
@@ -11166,14 +11256,14 @@
       <c r="A80" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="B80" s="160"/>
-      <c r="C80" s="160"/>
-      <c r="D80" s="160"/>
-      <c r="E80" s="154"/>
+      <c r="B80" s="164"/>
+      <c r="C80" s="164"/>
+      <c r="D80" s="164"/>
+      <c r="E80" s="132"/>
       <c r="F80" s="53">
         <v>10</v>
       </c>
-      <c r="G80" s="160"/>
+      <c r="G80" s="164"/>
       <c r="H80" s="53">
         <v>200</v>
       </c>
@@ -11200,14 +11290,14 @@
       <c r="A81" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="B81" s="161"/>
-      <c r="C81" s="161"/>
-      <c r="D81" s="161"/>
-      <c r="E81" s="155"/>
+      <c r="B81" s="162"/>
+      <c r="C81" s="162"/>
+      <c r="D81" s="162"/>
+      <c r="E81" s="133"/>
       <c r="F81" s="53">
         <v>11</v>
       </c>
-      <c r="G81" s="161"/>
+      <c r="G81" s="162"/>
       <c r="H81" s="53">
         <v>200</v>
       </c>
@@ -11934,22 +12024,22 @@
       <c r="A103" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="B103" s="159" t="s">
+      <c r="B103" s="161" t="s">
         <v>209</v>
       </c>
-      <c r="C103" s="159" t="s">
+      <c r="C103" s="161" t="s">
         <v>210</v>
       </c>
-      <c r="D103" s="159" t="s">
+      <c r="D103" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="E103" s="153">
+      <c r="E103" s="131">
         <v>45680</v>
       </c>
       <c r="F103" s="53">
         <v>1</v>
       </c>
-      <c r="G103" s="169" t="s">
+      <c r="G103" s="163" t="s">
         <v>211</v>
       </c>
       <c r="H103" s="53"/>
@@ -11976,14 +12066,14 @@
       <c r="A104" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="B104" s="160"/>
-      <c r="C104" s="160"/>
-      <c r="D104" s="160"/>
-      <c r="E104" s="154"/>
+      <c r="B104" s="164"/>
+      <c r="C104" s="164"/>
+      <c r="D104" s="164"/>
+      <c r="E104" s="132"/>
       <c r="F104" s="53">
         <v>2</v>
       </c>
-      <c r="G104" s="160"/>
+      <c r="G104" s="164"/>
       <c r="H104" s="53"/>
       <c r="I104" s="53">
         <v>9.1</v>
@@ -12008,14 +12098,14 @@
       <c r="A105" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="B105" s="160"/>
-      <c r="C105" s="160"/>
-      <c r="D105" s="160"/>
-      <c r="E105" s="154"/>
+      <c r="B105" s="164"/>
+      <c r="C105" s="164"/>
+      <c r="D105" s="164"/>
+      <c r="E105" s="132"/>
       <c r="F105" s="53">
         <v>3</v>
       </c>
-      <c r="G105" s="160"/>
+      <c r="G105" s="164"/>
       <c r="H105" s="53"/>
       <c r="I105" s="53">
         <v>24.1</v>
@@ -12040,14 +12130,14 @@
       <c r="A106" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="B106" s="161"/>
-      <c r="C106" s="161"/>
-      <c r="D106" s="161"/>
-      <c r="E106" s="155"/>
+      <c r="B106" s="162"/>
+      <c r="C106" s="162"/>
+      <c r="D106" s="162"/>
+      <c r="E106" s="133"/>
       <c r="F106" s="53">
         <v>4</v>
       </c>
-      <c r="G106" s="161"/>
+      <c r="G106" s="162"/>
       <c r="H106" s="53"/>
       <c r="I106" s="53">
         <v>6.4</v>
@@ -12169,25 +12259,25 @@
       <c r="A110" s="53" t="s">
         <v>333</v>
       </c>
-      <c r="B110" s="167" t="s">
+      <c r="B110" s="177" t="s">
         <v>334</v>
       </c>
       <c r="C110" s="53" t="s">
         <v>335</v>
       </c>
-      <c r="D110" s="167" t="s">
+      <c r="D110" s="177" t="s">
         <v>330</v>
       </c>
-      <c r="E110" s="168">
+      <c r="E110" s="178">
         <v>45698</v>
       </c>
       <c r="F110" s="53">
         <v>1</v>
       </c>
-      <c r="G110" s="167" t="s">
+      <c r="G110" s="177" t="s">
         <v>331</v>
       </c>
-      <c r="H110" s="167">
+      <c r="H110" s="177">
         <v>2</v>
       </c>
       <c r="I110" s="53">
@@ -12206,7 +12296,7 @@
         <v>10</v>
       </c>
       <c r="N110" s="53"/>
-      <c r="O110" s="167" t="s">
+      <c r="O110" s="177" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12214,17 +12304,17 @@
       <c r="A111" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="B111" s="167"/>
+      <c r="B111" s="177"/>
       <c r="C111" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="D111" s="167"/>
-      <c r="E111" s="168"/>
+      <c r="D111" s="177"/>
+      <c r="E111" s="178"/>
       <c r="F111" s="53">
         <v>2</v>
       </c>
-      <c r="G111" s="167"/>
-      <c r="H111" s="167"/>
+      <c r="G111" s="177"/>
+      <c r="H111" s="177"/>
       <c r="I111" s="53">
         <v>1.4</v>
       </c>
@@ -12241,7 +12331,7 @@
         <v>14</v>
       </c>
       <c r="N111" s="53"/>
-      <c r="O111" s="167"/>
+      <c r="O111" s="177"/>
     </row>
     <row r="112" spans="1:15" ht="22.5">
       <c r="A112" s="64"/>
@@ -12618,25 +12708,25 @@
       <c r="A123" s="44" t="s">
         <v>377</v>
       </c>
-      <c r="B123" s="170" t="s">
+      <c r="B123" s="168" t="s">
         <v>378</v>
       </c>
-      <c r="C123" s="170" t="s">
+      <c r="C123" s="168" t="s">
         <v>379</v>
       </c>
-      <c r="D123" s="170" t="s">
+      <c r="D123" s="168" t="s">
         <v>380</v>
       </c>
-      <c r="E123" s="172">
+      <c r="E123" s="171">
         <v>45706</v>
       </c>
       <c r="F123" s="44">
         <v>1</v>
       </c>
-      <c r="G123" s="138" t="s">
+      <c r="G123" s="149" t="s">
         <v>381</v>
       </c>
-      <c r="H123" s="170">
+      <c r="H123" s="168">
         <v>553</v>
       </c>
       <c r="I123" s="44">
@@ -12655,7 +12745,7 @@
         <v>49</v>
       </c>
       <c r="N123" s="44"/>
-      <c r="O123" s="170" t="s">
+      <c r="O123" s="168" t="s">
         <v>196</v>
       </c>
     </row>
@@ -12663,15 +12753,15 @@
       <c r="A124" s="44" t="s">
         <v>382</v>
       </c>
-      <c r="B124" s="177"/>
-      <c r="C124" s="177"/>
-      <c r="D124" s="177"/>
-      <c r="E124" s="178"/>
+      <c r="B124" s="169"/>
+      <c r="C124" s="169"/>
+      <c r="D124" s="169"/>
+      <c r="E124" s="172"/>
       <c r="F124" s="44">
         <v>2</v>
       </c>
-      <c r="G124" s="143"/>
-      <c r="H124" s="177"/>
+      <c r="G124" s="150"/>
+      <c r="H124" s="169"/>
       <c r="I124" s="44">
         <v>11.9</v>
       </c>
@@ -12688,21 +12778,21 @@
         <v>49</v>
       </c>
       <c r="N124" s="44"/>
-      <c r="O124" s="177"/>
+      <c r="O124" s="169"/>
     </row>
     <row r="125" spans="1:15" ht="21">
       <c r="A125" s="44" t="s">
         <v>383</v>
       </c>
-      <c r="B125" s="177"/>
-      <c r="C125" s="177"/>
-      <c r="D125" s="177"/>
-      <c r="E125" s="178"/>
+      <c r="B125" s="169"/>
+      <c r="C125" s="169"/>
+      <c r="D125" s="169"/>
+      <c r="E125" s="172"/>
       <c r="F125" s="44">
         <v>3</v>
       </c>
-      <c r="G125" s="143"/>
-      <c r="H125" s="177"/>
+      <c r="G125" s="150"/>
+      <c r="H125" s="169"/>
       <c r="I125" s="44">
         <v>13.8</v>
       </c>
@@ -12719,21 +12809,21 @@
         <v>49</v>
       </c>
       <c r="N125" s="44"/>
-      <c r="O125" s="177"/>
+      <c r="O125" s="169"/>
     </row>
     <row r="126" spans="1:15" ht="21">
       <c r="A126" s="44" t="s">
         <v>384</v>
       </c>
-      <c r="B126" s="177"/>
-      <c r="C126" s="177"/>
-      <c r="D126" s="177"/>
-      <c r="E126" s="178"/>
+      <c r="B126" s="169"/>
+      <c r="C126" s="169"/>
+      <c r="D126" s="169"/>
+      <c r="E126" s="172"/>
       <c r="F126" s="44">
         <v>4</v>
       </c>
-      <c r="G126" s="143"/>
-      <c r="H126" s="177"/>
+      <c r="G126" s="150"/>
+      <c r="H126" s="169"/>
       <c r="I126" s="44">
         <v>17.600000000000001</v>
       </c>
@@ -12750,21 +12840,21 @@
         <v>49</v>
       </c>
       <c r="N126" s="44"/>
-      <c r="O126" s="177"/>
+      <c r="O126" s="169"/>
     </row>
     <row r="127" spans="1:15" ht="21">
       <c r="A127" s="44" t="s">
         <v>385</v>
       </c>
-      <c r="B127" s="177"/>
-      <c r="C127" s="177"/>
-      <c r="D127" s="177"/>
-      <c r="E127" s="178"/>
+      <c r="B127" s="169"/>
+      <c r="C127" s="169"/>
+      <c r="D127" s="169"/>
+      <c r="E127" s="172"/>
       <c r="F127" s="44">
         <v>5</v>
       </c>
-      <c r="G127" s="143"/>
-      <c r="H127" s="177"/>
+      <c r="G127" s="150"/>
+      <c r="H127" s="169"/>
       <c r="I127" s="44">
         <v>7.8</v>
       </c>
@@ -12781,21 +12871,21 @@
         <v>43</v>
       </c>
       <c r="N127" s="44"/>
-      <c r="O127" s="177"/>
+      <c r="O127" s="169"/>
     </row>
     <row r="128" spans="1:15" ht="21">
       <c r="A128" s="44" t="s">
         <v>386</v>
       </c>
-      <c r="B128" s="177"/>
-      <c r="C128" s="177"/>
-      <c r="D128" s="177"/>
-      <c r="E128" s="178"/>
+      <c r="B128" s="169"/>
+      <c r="C128" s="169"/>
+      <c r="D128" s="169"/>
+      <c r="E128" s="172"/>
       <c r="F128" s="44">
         <v>6</v>
       </c>
-      <c r="G128" s="143"/>
-      <c r="H128" s="177"/>
+      <c r="G128" s="150"/>
+      <c r="H128" s="169"/>
       <c r="I128" s="44">
         <v>15.5</v>
       </c>
@@ -12812,21 +12902,21 @@
         <v>49</v>
       </c>
       <c r="N128" s="44"/>
-      <c r="O128" s="177"/>
+      <c r="O128" s="169"/>
     </row>
     <row r="129" spans="1:15" ht="21">
       <c r="A129" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="B129" s="171"/>
-      <c r="C129" s="171"/>
-      <c r="D129" s="171"/>
+      <c r="B129" s="170"/>
+      <c r="C129" s="170"/>
+      <c r="D129" s="170"/>
       <c r="E129" s="173"/>
       <c r="F129" s="44">
         <v>7</v>
       </c>
-      <c r="G129" s="144"/>
-      <c r="H129" s="171"/>
+      <c r="G129" s="151"/>
+      <c r="H129" s="170"/>
       <c r="I129" s="44">
         <v>14.6</v>
       </c>
@@ -12843,7 +12933,7 @@
         <v>49</v>
       </c>
       <c r="N129" s="44"/>
-      <c r="O129" s="171"/>
+      <c r="O129" s="170"/>
     </row>
     <row r="130" spans="1:15" ht="22.5">
       <c r="A130" s="64"/>
@@ -13491,22 +13581,22 @@
       <c r="A149" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B149" s="162" t="s">
+      <c r="B149" s="165" t="s">
         <v>448</v>
       </c>
       <c r="C149" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="D149" s="162" t="s">
+      <c r="D149" s="165" t="s">
         <v>51</v>
       </c>
-      <c r="E149" s="165">
+      <c r="E149" s="179">
         <v>45713</v>
       </c>
       <c r="F149" s="28">
         <v>1</v>
       </c>
-      <c r="G149" s="162" t="s">
+      <c r="G149" s="165" t="s">
         <v>25</v>
       </c>
       <c r="H149" s="28"/>
@@ -13526,7 +13616,7 @@
         <v>37</v>
       </c>
       <c r="N149" s="28"/>
-      <c r="O149" s="162" t="s">
+      <c r="O149" s="165" t="s">
         <v>26</v>
       </c>
     </row>
@@ -13534,16 +13624,16 @@
       <c r="A150" s="28" t="s">
         <v>450</v>
       </c>
-      <c r="B150" s="164"/>
+      <c r="B150" s="167"/>
       <c r="C150" s="28" t="s">
         <v>451</v>
       </c>
-      <c r="D150" s="164"/>
-      <c r="E150" s="166"/>
+      <c r="D150" s="167"/>
+      <c r="E150" s="180"/>
       <c r="F150" s="28">
         <v>2</v>
       </c>
-      <c r="G150" s="164"/>
+      <c r="G150" s="167"/>
       <c r="H150" s="28"/>
       <c r="I150" s="28">
         <v>2</v>
@@ -13561,7 +13651,7 @@
         <v>16</v>
       </c>
       <c r="N150" s="28"/>
-      <c r="O150" s="164"/>
+      <c r="O150" s="167"/>
     </row>
     <row r="151" spans="1:15" ht="22.5">
       <c r="A151" s="64"/>
@@ -13592,25 +13682,25 @@
       <c r="A152" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="B152" s="162" t="s">
+      <c r="B152" s="165" t="s">
         <v>453</v>
       </c>
-      <c r="C152" s="162" t="s">
+      <c r="C152" s="165" t="s">
         <v>454</v>
       </c>
-      <c r="D152" s="162" t="s">
+      <c r="D152" s="165" t="s">
         <v>455</v>
       </c>
-      <c r="E152" s="165">
+      <c r="E152" s="179">
         <v>45713</v>
       </c>
       <c r="F152" s="28">
         <v>1</v>
       </c>
-      <c r="G152" s="162" t="s">
+      <c r="G152" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="H152" s="162">
+      <c r="H152" s="165">
         <v>120</v>
       </c>
       <c r="I152" s="28">
@@ -13629,7 +13719,7 @@
         <v>50</v>
       </c>
       <c r="N152" s="28"/>
-      <c r="O152" s="162" t="s">
+      <c r="O152" s="165" t="s">
         <v>26</v>
       </c>
     </row>
@@ -13637,15 +13727,15 @@
       <c r="A153" s="28" t="s">
         <v>456</v>
       </c>
-      <c r="B153" s="163"/>
-      <c r="C153" s="163"/>
-      <c r="D153" s="163"/>
-      <c r="E153" s="127"/>
+      <c r="B153" s="166"/>
+      <c r="C153" s="166"/>
+      <c r="D153" s="166"/>
+      <c r="E153" s="137"/>
       <c r="F153" s="28">
         <v>2</v>
       </c>
-      <c r="G153" s="163"/>
-      <c r="H153" s="163"/>
+      <c r="G153" s="166"/>
+      <c r="H153" s="166"/>
       <c r="I153" s="28">
         <v>19.5</v>
       </c>
@@ -13662,21 +13752,21 @@
         <v>50</v>
       </c>
       <c r="N153" s="28"/>
-      <c r="O153" s="163"/>
+      <c r="O153" s="166"/>
     </row>
     <row r="154" spans="1:15" ht="21">
       <c r="A154" s="28" t="s">
         <v>457</v>
       </c>
-      <c r="B154" s="163"/>
-      <c r="C154" s="163"/>
-      <c r="D154" s="163"/>
-      <c r="E154" s="127"/>
+      <c r="B154" s="166"/>
+      <c r="C154" s="166"/>
+      <c r="D154" s="166"/>
+      <c r="E154" s="137"/>
       <c r="F154" s="28">
         <v>3</v>
       </c>
-      <c r="G154" s="163"/>
-      <c r="H154" s="163"/>
+      <c r="G154" s="166"/>
+      <c r="H154" s="166"/>
       <c r="I154" s="28">
         <v>22</v>
       </c>
@@ -13693,21 +13783,21 @@
         <v>50</v>
       </c>
       <c r="N154" s="28"/>
-      <c r="O154" s="163"/>
+      <c r="O154" s="166"/>
     </row>
     <row r="155" spans="1:15" ht="21">
       <c r="A155" s="28" t="s">
         <v>458</v>
       </c>
-      <c r="B155" s="163"/>
-      <c r="C155" s="163"/>
-      <c r="D155" s="163"/>
-      <c r="E155" s="127"/>
+      <c r="B155" s="166"/>
+      <c r="C155" s="166"/>
+      <c r="D155" s="166"/>
+      <c r="E155" s="137"/>
       <c r="F155" s="28">
         <v>4</v>
       </c>
-      <c r="G155" s="163"/>
-      <c r="H155" s="163"/>
+      <c r="G155" s="166"/>
+      <c r="H155" s="166"/>
       <c r="I155" s="28">
         <v>21.2</v>
       </c>
@@ -13724,21 +13814,21 @@
         <v>50</v>
       </c>
       <c r="N155" s="28"/>
-      <c r="O155" s="163"/>
+      <c r="O155" s="166"/>
     </row>
     <row r="156" spans="1:15" ht="21">
       <c r="A156" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="B156" s="163"/>
-      <c r="C156" s="163"/>
-      <c r="D156" s="163"/>
-      <c r="E156" s="127"/>
+      <c r="B156" s="166"/>
+      <c r="C156" s="166"/>
+      <c r="D156" s="166"/>
+      <c r="E156" s="137"/>
       <c r="F156" s="28">
         <v>5</v>
       </c>
-      <c r="G156" s="163"/>
-      <c r="H156" s="163"/>
+      <c r="G156" s="166"/>
+      <c r="H156" s="166"/>
       <c r="I156" s="28">
         <v>19.600000000000001</v>
       </c>
@@ -13755,21 +13845,21 @@
         <v>50</v>
       </c>
       <c r="N156" s="28"/>
-      <c r="O156" s="163"/>
+      <c r="O156" s="166"/>
     </row>
     <row r="157" spans="1:15" ht="21">
       <c r="A157" s="28" t="s">
         <v>460</v>
       </c>
-      <c r="B157" s="164"/>
-      <c r="C157" s="164"/>
-      <c r="D157" s="164"/>
-      <c r="E157" s="128"/>
+      <c r="B157" s="167"/>
+      <c r="C157" s="167"/>
+      <c r="D157" s="167"/>
+      <c r="E157" s="135"/>
       <c r="F157" s="28">
         <v>6</v>
       </c>
-      <c r="G157" s="164"/>
-      <c r="H157" s="164"/>
+      <c r="G157" s="167"/>
+      <c r="H157" s="167"/>
       <c r="I157" s="28">
         <v>20.2</v>
       </c>
@@ -13786,7 +13876,7 @@
         <v>50</v>
       </c>
       <c r="N157" s="28"/>
-      <c r="O157" s="164"/>
+      <c r="O157" s="167"/>
     </row>
     <row r="158" spans="1:15" ht="22.5">
       <c r="A158" s="64"/>
@@ -13815,25 +13905,25 @@
       <c r="A159" s="53" t="s">
         <v>469</v>
       </c>
-      <c r="B159" s="159" t="s">
+      <c r="B159" s="161" t="s">
         <v>470</v>
       </c>
-      <c r="C159" s="159" t="s">
+      <c r="C159" s="161" t="s">
         <v>471</v>
       </c>
-      <c r="D159" s="159" t="s">
+      <c r="D159" s="161" t="s">
         <v>192</v>
       </c>
-      <c r="E159" s="153">
+      <c r="E159" s="131">
         <v>45714</v>
       </c>
       <c r="F159" s="53">
         <v>1</v>
       </c>
-      <c r="G159" s="159" t="s">
+      <c r="G159" s="161" t="s">
         <v>472</v>
       </c>
-      <c r="H159" s="159"/>
+      <c r="H159" s="161"/>
       <c r="I159" s="53">
         <v>7.1</v>
       </c>
@@ -13851,7 +13941,7 @@
         <v>40</v>
       </c>
       <c r="N159" s="53"/>
-      <c r="O159" s="159" t="s">
+      <c r="O159" s="161" t="s">
         <v>26</v>
       </c>
     </row>
@@ -13859,15 +13949,15 @@
       <c r="A160" s="53" t="s">
         <v>473</v>
       </c>
-      <c r="B160" s="160"/>
-      <c r="C160" s="160"/>
-      <c r="D160" s="160"/>
-      <c r="E160" s="154"/>
+      <c r="B160" s="164"/>
+      <c r="C160" s="164"/>
+      <c r="D160" s="164"/>
+      <c r="E160" s="132"/>
       <c r="F160" s="53">
         <v>2</v>
       </c>
-      <c r="G160" s="160"/>
-      <c r="H160" s="160"/>
+      <c r="G160" s="164"/>
+      <c r="H160" s="164"/>
       <c r="I160" s="53">
         <v>7.3</v>
       </c>
@@ -13885,21 +13975,21 @@
         <v>40</v>
       </c>
       <c r="N160" s="53"/>
-      <c r="O160" s="160"/>
+      <c r="O160" s="164"/>
     </row>
     <row r="161" spans="1:15" ht="21">
       <c r="A161" s="53" t="s">
         <v>474</v>
       </c>
-      <c r="B161" s="160"/>
-      <c r="C161" s="160"/>
-      <c r="D161" s="160"/>
-      <c r="E161" s="154"/>
+      <c r="B161" s="164"/>
+      <c r="C161" s="164"/>
+      <c r="D161" s="164"/>
+      <c r="E161" s="132"/>
       <c r="F161" s="53">
         <v>3</v>
       </c>
-      <c r="G161" s="160"/>
-      <c r="H161" s="160"/>
+      <c r="G161" s="164"/>
+      <c r="H161" s="164"/>
       <c r="I161" s="53">
         <v>7</v>
       </c>
@@ -13917,21 +14007,21 @@
         <v>40</v>
       </c>
       <c r="N161" s="53"/>
-      <c r="O161" s="160"/>
+      <c r="O161" s="164"/>
     </row>
     <row r="162" spans="1:15" ht="21">
       <c r="A162" s="53" t="s">
         <v>475</v>
       </c>
-      <c r="B162" s="160"/>
-      <c r="C162" s="160"/>
-      <c r="D162" s="160"/>
-      <c r="E162" s="154"/>
+      <c r="B162" s="164"/>
+      <c r="C162" s="164"/>
+      <c r="D162" s="164"/>
+      <c r="E162" s="132"/>
       <c r="F162" s="53">
         <v>4</v>
       </c>
-      <c r="G162" s="160"/>
-      <c r="H162" s="160"/>
+      <c r="G162" s="164"/>
+      <c r="H162" s="164"/>
       <c r="I162" s="53">
         <v>8.4</v>
       </c>
@@ -13949,21 +14039,21 @@
         <v>40</v>
       </c>
       <c r="N162" s="53"/>
-      <c r="O162" s="160"/>
+      <c r="O162" s="164"/>
     </row>
     <row r="163" spans="1:15" ht="21">
       <c r="A163" s="53" t="s">
         <v>476</v>
       </c>
-      <c r="B163" s="160"/>
-      <c r="C163" s="160"/>
-      <c r="D163" s="160"/>
-      <c r="E163" s="154"/>
+      <c r="B163" s="164"/>
+      <c r="C163" s="164"/>
+      <c r="D163" s="164"/>
+      <c r="E163" s="132"/>
       <c r="F163" s="53">
         <v>5</v>
       </c>
-      <c r="G163" s="160"/>
-      <c r="H163" s="160"/>
+      <c r="G163" s="164"/>
+      <c r="H163" s="164"/>
       <c r="I163" s="53">
         <v>6.7</v>
       </c>
@@ -13981,21 +14071,21 @@
         <v>40</v>
       </c>
       <c r="N163" s="53"/>
-      <c r="O163" s="160"/>
+      <c r="O163" s="164"/>
     </row>
     <row r="164" spans="1:15" ht="21">
       <c r="A164" s="53" t="s">
         <v>477</v>
       </c>
-      <c r="B164" s="160"/>
-      <c r="C164" s="160"/>
-      <c r="D164" s="160"/>
-      <c r="E164" s="154"/>
+      <c r="B164" s="164"/>
+      <c r="C164" s="164"/>
+      <c r="D164" s="164"/>
+      <c r="E164" s="132"/>
       <c r="F164" s="53">
         <v>6</v>
       </c>
-      <c r="G164" s="160"/>
-      <c r="H164" s="160"/>
+      <c r="G164" s="164"/>
+      <c r="H164" s="164"/>
       <c r="I164" s="53">
         <v>6.9</v>
       </c>
@@ -14013,21 +14103,21 @@
         <v>40</v>
       </c>
       <c r="N164" s="53"/>
-      <c r="O164" s="160"/>
+      <c r="O164" s="164"/>
     </row>
     <row r="165" spans="1:15" ht="21">
       <c r="A165" s="53" t="s">
         <v>478</v>
       </c>
-      <c r="B165" s="160"/>
-      <c r="C165" s="160"/>
-      <c r="D165" s="160"/>
-      <c r="E165" s="154"/>
+      <c r="B165" s="164"/>
+      <c r="C165" s="164"/>
+      <c r="D165" s="164"/>
+      <c r="E165" s="132"/>
       <c r="F165" s="53">
         <v>7</v>
       </c>
-      <c r="G165" s="160"/>
-      <c r="H165" s="160"/>
+      <c r="G165" s="164"/>
+      <c r="H165" s="164"/>
       <c r="I165" s="53">
         <v>5.8</v>
       </c>
@@ -14045,21 +14135,21 @@
         <v>40</v>
       </c>
       <c r="N165" s="53"/>
-      <c r="O165" s="160"/>
+      <c r="O165" s="164"/>
     </row>
     <row r="166" spans="1:15" ht="21">
       <c r="A166" s="53" t="s">
         <v>479</v>
       </c>
-      <c r="B166" s="161"/>
-      <c r="C166" s="161"/>
-      <c r="D166" s="161"/>
-      <c r="E166" s="155"/>
+      <c r="B166" s="162"/>
+      <c r="C166" s="162"/>
+      <c r="D166" s="162"/>
+      <c r="E166" s="133"/>
       <c r="F166" s="53">
         <v>8</v>
       </c>
-      <c r="G166" s="161"/>
-      <c r="H166" s="161"/>
+      <c r="G166" s="162"/>
+      <c r="H166" s="162"/>
       <c r="I166" s="53">
         <v>7.1</v>
       </c>
@@ -14077,7 +14167,7 @@
         <v>40</v>
       </c>
       <c r="N166" s="53"/>
-      <c r="O166" s="161"/>
+      <c r="O166" s="162"/>
     </row>
     <row r="167" spans="1:15" ht="22.5">
       <c r="A167" s="122"/>
@@ -14246,31 +14336,31 @@
       <c r="A172" s="76" t="s">
         <v>487</v>
       </c>
-      <c r="B172" s="141" t="s">
+      <c r="B172" s="146" t="s">
         <v>488</v>
       </c>
-      <c r="C172" s="141" t="s">
+      <c r="C172" s="146" t="s">
         <v>489</v>
       </c>
-      <c r="D172" s="141" t="s">
+      <c r="D172" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="E172" s="145">
+      <c r="E172" s="152">
         <v>45715</v>
       </c>
       <c r="F172" s="76">
         <v>1</v>
       </c>
-      <c r="G172" s="138" t="s">
+      <c r="G172" s="149" t="s">
         <v>490</v>
       </c>
-      <c r="H172" s="141">
+      <c r="H172" s="146">
         <v>604</v>
       </c>
       <c r="I172" s="76">
         <v>15.9</v>
       </c>
-      <c r="J172" s="179">
+      <c r="J172" s="125">
         <v>8.6730000000000002E-2</v>
       </c>
       <c r="K172" s="76">
@@ -14283,7 +14373,7 @@
         <v>49</v>
       </c>
       <c r="N172" s="76"/>
-      <c r="O172" s="141" t="s">
+      <c r="O172" s="146" t="s">
         <v>491</v>
       </c>
     </row>
@@ -14291,19 +14381,19 @@
       <c r="A173" s="76" t="s">
         <v>492</v>
       </c>
-      <c r="B173" s="139"/>
-      <c r="C173" s="139"/>
-      <c r="D173" s="139"/>
-      <c r="E173" s="146"/>
+      <c r="B173" s="147"/>
+      <c r="C173" s="147"/>
+      <c r="D173" s="147"/>
+      <c r="E173" s="153"/>
       <c r="F173" s="76">
         <v>2</v>
       </c>
-      <c r="G173" s="139"/>
-      <c r="H173" s="139"/>
+      <c r="G173" s="147"/>
+      <c r="H173" s="147"/>
       <c r="I173" s="76">
         <v>14.2</v>
       </c>
-      <c r="J173" s="179">
+      <c r="J173" s="125">
         <v>8.6730000000000002E-2</v>
       </c>
       <c r="K173" s="76">
@@ -14316,25 +14406,25 @@
         <v>49</v>
       </c>
       <c r="N173" s="76"/>
-      <c r="O173" s="139"/>
+      <c r="O173" s="147"/>
     </row>
     <row r="174" spans="1:15" ht="21">
       <c r="A174" s="76" t="s">
         <v>493</v>
       </c>
-      <c r="B174" s="139"/>
-      <c r="C174" s="139"/>
-      <c r="D174" s="139"/>
-      <c r="E174" s="146"/>
+      <c r="B174" s="147"/>
+      <c r="C174" s="147"/>
+      <c r="D174" s="147"/>
+      <c r="E174" s="153"/>
       <c r="F174" s="76">
         <v>3</v>
       </c>
-      <c r="G174" s="139"/>
-      <c r="H174" s="139"/>
+      <c r="G174" s="147"/>
+      <c r="H174" s="147"/>
       <c r="I174" s="76">
         <v>14.8</v>
       </c>
-      <c r="J174" s="179">
+      <c r="J174" s="125">
         <v>8.6730000000000002E-2</v>
       </c>
       <c r="K174" s="76">
@@ -14347,25 +14437,25 @@
         <v>49</v>
       </c>
       <c r="N174" s="76"/>
-      <c r="O174" s="139"/>
+      <c r="O174" s="147"/>
     </row>
     <row r="175" spans="1:15" ht="21">
       <c r="A175" s="76" t="s">
         <v>494</v>
       </c>
-      <c r="B175" s="139"/>
-      <c r="C175" s="139"/>
-      <c r="D175" s="139"/>
-      <c r="E175" s="146"/>
+      <c r="B175" s="147"/>
+      <c r="C175" s="147"/>
+      <c r="D175" s="147"/>
+      <c r="E175" s="153"/>
       <c r="F175" s="76">
         <v>4</v>
       </c>
-      <c r="G175" s="139"/>
-      <c r="H175" s="139"/>
+      <c r="G175" s="147"/>
+      <c r="H175" s="147"/>
       <c r="I175" s="76">
         <v>16.7</v>
       </c>
-      <c r="J175" s="179">
+      <c r="J175" s="125">
         <v>8.6730000000000002E-2</v>
       </c>
       <c r="K175" s="76">
@@ -14378,25 +14468,25 @@
         <v>49</v>
       </c>
       <c r="N175" s="76"/>
-      <c r="O175" s="139"/>
+      <c r="O175" s="147"/>
     </row>
     <row r="176" spans="1:15" ht="21">
       <c r="A176" s="76" t="s">
         <v>495</v>
       </c>
-      <c r="B176" s="139"/>
-      <c r="C176" s="139"/>
-      <c r="D176" s="139"/>
-      <c r="E176" s="146"/>
+      <c r="B176" s="147"/>
+      <c r="C176" s="147"/>
+      <c r="D176" s="147"/>
+      <c r="E176" s="153"/>
       <c r="F176" s="76">
         <v>5</v>
       </c>
-      <c r="G176" s="139"/>
-      <c r="H176" s="139"/>
+      <c r="G176" s="147"/>
+      <c r="H176" s="147"/>
       <c r="I176" s="76">
         <v>7.4</v>
       </c>
-      <c r="J176" s="179">
+      <c r="J176" s="125">
         <v>8.6730000000000002E-2</v>
       </c>
       <c r="K176" s="76">
@@ -14409,25 +14499,25 @@
         <v>49</v>
       </c>
       <c r="N176" s="76"/>
-      <c r="O176" s="139"/>
+      <c r="O176" s="147"/>
     </row>
     <row r="177" spans="1:15" ht="21">
       <c r="A177" s="76" t="s">
         <v>338</v>
       </c>
-      <c r="B177" s="139"/>
-      <c r="C177" s="139"/>
-      <c r="D177" s="139"/>
-      <c r="E177" s="146"/>
+      <c r="B177" s="147"/>
+      <c r="C177" s="147"/>
+      <c r="D177" s="147"/>
+      <c r="E177" s="153"/>
       <c r="F177" s="76">
         <v>6</v>
       </c>
-      <c r="G177" s="139"/>
-      <c r="H177" s="139"/>
+      <c r="G177" s="147"/>
+      <c r="H177" s="147"/>
       <c r="I177" s="76">
         <v>5.9</v>
       </c>
-      <c r="J177" s="179">
+      <c r="J177" s="125">
         <v>8.6730000000000002E-2</v>
       </c>
       <c r="K177" s="76">
@@ -14440,25 +14530,25 @@
         <v>49</v>
       </c>
       <c r="N177" s="76"/>
-      <c r="O177" s="139"/>
+      <c r="O177" s="147"/>
     </row>
     <row r="178" spans="1:15" ht="21">
       <c r="A178" s="76" t="s">
         <v>496</v>
       </c>
-      <c r="B178" s="140"/>
-      <c r="C178" s="140"/>
-      <c r="D178" s="140"/>
-      <c r="E178" s="147"/>
+      <c r="B178" s="148"/>
+      <c r="C178" s="148"/>
+      <c r="D178" s="148"/>
+      <c r="E178" s="154"/>
       <c r="F178" s="76">
         <v>7</v>
       </c>
-      <c r="G178" s="140"/>
-      <c r="H178" s="140"/>
+      <c r="G178" s="148"/>
+      <c r="H178" s="148"/>
       <c r="I178" s="76">
         <v>3.6</v>
       </c>
-      <c r="J178" s="179">
+      <c r="J178" s="125">
         <v>2.8875000000000001E-2</v>
       </c>
       <c r="K178" s="76">
@@ -14471,7 +14561,7 @@
         <v>25</v>
       </c>
       <c r="N178" s="76"/>
-      <c r="O178" s="140"/>
+      <c r="O178" s="148"/>
     </row>
     <row r="179" spans="1:15" ht="22.5">
       <c r="A179" s="64"/>
@@ -14500,25 +14590,25 @@
       <c r="A180" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="B180" s="162" t="s">
+      <c r="B180" s="165" t="s">
         <v>498</v>
       </c>
-      <c r="C180" s="162" t="s">
+      <c r="C180" s="165" t="s">
         <v>499</v>
       </c>
-      <c r="D180" s="162" t="s">
+      <c r="D180" s="165" t="s">
         <v>192</v>
       </c>
-      <c r="E180" s="129">
+      <c r="E180" s="156">
         <v>45715</v>
       </c>
       <c r="F180" s="28">
         <v>1</v>
       </c>
-      <c r="G180" s="162" t="s">
+      <c r="G180" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="H180" s="162">
+      <c r="H180" s="165">
         <v>20</v>
       </c>
       <c r="I180" s="28">
@@ -14537,7 +14627,7 @@
         <v>40</v>
       </c>
       <c r="N180" s="28"/>
-      <c r="O180" s="162" t="s">
+      <c r="O180" s="165" t="s">
         <v>26</v>
       </c>
     </row>
@@ -14545,15 +14635,15 @@
       <c r="A181" s="28" t="s">
         <v>500</v>
       </c>
-      <c r="B181" s="163"/>
-      <c r="C181" s="163"/>
-      <c r="D181" s="163"/>
-      <c r="E181" s="130"/>
+      <c r="B181" s="166"/>
+      <c r="C181" s="166"/>
+      <c r="D181" s="166"/>
+      <c r="E181" s="160"/>
       <c r="F181" s="28">
         <v>2</v>
       </c>
-      <c r="G181" s="163"/>
-      <c r="H181" s="163"/>
+      <c r="G181" s="166"/>
+      <c r="H181" s="166"/>
       <c r="I181" s="28">
         <v>6.9</v>
       </c>
@@ -14570,21 +14660,21 @@
         <v>40</v>
       </c>
       <c r="N181" s="28"/>
-      <c r="O181" s="163"/>
+      <c r="O181" s="166"/>
     </row>
     <row r="182" spans="1:15" ht="21">
       <c r="A182" s="28" t="s">
         <v>501</v>
       </c>
-      <c r="B182" s="164"/>
-      <c r="C182" s="164"/>
-      <c r="D182" s="164"/>
-      <c r="E182" s="131"/>
+      <c r="B182" s="167"/>
+      <c r="C182" s="167"/>
+      <c r="D182" s="167"/>
+      <c r="E182" s="157"/>
       <c r="F182" s="28">
         <v>3</v>
       </c>
-      <c r="G182" s="164"/>
-      <c r="H182" s="164"/>
+      <c r="G182" s="167"/>
+      <c r="H182" s="167"/>
       <c r="I182" s="28">
         <v>6.9</v>
       </c>
@@ -14601,7 +14691,7 @@
         <v>40</v>
       </c>
       <c r="N182" s="28"/>
-      <c r="O182" s="164"/>
+      <c r="O182" s="167"/>
     </row>
     <row r="183" spans="1:15" ht="22.5">
       <c r="A183" s="64"/>
@@ -14630,22 +14720,22 @@
       <c r="A184" s="53" t="s">
         <v>502</v>
       </c>
-      <c r="B184" s="159" t="s">
+      <c r="B184" s="161" t="s">
         <v>503</v>
       </c>
       <c r="C184" s="53" t="s">
         <v>504</v>
       </c>
-      <c r="D184" s="159" t="s">
+      <c r="D184" s="161" t="s">
         <v>486</v>
       </c>
-      <c r="E184" s="153">
+      <c r="E184" s="131">
         <v>45716</v>
       </c>
       <c r="F184" s="53">
         <v>1</v>
       </c>
-      <c r="G184" s="159" t="s">
+      <c r="G184" s="161" t="s">
         <v>25</v>
       </c>
       <c r="H184" s="53">
@@ -14668,7 +14758,7 @@
         <v>60</v>
       </c>
       <c r="N184" s="53"/>
-      <c r="O184" s="159" t="s">
+      <c r="O184" s="161" t="s">
         <v>26</v>
       </c>
     </row>
@@ -14676,16 +14766,16 @@
       <c r="A185" s="53" t="s">
         <v>505</v>
       </c>
-      <c r="B185" s="160"/>
+      <c r="B185" s="164"/>
       <c r="C185" s="53" t="s">
         <v>506</v>
       </c>
-      <c r="D185" s="160"/>
-      <c r="E185" s="154"/>
+      <c r="D185" s="164"/>
+      <c r="E185" s="132"/>
       <c r="F185" s="53">
         <v>2</v>
       </c>
-      <c r="G185" s="160"/>
+      <c r="G185" s="164"/>
       <c r="H185" s="53">
         <v>11</v>
       </c>
@@ -14706,22 +14796,22 @@
         <v>60</v>
       </c>
       <c r="N185" s="53"/>
-      <c r="O185" s="160"/>
+      <c r="O185" s="164"/>
     </row>
     <row r="186" spans="1:15" ht="21">
       <c r="A186" s="53" t="s">
         <v>507</v>
       </c>
-      <c r="B186" s="161"/>
+      <c r="B186" s="162"/>
       <c r="C186" s="53" t="s">
         <v>508</v>
       </c>
-      <c r="D186" s="161"/>
-      <c r="E186" s="155"/>
+      <c r="D186" s="162"/>
+      <c r="E186" s="133"/>
       <c r="F186" s="53">
         <v>3</v>
       </c>
-      <c r="G186" s="161"/>
+      <c r="G186" s="162"/>
       <c r="H186" s="53">
         <v>10</v>
       </c>
@@ -14742,7 +14832,7 @@
         <v>60</v>
       </c>
       <c r="N186" s="53"/>
-      <c r="O186" s="161"/>
+      <c r="O186" s="162"/>
     </row>
     <row r="187" spans="1:15" ht="22.5">
       <c r="A187" s="64"/>
@@ -14843,22 +14933,22 @@
       <c r="A190" s="53" t="s">
         <v>512</v>
       </c>
-      <c r="B190" s="159" t="s">
+      <c r="B190" s="161" t="s">
         <v>513</v>
       </c>
       <c r="C190" s="53" t="s">
         <v>514</v>
       </c>
-      <c r="D190" s="159" t="s">
+      <c r="D190" s="161" t="s">
         <v>486</v>
       </c>
-      <c r="E190" s="153">
+      <c r="E190" s="131">
         <v>45717</v>
       </c>
       <c r="F190" s="53">
         <v>1</v>
       </c>
-      <c r="G190" s="159" t="s">
+      <c r="G190" s="161" t="s">
         <v>25</v>
       </c>
       <c r="H190" s="53">
@@ -14880,7 +14970,7 @@
         <v>60</v>
       </c>
       <c r="N190" s="53"/>
-      <c r="O190" s="159" t="s">
+      <c r="O190" s="161" t="s">
         <v>26</v>
       </c>
     </row>
@@ -14888,16 +14978,16 @@
       <c r="A191" s="53" t="s">
         <v>515</v>
       </c>
-      <c r="B191" s="161"/>
+      <c r="B191" s="162"/>
       <c r="C191" s="53" t="s">
         <v>516</v>
       </c>
-      <c r="D191" s="161"/>
-      <c r="E191" s="155"/>
+      <c r="D191" s="162"/>
+      <c r="E191" s="133"/>
       <c r="F191" s="53">
         <v>2</v>
       </c>
-      <c r="G191" s="161"/>
+      <c r="G191" s="162"/>
       <c r="H191" s="53">
         <v>10</v>
       </c>
@@ -14917,7 +15007,7 @@
         <v>60</v>
       </c>
       <c r="N191" s="53"/>
-      <c r="O191" s="161"/>
+      <c r="O191" s="162"/>
     </row>
     <row r="192" spans="1:15" ht="22.5">
       <c r="A192" s="122"/>
@@ -14940,7 +15030,7 @@
       <c r="L192" s="46"/>
       <c r="M192" s="46"/>
       <c r="N192" s="56"/>
-      <c r="O192" s="180"/>
+      <c r="O192" s="126"/>
     </row>
     <row r="193" spans="1:15" ht="21">
       <c r="A193" s="53" t="s">
@@ -15086,20 +15176,20 @@
       <c r="A197" s="53" t="s">
         <v>525</v>
       </c>
-      <c r="B197" s="159" t="s">
+      <c r="B197" s="161" t="s">
         <v>526</v>
       </c>
       <c r="C197" s="53"/>
-      <c r="D197" s="159" t="s">
+      <c r="D197" s="161" t="s">
         <v>156</v>
       </c>
-      <c r="E197" s="153">
+      <c r="E197" s="131">
         <v>45719</v>
       </c>
       <c r="F197" s="53">
         <v>1</v>
       </c>
-      <c r="G197" s="169" t="s">
+      <c r="G197" s="163" t="s">
         <v>527</v>
       </c>
       <c r="H197" s="53">
@@ -15127,14 +15217,14 @@
       <c r="A198" s="53" t="s">
         <v>528</v>
       </c>
-      <c r="B198" s="161"/>
+      <c r="B198" s="162"/>
       <c r="C198" s="53"/>
-      <c r="D198" s="161"/>
-      <c r="E198" s="155"/>
+      <c r="D198" s="162"/>
+      <c r="E198" s="133"/>
       <c r="F198" s="53">
         <v>2</v>
       </c>
-      <c r="G198" s="161"/>
+      <c r="G198" s="162"/>
       <c r="H198" s="53">
         <v>100</v>
       </c>
@@ -15177,38 +15267,243 @@
       <c r="L199" s="46"/>
       <c r="M199" s="46"/>
       <c r="N199" s="56"/>
-      <c r="O199" s="180"/>
+      <c r="O199" s="126"/>
+    </row>
+    <row r="200" spans="1:15" ht="21">
+      <c r="A200" s="53" t="s">
+        <v>533</v>
+      </c>
+      <c r="B200" s="161" t="s">
+        <v>534</v>
+      </c>
+      <c r="C200" s="53" t="s">
+        <v>535</v>
+      </c>
+      <c r="D200" s="161" t="s">
+        <v>486</v>
+      </c>
+      <c r="E200" s="131">
+        <v>45720</v>
+      </c>
+      <c r="F200" s="53">
+        <v>1</v>
+      </c>
+      <c r="G200" s="163" t="s">
+        <v>536</v>
+      </c>
+      <c r="H200" s="53">
+        <v>12</v>
+      </c>
+      <c r="I200" s="53">
+        <v>12.8</v>
+      </c>
+      <c r="J200" s="54">
+        <v>0.108324</v>
+      </c>
+      <c r="K200" s="53">
+        <v>51</v>
+      </c>
+      <c r="L200" s="53">
+        <v>36</v>
+      </c>
+      <c r="M200" s="53">
+        <v>59</v>
+      </c>
+      <c r="N200" s="53"/>
+      <c r="O200" s="161" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" ht="21">
+      <c r="A201" s="53" t="s">
+        <v>537</v>
+      </c>
+      <c r="B201" s="162"/>
+      <c r="C201" s="53" t="s">
+        <v>538</v>
+      </c>
+      <c r="D201" s="162"/>
+      <c r="E201" s="133"/>
+      <c r="F201" s="53">
+        <v>2</v>
+      </c>
+      <c r="G201" s="181"/>
+      <c r="H201" s="53">
+        <v>12</v>
+      </c>
+      <c r="I201" s="53">
+        <v>11.7</v>
+      </c>
+      <c r="J201" s="54">
+        <v>0.108324</v>
+      </c>
+      <c r="K201" s="53">
+        <v>51</v>
+      </c>
+      <c r="L201" s="53">
+        <v>36</v>
+      </c>
+      <c r="M201" s="53">
+        <v>59</v>
+      </c>
+      <c r="N201" s="53"/>
+      <c r="O201" s="162"/>
+    </row>
+    <row r="202" spans="1:15" ht="22.5">
+      <c r="A202" s="64"/>
+      <c r="B202" s="64"/>
+      <c r="C202" s="64"/>
+      <c r="D202" s="64"/>
+      <c r="E202" s="64"/>
+      <c r="F202" s="46">
+        <v>2</v>
+      </c>
+      <c r="G202" s="47"/>
+      <c r="H202" s="46"/>
+      <c r="I202" s="46">
+        <v>24.5</v>
+      </c>
+      <c r="J202" s="49">
+        <v>0.21664800000000001</v>
+      </c>
+      <c r="K202" s="46"/>
+      <c r="L202" s="46"/>
+      <c r="M202" s="46"/>
+      <c r="N202" s="56"/>
+      <c r="O202" s="126"/>
+    </row>
+    <row r="203" spans="1:15" ht="21">
+      <c r="A203" s="53" t="s">
+        <v>539</v>
+      </c>
+      <c r="B203" s="53" t="s">
+        <v>540</v>
+      </c>
+      <c r="C203" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="D203" s="53" t="s">
+        <v>486</v>
+      </c>
+      <c r="E203" s="42">
+        <v>45721</v>
+      </c>
+      <c r="F203" s="53">
+        <v>1</v>
+      </c>
+      <c r="G203" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="H203" s="53">
+        <v>12</v>
+      </c>
+      <c r="I203" s="53">
+        <v>12.3</v>
+      </c>
+      <c r="J203" s="54">
+        <v>0.108</v>
+      </c>
+      <c r="K203" s="53">
+        <v>50</v>
+      </c>
+      <c r="L203" s="53">
+        <v>36</v>
+      </c>
+      <c r="M203" s="53">
+        <v>60</v>
+      </c>
+      <c r="N203" s="53"/>
+      <c r="O203" s="53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" ht="22.5">
+      <c r="A204" s="64"/>
+      <c r="B204" s="64"/>
+      <c r="C204" s="64"/>
+      <c r="D204" s="64"/>
+      <c r="E204" s="64"/>
+      <c r="F204" s="46">
+        <v>1</v>
+      </c>
+      <c r="G204" s="67"/>
+      <c r="H204" s="46"/>
+      <c r="I204" s="46">
+        <v>12.3</v>
+      </c>
+      <c r="J204" s="49">
+        <v>0.108</v>
+      </c>
+      <c r="K204" s="46"/>
+      <c r="L204" s="46"/>
+      <c r="M204" s="46"/>
+      <c r="N204" s="56"/>
+      <c r="O204" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="109">
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="D197:D198"/>
-    <mergeCell ref="E197:E198"/>
-    <mergeCell ref="G197:G198"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="G190:G191"/>
-    <mergeCell ref="O190:O191"/>
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="D184:D186"/>
-    <mergeCell ref="E184:E186"/>
-    <mergeCell ref="G184:G186"/>
-    <mergeCell ref="O184:O186"/>
-    <mergeCell ref="H172:H178"/>
-    <mergeCell ref="O172:O178"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="C180:C182"/>
-    <mergeCell ref="D180:D182"/>
-    <mergeCell ref="E180:E182"/>
-    <mergeCell ref="G180:G182"/>
-    <mergeCell ref="H180:H182"/>
-    <mergeCell ref="O180:O182"/>
-    <mergeCell ref="B172:B178"/>
-    <mergeCell ref="C172:C178"/>
-    <mergeCell ref="D172:D178"/>
-    <mergeCell ref="E172:E178"/>
-    <mergeCell ref="G172:G178"/>
+  <mergeCells count="114">
+    <mergeCell ref="H159:H166"/>
+    <mergeCell ref="O159:O166"/>
+    <mergeCell ref="B159:B166"/>
+    <mergeCell ref="C159:C166"/>
+    <mergeCell ref="D159:D166"/>
+    <mergeCell ref="E159:E166"/>
+    <mergeCell ref="G159:G166"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="G200:G201"/>
+    <mergeCell ref="O200:O201"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="O149:O150"/>
+    <mergeCell ref="H152:H157"/>
+    <mergeCell ref="O152:O157"/>
+    <mergeCell ref="B152:B157"/>
+    <mergeCell ref="C152:C157"/>
+    <mergeCell ref="D152:D157"/>
+    <mergeCell ref="E152:E157"/>
+    <mergeCell ref="G152:G157"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="G103:G106"/>
+    <mergeCell ref="O110:O111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="B71:B81"/>
+    <mergeCell ref="C71:C81"/>
+    <mergeCell ref="D71:D81"/>
+    <mergeCell ref="E71:E81"/>
+    <mergeCell ref="G71:G81"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
     <mergeCell ref="H123:H129"/>
     <mergeCell ref="O123:O129"/>
     <mergeCell ref="B123:B129"/>
@@ -15233,63 +15528,34 @@
     <mergeCell ref="H40:H42"/>
     <mergeCell ref="O40:O42"/>
     <mergeCell ref="O50:O51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="B71:B81"/>
-    <mergeCell ref="C71:C81"/>
-    <mergeCell ref="D71:D81"/>
-    <mergeCell ref="E71:E81"/>
-    <mergeCell ref="G71:G81"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="G103:G106"/>
-    <mergeCell ref="O110:O111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="O149:O150"/>
-    <mergeCell ref="H152:H157"/>
-    <mergeCell ref="O152:O157"/>
-    <mergeCell ref="B152:B157"/>
-    <mergeCell ref="C152:C157"/>
-    <mergeCell ref="D152:D157"/>
-    <mergeCell ref="E152:E157"/>
-    <mergeCell ref="G152:G157"/>
-    <mergeCell ref="H159:H166"/>
-    <mergeCell ref="O159:O166"/>
-    <mergeCell ref="B159:B166"/>
-    <mergeCell ref="C159:C166"/>
-    <mergeCell ref="D159:D166"/>
-    <mergeCell ref="E159:E166"/>
-    <mergeCell ref="G159:G166"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="D184:D186"/>
+    <mergeCell ref="E184:E186"/>
+    <mergeCell ref="G184:G186"/>
+    <mergeCell ref="O184:O186"/>
+    <mergeCell ref="H172:H178"/>
+    <mergeCell ref="O172:O178"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="C180:C182"/>
+    <mergeCell ref="D180:D182"/>
+    <mergeCell ref="E180:E182"/>
+    <mergeCell ref="G180:G182"/>
+    <mergeCell ref="H180:H182"/>
+    <mergeCell ref="O180:O182"/>
+    <mergeCell ref="B172:B178"/>
+    <mergeCell ref="C172:C178"/>
+    <mergeCell ref="D172:D178"/>
+    <mergeCell ref="E172:E178"/>
+    <mergeCell ref="G172:G178"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="D197:D198"/>
+    <mergeCell ref="E197:E198"/>
+    <mergeCell ref="G197:G198"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="G190:G191"/>
+    <mergeCell ref="O190:O191"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15381,11 +15647,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="148" t="s">
+      <c r="K2" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -15397,10 +15663,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="149"/>
+      <c r="B3" s="145"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -15465,12 +15731,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.5">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="138" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="134"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="140"/>
       <c r="F6" s="71" t="s">
         <v>267</v>
       </c>
@@ -15540,12 +15806,12 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="22.5">
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="138" t="s">
         <v>220</v>
       </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="134"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="140"/>
       <c r="F8" s="89" t="s">
         <v>267</v>
       </c>
@@ -15615,12 +15881,12 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="22.5">
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="138" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="134"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="140"/>
       <c r="F10" s="71" t="s">
         <v>239</v>
       </c>
@@ -15690,12 +15956,12 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="22.5">
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="138" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="134"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="140"/>
       <c r="F12" s="71" t="s">
         <v>267</v>
       </c>
@@ -15717,14 +15983,14 @@
       <c r="P12" s="74"/>
     </row>
     <row r="13" spans="1:16" ht="42">
-      <c r="B13" s="126" t="s">
+      <c r="B13" s="134" t="s">
         <v>299</v>
       </c>
       <c r="C13" s="38"/>
-      <c r="D13" s="126" t="s">
+      <c r="D13" s="134" t="s">
         <v>263</v>
       </c>
-      <c r="E13" s="129">
+      <c r="E13" s="156">
         <v>45671</v>
       </c>
       <c r="F13" s="68" t="s">
@@ -15765,10 +16031,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="21">
-      <c r="B14" s="128"/>
+      <c r="B14" s="135"/>
       <c r="C14" s="38"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="131"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="157"/>
       <c r="F14" s="68" t="s">
         <v>301</v>
       </c>
@@ -15799,12 +16065,12 @@
       <c r="P14" s="38"/>
     </row>
     <row r="15" spans="1:16" ht="22.5">
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
       <c r="F15" s="71" t="s">
         <v>301</v>
       </c>
@@ -15871,12 +16137,12 @@
       <c r="P16" s="41"/>
     </row>
     <row r="17" spans="2:16" ht="22.5">
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
       <c r="F17" s="102" t="s">
         <v>423</v>
       </c>
@@ -15941,12 +16207,12 @@
       <c r="P18" s="38"/>
     </row>
     <row r="19" spans="2:16" ht="22.5">
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
       <c r="F19" s="71" t="s">
         <v>239</v>
       </c>

--- a/Customer/Cust 2025/Cargo W99 2025.xlsx
+++ b/Customer/Cust 2025/Cargo W99 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Customer\Cust 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0477BA1D-2FF3-4613-9784-C68C3C04D093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FC0598-83A8-4446-8426-A81D7DA35263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E000C531-AA46-4CF4-8BD7-2185A135A010}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E000C531-AA46-4CF4-8BD7-2185A135A010}"/>
   </bookViews>
   <sheets>
     <sheet name="SEA" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="578">
   <si>
     <t>Hijau barang terkirim, Lunas, beres</t>
   </si>
@@ -4106,6 +4106,177 @@
       </rPr>
       <t>1543238784047</t>
     </r>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A0035565</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1543238784108</t>
+    </r>
+  </si>
+  <si>
+    <t>A0035625</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1548346494252</t>
+    </r>
+  </si>
+  <si>
+    <t>五金配件Hardware accessories</t>
+  </si>
+  <si>
+    <t>B19</t>
+  </si>
+  <si>
+    <t>E67</t>
+  </si>
+  <si>
+    <t>A0035722</t>
+  </si>
+  <si>
+    <r>
+      <t>上衣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  tops</t>
+    </r>
+  </si>
+  <si>
+    <t>S0086105</t>
+  </si>
+  <si>
+    <t>hylh25030031 15194677757</t>
+  </si>
+  <si>
+    <t>279/W99/BMK/SEA</t>
+  </si>
+  <si>
+    <t>食用明胶Engine mount</t>
+  </si>
+  <si>
+    <t>颗粒</t>
+  </si>
+  <si>
+    <t>S0086112</t>
+  </si>
+  <si>
+    <t>1-250</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>S0086061</t>
+  </si>
+  <si>
+    <t>110031377388 /18111611101</t>
+  </si>
+  <si>
+    <t>1-27</t>
+  </si>
+  <si>
+    <t>28-90</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>S0086257</t>
+  </si>
+  <si>
+    <t>202507294831</t>
+  </si>
+  <si>
+    <t>279/W99/GMU/SEA</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>密封胶sealant</t>
+  </si>
+  <si>
+    <t>膏状paste</t>
+  </si>
+  <si>
+    <t>S0086416</t>
+  </si>
+  <si>
+    <t>800118483014 /15130082868</t>
+  </si>
+  <si>
+    <t>279/W99/CY/SEA</t>
+  </si>
+  <si>
+    <t>静踝脚Static ankle crura</t>
+  </si>
+  <si>
+    <t>7-9</t>
+  </si>
+  <si>
+    <t>锁紧lock</t>
+  </si>
+  <si>
+    <t>双轴动踝Double axis ankle</t>
   </si>
 </sst>
 </file>
@@ -4380,7 +4551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4760,6 +4931,78 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4769,9 +5012,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4781,27 +5021,6 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4811,118 +5030,82 @@
     <xf numFmtId="15" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5241,11 +5424,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03568550-BD00-482C-9F46-E2F5DB6F38F1}">
-  <dimension ref="A1:P92"/>
+  <dimension ref="A1:P105"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B89" sqref="B89:B91"/>
+      <pane ySplit="3" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B95" sqref="B95:P96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5325,11 +5508,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="144" t="s">
+      <c r="K2" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -5341,10 +5524,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="145"/>
+      <c r="B3" s="150"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -5406,12 +5589,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.5">
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
       <c r="F6" s="71" t="s">
         <v>221</v>
       </c>
@@ -5431,16 +5614,16 @@
       <c r="P6" s="74"/>
     </row>
     <row r="7" spans="1:16" ht="37.5">
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="142" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="143" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="146" t="s">
+      <c r="D7" s="142" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="152">
+      <c r="E7" s="146">
         <v>45659</v>
       </c>
       <c r="F7" s="75" t="s">
@@ -5452,7 +5635,7 @@
       <c r="H7" s="76">
         <v>1</v>
       </c>
-      <c r="I7" s="146">
+      <c r="I7" s="142">
         <v>255</v>
       </c>
       <c r="J7" s="77">
@@ -5467,21 +5650,21 @@
       <c r="M7" s="76">
         <v>62</v>
       </c>
-      <c r="N7" s="155">
+      <c r="N7" s="139">
         <v>45663</v>
       </c>
-      <c r="O7" s="155">
+      <c r="O7" s="139">
         <v>45705</v>
       </c>
-      <c r="P7" s="146" t="s">
+      <c r="P7" s="142" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="21">
-      <c r="B8" s="147"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="153"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="147"/>
       <c r="F8" s="75" t="s">
         <v>228</v>
       </c>
@@ -5491,7 +5674,7 @@
       <c r="H8" s="76">
         <v>1</v>
       </c>
-      <c r="I8" s="147"/>
+      <c r="I8" s="140"/>
       <c r="J8" s="77">
         <v>0.54978000000000005</v>
       </c>
@@ -5504,15 +5687,15 @@
       <c r="M8" s="76">
         <v>77</v>
       </c>
-      <c r="N8" s="147"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="147"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="140"/>
     </row>
     <row r="9" spans="1:16" ht="37.5">
-      <c r="B9" s="147"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="153"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="147"/>
       <c r="F9" s="75" t="s">
         <v>230</v>
       </c>
@@ -5522,7 +5705,7 @@
       <c r="H9" s="76">
         <v>1</v>
       </c>
-      <c r="I9" s="147"/>
+      <c r="I9" s="140"/>
       <c r="J9" s="77">
         <v>0.51480000000000004</v>
       </c>
@@ -5535,15 +5718,15 @@
       <c r="M9" s="76">
         <v>65</v>
       </c>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="147"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="140"/>
     </row>
     <row r="10" spans="1:16" ht="56.25">
-      <c r="B10" s="148"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="154"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="148"/>
       <c r="F10" s="75" t="s">
         <v>232</v>
       </c>
@@ -5553,7 +5736,7 @@
       <c r="H10" s="76">
         <v>1</v>
       </c>
-      <c r="I10" s="148"/>
+      <c r="I10" s="141"/>
       <c r="J10" s="77">
         <v>7.3800000000000004E-2</v>
       </c>
@@ -5566,17 +5749,17 @@
       <c r="M10" s="76">
         <v>18</v>
       </c>
-      <c r="N10" s="148"/>
-      <c r="O10" s="148"/>
-      <c r="P10" s="148"/>
+      <c r="N10" s="141"/>
+      <c r="O10" s="141"/>
+      <c r="P10" s="141"/>
     </row>
     <row r="11" spans="1:16" ht="22.5">
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
       <c r="F11" s="71" t="s">
         <v>232</v>
       </c>
@@ -5646,12 +5829,12 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="22.5">
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="71" t="s">
         <v>239</v>
       </c>
@@ -5723,12 +5906,12 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="22.5">
-      <c r="B15" s="130" t="s">
+      <c r="B15" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
       <c r="F15" s="71" t="s">
         <v>242</v>
       </c>
@@ -5797,12 +5980,12 @@
       </c>
     </row>
     <row r="17" spans="2:16" ht="22.5">
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
       <c r="F17" s="71" t="s">
         <v>246</v>
       </c>
@@ -5867,12 +6050,12 @@
       </c>
     </row>
     <row r="19" spans="2:16" ht="22.5">
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
       <c r="F19" s="71" t="s">
         <v>252</v>
       </c>
@@ -5940,12 +6123,12 @@
       </c>
     </row>
     <row r="21" spans="2:16" ht="22.5">
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
       <c r="F21" s="71" t="s">
         <v>255</v>
       </c>
@@ -6014,12 +6197,12 @@
       </c>
     </row>
     <row r="23" spans="2:16" ht="22.5">
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="71" t="s">
         <v>232</v>
       </c>
@@ -6087,12 +6270,12 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="22.5">
-      <c r="B25" s="138" t="s">
+      <c r="B25" s="134" t="s">
         <v>220</v>
       </c>
-      <c r="C25" s="139"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="140"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="136"/>
       <c r="F25" s="71" t="s">
         <v>267</v>
       </c>
@@ -6162,12 +6345,12 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="22.5">
-      <c r="B27" s="138" t="s">
+      <c r="B27" s="134" t="s">
         <v>220</v>
       </c>
-      <c r="C27" s="139"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="140"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="136"/>
       <c r="F27" s="89" t="s">
         <v>267</v>
       </c>
@@ -6237,12 +6420,12 @@
       </c>
     </row>
     <row r="29" spans="2:16" ht="22.5">
-      <c r="B29" s="138" t="s">
+      <c r="B29" s="134" t="s">
         <v>220</v>
       </c>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="140"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="136"/>
       <c r="F29" s="71" t="s">
         <v>239</v>
       </c>
@@ -6312,12 +6495,12 @@
       </c>
     </row>
     <row r="31" spans="2:16" ht="22.5">
-      <c r="B31" s="138" t="s">
+      <c r="B31" s="134" t="s">
         <v>220</v>
       </c>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="140"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="136"/>
       <c r="F31" s="71" t="s">
         <v>267</v>
       </c>
@@ -6339,28 +6522,28 @@
       <c r="P31" s="74"/>
     </row>
     <row r="32" spans="2:16" ht="21">
-      <c r="B32" s="146" t="s">
+      <c r="B32" s="142" t="s">
         <v>275</v>
       </c>
-      <c r="C32" s="149" t="s">
+      <c r="C32" s="143" t="s">
         <v>276</v>
       </c>
-      <c r="D32" s="146" t="s">
+      <c r="D32" s="142" t="s">
         <v>277</v>
       </c>
-      <c r="E32" s="152">
+      <c r="E32" s="146">
         <v>45668</v>
       </c>
       <c r="F32" s="75" t="s">
         <v>278</v>
       </c>
-      <c r="G32" s="149" t="s">
+      <c r="G32" s="143" t="s">
         <v>279</v>
       </c>
       <c r="H32" s="76">
         <v>385</v>
       </c>
-      <c r="I32" s="146">
+      <c r="I32" s="142">
         <v>1451</v>
       </c>
       <c r="J32" s="77">
@@ -6375,29 +6558,29 @@
       <c r="M32" s="76">
         <v>30</v>
       </c>
-      <c r="N32" s="155">
+      <c r="N32" s="139">
         <v>45671</v>
       </c>
-      <c r="O32" s="155">
+      <c r="O32" s="139">
         <v>45714</v>
       </c>
-      <c r="P32" s="146" t="s">
+      <c r="P32" s="142" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="21">
-      <c r="B33" s="147"/>
-      <c r="C33" s="150"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="153"/>
+      <c r="B33" s="140"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="147"/>
       <c r="F33" s="75" t="s">
         <v>281</v>
       </c>
-      <c r="G33" s="151"/>
+      <c r="G33" s="145"/>
       <c r="H33" s="76">
         <v>36</v>
       </c>
-      <c r="I33" s="147"/>
+      <c r="I33" s="140"/>
       <c r="J33" s="77">
         <v>0.29759999999999998</v>
       </c>
@@ -6410,15 +6593,15 @@
       <c r="M33" s="76">
         <v>20</v>
       </c>
-      <c r="N33" s="147"/>
-      <c r="O33" s="147"/>
-      <c r="P33" s="147"/>
+      <c r="N33" s="140"/>
+      <c r="O33" s="140"/>
+      <c r="P33" s="140"/>
     </row>
     <row r="34" spans="2:16" ht="21">
-      <c r="B34" s="147"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="153"/>
+      <c r="B34" s="140"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="147"/>
       <c r="F34" s="75" t="s">
         <v>282</v>
       </c>
@@ -6428,7 +6611,7 @@
       <c r="H34" s="76">
         <v>26</v>
       </c>
-      <c r="I34" s="147"/>
+      <c r="I34" s="140"/>
       <c r="J34" s="77">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -6441,15 +6624,15 @@
       <c r="M34" s="76">
         <v>33</v>
       </c>
-      <c r="N34" s="147"/>
-      <c r="O34" s="147"/>
-      <c r="P34" s="147"/>
+      <c r="N34" s="140"/>
+      <c r="O34" s="140"/>
+      <c r="P34" s="140"/>
     </row>
     <row r="35" spans="2:16" ht="21">
-      <c r="B35" s="147"/>
-      <c r="C35" s="150"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="153"/>
+      <c r="B35" s="140"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="147"/>
       <c r="F35" s="75" t="s">
         <v>284</v>
       </c>
@@ -6459,7 +6642,7 @@
       <c r="H35" s="76">
         <v>121</v>
       </c>
-      <c r="I35" s="147"/>
+      <c r="I35" s="140"/>
       <c r="J35" s="77">
         <v>3.456E-2</v>
       </c>
@@ -6472,15 +6655,15 @@
       <c r="M35" s="76">
         <v>24</v>
       </c>
-      <c r="N35" s="147"/>
-      <c r="O35" s="147"/>
-      <c r="P35" s="147"/>
+      <c r="N35" s="140"/>
+      <c r="O35" s="140"/>
+      <c r="P35" s="140"/>
     </row>
     <row r="36" spans="2:16" ht="37.5">
-      <c r="B36" s="147"/>
-      <c r="C36" s="150"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="153"/>
+      <c r="B36" s="140"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="147"/>
       <c r="F36" s="75" t="s">
         <v>286</v>
       </c>
@@ -6490,7 +6673,7 @@
       <c r="H36" s="76">
         <v>24</v>
       </c>
-      <c r="I36" s="147"/>
+      <c r="I36" s="140"/>
       <c r="J36" s="77">
         <v>7.4880000000000002E-2</v>
       </c>
@@ -6503,15 +6686,15 @@
       <c r="M36" s="76">
         <v>15</v>
       </c>
-      <c r="N36" s="147"/>
-      <c r="O36" s="147"/>
-      <c r="P36" s="147"/>
+      <c r="N36" s="140"/>
+      <c r="O36" s="140"/>
+      <c r="P36" s="140"/>
     </row>
     <row r="37" spans="2:16" ht="21">
-      <c r="B37" s="148"/>
-      <c r="C37" s="151"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="154"/>
+      <c r="B37" s="141"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="141"/>
+      <c r="E37" s="148"/>
       <c r="F37" s="75" t="s">
         <v>287</v>
       </c>
@@ -6521,7 +6704,7 @@
       <c r="H37" s="76">
         <v>150</v>
       </c>
-      <c r="I37" s="148"/>
+      <c r="I37" s="141"/>
       <c r="J37" s="77">
         <v>1.512</v>
       </c>
@@ -6534,17 +6717,17 @@
       <c r="M37" s="76">
         <v>30</v>
       </c>
-      <c r="N37" s="148"/>
-      <c r="O37" s="148"/>
-      <c r="P37" s="148"/>
+      <c r="N37" s="141"/>
+      <c r="O37" s="141"/>
+      <c r="P37" s="141"/>
     </row>
     <row r="38" spans="2:16" ht="22.5">
-      <c r="B38" s="130" t="s">
+      <c r="B38" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="130"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
       <c r="F38" s="71" t="s">
         <v>288</v>
       </c>
@@ -6564,28 +6747,28 @@
       <c r="P38" s="79"/>
     </row>
     <row r="39" spans="2:16" ht="21">
-      <c r="B39" s="146" t="s">
+      <c r="B39" s="142" t="s">
         <v>289</v>
       </c>
-      <c r="C39" s="149" t="s">
+      <c r="C39" s="143" t="s">
         <v>290</v>
       </c>
-      <c r="D39" s="146" t="s">
+      <c r="D39" s="142" t="s">
         <v>291</v>
       </c>
-      <c r="E39" s="152">
+      <c r="E39" s="146">
         <v>45668</v>
       </c>
       <c r="F39" s="75" t="s">
         <v>292</v>
       </c>
-      <c r="G39" s="149" t="s">
+      <c r="G39" s="143" t="s">
         <v>293</v>
       </c>
       <c r="H39" s="76">
         <v>300</v>
       </c>
-      <c r="I39" s="146">
+      <c r="I39" s="142">
         <v>680</v>
       </c>
       <c r="J39" s="77">
@@ -6600,29 +6783,29 @@
       <c r="M39" s="76">
         <v>24</v>
       </c>
-      <c r="N39" s="155">
+      <c r="N39" s="139">
         <v>45671</v>
       </c>
-      <c r="O39" s="155">
+      <c r="O39" s="139">
         <v>45714</v>
       </c>
-      <c r="P39" s="146" t="s">
+      <c r="P39" s="142" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="21">
-      <c r="B40" s="147"/>
-      <c r="C40" s="150"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="153"/>
+      <c r="B40" s="140"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="147"/>
       <c r="F40" s="75" t="s">
         <v>295</v>
       </c>
-      <c r="G40" s="147"/>
+      <c r="G40" s="140"/>
       <c r="H40" s="76">
         <v>80</v>
       </c>
-      <c r="I40" s="147"/>
+      <c r="I40" s="140"/>
       <c r="J40" s="77">
         <v>0.189</v>
       </c>
@@ -6635,23 +6818,23 @@
       <c r="M40" s="76">
         <v>30</v>
       </c>
-      <c r="N40" s="147"/>
-      <c r="O40" s="147"/>
-      <c r="P40" s="147"/>
+      <c r="N40" s="140"/>
+      <c r="O40" s="140"/>
+      <c r="P40" s="140"/>
     </row>
     <row r="41" spans="2:16" ht="21">
-      <c r="B41" s="148"/>
-      <c r="C41" s="151"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="154"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="141"/>
+      <c r="E41" s="148"/>
       <c r="F41" s="75" t="s">
         <v>296</v>
       </c>
-      <c r="G41" s="148"/>
+      <c r="G41" s="141"/>
       <c r="H41" s="76">
         <v>5100</v>
       </c>
-      <c r="I41" s="148"/>
+      <c r="I41" s="141"/>
       <c r="J41" s="77">
         <v>2.7820800000000001</v>
       </c>
@@ -6664,17 +6847,17 @@
       <c r="M41" s="76">
         <v>28</v>
       </c>
-      <c r="N41" s="148"/>
-      <c r="O41" s="148"/>
-      <c r="P41" s="148"/>
+      <c r="N41" s="141"/>
+      <c r="O41" s="141"/>
+      <c r="P41" s="141"/>
     </row>
     <row r="42" spans="2:16" ht="22.5">
-      <c r="B42" s="130" t="s">
+      <c r="B42" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C42" s="130"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="130"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="127"/>
       <c r="F42" s="71" t="s">
         <v>282</v>
       </c>
@@ -6739,12 +6922,12 @@
       <c r="P43" s="76"/>
     </row>
     <row r="44" spans="2:16" ht="22.5">
-      <c r="B44" s="130" t="s">
+      <c r="B44" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C44" s="130"/>
-      <c r="D44" s="130"/>
-      <c r="E44" s="130"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="127"/>
+      <c r="E44" s="127"/>
       <c r="F44" s="71" t="s">
         <v>298</v>
       </c>
@@ -6764,14 +6947,14 @@
       <c r="P44" s="79"/>
     </row>
     <row r="45" spans="2:16" ht="42">
-      <c r="B45" s="134" t="s">
+      <c r="B45" s="128" t="s">
         <v>299</v>
       </c>
       <c r="C45" s="38"/>
-      <c r="D45" s="134" t="s">
+      <c r="D45" s="128" t="s">
         <v>263</v>
       </c>
-      <c r="E45" s="156">
+      <c r="E45" s="131">
         <v>45671</v>
       </c>
       <c r="F45" s="68" t="s">
@@ -6812,10 +6995,10 @@
       </c>
     </row>
     <row r="46" spans="2:16" ht="21">
-      <c r="B46" s="135"/>
+      <c r="B46" s="130"/>
       <c r="C46" s="38"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="157"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="133"/>
       <c r="F46" s="68" t="s">
         <v>301</v>
       </c>
@@ -6846,12 +7029,12 @@
       <c r="P46" s="38"/>
     </row>
     <row r="47" spans="2:16" ht="22.5">
-      <c r="B47" s="130" t="s">
+      <c r="B47" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C47" s="130"/>
-      <c r="D47" s="130"/>
-      <c r="E47" s="130"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="127"/>
       <c r="F47" s="71" t="s">
         <v>301</v>
       </c>
@@ -6920,12 +7103,12 @@
       </c>
     </row>
     <row r="49" spans="2:16" ht="22.5">
-      <c r="B49" s="130" t="s">
+      <c r="B49" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C49" s="130"/>
-      <c r="D49" s="130"/>
-      <c r="E49" s="130"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="127"/>
       <c r="F49" s="71" t="s">
         <v>225</v>
       </c>
@@ -6993,12 +7176,12 @@
       </c>
     </row>
     <row r="51" spans="2:16" ht="22.5">
-      <c r="B51" s="138" t="s">
+      <c r="B51" s="134" t="s">
         <v>220</v>
       </c>
-      <c r="C51" s="139"/>
-      <c r="D51" s="139"/>
-      <c r="E51" s="140"/>
+      <c r="C51" s="135"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="136"/>
       <c r="F51" s="71" t="s">
         <v>225</v>
       </c>
@@ -7020,29 +7203,29 @@
       <c r="P51" s="79"/>
     </row>
     <row r="52" spans="2:16" ht="21" customHeight="1">
-      <c r="B52" s="134" t="s">
+      <c r="B52" s="128" t="s">
         <v>310</v>
       </c>
-      <c r="C52" s="134" t="s">
+      <c r="C52" s="128" t="s">
         <v>311</v>
       </c>
-      <c r="D52" s="134" t="s">
+      <c r="D52" s="128" t="s">
         <v>217</v>
       </c>
-      <c r="E52" s="156">
+      <c r="E52" s="131">
         <v>45676</v>
       </c>
       <c r="F52" s="68" t="s">
         <v>312</v>
       </c>
-      <c r="G52" s="134" t="s">
+      <c r="G52" s="128" t="s">
         <v>237</v>
       </c>
       <c r="H52" s="38">
         <f>35*28</f>
         <v>980</v>
       </c>
-      <c r="I52" s="134">
+      <c r="I52" s="128">
         <f>25*52</f>
         <v>1300</v>
       </c>
@@ -7059,30 +7242,30 @@
       <c r="M52" s="38">
         <v>29</v>
       </c>
-      <c r="N52" s="136">
+      <c r="N52" s="137">
         <v>45679</v>
       </c>
-      <c r="O52" s="136">
+      <c r="O52" s="137">
         <v>45716</v>
       </c>
-      <c r="P52" s="134" t="s">
+      <c r="P52" s="128" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="21">
-      <c r="B53" s="135"/>
-      <c r="C53" s="135"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="157"/>
+      <c r="B53" s="130"/>
+      <c r="C53" s="130"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="133"/>
       <c r="F53" s="68" t="s">
         <v>313</v>
       </c>
-      <c r="G53" s="135"/>
+      <c r="G53" s="130"/>
       <c r="H53" s="38">
         <f>35*24</f>
         <v>840</v>
       </c>
-      <c r="I53" s="135"/>
+      <c r="I53" s="130"/>
       <c r="J53" s="69">
         <f>K53*L53*M53/1000000*24</f>
         <v>2.3353920000000001</v>
@@ -7096,17 +7279,17 @@
       <c r="M53" s="38">
         <v>36</v>
       </c>
-      <c r="N53" s="158"/>
-      <c r="O53" s="158"/>
-      <c r="P53" s="135"/>
+      <c r="N53" s="138"/>
+      <c r="O53" s="138"/>
+      <c r="P53" s="130"/>
     </row>
     <row r="54" spans="2:16" ht="22.5">
-      <c r="B54" s="138" t="s">
+      <c r="B54" s="134" t="s">
         <v>220</v>
       </c>
-      <c r="C54" s="139"/>
-      <c r="D54" s="139"/>
-      <c r="E54" s="140"/>
+      <c r="C54" s="135"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="136"/>
       <c r="F54" s="71" t="s">
         <v>314</v>
       </c>
@@ -7128,27 +7311,27 @@
       <c r="P54" s="74"/>
     </row>
     <row r="55" spans="2:16" ht="21" customHeight="1">
-      <c r="B55" s="127" t="s">
+      <c r="B55" s="151" t="s">
         <v>315</v>
       </c>
-      <c r="C55" s="127"/>
-      <c r="D55" s="127" t="s">
+      <c r="C55" s="151"/>
+      <c r="D55" s="151" t="s">
         <v>217</v>
       </c>
-      <c r="E55" s="131">
+      <c r="E55" s="154">
         <v>45677</v>
       </c>
       <c r="F55" s="100" t="s">
         <v>316</v>
       </c>
-      <c r="G55" s="127" t="s">
+      <c r="G55" s="151" t="s">
         <v>237</v>
       </c>
       <c r="H55" s="41">
         <f>50*20+60*32+40</f>
         <v>2960</v>
       </c>
-      <c r="I55" s="127">
+      <c r="I55" s="151">
         <f>25*169</f>
         <v>4225</v>
       </c>
@@ -7165,30 +7348,30 @@
       <c r="M55" s="41">
         <v>40</v>
       </c>
-      <c r="N55" s="141">
+      <c r="N55" s="157">
         <v>45680</v>
       </c>
-      <c r="O55" s="141">
+      <c r="O55" s="157">
         <v>45716</v>
       </c>
-      <c r="P55" s="127" t="s">
+      <c r="P55" s="151" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="56" spans="2:16" ht="21">
-      <c r="B56" s="128"/>
-      <c r="C56" s="128"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="132"/>
+      <c r="B56" s="152"/>
+      <c r="C56" s="152"/>
+      <c r="D56" s="152"/>
+      <c r="E56" s="155"/>
       <c r="F56" s="100" t="s">
         <v>317</v>
       </c>
-      <c r="G56" s="128"/>
+      <c r="G56" s="152"/>
       <c r="H56" s="41">
         <f>40*16</f>
         <v>640</v>
       </c>
-      <c r="I56" s="128"/>
+      <c r="I56" s="152"/>
       <c r="J56" s="101">
         <f>K56*L56*M56/1000000*16</f>
         <v>1.66656</v>
@@ -7202,24 +7385,24 @@
       <c r="M56" s="41">
         <v>28</v>
       </c>
-      <c r="N56" s="142"/>
-      <c r="O56" s="142"/>
-      <c r="P56" s="128"/>
+      <c r="N56" s="158"/>
+      <c r="O56" s="158"/>
+      <c r="P56" s="152"/>
     </row>
     <row r="57" spans="2:16" ht="21">
-      <c r="B57" s="129"/>
-      <c r="C57" s="129"/>
-      <c r="D57" s="129"/>
-      <c r="E57" s="133"/>
+      <c r="B57" s="153"/>
+      <c r="C57" s="153"/>
+      <c r="D57" s="153"/>
+      <c r="E57" s="156"/>
       <c r="F57" s="100" t="s">
         <v>414</v>
       </c>
-      <c r="G57" s="129"/>
+      <c r="G57" s="153"/>
       <c r="H57" s="41">
         <f>40*270</f>
         <v>10800</v>
       </c>
-      <c r="I57" s="129"/>
+      <c r="I57" s="153"/>
       <c r="J57" s="101">
         <f>K57*L57*M57/1000000*100</f>
         <v>11.899999999999999</v>
@@ -7233,17 +7416,17 @@
       <c r="M57" s="41">
         <v>70</v>
       </c>
-      <c r="N57" s="143"/>
-      <c r="O57" s="143"/>
-      <c r="P57" s="129"/>
+      <c r="N57" s="159"/>
+      <c r="O57" s="159"/>
+      <c r="P57" s="153"/>
     </row>
     <row r="58" spans="2:16" ht="22.5">
-      <c r="B58" s="138" t="s">
+      <c r="B58" s="134" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="139"/>
-      <c r="D58" s="139"/>
-      <c r="E58" s="140"/>
+      <c r="C58" s="135"/>
+      <c r="D58" s="135"/>
+      <c r="E58" s="136"/>
       <c r="F58" s="102" t="s">
         <v>415</v>
       </c>
@@ -7313,12 +7496,12 @@
       </c>
     </row>
     <row r="60" spans="2:16" ht="22.5">
-      <c r="B60" s="130" t="s">
+      <c r="B60" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C60" s="130"/>
-      <c r="D60" s="130"/>
-      <c r="E60" s="130"/>
+      <c r="C60" s="127"/>
+      <c r="D60" s="127"/>
+      <c r="E60" s="127"/>
       <c r="F60" s="102" t="s">
         <v>418</v>
       </c>
@@ -7340,28 +7523,28 @@
       <c r="P60" s="63"/>
     </row>
     <row r="61" spans="2:16" ht="21" customHeight="1">
-      <c r="B61" s="134" t="s">
+      <c r="B61" s="128" t="s">
         <v>318</v>
       </c>
-      <c r="C61" s="159" t="s">
+      <c r="C61" s="160" t="s">
         <v>319</v>
       </c>
-      <c r="D61" s="134" t="s">
+      <c r="D61" s="128" t="s">
         <v>320</v>
       </c>
-      <c r="E61" s="156">
+      <c r="E61" s="131">
         <v>45678</v>
       </c>
       <c r="F61" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="G61" s="134" t="s">
+      <c r="G61" s="128" t="s">
         <v>321</v>
       </c>
       <c r="H61" s="38">
         <v>1</v>
       </c>
-      <c r="I61" s="134">
+      <c r="I61" s="128">
         <v>37</v>
       </c>
       <c r="J61" s="69">
@@ -7377,29 +7560,29 @@
       <c r="M61" s="38">
         <v>40</v>
       </c>
-      <c r="N61" s="136">
+      <c r="N61" s="137">
         <v>45681</v>
       </c>
-      <c r="O61" s="136">
+      <c r="O61" s="137">
         <v>45714</v>
       </c>
-      <c r="P61" s="134" t="s">
+      <c r="P61" s="128" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="62" spans="2:16" ht="21">
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="137"/>
-      <c r="E62" s="160"/>
+      <c r="B62" s="129"/>
+      <c r="C62" s="129"/>
+      <c r="D62" s="129"/>
+      <c r="E62" s="132"/>
       <c r="F62" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="G62" s="137"/>
+      <c r="G62" s="129"/>
       <c r="H62" s="38">
         <v>10</v>
       </c>
-      <c r="I62" s="137"/>
+      <c r="I62" s="129"/>
       <c r="J62" s="69">
         <f t="shared" si="0"/>
         <v>0.18360000000000001</v>
@@ -7413,23 +7596,23 @@
       <c r="M62" s="38">
         <v>85</v>
       </c>
-      <c r="N62" s="137"/>
-      <c r="O62" s="137"/>
-      <c r="P62" s="137"/>
+      <c r="N62" s="129"/>
+      <c r="O62" s="129"/>
+      <c r="P62" s="129"/>
     </row>
     <row r="63" spans="2:16" ht="21">
-      <c r="B63" s="137"/>
-      <c r="C63" s="137"/>
-      <c r="D63" s="137"/>
-      <c r="E63" s="160"/>
+      <c r="B63" s="129"/>
+      <c r="C63" s="129"/>
+      <c r="D63" s="129"/>
+      <c r="E63" s="132"/>
       <c r="F63" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="G63" s="137"/>
+      <c r="G63" s="129"/>
       <c r="H63" s="38">
         <v>10</v>
       </c>
-      <c r="I63" s="137"/>
+      <c r="I63" s="129"/>
       <c r="J63" s="69">
         <f t="shared" si="0"/>
         <v>0.18240999999999999</v>
@@ -7443,23 +7626,23 @@
       <c r="M63" s="38">
         <v>37</v>
       </c>
-      <c r="N63" s="137"/>
-      <c r="O63" s="137"/>
-      <c r="P63" s="137"/>
+      <c r="N63" s="129"/>
+      <c r="O63" s="129"/>
+      <c r="P63" s="129"/>
     </row>
     <row r="64" spans="2:16" ht="21">
-      <c r="B64" s="135"/>
-      <c r="C64" s="135"/>
-      <c r="D64" s="135"/>
-      <c r="E64" s="157"/>
+      <c r="B64" s="130"/>
+      <c r="C64" s="130"/>
+      <c r="D64" s="130"/>
+      <c r="E64" s="133"/>
       <c r="F64" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="G64" s="135"/>
+      <c r="G64" s="130"/>
       <c r="H64" s="38">
         <v>2</v>
       </c>
-      <c r="I64" s="135"/>
+      <c r="I64" s="130"/>
       <c r="J64" s="69">
         <f t="shared" si="0"/>
         <v>4.9919999999999999E-2</v>
@@ -7473,33 +7656,33 @@
       <c r="M64" s="38">
         <v>20</v>
       </c>
-      <c r="N64" s="137"/>
-      <c r="O64" s="137"/>
-      <c r="P64" s="137"/>
+      <c r="N64" s="129"/>
+      <c r="O64" s="129"/>
+      <c r="P64" s="129"/>
     </row>
     <row r="65" spans="2:16" ht="21">
-      <c r="B65" s="134" t="s">
+      <c r="B65" s="128" t="s">
         <v>322</v>
       </c>
       <c r="C65" s="39" t="s">
         <v>323</v>
       </c>
-      <c r="D65" s="134" t="s">
+      <c r="D65" s="128" t="s">
         <v>320</v>
       </c>
-      <c r="E65" s="156">
+      <c r="E65" s="131">
         <v>45678</v>
       </c>
       <c r="F65" s="68" t="s">
         <v>324</v>
       </c>
-      <c r="G65" s="134" t="s">
+      <c r="G65" s="128" t="s">
         <v>321</v>
       </c>
       <c r="H65" s="38">
         <v>3</v>
       </c>
-      <c r="I65" s="134">
+      <c r="I65" s="128">
         <v>20</v>
       </c>
       <c r="J65" s="69">
@@ -7515,25 +7698,25 @@
       <c r="M65" s="38">
         <v>28</v>
       </c>
-      <c r="N65" s="137"/>
-      <c r="O65" s="137"/>
-      <c r="P65" s="137"/>
+      <c r="N65" s="129"/>
+      <c r="O65" s="129"/>
+      <c r="P65" s="129"/>
     </row>
     <row r="66" spans="2:16" ht="21">
-      <c r="B66" s="137"/>
+      <c r="B66" s="129"/>
       <c r="C66" s="38">
         <v>2660</v>
       </c>
-      <c r="D66" s="137"/>
-      <c r="E66" s="160"/>
+      <c r="D66" s="129"/>
+      <c r="E66" s="132"/>
       <c r="F66" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="G66" s="137"/>
+      <c r="G66" s="129"/>
       <c r="H66" s="38">
         <v>10</v>
       </c>
-      <c r="I66" s="137"/>
+      <c r="I66" s="129"/>
       <c r="J66" s="69">
         <f t="shared" si="0"/>
         <v>4.2335999999999999E-2</v>
@@ -7547,25 +7730,25 @@
       <c r="M66" s="38">
         <v>28</v>
       </c>
-      <c r="N66" s="137"/>
-      <c r="O66" s="137"/>
-      <c r="P66" s="137"/>
+      <c r="N66" s="129"/>
+      <c r="O66" s="129"/>
+      <c r="P66" s="129"/>
     </row>
     <row r="67" spans="2:16" ht="21">
-      <c r="B67" s="135"/>
+      <c r="B67" s="130"/>
       <c r="C67" s="38">
         <v>2461</v>
       </c>
-      <c r="D67" s="135"/>
-      <c r="E67" s="157"/>
+      <c r="D67" s="130"/>
+      <c r="E67" s="133"/>
       <c r="F67" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="G67" s="135"/>
+      <c r="G67" s="130"/>
       <c r="H67" s="38">
         <v>130</v>
       </c>
-      <c r="I67" s="135"/>
+      <c r="I67" s="130"/>
       <c r="J67" s="69">
         <f t="shared" si="0"/>
         <v>0.1176</v>
@@ -7579,17 +7762,17 @@
       <c r="M67" s="38">
         <v>56</v>
       </c>
-      <c r="N67" s="135"/>
-      <c r="O67" s="135"/>
-      <c r="P67" s="135"/>
+      <c r="N67" s="130"/>
+      <c r="O67" s="130"/>
+      <c r="P67" s="130"/>
     </row>
     <row r="68" spans="2:16" ht="22.5">
-      <c r="B68" s="130" t="s">
+      <c r="B68" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C68" s="130"/>
-      <c r="D68" s="130"/>
-      <c r="E68" s="130"/>
+      <c r="C68" s="127"/>
+      <c r="D68" s="127"/>
+      <c r="E68" s="127"/>
       <c r="F68" s="71" t="s">
         <v>326</v>
       </c>
@@ -7658,12 +7841,12 @@
       </c>
     </row>
     <row r="70" spans="2:16" ht="22.5">
-      <c r="B70" s="130" t="s">
+      <c r="B70" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C70" s="130"/>
-      <c r="D70" s="130"/>
-      <c r="E70" s="130"/>
+      <c r="C70" s="127"/>
+      <c r="D70" s="127"/>
+      <c r="E70" s="127"/>
       <c r="F70" s="102" t="s">
         <v>228</v>
       </c>
@@ -7724,12 +7907,12 @@
       </c>
     </row>
     <row r="72" spans="2:16" ht="22.5">
-      <c r="B72" s="130" t="s">
+      <c r="B72" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C72" s="130"/>
-      <c r="D72" s="130"/>
-      <c r="E72" s="130"/>
+      <c r="C72" s="127"/>
+      <c r="D72" s="127"/>
+      <c r="E72" s="127"/>
       <c r="F72" s="102" t="s">
         <v>225</v>
       </c>
@@ -7798,12 +7981,12 @@
       </c>
     </row>
     <row r="74" spans="2:16" ht="22.5">
-      <c r="B74" s="130" t="s">
+      <c r="B74" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="130"/>
-      <c r="D74" s="130"/>
-      <c r="E74" s="130"/>
+      <c r="C74" s="127"/>
+      <c r="D74" s="127"/>
+      <c r="E74" s="127"/>
       <c r="F74" s="102" t="s">
         <v>368</v>
       </c>
@@ -7864,12 +8047,12 @@
       <c r="P75" s="41"/>
     </row>
     <row r="76" spans="2:16" ht="22.5">
-      <c r="B76" s="130" t="s">
+      <c r="B76" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C76" s="130"/>
-      <c r="D76" s="130"/>
-      <c r="E76" s="130"/>
+      <c r="C76" s="127"/>
+      <c r="D76" s="127"/>
+      <c r="E76" s="127"/>
       <c r="F76" s="102" t="s">
         <v>373</v>
       </c>
@@ -7934,12 +8117,12 @@
       <c r="P77" s="41"/>
     </row>
     <row r="78" spans="2:16" ht="22.5">
-      <c r="B78" s="130" t="s">
+      <c r="B78" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C78" s="130"/>
-      <c r="D78" s="130"/>
-      <c r="E78" s="130"/>
+      <c r="C78" s="127"/>
+      <c r="D78" s="127"/>
+      <c r="E78" s="127"/>
       <c r="F78" s="102" t="s">
         <v>423</v>
       </c>
@@ -8008,12 +8191,12 @@
       </c>
     </row>
     <row r="80" spans="2:16" ht="22.5">
-      <c r="B80" s="130" t="s">
+      <c r="B80" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C80" s="130"/>
-      <c r="D80" s="130"/>
-      <c r="E80" s="130"/>
+      <c r="C80" s="127"/>
+      <c r="D80" s="127"/>
+      <c r="E80" s="127"/>
       <c r="F80" s="102" t="s">
         <v>427</v>
       </c>
@@ -8076,12 +8259,12 @@
       </c>
     </row>
     <row r="82" spans="2:16" ht="22.5">
-      <c r="B82" s="130" t="s">
+      <c r="B82" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C82" s="130"/>
-      <c r="D82" s="130"/>
-      <c r="E82" s="130"/>
+      <c r="C82" s="127"/>
+      <c r="D82" s="127"/>
+      <c r="E82" s="127"/>
       <c r="F82" s="102" t="s">
         <v>433</v>
       </c>
@@ -8146,12 +8329,12 @@
       </c>
     </row>
     <row r="84" spans="2:16" ht="22.5">
-      <c r="B84" s="130" t="s">
+      <c r="B84" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C84" s="130"/>
-      <c r="D84" s="130"/>
-      <c r="E84" s="130"/>
+      <c r="C84" s="127"/>
+      <c r="D84" s="127"/>
+      <c r="E84" s="127"/>
       <c r="F84" s="71" t="s">
         <v>230</v>
       </c>
@@ -8218,12 +8401,12 @@
       </c>
     </row>
     <row r="86" spans="2:16" ht="22.5">
-      <c r="B86" s="130" t="s">
+      <c r="B86" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C86" s="130"/>
-      <c r="D86" s="130"/>
-      <c r="E86" s="130"/>
+      <c r="C86" s="127"/>
+      <c r="D86" s="127"/>
+      <c r="E86" s="127"/>
       <c r="F86" s="71" t="s">
         <v>368</v>
       </c>
@@ -8286,12 +8469,12 @@
       <c r="P87" s="38"/>
     </row>
     <row r="88" spans="2:16" ht="22.5">
-      <c r="B88" s="130" t="s">
+      <c r="B88" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C88" s="130"/>
-      <c r="D88" s="130"/>
-      <c r="E88" s="130"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
       <c r="F88" s="71" t="s">
         <v>239</v>
       </c>
@@ -8311,28 +8494,28 @@
       <c r="P88" s="74"/>
     </row>
     <row r="89" spans="2:16" ht="21">
-      <c r="B89" s="127" t="s">
+      <c r="B89" s="151" t="s">
         <v>529</v>
       </c>
-      <c r="C89" s="127">
+      <c r="C89" s="151">
         <v>15262730846</v>
       </c>
-      <c r="D89" s="127" t="s">
+      <c r="D89" s="151" t="s">
         <v>217</v>
       </c>
-      <c r="E89" s="131">
+      <c r="E89" s="154">
         <v>45719</v>
       </c>
       <c r="F89" s="100" t="s">
         <v>530</v>
       </c>
-      <c r="G89" s="127" t="s">
+      <c r="G89" s="151" t="s">
         <v>237</v>
       </c>
       <c r="H89" s="41">
         <v>1500</v>
       </c>
-      <c r="I89" s="127">
+      <c r="I89" s="151">
         <v>2675</v>
       </c>
       <c r="J89" s="101">
@@ -8347,10 +8530,10 @@
       <c r="M89" s="41">
         <v>19</v>
       </c>
-      <c r="N89" s="127" t="s">
+      <c r="N89" s="151" t="s">
         <v>244</v>
       </c>
-      <c r="O89" s="127" t="s">
+      <c r="O89" s="151" t="s">
         <v>244</v>
       </c>
       <c r="P89" s="41" t="s">
@@ -8358,18 +8541,18 @@
       </c>
     </row>
     <row r="90" spans="2:16" ht="21">
-      <c r="B90" s="128"/>
-      <c r="C90" s="128"/>
-      <c r="D90" s="128"/>
-      <c r="E90" s="132"/>
+      <c r="B90" s="152"/>
+      <c r="C90" s="152"/>
+      <c r="D90" s="152"/>
+      <c r="E90" s="155"/>
       <c r="F90" s="100" t="s">
         <v>531</v>
       </c>
-      <c r="G90" s="128"/>
+      <c r="G90" s="152"/>
       <c r="H90" s="41">
         <v>1500</v>
       </c>
-      <c r="I90" s="128"/>
+      <c r="I90" s="152"/>
       <c r="J90" s="101">
         <v>4.8099999999999996</v>
       </c>
@@ -8382,25 +8565,25 @@
       <c r="M90" s="41">
         <v>25</v>
       </c>
-      <c r="N90" s="128"/>
-      <c r="O90" s="128"/>
+      <c r="N90" s="152"/>
+      <c r="O90" s="152"/>
       <c r="P90" s="41" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="91" spans="2:16" ht="21">
-      <c r="B91" s="129"/>
-      <c r="C91" s="129"/>
-      <c r="D91" s="129"/>
-      <c r="E91" s="133"/>
+      <c r="B91" s="153"/>
+      <c r="C91" s="153"/>
+      <c r="D91" s="153"/>
+      <c r="E91" s="156"/>
       <c r="F91" s="100" t="s">
         <v>532</v>
       </c>
-      <c r="G91" s="129"/>
+      <c r="G91" s="153"/>
       <c r="H91" s="41">
         <v>210</v>
       </c>
-      <c r="I91" s="129"/>
+      <c r="I91" s="153"/>
       <c r="J91" s="101">
         <v>0.63724500000000006</v>
       </c>
@@ -8413,19 +8596,19 @@
       <c r="M91" s="41">
         <v>35</v>
       </c>
-      <c r="N91" s="129"/>
-      <c r="O91" s="129"/>
+      <c r="N91" s="153"/>
+      <c r="O91" s="153"/>
       <c r="P91" s="41" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="92" spans="2:16" ht="22.5">
-      <c r="B92" s="130" t="s">
+      <c r="B92" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C92" s="130"/>
-      <c r="D92" s="130"/>
-      <c r="E92" s="130"/>
+      <c r="C92" s="127"/>
+      <c r="D92" s="127"/>
+      <c r="E92" s="127"/>
       <c r="F92" s="102" t="s">
         <v>255</v>
       </c>
@@ -8444,81 +8627,487 @@
       <c r="O92" s="63"/>
       <c r="P92" s="63"/>
     </row>
+    <row r="93" spans="2:16" ht="42">
+      <c r="B93" s="41" t="s">
+        <v>552</v>
+      </c>
+      <c r="C93" s="41" t="s">
+        <v>553</v>
+      </c>
+      <c r="D93" s="41" t="s">
+        <v>554</v>
+      </c>
+      <c r="E93" s="42">
+        <v>45723</v>
+      </c>
+      <c r="F93" s="100" t="s">
+        <v>292</v>
+      </c>
+      <c r="G93" s="39" t="s">
+        <v>555</v>
+      </c>
+      <c r="H93" s="41">
+        <v>6</v>
+      </c>
+      <c r="I93" s="41">
+        <v>152</v>
+      </c>
+      <c r="J93" s="182">
+        <v>0.31968000000000002</v>
+      </c>
+      <c r="K93" s="41">
+        <v>74</v>
+      </c>
+      <c r="L93" s="41">
+        <v>48</v>
+      </c>
+      <c r="M93" s="41">
+        <v>15</v>
+      </c>
+      <c r="N93" s="39" t="s">
+        <v>556</v>
+      </c>
+      <c r="O93" s="39" t="s">
+        <v>556</v>
+      </c>
+      <c r="P93" s="41"/>
+    </row>
+    <row r="94" spans="2:16" ht="22.5">
+      <c r="B94" s="127" t="s">
+        <v>220</v>
+      </c>
+      <c r="C94" s="127"/>
+      <c r="D94" s="127"/>
+      <c r="E94" s="127"/>
+      <c r="F94" s="102" t="s">
+        <v>325</v>
+      </c>
+      <c r="G94" s="96"/>
+      <c r="H94" s="103"/>
+      <c r="I94" s="109">
+        <v>152</v>
+      </c>
+      <c r="J94" s="183">
+        <v>0.31968000000000002</v>
+      </c>
+      <c r="K94" s="103"/>
+      <c r="L94" s="103"/>
+      <c r="M94" s="103"/>
+      <c r="N94" s="63"/>
+      <c r="O94" s="63"/>
+      <c r="P94" s="63"/>
+    </row>
+    <row r="95" spans="2:16" ht="21">
+      <c r="B95" s="41" t="s">
+        <v>557</v>
+      </c>
+      <c r="C95" s="41">
+        <v>15615700991</v>
+      </c>
+      <c r="D95" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="E95" s="42">
+        <v>45723</v>
+      </c>
+      <c r="F95" s="100" t="s">
+        <v>558</v>
+      </c>
+      <c r="G95" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="H95" s="41">
+        <v>7500</v>
+      </c>
+      <c r="I95" s="41">
+        <v>6250</v>
+      </c>
+      <c r="J95" s="182">
+        <v>10.200000000000001</v>
+      </c>
+      <c r="K95" s="41">
+        <v>40</v>
+      </c>
+      <c r="L95" s="41">
+        <v>34</v>
+      </c>
+      <c r="M95" s="41">
+        <v>30</v>
+      </c>
+      <c r="N95" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="O95" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="P95" s="41"/>
+    </row>
+    <row r="96" spans="2:16" ht="22.5">
+      <c r="B96" s="127" t="s">
+        <v>220</v>
+      </c>
+      <c r="C96" s="127"/>
+      <c r="D96" s="127"/>
+      <c r="E96" s="127"/>
+      <c r="F96" s="102" t="s">
+        <v>559</v>
+      </c>
+      <c r="G96" s="103"/>
+      <c r="H96" s="103"/>
+      <c r="I96" s="103">
+        <v>6250</v>
+      </c>
+      <c r="J96" s="183">
+        <v>10.200000000000001</v>
+      </c>
+      <c r="K96" s="103"/>
+      <c r="L96" s="103"/>
+      <c r="M96" s="103"/>
+      <c r="N96" s="63"/>
+      <c r="O96" s="63"/>
+      <c r="P96" s="63"/>
+    </row>
+    <row r="97" spans="2:16" ht="21">
+      <c r="B97" s="151" t="s">
+        <v>560</v>
+      </c>
+      <c r="C97" s="151" t="s">
+        <v>561</v>
+      </c>
+      <c r="D97" s="151" t="s">
+        <v>217</v>
+      </c>
+      <c r="E97" s="154">
+        <v>45722</v>
+      </c>
+      <c r="F97" s="100" t="s">
+        <v>562</v>
+      </c>
+      <c r="G97" s="151" t="s">
+        <v>237</v>
+      </c>
+      <c r="H97" s="41">
+        <v>1080</v>
+      </c>
+      <c r="I97" s="151">
+        <v>2700</v>
+      </c>
+      <c r="J97" s="101">
+        <v>3.2399999999999998</v>
+      </c>
+      <c r="K97" s="41">
+        <v>50</v>
+      </c>
+      <c r="L97" s="41">
+        <v>60</v>
+      </c>
+      <c r="M97" s="41">
+        <v>40</v>
+      </c>
+      <c r="N97" s="151" t="s">
+        <v>244</v>
+      </c>
+      <c r="O97" s="151" t="s">
+        <v>244</v>
+      </c>
+      <c r="P97" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16" ht="21">
+      <c r="B98" s="153"/>
+      <c r="C98" s="153"/>
+      <c r="D98" s="153"/>
+      <c r="E98" s="156"/>
+      <c r="F98" s="100" t="s">
+        <v>563</v>
+      </c>
+      <c r="G98" s="153"/>
+      <c r="H98" s="41">
+        <v>2520</v>
+      </c>
+      <c r="I98" s="153"/>
+      <c r="J98" s="101">
+        <v>7.4969999999999999</v>
+      </c>
+      <c r="K98" s="41">
+        <v>70</v>
+      </c>
+      <c r="L98" s="41">
+        <v>50</v>
+      </c>
+      <c r="M98" s="41">
+        <v>34</v>
+      </c>
+      <c r="N98" s="153"/>
+      <c r="O98" s="153"/>
+      <c r="P98" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16" ht="22.5">
+      <c r="B99" s="127" t="s">
+        <v>220</v>
+      </c>
+      <c r="C99" s="127"/>
+      <c r="D99" s="127"/>
+      <c r="E99" s="127"/>
+      <c r="F99" s="102" t="s">
+        <v>564</v>
+      </c>
+      <c r="G99" s="114"/>
+      <c r="H99" s="103"/>
+      <c r="I99" s="114">
+        <v>2700</v>
+      </c>
+      <c r="J99" s="104">
+        <v>10.737</v>
+      </c>
+      <c r="K99" s="103"/>
+      <c r="L99" s="103"/>
+      <c r="M99" s="103"/>
+      <c r="N99" s="63"/>
+      <c r="O99" s="63"/>
+      <c r="P99" s="63"/>
+    </row>
+    <row r="100" spans="2:16" ht="21">
+      <c r="B100" s="41" t="s">
+        <v>565</v>
+      </c>
+      <c r="C100" s="184" t="s">
+        <v>566</v>
+      </c>
+      <c r="D100" s="41" t="s">
+        <v>567</v>
+      </c>
+      <c r="E100" s="42">
+        <v>45724</v>
+      </c>
+      <c r="F100" s="100" t="s">
+        <v>568</v>
+      </c>
+      <c r="G100" s="41" t="s">
+        <v>569</v>
+      </c>
+      <c r="H100" s="41"/>
+      <c r="I100" s="41">
+        <v>79</v>
+      </c>
+      <c r="J100" s="101">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="K100" s="41">
+        <v>37</v>
+      </c>
+      <c r="L100" s="41">
+        <v>20</v>
+      </c>
+      <c r="M100" s="41">
+        <v>25</v>
+      </c>
+      <c r="N100" s="41" t="s">
+        <v>570</v>
+      </c>
+      <c r="O100" s="41" t="s">
+        <v>570</v>
+      </c>
+      <c r="P100" s="41"/>
+    </row>
+    <row r="101" spans="2:16" ht="22.5">
+      <c r="B101" s="127" t="s">
+        <v>220</v>
+      </c>
+      <c r="C101" s="127"/>
+      <c r="D101" s="127"/>
+      <c r="E101" s="127"/>
+      <c r="F101" s="102" t="s">
+        <v>324</v>
+      </c>
+      <c r="G101" s="103"/>
+      <c r="H101" s="103"/>
+      <c r="I101" s="103">
+        <v>79</v>
+      </c>
+      <c r="J101" s="104">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="K101" s="103"/>
+      <c r="L101" s="103"/>
+      <c r="M101" s="103"/>
+      <c r="N101" s="63"/>
+      <c r="O101" s="63"/>
+      <c r="P101" s="63"/>
+    </row>
+    <row r="102" spans="2:16" ht="42">
+      <c r="B102" s="173" t="s">
+        <v>571</v>
+      </c>
+      <c r="C102" s="185" t="s">
+        <v>572</v>
+      </c>
+      <c r="D102" s="173" t="s">
+        <v>573</v>
+      </c>
+      <c r="E102" s="177">
+        <v>45726</v>
+      </c>
+      <c r="F102" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="G102" s="44" t="s">
+        <v>574</v>
+      </c>
+      <c r="H102" s="44">
+        <f>53+37+45+42+11+30</f>
+        <v>218</v>
+      </c>
+      <c r="I102" s="173">
+        <v>195</v>
+      </c>
+      <c r="J102" s="62">
+        <f>K102*L102*M102/1000000*6</f>
+        <v>0.41471999999999998</v>
+      </c>
+      <c r="K102" s="44">
+        <v>60</v>
+      </c>
+      <c r="L102" s="44">
+        <v>48</v>
+      </c>
+      <c r="M102" s="44">
+        <v>24</v>
+      </c>
+      <c r="N102" s="173" t="s">
+        <v>153</v>
+      </c>
+      <c r="O102" s="173" t="s">
+        <v>153</v>
+      </c>
+      <c r="P102" s="44"/>
+    </row>
+    <row r="103" spans="2:16" ht="21">
+      <c r="B103" s="179"/>
+      <c r="C103" s="179"/>
+      <c r="D103" s="179"/>
+      <c r="E103" s="180"/>
+      <c r="F103" s="60" t="s">
+        <v>575</v>
+      </c>
+      <c r="G103" s="52" t="s">
+        <v>576</v>
+      </c>
+      <c r="H103" s="44">
+        <f>150+160+70</f>
+        <v>380</v>
+      </c>
+      <c r="I103" s="179"/>
+      <c r="J103" s="62">
+        <f>K103*L103*M103/1000000*3</f>
+        <v>8.3160000000000012E-2</v>
+      </c>
+      <c r="K103" s="44">
+        <v>30</v>
+      </c>
+      <c r="L103" s="44">
+        <v>44</v>
+      </c>
+      <c r="M103" s="44">
+        <v>21</v>
+      </c>
+      <c r="N103" s="179"/>
+      <c r="O103" s="179"/>
+      <c r="P103" s="44"/>
+    </row>
+    <row r="104" spans="2:16" ht="37.5">
+      <c r="B104" s="174"/>
+      <c r="C104" s="174"/>
+      <c r="D104" s="174"/>
+      <c r="E104" s="178"/>
+      <c r="F104" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="G104" s="52" t="s">
+        <v>577</v>
+      </c>
+      <c r="H104" s="44">
+        <v>90</v>
+      </c>
+      <c r="I104" s="174"/>
+      <c r="J104" s="62">
+        <f>K104*L104*M104/1000000</f>
+        <v>2.4552000000000001E-2</v>
+      </c>
+      <c r="K104" s="44">
+        <v>44</v>
+      </c>
+      <c r="L104" s="44">
+        <v>31</v>
+      </c>
+      <c r="M104" s="44">
+        <v>18</v>
+      </c>
+      <c r="N104" s="174"/>
+      <c r="O104" s="174"/>
+      <c r="P104" s="44"/>
+    </row>
+    <row r="105" spans="2:16" ht="22.5">
+      <c r="B105" s="127" t="s">
+        <v>220</v>
+      </c>
+      <c r="C105" s="127"/>
+      <c r="D105" s="127"/>
+      <c r="E105" s="127"/>
+      <c r="F105" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="G105" s="103"/>
+      <c r="H105" s="103"/>
+      <c r="I105" s="114">
+        <f>SUM(I102:I104)</f>
+        <v>195</v>
+      </c>
+      <c r="J105" s="104">
+        <f>SUM(J102:J104)</f>
+        <v>0.52243200000000001</v>
+      </c>
+      <c r="K105" s="103"/>
+      <c r="L105" s="103"/>
+      <c r="M105" s="103"/>
+      <c r="N105" s="51"/>
+      <c r="O105" s="51"/>
+      <c r="P105" s="50"/>
+    </row>
   </sheetData>
-  <mergeCells count="104">
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="I61:I64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="N32:N37"/>
-    <mergeCell ref="O32:O37"/>
-    <mergeCell ref="P32:P37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="O39:O41"/>
-    <mergeCell ref="P39:P41"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="E32:E37"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I37"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B23:E23"/>
+  <mergeCells count="124">
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="O97:O98"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="I102:I104"/>
+    <mergeCell ref="N102:N104"/>
+    <mergeCell ref="O102:O104"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="N97:N98"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="N89:N91"/>
+    <mergeCell ref="O89:O91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="G89:G91"/>
     <mergeCell ref="P52:P53"/>
     <mergeCell ref="P55:P57"/>
     <mergeCell ref="B60:E60"/>
@@ -8541,15 +9130,79 @@
     <mergeCell ref="C61:C64"/>
     <mergeCell ref="D61:D64"/>
     <mergeCell ref="E61:E64"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="N89:N91"/>
-    <mergeCell ref="O89:O91"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="G89:G91"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I37"/>
+    <mergeCell ref="N32:N37"/>
+    <mergeCell ref="O32:O37"/>
+    <mergeCell ref="P32:P37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B76:E76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8557,11 +9210,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DD94FD-D993-429D-A766-D707FAC76EEB}">
-  <dimension ref="A1:P204"/>
+  <dimension ref="A1:P212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A200" sqref="A200"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8641,11 +9294,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="144" t="s">
+      <c r="K2" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -8657,10 +9310,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="174"/>
+      <c r="B3" s="181"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -9236,25 +9889,25 @@
       <c r="A21" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="165" t="s">
+      <c r="B21" s="166" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="165" t="s">
+      <c r="D21" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="156">
+      <c r="E21" s="131">
         <v>45661</v>
       </c>
       <c r="F21" s="28">
         <v>1</v>
       </c>
-      <c r="G21" s="165" t="s">
+      <c r="G21" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="165">
+      <c r="H21" s="166">
         <v>2</v>
       </c>
       <c r="I21" s="28">
@@ -9273,7 +9926,7 @@
         <v>13</v>
       </c>
       <c r="N21" s="28"/>
-      <c r="O21" s="165" t="s">
+      <c r="O21" s="166" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9286,7 +9939,7 @@
         <v>57</v>
       </c>
       <c r="D22" s="167"/>
-      <c r="E22" s="157"/>
+      <c r="E22" s="133"/>
       <c r="F22" s="28">
         <v>2</v>
       </c>
@@ -9893,25 +10546,25 @@
       <c r="A40" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="165" t="s">
+      <c r="B40" s="166" t="s">
         <v>89</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="165" t="s">
+      <c r="D40" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="156">
+      <c r="E40" s="131">
         <v>45664</v>
       </c>
       <c r="F40" s="28">
         <v>1</v>
       </c>
-      <c r="G40" s="165" t="s">
+      <c r="G40" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="165">
+      <c r="H40" s="166">
         <v>3</v>
       </c>
       <c r="I40" s="28">
@@ -9930,7 +10583,7 @@
         <v>20</v>
       </c>
       <c r="N40" s="28"/>
-      <c r="O40" s="165" t="s">
+      <c r="O40" s="166" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9938,17 +10591,17 @@
       <c r="A41" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="166"/>
+      <c r="B41" s="170"/>
       <c r="C41" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="166"/>
-      <c r="E41" s="160"/>
+      <c r="D41" s="170"/>
+      <c r="E41" s="132"/>
       <c r="F41" s="28">
         <v>2</v>
       </c>
-      <c r="G41" s="166"/>
-      <c r="H41" s="166"/>
+      <c r="G41" s="170"/>
+      <c r="H41" s="170"/>
       <c r="I41" s="28">
         <v>1.4</v>
       </c>
@@ -9965,7 +10618,7 @@
         <v>20</v>
       </c>
       <c r="N41" s="28"/>
-      <c r="O41" s="166"/>
+      <c r="O41" s="170"/>
     </row>
     <row r="42" spans="1:15" ht="21">
       <c r="A42" s="28" t="s">
@@ -9976,7 +10629,7 @@
         <v>94</v>
       </c>
       <c r="D42" s="167"/>
-      <c r="E42" s="157"/>
+      <c r="E42" s="133"/>
       <c r="F42" s="28">
         <v>3</v>
       </c>
@@ -10241,42 +10894,42 @@
       <c r="A50" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="127" t="s">
+      <c r="B50" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="127" t="s">
+      <c r="C50" s="151" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="127" t="s">
+      <c r="D50" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="131">
+      <c r="E50" s="154">
         <v>45666</v>
       </c>
       <c r="F50" s="41">
         <v>1</v>
       </c>
-      <c r="G50" s="127" t="s">
+      <c r="G50" s="151" t="s">
         <v>25</v>
       </c>
       <c r="H50" s="41"/>
-      <c r="I50" s="127">
+      <c r="I50" s="151">
         <v>10.199999999999999</v>
       </c>
       <c r="J50" s="175">
         <v>0.10335</v>
       </c>
-      <c r="K50" s="127">
+      <c r="K50" s="151">
         <v>53</v>
       </c>
-      <c r="L50" s="127">
+      <c r="L50" s="151">
         <v>39</v>
       </c>
-      <c r="M50" s="127">
+      <c r="M50" s="151">
         <v>50</v>
       </c>
       <c r="N50" s="41"/>
-      <c r="O50" s="127" t="s">
+      <c r="O50" s="151" t="s">
         <v>109</v>
       </c>
     </row>
@@ -10284,22 +10937,22 @@
       <c r="A51" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="129"/>
-      <c r="C51" s="129"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="133"/>
+      <c r="B51" s="153"/>
+      <c r="C51" s="153"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="156"/>
       <c r="F51" s="41">
         <v>2</v>
       </c>
-      <c r="G51" s="129"/>
+      <c r="G51" s="153"/>
       <c r="H51" s="41"/>
-      <c r="I51" s="129"/>
+      <c r="I51" s="153"/>
       <c r="J51" s="176"/>
-      <c r="K51" s="129"/>
-      <c r="L51" s="129"/>
-      <c r="M51" s="129"/>
+      <c r="K51" s="153"/>
+      <c r="L51" s="153"/>
+      <c r="M51" s="153"/>
       <c r="N51" s="41"/>
-      <c r="O51" s="129"/>
+      <c r="O51" s="153"/>
     </row>
     <row r="52" spans="1:15" ht="22.5">
       <c r="A52" s="32"/>
@@ -10330,25 +10983,25 @@
       <c r="A53" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="168" t="s">
+      <c r="B53" s="173" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="168" t="s">
+      <c r="C53" s="173" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="168" t="s">
+      <c r="D53" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="171">
+      <c r="E53" s="177">
         <v>45668</v>
       </c>
       <c r="F53" s="44">
         <v>1</v>
       </c>
-      <c r="G53" s="149" t="s">
+      <c r="G53" s="143" t="s">
         <v>114</v>
       </c>
-      <c r="H53" s="168">
+      <c r="H53" s="173">
         <v>1676</v>
       </c>
       <c r="I53" s="44">
@@ -10368,7 +11021,7 @@
         <v>43</v>
       </c>
       <c r="N53" s="44"/>
-      <c r="O53" s="168" t="s">
+      <c r="O53" s="173" t="s">
         <v>115</v>
       </c>
     </row>
@@ -10376,15 +11029,15 @@
       <c r="A54" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="170"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="170"/>
-      <c r="E54" s="173"/>
+      <c r="B54" s="174"/>
+      <c r="C54" s="174"/>
+      <c r="D54" s="174"/>
+      <c r="E54" s="178"/>
       <c r="F54" s="44">
         <v>2</v>
       </c>
-      <c r="G54" s="151"/>
-      <c r="H54" s="170"/>
+      <c r="G54" s="145"/>
+      <c r="H54" s="174"/>
       <c r="I54" s="44">
         <v>16.7</v>
       </c>
@@ -10402,7 +11055,7 @@
         <v>30</v>
       </c>
       <c r="N54" s="44"/>
-      <c r="O54" s="170"/>
+      <c r="O54" s="174"/>
     </row>
     <row r="55" spans="1:15" ht="22.5">
       <c r="A55" s="32"/>
@@ -10433,25 +11086,25 @@
       <c r="A56" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="168" t="s">
+      <c r="B56" s="173" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="168" t="s">
+      <c r="C56" s="173" t="s">
         <v>119</v>
       </c>
-      <c r="D56" s="168" t="s">
+      <c r="D56" s="173" t="s">
         <v>82</v>
       </c>
-      <c r="E56" s="171">
+      <c r="E56" s="177">
         <v>45670</v>
       </c>
       <c r="F56" s="44">
         <v>1</v>
       </c>
-      <c r="G56" s="149" t="s">
+      <c r="G56" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="H56" s="168">
+      <c r="H56" s="173">
         <v>145</v>
       </c>
       <c r="I56" s="44">
@@ -10471,7 +11124,7 @@
         <v>23</v>
       </c>
       <c r="N56" s="52"/>
-      <c r="O56" s="168" t="s">
+      <c r="O56" s="173" t="s">
         <v>121</v>
       </c>
     </row>
@@ -10479,15 +11132,15 @@
       <c r="A57" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="170"/>
-      <c r="C57" s="170"/>
-      <c r="D57" s="170"/>
-      <c r="E57" s="173"/>
+      <c r="B57" s="174"/>
+      <c r="C57" s="174"/>
+      <c r="D57" s="174"/>
+      <c r="E57" s="178"/>
       <c r="F57" s="44">
         <v>2</v>
       </c>
-      <c r="G57" s="151"/>
-      <c r="H57" s="170"/>
+      <c r="G57" s="145"/>
+      <c r="H57" s="174"/>
       <c r="I57" s="44">
         <v>13.7</v>
       </c>
@@ -10505,7 +11158,7 @@
         <v>49</v>
       </c>
       <c r="N57" s="44"/>
-      <c r="O57" s="170"/>
+      <c r="O57" s="174"/>
     </row>
     <row r="58" spans="1:15" ht="22.5">
       <c r="A58" s="32"/>
@@ -10949,7 +11602,7 @@
       <c r="D71" s="161" t="s">
         <v>156</v>
       </c>
-      <c r="E71" s="131">
+      <c r="E71" s="154">
         <v>45673</v>
       </c>
       <c r="F71" s="53">
@@ -10984,14 +11637,14 @@
       <c r="A72" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="164"/>
-      <c r="C72" s="164"/>
-      <c r="D72" s="164"/>
-      <c r="E72" s="132"/>
+      <c r="B72" s="162"/>
+      <c r="C72" s="162"/>
+      <c r="D72" s="162"/>
+      <c r="E72" s="155"/>
       <c r="F72" s="53">
         <v>2</v>
       </c>
-      <c r="G72" s="164"/>
+      <c r="G72" s="162"/>
       <c r="H72" s="53">
         <v>240</v>
       </c>
@@ -11018,14 +11671,14 @@
       <c r="A73" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="B73" s="164"/>
-      <c r="C73" s="164"/>
-      <c r="D73" s="164"/>
-      <c r="E73" s="132"/>
+      <c r="B73" s="162"/>
+      <c r="C73" s="162"/>
+      <c r="D73" s="162"/>
+      <c r="E73" s="155"/>
       <c r="F73" s="53">
         <v>3</v>
       </c>
-      <c r="G73" s="164"/>
+      <c r="G73" s="162"/>
       <c r="H73" s="53">
         <v>300</v>
       </c>
@@ -11052,14 +11705,14 @@
       <c r="A74" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="B74" s="164"/>
-      <c r="C74" s="164"/>
-      <c r="D74" s="164"/>
-      <c r="E74" s="132"/>
+      <c r="B74" s="162"/>
+      <c r="C74" s="162"/>
+      <c r="D74" s="162"/>
+      <c r="E74" s="155"/>
       <c r="F74" s="53">
         <v>4</v>
       </c>
-      <c r="G74" s="164"/>
+      <c r="G74" s="162"/>
       <c r="H74" s="53">
         <v>230</v>
       </c>
@@ -11086,14 +11739,14 @@
       <c r="A75" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="B75" s="164"/>
-      <c r="C75" s="164"/>
-      <c r="D75" s="164"/>
-      <c r="E75" s="132"/>
+      <c r="B75" s="162"/>
+      <c r="C75" s="162"/>
+      <c r="D75" s="162"/>
+      <c r="E75" s="155"/>
       <c r="F75" s="53">
         <v>5</v>
       </c>
-      <c r="G75" s="164"/>
+      <c r="G75" s="162"/>
       <c r="H75" s="53">
         <v>220</v>
       </c>
@@ -11120,14 +11773,14 @@
       <c r="A76" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B76" s="164"/>
-      <c r="C76" s="164"/>
-      <c r="D76" s="164"/>
-      <c r="E76" s="132"/>
+      <c r="B76" s="162"/>
+      <c r="C76" s="162"/>
+      <c r="D76" s="162"/>
+      <c r="E76" s="155"/>
       <c r="F76" s="53">
         <v>6</v>
       </c>
-      <c r="G76" s="164"/>
+      <c r="G76" s="162"/>
       <c r="H76" s="53">
         <v>200</v>
       </c>
@@ -11154,14 +11807,14 @@
       <c r="A77" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B77" s="164"/>
-      <c r="C77" s="164"/>
-      <c r="D77" s="164"/>
-      <c r="E77" s="132"/>
+      <c r="B77" s="162"/>
+      <c r="C77" s="162"/>
+      <c r="D77" s="162"/>
+      <c r="E77" s="155"/>
       <c r="F77" s="53">
         <v>7</v>
       </c>
-      <c r="G77" s="164"/>
+      <c r="G77" s="162"/>
       <c r="H77" s="53">
         <v>190</v>
       </c>
@@ -11188,14 +11841,14 @@
       <c r="A78" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="164"/>
-      <c r="C78" s="164"/>
-      <c r="D78" s="164"/>
-      <c r="E78" s="132"/>
+      <c r="B78" s="162"/>
+      <c r="C78" s="162"/>
+      <c r="D78" s="162"/>
+      <c r="E78" s="155"/>
       <c r="F78" s="53">
         <v>8</v>
       </c>
-      <c r="G78" s="164"/>
+      <c r="G78" s="162"/>
       <c r="H78" s="53">
         <v>200</v>
       </c>
@@ -11222,14 +11875,14 @@
       <c r="A79" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="B79" s="164"/>
-      <c r="C79" s="164"/>
-      <c r="D79" s="164"/>
-      <c r="E79" s="132"/>
+      <c r="B79" s="162"/>
+      <c r="C79" s="162"/>
+      <c r="D79" s="162"/>
+      <c r="E79" s="155"/>
       <c r="F79" s="53">
         <v>9</v>
       </c>
-      <c r="G79" s="164"/>
+      <c r="G79" s="162"/>
       <c r="H79" s="53">
         <v>200</v>
       </c>
@@ -11256,14 +11909,14 @@
       <c r="A80" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="B80" s="164"/>
-      <c r="C80" s="164"/>
-      <c r="D80" s="164"/>
-      <c r="E80" s="132"/>
+      <c r="B80" s="162"/>
+      <c r="C80" s="162"/>
+      <c r="D80" s="162"/>
+      <c r="E80" s="155"/>
       <c r="F80" s="53">
         <v>10</v>
       </c>
-      <c r="G80" s="164"/>
+      <c r="G80" s="162"/>
       <c r="H80" s="53">
         <v>200</v>
       </c>
@@ -11290,14 +11943,14 @@
       <c r="A81" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="B81" s="162"/>
-      <c r="C81" s="162"/>
-      <c r="D81" s="162"/>
-      <c r="E81" s="133"/>
+      <c r="B81" s="163"/>
+      <c r="C81" s="163"/>
+      <c r="D81" s="163"/>
+      <c r="E81" s="156"/>
       <c r="F81" s="53">
         <v>11</v>
       </c>
-      <c r="G81" s="162"/>
+      <c r="G81" s="163"/>
       <c r="H81" s="53">
         <v>200</v>
       </c>
@@ -12033,13 +12686,13 @@
       <c r="D103" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="E103" s="131">
+      <c r="E103" s="154">
         <v>45680</v>
       </c>
       <c r="F103" s="53">
         <v>1</v>
       </c>
-      <c r="G103" s="163" t="s">
+      <c r="G103" s="164" t="s">
         <v>211</v>
       </c>
       <c r="H103" s="53"/>
@@ -12066,14 +12719,14 @@
       <c r="A104" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="B104" s="164"/>
-      <c r="C104" s="164"/>
-      <c r="D104" s="164"/>
-      <c r="E104" s="132"/>
+      <c r="B104" s="162"/>
+      <c r="C104" s="162"/>
+      <c r="D104" s="162"/>
+      <c r="E104" s="155"/>
       <c r="F104" s="53">
         <v>2</v>
       </c>
-      <c r="G104" s="164"/>
+      <c r="G104" s="162"/>
       <c r="H104" s="53"/>
       <c r="I104" s="53">
         <v>9.1</v>
@@ -12098,14 +12751,14 @@
       <c r="A105" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="B105" s="164"/>
-      <c r="C105" s="164"/>
-      <c r="D105" s="164"/>
-      <c r="E105" s="132"/>
+      <c r="B105" s="162"/>
+      <c r="C105" s="162"/>
+      <c r="D105" s="162"/>
+      <c r="E105" s="155"/>
       <c r="F105" s="53">
         <v>3</v>
       </c>
-      <c r="G105" s="164"/>
+      <c r="G105" s="162"/>
       <c r="H105" s="53"/>
       <c r="I105" s="53">
         <v>24.1</v>
@@ -12130,14 +12783,14 @@
       <c r="A106" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="B106" s="162"/>
-      <c r="C106" s="162"/>
-      <c r="D106" s="162"/>
-      <c r="E106" s="133"/>
+      <c r="B106" s="163"/>
+      <c r="C106" s="163"/>
+      <c r="D106" s="163"/>
+      <c r="E106" s="156"/>
       <c r="F106" s="53">
         <v>4</v>
       </c>
-      <c r="G106" s="162"/>
+      <c r="G106" s="163"/>
       <c r="H106" s="53"/>
       <c r="I106" s="53">
         <v>6.4</v>
@@ -12259,25 +12912,25 @@
       <c r="A110" s="53" t="s">
         <v>333</v>
       </c>
-      <c r="B110" s="177" t="s">
+      <c r="B110" s="171" t="s">
         <v>334</v>
       </c>
       <c r="C110" s="53" t="s">
         <v>335</v>
       </c>
-      <c r="D110" s="177" t="s">
+      <c r="D110" s="171" t="s">
         <v>330</v>
       </c>
-      <c r="E110" s="178">
+      <c r="E110" s="172">
         <v>45698</v>
       </c>
       <c r="F110" s="53">
         <v>1</v>
       </c>
-      <c r="G110" s="177" t="s">
+      <c r="G110" s="171" t="s">
         <v>331</v>
       </c>
-      <c r="H110" s="177">
+      <c r="H110" s="171">
         <v>2</v>
       </c>
       <c r="I110" s="53">
@@ -12296,7 +12949,7 @@
         <v>10</v>
       </c>
       <c r="N110" s="53"/>
-      <c r="O110" s="177" t="s">
+      <c r="O110" s="171" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12304,17 +12957,17 @@
       <c r="A111" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="B111" s="177"/>
+      <c r="B111" s="171"/>
       <c r="C111" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="D111" s="177"/>
-      <c r="E111" s="178"/>
+      <c r="D111" s="171"/>
+      <c r="E111" s="172"/>
       <c r="F111" s="53">
         <v>2</v>
       </c>
-      <c r="G111" s="177"/>
-      <c r="H111" s="177"/>
+      <c r="G111" s="171"/>
+      <c r="H111" s="171"/>
       <c r="I111" s="53">
         <v>1.4</v>
       </c>
@@ -12331,7 +12984,7 @@
         <v>14</v>
       </c>
       <c r="N111" s="53"/>
-      <c r="O111" s="177"/>
+      <c r="O111" s="171"/>
     </row>
     <row r="112" spans="1:15" ht="22.5">
       <c r="A112" s="64"/>
@@ -12708,25 +13361,25 @@
       <c r="A123" s="44" t="s">
         <v>377</v>
       </c>
-      <c r="B123" s="168" t="s">
+      <c r="B123" s="173" t="s">
         <v>378</v>
       </c>
-      <c r="C123" s="168" t="s">
+      <c r="C123" s="173" t="s">
         <v>379</v>
       </c>
-      <c r="D123" s="168" t="s">
+      <c r="D123" s="173" t="s">
         <v>380</v>
       </c>
-      <c r="E123" s="171">
+      <c r="E123" s="177">
         <v>45706</v>
       </c>
       <c r="F123" s="44">
         <v>1</v>
       </c>
-      <c r="G123" s="149" t="s">
+      <c r="G123" s="143" t="s">
         <v>381</v>
       </c>
-      <c r="H123" s="168">
+      <c r="H123" s="173">
         <v>553</v>
       </c>
       <c r="I123" s="44">
@@ -12745,7 +13398,7 @@
         <v>49</v>
       </c>
       <c r="N123" s="44"/>
-      <c r="O123" s="168" t="s">
+      <c r="O123" s="173" t="s">
         <v>196</v>
       </c>
     </row>
@@ -12753,15 +13406,15 @@
       <c r="A124" s="44" t="s">
         <v>382</v>
       </c>
-      <c r="B124" s="169"/>
-      <c r="C124" s="169"/>
-      <c r="D124" s="169"/>
-      <c r="E124" s="172"/>
+      <c r="B124" s="179"/>
+      <c r="C124" s="179"/>
+      <c r="D124" s="179"/>
+      <c r="E124" s="180"/>
       <c r="F124" s="44">
         <v>2</v>
       </c>
-      <c r="G124" s="150"/>
-      <c r="H124" s="169"/>
+      <c r="G124" s="144"/>
+      <c r="H124" s="179"/>
       <c r="I124" s="44">
         <v>11.9</v>
       </c>
@@ -12778,21 +13431,21 @@
         <v>49</v>
       </c>
       <c r="N124" s="44"/>
-      <c r="O124" s="169"/>
+      <c r="O124" s="179"/>
     </row>
     <row r="125" spans="1:15" ht="21">
       <c r="A125" s="44" t="s">
         <v>383</v>
       </c>
-      <c r="B125" s="169"/>
-      <c r="C125" s="169"/>
-      <c r="D125" s="169"/>
-      <c r="E125" s="172"/>
+      <c r="B125" s="179"/>
+      <c r="C125" s="179"/>
+      <c r="D125" s="179"/>
+      <c r="E125" s="180"/>
       <c r="F125" s="44">
         <v>3</v>
       </c>
-      <c r="G125" s="150"/>
-      <c r="H125" s="169"/>
+      <c r="G125" s="144"/>
+      <c r="H125" s="179"/>
       <c r="I125" s="44">
         <v>13.8</v>
       </c>
@@ -12809,21 +13462,21 @@
         <v>49</v>
       </c>
       <c r="N125" s="44"/>
-      <c r="O125" s="169"/>
+      <c r="O125" s="179"/>
     </row>
     <row r="126" spans="1:15" ht="21">
       <c r="A126" s="44" t="s">
         <v>384</v>
       </c>
-      <c r="B126" s="169"/>
-      <c r="C126" s="169"/>
-      <c r="D126" s="169"/>
-      <c r="E126" s="172"/>
+      <c r="B126" s="179"/>
+      <c r="C126" s="179"/>
+      <c r="D126" s="179"/>
+      <c r="E126" s="180"/>
       <c r="F126" s="44">
         <v>4</v>
       </c>
-      <c r="G126" s="150"/>
-      <c r="H126" s="169"/>
+      <c r="G126" s="144"/>
+      <c r="H126" s="179"/>
       <c r="I126" s="44">
         <v>17.600000000000001</v>
       </c>
@@ -12840,21 +13493,21 @@
         <v>49</v>
       </c>
       <c r="N126" s="44"/>
-      <c r="O126" s="169"/>
+      <c r="O126" s="179"/>
     </row>
     <row r="127" spans="1:15" ht="21">
       <c r="A127" s="44" t="s">
         <v>385</v>
       </c>
-      <c r="B127" s="169"/>
-      <c r="C127" s="169"/>
-      <c r="D127" s="169"/>
-      <c r="E127" s="172"/>
+      <c r="B127" s="179"/>
+      <c r="C127" s="179"/>
+      <c r="D127" s="179"/>
+      <c r="E127" s="180"/>
       <c r="F127" s="44">
         <v>5</v>
       </c>
-      <c r="G127" s="150"/>
-      <c r="H127" s="169"/>
+      <c r="G127" s="144"/>
+      <c r="H127" s="179"/>
       <c r="I127" s="44">
         <v>7.8</v>
       </c>
@@ -12871,21 +13524,21 @@
         <v>43</v>
       </c>
       <c r="N127" s="44"/>
-      <c r="O127" s="169"/>
+      <c r="O127" s="179"/>
     </row>
     <row r="128" spans="1:15" ht="21">
       <c r="A128" s="44" t="s">
         <v>386</v>
       </c>
-      <c r="B128" s="169"/>
-      <c r="C128" s="169"/>
-      <c r="D128" s="169"/>
-      <c r="E128" s="172"/>
+      <c r="B128" s="179"/>
+      <c r="C128" s="179"/>
+      <c r="D128" s="179"/>
+      <c r="E128" s="180"/>
       <c r="F128" s="44">
         <v>6</v>
       </c>
-      <c r="G128" s="150"/>
-      <c r="H128" s="169"/>
+      <c r="G128" s="144"/>
+      <c r="H128" s="179"/>
       <c r="I128" s="44">
         <v>15.5</v>
       </c>
@@ -12902,21 +13555,21 @@
         <v>49</v>
       </c>
       <c r="N128" s="44"/>
-      <c r="O128" s="169"/>
+      <c r="O128" s="179"/>
     </row>
     <row r="129" spans="1:15" ht="21">
       <c r="A129" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="B129" s="170"/>
-      <c r="C129" s="170"/>
-      <c r="D129" s="170"/>
-      <c r="E129" s="173"/>
+      <c r="B129" s="174"/>
+      <c r="C129" s="174"/>
+      <c r="D129" s="174"/>
+      <c r="E129" s="178"/>
       <c r="F129" s="44">
         <v>7</v>
       </c>
-      <c r="G129" s="151"/>
-      <c r="H129" s="170"/>
+      <c r="G129" s="145"/>
+      <c r="H129" s="174"/>
       <c r="I129" s="44">
         <v>14.6</v>
       </c>
@@ -12933,7 +13586,7 @@
         <v>49</v>
       </c>
       <c r="N129" s="44"/>
-      <c r="O129" s="170"/>
+      <c r="O129" s="174"/>
     </row>
     <row r="130" spans="1:15" ht="22.5">
       <c r="A130" s="64"/>
@@ -13581,22 +14234,22 @@
       <c r="A149" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B149" s="165" t="s">
+      <c r="B149" s="166" t="s">
         <v>448</v>
       </c>
       <c r="C149" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="D149" s="165" t="s">
+      <c r="D149" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="E149" s="179">
+      <c r="E149" s="168">
         <v>45713</v>
       </c>
       <c r="F149" s="28">
         <v>1</v>
       </c>
-      <c r="G149" s="165" t="s">
+      <c r="G149" s="166" t="s">
         <v>25</v>
       </c>
       <c r="H149" s="28"/>
@@ -13616,7 +14269,7 @@
         <v>37</v>
       </c>
       <c r="N149" s="28"/>
-      <c r="O149" s="165" t="s">
+      <c r="O149" s="166" t="s">
         <v>26</v>
       </c>
     </row>
@@ -13629,7 +14282,7 @@
         <v>451</v>
       </c>
       <c r="D150" s="167"/>
-      <c r="E150" s="180"/>
+      <c r="E150" s="169"/>
       <c r="F150" s="28">
         <v>2</v>
       </c>
@@ -13682,25 +14335,25 @@
       <c r="A152" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="B152" s="165" t="s">
+      <c r="B152" s="166" t="s">
         <v>453</v>
       </c>
-      <c r="C152" s="165" t="s">
+      <c r="C152" s="166" t="s">
         <v>454</v>
       </c>
-      <c r="D152" s="165" t="s">
+      <c r="D152" s="166" t="s">
         <v>455</v>
       </c>
-      <c r="E152" s="179">
+      <c r="E152" s="168">
         <v>45713</v>
       </c>
       <c r="F152" s="28">
         <v>1</v>
       </c>
-      <c r="G152" s="165" t="s">
+      <c r="G152" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="H152" s="165">
+      <c r="H152" s="166">
         <v>120</v>
       </c>
       <c r="I152" s="28">
@@ -13719,7 +14372,7 @@
         <v>50</v>
       </c>
       <c r="N152" s="28"/>
-      <c r="O152" s="165" t="s">
+      <c r="O152" s="166" t="s">
         <v>26</v>
       </c>
     </row>
@@ -13727,15 +14380,15 @@
       <c r="A153" s="28" t="s">
         <v>456</v>
       </c>
-      <c r="B153" s="166"/>
-      <c r="C153" s="166"/>
-      <c r="D153" s="166"/>
-      <c r="E153" s="137"/>
+      <c r="B153" s="170"/>
+      <c r="C153" s="170"/>
+      <c r="D153" s="170"/>
+      <c r="E153" s="129"/>
       <c r="F153" s="28">
         <v>2</v>
       </c>
-      <c r="G153" s="166"/>
-      <c r="H153" s="166"/>
+      <c r="G153" s="170"/>
+      <c r="H153" s="170"/>
       <c r="I153" s="28">
         <v>19.5</v>
       </c>
@@ -13752,21 +14405,21 @@
         <v>50</v>
       </c>
       <c r="N153" s="28"/>
-      <c r="O153" s="166"/>
+      <c r="O153" s="170"/>
     </row>
     <row r="154" spans="1:15" ht="21">
       <c r="A154" s="28" t="s">
         <v>457</v>
       </c>
-      <c r="B154" s="166"/>
-      <c r="C154" s="166"/>
-      <c r="D154" s="166"/>
-      <c r="E154" s="137"/>
+      <c r="B154" s="170"/>
+      <c r="C154" s="170"/>
+      <c r="D154" s="170"/>
+      <c r="E154" s="129"/>
       <c r="F154" s="28">
         <v>3</v>
       </c>
-      <c r="G154" s="166"/>
-      <c r="H154" s="166"/>
+      <c r="G154" s="170"/>
+      <c r="H154" s="170"/>
       <c r="I154" s="28">
         <v>22</v>
       </c>
@@ -13783,21 +14436,21 @@
         <v>50</v>
       </c>
       <c r="N154" s="28"/>
-      <c r="O154" s="166"/>
+      <c r="O154" s="170"/>
     </row>
     <row r="155" spans="1:15" ht="21">
       <c r="A155" s="28" t="s">
         <v>458</v>
       </c>
-      <c r="B155" s="166"/>
-      <c r="C155" s="166"/>
-      <c r="D155" s="166"/>
-      <c r="E155" s="137"/>
+      <c r="B155" s="170"/>
+      <c r="C155" s="170"/>
+      <c r="D155" s="170"/>
+      <c r="E155" s="129"/>
       <c r="F155" s="28">
         <v>4</v>
       </c>
-      <c r="G155" s="166"/>
-      <c r="H155" s="166"/>
+      <c r="G155" s="170"/>
+      <c r="H155" s="170"/>
       <c r="I155" s="28">
         <v>21.2</v>
       </c>
@@ -13814,21 +14467,21 @@
         <v>50</v>
       </c>
       <c r="N155" s="28"/>
-      <c r="O155" s="166"/>
+      <c r="O155" s="170"/>
     </row>
     <row r="156" spans="1:15" ht="21">
       <c r="A156" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="B156" s="166"/>
-      <c r="C156" s="166"/>
-      <c r="D156" s="166"/>
-      <c r="E156" s="137"/>
+      <c r="B156" s="170"/>
+      <c r="C156" s="170"/>
+      <c r="D156" s="170"/>
+      <c r="E156" s="129"/>
       <c r="F156" s="28">
         <v>5</v>
       </c>
-      <c r="G156" s="166"/>
-      <c r="H156" s="166"/>
+      <c r="G156" s="170"/>
+      <c r="H156" s="170"/>
       <c r="I156" s="28">
         <v>19.600000000000001</v>
       </c>
@@ -13845,7 +14498,7 @@
         <v>50</v>
       </c>
       <c r="N156" s="28"/>
-      <c r="O156" s="166"/>
+      <c r="O156" s="170"/>
     </row>
     <row r="157" spans="1:15" ht="21">
       <c r="A157" s="28" t="s">
@@ -13854,7 +14507,7 @@
       <c r="B157" s="167"/>
       <c r="C157" s="167"/>
       <c r="D157" s="167"/>
-      <c r="E157" s="135"/>
+      <c r="E157" s="130"/>
       <c r="F157" s="28">
         <v>6</v>
       </c>
@@ -13914,7 +14567,7 @@
       <c r="D159" s="161" t="s">
         <v>192</v>
       </c>
-      <c r="E159" s="131">
+      <c r="E159" s="154">
         <v>45714</v>
       </c>
       <c r="F159" s="53">
@@ -13949,15 +14602,15 @@
       <c r="A160" s="53" t="s">
         <v>473</v>
       </c>
-      <c r="B160" s="164"/>
-      <c r="C160" s="164"/>
-      <c r="D160" s="164"/>
-      <c r="E160" s="132"/>
+      <c r="B160" s="162"/>
+      <c r="C160" s="162"/>
+      <c r="D160" s="162"/>
+      <c r="E160" s="155"/>
       <c r="F160" s="53">
         <v>2</v>
       </c>
-      <c r="G160" s="164"/>
-      <c r="H160" s="164"/>
+      <c r="G160" s="162"/>
+      <c r="H160" s="162"/>
       <c r="I160" s="53">
         <v>7.3</v>
       </c>
@@ -13975,21 +14628,21 @@
         <v>40</v>
       </c>
       <c r="N160" s="53"/>
-      <c r="O160" s="164"/>
+      <c r="O160" s="162"/>
     </row>
     <row r="161" spans="1:15" ht="21">
       <c r="A161" s="53" t="s">
         <v>474</v>
       </c>
-      <c r="B161" s="164"/>
-      <c r="C161" s="164"/>
-      <c r="D161" s="164"/>
-      <c r="E161" s="132"/>
+      <c r="B161" s="162"/>
+      <c r="C161" s="162"/>
+      <c r="D161" s="162"/>
+      <c r="E161" s="155"/>
       <c r="F161" s="53">
         <v>3</v>
       </c>
-      <c r="G161" s="164"/>
-      <c r="H161" s="164"/>
+      <c r="G161" s="162"/>
+      <c r="H161" s="162"/>
       <c r="I161" s="53">
         <v>7</v>
       </c>
@@ -14007,21 +14660,21 @@
         <v>40</v>
       </c>
       <c r="N161" s="53"/>
-      <c r="O161" s="164"/>
+      <c r="O161" s="162"/>
     </row>
     <row r="162" spans="1:15" ht="21">
       <c r="A162" s="53" t="s">
         <v>475</v>
       </c>
-      <c r="B162" s="164"/>
-      <c r="C162" s="164"/>
-      <c r="D162" s="164"/>
-      <c r="E162" s="132"/>
+      <c r="B162" s="162"/>
+      <c r="C162" s="162"/>
+      <c r="D162" s="162"/>
+      <c r="E162" s="155"/>
       <c r="F162" s="53">
         <v>4</v>
       </c>
-      <c r="G162" s="164"/>
-      <c r="H162" s="164"/>
+      <c r="G162" s="162"/>
+      <c r="H162" s="162"/>
       <c r="I162" s="53">
         <v>8.4</v>
       </c>
@@ -14039,21 +14692,21 @@
         <v>40</v>
       </c>
       <c r="N162" s="53"/>
-      <c r="O162" s="164"/>
+      <c r="O162" s="162"/>
     </row>
     <row r="163" spans="1:15" ht="21">
       <c r="A163" s="53" t="s">
         <v>476</v>
       </c>
-      <c r="B163" s="164"/>
-      <c r="C163" s="164"/>
-      <c r="D163" s="164"/>
-      <c r="E163" s="132"/>
+      <c r="B163" s="162"/>
+      <c r="C163" s="162"/>
+      <c r="D163" s="162"/>
+      <c r="E163" s="155"/>
       <c r="F163" s="53">
         <v>5</v>
       </c>
-      <c r="G163" s="164"/>
-      <c r="H163" s="164"/>
+      <c r="G163" s="162"/>
+      <c r="H163" s="162"/>
       <c r="I163" s="53">
         <v>6.7</v>
       </c>
@@ -14071,21 +14724,21 @@
         <v>40</v>
       </c>
       <c r="N163" s="53"/>
-      <c r="O163" s="164"/>
+      <c r="O163" s="162"/>
     </row>
     <row r="164" spans="1:15" ht="21">
       <c r="A164" s="53" t="s">
         <v>477</v>
       </c>
-      <c r="B164" s="164"/>
-      <c r="C164" s="164"/>
-      <c r="D164" s="164"/>
-      <c r="E164" s="132"/>
+      <c r="B164" s="162"/>
+      <c r="C164" s="162"/>
+      <c r="D164" s="162"/>
+      <c r="E164" s="155"/>
       <c r="F164" s="53">
         <v>6</v>
       </c>
-      <c r="G164" s="164"/>
-      <c r="H164" s="164"/>
+      <c r="G164" s="162"/>
+      <c r="H164" s="162"/>
       <c r="I164" s="53">
         <v>6.9</v>
       </c>
@@ -14103,21 +14756,21 @@
         <v>40</v>
       </c>
       <c r="N164" s="53"/>
-      <c r="O164" s="164"/>
+      <c r="O164" s="162"/>
     </row>
     <row r="165" spans="1:15" ht="21">
       <c r="A165" s="53" t="s">
         <v>478</v>
       </c>
-      <c r="B165" s="164"/>
-      <c r="C165" s="164"/>
-      <c r="D165" s="164"/>
-      <c r="E165" s="132"/>
+      <c r="B165" s="162"/>
+      <c r="C165" s="162"/>
+      <c r="D165" s="162"/>
+      <c r="E165" s="155"/>
       <c r="F165" s="53">
         <v>7</v>
       </c>
-      <c r="G165" s="164"/>
-      <c r="H165" s="164"/>
+      <c r="G165" s="162"/>
+      <c r="H165" s="162"/>
       <c r="I165" s="53">
         <v>5.8</v>
       </c>
@@ -14135,21 +14788,21 @@
         <v>40</v>
       </c>
       <c r="N165" s="53"/>
-      <c r="O165" s="164"/>
+      <c r="O165" s="162"/>
     </row>
     <row r="166" spans="1:15" ht="21">
       <c r="A166" s="53" t="s">
         <v>479</v>
       </c>
-      <c r="B166" s="162"/>
-      <c r="C166" s="162"/>
-      <c r="D166" s="162"/>
-      <c r="E166" s="133"/>
+      <c r="B166" s="163"/>
+      <c r="C166" s="163"/>
+      <c r="D166" s="163"/>
+      <c r="E166" s="156"/>
       <c r="F166" s="53">
         <v>8</v>
       </c>
-      <c r="G166" s="162"/>
-      <c r="H166" s="162"/>
+      <c r="G166" s="163"/>
+      <c r="H166" s="163"/>
       <c r="I166" s="53">
         <v>7.1</v>
       </c>
@@ -14167,7 +14820,7 @@
         <v>40</v>
       </c>
       <c r="N166" s="53"/>
-      <c r="O166" s="162"/>
+      <c r="O166" s="163"/>
     </row>
     <row r="167" spans="1:15" ht="22.5">
       <c r="A167" s="122"/>
@@ -14336,25 +14989,25 @@
       <c r="A172" s="76" t="s">
         <v>487</v>
       </c>
-      <c r="B172" s="146" t="s">
+      <c r="B172" s="142" t="s">
         <v>488</v>
       </c>
-      <c r="C172" s="146" t="s">
+      <c r="C172" s="142" t="s">
         <v>489</v>
       </c>
-      <c r="D172" s="146" t="s">
+      <c r="D172" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="E172" s="152">
+      <c r="E172" s="146">
         <v>45715</v>
       </c>
       <c r="F172" s="76">
         <v>1</v>
       </c>
-      <c r="G172" s="149" t="s">
+      <c r="G172" s="143" t="s">
         <v>490</v>
       </c>
-      <c r="H172" s="146">
+      <c r="H172" s="142">
         <v>604</v>
       </c>
       <c r="I172" s="76">
@@ -14373,7 +15026,7 @@
         <v>49</v>
       </c>
       <c r="N172" s="76"/>
-      <c r="O172" s="146" t="s">
+      <c r="O172" s="142" t="s">
         <v>491</v>
       </c>
     </row>
@@ -14381,15 +15034,15 @@
       <c r="A173" s="76" t="s">
         <v>492</v>
       </c>
-      <c r="B173" s="147"/>
-      <c r="C173" s="147"/>
-      <c r="D173" s="147"/>
-      <c r="E173" s="153"/>
+      <c r="B173" s="140"/>
+      <c r="C173" s="140"/>
+      <c r="D173" s="140"/>
+      <c r="E173" s="147"/>
       <c r="F173" s="76">
         <v>2</v>
       </c>
-      <c r="G173" s="147"/>
-      <c r="H173" s="147"/>
+      <c r="G173" s="140"/>
+      <c r="H173" s="140"/>
       <c r="I173" s="76">
         <v>14.2</v>
       </c>
@@ -14406,21 +15059,21 @@
         <v>49</v>
       </c>
       <c r="N173" s="76"/>
-      <c r="O173" s="147"/>
+      <c r="O173" s="140"/>
     </row>
     <row r="174" spans="1:15" ht="21">
       <c r="A174" s="76" t="s">
         <v>493</v>
       </c>
-      <c r="B174" s="147"/>
-      <c r="C174" s="147"/>
-      <c r="D174" s="147"/>
-      <c r="E174" s="153"/>
+      <c r="B174" s="140"/>
+      <c r="C174" s="140"/>
+      <c r="D174" s="140"/>
+      <c r="E174" s="147"/>
       <c r="F174" s="76">
         <v>3</v>
       </c>
-      <c r="G174" s="147"/>
-      <c r="H174" s="147"/>
+      <c r="G174" s="140"/>
+      <c r="H174" s="140"/>
       <c r="I174" s="76">
         <v>14.8</v>
       </c>
@@ -14437,21 +15090,21 @@
         <v>49</v>
       </c>
       <c r="N174" s="76"/>
-      <c r="O174" s="147"/>
+      <c r="O174" s="140"/>
     </row>
     <row r="175" spans="1:15" ht="21">
       <c r="A175" s="76" t="s">
         <v>494</v>
       </c>
-      <c r="B175" s="147"/>
-      <c r="C175" s="147"/>
-      <c r="D175" s="147"/>
-      <c r="E175" s="153"/>
+      <c r="B175" s="140"/>
+      <c r="C175" s="140"/>
+      <c r="D175" s="140"/>
+      <c r="E175" s="147"/>
       <c r="F175" s="76">
         <v>4</v>
       </c>
-      <c r="G175" s="147"/>
-      <c r="H175" s="147"/>
+      <c r="G175" s="140"/>
+      <c r="H175" s="140"/>
       <c r="I175" s="76">
         <v>16.7</v>
       </c>
@@ -14468,21 +15121,21 @@
         <v>49</v>
       </c>
       <c r="N175" s="76"/>
-      <c r="O175" s="147"/>
+      <c r="O175" s="140"/>
     </row>
     <row r="176" spans="1:15" ht="21">
       <c r="A176" s="76" t="s">
         <v>495</v>
       </c>
-      <c r="B176" s="147"/>
-      <c r="C176" s="147"/>
-      <c r="D176" s="147"/>
-      <c r="E176" s="153"/>
+      <c r="B176" s="140"/>
+      <c r="C176" s="140"/>
+      <c r="D176" s="140"/>
+      <c r="E176" s="147"/>
       <c r="F176" s="76">
         <v>5</v>
       </c>
-      <c r="G176" s="147"/>
-      <c r="H176" s="147"/>
+      <c r="G176" s="140"/>
+      <c r="H176" s="140"/>
       <c r="I176" s="76">
         <v>7.4</v>
       </c>
@@ -14499,21 +15152,21 @@
         <v>49</v>
       </c>
       <c r="N176" s="76"/>
-      <c r="O176" s="147"/>
+      <c r="O176" s="140"/>
     </row>
     <row r="177" spans="1:15" ht="21">
       <c r="A177" s="76" t="s">
         <v>338</v>
       </c>
-      <c r="B177" s="147"/>
-      <c r="C177" s="147"/>
-      <c r="D177" s="147"/>
-      <c r="E177" s="153"/>
+      <c r="B177" s="140"/>
+      <c r="C177" s="140"/>
+      <c r="D177" s="140"/>
+      <c r="E177" s="147"/>
       <c r="F177" s="76">
         <v>6</v>
       </c>
-      <c r="G177" s="147"/>
-      <c r="H177" s="147"/>
+      <c r="G177" s="140"/>
+      <c r="H177" s="140"/>
       <c r="I177" s="76">
         <v>5.9</v>
       </c>
@@ -14530,21 +15183,21 @@
         <v>49</v>
       </c>
       <c r="N177" s="76"/>
-      <c r="O177" s="147"/>
+      <c r="O177" s="140"/>
     </row>
     <row r="178" spans="1:15" ht="21">
       <c r="A178" s="76" t="s">
         <v>496</v>
       </c>
-      <c r="B178" s="148"/>
-      <c r="C178" s="148"/>
-      <c r="D178" s="148"/>
-      <c r="E178" s="154"/>
+      <c r="B178" s="141"/>
+      <c r="C178" s="141"/>
+      <c r="D178" s="141"/>
+      <c r="E178" s="148"/>
       <c r="F178" s="76">
         <v>7</v>
       </c>
-      <c r="G178" s="148"/>
-      <c r="H178" s="148"/>
+      <c r="G178" s="141"/>
+      <c r="H178" s="141"/>
       <c r="I178" s="76">
         <v>3.6</v>
       </c>
@@ -14561,7 +15214,7 @@
         <v>25</v>
       </c>
       <c r="N178" s="76"/>
-      <c r="O178" s="148"/>
+      <c r="O178" s="141"/>
     </row>
     <row r="179" spans="1:15" ht="22.5">
       <c r="A179" s="64"/>
@@ -14590,25 +15243,25 @@
       <c r="A180" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="B180" s="165" t="s">
+      <c r="B180" s="166" t="s">
         <v>498</v>
       </c>
-      <c r="C180" s="165" t="s">
+      <c r="C180" s="166" t="s">
         <v>499</v>
       </c>
-      <c r="D180" s="165" t="s">
+      <c r="D180" s="166" t="s">
         <v>192</v>
       </c>
-      <c r="E180" s="156">
+      <c r="E180" s="131">
         <v>45715</v>
       </c>
       <c r="F180" s="28">
         <v>1</v>
       </c>
-      <c r="G180" s="165" t="s">
+      <c r="G180" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="H180" s="165">
+      <c r="H180" s="166">
         <v>20</v>
       </c>
       <c r="I180" s="28">
@@ -14627,7 +15280,7 @@
         <v>40</v>
       </c>
       <c r="N180" s="28"/>
-      <c r="O180" s="165" t="s">
+      <c r="O180" s="166" t="s">
         <v>26</v>
       </c>
     </row>
@@ -14635,15 +15288,15 @@
       <c r="A181" s="28" t="s">
         <v>500</v>
       </c>
-      <c r="B181" s="166"/>
-      <c r="C181" s="166"/>
-      <c r="D181" s="166"/>
-      <c r="E181" s="160"/>
+      <c r="B181" s="170"/>
+      <c r="C181" s="170"/>
+      <c r="D181" s="170"/>
+      <c r="E181" s="132"/>
       <c r="F181" s="28">
         <v>2</v>
       </c>
-      <c r="G181" s="166"/>
-      <c r="H181" s="166"/>
+      <c r="G181" s="170"/>
+      <c r="H181" s="170"/>
       <c r="I181" s="28">
         <v>6.9</v>
       </c>
@@ -14660,7 +15313,7 @@
         <v>40</v>
       </c>
       <c r="N181" s="28"/>
-      <c r="O181" s="166"/>
+      <c r="O181" s="170"/>
     </row>
     <row r="182" spans="1:15" ht="21">
       <c r="A182" s="28" t="s">
@@ -14669,7 +15322,7 @@
       <c r="B182" s="167"/>
       <c r="C182" s="167"/>
       <c r="D182" s="167"/>
-      <c r="E182" s="157"/>
+      <c r="E182" s="133"/>
       <c r="F182" s="28">
         <v>3</v>
       </c>
@@ -14729,7 +15382,7 @@
       <c r="D184" s="161" t="s">
         <v>486</v>
       </c>
-      <c r="E184" s="131">
+      <c r="E184" s="154">
         <v>45716</v>
       </c>
       <c r="F184" s="53">
@@ -14766,16 +15419,16 @@
       <c r="A185" s="53" t="s">
         <v>505</v>
       </c>
-      <c r="B185" s="164"/>
+      <c r="B185" s="162"/>
       <c r="C185" s="53" t="s">
         <v>506</v>
       </c>
-      <c r="D185" s="164"/>
-      <c r="E185" s="132"/>
+      <c r="D185" s="162"/>
+      <c r="E185" s="155"/>
       <c r="F185" s="53">
         <v>2</v>
       </c>
-      <c r="G185" s="164"/>
+      <c r="G185" s="162"/>
       <c r="H185" s="53">
         <v>11</v>
       </c>
@@ -14796,22 +15449,22 @@
         <v>60</v>
       </c>
       <c r="N185" s="53"/>
-      <c r="O185" s="164"/>
+      <c r="O185" s="162"/>
     </row>
     <row r="186" spans="1:15" ht="21">
       <c r="A186" s="53" t="s">
         <v>507</v>
       </c>
-      <c r="B186" s="162"/>
+      <c r="B186" s="163"/>
       <c r="C186" s="53" t="s">
         <v>508</v>
       </c>
-      <c r="D186" s="162"/>
-      <c r="E186" s="133"/>
+      <c r="D186" s="163"/>
+      <c r="E186" s="156"/>
       <c r="F186" s="53">
         <v>3</v>
       </c>
-      <c r="G186" s="162"/>
+      <c r="G186" s="163"/>
       <c r="H186" s="53">
         <v>10</v>
       </c>
@@ -14832,7 +15485,7 @@
         <v>60</v>
       </c>
       <c r="N186" s="53"/>
-      <c r="O186" s="162"/>
+      <c r="O186" s="163"/>
     </row>
     <row r="187" spans="1:15" ht="22.5">
       <c r="A187" s="64"/>
@@ -14942,7 +15595,7 @@
       <c r="D190" s="161" t="s">
         <v>486</v>
       </c>
-      <c r="E190" s="131">
+      <c r="E190" s="154">
         <v>45717</v>
       </c>
       <c r="F190" s="53">
@@ -14978,16 +15631,16 @@
       <c r="A191" s="53" t="s">
         <v>515</v>
       </c>
-      <c r="B191" s="162"/>
+      <c r="B191" s="163"/>
       <c r="C191" s="53" t="s">
         <v>516</v>
       </c>
-      <c r="D191" s="162"/>
-      <c r="E191" s="133"/>
+      <c r="D191" s="163"/>
+      <c r="E191" s="156"/>
       <c r="F191" s="53">
         <v>2</v>
       </c>
-      <c r="G191" s="162"/>
+      <c r="G191" s="163"/>
       <c r="H191" s="53">
         <v>10</v>
       </c>
@@ -15007,7 +15660,7 @@
         <v>60</v>
       </c>
       <c r="N191" s="53"/>
-      <c r="O191" s="162"/>
+      <c r="O191" s="163"/>
     </row>
     <row r="192" spans="1:15" ht="22.5">
       <c r="A192" s="122"/>
@@ -15183,13 +15836,13 @@
       <c r="D197" s="161" t="s">
         <v>156</v>
       </c>
-      <c r="E197" s="131">
+      <c r="E197" s="154">
         <v>45719</v>
       </c>
       <c r="F197" s="53">
         <v>1</v>
       </c>
-      <c r="G197" s="163" t="s">
+      <c r="G197" s="164" t="s">
         <v>527</v>
       </c>
       <c r="H197" s="53">
@@ -15217,14 +15870,14 @@
       <c r="A198" s="53" t="s">
         <v>528</v>
       </c>
-      <c r="B198" s="162"/>
+      <c r="B198" s="163"/>
       <c r="C198" s="53"/>
-      <c r="D198" s="162"/>
-      <c r="E198" s="133"/>
+      <c r="D198" s="163"/>
+      <c r="E198" s="156"/>
       <c r="F198" s="53">
         <v>2</v>
       </c>
-      <c r="G198" s="162"/>
+      <c r="G198" s="163"/>
       <c r="H198" s="53">
         <v>100</v>
       </c>
@@ -15282,13 +15935,13 @@
       <c r="D200" s="161" t="s">
         <v>486</v>
       </c>
-      <c r="E200" s="131">
+      <c r="E200" s="154">
         <v>45720</v>
       </c>
       <c r="F200" s="53">
         <v>1</v>
       </c>
-      <c r="G200" s="163" t="s">
+      <c r="G200" s="164" t="s">
         <v>536</v>
       </c>
       <c r="H200" s="53">
@@ -15318,16 +15971,16 @@
       <c r="A201" s="53" t="s">
         <v>537</v>
       </c>
-      <c r="B201" s="162"/>
+      <c r="B201" s="163"/>
       <c r="C201" s="53" t="s">
         <v>538</v>
       </c>
-      <c r="D201" s="162"/>
-      <c r="E201" s="133"/>
+      <c r="D201" s="163"/>
+      <c r="E201" s="156"/>
       <c r="F201" s="53">
         <v>2</v>
       </c>
-      <c r="G201" s="181"/>
+      <c r="G201" s="165"/>
       <c r="H201" s="53">
         <v>12</v>
       </c>
@@ -15347,7 +16000,7 @@
         <v>59</v>
       </c>
       <c r="N201" s="53"/>
-      <c r="O201" s="162"/>
+      <c r="O201" s="163"/>
     </row>
     <row r="202" spans="1:15" ht="22.5">
       <c r="A202" s="64"/>
@@ -15440,43 +16093,326 @@
       <c r="N204" s="56"/>
       <c r="O204" s="56"/>
     </row>
+    <row r="205" spans="1:15" ht="21">
+      <c r="A205" s="53" t="s">
+        <v>542</v>
+      </c>
+      <c r="B205" s="53" t="s">
+        <v>543</v>
+      </c>
+      <c r="C205" s="53" t="s">
+        <v>544</v>
+      </c>
+      <c r="D205" s="53" t="s">
+        <v>486</v>
+      </c>
+      <c r="E205" s="42">
+        <v>45722</v>
+      </c>
+      <c r="F205" s="53">
+        <v>1</v>
+      </c>
+      <c r="G205" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H205" s="53">
+        <v>10</v>
+      </c>
+      <c r="I205" s="53">
+        <v>12.8</v>
+      </c>
+      <c r="J205" s="54">
+        <f>K205*L205*M205/1000000</f>
+        <v>0.108324</v>
+      </c>
+      <c r="K205" s="53">
+        <v>51</v>
+      </c>
+      <c r="L205" s="53">
+        <v>36</v>
+      </c>
+      <c r="M205" s="53">
+        <v>59</v>
+      </c>
+      <c r="N205" s="53"/>
+      <c r="O205" s="53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" ht="22.5">
+      <c r="A206" s="64"/>
+      <c r="B206" s="64"/>
+      <c r="C206" s="64"/>
+      <c r="D206" s="64"/>
+      <c r="E206" s="64"/>
+      <c r="F206" s="46">
+        <v>1</v>
+      </c>
+      <c r="G206" s="46"/>
+      <c r="H206" s="46"/>
+      <c r="I206" s="46">
+        <f>SUM(I205:I205)</f>
+        <v>12.8</v>
+      </c>
+      <c r="J206" s="49">
+        <f>SUM(J205:J205)</f>
+        <v>0.108324</v>
+      </c>
+      <c r="K206" s="46"/>
+      <c r="L206" s="46"/>
+      <c r="M206" s="46"/>
+      <c r="N206" s="56"/>
+      <c r="O206" s="56"/>
+    </row>
+    <row r="207" spans="1:15" ht="21">
+      <c r="A207" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="B207" s="161" t="s">
+        <v>545</v>
+      </c>
+      <c r="C207" s="161" t="s">
+        <v>546</v>
+      </c>
+      <c r="D207" s="161" t="s">
+        <v>39</v>
+      </c>
+      <c r="E207" s="154">
+        <v>45723</v>
+      </c>
+      <c r="F207" s="53">
+        <v>1</v>
+      </c>
+      <c r="G207" s="161" t="s">
+        <v>547</v>
+      </c>
+      <c r="H207" s="161"/>
+      <c r="I207" s="53">
+        <v>27.4</v>
+      </c>
+      <c r="J207" s="54">
+        <f>K207*L207*M207/1000000</f>
+        <v>3.7949999999999998E-2</v>
+      </c>
+      <c r="K207" s="53">
+        <v>50</v>
+      </c>
+      <c r="L207" s="53">
+        <v>33</v>
+      </c>
+      <c r="M207" s="53">
+        <v>23</v>
+      </c>
+      <c r="N207" s="53"/>
+      <c r="O207" s="53"/>
+    </row>
+    <row r="208" spans="1:15" ht="21">
+      <c r="A208" s="53" t="s">
+        <v>548</v>
+      </c>
+      <c r="B208" s="162"/>
+      <c r="C208" s="162"/>
+      <c r="D208" s="162"/>
+      <c r="E208" s="155"/>
+      <c r="F208" s="53">
+        <v>2</v>
+      </c>
+      <c r="G208" s="162"/>
+      <c r="H208" s="162"/>
+      <c r="I208" s="53">
+        <v>16.5</v>
+      </c>
+      <c r="J208" s="54">
+        <f>K208*L208*M208/1000000</f>
+        <v>3.7949999999999998E-2</v>
+      </c>
+      <c r="K208" s="53">
+        <v>50</v>
+      </c>
+      <c r="L208" s="53">
+        <v>33</v>
+      </c>
+      <c r="M208" s="53">
+        <v>23</v>
+      </c>
+      <c r="N208" s="53"/>
+      <c r="O208" s="53"/>
+    </row>
+    <row r="209" spans="1:15" ht="21">
+      <c r="A209" s="53" t="s">
+        <v>388</v>
+      </c>
+      <c r="B209" s="163"/>
+      <c r="C209" s="163"/>
+      <c r="D209" s="163"/>
+      <c r="E209" s="156"/>
+      <c r="F209" s="53">
+        <v>3</v>
+      </c>
+      <c r="G209" s="163"/>
+      <c r="H209" s="163"/>
+      <c r="I209" s="53">
+        <v>24.2</v>
+      </c>
+      <c r="J209" s="54">
+        <f>K209*L209*M209/1000000</f>
+        <v>3.7949999999999998E-2</v>
+      </c>
+      <c r="K209" s="53">
+        <v>50</v>
+      </c>
+      <c r="L209" s="53">
+        <v>33</v>
+      </c>
+      <c r="M209" s="53">
+        <v>23</v>
+      </c>
+      <c r="N209" s="53"/>
+      <c r="O209" s="53"/>
+    </row>
+    <row r="210" spans="1:15" ht="22.5">
+      <c r="A210" s="64"/>
+      <c r="B210" s="64"/>
+      <c r="C210" s="64"/>
+      <c r="D210" s="64"/>
+      <c r="E210" s="64"/>
+      <c r="F210" s="46">
+        <v>3</v>
+      </c>
+      <c r="G210" s="46"/>
+      <c r="H210" s="46"/>
+      <c r="I210" s="46">
+        <f>SUM(I207:I209)</f>
+        <v>68.099999999999994</v>
+      </c>
+      <c r="J210" s="49">
+        <f>SUM(J207:J209)</f>
+        <v>0.11384999999999999</v>
+      </c>
+      <c r="K210" s="46"/>
+      <c r="L210" s="46"/>
+      <c r="M210" s="46"/>
+      <c r="N210" s="56"/>
+      <c r="O210" s="56"/>
+    </row>
+    <row r="211" spans="1:15" ht="21">
+      <c r="A211" s="53" t="s">
+        <v>549</v>
+      </c>
+      <c r="B211" s="53" t="s">
+        <v>550</v>
+      </c>
+      <c r="C211" s="53">
+        <v>17347080229</v>
+      </c>
+      <c r="D211" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="E211" s="42">
+        <v>45726</v>
+      </c>
+      <c r="F211" s="53">
+        <v>1</v>
+      </c>
+      <c r="G211" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="H211" s="53"/>
+      <c r="I211" s="53">
+        <v>4.3</v>
+      </c>
+      <c r="J211" s="54">
+        <f>K211*L211*M211/1000000</f>
+        <v>3.8808000000000002E-2</v>
+      </c>
+      <c r="K211" s="53">
+        <v>42</v>
+      </c>
+      <c r="L211" s="53">
+        <v>33</v>
+      </c>
+      <c r="M211" s="53">
+        <v>28</v>
+      </c>
+      <c r="N211" s="53"/>
+      <c r="O211" s="53"/>
+    </row>
+    <row r="212" spans="1:15" ht="22.5">
+      <c r="A212" s="64"/>
+      <c r="B212" s="64"/>
+      <c r="C212" s="64"/>
+      <c r="D212" s="64"/>
+      <c r="E212" s="64"/>
+      <c r="F212" s="46">
+        <v>1</v>
+      </c>
+      <c r="G212" s="46"/>
+      <c r="H212" s="46"/>
+      <c r="I212" s="46">
+        <f>SUM(I211:I211)</f>
+        <v>4.3</v>
+      </c>
+      <c r="J212" s="49">
+        <f>SUM(J211:J211)</f>
+        <v>3.8808000000000002E-2</v>
+      </c>
+      <c r="K212" s="46"/>
+      <c r="L212" s="46"/>
+      <c r="M212" s="46"/>
+      <c r="N212" s="56"/>
+      <c r="O212" s="56"/>
+    </row>
   </sheetData>
-  <mergeCells count="114">
-    <mergeCell ref="H159:H166"/>
-    <mergeCell ref="O159:O166"/>
-    <mergeCell ref="B159:B166"/>
-    <mergeCell ref="C159:C166"/>
-    <mergeCell ref="D159:D166"/>
-    <mergeCell ref="E159:E166"/>
-    <mergeCell ref="G159:G166"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="G200:G201"/>
-    <mergeCell ref="O200:O201"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="O149:O150"/>
-    <mergeCell ref="H152:H157"/>
-    <mergeCell ref="O152:O157"/>
-    <mergeCell ref="B152:B157"/>
-    <mergeCell ref="C152:C157"/>
-    <mergeCell ref="D152:D157"/>
-    <mergeCell ref="E152:E157"/>
-    <mergeCell ref="G152:G157"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="G103:G106"/>
-    <mergeCell ref="O110:O111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="H110:H111"/>
+  <mergeCells count="120">
+    <mergeCell ref="B207:B209"/>
+    <mergeCell ref="C207:C209"/>
+    <mergeCell ref="D207:D209"/>
+    <mergeCell ref="E207:E209"/>
+    <mergeCell ref="G207:G209"/>
+    <mergeCell ref="H207:H209"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="O40:O42"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="D184:D186"/>
+    <mergeCell ref="E184:E186"/>
+    <mergeCell ref="G184:G186"/>
+    <mergeCell ref="O184:O186"/>
+    <mergeCell ref="H172:H178"/>
+    <mergeCell ref="O172:O178"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="C180:C182"/>
+    <mergeCell ref="D180:D182"/>
+    <mergeCell ref="E180:E182"/>
+    <mergeCell ref="G180:G182"/>
+    <mergeCell ref="H180:H182"/>
+    <mergeCell ref="O180:O182"/>
+    <mergeCell ref="B172:B178"/>
+    <mergeCell ref="C172:C178"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="H123:H129"/>
+    <mergeCell ref="O123:O129"/>
+    <mergeCell ref="B123:B129"/>
+    <mergeCell ref="C123:C129"/>
+    <mergeCell ref="D123:D129"/>
+    <mergeCell ref="E123:E129"/>
+    <mergeCell ref="G123:G129"/>
     <mergeCell ref="O53:O54"/>
     <mergeCell ref="I50:I51"/>
     <mergeCell ref="J50:J51"/>
@@ -15501,49 +16437,41 @@
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="H123:H129"/>
-    <mergeCell ref="O123:O129"/>
-    <mergeCell ref="B123:B129"/>
-    <mergeCell ref="C123:C129"/>
-    <mergeCell ref="D123:D129"/>
-    <mergeCell ref="E123:E129"/>
-    <mergeCell ref="G123:G129"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="O40:O42"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="D184:D186"/>
-    <mergeCell ref="E184:E186"/>
-    <mergeCell ref="G184:G186"/>
-    <mergeCell ref="O184:O186"/>
-    <mergeCell ref="H172:H178"/>
-    <mergeCell ref="O172:O178"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="C180:C182"/>
-    <mergeCell ref="D180:D182"/>
-    <mergeCell ref="E180:E182"/>
-    <mergeCell ref="G180:G182"/>
-    <mergeCell ref="H180:H182"/>
-    <mergeCell ref="O180:O182"/>
-    <mergeCell ref="B172:B178"/>
-    <mergeCell ref="C172:C178"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="G103:G106"/>
+    <mergeCell ref="O110:O111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="O149:O150"/>
+    <mergeCell ref="H152:H157"/>
+    <mergeCell ref="O152:O157"/>
+    <mergeCell ref="B152:B157"/>
+    <mergeCell ref="C152:C157"/>
+    <mergeCell ref="D152:D157"/>
+    <mergeCell ref="E152:E157"/>
+    <mergeCell ref="G152:G157"/>
+    <mergeCell ref="H159:H166"/>
+    <mergeCell ref="O159:O166"/>
+    <mergeCell ref="B159:B166"/>
+    <mergeCell ref="C159:C166"/>
+    <mergeCell ref="D159:D166"/>
+    <mergeCell ref="E159:E166"/>
+    <mergeCell ref="G159:G166"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="G200:G201"/>
+    <mergeCell ref="O200:O201"/>
     <mergeCell ref="D172:D178"/>
     <mergeCell ref="E172:E178"/>
     <mergeCell ref="G172:G178"/>
@@ -15563,11 +16491,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7700874C-43FE-4C20-8201-C5970C6B69F4}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15647,11 +16575,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="144" t="s">
+      <c r="K2" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -15663,10 +16591,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="145"/>
+      <c r="B3" s="150"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -15731,12 +16659,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.5">
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="134" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="140"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="136"/>
       <c r="F6" s="71" t="s">
         <v>267</v>
       </c>
@@ -15806,12 +16734,12 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="22.5">
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="134" t="s">
         <v>220</v>
       </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="140"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="136"/>
       <c r="F8" s="89" t="s">
         <v>267</v>
       </c>
@@ -15881,12 +16809,12 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="22.5">
-      <c r="B10" s="138" t="s">
+      <c r="B10" s="134" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="140"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="136"/>
       <c r="F10" s="71" t="s">
         <v>239</v>
       </c>
@@ -15956,12 +16884,12 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="22.5">
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="134" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="140"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="136"/>
       <c r="F12" s="71" t="s">
         <v>267</v>
       </c>
@@ -15983,14 +16911,14 @@
       <c r="P12" s="74"/>
     </row>
     <row r="13" spans="1:16" ht="42">
-      <c r="B13" s="134" t="s">
+      <c r="B13" s="128" t="s">
         <v>299</v>
       </c>
       <c r="C13" s="38"/>
-      <c r="D13" s="134" t="s">
+      <c r="D13" s="128" t="s">
         <v>263</v>
       </c>
-      <c r="E13" s="156">
+      <c r="E13" s="131">
         <v>45671</v>
       </c>
       <c r="F13" s="68" t="s">
@@ -16031,10 +16959,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="21">
-      <c r="B14" s="135"/>
+      <c r="B14" s="130"/>
       <c r="C14" s="38"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="157"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="133"/>
       <c r="F14" s="68" t="s">
         <v>301</v>
       </c>
@@ -16065,12 +16993,12 @@
       <c r="P14" s="38"/>
     </row>
     <row r="15" spans="1:16" ht="22.5">
-      <c r="B15" s="130" t="s">
+      <c r="B15" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
       <c r="F15" s="71" t="s">
         <v>301</v>
       </c>
@@ -16137,12 +17065,12 @@
       <c r="P16" s="41"/>
     </row>
     <row r="17" spans="2:16" ht="22.5">
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
       <c r="F17" s="102" t="s">
         <v>423</v>
       </c>
@@ -16207,12 +17135,12 @@
       <c r="P18" s="38"/>
     </row>
     <row r="19" spans="2:16" ht="22.5">
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
       <c r="F19" s="71" t="s">
         <v>239</v>
       </c>
@@ -16231,8 +17159,79 @@
       <c r="O19" s="74"/>
       <c r="P19" s="74"/>
     </row>
+    <row r="20" spans="2:16" ht="21">
+      <c r="B20" s="41" t="s">
+        <v>557</v>
+      </c>
+      <c r="C20" s="41">
+        <v>15615700991</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="E20" s="42">
+        <v>45723</v>
+      </c>
+      <c r="F20" s="100" t="s">
+        <v>558</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="H20" s="41">
+        <v>7500</v>
+      </c>
+      <c r="I20" s="41">
+        <v>6250</v>
+      </c>
+      <c r="J20" s="182">
+        <v>10.200000000000001</v>
+      </c>
+      <c r="K20" s="41">
+        <v>40</v>
+      </c>
+      <c r="L20" s="41">
+        <v>34</v>
+      </c>
+      <c r="M20" s="41">
+        <v>30</v>
+      </c>
+      <c r="N20" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="O20" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="P20" s="41"/>
+    </row>
+    <row r="21" spans="2:16" ht="22.5">
+      <c r="B21" s="127" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="102" t="s">
+        <v>559</v>
+      </c>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103">
+        <v>6250</v>
+      </c>
+      <c r="J21" s="183">
+        <v>10.200000000000001</v>
+      </c>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B17:E17"/>

--- a/Customer/Cust 2025/Cargo W99 2025.xlsx
+++ b/Customer/Cust 2025/Cargo W99 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Customer\Cust 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FC0598-83A8-4446-8426-A81D7DA35263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0294C5BC-B7C1-4B58-A20A-42E2DB5AAD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E000C531-AA46-4CF4-8BD7-2185A135A010}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E000C531-AA46-4CF4-8BD7-2185A135A010}"/>
   </bookViews>
   <sheets>
     <sheet name="SEA" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="580">
   <si>
     <t>Hijau barang terkirim, Lunas, beres</t>
   </si>
@@ -4277,6 +4277,12 @@
   </si>
   <si>
     <t>双轴动踝Double axis ankle</t>
+  </si>
+  <si>
+    <t>S0086450</t>
+  </si>
+  <si>
+    <t>279/W99/ROBIN/SEA</t>
   </si>
 </sst>
 </file>
@@ -4931,16 +4937,91 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4952,87 +5033,42 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5042,16 +5078,31 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5060,52 +5111,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5424,11 +5430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03568550-BD00-482C-9F46-E2F5DB6F38F1}">
-  <dimension ref="A1:P105"/>
+  <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B95" sqref="B95:P96"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5508,11 +5514,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="149" t="s">
+      <c r="K2" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -5524,10 +5530,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="150"/>
+      <c r="B3" s="160"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -5589,12 +5595,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.5">
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
       <c r="F6" s="71" t="s">
         <v>221</v>
       </c>
@@ -5614,16 +5620,16 @@
       <c r="P6" s="74"/>
     </row>
     <row r="7" spans="1:16" ht="37.5">
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="161" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="143" t="s">
+      <c r="C7" s="164" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="142" t="s">
+      <c r="D7" s="161" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="146">
+      <c r="E7" s="167">
         <v>45659</v>
       </c>
       <c r="F7" s="75" t="s">
@@ -5635,7 +5641,7 @@
       <c r="H7" s="76">
         <v>1</v>
       </c>
-      <c r="I7" s="142">
+      <c r="I7" s="161">
         <v>255</v>
       </c>
       <c r="J7" s="77">
@@ -5650,21 +5656,21 @@
       <c r="M7" s="76">
         <v>62</v>
       </c>
-      <c r="N7" s="139">
+      <c r="N7" s="170">
         <v>45663</v>
       </c>
-      <c r="O7" s="139">
+      <c r="O7" s="170">
         <v>45705</v>
       </c>
-      <c r="P7" s="142" t="s">
+      <c r="P7" s="161" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="21">
-      <c r="B8" s="140"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="147"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="168"/>
       <c r="F8" s="75" t="s">
         <v>228</v>
       </c>
@@ -5674,7 +5680,7 @@
       <c r="H8" s="76">
         <v>1</v>
       </c>
-      <c r="I8" s="140"/>
+      <c r="I8" s="162"/>
       <c r="J8" s="77">
         <v>0.54978000000000005</v>
       </c>
@@ -5687,15 +5693,15 @@
       <c r="M8" s="76">
         <v>77</v>
       </c>
-      <c r="N8" s="140"/>
-      <c r="O8" s="140"/>
-      <c r="P8" s="140"/>
+      <c r="N8" s="162"/>
+      <c r="O8" s="162"/>
+      <c r="P8" s="162"/>
     </row>
     <row r="9" spans="1:16" ht="37.5">
-      <c r="B9" s="140"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="147"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="168"/>
       <c r="F9" s="75" t="s">
         <v>230</v>
       </c>
@@ -5705,7 +5711,7 @@
       <c r="H9" s="76">
         <v>1</v>
       </c>
-      <c r="I9" s="140"/>
+      <c r="I9" s="162"/>
       <c r="J9" s="77">
         <v>0.51480000000000004</v>
       </c>
@@ -5718,15 +5724,15 @@
       <c r="M9" s="76">
         <v>65</v>
       </c>
-      <c r="N9" s="140"/>
-      <c r="O9" s="140"/>
-      <c r="P9" s="140"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="162"/>
+      <c r="P9" s="162"/>
     </row>
     <row r="10" spans="1:16" ht="56.25">
-      <c r="B10" s="141"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="148"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="169"/>
       <c r="F10" s="75" t="s">
         <v>232</v>
       </c>
@@ -5736,7 +5742,7 @@
       <c r="H10" s="76">
         <v>1</v>
       </c>
-      <c r="I10" s="141"/>
+      <c r="I10" s="163"/>
       <c r="J10" s="77">
         <v>7.3800000000000004E-2</v>
       </c>
@@ -5749,17 +5755,17 @@
       <c r="M10" s="76">
         <v>18</v>
       </c>
-      <c r="N10" s="141"/>
-      <c r="O10" s="141"/>
-      <c r="P10" s="141"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="163"/>
     </row>
     <row r="11" spans="1:16" ht="22.5">
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
       <c r="F11" s="71" t="s">
         <v>232</v>
       </c>
@@ -5829,12 +5835,12 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="22.5">
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
       <c r="F13" s="71" t="s">
         <v>239</v>
       </c>
@@ -5906,12 +5912,12 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="22.5">
-      <c r="B15" s="127" t="s">
+      <c r="B15" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
       <c r="F15" s="71" t="s">
         <v>242</v>
       </c>
@@ -5980,12 +5986,12 @@
       </c>
     </row>
     <row r="17" spans="2:16" ht="22.5">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
       <c r="F17" s="71" t="s">
         <v>246</v>
       </c>
@@ -6050,12 +6056,12 @@
       </c>
     </row>
     <row r="19" spans="2:16" ht="22.5">
-      <c r="B19" s="127" t="s">
+      <c r="B19" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
       <c r="F19" s="71" t="s">
         <v>252</v>
       </c>
@@ -6123,12 +6129,12 @@
       </c>
     </row>
     <row r="21" spans="2:16" ht="22.5">
-      <c r="B21" s="127" t="s">
+      <c r="B21" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
       <c r="F21" s="71" t="s">
         <v>255</v>
       </c>
@@ -6197,12 +6203,12 @@
       </c>
     </row>
     <row r="23" spans="2:16" ht="22.5">
-      <c r="B23" s="127" t="s">
+      <c r="B23" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
       <c r="F23" s="71" t="s">
         <v>232</v>
       </c>
@@ -6270,12 +6276,12 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="22.5">
-      <c r="B25" s="134" t="s">
+      <c r="B25" s="148" t="s">
         <v>220</v>
       </c>
-      <c r="C25" s="135"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="136"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="150"/>
       <c r="F25" s="71" t="s">
         <v>267</v>
       </c>
@@ -6345,12 +6351,12 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="22.5">
-      <c r="B27" s="134" t="s">
+      <c r="B27" s="148" t="s">
         <v>220</v>
       </c>
-      <c r="C27" s="135"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="136"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="150"/>
       <c r="F27" s="89" t="s">
         <v>267</v>
       </c>
@@ -6420,12 +6426,12 @@
       </c>
     </row>
     <row r="29" spans="2:16" ht="22.5">
-      <c r="B29" s="134" t="s">
+      <c r="B29" s="148" t="s">
         <v>220</v>
       </c>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="136"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="150"/>
       <c r="F29" s="71" t="s">
         <v>239</v>
       </c>
@@ -6495,12 +6501,12 @@
       </c>
     </row>
     <row r="31" spans="2:16" ht="22.5">
-      <c r="B31" s="134" t="s">
+      <c r="B31" s="148" t="s">
         <v>220</v>
       </c>
-      <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="136"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="150"/>
       <c r="F31" s="71" t="s">
         <v>267</v>
       </c>
@@ -6522,28 +6528,28 @@
       <c r="P31" s="74"/>
     </row>
     <row r="32" spans="2:16" ht="21">
-      <c r="B32" s="142" t="s">
+      <c r="B32" s="161" t="s">
         <v>275</v>
       </c>
-      <c r="C32" s="143" t="s">
+      <c r="C32" s="164" t="s">
         <v>276</v>
       </c>
-      <c r="D32" s="142" t="s">
+      <c r="D32" s="161" t="s">
         <v>277</v>
       </c>
-      <c r="E32" s="146">
+      <c r="E32" s="167">
         <v>45668</v>
       </c>
       <c r="F32" s="75" t="s">
         <v>278</v>
       </c>
-      <c r="G32" s="143" t="s">
+      <c r="G32" s="164" t="s">
         <v>279</v>
       </c>
       <c r="H32" s="76">
         <v>385</v>
       </c>
-      <c r="I32" s="142">
+      <c r="I32" s="161">
         <v>1451</v>
       </c>
       <c r="J32" s="77">
@@ -6558,29 +6564,29 @@
       <c r="M32" s="76">
         <v>30</v>
       </c>
-      <c r="N32" s="139">
+      <c r="N32" s="170">
         <v>45671</v>
       </c>
-      <c r="O32" s="139">
+      <c r="O32" s="170">
         <v>45714</v>
       </c>
-      <c r="P32" s="142" t="s">
+      <c r="P32" s="161" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="21">
-      <c r="B33" s="140"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="147"/>
+      <c r="B33" s="162"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="162"/>
+      <c r="E33" s="168"/>
       <c r="F33" s="75" t="s">
         <v>281</v>
       </c>
-      <c r="G33" s="145"/>
+      <c r="G33" s="166"/>
       <c r="H33" s="76">
         <v>36</v>
       </c>
-      <c r="I33" s="140"/>
+      <c r="I33" s="162"/>
       <c r="J33" s="77">
         <v>0.29759999999999998</v>
       </c>
@@ -6593,15 +6599,15 @@
       <c r="M33" s="76">
         <v>20</v>
       </c>
-      <c r="N33" s="140"/>
-      <c r="O33" s="140"/>
-      <c r="P33" s="140"/>
+      <c r="N33" s="162"/>
+      <c r="O33" s="162"/>
+      <c r="P33" s="162"/>
     </row>
     <row r="34" spans="2:16" ht="21">
-      <c r="B34" s="140"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="147"/>
+      <c r="B34" s="162"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="162"/>
+      <c r="E34" s="168"/>
       <c r="F34" s="75" t="s">
         <v>282</v>
       </c>
@@ -6611,7 +6617,7 @@
       <c r="H34" s="76">
         <v>26</v>
       </c>
-      <c r="I34" s="140"/>
+      <c r="I34" s="162"/>
       <c r="J34" s="77">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -6624,15 +6630,15 @@
       <c r="M34" s="76">
         <v>33</v>
       </c>
-      <c r="N34" s="140"/>
-      <c r="O34" s="140"/>
-      <c r="P34" s="140"/>
+      <c r="N34" s="162"/>
+      <c r="O34" s="162"/>
+      <c r="P34" s="162"/>
     </row>
     <row r="35" spans="2:16" ht="21">
-      <c r="B35" s="140"/>
-      <c r="C35" s="144"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="147"/>
+      <c r="B35" s="162"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="162"/>
+      <c r="E35" s="168"/>
       <c r="F35" s="75" t="s">
         <v>284</v>
       </c>
@@ -6642,7 +6648,7 @@
       <c r="H35" s="76">
         <v>121</v>
       </c>
-      <c r="I35" s="140"/>
+      <c r="I35" s="162"/>
       <c r="J35" s="77">
         <v>3.456E-2</v>
       </c>
@@ -6655,15 +6661,15 @@
       <c r="M35" s="76">
         <v>24</v>
       </c>
-      <c r="N35" s="140"/>
-      <c r="O35" s="140"/>
-      <c r="P35" s="140"/>
+      <c r="N35" s="162"/>
+      <c r="O35" s="162"/>
+      <c r="P35" s="162"/>
     </row>
     <row r="36" spans="2:16" ht="37.5">
-      <c r="B36" s="140"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="147"/>
+      <c r="B36" s="162"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="162"/>
+      <c r="E36" s="168"/>
       <c r="F36" s="75" t="s">
         <v>286</v>
       </c>
@@ -6673,7 +6679,7 @@
       <c r="H36" s="76">
         <v>24</v>
       </c>
-      <c r="I36" s="140"/>
+      <c r="I36" s="162"/>
       <c r="J36" s="77">
         <v>7.4880000000000002E-2</v>
       </c>
@@ -6686,15 +6692,15 @@
       <c r="M36" s="76">
         <v>15</v>
       </c>
-      <c r="N36" s="140"/>
-      <c r="O36" s="140"/>
-      <c r="P36" s="140"/>
+      <c r="N36" s="162"/>
+      <c r="O36" s="162"/>
+      <c r="P36" s="162"/>
     </row>
     <row r="37" spans="2:16" ht="21">
-      <c r="B37" s="141"/>
-      <c r="C37" s="145"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="148"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="166"/>
+      <c r="D37" s="163"/>
+      <c r="E37" s="169"/>
       <c r="F37" s="75" t="s">
         <v>287</v>
       </c>
@@ -6704,7 +6710,7 @@
       <c r="H37" s="76">
         <v>150</v>
       </c>
-      <c r="I37" s="141"/>
+      <c r="I37" s="163"/>
       <c r="J37" s="77">
         <v>1.512</v>
       </c>
@@ -6717,17 +6723,17 @@
       <c r="M37" s="76">
         <v>30</v>
       </c>
-      <c r="N37" s="141"/>
-      <c r="O37" s="141"/>
-      <c r="P37" s="141"/>
+      <c r="N37" s="163"/>
+      <c r="O37" s="163"/>
+      <c r="P37" s="163"/>
     </row>
     <row r="38" spans="2:16" ht="22.5">
-      <c r="B38" s="127" t="s">
+      <c r="B38" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C38" s="127"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="127"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="130"/>
       <c r="F38" s="71" t="s">
         <v>288</v>
       </c>
@@ -6747,28 +6753,28 @@
       <c r="P38" s="79"/>
     </row>
     <row r="39" spans="2:16" ht="21">
-      <c r="B39" s="142" t="s">
+      <c r="B39" s="161" t="s">
         <v>289</v>
       </c>
-      <c r="C39" s="143" t="s">
+      <c r="C39" s="164" t="s">
         <v>290</v>
       </c>
-      <c r="D39" s="142" t="s">
+      <c r="D39" s="161" t="s">
         <v>291</v>
       </c>
-      <c r="E39" s="146">
+      <c r="E39" s="167">
         <v>45668</v>
       </c>
       <c r="F39" s="75" t="s">
         <v>292</v>
       </c>
-      <c r="G39" s="143" t="s">
+      <c r="G39" s="164" t="s">
         <v>293</v>
       </c>
       <c r="H39" s="76">
         <v>300</v>
       </c>
-      <c r="I39" s="142">
+      <c r="I39" s="161">
         <v>680</v>
       </c>
       <c r="J39" s="77">
@@ -6783,29 +6789,29 @@
       <c r="M39" s="76">
         <v>24</v>
       </c>
-      <c r="N39" s="139">
+      <c r="N39" s="170">
         <v>45671</v>
       </c>
-      <c r="O39" s="139">
+      <c r="O39" s="170">
         <v>45714</v>
       </c>
-      <c r="P39" s="142" t="s">
+      <c r="P39" s="161" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="21">
-      <c r="B40" s="140"/>
-      <c r="C40" s="144"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="147"/>
+      <c r="B40" s="162"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="162"/>
+      <c r="E40" s="168"/>
       <c r="F40" s="75" t="s">
         <v>295</v>
       </c>
-      <c r="G40" s="140"/>
+      <c r="G40" s="162"/>
       <c r="H40" s="76">
         <v>80</v>
       </c>
-      <c r="I40" s="140"/>
+      <c r="I40" s="162"/>
       <c r="J40" s="77">
         <v>0.189</v>
       </c>
@@ -6818,23 +6824,23 @@
       <c r="M40" s="76">
         <v>30</v>
       </c>
-      <c r="N40" s="140"/>
-      <c r="O40" s="140"/>
-      <c r="P40" s="140"/>
+      <c r="N40" s="162"/>
+      <c r="O40" s="162"/>
+      <c r="P40" s="162"/>
     </row>
     <row r="41" spans="2:16" ht="21">
-      <c r="B41" s="141"/>
-      <c r="C41" s="145"/>
-      <c r="D41" s="141"/>
-      <c r="E41" s="148"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="166"/>
+      <c r="D41" s="163"/>
+      <c r="E41" s="169"/>
       <c r="F41" s="75" t="s">
         <v>296</v>
       </c>
-      <c r="G41" s="141"/>
+      <c r="G41" s="163"/>
       <c r="H41" s="76">
         <v>5100</v>
       </c>
-      <c r="I41" s="141"/>
+      <c r="I41" s="163"/>
       <c r="J41" s="77">
         <v>2.7820800000000001</v>
       </c>
@@ -6847,17 +6853,17 @@
       <c r="M41" s="76">
         <v>28</v>
       </c>
-      <c r="N41" s="141"/>
-      <c r="O41" s="141"/>
-      <c r="P41" s="141"/>
+      <c r="N41" s="163"/>
+      <c r="O41" s="163"/>
+      <c r="P41" s="163"/>
     </row>
     <row r="42" spans="2:16" ht="22.5">
-      <c r="B42" s="127" t="s">
+      <c r="B42" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C42" s="127"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="127"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="130"/>
       <c r="F42" s="71" t="s">
         <v>282</v>
       </c>
@@ -6922,12 +6928,12 @@
       <c r="P43" s="76"/>
     </row>
     <row r="44" spans="2:16" ht="22.5">
-      <c r="B44" s="127" t="s">
+      <c r="B44" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C44" s="127"/>
-      <c r="D44" s="127"/>
-      <c r="E44" s="127"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130"/>
       <c r="F44" s="71" t="s">
         <v>298</v>
       </c>
@@ -6947,14 +6953,14 @@
       <c r="P44" s="79"/>
     </row>
     <row r="45" spans="2:16" ht="42">
-      <c r="B45" s="128" t="s">
+      <c r="B45" s="144" t="s">
         <v>299</v>
       </c>
       <c r="C45" s="38"/>
-      <c r="D45" s="128" t="s">
+      <c r="D45" s="144" t="s">
         <v>263</v>
       </c>
-      <c r="E45" s="131">
+      <c r="E45" s="156">
         <v>45671</v>
       </c>
       <c r="F45" s="68" t="s">
@@ -6995,10 +7001,10 @@
       </c>
     </row>
     <row r="46" spans="2:16" ht="21">
-      <c r="B46" s="130"/>
+      <c r="B46" s="145"/>
       <c r="C46" s="38"/>
-      <c r="D46" s="130"/>
-      <c r="E46" s="133"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="158"/>
       <c r="F46" s="68" t="s">
         <v>301</v>
       </c>
@@ -7029,12 +7035,12 @@
       <c r="P46" s="38"/>
     </row>
     <row r="47" spans="2:16" ht="22.5">
-      <c r="B47" s="127" t="s">
+      <c r="B47" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C47" s="127"/>
-      <c r="D47" s="127"/>
-      <c r="E47" s="127"/>
+      <c r="C47" s="130"/>
+      <c r="D47" s="130"/>
+      <c r="E47" s="130"/>
       <c r="F47" s="71" t="s">
         <v>301</v>
       </c>
@@ -7103,12 +7109,12 @@
       </c>
     </row>
     <row r="49" spans="2:16" ht="22.5">
-      <c r="B49" s="127" t="s">
+      <c r="B49" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="127"/>
+      <c r="C49" s="130"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="130"/>
       <c r="F49" s="71" t="s">
         <v>225</v>
       </c>
@@ -7176,12 +7182,12 @@
       </c>
     </row>
     <row r="51" spans="2:16" ht="22.5">
-      <c r="B51" s="134" t="s">
+      <c r="B51" s="148" t="s">
         <v>220</v>
       </c>
-      <c r="C51" s="135"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="136"/>
+      <c r="C51" s="149"/>
+      <c r="D51" s="149"/>
+      <c r="E51" s="150"/>
       <c r="F51" s="71" t="s">
         <v>225</v>
       </c>
@@ -7203,29 +7209,29 @@
       <c r="P51" s="79"/>
     </row>
     <row r="52" spans="2:16" ht="21" customHeight="1">
-      <c r="B52" s="128" t="s">
+      <c r="B52" s="144" t="s">
         <v>310</v>
       </c>
-      <c r="C52" s="128" t="s">
+      <c r="C52" s="144" t="s">
         <v>311</v>
       </c>
-      <c r="D52" s="128" t="s">
+      <c r="D52" s="144" t="s">
         <v>217</v>
       </c>
-      <c r="E52" s="131">
+      <c r="E52" s="156">
         <v>45676</v>
       </c>
       <c r="F52" s="68" t="s">
         <v>312</v>
       </c>
-      <c r="G52" s="128" t="s">
+      <c r="G52" s="144" t="s">
         <v>237</v>
       </c>
       <c r="H52" s="38">
         <f>35*28</f>
         <v>980</v>
       </c>
-      <c r="I52" s="128">
+      <c r="I52" s="144">
         <f>25*52</f>
         <v>1300</v>
       </c>
@@ -7242,30 +7248,30 @@
       <c r="M52" s="38">
         <v>29</v>
       </c>
-      <c r="N52" s="137">
+      <c r="N52" s="146">
         <v>45679</v>
       </c>
-      <c r="O52" s="137">
+      <c r="O52" s="146">
         <v>45716</v>
       </c>
-      <c r="P52" s="128" t="s">
+      <c r="P52" s="144" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="21">
-      <c r="B53" s="130"/>
-      <c r="C53" s="130"/>
-      <c r="D53" s="130"/>
-      <c r="E53" s="133"/>
+      <c r="B53" s="145"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="158"/>
       <c r="F53" s="68" t="s">
         <v>313</v>
       </c>
-      <c r="G53" s="130"/>
+      <c r="G53" s="145"/>
       <c r="H53" s="38">
         <f>35*24</f>
         <v>840</v>
       </c>
-      <c r="I53" s="130"/>
+      <c r="I53" s="145"/>
       <c r="J53" s="69">
         <f>K53*L53*M53/1000000*24</f>
         <v>2.3353920000000001</v>
@@ -7279,17 +7285,17 @@
       <c r="M53" s="38">
         <v>36</v>
       </c>
-      <c r="N53" s="138"/>
-      <c r="O53" s="138"/>
-      <c r="P53" s="130"/>
+      <c r="N53" s="154"/>
+      <c r="O53" s="154"/>
+      <c r="P53" s="145"/>
     </row>
     <row r="54" spans="2:16" ht="22.5">
-      <c r="B54" s="134" t="s">
+      <c r="B54" s="148" t="s">
         <v>220</v>
       </c>
-      <c r="C54" s="135"/>
-      <c r="D54" s="135"/>
-      <c r="E54" s="136"/>
+      <c r="C54" s="149"/>
+      <c r="D54" s="149"/>
+      <c r="E54" s="150"/>
       <c r="F54" s="71" t="s">
         <v>314</v>
       </c>
@@ -7311,27 +7317,27 @@
       <c r="P54" s="74"/>
     </row>
     <row r="55" spans="2:16" ht="21" customHeight="1">
-      <c r="B55" s="151" t="s">
+      <c r="B55" s="131" t="s">
         <v>315</v>
       </c>
-      <c r="C55" s="151"/>
-      <c r="D55" s="151" t="s">
+      <c r="C55" s="131"/>
+      <c r="D55" s="131" t="s">
         <v>217</v>
       </c>
-      <c r="E55" s="154">
+      <c r="E55" s="140">
         <v>45677</v>
       </c>
       <c r="F55" s="100" t="s">
         <v>316</v>
       </c>
-      <c r="G55" s="151" t="s">
+      <c r="G55" s="131" t="s">
         <v>237</v>
       </c>
       <c r="H55" s="41">
         <f>50*20+60*32+40</f>
         <v>2960</v>
       </c>
-      <c r="I55" s="151">
+      <c r="I55" s="131">
         <f>25*169</f>
         <v>4225</v>
       </c>
@@ -7348,30 +7354,30 @@
       <c r="M55" s="41">
         <v>40</v>
       </c>
-      <c r="N55" s="157">
+      <c r="N55" s="151">
         <v>45680</v>
       </c>
-      <c r="O55" s="157">
+      <c r="O55" s="151">
         <v>45716</v>
       </c>
-      <c r="P55" s="151" t="s">
+      <c r="P55" s="131" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="56" spans="2:16" ht="21">
-      <c r="B56" s="152"/>
-      <c r="C56" s="152"/>
-      <c r="D56" s="152"/>
-      <c r="E56" s="155"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="142"/>
+      <c r="D56" s="142"/>
+      <c r="E56" s="143"/>
       <c r="F56" s="100" t="s">
         <v>317</v>
       </c>
-      <c r="G56" s="152"/>
+      <c r="G56" s="142"/>
       <c r="H56" s="41">
         <f>40*16</f>
         <v>640</v>
       </c>
-      <c r="I56" s="152"/>
+      <c r="I56" s="142"/>
       <c r="J56" s="101">
         <f>K56*L56*M56/1000000*16</f>
         <v>1.66656</v>
@@ -7385,24 +7391,24 @@
       <c r="M56" s="41">
         <v>28</v>
       </c>
-      <c r="N56" s="158"/>
-      <c r="O56" s="158"/>
-      <c r="P56" s="152"/>
+      <c r="N56" s="152"/>
+      <c r="O56" s="152"/>
+      <c r="P56" s="142"/>
     </row>
     <row r="57" spans="2:16" ht="21">
-      <c r="B57" s="153"/>
-      <c r="C57" s="153"/>
-      <c r="D57" s="153"/>
-      <c r="E57" s="156"/>
+      <c r="B57" s="132"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="141"/>
       <c r="F57" s="100" t="s">
         <v>414</v>
       </c>
-      <c r="G57" s="153"/>
+      <c r="G57" s="132"/>
       <c r="H57" s="41">
         <f>40*270</f>
         <v>10800</v>
       </c>
-      <c r="I57" s="153"/>
+      <c r="I57" s="132"/>
       <c r="J57" s="101">
         <f>K57*L57*M57/1000000*100</f>
         <v>11.899999999999999</v>
@@ -7416,17 +7422,17 @@
       <c r="M57" s="41">
         <v>70</v>
       </c>
-      <c r="N57" s="159"/>
-      <c r="O57" s="159"/>
-      <c r="P57" s="153"/>
+      <c r="N57" s="153"/>
+      <c r="O57" s="153"/>
+      <c r="P57" s="132"/>
     </row>
     <row r="58" spans="2:16" ht="22.5">
-      <c r="B58" s="134" t="s">
+      <c r="B58" s="148" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="135"/>
-      <c r="D58" s="135"/>
-      <c r="E58" s="136"/>
+      <c r="C58" s="149"/>
+      <c r="D58" s="149"/>
+      <c r="E58" s="150"/>
       <c r="F58" s="102" t="s">
         <v>415</v>
       </c>
@@ -7496,12 +7502,12 @@
       </c>
     </row>
     <row r="60" spans="2:16" ht="22.5">
-      <c r="B60" s="127" t="s">
+      <c r="B60" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C60" s="127"/>
-      <c r="D60" s="127"/>
-      <c r="E60" s="127"/>
+      <c r="C60" s="130"/>
+      <c r="D60" s="130"/>
+      <c r="E60" s="130"/>
       <c r="F60" s="102" t="s">
         <v>418</v>
       </c>
@@ -7523,28 +7529,28 @@
       <c r="P60" s="63"/>
     </row>
     <row r="61" spans="2:16" ht="21" customHeight="1">
-      <c r="B61" s="128" t="s">
+      <c r="B61" s="144" t="s">
         <v>318</v>
       </c>
-      <c r="C61" s="160" t="s">
+      <c r="C61" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="D61" s="128" t="s">
+      <c r="D61" s="144" t="s">
         <v>320</v>
       </c>
-      <c r="E61" s="131">
+      <c r="E61" s="156">
         <v>45678</v>
       </c>
       <c r="F61" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="G61" s="128" t="s">
+      <c r="G61" s="144" t="s">
         <v>321</v>
       </c>
       <c r="H61" s="38">
         <v>1</v>
       </c>
-      <c r="I61" s="128">
+      <c r="I61" s="144">
         <v>37</v>
       </c>
       <c r="J61" s="69">
@@ -7560,29 +7566,29 @@
       <c r="M61" s="38">
         <v>40</v>
       </c>
-      <c r="N61" s="137">
+      <c r="N61" s="146">
         <v>45681</v>
       </c>
-      <c r="O61" s="137">
+      <c r="O61" s="146">
         <v>45714</v>
       </c>
-      <c r="P61" s="128" t="s">
+      <c r="P61" s="144" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="62" spans="2:16" ht="21">
-      <c r="B62" s="129"/>
-      <c r="C62" s="129"/>
-      <c r="D62" s="129"/>
-      <c r="E62" s="132"/>
+      <c r="B62" s="147"/>
+      <c r="C62" s="147"/>
+      <c r="D62" s="147"/>
+      <c r="E62" s="157"/>
       <c r="F62" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="G62" s="129"/>
+      <c r="G62" s="147"/>
       <c r="H62" s="38">
         <v>10</v>
       </c>
-      <c r="I62" s="129"/>
+      <c r="I62" s="147"/>
       <c r="J62" s="69">
         <f t="shared" si="0"/>
         <v>0.18360000000000001</v>
@@ -7596,23 +7602,23 @@
       <c r="M62" s="38">
         <v>85</v>
       </c>
-      <c r="N62" s="129"/>
-      <c r="O62" s="129"/>
-      <c r="P62" s="129"/>
+      <c r="N62" s="147"/>
+      <c r="O62" s="147"/>
+      <c r="P62" s="147"/>
     </row>
     <row r="63" spans="2:16" ht="21">
-      <c r="B63" s="129"/>
-      <c r="C63" s="129"/>
-      <c r="D63" s="129"/>
-      <c r="E63" s="132"/>
+      <c r="B63" s="147"/>
+      <c r="C63" s="147"/>
+      <c r="D63" s="147"/>
+      <c r="E63" s="157"/>
       <c r="F63" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="G63" s="129"/>
+      <c r="G63" s="147"/>
       <c r="H63" s="38">
         <v>10</v>
       </c>
-      <c r="I63" s="129"/>
+      <c r="I63" s="147"/>
       <c r="J63" s="69">
         <f t="shared" si="0"/>
         <v>0.18240999999999999</v>
@@ -7626,23 +7632,23 @@
       <c r="M63" s="38">
         <v>37</v>
       </c>
-      <c r="N63" s="129"/>
-      <c r="O63" s="129"/>
-      <c r="P63" s="129"/>
+      <c r="N63" s="147"/>
+      <c r="O63" s="147"/>
+      <c r="P63" s="147"/>
     </row>
     <row r="64" spans="2:16" ht="21">
-      <c r="B64" s="130"/>
-      <c r="C64" s="130"/>
-      <c r="D64" s="130"/>
-      <c r="E64" s="133"/>
+      <c r="B64" s="145"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="145"/>
+      <c r="E64" s="158"/>
       <c r="F64" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="G64" s="130"/>
+      <c r="G64" s="145"/>
       <c r="H64" s="38">
         <v>2</v>
       </c>
-      <c r="I64" s="130"/>
+      <c r="I64" s="145"/>
       <c r="J64" s="69">
         <f t="shared" si="0"/>
         <v>4.9919999999999999E-2</v>
@@ -7656,33 +7662,33 @@
       <c r="M64" s="38">
         <v>20</v>
       </c>
-      <c r="N64" s="129"/>
-      <c r="O64" s="129"/>
-      <c r="P64" s="129"/>
+      <c r="N64" s="147"/>
+      <c r="O64" s="147"/>
+      <c r="P64" s="147"/>
     </row>
     <row r="65" spans="2:16" ht="21">
-      <c r="B65" s="128" t="s">
+      <c r="B65" s="144" t="s">
         <v>322</v>
       </c>
       <c r="C65" s="39" t="s">
         <v>323</v>
       </c>
-      <c r="D65" s="128" t="s">
+      <c r="D65" s="144" t="s">
         <v>320</v>
       </c>
-      <c r="E65" s="131">
+      <c r="E65" s="156">
         <v>45678</v>
       </c>
       <c r="F65" s="68" t="s">
         <v>324</v>
       </c>
-      <c r="G65" s="128" t="s">
+      <c r="G65" s="144" t="s">
         <v>321</v>
       </c>
       <c r="H65" s="38">
         <v>3</v>
       </c>
-      <c r="I65" s="128">
+      <c r="I65" s="144">
         <v>20</v>
       </c>
       <c r="J65" s="69">
@@ -7698,25 +7704,25 @@
       <c r="M65" s="38">
         <v>28</v>
       </c>
-      <c r="N65" s="129"/>
-      <c r="O65" s="129"/>
-      <c r="P65" s="129"/>
+      <c r="N65" s="147"/>
+      <c r="O65" s="147"/>
+      <c r="P65" s="147"/>
     </row>
     <row r="66" spans="2:16" ht="21">
-      <c r="B66" s="129"/>
+      <c r="B66" s="147"/>
       <c r="C66" s="38">
         <v>2660</v>
       </c>
-      <c r="D66" s="129"/>
-      <c r="E66" s="132"/>
+      <c r="D66" s="147"/>
+      <c r="E66" s="157"/>
       <c r="F66" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="G66" s="129"/>
+      <c r="G66" s="147"/>
       <c r="H66" s="38">
         <v>10</v>
       </c>
-      <c r="I66" s="129"/>
+      <c r="I66" s="147"/>
       <c r="J66" s="69">
         <f t="shared" si="0"/>
         <v>4.2335999999999999E-2</v>
@@ -7730,25 +7736,25 @@
       <c r="M66" s="38">
         <v>28</v>
       </c>
-      <c r="N66" s="129"/>
-      <c r="O66" s="129"/>
-      <c r="P66" s="129"/>
+      <c r="N66" s="147"/>
+      <c r="O66" s="147"/>
+      <c r="P66" s="147"/>
     </row>
     <row r="67" spans="2:16" ht="21">
-      <c r="B67" s="130"/>
+      <c r="B67" s="145"/>
       <c r="C67" s="38">
         <v>2461</v>
       </c>
-      <c r="D67" s="130"/>
-      <c r="E67" s="133"/>
+      <c r="D67" s="145"/>
+      <c r="E67" s="158"/>
       <c r="F67" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="G67" s="130"/>
+      <c r="G67" s="145"/>
       <c r="H67" s="38">
         <v>130</v>
       </c>
-      <c r="I67" s="130"/>
+      <c r="I67" s="145"/>
       <c r="J67" s="69">
         <f t="shared" si="0"/>
         <v>0.1176</v>
@@ -7762,17 +7768,17 @@
       <c r="M67" s="38">
         <v>56</v>
       </c>
-      <c r="N67" s="130"/>
-      <c r="O67" s="130"/>
-      <c r="P67" s="130"/>
+      <c r="N67" s="145"/>
+      <c r="O67" s="145"/>
+      <c r="P67" s="145"/>
     </row>
     <row r="68" spans="2:16" ht="22.5">
-      <c r="B68" s="127" t="s">
+      <c r="B68" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C68" s="127"/>
-      <c r="D68" s="127"/>
-      <c r="E68" s="127"/>
+      <c r="C68" s="130"/>
+      <c r="D68" s="130"/>
+      <c r="E68" s="130"/>
       <c r="F68" s="71" t="s">
         <v>326</v>
       </c>
@@ -7841,12 +7847,12 @@
       </c>
     </row>
     <row r="70" spans="2:16" ht="22.5">
-      <c r="B70" s="127" t="s">
+      <c r="B70" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C70" s="127"/>
-      <c r="D70" s="127"/>
-      <c r="E70" s="127"/>
+      <c r="C70" s="130"/>
+      <c r="D70" s="130"/>
+      <c r="E70" s="130"/>
       <c r="F70" s="102" t="s">
         <v>228</v>
       </c>
@@ -7907,12 +7913,12 @@
       </c>
     </row>
     <row r="72" spans="2:16" ht="22.5">
-      <c r="B72" s="127" t="s">
+      <c r="B72" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C72" s="127"/>
-      <c r="D72" s="127"/>
-      <c r="E72" s="127"/>
+      <c r="C72" s="130"/>
+      <c r="D72" s="130"/>
+      <c r="E72" s="130"/>
       <c r="F72" s="102" t="s">
         <v>225</v>
       </c>
@@ -7981,12 +7987,12 @@
       </c>
     </row>
     <row r="74" spans="2:16" ht="22.5">
-      <c r="B74" s="127" t="s">
+      <c r="B74" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="127"/>
-      <c r="D74" s="127"/>
-      <c r="E74" s="127"/>
+      <c r="C74" s="130"/>
+      <c r="D74" s="130"/>
+      <c r="E74" s="130"/>
       <c r="F74" s="102" t="s">
         <v>368</v>
       </c>
@@ -8047,12 +8053,12 @@
       <c r="P75" s="41"/>
     </row>
     <row r="76" spans="2:16" ht="22.5">
-      <c r="B76" s="127" t="s">
+      <c r="B76" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C76" s="127"/>
-      <c r="D76" s="127"/>
-      <c r="E76" s="127"/>
+      <c r="C76" s="130"/>
+      <c r="D76" s="130"/>
+      <c r="E76" s="130"/>
       <c r="F76" s="102" t="s">
         <v>373</v>
       </c>
@@ -8117,12 +8123,12 @@
       <c r="P77" s="41"/>
     </row>
     <row r="78" spans="2:16" ht="22.5">
-      <c r="B78" s="127" t="s">
+      <c r="B78" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C78" s="127"/>
-      <c r="D78" s="127"/>
-      <c r="E78" s="127"/>
+      <c r="C78" s="130"/>
+      <c r="D78" s="130"/>
+      <c r="E78" s="130"/>
       <c r="F78" s="102" t="s">
         <v>423</v>
       </c>
@@ -8191,12 +8197,12 @@
       </c>
     </row>
     <row r="80" spans="2:16" ht="22.5">
-      <c r="B80" s="127" t="s">
+      <c r="B80" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C80" s="127"/>
-      <c r="D80" s="127"/>
-      <c r="E80" s="127"/>
+      <c r="C80" s="130"/>
+      <c r="D80" s="130"/>
+      <c r="E80" s="130"/>
       <c r="F80" s="102" t="s">
         <v>427</v>
       </c>
@@ -8259,12 +8265,12 @@
       </c>
     </row>
     <row r="82" spans="2:16" ht="22.5">
-      <c r="B82" s="127" t="s">
+      <c r="B82" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C82" s="127"/>
-      <c r="D82" s="127"/>
-      <c r="E82" s="127"/>
+      <c r="C82" s="130"/>
+      <c r="D82" s="130"/>
+      <c r="E82" s="130"/>
       <c r="F82" s="102" t="s">
         <v>433</v>
       </c>
@@ -8329,12 +8335,12 @@
       </c>
     </row>
     <row r="84" spans="2:16" ht="22.5">
-      <c r="B84" s="127" t="s">
+      <c r="B84" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C84" s="127"/>
-      <c r="D84" s="127"/>
-      <c r="E84" s="127"/>
+      <c r="C84" s="130"/>
+      <c r="D84" s="130"/>
+      <c r="E84" s="130"/>
       <c r="F84" s="71" t="s">
         <v>230</v>
       </c>
@@ -8401,12 +8407,12 @@
       </c>
     </row>
     <row r="86" spans="2:16" ht="22.5">
-      <c r="B86" s="127" t="s">
+      <c r="B86" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C86" s="127"/>
-      <c r="D86" s="127"/>
-      <c r="E86" s="127"/>
+      <c r="C86" s="130"/>
+      <c r="D86" s="130"/>
+      <c r="E86" s="130"/>
       <c r="F86" s="71" t="s">
         <v>368</v>
       </c>
@@ -8469,12 +8475,12 @@
       <c r="P87" s="38"/>
     </row>
     <row r="88" spans="2:16" ht="22.5">
-      <c r="B88" s="127" t="s">
+      <c r="B88" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C88" s="127"/>
-      <c r="D88" s="127"/>
-      <c r="E88" s="127"/>
+      <c r="C88" s="130"/>
+      <c r="D88" s="130"/>
+      <c r="E88" s="130"/>
       <c r="F88" s="71" t="s">
         <v>239</v>
       </c>
@@ -8494,28 +8500,28 @@
       <c r="P88" s="74"/>
     </row>
     <row r="89" spans="2:16" ht="21">
-      <c r="B89" s="151" t="s">
+      <c r="B89" s="131" t="s">
         <v>529</v>
       </c>
-      <c r="C89" s="151">
+      <c r="C89" s="131">
         <v>15262730846</v>
       </c>
-      <c r="D89" s="151" t="s">
+      <c r="D89" s="131" t="s">
         <v>217</v>
       </c>
-      <c r="E89" s="154">
+      <c r="E89" s="140">
         <v>45719</v>
       </c>
       <c r="F89" s="100" t="s">
         <v>530</v>
       </c>
-      <c r="G89" s="151" t="s">
+      <c r="G89" s="131" t="s">
         <v>237</v>
       </c>
       <c r="H89" s="41">
         <v>1500</v>
       </c>
-      <c r="I89" s="151">
+      <c r="I89" s="131">
         <v>2675</v>
       </c>
       <c r="J89" s="101">
@@ -8530,10 +8536,10 @@
       <c r="M89" s="41">
         <v>19</v>
       </c>
-      <c r="N89" s="151" t="s">
+      <c r="N89" s="131" t="s">
         <v>244</v>
       </c>
-      <c r="O89" s="151" t="s">
+      <c r="O89" s="131" t="s">
         <v>244</v>
       </c>
       <c r="P89" s="41" t="s">
@@ -8541,18 +8547,18 @@
       </c>
     </row>
     <row r="90" spans="2:16" ht="21">
-      <c r="B90" s="152"/>
-      <c r="C90" s="152"/>
-      <c r="D90" s="152"/>
-      <c r="E90" s="155"/>
+      <c r="B90" s="142"/>
+      <c r="C90" s="142"/>
+      <c r="D90" s="142"/>
+      <c r="E90" s="143"/>
       <c r="F90" s="100" t="s">
         <v>531</v>
       </c>
-      <c r="G90" s="152"/>
+      <c r="G90" s="142"/>
       <c r="H90" s="41">
         <v>1500</v>
       </c>
-      <c r="I90" s="152"/>
+      <c r="I90" s="142"/>
       <c r="J90" s="101">
         <v>4.8099999999999996</v>
       </c>
@@ -8565,25 +8571,25 @@
       <c r="M90" s="41">
         <v>25</v>
       </c>
-      <c r="N90" s="152"/>
-      <c r="O90" s="152"/>
+      <c r="N90" s="142"/>
+      <c r="O90" s="142"/>
       <c r="P90" s="41" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="91" spans="2:16" ht="21">
-      <c r="B91" s="153"/>
-      <c r="C91" s="153"/>
-      <c r="D91" s="153"/>
-      <c r="E91" s="156"/>
+      <c r="B91" s="132"/>
+      <c r="C91" s="132"/>
+      <c r="D91" s="132"/>
+      <c r="E91" s="141"/>
       <c r="F91" s="100" t="s">
         <v>532</v>
       </c>
-      <c r="G91" s="153"/>
+      <c r="G91" s="132"/>
       <c r="H91" s="41">
         <v>210</v>
       </c>
-      <c r="I91" s="153"/>
+      <c r="I91" s="132"/>
       <c r="J91" s="101">
         <v>0.63724500000000006</v>
       </c>
@@ -8596,19 +8602,19 @@
       <c r="M91" s="41">
         <v>35</v>
       </c>
-      <c r="N91" s="153"/>
-      <c r="O91" s="153"/>
+      <c r="N91" s="132"/>
+      <c r="O91" s="132"/>
       <c r="P91" s="41" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="92" spans="2:16" ht="22.5">
-      <c r="B92" s="127" t="s">
+      <c r="B92" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C92" s="127"/>
-      <c r="D92" s="127"/>
-      <c r="E92" s="127"/>
+      <c r="C92" s="130"/>
+      <c r="D92" s="130"/>
+      <c r="E92" s="130"/>
       <c r="F92" s="102" t="s">
         <v>255</v>
       </c>
@@ -8652,7 +8658,7 @@
       <c r="I93" s="41">
         <v>152</v>
       </c>
-      <c r="J93" s="182">
+      <c r="J93" s="127">
         <v>0.31968000000000002</v>
       </c>
       <c r="K93" s="41">
@@ -8673,12 +8679,12 @@
       <c r="P93" s="41"/>
     </row>
     <row r="94" spans="2:16" ht="22.5">
-      <c r="B94" s="127" t="s">
+      <c r="B94" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C94" s="127"/>
-      <c r="D94" s="127"/>
-      <c r="E94" s="127"/>
+      <c r="C94" s="130"/>
+      <c r="D94" s="130"/>
+      <c r="E94" s="130"/>
       <c r="F94" s="102" t="s">
         <v>325</v>
       </c>
@@ -8687,7 +8693,7 @@
       <c r="I94" s="109">
         <v>152</v>
       </c>
-      <c r="J94" s="183">
+      <c r="J94" s="128">
         <v>0.31968000000000002</v>
       </c>
       <c r="K94" s="103"/>
@@ -8722,7 +8728,7 @@
       <c r="I95" s="41">
         <v>6250</v>
       </c>
-      <c r="J95" s="182">
+      <c r="J95" s="127">
         <v>10.200000000000001</v>
       </c>
       <c r="K95" s="41">
@@ -8743,12 +8749,12 @@
       <c r="P95" s="41"/>
     </row>
     <row r="96" spans="2:16" ht="22.5">
-      <c r="B96" s="127" t="s">
+      <c r="B96" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C96" s="127"/>
-      <c r="D96" s="127"/>
-      <c r="E96" s="127"/>
+      <c r="C96" s="130"/>
+      <c r="D96" s="130"/>
+      <c r="E96" s="130"/>
       <c r="F96" s="102" t="s">
         <v>559</v>
       </c>
@@ -8757,7 +8763,7 @@
       <c r="I96" s="103">
         <v>6250</v>
       </c>
-      <c r="J96" s="183">
+      <c r="J96" s="128">
         <v>10.200000000000001</v>
       </c>
       <c r="K96" s="103"/>
@@ -8768,28 +8774,28 @@
       <c r="P96" s="63"/>
     </row>
     <row r="97" spans="2:16" ht="21">
-      <c r="B97" s="151" t="s">
+      <c r="B97" s="131" t="s">
         <v>560</v>
       </c>
-      <c r="C97" s="151" t="s">
+      <c r="C97" s="131" t="s">
         <v>561</v>
       </c>
-      <c r="D97" s="151" t="s">
+      <c r="D97" s="131" t="s">
         <v>217</v>
       </c>
-      <c r="E97" s="154">
+      <c r="E97" s="140">
         <v>45722</v>
       </c>
       <c r="F97" s="100" t="s">
         <v>562</v>
       </c>
-      <c r="G97" s="151" t="s">
+      <c r="G97" s="131" t="s">
         <v>237</v>
       </c>
       <c r="H97" s="41">
         <v>1080</v>
       </c>
-      <c r="I97" s="151">
+      <c r="I97" s="131">
         <v>2700</v>
       </c>
       <c r="J97" s="101">
@@ -8804,10 +8810,10 @@
       <c r="M97" s="41">
         <v>40</v>
       </c>
-      <c r="N97" s="151" t="s">
+      <c r="N97" s="131" t="s">
         <v>244</v>
       </c>
-      <c r="O97" s="151" t="s">
+      <c r="O97" s="131" t="s">
         <v>244</v>
       </c>
       <c r="P97" s="41" t="s">
@@ -8815,18 +8821,18 @@
       </c>
     </row>
     <row r="98" spans="2:16" ht="21">
-      <c r="B98" s="153"/>
-      <c r="C98" s="153"/>
-      <c r="D98" s="153"/>
-      <c r="E98" s="156"/>
+      <c r="B98" s="132"/>
+      <c r="C98" s="132"/>
+      <c r="D98" s="132"/>
+      <c r="E98" s="141"/>
       <c r="F98" s="100" t="s">
         <v>563</v>
       </c>
-      <c r="G98" s="153"/>
+      <c r="G98" s="132"/>
       <c r="H98" s="41">
         <v>2520</v>
       </c>
-      <c r="I98" s="153"/>
+      <c r="I98" s="132"/>
       <c r="J98" s="101">
         <v>7.4969999999999999</v>
       </c>
@@ -8839,19 +8845,19 @@
       <c r="M98" s="41">
         <v>34</v>
       </c>
-      <c r="N98" s="153"/>
-      <c r="O98" s="153"/>
+      <c r="N98" s="132"/>
+      <c r="O98" s="132"/>
       <c r="P98" s="41" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="99" spans="2:16" ht="22.5">
-      <c r="B99" s="127" t="s">
+      <c r="B99" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C99" s="127"/>
-      <c r="D99" s="127"/>
-      <c r="E99" s="127"/>
+      <c r="C99" s="130"/>
+      <c r="D99" s="130"/>
+      <c r="E99" s="130"/>
       <c r="F99" s="102" t="s">
         <v>564</v>
       </c>
@@ -8874,7 +8880,7 @@
       <c r="B100" s="41" t="s">
         <v>565</v>
       </c>
-      <c r="C100" s="184" t="s">
+      <c r="C100" s="129" t="s">
         <v>566</v>
       </c>
       <c r="D100" s="41" t="s">
@@ -8914,12 +8920,12 @@
       <c r="P100" s="41"/>
     </row>
     <row r="101" spans="2:16" ht="22.5">
-      <c r="B101" s="127" t="s">
+      <c r="B101" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C101" s="127"/>
-      <c r="D101" s="127"/>
-      <c r="E101" s="127"/>
+      <c r="C101" s="130"/>
+      <c r="D101" s="130"/>
+      <c r="E101" s="130"/>
       <c r="F101" s="102" t="s">
         <v>324</v>
       </c>
@@ -8939,16 +8945,16 @@
       <c r="P101" s="63"/>
     </row>
     <row r="102" spans="2:16" ht="42">
-      <c r="B102" s="173" t="s">
+      <c r="B102" s="133" t="s">
         <v>571</v>
       </c>
-      <c r="C102" s="185" t="s">
+      <c r="C102" s="136" t="s">
         <v>572</v>
       </c>
-      <c r="D102" s="173" t="s">
+      <c r="D102" s="133" t="s">
         <v>573</v>
       </c>
-      <c r="E102" s="177">
+      <c r="E102" s="137">
         <v>45726</v>
       </c>
       <c r="F102" s="60" t="s">
@@ -8961,7 +8967,7 @@
         <f>53+37+45+42+11+30</f>
         <v>218</v>
       </c>
-      <c r="I102" s="173">
+      <c r="I102" s="133">
         <v>195</v>
       </c>
       <c r="J102" s="62">
@@ -8977,19 +8983,19 @@
       <c r="M102" s="44">
         <v>24</v>
       </c>
-      <c r="N102" s="173" t="s">
+      <c r="N102" s="133" t="s">
         <v>153</v>
       </c>
-      <c r="O102" s="173" t="s">
+      <c r="O102" s="133" t="s">
         <v>153</v>
       </c>
       <c r="P102" s="44"/>
     </row>
     <row r="103" spans="2:16" ht="21">
-      <c r="B103" s="179"/>
-      <c r="C103" s="179"/>
-      <c r="D103" s="179"/>
-      <c r="E103" s="180"/>
+      <c r="B103" s="134"/>
+      <c r="C103" s="134"/>
+      <c r="D103" s="134"/>
+      <c r="E103" s="138"/>
       <c r="F103" s="60" t="s">
         <v>575</v>
       </c>
@@ -9000,7 +9006,7 @@
         <f>150+160+70</f>
         <v>380</v>
       </c>
-      <c r="I103" s="179"/>
+      <c r="I103" s="134"/>
       <c r="J103" s="62">
         <f>K103*L103*M103/1000000*3</f>
         <v>8.3160000000000012E-2</v>
@@ -9014,15 +9020,15 @@
       <c r="M103" s="44">
         <v>21</v>
       </c>
-      <c r="N103" s="179"/>
-      <c r="O103" s="179"/>
+      <c r="N103" s="134"/>
+      <c r="O103" s="134"/>
       <c r="P103" s="44"/>
     </row>
     <row r="104" spans="2:16" ht="37.5">
-      <c r="B104" s="174"/>
-      <c r="C104" s="174"/>
-      <c r="D104" s="174"/>
-      <c r="E104" s="178"/>
+      <c r="B104" s="135"/>
+      <c r="C104" s="135"/>
+      <c r="D104" s="135"/>
+      <c r="E104" s="139"/>
       <c r="F104" s="60" t="s">
         <v>252</v>
       </c>
@@ -9032,7 +9038,7 @@
       <c r="H104" s="44">
         <v>90</v>
       </c>
-      <c r="I104" s="174"/>
+      <c r="I104" s="135"/>
       <c r="J104" s="62">
         <f>K104*L104*M104/1000000</f>
         <v>2.4552000000000001E-2</v>
@@ -9046,17 +9052,17 @@
       <c r="M104" s="44">
         <v>18</v>
       </c>
-      <c r="N104" s="174"/>
-      <c r="O104" s="174"/>
+      <c r="N104" s="135"/>
+      <c r="O104" s="135"/>
       <c r="P104" s="44"/>
     </row>
     <row r="105" spans="2:16" ht="22.5">
-      <c r="B105" s="127" t="s">
+      <c r="B105" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C105" s="127"/>
-      <c r="D105" s="127"/>
-      <c r="E105" s="127"/>
+      <c r="C105" s="130"/>
+      <c r="D105" s="130"/>
+      <c r="E105" s="130"/>
       <c r="F105" s="102" t="s">
         <v>252</v>
       </c>
@@ -9077,37 +9083,156 @@
       <c r="O105" s="51"/>
       <c r="P105" s="50"/>
     </row>
+    <row r="106" spans="2:16" ht="42">
+      <c r="B106" s="41" t="s">
+        <v>578</v>
+      </c>
+      <c r="C106" s="41"/>
+      <c r="D106" s="41" t="s">
+        <v>579</v>
+      </c>
+      <c r="E106" s="42">
+        <v>45728</v>
+      </c>
+      <c r="F106" s="100" t="s">
+        <v>259</v>
+      </c>
+      <c r="G106" s="41" t="s">
+        <v>432</v>
+      </c>
+      <c r="H106" s="41">
+        <f>24+15+48+25</f>
+        <v>112</v>
+      </c>
+      <c r="I106" s="41">
+        <v>100</v>
+      </c>
+      <c r="J106" s="127">
+        <f>K106*L106*M106/1000000*4</f>
+        <v>0.54432000000000003</v>
+      </c>
+      <c r="K106" s="41">
+        <v>90</v>
+      </c>
+      <c r="L106" s="41">
+        <v>54</v>
+      </c>
+      <c r="M106" s="41">
+        <v>28</v>
+      </c>
+      <c r="N106" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="O106" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="P106" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16" ht="22.5">
+      <c r="B107" s="130" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107" s="130"/>
+      <c r="D107" s="130"/>
+      <c r="E107" s="130"/>
+      <c r="F107" s="102" t="s">
+        <v>232</v>
+      </c>
+      <c r="G107" s="103"/>
+      <c r="H107" s="103"/>
+      <c r="I107" s="103">
+        <f>SUM(I106:I106)</f>
+        <v>100</v>
+      </c>
+      <c r="J107" s="128">
+        <f>SUM(J106:J106)</f>
+        <v>0.54432000000000003</v>
+      </c>
+      <c r="K107" s="103"/>
+      <c r="L107" s="103"/>
+      <c r="M107" s="103"/>
+      <c r="N107" s="63"/>
+      <c r="O107" s="63"/>
+      <c r="P107" s="63"/>
+    </row>
   </sheetData>
-  <mergeCells count="124">
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="I102:I104"/>
-    <mergeCell ref="N102:N104"/>
-    <mergeCell ref="O102:O104"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="N97:N98"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="N89:N91"/>
-    <mergeCell ref="O89:O91"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="G89:G91"/>
+  <mergeCells count="125">
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="N32:N37"/>
+    <mergeCell ref="O32:O37"/>
+    <mergeCell ref="P32:P37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I37"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="P52:P53"/>
     <mergeCell ref="P55:P57"/>
     <mergeCell ref="B60:E60"/>
@@ -9130,79 +9255,35 @@
     <mergeCell ref="C61:C64"/>
     <mergeCell ref="D61:D64"/>
     <mergeCell ref="E61:E64"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="E32:E37"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I37"/>
-    <mergeCell ref="N32:N37"/>
-    <mergeCell ref="O32:O37"/>
-    <mergeCell ref="P32:P37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="O39:O41"/>
-    <mergeCell ref="P39:P41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="I61:I64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="N89:N91"/>
+    <mergeCell ref="O89:O91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="G89:G91"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="N97:N98"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="O97:O98"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="I102:I104"/>
+    <mergeCell ref="N102:N104"/>
+    <mergeCell ref="O102:O104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9294,11 +9375,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="149" t="s">
+      <c r="K2" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -9310,10 +9391,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="181"/>
+      <c r="B3" s="177"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -9889,25 +9970,25 @@
       <c r="A21" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="166" t="s">
+      <c r="B21" s="174" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="166" t="s">
+      <c r="D21" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="131">
+      <c r="E21" s="156">
         <v>45661</v>
       </c>
       <c r="F21" s="28">
         <v>1</v>
       </c>
-      <c r="G21" s="166" t="s">
+      <c r="G21" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="166">
+      <c r="H21" s="174">
         <v>2</v>
       </c>
       <c r="I21" s="28">
@@ -9926,7 +10007,7 @@
         <v>13</v>
       </c>
       <c r="N21" s="28"/>
-      <c r="O21" s="166" t="s">
+      <c r="O21" s="174" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9934,17 +10015,17 @@
       <c r="A22" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="167"/>
+      <c r="B22" s="175"/>
       <c r="C22" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="167"/>
-      <c r="E22" s="133"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="158"/>
       <c r="F22" s="28">
         <v>2</v>
       </c>
-      <c r="G22" s="167"/>
-      <c r="H22" s="167"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="175"/>
       <c r="I22" s="28">
         <v>1.1000000000000001</v>
       </c>
@@ -9961,7 +10042,7 @@
         <v>13</v>
       </c>
       <c r="N22" s="28"/>
-      <c r="O22" s="167"/>
+      <c r="O22" s="175"/>
     </row>
     <row r="23" spans="1:15" ht="22.5">
       <c r="A23" s="32"/>
@@ -10546,25 +10627,25 @@
       <c r="A40" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="166" t="s">
+      <c r="B40" s="174" t="s">
         <v>89</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="166" t="s">
+      <c r="D40" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="131">
+      <c r="E40" s="156">
         <v>45664</v>
       </c>
       <c r="F40" s="28">
         <v>1</v>
       </c>
-      <c r="G40" s="166" t="s">
+      <c r="G40" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="166">
+      <c r="H40" s="174">
         <v>3</v>
       </c>
       <c r="I40" s="28">
@@ -10583,7 +10664,7 @@
         <v>20</v>
       </c>
       <c r="N40" s="28"/>
-      <c r="O40" s="166" t="s">
+      <c r="O40" s="174" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10591,17 +10672,17 @@
       <c r="A41" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="170"/>
+      <c r="B41" s="176"/>
       <c r="C41" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="170"/>
-      <c r="E41" s="132"/>
+      <c r="D41" s="176"/>
+      <c r="E41" s="157"/>
       <c r="F41" s="28">
         <v>2</v>
       </c>
-      <c r="G41" s="170"/>
-      <c r="H41" s="170"/>
+      <c r="G41" s="176"/>
+      <c r="H41" s="176"/>
       <c r="I41" s="28">
         <v>1.4</v>
       </c>
@@ -10618,23 +10699,23 @@
         <v>20</v>
       </c>
       <c r="N41" s="28"/>
-      <c r="O41" s="170"/>
+      <c r="O41" s="176"/>
     </row>
     <row r="42" spans="1:15" ht="21">
       <c r="A42" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="167"/>
+      <c r="B42" s="175"/>
       <c r="C42" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="167"/>
-      <c r="E42" s="133"/>
+      <c r="D42" s="175"/>
+      <c r="E42" s="158"/>
       <c r="F42" s="28">
         <v>3</v>
       </c>
-      <c r="G42" s="167"/>
-      <c r="H42" s="167"/>
+      <c r="G42" s="175"/>
+      <c r="H42" s="175"/>
       <c r="I42" s="28">
         <v>2</v>
       </c>
@@ -10651,7 +10732,7 @@
         <v>20</v>
       </c>
       <c r="N42" s="28"/>
-      <c r="O42" s="167"/>
+      <c r="O42" s="175"/>
     </row>
     <row r="43" spans="1:15" ht="22.5">
       <c r="A43" s="32"/>
@@ -10894,42 +10975,42 @@
       <c r="A50" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="151" t="s">
+      <c r="B50" s="131" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="151" t="s">
+      <c r="C50" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="151" t="s">
+      <c r="D50" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="154">
+      <c r="E50" s="140">
         <v>45666</v>
       </c>
       <c r="F50" s="41">
         <v>1</v>
       </c>
-      <c r="G50" s="151" t="s">
+      <c r="G50" s="131" t="s">
         <v>25</v>
       </c>
       <c r="H50" s="41"/>
-      <c r="I50" s="151">
+      <c r="I50" s="131">
         <v>10.199999999999999</v>
       </c>
-      <c r="J50" s="175">
+      <c r="J50" s="178">
         <v>0.10335</v>
       </c>
-      <c r="K50" s="151">
+      <c r="K50" s="131">
         <v>53</v>
       </c>
-      <c r="L50" s="151">
+      <c r="L50" s="131">
         <v>39</v>
       </c>
-      <c r="M50" s="151">
+      <c r="M50" s="131">
         <v>50</v>
       </c>
       <c r="N50" s="41"/>
-      <c r="O50" s="151" t="s">
+      <c r="O50" s="131" t="s">
         <v>109</v>
       </c>
     </row>
@@ -10937,22 +11018,22 @@
       <c r="A51" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="153"/>
-      <c r="C51" s="153"/>
-      <c r="D51" s="153"/>
-      <c r="E51" s="156"/>
+      <c r="B51" s="132"/>
+      <c r="C51" s="132"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="141"/>
       <c r="F51" s="41">
         <v>2</v>
       </c>
-      <c r="G51" s="153"/>
+      <c r="G51" s="132"/>
       <c r="H51" s="41"/>
-      <c r="I51" s="153"/>
-      <c r="J51" s="176"/>
-      <c r="K51" s="153"/>
-      <c r="L51" s="153"/>
-      <c r="M51" s="153"/>
+      <c r="I51" s="132"/>
+      <c r="J51" s="179"/>
+      <c r="K51" s="132"/>
+      <c r="L51" s="132"/>
+      <c r="M51" s="132"/>
       <c r="N51" s="41"/>
-      <c r="O51" s="153"/>
+      <c r="O51" s="132"/>
     </row>
     <row r="52" spans="1:15" ht="22.5">
       <c r="A52" s="32"/>
@@ -10983,25 +11064,25 @@
       <c r="A53" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="173" t="s">
+      <c r="B53" s="133" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="173" t="s">
+      <c r="C53" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="173" t="s">
+      <c r="D53" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="177">
+      <c r="E53" s="137">
         <v>45668</v>
       </c>
       <c r="F53" s="44">
         <v>1</v>
       </c>
-      <c r="G53" s="143" t="s">
+      <c r="G53" s="164" t="s">
         <v>114</v>
       </c>
-      <c r="H53" s="173">
+      <c r="H53" s="133">
         <v>1676</v>
       </c>
       <c r="I53" s="44">
@@ -11021,7 +11102,7 @@
         <v>43</v>
       </c>
       <c r="N53" s="44"/>
-      <c r="O53" s="173" t="s">
+      <c r="O53" s="133" t="s">
         <v>115</v>
       </c>
     </row>
@@ -11029,15 +11110,15 @@
       <c r="A54" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="174"/>
-      <c r="C54" s="174"/>
-      <c r="D54" s="174"/>
-      <c r="E54" s="178"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="135"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="139"/>
       <c r="F54" s="44">
         <v>2</v>
       </c>
-      <c r="G54" s="145"/>
-      <c r="H54" s="174"/>
+      <c r="G54" s="166"/>
+      <c r="H54" s="135"/>
       <c r="I54" s="44">
         <v>16.7</v>
       </c>
@@ -11055,7 +11136,7 @@
         <v>30</v>
       </c>
       <c r="N54" s="44"/>
-      <c r="O54" s="174"/>
+      <c r="O54" s="135"/>
     </row>
     <row r="55" spans="1:15" ht="22.5">
       <c r="A55" s="32"/>
@@ -11086,25 +11167,25 @@
       <c r="A56" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="173" t="s">
+      <c r="B56" s="133" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="173" t="s">
+      <c r="C56" s="133" t="s">
         <v>119</v>
       </c>
-      <c r="D56" s="173" t="s">
+      <c r="D56" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="E56" s="177">
+      <c r="E56" s="137">
         <v>45670</v>
       </c>
       <c r="F56" s="44">
         <v>1</v>
       </c>
-      <c r="G56" s="143" t="s">
+      <c r="G56" s="164" t="s">
         <v>120</v>
       </c>
-      <c r="H56" s="173">
+      <c r="H56" s="133">
         <v>145</v>
       </c>
       <c r="I56" s="44">
@@ -11124,7 +11205,7 @@
         <v>23</v>
       </c>
       <c r="N56" s="52"/>
-      <c r="O56" s="173" t="s">
+      <c r="O56" s="133" t="s">
         <v>121</v>
       </c>
     </row>
@@ -11132,15 +11213,15 @@
       <c r="A57" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="174"/>
-      <c r="C57" s="174"/>
-      <c r="D57" s="174"/>
-      <c r="E57" s="178"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="135"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="139"/>
       <c r="F57" s="44">
         <v>2</v>
       </c>
-      <c r="G57" s="145"/>
-      <c r="H57" s="174"/>
+      <c r="G57" s="166"/>
+      <c r="H57" s="135"/>
       <c r="I57" s="44">
         <v>13.7</v>
       </c>
@@ -11158,7 +11239,7 @@
         <v>49</v>
       </c>
       <c r="N57" s="44"/>
-      <c r="O57" s="174"/>
+      <c r="O57" s="135"/>
     </row>
     <row r="58" spans="1:15" ht="22.5">
       <c r="A58" s="32"/>
@@ -11595,20 +11676,20 @@
       <c r="A71" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="B71" s="161" t="s">
+      <c r="B71" s="171" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="161"/>
-      <c r="D71" s="161" t="s">
+      <c r="C71" s="171"/>
+      <c r="D71" s="171" t="s">
         <v>156</v>
       </c>
-      <c r="E71" s="154">
+      <c r="E71" s="140">
         <v>45673</v>
       </c>
       <c r="F71" s="53">
         <v>1</v>
       </c>
-      <c r="G71" s="161" t="s">
+      <c r="G71" s="171" t="s">
         <v>157</v>
       </c>
       <c r="H71" s="53">
@@ -11637,14 +11718,14 @@
       <c r="A72" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="162"/>
-      <c r="C72" s="162"/>
-      <c r="D72" s="162"/>
-      <c r="E72" s="155"/>
+      <c r="B72" s="172"/>
+      <c r="C72" s="172"/>
+      <c r="D72" s="172"/>
+      <c r="E72" s="143"/>
       <c r="F72" s="53">
         <v>2</v>
       </c>
-      <c r="G72" s="162"/>
+      <c r="G72" s="172"/>
       <c r="H72" s="53">
         <v>240</v>
       </c>
@@ -11671,14 +11752,14 @@
       <c r="A73" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="B73" s="162"/>
-      <c r="C73" s="162"/>
-      <c r="D73" s="162"/>
-      <c r="E73" s="155"/>
+      <c r="B73" s="172"/>
+      <c r="C73" s="172"/>
+      <c r="D73" s="172"/>
+      <c r="E73" s="143"/>
       <c r="F73" s="53">
         <v>3</v>
       </c>
-      <c r="G73" s="162"/>
+      <c r="G73" s="172"/>
       <c r="H73" s="53">
         <v>300</v>
       </c>
@@ -11705,14 +11786,14 @@
       <c r="A74" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="B74" s="162"/>
-      <c r="C74" s="162"/>
-      <c r="D74" s="162"/>
-      <c r="E74" s="155"/>
+      <c r="B74" s="172"/>
+      <c r="C74" s="172"/>
+      <c r="D74" s="172"/>
+      <c r="E74" s="143"/>
       <c r="F74" s="53">
         <v>4</v>
       </c>
-      <c r="G74" s="162"/>
+      <c r="G74" s="172"/>
       <c r="H74" s="53">
         <v>230</v>
       </c>
@@ -11739,14 +11820,14 @@
       <c r="A75" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="B75" s="162"/>
-      <c r="C75" s="162"/>
-      <c r="D75" s="162"/>
-      <c r="E75" s="155"/>
+      <c r="B75" s="172"/>
+      <c r="C75" s="172"/>
+      <c r="D75" s="172"/>
+      <c r="E75" s="143"/>
       <c r="F75" s="53">
         <v>5</v>
       </c>
-      <c r="G75" s="162"/>
+      <c r="G75" s="172"/>
       <c r="H75" s="53">
         <v>220</v>
       </c>
@@ -11773,14 +11854,14 @@
       <c r="A76" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B76" s="162"/>
-      <c r="C76" s="162"/>
-      <c r="D76" s="162"/>
-      <c r="E76" s="155"/>
+      <c r="B76" s="172"/>
+      <c r="C76" s="172"/>
+      <c r="D76" s="172"/>
+      <c r="E76" s="143"/>
       <c r="F76" s="53">
         <v>6</v>
       </c>
-      <c r="G76" s="162"/>
+      <c r="G76" s="172"/>
       <c r="H76" s="53">
         <v>200</v>
       </c>
@@ -11807,14 +11888,14 @@
       <c r="A77" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B77" s="162"/>
-      <c r="C77" s="162"/>
-      <c r="D77" s="162"/>
-      <c r="E77" s="155"/>
+      <c r="B77" s="172"/>
+      <c r="C77" s="172"/>
+      <c r="D77" s="172"/>
+      <c r="E77" s="143"/>
       <c r="F77" s="53">
         <v>7</v>
       </c>
-      <c r="G77" s="162"/>
+      <c r="G77" s="172"/>
       <c r="H77" s="53">
         <v>190</v>
       </c>
@@ -11841,14 +11922,14 @@
       <c r="A78" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="162"/>
-      <c r="C78" s="162"/>
-      <c r="D78" s="162"/>
-      <c r="E78" s="155"/>
+      <c r="B78" s="172"/>
+      <c r="C78" s="172"/>
+      <c r="D78" s="172"/>
+      <c r="E78" s="143"/>
       <c r="F78" s="53">
         <v>8</v>
       </c>
-      <c r="G78" s="162"/>
+      <c r="G78" s="172"/>
       <c r="H78" s="53">
         <v>200</v>
       </c>
@@ -11875,14 +11956,14 @@
       <c r="A79" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="B79" s="162"/>
-      <c r="C79" s="162"/>
-      <c r="D79" s="162"/>
-      <c r="E79" s="155"/>
+      <c r="B79" s="172"/>
+      <c r="C79" s="172"/>
+      <c r="D79" s="172"/>
+      <c r="E79" s="143"/>
       <c r="F79" s="53">
         <v>9</v>
       </c>
-      <c r="G79" s="162"/>
+      <c r="G79" s="172"/>
       <c r="H79" s="53">
         <v>200</v>
       </c>
@@ -11909,14 +11990,14 @@
       <c r="A80" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="B80" s="162"/>
-      <c r="C80" s="162"/>
-      <c r="D80" s="162"/>
-      <c r="E80" s="155"/>
+      <c r="B80" s="172"/>
+      <c r="C80" s="172"/>
+      <c r="D80" s="172"/>
+      <c r="E80" s="143"/>
       <c r="F80" s="53">
         <v>10</v>
       </c>
-      <c r="G80" s="162"/>
+      <c r="G80" s="172"/>
       <c r="H80" s="53">
         <v>200</v>
       </c>
@@ -11943,14 +12024,14 @@
       <c r="A81" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="B81" s="163"/>
-      <c r="C81" s="163"/>
-      <c r="D81" s="163"/>
-      <c r="E81" s="156"/>
+      <c r="B81" s="173"/>
+      <c r="C81" s="173"/>
+      <c r="D81" s="173"/>
+      <c r="E81" s="141"/>
       <c r="F81" s="53">
         <v>11</v>
       </c>
-      <c r="G81" s="163"/>
+      <c r="G81" s="173"/>
       <c r="H81" s="53">
         <v>200</v>
       </c>
@@ -12677,22 +12758,22 @@
       <c r="A103" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="B103" s="161" t="s">
+      <c r="B103" s="171" t="s">
         <v>209</v>
       </c>
-      <c r="C103" s="161" t="s">
+      <c r="C103" s="171" t="s">
         <v>210</v>
       </c>
-      <c r="D103" s="161" t="s">
+      <c r="D103" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="E103" s="154">
+      <c r="E103" s="140">
         <v>45680</v>
       </c>
       <c r="F103" s="53">
         <v>1</v>
       </c>
-      <c r="G103" s="164" t="s">
+      <c r="G103" s="180" t="s">
         <v>211</v>
       </c>
       <c r="H103" s="53"/>
@@ -12719,14 +12800,14 @@
       <c r="A104" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="B104" s="162"/>
-      <c r="C104" s="162"/>
-      <c r="D104" s="162"/>
-      <c r="E104" s="155"/>
+      <c r="B104" s="172"/>
+      <c r="C104" s="172"/>
+      <c r="D104" s="172"/>
+      <c r="E104" s="143"/>
       <c r="F104" s="53">
         <v>2</v>
       </c>
-      <c r="G104" s="162"/>
+      <c r="G104" s="172"/>
       <c r="H104" s="53"/>
       <c r="I104" s="53">
         <v>9.1</v>
@@ -12751,14 +12832,14 @@
       <c r="A105" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="B105" s="162"/>
-      <c r="C105" s="162"/>
-      <c r="D105" s="162"/>
-      <c r="E105" s="155"/>
+      <c r="B105" s="172"/>
+      <c r="C105" s="172"/>
+      <c r="D105" s="172"/>
+      <c r="E105" s="143"/>
       <c r="F105" s="53">
         <v>3</v>
       </c>
-      <c r="G105" s="162"/>
+      <c r="G105" s="172"/>
       <c r="H105" s="53"/>
       <c r="I105" s="53">
         <v>24.1</v>
@@ -12783,14 +12864,14 @@
       <c r="A106" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="B106" s="163"/>
-      <c r="C106" s="163"/>
-      <c r="D106" s="163"/>
-      <c r="E106" s="156"/>
+      <c r="B106" s="173"/>
+      <c r="C106" s="173"/>
+      <c r="D106" s="173"/>
+      <c r="E106" s="141"/>
       <c r="F106" s="53">
         <v>4</v>
       </c>
-      <c r="G106" s="163"/>
+      <c r="G106" s="173"/>
       <c r="H106" s="53"/>
       <c r="I106" s="53">
         <v>6.4</v>
@@ -12912,25 +12993,25 @@
       <c r="A110" s="53" t="s">
         <v>333</v>
       </c>
-      <c r="B110" s="171" t="s">
+      <c r="B110" s="181" t="s">
         <v>334</v>
       </c>
       <c r="C110" s="53" t="s">
         <v>335</v>
       </c>
-      <c r="D110" s="171" t="s">
+      <c r="D110" s="181" t="s">
         <v>330</v>
       </c>
-      <c r="E110" s="172">
+      <c r="E110" s="182">
         <v>45698</v>
       </c>
       <c r="F110" s="53">
         <v>1</v>
       </c>
-      <c r="G110" s="171" t="s">
+      <c r="G110" s="181" t="s">
         <v>331</v>
       </c>
-      <c r="H110" s="171">
+      <c r="H110" s="181">
         <v>2</v>
       </c>
       <c r="I110" s="53">
@@ -12949,7 +13030,7 @@
         <v>10</v>
       </c>
       <c r="N110" s="53"/>
-      <c r="O110" s="171" t="s">
+      <c r="O110" s="181" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12957,17 +13038,17 @@
       <c r="A111" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="B111" s="171"/>
+      <c r="B111" s="181"/>
       <c r="C111" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="D111" s="171"/>
-      <c r="E111" s="172"/>
+      <c r="D111" s="181"/>
+      <c r="E111" s="182"/>
       <c r="F111" s="53">
         <v>2</v>
       </c>
-      <c r="G111" s="171"/>
-      <c r="H111" s="171"/>
+      <c r="G111" s="181"/>
+      <c r="H111" s="181"/>
       <c r="I111" s="53">
         <v>1.4</v>
       </c>
@@ -12984,7 +13065,7 @@
         <v>14</v>
       </c>
       <c r="N111" s="53"/>
-      <c r="O111" s="171"/>
+      <c r="O111" s="181"/>
     </row>
     <row r="112" spans="1:15" ht="22.5">
       <c r="A112" s="64"/>
@@ -13361,25 +13442,25 @@
       <c r="A123" s="44" t="s">
         <v>377</v>
       </c>
-      <c r="B123" s="173" t="s">
+      <c r="B123" s="133" t="s">
         <v>378</v>
       </c>
-      <c r="C123" s="173" t="s">
+      <c r="C123" s="133" t="s">
         <v>379</v>
       </c>
-      <c r="D123" s="173" t="s">
+      <c r="D123" s="133" t="s">
         <v>380</v>
       </c>
-      <c r="E123" s="177">
+      <c r="E123" s="137">
         <v>45706</v>
       </c>
       <c r="F123" s="44">
         <v>1</v>
       </c>
-      <c r="G123" s="143" t="s">
+      <c r="G123" s="164" t="s">
         <v>381</v>
       </c>
-      <c r="H123" s="173">
+      <c r="H123" s="133">
         <v>553</v>
       </c>
       <c r="I123" s="44">
@@ -13398,7 +13479,7 @@
         <v>49</v>
       </c>
       <c r="N123" s="44"/>
-      <c r="O123" s="173" t="s">
+      <c r="O123" s="133" t="s">
         <v>196</v>
       </c>
     </row>
@@ -13406,15 +13487,15 @@
       <c r="A124" s="44" t="s">
         <v>382</v>
       </c>
-      <c r="B124" s="179"/>
-      <c r="C124" s="179"/>
-      <c r="D124" s="179"/>
-      <c r="E124" s="180"/>
+      <c r="B124" s="134"/>
+      <c r="C124" s="134"/>
+      <c r="D124" s="134"/>
+      <c r="E124" s="138"/>
       <c r="F124" s="44">
         <v>2</v>
       </c>
-      <c r="G124" s="144"/>
-      <c r="H124" s="179"/>
+      <c r="G124" s="165"/>
+      <c r="H124" s="134"/>
       <c r="I124" s="44">
         <v>11.9</v>
       </c>
@@ -13431,21 +13512,21 @@
         <v>49</v>
       </c>
       <c r="N124" s="44"/>
-      <c r="O124" s="179"/>
+      <c r="O124" s="134"/>
     </row>
     <row r="125" spans="1:15" ht="21">
       <c r="A125" s="44" t="s">
         <v>383</v>
       </c>
-      <c r="B125" s="179"/>
-      <c r="C125" s="179"/>
-      <c r="D125" s="179"/>
-      <c r="E125" s="180"/>
+      <c r="B125" s="134"/>
+      <c r="C125" s="134"/>
+      <c r="D125" s="134"/>
+      <c r="E125" s="138"/>
       <c r="F125" s="44">
         <v>3</v>
       </c>
-      <c r="G125" s="144"/>
-      <c r="H125" s="179"/>
+      <c r="G125" s="165"/>
+      <c r="H125" s="134"/>
       <c r="I125" s="44">
         <v>13.8</v>
       </c>
@@ -13462,21 +13543,21 @@
         <v>49</v>
       </c>
       <c r="N125" s="44"/>
-      <c r="O125" s="179"/>
+      <c r="O125" s="134"/>
     </row>
     <row r="126" spans="1:15" ht="21">
       <c r="A126" s="44" t="s">
         <v>384</v>
       </c>
-      <c r="B126" s="179"/>
-      <c r="C126" s="179"/>
-      <c r="D126" s="179"/>
-      <c r="E126" s="180"/>
+      <c r="B126" s="134"/>
+      <c r="C126" s="134"/>
+      <c r="D126" s="134"/>
+      <c r="E126" s="138"/>
       <c r="F126" s="44">
         <v>4</v>
       </c>
-      <c r="G126" s="144"/>
-      <c r="H126" s="179"/>
+      <c r="G126" s="165"/>
+      <c r="H126" s="134"/>
       <c r="I126" s="44">
         <v>17.600000000000001</v>
       </c>
@@ -13493,21 +13574,21 @@
         <v>49</v>
       </c>
       <c r="N126" s="44"/>
-      <c r="O126" s="179"/>
+      <c r="O126" s="134"/>
     </row>
     <row r="127" spans="1:15" ht="21">
       <c r="A127" s="44" t="s">
         <v>385</v>
       </c>
-      <c r="B127" s="179"/>
-      <c r="C127" s="179"/>
-      <c r="D127" s="179"/>
-      <c r="E127" s="180"/>
+      <c r="B127" s="134"/>
+      <c r="C127" s="134"/>
+      <c r="D127" s="134"/>
+      <c r="E127" s="138"/>
       <c r="F127" s="44">
         <v>5</v>
       </c>
-      <c r="G127" s="144"/>
-      <c r="H127" s="179"/>
+      <c r="G127" s="165"/>
+      <c r="H127" s="134"/>
       <c r="I127" s="44">
         <v>7.8</v>
       </c>
@@ -13524,21 +13605,21 @@
         <v>43</v>
       </c>
       <c r="N127" s="44"/>
-      <c r="O127" s="179"/>
+      <c r="O127" s="134"/>
     </row>
     <row r="128" spans="1:15" ht="21">
       <c r="A128" s="44" t="s">
         <v>386</v>
       </c>
-      <c r="B128" s="179"/>
-      <c r="C128" s="179"/>
-      <c r="D128" s="179"/>
-      <c r="E128" s="180"/>
+      <c r="B128" s="134"/>
+      <c r="C128" s="134"/>
+      <c r="D128" s="134"/>
+      <c r="E128" s="138"/>
       <c r="F128" s="44">
         <v>6</v>
       </c>
-      <c r="G128" s="144"/>
-      <c r="H128" s="179"/>
+      <c r="G128" s="165"/>
+      <c r="H128" s="134"/>
       <c r="I128" s="44">
         <v>15.5</v>
       </c>
@@ -13555,21 +13636,21 @@
         <v>49</v>
       </c>
       <c r="N128" s="44"/>
-      <c r="O128" s="179"/>
+      <c r="O128" s="134"/>
     </row>
     <row r="129" spans="1:15" ht="21">
       <c r="A129" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="B129" s="174"/>
-      <c r="C129" s="174"/>
-      <c r="D129" s="174"/>
-      <c r="E129" s="178"/>
+      <c r="B129" s="135"/>
+      <c r="C129" s="135"/>
+      <c r="D129" s="135"/>
+      <c r="E129" s="139"/>
       <c r="F129" s="44">
         <v>7</v>
       </c>
-      <c r="G129" s="145"/>
-      <c r="H129" s="174"/>
+      <c r="G129" s="166"/>
+      <c r="H129" s="135"/>
       <c r="I129" s="44">
         <v>14.6</v>
       </c>
@@ -13586,7 +13667,7 @@
         <v>49</v>
       </c>
       <c r="N129" s="44"/>
-      <c r="O129" s="174"/>
+      <c r="O129" s="135"/>
     </row>
     <row r="130" spans="1:15" ht="22.5">
       <c r="A130" s="64"/>
@@ -14234,22 +14315,22 @@
       <c r="A149" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B149" s="166" t="s">
+      <c r="B149" s="174" t="s">
         <v>448</v>
       </c>
       <c r="C149" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="D149" s="166" t="s">
+      <c r="D149" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="E149" s="168">
+      <c r="E149" s="183">
         <v>45713</v>
       </c>
       <c r="F149" s="28">
         <v>1</v>
       </c>
-      <c r="G149" s="166" t="s">
+      <c r="G149" s="174" t="s">
         <v>25</v>
       </c>
       <c r="H149" s="28"/>
@@ -14269,7 +14350,7 @@
         <v>37</v>
       </c>
       <c r="N149" s="28"/>
-      <c r="O149" s="166" t="s">
+      <c r="O149" s="174" t="s">
         <v>26</v>
       </c>
     </row>
@@ -14277,16 +14358,16 @@
       <c r="A150" s="28" t="s">
         <v>450</v>
       </c>
-      <c r="B150" s="167"/>
+      <c r="B150" s="175"/>
       <c r="C150" s="28" t="s">
         <v>451</v>
       </c>
-      <c r="D150" s="167"/>
-      <c r="E150" s="169"/>
+      <c r="D150" s="175"/>
+      <c r="E150" s="184"/>
       <c r="F150" s="28">
         <v>2</v>
       </c>
-      <c r="G150" s="167"/>
+      <c r="G150" s="175"/>
       <c r="H150" s="28"/>
       <c r="I150" s="28">
         <v>2</v>
@@ -14304,7 +14385,7 @@
         <v>16</v>
       </c>
       <c r="N150" s="28"/>
-      <c r="O150" s="167"/>
+      <c r="O150" s="175"/>
     </row>
     <row r="151" spans="1:15" ht="22.5">
       <c r="A151" s="64"/>
@@ -14335,25 +14416,25 @@
       <c r="A152" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="B152" s="166" t="s">
+      <c r="B152" s="174" t="s">
         <v>453</v>
       </c>
-      <c r="C152" s="166" t="s">
+      <c r="C152" s="174" t="s">
         <v>454</v>
       </c>
-      <c r="D152" s="166" t="s">
+      <c r="D152" s="174" t="s">
         <v>455</v>
       </c>
-      <c r="E152" s="168">
+      <c r="E152" s="183">
         <v>45713</v>
       </c>
       <c r="F152" s="28">
         <v>1</v>
       </c>
-      <c r="G152" s="166" t="s">
+      <c r="G152" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="H152" s="166">
+      <c r="H152" s="174">
         <v>120</v>
       </c>
       <c r="I152" s="28">
@@ -14372,7 +14453,7 @@
         <v>50</v>
       </c>
       <c r="N152" s="28"/>
-      <c r="O152" s="166" t="s">
+      <c r="O152" s="174" t="s">
         <v>26</v>
       </c>
     </row>
@@ -14380,15 +14461,15 @@
       <c r="A153" s="28" t="s">
         <v>456</v>
       </c>
-      <c r="B153" s="170"/>
-      <c r="C153" s="170"/>
-      <c r="D153" s="170"/>
-      <c r="E153" s="129"/>
+      <c r="B153" s="176"/>
+      <c r="C153" s="176"/>
+      <c r="D153" s="176"/>
+      <c r="E153" s="147"/>
       <c r="F153" s="28">
         <v>2</v>
       </c>
-      <c r="G153" s="170"/>
-      <c r="H153" s="170"/>
+      <c r="G153" s="176"/>
+      <c r="H153" s="176"/>
       <c r="I153" s="28">
         <v>19.5</v>
       </c>
@@ -14405,21 +14486,21 @@
         <v>50</v>
       </c>
       <c r="N153" s="28"/>
-      <c r="O153" s="170"/>
+      <c r="O153" s="176"/>
     </row>
     <row r="154" spans="1:15" ht="21">
       <c r="A154" s="28" t="s">
         <v>457</v>
       </c>
-      <c r="B154" s="170"/>
-      <c r="C154" s="170"/>
-      <c r="D154" s="170"/>
-      <c r="E154" s="129"/>
+      <c r="B154" s="176"/>
+      <c r="C154" s="176"/>
+      <c r="D154" s="176"/>
+      <c r="E154" s="147"/>
       <c r="F154" s="28">
         <v>3</v>
       </c>
-      <c r="G154" s="170"/>
-      <c r="H154" s="170"/>
+      <c r="G154" s="176"/>
+      <c r="H154" s="176"/>
       <c r="I154" s="28">
         <v>22</v>
       </c>
@@ -14436,21 +14517,21 @@
         <v>50</v>
       </c>
       <c r="N154" s="28"/>
-      <c r="O154" s="170"/>
+      <c r="O154" s="176"/>
     </row>
     <row r="155" spans="1:15" ht="21">
       <c r="A155" s="28" t="s">
         <v>458</v>
       </c>
-      <c r="B155" s="170"/>
-      <c r="C155" s="170"/>
-      <c r="D155" s="170"/>
-      <c r="E155" s="129"/>
+      <c r="B155" s="176"/>
+      <c r="C155" s="176"/>
+      <c r="D155" s="176"/>
+      <c r="E155" s="147"/>
       <c r="F155" s="28">
         <v>4</v>
       </c>
-      <c r="G155" s="170"/>
-      <c r="H155" s="170"/>
+      <c r="G155" s="176"/>
+      <c r="H155" s="176"/>
       <c r="I155" s="28">
         <v>21.2</v>
       </c>
@@ -14467,21 +14548,21 @@
         <v>50</v>
       </c>
       <c r="N155" s="28"/>
-      <c r="O155" s="170"/>
+      <c r="O155" s="176"/>
     </row>
     <row r="156" spans="1:15" ht="21">
       <c r="A156" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="B156" s="170"/>
-      <c r="C156" s="170"/>
-      <c r="D156" s="170"/>
-      <c r="E156" s="129"/>
+      <c r="B156" s="176"/>
+      <c r="C156" s="176"/>
+      <c r="D156" s="176"/>
+      <c r="E156" s="147"/>
       <c r="F156" s="28">
         <v>5</v>
       </c>
-      <c r="G156" s="170"/>
-      <c r="H156" s="170"/>
+      <c r="G156" s="176"/>
+      <c r="H156" s="176"/>
       <c r="I156" s="28">
         <v>19.600000000000001</v>
       </c>
@@ -14498,21 +14579,21 @@
         <v>50</v>
       </c>
       <c r="N156" s="28"/>
-      <c r="O156" s="170"/>
+      <c r="O156" s="176"/>
     </row>
     <row r="157" spans="1:15" ht="21">
       <c r="A157" s="28" t="s">
         <v>460</v>
       </c>
-      <c r="B157" s="167"/>
-      <c r="C157" s="167"/>
-      <c r="D157" s="167"/>
-      <c r="E157" s="130"/>
+      <c r="B157" s="175"/>
+      <c r="C157" s="175"/>
+      <c r="D157" s="175"/>
+      <c r="E157" s="145"/>
       <c r="F157" s="28">
         <v>6</v>
       </c>
-      <c r="G157" s="167"/>
-      <c r="H157" s="167"/>
+      <c r="G157" s="175"/>
+      <c r="H157" s="175"/>
       <c r="I157" s="28">
         <v>20.2</v>
       </c>
@@ -14529,7 +14610,7 @@
         <v>50</v>
       </c>
       <c r="N157" s="28"/>
-      <c r="O157" s="167"/>
+      <c r="O157" s="175"/>
     </row>
     <row r="158" spans="1:15" ht="22.5">
       <c r="A158" s="64"/>
@@ -14558,25 +14639,25 @@
       <c r="A159" s="53" t="s">
         <v>469</v>
       </c>
-      <c r="B159" s="161" t="s">
+      <c r="B159" s="171" t="s">
         <v>470</v>
       </c>
-      <c r="C159" s="161" t="s">
+      <c r="C159" s="171" t="s">
         <v>471</v>
       </c>
-      <c r="D159" s="161" t="s">
+      <c r="D159" s="171" t="s">
         <v>192</v>
       </c>
-      <c r="E159" s="154">
+      <c r="E159" s="140">
         <v>45714</v>
       </c>
       <c r="F159" s="53">
         <v>1</v>
       </c>
-      <c r="G159" s="161" t="s">
+      <c r="G159" s="171" t="s">
         <v>472</v>
       </c>
-      <c r="H159" s="161"/>
+      <c r="H159" s="171"/>
       <c r="I159" s="53">
         <v>7.1</v>
       </c>
@@ -14594,7 +14675,7 @@
         <v>40</v>
       </c>
       <c r="N159" s="53"/>
-      <c r="O159" s="161" t="s">
+      <c r="O159" s="171" t="s">
         <v>26</v>
       </c>
     </row>
@@ -14602,15 +14683,15 @@
       <c r="A160" s="53" t="s">
         <v>473</v>
       </c>
-      <c r="B160" s="162"/>
-      <c r="C160" s="162"/>
-      <c r="D160" s="162"/>
-      <c r="E160" s="155"/>
+      <c r="B160" s="172"/>
+      <c r="C160" s="172"/>
+      <c r="D160" s="172"/>
+      <c r="E160" s="143"/>
       <c r="F160" s="53">
         <v>2</v>
       </c>
-      <c r="G160" s="162"/>
-      <c r="H160" s="162"/>
+      <c r="G160" s="172"/>
+      <c r="H160" s="172"/>
       <c r="I160" s="53">
         <v>7.3</v>
       </c>
@@ -14628,21 +14709,21 @@
         <v>40</v>
       </c>
       <c r="N160" s="53"/>
-      <c r="O160" s="162"/>
+      <c r="O160" s="172"/>
     </row>
     <row r="161" spans="1:15" ht="21">
       <c r="A161" s="53" t="s">
         <v>474</v>
       </c>
-      <c r="B161" s="162"/>
-      <c r="C161" s="162"/>
-      <c r="D161" s="162"/>
-      <c r="E161" s="155"/>
+      <c r="B161" s="172"/>
+      <c r="C161" s="172"/>
+      <c r="D161" s="172"/>
+      <c r="E161" s="143"/>
       <c r="F161" s="53">
         <v>3</v>
       </c>
-      <c r="G161" s="162"/>
-      <c r="H161" s="162"/>
+      <c r="G161" s="172"/>
+      <c r="H161" s="172"/>
       <c r="I161" s="53">
         <v>7</v>
       </c>
@@ -14660,21 +14741,21 @@
         <v>40</v>
       </c>
       <c r="N161" s="53"/>
-      <c r="O161" s="162"/>
+      <c r="O161" s="172"/>
     </row>
     <row r="162" spans="1:15" ht="21">
       <c r="A162" s="53" t="s">
         <v>475</v>
       </c>
-      <c r="B162" s="162"/>
-      <c r="C162" s="162"/>
-      <c r="D162" s="162"/>
-      <c r="E162" s="155"/>
+      <c r="B162" s="172"/>
+      <c r="C162" s="172"/>
+      <c r="D162" s="172"/>
+      <c r="E162" s="143"/>
       <c r="F162" s="53">
         <v>4</v>
       </c>
-      <c r="G162" s="162"/>
-      <c r="H162" s="162"/>
+      <c r="G162" s="172"/>
+      <c r="H162" s="172"/>
       <c r="I162" s="53">
         <v>8.4</v>
       </c>
@@ -14692,21 +14773,21 @@
         <v>40</v>
       </c>
       <c r="N162" s="53"/>
-      <c r="O162" s="162"/>
+      <c r="O162" s="172"/>
     </row>
     <row r="163" spans="1:15" ht="21">
       <c r="A163" s="53" t="s">
         <v>476</v>
       </c>
-      <c r="B163" s="162"/>
-      <c r="C163" s="162"/>
-      <c r="D163" s="162"/>
-      <c r="E163" s="155"/>
+      <c r="B163" s="172"/>
+      <c r="C163" s="172"/>
+      <c r="D163" s="172"/>
+      <c r="E163" s="143"/>
       <c r="F163" s="53">
         <v>5</v>
       </c>
-      <c r="G163" s="162"/>
-      <c r="H163" s="162"/>
+      <c r="G163" s="172"/>
+      <c r="H163" s="172"/>
       <c r="I163" s="53">
         <v>6.7</v>
       </c>
@@ -14724,21 +14805,21 @@
         <v>40</v>
       </c>
       <c r="N163" s="53"/>
-      <c r="O163" s="162"/>
+      <c r="O163" s="172"/>
     </row>
     <row r="164" spans="1:15" ht="21">
       <c r="A164" s="53" t="s">
         <v>477</v>
       </c>
-      <c r="B164" s="162"/>
-      <c r="C164" s="162"/>
-      <c r="D164" s="162"/>
-      <c r="E164" s="155"/>
+      <c r="B164" s="172"/>
+      <c r="C164" s="172"/>
+      <c r="D164" s="172"/>
+      <c r="E164" s="143"/>
       <c r="F164" s="53">
         <v>6</v>
       </c>
-      <c r="G164" s="162"/>
-      <c r="H164" s="162"/>
+      <c r="G164" s="172"/>
+      <c r="H164" s="172"/>
       <c r="I164" s="53">
         <v>6.9</v>
       </c>
@@ -14756,21 +14837,21 @@
         <v>40</v>
       </c>
       <c r="N164" s="53"/>
-      <c r="O164" s="162"/>
+      <c r="O164" s="172"/>
     </row>
     <row r="165" spans="1:15" ht="21">
       <c r="A165" s="53" t="s">
         <v>478</v>
       </c>
-      <c r="B165" s="162"/>
-      <c r="C165" s="162"/>
-      <c r="D165" s="162"/>
-      <c r="E165" s="155"/>
+      <c r="B165" s="172"/>
+      <c r="C165" s="172"/>
+      <c r="D165" s="172"/>
+      <c r="E165" s="143"/>
       <c r="F165" s="53">
         <v>7</v>
       </c>
-      <c r="G165" s="162"/>
-      <c r="H165" s="162"/>
+      <c r="G165" s="172"/>
+      <c r="H165" s="172"/>
       <c r="I165" s="53">
         <v>5.8</v>
       </c>
@@ -14788,21 +14869,21 @@
         <v>40</v>
       </c>
       <c r="N165" s="53"/>
-      <c r="O165" s="162"/>
+      <c r="O165" s="172"/>
     </row>
     <row r="166" spans="1:15" ht="21">
       <c r="A166" s="53" t="s">
         <v>479</v>
       </c>
-      <c r="B166" s="163"/>
-      <c r="C166" s="163"/>
-      <c r="D166" s="163"/>
-      <c r="E166" s="156"/>
+      <c r="B166" s="173"/>
+      <c r="C166" s="173"/>
+      <c r="D166" s="173"/>
+      <c r="E166" s="141"/>
       <c r="F166" s="53">
         <v>8</v>
       </c>
-      <c r="G166" s="163"/>
-      <c r="H166" s="163"/>
+      <c r="G166" s="173"/>
+      <c r="H166" s="173"/>
       <c r="I166" s="53">
         <v>7.1</v>
       </c>
@@ -14820,7 +14901,7 @@
         <v>40</v>
       </c>
       <c r="N166" s="53"/>
-      <c r="O166" s="163"/>
+      <c r="O166" s="173"/>
     </row>
     <row r="167" spans="1:15" ht="22.5">
       <c r="A167" s="122"/>
@@ -14989,25 +15070,25 @@
       <c r="A172" s="76" t="s">
         <v>487</v>
       </c>
-      <c r="B172" s="142" t="s">
+      <c r="B172" s="161" t="s">
         <v>488</v>
       </c>
-      <c r="C172" s="142" t="s">
+      <c r="C172" s="161" t="s">
         <v>489</v>
       </c>
-      <c r="D172" s="142" t="s">
+      <c r="D172" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="E172" s="146">
+      <c r="E172" s="167">
         <v>45715</v>
       </c>
       <c r="F172" s="76">
         <v>1</v>
       </c>
-      <c r="G172" s="143" t="s">
+      <c r="G172" s="164" t="s">
         <v>490</v>
       </c>
-      <c r="H172" s="142">
+      <c r="H172" s="161">
         <v>604</v>
       </c>
       <c r="I172" s="76">
@@ -15026,7 +15107,7 @@
         <v>49</v>
       </c>
       <c r="N172" s="76"/>
-      <c r="O172" s="142" t="s">
+      <c r="O172" s="161" t="s">
         <v>491</v>
       </c>
     </row>
@@ -15034,15 +15115,15 @@
       <c r="A173" s="76" t="s">
         <v>492</v>
       </c>
-      <c r="B173" s="140"/>
-      <c r="C173" s="140"/>
-      <c r="D173" s="140"/>
-      <c r="E173" s="147"/>
+      <c r="B173" s="162"/>
+      <c r="C173" s="162"/>
+      <c r="D173" s="162"/>
+      <c r="E173" s="168"/>
       <c r="F173" s="76">
         <v>2</v>
       </c>
-      <c r="G173" s="140"/>
-      <c r="H173" s="140"/>
+      <c r="G173" s="162"/>
+      <c r="H173" s="162"/>
       <c r="I173" s="76">
         <v>14.2</v>
       </c>
@@ -15059,21 +15140,21 @@
         <v>49</v>
       </c>
       <c r="N173" s="76"/>
-      <c r="O173" s="140"/>
+      <c r="O173" s="162"/>
     </row>
     <row r="174" spans="1:15" ht="21">
       <c r="A174" s="76" t="s">
         <v>493</v>
       </c>
-      <c r="B174" s="140"/>
-      <c r="C174" s="140"/>
-      <c r="D174" s="140"/>
-      <c r="E174" s="147"/>
+      <c r="B174" s="162"/>
+      <c r="C174" s="162"/>
+      <c r="D174" s="162"/>
+      <c r="E174" s="168"/>
       <c r="F174" s="76">
         <v>3</v>
       </c>
-      <c r="G174" s="140"/>
-      <c r="H174" s="140"/>
+      <c r="G174" s="162"/>
+      <c r="H174" s="162"/>
       <c r="I174" s="76">
         <v>14.8</v>
       </c>
@@ -15090,21 +15171,21 @@
         <v>49</v>
       </c>
       <c r="N174" s="76"/>
-      <c r="O174" s="140"/>
+      <c r="O174" s="162"/>
     </row>
     <row r="175" spans="1:15" ht="21">
       <c r="A175" s="76" t="s">
         <v>494</v>
       </c>
-      <c r="B175" s="140"/>
-      <c r="C175" s="140"/>
-      <c r="D175" s="140"/>
-      <c r="E175" s="147"/>
+      <c r="B175" s="162"/>
+      <c r="C175" s="162"/>
+      <c r="D175" s="162"/>
+      <c r="E175" s="168"/>
       <c r="F175" s="76">
         <v>4</v>
       </c>
-      <c r="G175" s="140"/>
-      <c r="H175" s="140"/>
+      <c r="G175" s="162"/>
+      <c r="H175" s="162"/>
       <c r="I175" s="76">
         <v>16.7</v>
       </c>
@@ -15121,21 +15202,21 @@
         <v>49</v>
       </c>
       <c r="N175" s="76"/>
-      <c r="O175" s="140"/>
+      <c r="O175" s="162"/>
     </row>
     <row r="176" spans="1:15" ht="21">
       <c r="A176" s="76" t="s">
         <v>495</v>
       </c>
-      <c r="B176" s="140"/>
-      <c r="C176" s="140"/>
-      <c r="D176" s="140"/>
-      <c r="E176" s="147"/>
+      <c r="B176" s="162"/>
+      <c r="C176" s="162"/>
+      <c r="D176" s="162"/>
+      <c r="E176" s="168"/>
       <c r="F176" s="76">
         <v>5</v>
       </c>
-      <c r="G176" s="140"/>
-      <c r="H176" s="140"/>
+      <c r="G176" s="162"/>
+      <c r="H176" s="162"/>
       <c r="I176" s="76">
         <v>7.4</v>
       </c>
@@ -15152,21 +15233,21 @@
         <v>49</v>
       </c>
       <c r="N176" s="76"/>
-      <c r="O176" s="140"/>
+      <c r="O176" s="162"/>
     </row>
     <row r="177" spans="1:15" ht="21">
       <c r="A177" s="76" t="s">
         <v>338</v>
       </c>
-      <c r="B177" s="140"/>
-      <c r="C177" s="140"/>
-      <c r="D177" s="140"/>
-      <c r="E177" s="147"/>
+      <c r="B177" s="162"/>
+      <c r="C177" s="162"/>
+      <c r="D177" s="162"/>
+      <c r="E177" s="168"/>
       <c r="F177" s="76">
         <v>6</v>
       </c>
-      <c r="G177" s="140"/>
-      <c r="H177" s="140"/>
+      <c r="G177" s="162"/>
+      <c r="H177" s="162"/>
       <c r="I177" s="76">
         <v>5.9</v>
       </c>
@@ -15183,21 +15264,21 @@
         <v>49</v>
       </c>
       <c r="N177" s="76"/>
-      <c r="O177" s="140"/>
+      <c r="O177" s="162"/>
     </row>
     <row r="178" spans="1:15" ht="21">
       <c r="A178" s="76" t="s">
         <v>496</v>
       </c>
-      <c r="B178" s="141"/>
-      <c r="C178" s="141"/>
-      <c r="D178" s="141"/>
-      <c r="E178" s="148"/>
+      <c r="B178" s="163"/>
+      <c r="C178" s="163"/>
+      <c r="D178" s="163"/>
+      <c r="E178" s="169"/>
       <c r="F178" s="76">
         <v>7</v>
       </c>
-      <c r="G178" s="141"/>
-      <c r="H178" s="141"/>
+      <c r="G178" s="163"/>
+      <c r="H178" s="163"/>
       <c r="I178" s="76">
         <v>3.6</v>
       </c>
@@ -15214,7 +15295,7 @@
         <v>25</v>
       </c>
       <c r="N178" s="76"/>
-      <c r="O178" s="141"/>
+      <c r="O178" s="163"/>
     </row>
     <row r="179" spans="1:15" ht="22.5">
       <c r="A179" s="64"/>
@@ -15243,25 +15324,25 @@
       <c r="A180" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="B180" s="166" t="s">
+      <c r="B180" s="174" t="s">
         <v>498</v>
       </c>
-      <c r="C180" s="166" t="s">
+      <c r="C180" s="174" t="s">
         <v>499</v>
       </c>
-      <c r="D180" s="166" t="s">
+      <c r="D180" s="174" t="s">
         <v>192</v>
       </c>
-      <c r="E180" s="131">
+      <c r="E180" s="156">
         <v>45715</v>
       </c>
       <c r="F180" s="28">
         <v>1</v>
       </c>
-      <c r="G180" s="166" t="s">
+      <c r="G180" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="H180" s="166">
+      <c r="H180" s="174">
         <v>20</v>
       </c>
       <c r="I180" s="28">
@@ -15280,7 +15361,7 @@
         <v>40</v>
       </c>
       <c r="N180" s="28"/>
-      <c r="O180" s="166" t="s">
+      <c r="O180" s="174" t="s">
         <v>26</v>
       </c>
     </row>
@@ -15288,15 +15369,15 @@
       <c r="A181" s="28" t="s">
         <v>500</v>
       </c>
-      <c r="B181" s="170"/>
-      <c r="C181" s="170"/>
-      <c r="D181" s="170"/>
-      <c r="E181" s="132"/>
+      <c r="B181" s="176"/>
+      <c r="C181" s="176"/>
+      <c r="D181" s="176"/>
+      <c r="E181" s="157"/>
       <c r="F181" s="28">
         <v>2</v>
       </c>
-      <c r="G181" s="170"/>
-      <c r="H181" s="170"/>
+      <c r="G181" s="176"/>
+      <c r="H181" s="176"/>
       <c r="I181" s="28">
         <v>6.9</v>
       </c>
@@ -15313,21 +15394,21 @@
         <v>40</v>
       </c>
       <c r="N181" s="28"/>
-      <c r="O181" s="170"/>
+      <c r="O181" s="176"/>
     </row>
     <row r="182" spans="1:15" ht="21">
       <c r="A182" s="28" t="s">
         <v>501</v>
       </c>
-      <c r="B182" s="167"/>
-      <c r="C182" s="167"/>
-      <c r="D182" s="167"/>
-      <c r="E182" s="133"/>
+      <c r="B182" s="175"/>
+      <c r="C182" s="175"/>
+      <c r="D182" s="175"/>
+      <c r="E182" s="158"/>
       <c r="F182" s="28">
         <v>3</v>
       </c>
-      <c r="G182" s="167"/>
-      <c r="H182" s="167"/>
+      <c r="G182" s="175"/>
+      <c r="H182" s="175"/>
       <c r="I182" s="28">
         <v>6.9</v>
       </c>
@@ -15344,7 +15425,7 @@
         <v>40</v>
       </c>
       <c r="N182" s="28"/>
-      <c r="O182" s="167"/>
+      <c r="O182" s="175"/>
     </row>
     <row r="183" spans="1:15" ht="22.5">
       <c r="A183" s="64"/>
@@ -15373,22 +15454,22 @@
       <c r="A184" s="53" t="s">
         <v>502</v>
       </c>
-      <c r="B184" s="161" t="s">
+      <c r="B184" s="171" t="s">
         <v>503</v>
       </c>
       <c r="C184" s="53" t="s">
         <v>504</v>
       </c>
-      <c r="D184" s="161" t="s">
+      <c r="D184" s="171" t="s">
         <v>486</v>
       </c>
-      <c r="E184" s="154">
+      <c r="E184" s="140">
         <v>45716</v>
       </c>
       <c r="F184" s="53">
         <v>1</v>
       </c>
-      <c r="G184" s="161" t="s">
+      <c r="G184" s="171" t="s">
         <v>25</v>
       </c>
       <c r="H184" s="53">
@@ -15411,7 +15492,7 @@
         <v>60</v>
       </c>
       <c r="N184" s="53"/>
-      <c r="O184" s="161" t="s">
+      <c r="O184" s="171" t="s">
         <v>26</v>
       </c>
     </row>
@@ -15419,16 +15500,16 @@
       <c r="A185" s="53" t="s">
         <v>505</v>
       </c>
-      <c r="B185" s="162"/>
+      <c r="B185" s="172"/>
       <c r="C185" s="53" t="s">
         <v>506</v>
       </c>
-      <c r="D185" s="162"/>
-      <c r="E185" s="155"/>
+      <c r="D185" s="172"/>
+      <c r="E185" s="143"/>
       <c r="F185" s="53">
         <v>2</v>
       </c>
-      <c r="G185" s="162"/>
+      <c r="G185" s="172"/>
       <c r="H185" s="53">
         <v>11</v>
       </c>
@@ -15449,22 +15530,22 @@
         <v>60</v>
       </c>
       <c r="N185" s="53"/>
-      <c r="O185" s="162"/>
+      <c r="O185" s="172"/>
     </row>
     <row r="186" spans="1:15" ht="21">
       <c r="A186" s="53" t="s">
         <v>507</v>
       </c>
-      <c r="B186" s="163"/>
+      <c r="B186" s="173"/>
       <c r="C186" s="53" t="s">
         <v>508</v>
       </c>
-      <c r="D186" s="163"/>
-      <c r="E186" s="156"/>
+      <c r="D186" s="173"/>
+      <c r="E186" s="141"/>
       <c r="F186" s="53">
         <v>3</v>
       </c>
-      <c r="G186" s="163"/>
+      <c r="G186" s="173"/>
       <c r="H186" s="53">
         <v>10</v>
       </c>
@@ -15485,7 +15566,7 @@
         <v>60</v>
       </c>
       <c r="N186" s="53"/>
-      <c r="O186" s="163"/>
+      <c r="O186" s="173"/>
     </row>
     <row r="187" spans="1:15" ht="22.5">
       <c r="A187" s="64"/>
@@ -15586,22 +15667,22 @@
       <c r="A190" s="53" t="s">
         <v>512</v>
       </c>
-      <c r="B190" s="161" t="s">
+      <c r="B190" s="171" t="s">
         <v>513</v>
       </c>
       <c r="C190" s="53" t="s">
         <v>514</v>
       </c>
-      <c r="D190" s="161" t="s">
+      <c r="D190" s="171" t="s">
         <v>486</v>
       </c>
-      <c r="E190" s="154">
+      <c r="E190" s="140">
         <v>45717</v>
       </c>
       <c r="F190" s="53">
         <v>1</v>
       </c>
-      <c r="G190" s="161" t="s">
+      <c r="G190" s="171" t="s">
         <v>25</v>
       </c>
       <c r="H190" s="53">
@@ -15623,7 +15704,7 @@
         <v>60</v>
       </c>
       <c r="N190" s="53"/>
-      <c r="O190" s="161" t="s">
+      <c r="O190" s="171" t="s">
         <v>26</v>
       </c>
     </row>
@@ -15631,16 +15712,16 @@
       <c r="A191" s="53" t="s">
         <v>515</v>
       </c>
-      <c r="B191" s="163"/>
+      <c r="B191" s="173"/>
       <c r="C191" s="53" t="s">
         <v>516</v>
       </c>
-      <c r="D191" s="163"/>
-      <c r="E191" s="156"/>
+      <c r="D191" s="173"/>
+      <c r="E191" s="141"/>
       <c r="F191" s="53">
         <v>2</v>
       </c>
-      <c r="G191" s="163"/>
+      <c r="G191" s="173"/>
       <c r="H191" s="53">
         <v>10</v>
       </c>
@@ -15660,7 +15741,7 @@
         <v>60</v>
       </c>
       <c r="N191" s="53"/>
-      <c r="O191" s="163"/>
+      <c r="O191" s="173"/>
     </row>
     <row r="192" spans="1:15" ht="22.5">
       <c r="A192" s="122"/>
@@ -15829,20 +15910,20 @@
       <c r="A197" s="53" t="s">
         <v>525</v>
       </c>
-      <c r="B197" s="161" t="s">
+      <c r="B197" s="171" t="s">
         <v>526</v>
       </c>
       <c r="C197" s="53"/>
-      <c r="D197" s="161" t="s">
+      <c r="D197" s="171" t="s">
         <v>156</v>
       </c>
-      <c r="E197" s="154">
+      <c r="E197" s="140">
         <v>45719</v>
       </c>
       <c r="F197" s="53">
         <v>1</v>
       </c>
-      <c r="G197" s="164" t="s">
+      <c r="G197" s="180" t="s">
         <v>527</v>
       </c>
       <c r="H197" s="53">
@@ -15870,14 +15951,14 @@
       <c r="A198" s="53" t="s">
         <v>528</v>
       </c>
-      <c r="B198" s="163"/>
+      <c r="B198" s="173"/>
       <c r="C198" s="53"/>
-      <c r="D198" s="163"/>
-      <c r="E198" s="156"/>
+      <c r="D198" s="173"/>
+      <c r="E198" s="141"/>
       <c r="F198" s="53">
         <v>2</v>
       </c>
-      <c r="G198" s="163"/>
+      <c r="G198" s="173"/>
       <c r="H198" s="53">
         <v>100</v>
       </c>
@@ -15926,22 +16007,22 @@
       <c r="A200" s="53" t="s">
         <v>533</v>
       </c>
-      <c r="B200" s="161" t="s">
+      <c r="B200" s="171" t="s">
         <v>534</v>
       </c>
       <c r="C200" s="53" t="s">
         <v>535</v>
       </c>
-      <c r="D200" s="161" t="s">
+      <c r="D200" s="171" t="s">
         <v>486</v>
       </c>
-      <c r="E200" s="154">
+      <c r="E200" s="140">
         <v>45720</v>
       </c>
       <c r="F200" s="53">
         <v>1</v>
       </c>
-      <c r="G200" s="164" t="s">
+      <c r="G200" s="180" t="s">
         <v>536</v>
       </c>
       <c r="H200" s="53">
@@ -15963,7 +16044,7 @@
         <v>59</v>
       </c>
       <c r="N200" s="53"/>
-      <c r="O200" s="161" t="s">
+      <c r="O200" s="171" t="s">
         <v>26</v>
       </c>
     </row>
@@ -15971,16 +16052,16 @@
       <c r="A201" s="53" t="s">
         <v>537</v>
       </c>
-      <c r="B201" s="163"/>
+      <c r="B201" s="173"/>
       <c r="C201" s="53" t="s">
         <v>538</v>
       </c>
-      <c r="D201" s="163"/>
-      <c r="E201" s="156"/>
+      <c r="D201" s="173"/>
+      <c r="E201" s="141"/>
       <c r="F201" s="53">
         <v>2</v>
       </c>
-      <c r="G201" s="165"/>
+      <c r="G201" s="185"/>
       <c r="H201" s="53">
         <v>12</v>
       </c>
@@ -16000,7 +16081,7 @@
         <v>59</v>
       </c>
       <c r="N201" s="53"/>
-      <c r="O201" s="163"/>
+      <c r="O201" s="173"/>
     </row>
     <row r="202" spans="1:15" ht="22.5">
       <c r="A202" s="64"/>
@@ -16168,25 +16249,25 @@
       <c r="A207" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="B207" s="161" t="s">
+      <c r="B207" s="171" t="s">
         <v>545</v>
       </c>
-      <c r="C207" s="161" t="s">
+      <c r="C207" s="171" t="s">
         <v>546</v>
       </c>
-      <c r="D207" s="161" t="s">
+      <c r="D207" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="E207" s="154">
+      <c r="E207" s="140">
         <v>45723</v>
       </c>
       <c r="F207" s="53">
         <v>1</v>
       </c>
-      <c r="G207" s="161" t="s">
+      <c r="G207" s="171" t="s">
         <v>547</v>
       </c>
-      <c r="H207" s="161"/>
+      <c r="H207" s="171"/>
       <c r="I207" s="53">
         <v>27.4</v>
       </c>
@@ -16210,15 +16291,15 @@
       <c r="A208" s="53" t="s">
         <v>548</v>
       </c>
-      <c r="B208" s="162"/>
-      <c r="C208" s="162"/>
-      <c r="D208" s="162"/>
-      <c r="E208" s="155"/>
+      <c r="B208" s="172"/>
+      <c r="C208" s="172"/>
+      <c r="D208" s="172"/>
+      <c r="E208" s="143"/>
       <c r="F208" s="53">
         <v>2</v>
       </c>
-      <c r="G208" s="162"/>
-      <c r="H208" s="162"/>
+      <c r="G208" s="172"/>
+      <c r="H208" s="172"/>
       <c r="I208" s="53">
         <v>16.5</v>
       </c>
@@ -16242,15 +16323,15 @@
       <c r="A209" s="53" t="s">
         <v>388</v>
       </c>
-      <c r="B209" s="163"/>
-      <c r="C209" s="163"/>
-      <c r="D209" s="163"/>
-      <c r="E209" s="156"/>
+      <c r="B209" s="173"/>
+      <c r="C209" s="173"/>
+      <c r="D209" s="173"/>
+      <c r="E209" s="141"/>
       <c r="F209" s="53">
         <v>3</v>
       </c>
-      <c r="G209" s="163"/>
-      <c r="H209" s="163"/>
+      <c r="G209" s="173"/>
+      <c r="H209" s="173"/>
       <c r="I209" s="53">
         <v>24.2</v>
       </c>
@@ -16364,6 +16445,102 @@
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="G200:G201"/>
+    <mergeCell ref="O200:O201"/>
+    <mergeCell ref="D172:D178"/>
+    <mergeCell ref="E172:E178"/>
+    <mergeCell ref="G172:G178"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="D197:D198"/>
+    <mergeCell ref="E197:E198"/>
+    <mergeCell ref="G197:G198"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="G190:G191"/>
+    <mergeCell ref="O190:O191"/>
+    <mergeCell ref="H152:H157"/>
+    <mergeCell ref="O152:O157"/>
+    <mergeCell ref="B152:B157"/>
+    <mergeCell ref="C152:C157"/>
+    <mergeCell ref="D152:D157"/>
+    <mergeCell ref="E152:E157"/>
+    <mergeCell ref="G152:G157"/>
+    <mergeCell ref="H159:H166"/>
+    <mergeCell ref="O159:O166"/>
+    <mergeCell ref="B159:B166"/>
+    <mergeCell ref="C159:C166"/>
+    <mergeCell ref="D159:D166"/>
+    <mergeCell ref="E159:E166"/>
+    <mergeCell ref="G159:G166"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="G103:G106"/>
+    <mergeCell ref="O110:O111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="O149:O150"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="B71:B81"/>
+    <mergeCell ref="C71:C81"/>
+    <mergeCell ref="D71:D81"/>
+    <mergeCell ref="E71:E81"/>
+    <mergeCell ref="G71:G81"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="G123:G129"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="E180:E182"/>
+    <mergeCell ref="G180:G182"/>
+    <mergeCell ref="H180:H182"/>
+    <mergeCell ref="O180:O182"/>
+    <mergeCell ref="B172:B178"/>
+    <mergeCell ref="C172:C178"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="H123:H129"/>
+    <mergeCell ref="O123:O129"/>
+    <mergeCell ref="B123:B129"/>
+    <mergeCell ref="C123:C129"/>
+    <mergeCell ref="D123:D129"/>
+    <mergeCell ref="E123:E129"/>
     <mergeCell ref="B207:B209"/>
     <mergeCell ref="C207:C209"/>
     <mergeCell ref="D207:D209"/>
@@ -16388,102 +16565,6 @@
     <mergeCell ref="B180:B182"/>
     <mergeCell ref="C180:C182"/>
     <mergeCell ref="D180:D182"/>
-    <mergeCell ref="E180:E182"/>
-    <mergeCell ref="G180:G182"/>
-    <mergeCell ref="H180:H182"/>
-    <mergeCell ref="O180:O182"/>
-    <mergeCell ref="B172:B178"/>
-    <mergeCell ref="C172:C178"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="H123:H129"/>
-    <mergeCell ref="O123:O129"/>
-    <mergeCell ref="B123:B129"/>
-    <mergeCell ref="C123:C129"/>
-    <mergeCell ref="D123:D129"/>
-    <mergeCell ref="E123:E129"/>
-    <mergeCell ref="G123:G129"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="B71:B81"/>
-    <mergeCell ref="C71:C81"/>
-    <mergeCell ref="D71:D81"/>
-    <mergeCell ref="E71:E81"/>
-    <mergeCell ref="G71:G81"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="G103:G106"/>
-    <mergeCell ref="O110:O111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="O149:O150"/>
-    <mergeCell ref="H152:H157"/>
-    <mergeCell ref="O152:O157"/>
-    <mergeCell ref="B152:B157"/>
-    <mergeCell ref="C152:C157"/>
-    <mergeCell ref="D152:D157"/>
-    <mergeCell ref="E152:E157"/>
-    <mergeCell ref="G152:G157"/>
-    <mergeCell ref="H159:H166"/>
-    <mergeCell ref="O159:O166"/>
-    <mergeCell ref="B159:B166"/>
-    <mergeCell ref="C159:C166"/>
-    <mergeCell ref="D159:D166"/>
-    <mergeCell ref="E159:E166"/>
-    <mergeCell ref="G159:G166"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="G200:G201"/>
-    <mergeCell ref="O200:O201"/>
-    <mergeCell ref="D172:D178"/>
-    <mergeCell ref="E172:E178"/>
-    <mergeCell ref="G172:G178"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="D197:D198"/>
-    <mergeCell ref="E197:E198"/>
-    <mergeCell ref="G197:G198"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="G190:G191"/>
-    <mergeCell ref="O190:O191"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16493,7 +16574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7700874C-43FE-4C20-8201-C5970C6B69F4}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
@@ -16575,11 +16656,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="149" t="s">
+      <c r="K2" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -16591,10 +16672,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="150"/>
+      <c r="B3" s="160"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -16659,12 +16740,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.5">
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="148" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="136"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="150"/>
       <c r="F6" s="71" t="s">
         <v>267</v>
       </c>
@@ -16734,12 +16815,12 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="22.5">
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="148" t="s">
         <v>220</v>
       </c>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="136"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="150"/>
       <c r="F8" s="89" t="s">
         <v>267</v>
       </c>
@@ -16809,12 +16890,12 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="22.5">
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="148" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="136"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="150"/>
       <c r="F10" s="71" t="s">
         <v>239</v>
       </c>
@@ -16884,12 +16965,12 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="22.5">
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="148" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="135"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="136"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="150"/>
       <c r="F12" s="71" t="s">
         <v>267</v>
       </c>
@@ -16911,14 +16992,14 @@
       <c r="P12" s="74"/>
     </row>
     <row r="13" spans="1:16" ht="42">
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="144" t="s">
         <v>299</v>
       </c>
       <c r="C13" s="38"/>
-      <c r="D13" s="128" t="s">
+      <c r="D13" s="144" t="s">
         <v>263</v>
       </c>
-      <c r="E13" s="131">
+      <c r="E13" s="156">
         <v>45671</v>
       </c>
       <c r="F13" s="68" t="s">
@@ -16959,10 +17040,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="21">
-      <c r="B14" s="130"/>
+      <c r="B14" s="145"/>
       <c r="C14" s="38"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="133"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="158"/>
       <c r="F14" s="68" t="s">
         <v>301</v>
       </c>
@@ -16993,12 +17074,12 @@
       <c r="P14" s="38"/>
     </row>
     <row r="15" spans="1:16" ht="22.5">
-      <c r="B15" s="127" t="s">
+      <c r="B15" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
       <c r="F15" s="71" t="s">
         <v>301</v>
       </c>
@@ -17065,12 +17146,12 @@
       <c r="P16" s="41"/>
     </row>
     <row r="17" spans="2:16" ht="22.5">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
       <c r="F17" s="102" t="s">
         <v>423</v>
       </c>
@@ -17135,12 +17216,12 @@
       <c r="P18" s="38"/>
     </row>
     <row r="19" spans="2:16" ht="22.5">
-      <c r="B19" s="127" t="s">
+      <c r="B19" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
       <c r="F19" s="71" t="s">
         <v>239</v>
       </c>
@@ -17184,7 +17265,7 @@
       <c r="I20" s="41">
         <v>6250</v>
       </c>
-      <c r="J20" s="182">
+      <c r="J20" s="127">
         <v>10.200000000000001</v>
       </c>
       <c r="K20" s="41">
@@ -17205,12 +17286,12 @@
       <c r="P20" s="41"/>
     </row>
     <row r="21" spans="2:16" ht="22.5">
-      <c r="B21" s="127" t="s">
+      <c r="B21" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
       <c r="F21" s="102" t="s">
         <v>559</v>
       </c>
@@ -17219,7 +17300,7 @@
       <c r="I21" s="103">
         <v>6250</v>
       </c>
-      <c r="J21" s="183">
+      <c r="J21" s="128">
         <v>10.200000000000001</v>
       </c>
       <c r="K21" s="103"/>
